--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Equities" sheetId="1" r:id="rId1"/>
     <sheet name="Commodities" sheetId="2" r:id="rId2"/>
+    <sheet name="EI" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="230">
   <si>
     <t>Country</t>
   </si>
@@ -41,219 +42,213 @@
     <t>Indices</t>
   </si>
   <si>
+    <t>Taiwan Weighted</t>
+  </si>
+  <si>
+    <t>KOSPI</t>
+  </si>
+  <si>
+    <t>S&amp;P/TSX</t>
+  </si>
+  <si>
+    <t>S&amp;P Lima General</t>
+  </si>
+  <si>
+    <t>KOSDAQ</t>
+  </si>
+  <si>
     <t>Bovespa</t>
   </si>
   <si>
+    <t>IDX Composite</t>
+  </si>
+  <si>
+    <t>Nasdaq</t>
+  </si>
+  <si>
+    <t>S&amp;P/BMV IPC</t>
+  </si>
+  <si>
+    <t>S&amp;P CLX IPSA</t>
+  </si>
+  <si>
+    <t>Tadawul All Share</t>
+  </si>
+  <si>
+    <t>SmallCap 2000</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Nikkei 225</t>
+  </si>
+  <si>
+    <t>NZX 50</t>
+  </si>
+  <si>
+    <t>KLCI</t>
+  </si>
+  <si>
+    <t>S&amp;P/ASX 200</t>
+  </si>
+  <si>
+    <t>OMXC25</t>
+  </si>
+  <si>
+    <t>MOEX</t>
+  </si>
+  <si>
+    <t>FTSE/JSE Top 40</t>
+  </si>
+  <si>
+    <t>PSEi Composite</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>Nifty 50</t>
+  </si>
+  <si>
     <t>BSE Sensex</t>
   </si>
   <si>
     <t>SZSE Component</t>
   </si>
   <si>
-    <t>Nifty 50</t>
-  </si>
-  <si>
-    <t>KOSDAQ</t>
-  </si>
-  <si>
-    <t>OMXC25</t>
-  </si>
-  <si>
-    <t>S&amp;P Lima General</t>
-  </si>
-  <si>
-    <t>S&amp;P/ASX 200</t>
-  </si>
-  <si>
-    <t>NZX 50</t>
-  </si>
-  <si>
-    <t>MOEX</t>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>China A50</t>
+  </si>
+  <si>
+    <t>CAC 40</t>
+  </si>
+  <si>
+    <t>Hang Seng</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>FTSE Singapore</t>
+  </si>
+  <si>
+    <t>AEX</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50</t>
+  </si>
+  <si>
+    <t>COLCAP</t>
+  </si>
+  <si>
+    <t>IBEX 35</t>
   </si>
   <si>
     <t>DAX</t>
   </si>
   <si>
-    <t>China A50</t>
-  </si>
-  <si>
-    <t>S&amp;P/BMV IPC</t>
-  </si>
-  <si>
-    <t>KLCI</t>
-  </si>
-  <si>
-    <t>Taiwan Weighted</t>
-  </si>
-  <si>
-    <t>COLCAP</t>
-  </si>
-  <si>
     <t>FTSE MIB</t>
   </si>
   <si>
-    <t>AEX</t>
-  </si>
-  <si>
-    <t>KOSPI</t>
-  </si>
-  <si>
-    <t>SmallCap 2000</t>
-  </si>
-  <si>
-    <t>Euro Stoxx 50</t>
-  </si>
-  <si>
-    <t>FTSE/JSE Top 40</t>
-  </si>
-  <si>
-    <t>Hang Seng</t>
-  </si>
-  <si>
-    <t>SMI</t>
-  </si>
-  <si>
-    <t>S&amp;P/TSX</t>
-  </si>
-  <si>
-    <t>S&amp;P 500</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>FTSE 100</t>
-  </si>
-  <si>
-    <t>IDX Composite</t>
-  </si>
-  <si>
-    <t>S&amp;P CLX IPSA</t>
-  </si>
-  <si>
-    <t>BIST 100</t>
-  </si>
-  <si>
-    <t>CAC 40</t>
-  </si>
-  <si>
-    <t>FTSE Singapore</t>
-  </si>
-  <si>
-    <t>IBEX 35</t>
-  </si>
-  <si>
-    <t>Tadawul All Share</t>
-  </si>
-  <si>
-    <t>Nasdaq</t>
-  </si>
-  <si>
-    <t>Nikkei 225</t>
-  </si>
-  <si>
-    <t>PSEi Composite</t>
-  </si>
-  <si>
     <t>HNX 30</t>
   </si>
   <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
     <t>Brazil</t>
   </si>
   <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Russia</t>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
   </si>
   <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
     <t>Colombia</t>
   </si>
   <si>
+    <t>Spain</t>
+  </si>
+  <si>
     <t>Italy</t>
   </si>
   <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
     <t>Vietnam</t>
   </si>
   <si>
@@ -324,6 +319,393 @@
   </si>
   <si>
     <t>Lumber</t>
+  </si>
+  <si>
+    <t>United Spirits (UNSP)</t>
+  </si>
+  <si>
+    <t>/  -1.99</t>
+  </si>
+  <si>
+    <t>10.3B</t>
+  </si>
+  <si>
+    <t>/  9.08B</t>
+  </si>
+  <si>
+    <t>422.46B</t>
+  </si>
+  <si>
+    <t>Bharti Infratel (BHRI)</t>
+  </si>
+  <si>
+    <t>/  3.95</t>
+  </si>
+  <si>
+    <t>35.05B</t>
+  </si>
+  <si>
+    <t>/  36B</t>
+  </si>
+  <si>
+    <t>354.85B</t>
+  </si>
+  <si>
+    <t>Monday, July 27, 2020</t>
+  </si>
+  <si>
+    <t>Kotak Mahindra Bank (KTKM)</t>
+  </si>
+  <si>
+    <t>/  6.63</t>
+  </si>
+  <si>
+    <t>44.97B</t>
+  </si>
+  <si>
+    <t>/  43.79B</t>
+  </si>
+  <si>
+    <t>2.70T</t>
+  </si>
+  <si>
+    <t>Tech Mahindra (TEML)</t>
+  </si>
+  <si>
+    <t>/  8.87</t>
+  </si>
+  <si>
+    <t>91.06B</t>
+  </si>
+  <si>
+    <t>/  89.6B</t>
+  </si>
+  <si>
+    <t>658.91B</t>
+  </si>
+  <si>
+    <t>Marico (MRCO)</t>
+  </si>
+  <si>
+    <t>/  2.09</t>
+  </si>
+  <si>
+    <t>19.25B</t>
+  </si>
+  <si>
+    <t>/  18.64B</t>
+  </si>
+  <si>
+    <t>469.71B</t>
+  </si>
+  <si>
+    <t>Havells India (HVEL)</t>
+  </si>
+  <si>
+    <t>/  -0.38</t>
+  </si>
+  <si>
+    <t>14.79B</t>
+  </si>
+  <si>
+    <t>/  13.51B</t>
+  </si>
+  <si>
+    <t>365.57B</t>
+  </si>
+  <si>
+    <t>IndusInd Bank (INBK)</t>
+  </si>
+  <si>
+    <t>/  3.92</t>
+  </si>
+  <si>
+    <t>48.3B</t>
+  </si>
+  <si>
+    <t>/  44.24B</t>
+  </si>
+  <si>
+    <t>364.12B</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>/  0.33</t>
+  </si>
+  <si>
+    <t>Tuesday, July 28, 2020</t>
+  </si>
+  <si>
+    <t>Bharti Airtel (BRTI)</t>
+  </si>
+  <si>
+    <t>239.39B</t>
+  </si>
+  <si>
+    <t>/  237.69B</t>
+  </si>
+  <si>
+    <t>3.03T</t>
+  </si>
+  <si>
+    <t>Nestle India (NEST)</t>
+  </si>
+  <si>
+    <t>/  54.53</t>
+  </si>
+  <si>
+    <t>30.51B</t>
+  </si>
+  <si>
+    <t>/  31.19B</t>
+  </si>
+  <si>
+    <t>1.59T</t>
+  </si>
+  <si>
+    <t>UltraTech Cement (ULTC)</t>
+  </si>
+  <si>
+    <t>/  11.68</t>
+  </si>
+  <si>
+    <t>76.32B</t>
+  </si>
+  <si>
+    <t>/  72.55B</t>
+  </si>
+  <si>
+    <t>1.19T</t>
+  </si>
+  <si>
+    <t>Wednesday, July 29, 2020</t>
+  </si>
+  <si>
+    <t>Housing Development Finance (HDFC)</t>
+  </si>
+  <si>
+    <t>/  17.21</t>
+  </si>
+  <si>
+    <t>130.18B</t>
+  </si>
+  <si>
+    <t>/  39.63B</t>
+  </si>
+  <si>
+    <t>3.10T</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki (MRTI)</t>
+  </si>
+  <si>
+    <t>/  -2</t>
+  </si>
+  <si>
+    <t>41.07B</t>
+  </si>
+  <si>
+    <t>/  38.61B</t>
+  </si>
+  <si>
+    <t>1.89T</t>
+  </si>
+  <si>
+    <t>Dabur India (DABU)</t>
+  </si>
+  <si>
+    <t>/  1.94</t>
+  </si>
+  <si>
+    <t>19.8B</t>
+  </si>
+  <si>
+    <t>/  19.81B</t>
+  </si>
+  <si>
+    <t>906.24B</t>
+  </si>
+  <si>
+    <t>Dr. Reddy's Labs (REDY)</t>
+  </si>
+  <si>
+    <t>/  31.29</t>
+  </si>
+  <si>
+    <t>44.18B</t>
+  </si>
+  <si>
+    <t>/  41.75B</t>
+  </si>
+  <si>
+    <t>750.32B</t>
+  </si>
+  <si>
+    <t>Colgate-Palmolive India (COLG)</t>
+  </si>
+  <si>
+    <t>/  6.47</t>
+  </si>
+  <si>
+    <t>10.41B</t>
+  </si>
+  <si>
+    <t>/  9.62B</t>
+  </si>
+  <si>
+    <t>387.04B</t>
+  </si>
+  <si>
+    <t>Interglobe Aviation Ltd (INGL)</t>
+  </si>
+  <si>
+    <t>/  -47.11</t>
+  </si>
+  <si>
+    <t>7.67B</t>
+  </si>
+  <si>
+    <t>/  14.54B</t>
+  </si>
+  <si>
+    <t>377.10B</t>
+  </si>
+  <si>
+    <t>/  --</t>
+  </si>
+  <si>
+    <t>Thursday, July 30, 2020</t>
+  </si>
+  <si>
+    <t>Reliance Industries (RELI)</t>
+  </si>
+  <si>
+    <t>/  13.99</t>
+  </si>
+  <si>
+    <t>882.53B</t>
+  </si>
+  <si>
+    <t>/  1,057.99B</t>
+  </si>
+  <si>
+    <t>13.12T</t>
+  </si>
+  <si>
+    <t>Torrent Pharma (TORP)</t>
+  </si>
+  <si>
+    <t>/  12.93</t>
+  </si>
+  <si>
+    <t>20.56B</t>
+  </si>
+  <si>
+    <t>/  19.46B</t>
+  </si>
+  <si>
+    <t>450.37B</t>
+  </si>
+  <si>
+    <t>Piramal Enterprises (PIRA)</t>
+  </si>
+  <si>
+    <t>29.37B</t>
+  </si>
+  <si>
+    <t>330.81B</t>
+  </si>
+  <si>
+    <t>Friday, July 31, 2020</t>
+  </si>
+  <si>
+    <t>SBI (SBI)</t>
+  </si>
+  <si>
+    <t>/  5.26</t>
+  </si>
+  <si>
+    <t>893.5B</t>
+  </si>
+  <si>
+    <t>/  324.37B</t>
+  </si>
+  <si>
+    <t>1.71T</t>
+  </si>
+  <si>
+    <t>Sun Pharma (SUN)</t>
+  </si>
+  <si>
+    <t>/  4.52</t>
+  </si>
+  <si>
+    <t>75.85B</t>
+  </si>
+  <si>
+    <t>/  79.73B</t>
+  </si>
+  <si>
+    <t>1.29T</t>
+  </si>
+  <si>
+    <t>Indian Oil (IOC)</t>
+  </si>
+  <si>
+    <t>/  6.09</t>
+  </si>
+  <si>
+    <t>901.1B</t>
+  </si>
+  <si>
+    <t>/  795.46B</t>
+  </si>
+  <si>
+    <t>812.98B</t>
+  </si>
+  <si>
+    <t>Berger Paints (BRGR)</t>
+  </si>
+  <si>
+    <t>/  0.35</t>
+  </si>
+  <si>
+    <t>/  8.32B</t>
+  </si>
+  <si>
+    <t>510.86B</t>
+  </si>
+  <si>
+    <t>Tata Motors (TAMO)</t>
+  </si>
+  <si>
+    <t>/  -16.29</t>
+  </si>
+  <si>
+    <t>286.9B</t>
+  </si>
+  <si>
+    <t>/  285.2B</t>
+  </si>
+  <si>
+    <t>377.91B</t>
+  </si>
+  <si>
+    <t>Sunday, July 26, 2020</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>EPS/Forecast</t>
+  </si>
+  <si>
+    <t>Revenue/Forecast</t>
+  </si>
+  <si>
+    <t>Marketcap</t>
   </si>
 </sst>
 </file>
@@ -333,7 +715,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,16 +731,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0EA600"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF3F4A54"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDF4FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -381,11 +824,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDADADA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBABABA"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDADADA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBABABA"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDADADA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBABABA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDADADA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBABABA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBABABA"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFBABABA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDADADA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFBABABA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDADADA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBABABA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -393,8 +914,54 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -694,13 +1261,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -726,553 +1293,553 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2">
-        <v>102293.31</v>
+        <v>12722.92</v>
       </c>
       <c r="D2">
-        <v>1740.0399999999941</v>
+        <v>309.8799999999992</v>
       </c>
       <c r="E2">
-        <v>1.7304658515829411E-2</v>
+        <v>2.4964070042471361E-2</v>
       </c>
       <c r="F2">
-        <v>-0.1247849893290367</v>
+        <v>6.4380224472449621E-2</v>
       </c>
       <c r="G2">
-        <v>6.6767540851799145E-2</v>
+        <v>3.1013753790271489E-2</v>
       </c>
       <c r="H2">
-        <v>-0.30623723346394638</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.260932303217162E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>38140.47</v>
+        <v>2267.0100000000002</v>
       </c>
       <c r="D3">
-        <v>1668.7900000000011</v>
+        <v>50.820000000000157</v>
       </c>
       <c r="E3">
-        <v>4.5755775440012643E-2</v>
+        <v>2.293124686962766E-2</v>
       </c>
       <c r="F3">
-        <v>-6.234931458186177E-2</v>
+        <v>5.1942628313697448E-2</v>
       </c>
       <c r="G3">
-        <v>5.0017378268893742E-2</v>
+        <v>2.8515220816213601E-2</v>
       </c>
       <c r="H3">
-        <v>-0.1010608863116428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.9962501725839141E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>13661.5</v>
+        <v>16299.29</v>
       </c>
       <c r="D4">
-        <v>665.15999999999985</v>
+        <v>280.64000000000118</v>
       </c>
       <c r="E4">
-        <v>5.1180563143161877E-2</v>
+        <v>1.7519578741030051E-2</v>
       </c>
       <c r="F4">
-        <v>0.27698216627548189</v>
+        <v>-4.7129953167027838E-2</v>
       </c>
       <c r="G4">
-        <v>4.9543435971900467E-2</v>
+        <v>2.325464382049169E-2</v>
       </c>
       <c r="H4">
-        <v>0.27074200357642192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-7.2512226732239449E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>11215.45</v>
+        <v>17614.34</v>
       </c>
       <c r="D5">
-        <v>475.5</v>
+        <v>345.90000000000151</v>
       </c>
       <c r="E5">
-        <v>4.4273949133841313E-2</v>
+        <v>2.003076131949388E-2</v>
       </c>
       <c r="F5">
-        <v>-6.4837551748720967E-2</v>
+        <v>-0.14362086677664121</v>
       </c>
       <c r="G5">
-        <v>4.8529513310747729E-2</v>
+        <v>2.1195786139529101E-2</v>
       </c>
       <c r="H5">
-        <v>-0.1034463948471859</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.18959443214132879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>801.69</v>
+        <v>814.19</v>
       </c>
       <c r="D6">
-        <v>26.62</v>
+        <v>12.5</v>
       </c>
       <c r="E6">
-        <v>3.4345284942005172E-2</v>
+        <v>1.5592061769512E-2</v>
       </c>
       <c r="F6">
-        <v>0.2233751964718991</v>
+        <v>0.24245013810257771</v>
       </c>
       <c r="G6">
-        <v>3.7144480672752112E-2</v>
+        <v>2.113597259502931E-2</v>
       </c>
       <c r="H6">
-        <v>0.1913099025156948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2164893959674534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>1465.88</v>
+        <v>105008.7</v>
       </c>
       <c r="D7">
-        <v>29.400000000000091</v>
+        <v>2715.389999999999</v>
       </c>
       <c r="E7">
-        <v>2.0466696368901749E-2</v>
+        <v>2.6545137702553619E-2</v>
       </c>
       <c r="F7">
-        <v>0.18679361378282969</v>
+        <v>-0.1015522863514341</v>
       </c>
       <c r="G7">
-        <v>3.4353121566382587E-2</v>
+        <v>1.6476010544067329E-2</v>
       </c>
       <c r="H7">
-        <v>0.23489839297943149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.29480679080741712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>17268.439999999999</v>
+        <v>5149.63</v>
       </c>
       <c r="D8">
-        <v>618.94999999999709</v>
+        <v>4.6199999999998909</v>
       </c>
       <c r="E8">
-        <v>3.7175312877451239E-2</v>
+        <v>8.979574383722877E-4</v>
       </c>
       <c r="F8">
-        <v>-0.1604379341309651</v>
+        <v>-0.1770335922268034</v>
       </c>
       <c r="G8">
-        <v>3.3625341374073692E-2</v>
+        <v>1.2784089737805321E-2</v>
       </c>
       <c r="H8">
-        <v>-0.20641508821507901</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.2068597286642071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9">
-        <v>6094.5</v>
+        <v>10587.81</v>
       </c>
       <c r="D9">
-        <v>83.600000000000364</v>
+        <v>126.3899999999994</v>
       </c>
       <c r="E9">
-        <v>1.3908067011595641E-2</v>
+        <v>1.2081533864427559E-2</v>
       </c>
       <c r="F9">
-        <v>-9.5194263402467394E-2</v>
+        <v>0.167154827166931</v>
       </c>
       <c r="G9">
-        <v>3.2949555067441239E-2</v>
+        <v>1.2081533864427559E-2</v>
       </c>
       <c r="H9">
-        <v>-6.9576258427072935E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.167154827166931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10">
-        <v>11693.41</v>
+        <v>37136.78</v>
       </c>
       <c r="D10">
-        <v>214.94000000000051</v>
+        <v>-296.52000000000407</v>
       </c>
       <c r="E10">
-        <v>1.872549216054065E-2</v>
+        <v>-7.9212893332942791E-3</v>
       </c>
       <c r="F10">
-        <v>5.6840269296793977E-3</v>
+        <v>-0.16537746683357579</v>
       </c>
       <c r="G10">
-        <v>3.1801336839092358E-2</v>
+        <v>1.0035220493695761E-2</v>
       </c>
       <c r="H10">
-        <v>5.9987266794760963E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.28038426066902838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11">
-        <v>2851.79</v>
+        <v>3953.3</v>
       </c>
       <c r="D11">
-        <v>91.779999999999745</v>
+        <v>-30.980000000000022</v>
       </c>
       <c r="E11">
-        <v>3.3253502704700288E-2</v>
+        <v>-7.7755579427148946E-3</v>
       </c>
       <c r="F11">
-        <v>-7.375433194646086E-2</v>
+        <v>-0.19062564619123371</v>
       </c>
       <c r="G11">
-        <v>3.1429037981743242E-2</v>
+        <v>5.9889345341699318E-3</v>
       </c>
       <c r="H11">
-        <v>-0.19225227532225461</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.1832473462877113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12">
-        <v>13103.39</v>
+        <v>7459.21</v>
       </c>
       <c r="D12">
-        <v>228.4200000000001</v>
+        <v>32.430000000000291</v>
       </c>
       <c r="E12">
-        <v>1.7741400562486739E-2</v>
+        <v>4.3666299526847752E-3</v>
       </c>
       <c r="F12">
-        <v>-1.7978226539366871E-3</v>
+        <v>-9.1019762055926434E-2</v>
       </c>
       <c r="G12">
-        <v>3.1248468001276789E-2</v>
+        <v>4.1709573903478958E-3</v>
       </c>
       <c r="H12">
-        <v>3.4578073866092567E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-8.9961981964800319E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C13">
-        <v>15464.86</v>
+        <v>1495.1</v>
       </c>
       <c r="D13">
-        <v>483.47000000000122</v>
+        <v>4.8999999999998636</v>
       </c>
       <c r="E13">
-        <v>3.2271371348052469E-2</v>
+        <v>3.2881492417125009E-3</v>
       </c>
       <c r="F13">
-        <v>7.836842391524157E-2</v>
+        <v>-0.1011026538244172</v>
       </c>
       <c r="G13">
-        <v>3.066369368599986E-2</v>
+        <v>3.2881492417125009E-3</v>
       </c>
       <c r="H13">
-        <v>7.3098816717525716E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.1011026538244172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C14">
-        <v>37433.300000000003</v>
+        <v>3246.22</v>
       </c>
       <c r="D14">
-        <v>967.63000000000466</v>
+        <v>10.559999999999951</v>
       </c>
       <c r="E14">
-        <v>2.653536874545304E-2</v>
+        <v>3.263630913013182E-3</v>
       </c>
       <c r="F14">
-        <v>-0.158713392200974</v>
+        <v>-1.8482694037591511E-5</v>
       </c>
       <c r="G14">
-        <v>2.414912498536714E-2</v>
+        <v>3.263630913013182E-3</v>
       </c>
       <c r="H14">
-        <v>-0.28753401393346439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-1.8482694037591511E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15">
-        <v>1606.42</v>
+        <v>22339.23</v>
       </c>
       <c r="D15">
-        <v>32.940000000000047</v>
+        <v>-412.38000000000102</v>
       </c>
       <c r="E15">
-        <v>2.09344891577905E-2</v>
+        <v>-1.812531069229828E-2</v>
       </c>
       <c r="F15">
-        <v>5.4200881233728024E-3</v>
+        <v>-3.7303823423196707E-2</v>
       </c>
       <c r="G15">
-        <v>2.3216308674492089E-2</v>
+        <v>1.908254017590316E-3</v>
       </c>
       <c r="H15">
-        <v>-3.0179475582586709E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-1.042986690024972E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16">
-        <v>12413.04</v>
+        <v>11705.09</v>
       </c>
       <c r="D16">
-        <v>255.30000000000109</v>
+        <v>11.680000000000289</v>
       </c>
       <c r="E16">
-        <v>2.099896855830119E-2</v>
+        <v>9.9885320022141677E-4</v>
       </c>
       <c r="F16">
-        <v>3.8456132836290458E-2</v>
+        <v>6.6885576383897138E-3</v>
       </c>
       <c r="G16">
-        <v>2.257050256018367E-2</v>
+        <v>8.789403407718499E-4</v>
       </c>
       <c r="H16">
-        <v>5.9742723135805642E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.8829395431200258E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17">
-        <v>1181.78</v>
+        <v>1603.75</v>
       </c>
       <c r="D17">
-        <v>28.629999999999882</v>
+        <v>-2.6700000000000732</v>
       </c>
       <c r="E17">
-        <v>2.482764601309451E-2</v>
+        <v>-1.662080900387219E-3</v>
       </c>
       <c r="F17">
-        <v>-0.29508675864454897</v>
+        <v>3.7489985980372338E-3</v>
       </c>
       <c r="G17">
-        <v>2.156457968586567E-2</v>
+        <v>6.9224046337290623E-4</v>
       </c>
       <c r="H17">
-        <v>-0.3681781589948071</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-2.9508126573375652E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18">
-        <v>20454.46</v>
+        <v>6051.1</v>
       </c>
       <c r="D18">
-        <v>98.369999999998981</v>
+        <v>-43.399999999999643</v>
       </c>
       <c r="E18">
-        <v>4.8324604577794084E-3</v>
+        <v>-7.1211748297644872E-3</v>
       </c>
       <c r="F18">
-        <v>-0.13259791979149579</v>
+        <v>-0.1016375432397523</v>
       </c>
       <c r="G18">
-        <v>1.8168205471775559E-2</v>
+        <v>-2.8273722251165312E-3</v>
       </c>
       <c r="H18">
-        <v>-0.1009885634636907</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-7.2206912671585077E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19">
-        <v>576.66999999999996</v>
+        <v>1432.4</v>
       </c>
       <c r="D19">
-        <v>2.7299999999999049</v>
+        <v>-33.480000000000018</v>
       </c>
       <c r="E19">
-        <v>4.7565947660033192E-3</v>
+        <v>-2.283952301689085E-2</v>
       </c>
       <c r="F19">
-        <v>-5.0342533429945442E-2</v>
+        <v>0.15968781372453769</v>
       </c>
       <c r="G19">
-        <v>1.809133292008935E-2</v>
+        <v>-4.5769164139598528E-3</v>
       </c>
       <c r="H19">
-        <v>-1.5735674701917168E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2292463662550315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C20">
-        <v>2216.19</v>
+        <v>2882.63</v>
       </c>
       <c r="D20">
-        <v>32.429999999999843</v>
+        <v>30.840000000000149</v>
       </c>
       <c r="E20">
-        <v>1.4850533025607239E-2</v>
+        <v>1.08142605170789E-2</v>
       </c>
       <c r="F20">
-        <v>2.8361027716037102E-2</v>
+        <v>-6.3737669989314183E-2</v>
       </c>
       <c r="G20">
-        <v>1.7596971106533799E-2</v>
+        <v>-7.9569254793687705E-3</v>
       </c>
       <c r="H20">
-        <v>1.4071555581618429E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.19867946377364529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21">
-        <v>1490.2</v>
+        <v>51451.44</v>
       </c>
       <c r="D21">
-        <v>22.6400000000001</v>
+        <v>-232.16999999999831</v>
       </c>
       <c r="E21">
-        <v>1.542696721088066E-2</v>
+        <v>-4.4921397711963351E-3</v>
       </c>
       <c r="F21">
-        <v>-0.10404867549270699</v>
+        <v>8.8594795136669457E-3</v>
       </c>
       <c r="G21">
-        <v>1.542696721088066E-2</v>
+        <v>-8.61300059111203E-3</v>
       </c>
       <c r="H21">
-        <v>-0.10404867549270699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.12709231096323559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C22">
-        <v>3371.74</v>
+        <v>5928.45</v>
       </c>
       <c r="D22">
-        <v>6.3899999999998727</v>
+        <v>-100.5600000000004</v>
       </c>
       <c r="E22">
-        <v>1.8987623872701591E-3</v>
+        <v>-1.6679355317042122E-2</v>
       </c>
       <c r="F22">
-        <v>-0.1014731433809813</v>
+        <v>-0.239734696782583</v>
       </c>
       <c r="G22">
-        <v>1.519557250320536E-2</v>
+        <v>-9.3598006723882854E-3</v>
       </c>
       <c r="H22">
-        <v>-6.8729556261446056E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.2082294168305823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1280,25 +1847,25 @@
         <v>64</v>
       </c>
       <c r="C23">
-        <v>51683.61</v>
+        <v>10095.34</v>
       </c>
       <c r="D23">
-        <v>320.12000000000262</v>
+        <v>-288.03999999999911</v>
       </c>
       <c r="E23">
-        <v>6.2324425384645554E-3</v>
+        <v>-2.7740485275507539E-2</v>
       </c>
       <c r="F23">
-        <v>1.341186726722032E-2</v>
+        <v>-5.3450359620492723E-2</v>
       </c>
       <c r="G23">
-        <v>1.1917032546699961E-2</v>
+        <v>-9.6468127163523709E-3</v>
       </c>
       <c r="H23">
-        <v>-0.11950863834483071</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.8187617389660069E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1306,438 +1873,412 @@
         <v>65</v>
       </c>
       <c r="C24">
-        <v>25263</v>
+        <v>11102.15</v>
       </c>
       <c r="D24">
-        <v>292.31000000000131</v>
+        <v>-113.30000000000111</v>
       </c>
       <c r="E24">
-        <v>1.170612426008266E-2</v>
+        <v>-1.0102135892897881E-2</v>
       </c>
       <c r="F24">
-        <v>-0.104980162040998</v>
+        <v>-7.4284689882890498E-2</v>
       </c>
       <c r="G24">
-        <v>1.162782200751078E-2</v>
+        <v>-1.025029982656811E-2</v>
       </c>
       <c r="H24">
-        <v>-0.1016668631326785</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.1126363381105928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25">
-        <v>10383.379999999999</v>
+        <v>37736.07</v>
       </c>
       <c r="D25">
-        <v>-50.050000000001091</v>
+        <v>-404.40000000000151</v>
       </c>
       <c r="E25">
-        <v>-4.7970801548484756E-3</v>
+        <v>-1.0602910766437931E-2</v>
       </c>
       <c r="F25">
-        <v>-2.644342786634557E-2</v>
+        <v>-7.2291141129439573E-2</v>
       </c>
       <c r="G25">
-        <v>1.0847266944599591E-2</v>
+        <v>-1.07509997461378E-2</v>
       </c>
       <c r="H25">
-        <v>1.7635702777130561E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.1107253804946996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26">
-        <v>16018.65</v>
+        <v>13466.85</v>
       </c>
       <c r="D26">
-        <v>-5.8500000000003638</v>
+        <v>-194.64999999999961</v>
       </c>
       <c r="E26">
-        <v>-3.6506599269869883E-4</v>
+        <v>-1.4248069392087229E-2</v>
       </c>
       <c r="F26">
-        <v>-6.3536400929059655E-2</v>
+        <v>0.25878763575793079</v>
       </c>
       <c r="G26">
-        <v>6.3179080821404998E-3</v>
+        <v>-1.4473310430002551E-2</v>
       </c>
       <c r="H26">
-        <v>-9.3590457791786541E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.25235016008221672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C27">
-        <v>3235.66</v>
+        <v>5989.99</v>
       </c>
       <c r="D27">
-        <v>20.089999999999691</v>
+        <v>-221.44999999999979</v>
       </c>
       <c r="E27">
-        <v>6.2477259086257666E-3</v>
+        <v>-3.5651958322063797E-2</v>
       </c>
       <c r="F27">
-        <v>-3.2714368446346009E-3</v>
+        <v>-0.2092777353887747</v>
       </c>
       <c r="G27">
-        <v>6.2477259086257666E-3</v>
+        <v>-1.6521937081645399E-2</v>
       </c>
       <c r="H27">
-        <v>-3.2714368446346009E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.2151803434842354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28">
-        <v>1359.65</v>
+        <v>15202.64</v>
       </c>
       <c r="D28">
-        <v>11.790000000000189</v>
+        <v>-262.22000000000122</v>
       </c>
       <c r="E28">
-        <v>8.7471992640186791E-3</v>
+        <v>-1.695585993019022E-2</v>
       </c>
       <c r="F28">
-        <v>-0.13315269365635951</v>
+        <v>6.008375996619475E-2</v>
       </c>
       <c r="G28">
-        <v>5.8441777252984384E-3</v>
+        <v>-1.7180482246972661E-2</v>
       </c>
       <c r="H28">
-        <v>-0.17364270226440681</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.4662461547662737E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29">
-        <v>6211.44</v>
+        <v>4852.9399999999996</v>
       </c>
       <c r="D29">
-        <v>-39.25</v>
+        <v>-180.82000000000059</v>
       </c>
       <c r="E29">
-        <v>-6.2793067645331444E-3</v>
+        <v>-3.5921458313467602E-2</v>
       </c>
       <c r="F29">
-        <v>-0.18004472406519059</v>
+        <v>-0.19300451144823649</v>
       </c>
       <c r="G29">
-        <v>4.6856718025212194E-3</v>
+        <v>-1.8075481291922931E-2</v>
       </c>
       <c r="H29">
-        <v>-0.20199576776841849</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.14811386076007299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30">
-        <v>5145.01</v>
+        <v>24710.59</v>
       </c>
       <c r="D30">
-        <v>46.640000000000327</v>
+        <v>-552.40999999999985</v>
       </c>
       <c r="E30">
-        <v>9.1480218187383056E-3</v>
+        <v>-2.1866365831453068E-2</v>
       </c>
       <c r="F30">
-        <v>-0.17777191804902989</v>
+        <v>-0.12455099324421751</v>
       </c>
       <c r="G30">
-        <v>4.4023469861824696E-3</v>
+        <v>-2.1528158048154111E-2</v>
       </c>
       <c r="H30">
-        <v>-0.21687131603624921</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.1210063208830522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31">
-        <v>3984.28</v>
+        <v>1315.74</v>
       </c>
       <c r="D31">
-        <v>-57.339999999999691</v>
+        <v>-43.910000000000082</v>
       </c>
       <c r="E31">
-        <v>-1.4187380307896239E-2</v>
+        <v>-3.2295075938660767E-2</v>
       </c>
       <c r="F31">
-        <v>-0.1842829913254265</v>
+        <v>-0.16114759324195091</v>
       </c>
       <c r="G31">
-        <v>4.1825160700308386E-3</v>
+        <v>-2.6166463097128001E-2</v>
       </c>
       <c r="H31">
-        <v>-0.18810970411867239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.19526555000064769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32">
-        <v>119031.16</v>
+        <v>267.41000000000003</v>
       </c>
       <c r="D32">
-        <v>223.63000000000471</v>
+        <v>-10.23999999999995</v>
       </c>
       <c r="E32">
-        <v>1.882288100762741E-3</v>
+        <v>-3.6880965244012083E-2</v>
       </c>
       <c r="F32">
-        <v>6.8380534714624241E-2</v>
+        <v>-0.20392367003066289</v>
       </c>
       <c r="G32">
-        <v>3.7424589842225409E-3</v>
+        <v>-2.9265025150649101E-2</v>
       </c>
       <c r="H32">
-        <v>-6.7855807922254208E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.21831480601678249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33">
-        <v>5033.76</v>
+        <v>549.20000000000005</v>
       </c>
       <c r="D33">
-        <v>-51.519999999999527</v>
+        <v>-27.46999999999991</v>
       </c>
       <c r="E33">
-        <v>-1.0131202215020511E-2</v>
+        <v>-4.7635562800214859E-2</v>
       </c>
       <c r="F33">
-        <v>-0.16293595007308451</v>
+        <v>-9.5580001317436158E-2</v>
       </c>
       <c r="G33">
-        <v>3.0059508966111541E-3</v>
+        <v>-3.0006424584285259E-2</v>
       </c>
       <c r="H33">
-        <v>-0.1324321543974096</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-4.5269927949976418E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34">
-        <v>277.64999999999998</v>
+        <v>3208.2</v>
       </c>
       <c r="D34">
-        <v>-5.0000000000011369E-2</v>
+        <v>-163.54</v>
       </c>
       <c r="E34">
-        <v>-1.8005041411595091E-4</v>
+        <v>-4.8503146743224528E-2</v>
       </c>
       <c r="F34">
-        <v>-0.17343931410199179</v>
+        <v>-0.14505452336030189</v>
       </c>
       <c r="G34">
-        <v>2.5404958221668661E-3</v>
+        <v>-3.0890068300894021E-2</v>
       </c>
       <c r="H34">
-        <v>-0.19474911872364761</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-9.7496563875133946E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35">
-        <v>7384.9</v>
+        <v>1164.6600000000001</v>
       </c>
       <c r="D35">
-        <v>-89.800000000000182</v>
+        <v>-17.119999999999891</v>
       </c>
       <c r="E35">
-        <v>-1.2013860088030291E-2</v>
+        <v>-1.448662187547589E-2</v>
       </c>
       <c r="F35">
-        <v>-0.23081169473695171</v>
+        <v>-0.30529857022708151</v>
       </c>
       <c r="G35">
-        <v>1.098307121641495E-3</v>
+        <v>-3.3238293710031293E-2</v>
       </c>
       <c r="H35">
-        <v>-0.20278138701807261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.38917883891855032</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36">
-        <v>7426.78</v>
+        <v>6996.6</v>
       </c>
       <c r="D36">
-        <v>1.9999999999527059E-2</v>
+        <v>-388.29999999999927</v>
       </c>
       <c r="E36">
-        <v>2.6929643612838561E-6</v>
+        <v>-5.2580265135614417E-2</v>
       </c>
       <c r="F36">
-        <v>-9.4971685800736672E-2</v>
+        <v>-0.27125581976689678</v>
       </c>
       <c r="G36">
-        <v>8.006966957241346E-5</v>
+        <v>-3.504265788987071E-2</v>
       </c>
       <c r="H36">
-        <v>-9.374194569397043E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.23071804613623559</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C37">
-        <v>10461.42</v>
+        <v>12379.65</v>
       </c>
       <c r="D37">
-        <v>-12.409999999999849</v>
+        <v>-723.73999999999978</v>
       </c>
       <c r="E37">
-        <v>-1.1848578791139319E-3</v>
+        <v>-5.523303511534039E-2</v>
       </c>
       <c r="F37">
-        <v>0.15322213489103759</v>
+        <v>-5.6931558567500977E-2</v>
       </c>
       <c r="G37">
-        <v>-1.1848578791139319E-3</v>
+        <v>-3.7744533072186059E-2</v>
       </c>
       <c r="H37">
-        <v>0.15322213489103759</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-4.471592458704654E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38">
-        <v>22751.61</v>
+        <v>19228.47</v>
       </c>
       <c r="D38">
-        <v>-18.75</v>
+        <v>-1225.989999999998</v>
       </c>
       <c r="E38">
-        <v>-8.2343889161173855E-4</v>
+        <v>-5.9937539294608537E-2</v>
       </c>
       <c r="F38">
-        <v>-1.953254619937372E-2</v>
+        <v>-0.1845878660582182</v>
       </c>
       <c r="G38">
-        <v>-3.2288622326548388E-3</v>
+        <v>-4.2536121933718918E-2</v>
       </c>
       <c r="H38">
-        <v>-1.231462149190299E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.13922902354800679</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39">
-        <v>6029.01</v>
+        <v>199.83</v>
       </c>
       <c r="D39">
-        <v>-118.64999999999959</v>
+        <v>-14.19999999999999</v>
       </c>
       <c r="E39">
-        <v>-1.9300026351489748E-2</v>
+        <v>-6.6345839368312842E-2</v>
       </c>
       <c r="F39">
-        <v>-0.2268388675369043</v>
+        <v>0.1240929290656467</v>
       </c>
       <c r="G39">
-        <v>-1.731482331798195E-2</v>
+        <v>-6.5983208958604767E-2</v>
       </c>
       <c r="H39">
-        <v>-0.20074858287920769</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40">
-        <v>214.03</v>
-      </c>
-      <c r="D40">
-        <v>-5.4699999999999989</v>
-      </c>
-      <c r="E40">
-        <v>-2.4920273348519321E-2</v>
-      </c>
-      <c r="F40">
-        <v>0.20397142374978891</v>
-      </c>
-      <c r="G40">
-        <v>-2.496237895072495E-2</v>
-      </c>
-      <c r="H40">
-        <v>0.20329631555967939</v>
+        <v>0.1238989633309862</v>
       </c>
     </row>
   </sheetData>
@@ -1747,86 +2288,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W146"/>
+  <dimension ref="A1:W151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W146"/>
+      <selection sqref="A1:W151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="2">
         <v>43836</v>
       </c>
@@ -1897,7 +2441,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23">
       <c r="A3" s="2">
         <v>43837</v>
       </c>
@@ -1968,7 +2512,7 @@
         <v>395.4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="2">
         <v>43838</v>
       </c>
@@ -2039,7 +2583,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23">
       <c r="A5" s="2">
         <v>43839</v>
       </c>
@@ -2110,7 +2654,7 @@
         <v>391.1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="A6" s="2">
         <v>43840</v>
       </c>
@@ -2181,7 +2725,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="A7" s="2">
         <v>43843</v>
       </c>
@@ -2252,7 +2796,7 @@
         <v>393.6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="A8" s="2">
         <v>43844</v>
       </c>
@@ -2323,7 +2867,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="A9" s="2">
         <v>43845</v>
       </c>
@@ -2394,7 +2938,7 @@
         <v>388.6</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23">
       <c r="A10" s="2">
         <v>43846</v>
       </c>
@@ -2465,7 +3009,7 @@
         <v>428.8</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23">
       <c r="A11" s="2">
         <v>43847</v>
       </c>
@@ -2536,7 +3080,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23">
       <c r="A12" s="2">
         <v>43850</v>
       </c>
@@ -2607,7 +3151,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23">
       <c r="A13" s="2">
         <v>43851</v>
       </c>
@@ -2678,7 +3222,7 @@
         <v>424.7</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="2">
         <v>43852</v>
       </c>
@@ -2749,7 +3293,7 @@
         <v>425.2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23">
       <c r="A15" s="2">
         <v>43853</v>
       </c>
@@ -2820,7 +3364,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23">
       <c r="A16" s="2">
         <v>43854</v>
       </c>
@@ -2891,7 +3435,7 @@
         <v>426.2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23">
       <c r="A17" s="2">
         <v>43857</v>
       </c>
@@ -2962,7 +3506,7 @@
         <v>420.8</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23">
       <c r="A18" s="2">
         <v>43858</v>
       </c>
@@ -3033,7 +3577,7 @@
         <v>427.1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23">
       <c r="A19" s="2">
         <v>43859</v>
       </c>
@@ -3104,7 +3648,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23">
       <c r="A20" s="2">
         <v>43860</v>
       </c>
@@ -3175,7 +3719,7 @@
         <v>436.1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="2">
         <v>43861</v>
       </c>
@@ -3246,7 +3790,7 @@
         <v>435.5</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23">
       <c r="A22" s="2">
         <v>43864</v>
       </c>
@@ -3317,7 +3861,7 @@
         <v>422.8</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23">
       <c r="A23" s="2">
         <v>43865</v>
       </c>
@@ -3388,7 +3932,7 @@
         <v>412.7</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23">
       <c r="A24" s="2">
         <v>43866</v>
       </c>
@@ -3459,7 +4003,7 @@
         <v>428.3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23">
       <c r="A25" s="2">
         <v>43867</v>
       </c>
@@ -3530,7 +4074,7 @@
         <v>433.2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23">
       <c r="A26" s="2">
         <v>43868</v>
       </c>
@@ -3601,7 +4145,7 @@
         <v>440.2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23">
       <c r="A27" s="2">
         <v>43871</v>
       </c>
@@ -3672,7 +4216,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23">
       <c r="A28" s="2">
         <v>43872</v>
       </c>
@@ -3743,7 +4287,7 @@
         <v>451.4</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="2">
         <v>43873</v>
       </c>
@@ -3814,7 +4358,7 @@
         <v>454.5</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="2">
         <v>43874</v>
       </c>
@@ -3885,7 +4429,7 @@
         <v>455.1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23">
       <c r="A31" s="2">
         <v>43875</v>
       </c>
@@ -3956,7 +4500,7 @@
         <v>449.3</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23">
       <c r="A32" s="2">
         <v>43878</v>
       </c>
@@ -4027,7 +4571,7 @@
         <v>449.3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="2">
         <v>43879</v>
       </c>
@@ -4098,7 +4642,7 @@
         <v>446.1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23">
       <c r="A34" s="2">
         <v>43880</v>
       </c>
@@ -4169,7 +4713,7 @@
         <v>460.3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23">
       <c r="A35" s="2">
         <v>43881</v>
       </c>
@@ -4240,7 +4784,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23">
       <c r="A36" s="2">
         <v>43882</v>
       </c>
@@ -4311,7 +4855,7 @@
         <v>460.1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23">
       <c r="A37" s="2">
         <v>43885</v>
       </c>
@@ -4382,7 +4926,7 @@
         <v>443.1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="A38" s="2">
         <v>43886</v>
       </c>
@@ -4453,7 +4997,7 @@
         <v>435.3</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23">
       <c r="A39" s="2">
         <v>43887</v>
       </c>
@@ -4524,7 +5068,7 @@
         <v>427.5</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23">
       <c r="A40" s="2">
         <v>43888</v>
       </c>
@@ -4595,7 +5139,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="A41" s="2">
         <v>43889</v>
       </c>
@@ -4666,7 +5210,7 @@
         <v>399.4</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23">
       <c r="A42" s="2">
         <v>43892</v>
       </c>
@@ -4737,7 +5281,7 @@
         <v>415.6</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23">
       <c r="A43" s="2">
         <v>43893</v>
       </c>
@@ -4808,7 +5352,7 @@
         <v>404.1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23">
       <c r="A44" s="2">
         <v>43894</v>
       </c>
@@ -4879,7 +5423,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23">
       <c r="A45" s="2">
         <v>43895</v>
       </c>
@@ -4950,7 +5494,7 @@
         <v>407.5</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23">
       <c r="A46" s="2">
         <v>43896</v>
       </c>
@@ -5021,7 +5565,7 @@
         <v>400.4</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23">
       <c r="A47" s="2">
         <v>43899</v>
       </c>
@@ -5092,7 +5636,7 @@
         <v>370.4</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23">
       <c r="A48" s="2">
         <v>43900</v>
       </c>
@@ -5163,7 +5707,7 @@
         <v>378.8</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23">
       <c r="A49" s="2">
         <v>43901</v>
       </c>
@@ -5234,7 +5778,7 @@
         <v>373.5</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23">
       <c r="A50" s="2">
         <v>43902</v>
       </c>
@@ -5305,7 +5849,7 @@
         <v>330.1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23">
       <c r="A51" s="2">
         <v>43903</v>
       </c>
@@ -5376,7 +5920,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23">
       <c r="A52" s="2">
         <v>43906</v>
       </c>
@@ -5447,7 +5991,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23">
       <c r="A53" s="2">
         <v>43907</v>
       </c>
@@ -5518,7 +6062,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23">
       <c r="A54" s="2">
         <v>43908</v>
       </c>
@@ -5589,7 +6133,7 @@
         <v>303.39999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23">
       <c r="A55" s="2">
         <v>43909</v>
       </c>
@@ -5660,7 +6204,7 @@
         <v>319.8</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23">
       <c r="A56" s="2">
         <v>43910</v>
       </c>
@@ -5731,7 +6275,7 @@
         <v>322.3</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23">
       <c r="A57" s="2">
         <v>43913</v>
       </c>
@@ -5802,7 +6346,7 @@
         <v>320.2</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23">
       <c r="A58" s="2">
         <v>43914</v>
       </c>
@@ -5873,7 +6417,7 @@
         <v>321.5</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23">
       <c r="A59" s="2">
         <v>43915</v>
       </c>
@@ -5944,7 +6488,7 @@
         <v>311.60000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23">
       <c r="A60" s="2">
         <v>43916</v>
       </c>
@@ -6015,7 +6559,7 @@
         <v>320.8</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23">
       <c r="A61" s="2">
         <v>43917</v>
       </c>
@@ -6086,7 +6630,7 @@
         <v>311.3</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23">
       <c r="A62" s="2">
         <v>43920</v>
       </c>
@@ -6157,7 +6701,7 @@
         <v>296.5</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23">
       <c r="A63" s="2">
         <v>43921</v>
       </c>
@@ -6228,7 +6772,7 @@
         <v>278.5</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23">
       <c r="A64" s="2">
         <v>43922</v>
       </c>
@@ -6299,7 +6843,7 @@
         <v>259.8</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23">
       <c r="A65" s="2">
         <v>43923</v>
       </c>
@@ -6370,7 +6914,7 @@
         <v>264.10000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23">
       <c r="A66" s="2">
         <v>43924</v>
       </c>
@@ -6441,7 +6985,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23">
       <c r="A67" s="2">
         <v>43927</v>
       </c>
@@ -6512,7 +7056,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23">
       <c r="A68" s="2">
         <v>43928</v>
       </c>
@@ -6583,7 +7127,7 @@
         <v>307.39999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23">
       <c r="A69" s="2">
         <v>43929</v>
       </c>
@@ -6654,7 +7198,7 @@
         <v>304.10000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23">
       <c r="A70" s="2">
         <v>43930</v>
       </c>
@@ -6725,7 +7269,7 @@
         <v>322.10000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23">
       <c r="A71" s="2">
         <v>43931</v>
       </c>
@@ -6796,7 +7340,7 @@
         <v>322.10000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23">
       <c r="A72" s="2">
         <v>43934</v>
       </c>
@@ -6867,7 +7411,7 @@
         <v>333.7</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23">
       <c r="A73" s="2">
         <v>43935</v>
       </c>
@@ -6938,7 +7482,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23">
       <c r="A74" s="2">
         <v>43936</v>
       </c>
@@ -7009,7 +7553,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23">
       <c r="A75" s="2">
         <v>43937</v>
       </c>
@@ -7080,7 +7624,7 @@
         <v>332.6</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23">
       <c r="A76" s="2">
         <v>43938</v>
       </c>
@@ -7151,7 +7695,7 @@
         <v>341.7</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23">
       <c r="A77" s="2">
         <v>43941</v>
       </c>
@@ -7222,7 +7766,7 @@
         <v>328.5</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23">
       <c r="A78" s="2">
         <v>43942</v>
       </c>
@@ -7293,7 +7837,7 @@
         <v>317.5</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23">
       <c r="A79" s="2">
         <v>43943</v>
       </c>
@@ -7364,7 +7908,7 @@
         <v>329.4</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23">
       <c r="A80" s="2">
         <v>43944</v>
       </c>
@@ -7435,7 +7979,7 @@
         <v>325.2</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23">
       <c r="A81" s="2">
         <v>43945</v>
       </c>
@@ -7506,7 +8050,7 @@
         <v>322.3</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23">
       <c r="A82" s="2">
         <v>43948</v>
       </c>
@@ -7577,7 +8121,7 @@
         <v>315.60000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23">
       <c r="A83" s="2">
         <v>43949</v>
       </c>
@@ -7648,7 +8192,7 @@
         <v>326.5</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23">
       <c r="A84" s="2">
         <v>43950</v>
       </c>
@@ -7719,7 +8263,7 @@
         <v>317.89999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23">
       <c r="A85" s="2">
         <v>43951</v>
       </c>
@@ -7790,7 +8334,7 @@
         <v>319.7</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23">
       <c r="A86" s="2">
         <v>43952</v>
       </c>
@@ -7861,7 +8405,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23">
       <c r="A87" s="2">
         <v>43955</v>
       </c>
@@ -7932,7 +8476,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23">
       <c r="A88" s="2">
         <v>43956</v>
       </c>
@@ -8003,7 +8547,7 @@
         <v>336.2</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23">
       <c r="A89" s="2">
         <v>43957</v>
       </c>
@@ -8074,7 +8618,7 @@
         <v>327.39999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23">
       <c r="A90" s="2">
         <v>43958</v>
       </c>
@@ -8145,7 +8689,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23">
       <c r="A91" s="2">
         <v>43959</v>
       </c>
@@ -8216,7 +8760,7 @@
         <v>342.6</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23">
       <c r="A92" s="2">
         <v>43962</v>
       </c>
@@ -8287,7 +8831,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23">
       <c r="A93" s="2">
         <v>43963</v>
       </c>
@@ -8358,7 +8902,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23">
       <c r="A94" s="2">
         <v>43964</v>
       </c>
@@ -8429,7 +8973,7 @@
         <v>335.1</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23">
       <c r="A95" s="2">
         <v>43965</v>
       </c>
@@ -8500,7 +9044,7 @@
         <v>343.5</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23">
       <c r="A96" s="2">
         <v>43966</v>
       </c>
@@ -8571,7 +9115,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23">
       <c r="A97" s="2">
         <v>43969</v>
       </c>
@@ -8642,7 +9186,7 @@
         <v>346.2</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23">
       <c r="A98" s="2">
         <v>43970</v>
       </c>
@@ -8713,7 +9257,7 @@
         <v>354.3</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23">
       <c r="A99" s="2">
         <v>43971</v>
       </c>
@@ -8784,7 +9328,7 @@
         <v>367.5</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23">
       <c r="A100" s="2">
         <v>43972</v>
       </c>
@@ -8855,7 +9399,7 @@
         <v>370.3</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23">
       <c r="A101" s="2">
         <v>43973</v>
       </c>
@@ -8926,7 +9470,7 @@
         <v>367.5</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23">
       <c r="A102" s="2">
         <v>43976</v>
       </c>
@@ -8997,7 +9541,7 @@
         <v>367.5</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23">
       <c r="A103" s="2">
         <v>43977</v>
       </c>
@@ -9068,7 +9612,7 @@
         <v>356.8</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23">
       <c r="A104" s="2">
         <v>43978</v>
       </c>
@@ -9139,7 +9683,7 @@
         <v>359.9</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23">
       <c r="A105" s="2">
         <v>43979</v>
       </c>
@@ -9210,7 +9754,7 @@
         <v>368.3</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23">
       <c r="A106" s="2">
         <v>43980</v>
       </c>
@@ -9281,7 +9825,7 @@
         <v>367.1</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23">
       <c r="A107" s="2">
         <v>43983</v>
       </c>
@@ -9352,7 +9896,7 @@
         <v>362.3</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23">
       <c r="A108" s="2">
         <v>43984</v>
       </c>
@@ -9423,7 +9967,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23">
       <c r="A109" s="2">
         <v>43985</v>
       </c>
@@ -9494,7 +10038,7 @@
         <v>348.1</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23">
       <c r="A110" s="2">
         <v>43986</v>
       </c>
@@ -9565,7 +10109,7 @@
         <v>356.2</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23">
       <c r="A111" s="2">
         <v>43987</v>
       </c>
@@ -9636,7 +10180,7 @@
         <v>368.8</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23">
       <c r="A112" s="2">
         <v>43990</v>
       </c>
@@ -9707,7 +10251,7 @@
         <v>370.8</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23">
       <c r="A113" s="2">
         <v>43991</v>
       </c>
@@ -9778,7 +10322,7 @@
         <v>357.6</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23">
       <c r="A114" s="2">
         <v>43992</v>
       </c>
@@ -9849,7 +10393,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23">
       <c r="A115" s="2">
         <v>43993</v>
       </c>
@@ -9920,7 +10464,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23">
       <c r="A116" s="2">
         <v>43994</v>
       </c>
@@ -9991,7 +10535,7 @@
         <v>354.6</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23">
       <c r="A117" s="2">
         <v>43997</v>
       </c>
@@ -10062,7 +10606,7 @@
         <v>361.3</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23">
       <c r="A118" s="2">
         <v>43998</v>
       </c>
@@ -10133,7 +10677,7 @@
         <v>373.4</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23">
       <c r="A119" s="2">
         <v>43999</v>
       </c>
@@ -10204,7 +10748,7 @@
         <v>382.3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23">
       <c r="A120" s="2">
         <v>44000</v>
       </c>
@@ -10275,7 +10819,7 @@
         <v>401.3</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23">
       <c r="A121" s="2">
         <v>44001</v>
       </c>
@@ -10346,7 +10890,7 @@
         <v>421.4</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23">
       <c r="A122" s="2">
         <v>44004</v>
       </c>
@@ -10417,7 +10961,7 @@
         <v>430.1</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23">
       <c r="A123" s="2">
         <v>44005</v>
       </c>
@@ -10488,7 +11032,7 @@
         <v>440.7</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23">
       <c r="A124" s="2">
         <v>44006</v>
       </c>
@@ -10559,7 +11103,7 @@
         <v>428.8</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23">
       <c r="A125" s="2">
         <v>44007</v>
       </c>
@@ -10630,7 +11174,7 @@
         <v>435.6</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23">
       <c r="A126" s="2">
         <v>44008</v>
       </c>
@@ -10701,7 +11245,7 @@
         <v>430.5</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23">
       <c r="A127" s="2">
         <v>44011</v>
       </c>
@@ -10772,7 +11316,7 @@
         <v>426.1</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23">
       <c r="A128" s="2">
         <v>44012</v>
       </c>
@@ -10843,7 +11387,7 @@
         <v>435.7</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23">
       <c r="A129" s="2">
         <v>44013</v>
       </c>
@@ -10914,7 +11458,7 @@
         <v>438.6</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23">
       <c r="A130" s="2">
         <v>44014</v>
       </c>
@@ -10985,7 +11529,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23">
       <c r="A131" s="2">
         <v>44015</v>
       </c>
@@ -11056,7 +11600,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23">
       <c r="A132" s="2">
         <v>44018</v>
       </c>
@@ -11127,7 +11671,7 @@
         <v>460.1</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23">
       <c r="A133" s="2">
         <v>44019</v>
       </c>
@@ -11198,7 +11742,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23">
       <c r="A134" s="2">
         <v>44020</v>
       </c>
@@ -11269,7 +11813,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23">
       <c r="A135" s="2">
         <v>44021</v>
       </c>
@@ -11340,7 +11884,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23">
       <c r="A136" s="2">
         <v>44022</v>
       </c>
@@ -11411,7 +11955,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23">
       <c r="A137" s="2">
         <v>44025</v>
       </c>
@@ -11482,7 +12026,7 @@
         <v>533.4</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23">
       <c r="A138" s="2">
         <v>44026</v>
       </c>
@@ -11553,7 +12097,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23">
       <c r="A139" s="2">
         <v>44027</v>
       </c>
@@ -11624,7 +12168,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23">
       <c r="A140" s="2">
         <v>44028</v>
       </c>
@@ -11695,7 +12239,7 @@
         <v>524.20000000000005</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23">
       <c r="A141" s="2">
         <v>44029</v>
       </c>
@@ -11766,7 +12310,7 @@
         <v>550.79999999999995</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23">
       <c r="A142" s="2">
         <v>44032</v>
       </c>
@@ -11837,7 +12381,7 @@
         <v>532.20000000000005</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23">
       <c r="A143" s="2">
         <v>44033</v>
       </c>
@@ -11908,7 +12452,7 @@
         <v>513.20000000000005</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23">
       <c r="A144" s="2">
         <v>44034</v>
       </c>
@@ -11979,7 +12523,7 @@
         <v>510.5</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23">
       <c r="A145" s="2">
         <v>44035</v>
       </c>
@@ -12050,7 +12594,7 @@
         <v>522.4</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23">
       <c r="A146" s="2">
         <v>44036</v>
       </c>
@@ -12082,13 +12626,13 @@
         <v>1697.75</v>
       </c>
       <c r="K146">
-        <v>173.8</v>
+        <v>174.1</v>
       </c>
       <c r="L146">
-        <v>146.19999999999999</v>
+        <v>146.55000000000001</v>
       </c>
       <c r="M146">
-        <v>1019.2</v>
+        <v>1020</v>
       </c>
       <c r="N146">
         <v>2.8925000000000001</v>
@@ -12119,9 +12663,992 @@
       </c>
       <c r="W146">
         <v>541.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23">
+      <c r="A147" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B147">
+        <v>1931</v>
+      </c>
+      <c r="C147">
+        <v>24.501000000000001</v>
+      </c>
+      <c r="D147">
+        <v>995.9</v>
+      </c>
+      <c r="E147">
+        <v>2407.1</v>
+      </c>
+      <c r="F147">
+        <v>41.6</v>
+      </c>
+      <c r="G147">
+        <v>43.41</v>
+      </c>
+      <c r="H147">
+        <v>1.734</v>
+      </c>
+      <c r="I147">
+        <v>1.2541</v>
+      </c>
+      <c r="J147">
+        <v>1682.5</v>
+      </c>
+      <c r="K147">
+        <v>177</v>
+      </c>
+      <c r="L147">
+        <v>147.05000000000001</v>
+      </c>
+      <c r="M147">
+        <v>1032.2</v>
+      </c>
+      <c r="N147">
+        <v>2.8975</v>
+      </c>
+      <c r="O147">
+        <v>325</v>
+      </c>
+      <c r="P147">
+        <v>900.25</v>
+      </c>
+      <c r="Q147">
+        <v>61.39</v>
+      </c>
+      <c r="R147">
+        <v>2286</v>
+      </c>
+      <c r="S147">
+        <v>110.4</v>
+      </c>
+      <c r="T147">
+        <v>12.12</v>
+      </c>
+      <c r="U147">
+        <v>100.425</v>
+      </c>
+      <c r="V147">
+        <v>54.55</v>
+      </c>
+      <c r="W147">
+        <v>567.9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23">
+      <c r="A148" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B148">
+        <v>1944.6</v>
+      </c>
+      <c r="C148">
+        <v>24.3</v>
+      </c>
+      <c r="D148">
+        <v>987.65</v>
+      </c>
+      <c r="E148">
+        <v>2348</v>
+      </c>
+      <c r="F148">
+        <v>41.04</v>
+      </c>
+      <c r="G148">
+        <v>43.22</v>
+      </c>
+      <c r="H148">
+        <v>1.8</v>
+      </c>
+      <c r="I148">
+        <v>1.2421</v>
+      </c>
+      <c r="J148">
+        <v>1726.25</v>
+      </c>
+      <c r="K148">
+        <v>177.6</v>
+      </c>
+      <c r="L148">
+        <v>148.05000000000001</v>
+      </c>
+      <c r="M148">
+        <v>1027.5</v>
+      </c>
+      <c r="N148">
+        <v>2.9175</v>
+      </c>
+      <c r="O148">
+        <v>320</v>
+      </c>
+      <c r="P148">
+        <v>896.62</v>
+      </c>
+      <c r="Q148">
+        <v>61.23</v>
+      </c>
+      <c r="R148">
+        <v>2291</v>
+      </c>
+      <c r="S148">
+        <v>109.65</v>
+      </c>
+      <c r="T148">
+        <v>12.01</v>
+      </c>
+      <c r="U148">
+        <v>100.9</v>
+      </c>
+      <c r="V148">
+        <v>54.2</v>
+      </c>
+      <c r="W148">
+        <v>566.9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23">
+      <c r="A149" s="2">
+        <v>44041</v>
+      </c>
+      <c r="B149">
+        <v>1953.4</v>
+      </c>
+      <c r="C149">
+        <v>24.321000000000002</v>
+      </c>
+      <c r="D149">
+        <v>959.35</v>
+      </c>
+      <c r="E149">
+        <v>2234.9</v>
+      </c>
+      <c r="F149">
+        <v>41.27</v>
+      </c>
+      <c r="G149">
+        <v>43.75</v>
+      </c>
+      <c r="H149">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="I149">
+        <v>1.2533000000000001</v>
+      </c>
+      <c r="J149">
+        <v>1697.25</v>
+      </c>
+      <c r="K149">
+        <v>181.9</v>
+      </c>
+      <c r="L149">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="M149">
+        <v>1033.4000000000001</v>
+      </c>
+      <c r="N149">
+        <v>2.919</v>
+      </c>
+      <c r="O149">
+        <v>315.5</v>
+      </c>
+      <c r="P149">
+        <v>892.25</v>
+      </c>
+      <c r="Q149">
+        <v>61.67</v>
+      </c>
+      <c r="R149">
+        <v>2341</v>
+      </c>
+      <c r="S149">
+        <v>111.6</v>
+      </c>
+      <c r="T149">
+        <v>12.01</v>
+      </c>
+      <c r="U149">
+        <v>101.45</v>
+      </c>
+      <c r="V149">
+        <v>53.08</v>
+      </c>
+      <c r="W149">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23">
+      <c r="A150" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B150">
+        <v>1942.3</v>
+      </c>
+      <c r="C150">
+        <v>23.361999999999998</v>
+      </c>
+      <c r="D150">
+        <v>920.55</v>
+      </c>
+      <c r="E150">
+        <v>2144.8000000000002</v>
+      </c>
+      <c r="F150">
+        <v>39.92</v>
+      </c>
+      <c r="G150">
+        <v>42.94</v>
+      </c>
+      <c r="H150">
+        <v>1.829</v>
+      </c>
+      <c r="I150">
+        <v>1.2119</v>
+      </c>
+      <c r="J150">
+        <v>1724.25</v>
+      </c>
+      <c r="K150">
+        <v>183.4</v>
+      </c>
+      <c r="L150">
+        <v>148.1</v>
+      </c>
+      <c r="M150">
+        <v>1039.5999999999999</v>
+      </c>
+      <c r="N150">
+        <v>2.9140000000000001</v>
+      </c>
+      <c r="O150">
+        <v>315.75</v>
+      </c>
+      <c r="P150">
+        <v>894.25</v>
+      </c>
+      <c r="Q150">
+        <v>63.2</v>
+      </c>
+      <c r="R150">
+        <v>2344</v>
+      </c>
+      <c r="S150">
+        <v>115.35</v>
+      </c>
+      <c r="T150">
+        <v>12.11</v>
+      </c>
+      <c r="U150">
+        <v>101.72499999999999</v>
+      </c>
+      <c r="V150">
+        <v>51.42</v>
+      </c>
+      <c r="W150">
+        <v>580.4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23">
+      <c r="A151" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B151">
+        <v>1962.8</v>
+      </c>
+      <c r="C151">
+        <v>24.216000000000001</v>
+      </c>
+      <c r="D151">
+        <v>919.7</v>
+      </c>
+      <c r="E151">
+        <v>2133</v>
+      </c>
+      <c r="F151">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="G151">
+        <v>43.3</v>
+      </c>
+      <c r="H151">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="I151">
+        <v>1.2171000000000001</v>
+      </c>
+      <c r="J151">
+        <v>1709</v>
+      </c>
+      <c r="K151">
+        <v>183.95</v>
+      </c>
+      <c r="L151">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="M151">
+        <v>1043</v>
+      </c>
+      <c r="N151">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="O151">
+        <v>316</v>
+      </c>
+      <c r="P151">
+        <v>897.25</v>
+      </c>
+      <c r="Q151">
+        <v>62.74</v>
+      </c>
+      <c r="R151">
+        <v>2400</v>
+      </c>
+      <c r="S151">
+        <v>118.95</v>
+      </c>
+      <c r="T151">
+        <v>12.64</v>
+      </c>
+      <c r="U151">
+        <v>102.825</v>
+      </c>
+      <c r="V151">
+        <v>52</v>
+      </c>
+      <c r="W151">
+        <v>585.79999999999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-1.93</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6.42</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6.64</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A10" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="7">
+        <v>-7.68</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="7">
+        <v>51.3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="4">
+        <v>31.3</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A14" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="4">
+        <v>17.55</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1.93</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="4">
+        <v>34.86</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="7">
+        <v>-74</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A21" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="4">
+        <v>14</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A23" s="9"/>
+      <c r="B23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="4">
+        <v>19</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="9"/>
+      <c r="B24" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="8">
+        <v>20.71</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A25" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="4">
+        <v>5.35</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2.76</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3.84</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="14">
+        <v>-12.95</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.investing.com/equities/united-spirits-earnings"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.investing.com/equities/bharti-infratel-ltd-earnings"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://www.investing.com/equities/kotak-mahindra-bank-earnings"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://www.investing.com/equities/tech-mahindra-earnings"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://www.investing.com/equities/marico-earnings"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://www.investing.com/equities/havells-india-earnings"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://www.investing.com/equities/indusind-bank-earnings"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://www.investing.com/equities/bharti-airtel-earnings"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://www.investing.com/equities/nestle-earnings"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://www.investing.com/equities/ultratech-cement-earnings"/>
+    <hyperlink ref="B15" r:id="rId11" display="https://www.investing.com/equities/housing-development-finance-earnings"/>
+    <hyperlink ref="B16" r:id="rId12" display="https://www.investing.com/equities/maruti-suzuki-india-earnings"/>
+    <hyperlink ref="B17" r:id="rId13" display="https://www.investing.com/equities/dabur-india-earnings"/>
+    <hyperlink ref="B18" r:id="rId14" display="https://www.investing.com/equities/dr-reddys-laboratories-earnings"/>
+    <hyperlink ref="B19" r:id="rId15" display="https://www.investing.com/equities/colgate-palmolive-(india)-earnings"/>
+    <hyperlink ref="B20" r:id="rId16" display="https://www.investing.com/equities/interglobe-aviation-ltd-earnings"/>
+    <hyperlink ref="B22" r:id="rId17" display="https://www.investing.com/equities/reliance-industries-earnings"/>
+    <hyperlink ref="B23" r:id="rId18" display="https://www.investing.com/equities/torrent-pharmaceuticals-earnings"/>
+    <hyperlink ref="B24" r:id="rId19" display="https://www.investing.com/equities/piramal-healthcare-earnings"/>
+    <hyperlink ref="B26" r:id="rId20" display="https://www.investing.com/equities/state-bank-of-india-earnings"/>
+    <hyperlink ref="B27" r:id="rId21" display="https://www.investing.com/equities/sun-pharma-advanced-research-earnings"/>
+    <hyperlink ref="B28" r:id="rId22" display="https://www.investing.com/equities/indian-oil-corporation-earnings"/>
+    <hyperlink ref="B29" r:id="rId23" display="https://www.investing.com/equities/berger-paints-(i)-earnings"/>
+    <hyperlink ref="B30" r:id="rId24" display="https://www.investing.com/equities/tata-motors-ltd-earnings"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Equities" sheetId="1" r:id="rId1"/>
     <sheet name="Commodities" sheetId="2" r:id="rId2"/>
-    <sheet name="EI" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
   <si>
     <t>Country</t>
   </si>
@@ -42,7 +41,13 @@
     <t>Indices</t>
   </si>
   <si>
-    <t>Taiwan Weighted</t>
+    <t>SmallCap 2000</t>
+  </si>
+  <si>
+    <t>KOSDAQ</t>
+  </si>
+  <si>
+    <t>HNX 30</t>
   </si>
   <si>
     <t>KOSPI</t>
@@ -51,61 +56,43 @@
     <t>S&amp;P/TSX</t>
   </si>
   <si>
-    <t>S&amp;P Lima General</t>
+    <t>DAX</t>
   </si>
   <si>
-    <t>KOSDAQ</t>
+    <t>AEX</t>
   </si>
   <si>
-    <t>Bovespa</t>
-  </si>
-  <si>
-    <t>IDX Composite</t>
+    <t>Euro Stoxx 50</t>
   </si>
   <si>
     <t>Nasdaq</t>
   </si>
   <si>
-    <t>S&amp;P/BMV IPC</t>
+    <t>S&amp;P 500</t>
   </si>
   <si>
-    <t>S&amp;P CLX IPSA</t>
+    <t>FTSE 100</t>
   </si>
   <si>
-    <t>Tadawul All Share</t>
+    <t>MOEX</t>
   </si>
   <si>
-    <t>SmallCap 2000</t>
+    <t>FTSE MIB</t>
   </si>
   <si>
-    <t>S&amp;P 500</t>
+    <t>CAC 40</t>
   </si>
   <si>
     <t>Nikkei 225</t>
   </si>
   <si>
-    <t>NZX 50</t>
-  </si>
-  <si>
-    <t>KLCI</t>
-  </si>
-  <si>
-    <t>S&amp;P/ASX 200</t>
+    <t>S&amp;P Lima General</t>
   </si>
   <si>
     <t>OMXC25</t>
   </si>
   <si>
-    <t>MOEX</t>
-  </si>
-  <si>
-    <t>FTSE/JSE Top 40</t>
-  </si>
-  <si>
-    <t>PSEi Composite</t>
-  </si>
-  <si>
-    <t>SMI</t>
+    <t>S&amp;P/ASX 200</t>
   </si>
   <si>
     <t>Nifty 50</t>
@@ -114,142 +101,154 @@
     <t>BSE Sensex</t>
   </si>
   <si>
+    <t>IBEX 35</t>
+  </si>
+  <si>
+    <t>FTSE Singapore</t>
+  </si>
+  <si>
     <t>SZSE Component</t>
   </si>
   <si>
-    <t>FTSE 100</t>
+    <t>S&amp;P/BMV IPC</t>
+  </si>
+  <si>
+    <t>Taiwan Weighted</t>
+  </si>
+  <si>
+    <t>Tadawul All Share</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>SET</t>
   </si>
   <si>
     <t>China A50</t>
   </si>
   <si>
-    <t>CAC 40</t>
+    <t>COLCAP</t>
   </si>
   <si>
     <t>Hang Seng</t>
   </si>
   <si>
-    <t>SET</t>
+    <t>KLCI</t>
   </si>
   <si>
-    <t>FTSE Singapore</t>
+    <t>IDX Composite</t>
   </si>
   <si>
-    <t>AEX</t>
+    <t>PSEi Composite</t>
   </si>
   <si>
-    <t>Euro Stoxx 50</t>
+    <t>NZX 50</t>
   </si>
   <si>
-    <t>COLCAP</t>
+    <t>FTSE/JSE Top 40</t>
   </si>
   <si>
-    <t>IBEX 35</t>
+    <t>S&amp;P CLX IPSA</t>
   </si>
   <si>
-    <t>DAX</t>
+    <t>Bovespa</t>
   </si>
   <si>
-    <t>FTSE MIB</t>
+    <t>United States</t>
   </si>
   <si>
-    <t>HNX 30</t>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Mexico</t>
   </si>
   <si>
     <t>Taiwan</t>
   </si>
   <si>
-    <t>South Korea</t>
+    <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>Switzerland</t>
   </si>
   <si>
-    <t>Peru</t>
+    <t>Thailand</t>
   </si>
   <si>
-    <t>Brazil</t>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>United States</t>
+    <t>Philippines</t>
   </si>
   <si>
-    <t>Mexico</t>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Chile</t>
   </si>
   <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
+    <t>Brazil</t>
   </si>
   <si>
     <t>Date</t>
@@ -320,393 +319,6 @@
   <si>
     <t>Lumber</t>
   </si>
-  <si>
-    <t>United Spirits (UNSP)</t>
-  </si>
-  <si>
-    <t>/  -1.99</t>
-  </si>
-  <si>
-    <t>10.3B</t>
-  </si>
-  <si>
-    <t>/  9.08B</t>
-  </si>
-  <si>
-    <t>422.46B</t>
-  </si>
-  <si>
-    <t>Bharti Infratel (BHRI)</t>
-  </si>
-  <si>
-    <t>/  3.95</t>
-  </si>
-  <si>
-    <t>35.05B</t>
-  </si>
-  <si>
-    <t>/  36B</t>
-  </si>
-  <si>
-    <t>354.85B</t>
-  </si>
-  <si>
-    <t>Monday, July 27, 2020</t>
-  </si>
-  <si>
-    <t>Kotak Mahindra Bank (KTKM)</t>
-  </si>
-  <si>
-    <t>/  6.63</t>
-  </si>
-  <si>
-    <t>44.97B</t>
-  </si>
-  <si>
-    <t>/  43.79B</t>
-  </si>
-  <si>
-    <t>2.70T</t>
-  </si>
-  <si>
-    <t>Tech Mahindra (TEML)</t>
-  </si>
-  <si>
-    <t>/  8.87</t>
-  </si>
-  <si>
-    <t>91.06B</t>
-  </si>
-  <si>
-    <t>/  89.6B</t>
-  </si>
-  <si>
-    <t>658.91B</t>
-  </si>
-  <si>
-    <t>Marico (MRCO)</t>
-  </si>
-  <si>
-    <t>/  2.09</t>
-  </si>
-  <si>
-    <t>19.25B</t>
-  </si>
-  <si>
-    <t>/  18.64B</t>
-  </si>
-  <si>
-    <t>469.71B</t>
-  </si>
-  <si>
-    <t>Havells India (HVEL)</t>
-  </si>
-  <si>
-    <t>/  -0.38</t>
-  </si>
-  <si>
-    <t>14.79B</t>
-  </si>
-  <si>
-    <t>/  13.51B</t>
-  </si>
-  <si>
-    <t>365.57B</t>
-  </si>
-  <si>
-    <t>IndusInd Bank (INBK)</t>
-  </si>
-  <si>
-    <t>/  3.92</t>
-  </si>
-  <si>
-    <t>48.3B</t>
-  </si>
-  <si>
-    <t>/  44.24B</t>
-  </si>
-  <si>
-    <t>364.12B</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>/  0.33</t>
-  </si>
-  <si>
-    <t>Tuesday, July 28, 2020</t>
-  </si>
-  <si>
-    <t>Bharti Airtel (BRTI)</t>
-  </si>
-  <si>
-    <t>239.39B</t>
-  </si>
-  <si>
-    <t>/  237.69B</t>
-  </si>
-  <si>
-    <t>3.03T</t>
-  </si>
-  <si>
-    <t>Nestle India (NEST)</t>
-  </si>
-  <si>
-    <t>/  54.53</t>
-  </si>
-  <si>
-    <t>30.51B</t>
-  </si>
-  <si>
-    <t>/  31.19B</t>
-  </si>
-  <si>
-    <t>1.59T</t>
-  </si>
-  <si>
-    <t>UltraTech Cement (ULTC)</t>
-  </si>
-  <si>
-    <t>/  11.68</t>
-  </si>
-  <si>
-    <t>76.32B</t>
-  </si>
-  <si>
-    <t>/  72.55B</t>
-  </si>
-  <si>
-    <t>1.19T</t>
-  </si>
-  <si>
-    <t>Wednesday, July 29, 2020</t>
-  </si>
-  <si>
-    <t>Housing Development Finance (HDFC)</t>
-  </si>
-  <si>
-    <t>/  17.21</t>
-  </si>
-  <si>
-    <t>130.18B</t>
-  </si>
-  <si>
-    <t>/  39.63B</t>
-  </si>
-  <si>
-    <t>3.10T</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki (MRTI)</t>
-  </si>
-  <si>
-    <t>/  -2</t>
-  </si>
-  <si>
-    <t>41.07B</t>
-  </si>
-  <si>
-    <t>/  38.61B</t>
-  </si>
-  <si>
-    <t>1.89T</t>
-  </si>
-  <si>
-    <t>Dabur India (DABU)</t>
-  </si>
-  <si>
-    <t>/  1.94</t>
-  </si>
-  <si>
-    <t>19.8B</t>
-  </si>
-  <si>
-    <t>/  19.81B</t>
-  </si>
-  <si>
-    <t>906.24B</t>
-  </si>
-  <si>
-    <t>Dr. Reddy's Labs (REDY)</t>
-  </si>
-  <si>
-    <t>/  31.29</t>
-  </si>
-  <si>
-    <t>44.18B</t>
-  </si>
-  <si>
-    <t>/  41.75B</t>
-  </si>
-  <si>
-    <t>750.32B</t>
-  </si>
-  <si>
-    <t>Colgate-Palmolive India (COLG)</t>
-  </si>
-  <si>
-    <t>/  6.47</t>
-  </si>
-  <si>
-    <t>10.41B</t>
-  </si>
-  <si>
-    <t>/  9.62B</t>
-  </si>
-  <si>
-    <t>387.04B</t>
-  </si>
-  <si>
-    <t>Interglobe Aviation Ltd (INGL)</t>
-  </si>
-  <si>
-    <t>/  -47.11</t>
-  </si>
-  <si>
-    <t>7.67B</t>
-  </si>
-  <si>
-    <t>/  14.54B</t>
-  </si>
-  <si>
-    <t>377.10B</t>
-  </si>
-  <si>
-    <t>/  --</t>
-  </si>
-  <si>
-    <t>Thursday, July 30, 2020</t>
-  </si>
-  <si>
-    <t>Reliance Industries (RELI)</t>
-  </si>
-  <si>
-    <t>/  13.99</t>
-  </si>
-  <si>
-    <t>882.53B</t>
-  </si>
-  <si>
-    <t>/  1,057.99B</t>
-  </si>
-  <si>
-    <t>13.12T</t>
-  </si>
-  <si>
-    <t>Torrent Pharma (TORP)</t>
-  </si>
-  <si>
-    <t>/  12.93</t>
-  </si>
-  <si>
-    <t>20.56B</t>
-  </si>
-  <si>
-    <t>/  19.46B</t>
-  </si>
-  <si>
-    <t>450.37B</t>
-  </si>
-  <si>
-    <t>Piramal Enterprises (PIRA)</t>
-  </si>
-  <si>
-    <t>29.37B</t>
-  </si>
-  <si>
-    <t>330.81B</t>
-  </si>
-  <si>
-    <t>Friday, July 31, 2020</t>
-  </si>
-  <si>
-    <t>SBI (SBI)</t>
-  </si>
-  <si>
-    <t>/  5.26</t>
-  </si>
-  <si>
-    <t>893.5B</t>
-  </si>
-  <si>
-    <t>/  324.37B</t>
-  </si>
-  <si>
-    <t>1.71T</t>
-  </si>
-  <si>
-    <t>Sun Pharma (SUN)</t>
-  </si>
-  <si>
-    <t>/  4.52</t>
-  </si>
-  <si>
-    <t>75.85B</t>
-  </si>
-  <si>
-    <t>/  79.73B</t>
-  </si>
-  <si>
-    <t>1.29T</t>
-  </si>
-  <si>
-    <t>Indian Oil (IOC)</t>
-  </si>
-  <si>
-    <t>/  6.09</t>
-  </si>
-  <si>
-    <t>901.1B</t>
-  </si>
-  <si>
-    <t>/  795.46B</t>
-  </si>
-  <si>
-    <t>812.98B</t>
-  </si>
-  <si>
-    <t>Berger Paints (BRGR)</t>
-  </si>
-  <si>
-    <t>/  0.35</t>
-  </si>
-  <si>
-    <t>/  8.32B</t>
-  </si>
-  <si>
-    <t>510.86B</t>
-  </si>
-  <si>
-    <t>Tata Motors (TAMO)</t>
-  </si>
-  <si>
-    <t>/  -16.29</t>
-  </si>
-  <si>
-    <t>286.9B</t>
-  </si>
-  <si>
-    <t>/  285.2B</t>
-  </si>
-  <si>
-    <t>377.91B</t>
-  </si>
-  <si>
-    <t>Sunday, July 26, 2020</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>EPS/Forecast</t>
-  </si>
-  <si>
-    <t>Revenue/Forecast</t>
-  </si>
-  <si>
-    <t>Marketcap</t>
-  </si>
 </sst>
 </file>
 
@@ -715,7 +327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,77 +343,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF0EA600"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF3F4A54"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEDF4FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -824,89 +375,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDADADA"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBABABA"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDADADA"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBABABA"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDADADA"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBABABA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDADADA"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBABABA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBABABA"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFBABABA"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDADADA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFBABABA"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDADADA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFBABABA"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -914,54 +387,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1265,9 +692,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1301,25 +728,25 @@
         <v>46</v>
       </c>
       <c r="C2">
-        <v>12722.92</v>
+        <v>1569.18</v>
       </c>
       <c r="D2">
-        <v>309.8799999999992</v>
+        <v>88.75</v>
       </c>
       <c r="E2">
-        <v>2.4964070042471361E-2</v>
+        <v>5.9948798659848812E-2</v>
       </c>
       <c r="F2">
-        <v>6.4380224472449621E-2</v>
+        <v>-5.6563616031167663E-2</v>
       </c>
       <c r="G2">
-        <v>3.1013753790271489E-2</v>
+        <v>5.9948798659848812E-2</v>
       </c>
       <c r="H2">
-        <v>9.260932303217162E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-5.6563616031167663E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1327,25 +754,25 @@
         <v>47</v>
       </c>
       <c r="C3">
-        <v>2267.0100000000002</v>
+        <v>857.63</v>
       </c>
       <c r="D3">
-        <v>50.820000000000157</v>
+        <v>42.330000000000041</v>
       </c>
       <c r="E3">
-        <v>2.293124686962766E-2</v>
+        <v>5.1919538820066391E-2</v>
       </c>
       <c r="F3">
-        <v>5.1942628313697448E-2</v>
+        <v>0.30873937525751183</v>
       </c>
       <c r="G3">
-        <v>2.8515220816213601E-2</v>
+        <v>5.7600712698265832E-2</v>
       </c>
       <c r="H3">
-        <v>2.9962501725839141E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.28958110399584541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1353,77 +780,77 @@
         <v>48</v>
       </c>
       <c r="C4">
-        <v>16299.29</v>
+        <v>209.44</v>
       </c>
       <c r="D4">
-        <v>280.64000000000118</v>
+        <v>10.94999999999999</v>
       </c>
       <c r="E4">
-        <v>1.7519578741030051E-2</v>
+        <v>5.5166507128822539E-2</v>
       </c>
       <c r="F4">
-        <v>-4.7129953167027838E-2</v>
+        <v>0.1781515441300556</v>
       </c>
       <c r="G4">
-        <v>2.325464382049169E-2</v>
+        <v>5.5257603453709107E-2</v>
       </c>
       <c r="H4">
-        <v>-7.2512226732239449E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.1780499469280592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5">
-        <v>17614.34</v>
+        <v>2351.67</v>
       </c>
       <c r="D5">
-        <v>345.90000000000151</v>
+        <v>102.3000000000002</v>
       </c>
       <c r="E5">
-        <v>2.003076131949388E-2</v>
+        <v>4.5479400898918547E-2</v>
       </c>
       <c r="F5">
-        <v>-0.14362086677664121</v>
+        <v>9.1226735094451561E-2</v>
       </c>
       <c r="G5">
-        <v>2.1195786139529101E-2</v>
+        <v>5.1125793083291127E-2</v>
       </c>
       <c r="H5">
-        <v>-0.18959443214132879</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>7.5252570800045326E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6">
-        <v>814.19</v>
+        <v>16544.48</v>
       </c>
       <c r="D6">
-        <v>12.5</v>
+        <v>375.27999999999878</v>
       </c>
       <c r="E6">
-        <v>1.5592061769512E-2</v>
+        <v>2.32095589144794E-2</v>
       </c>
       <c r="F6">
-        <v>0.24245013810257771</v>
+        <v>-3.2795941882918227E-2</v>
       </c>
       <c r="G6">
-        <v>2.113597259502931E-2</v>
+        <v>3.046196439125071E-2</v>
       </c>
       <c r="H6">
-        <v>0.2164893959674534</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-5.6891841662117797E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1431,25 +858,25 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>105008.7</v>
+        <v>12674.88</v>
       </c>
       <c r="D7">
-        <v>2715.389999999999</v>
+        <v>361.51999999999862</v>
       </c>
       <c r="E7">
-        <v>2.6545137702553619E-2</v>
+        <v>2.9359979729334459E-2</v>
       </c>
       <c r="F7">
-        <v>-0.1015522863514341</v>
+        <v>-3.4441254240309527E-2</v>
       </c>
       <c r="G7">
-        <v>1.6476010544067329E-2</v>
+        <v>2.9726693981103839E-2</v>
       </c>
       <c r="H7">
-        <v>-0.29480679080741712</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>2.736820164519926E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1457,545 +884,545 @@
         <v>51</v>
       </c>
       <c r="C8">
-        <v>5149.63</v>
+        <v>559.57000000000005</v>
       </c>
       <c r="D8">
-        <v>4.6199999999998909</v>
+        <v>14.28000000000009</v>
       </c>
       <c r="E8">
-        <v>8.979574383722877E-4</v>
+        <v>2.6187900016505061E-2</v>
       </c>
       <c r="F8">
-        <v>-0.1770335922268034</v>
+        <v>-7.8502733680258174E-2</v>
       </c>
       <c r="G8">
-        <v>1.2784089737805321E-2</v>
+        <v>2.655348420021153E-2</v>
       </c>
       <c r="H8">
-        <v>-0.2068597286642071</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-1.951383747757951E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9">
-        <v>10587.81</v>
+        <v>3252.65</v>
       </c>
       <c r="D9">
-        <v>126.3899999999994</v>
+        <v>78.329999999999927</v>
       </c>
       <c r="E9">
-        <v>1.2081533864427559E-2</v>
+        <v>2.4676151112679179E-2</v>
       </c>
       <c r="F9">
-        <v>0.167154827166931</v>
+        <v>-0.13320915011778739</v>
       </c>
       <c r="G9">
-        <v>1.2081533864427559E-2</v>
+        <v>2.5041196728849521E-2</v>
       </c>
       <c r="H9">
-        <v>0.167154827166931</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-7.7722240560974876E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>37136.78</v>
+        <v>11010.98</v>
       </c>
       <c r="D10">
-        <v>-296.52000000000407</v>
+        <v>265.69999999999891</v>
       </c>
       <c r="E10">
-        <v>-7.9212893332942791E-3</v>
+        <v>2.472713600762377E-2</v>
       </c>
       <c r="F10">
-        <v>-0.16537746683357579</v>
+        <v>0.21380327554409589</v>
       </c>
       <c r="G10">
-        <v>1.0035220493695761E-2</v>
+        <v>2.472713600762377E-2</v>
       </c>
       <c r="H10">
-        <v>-0.28038426066902838</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.21380327554409589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C11">
-        <v>3953.3</v>
+        <v>3351.28</v>
       </c>
       <c r="D11">
-        <v>-30.980000000000022</v>
+        <v>80.160000000000309</v>
       </c>
       <c r="E11">
-        <v>-7.7755579427148946E-3</v>
+        <v>2.450536819193427E-2</v>
       </c>
       <c r="F11">
-        <v>-0.19062564619123371</v>
+        <v>3.2344714565595067E-2</v>
       </c>
       <c r="G11">
-        <v>5.9889345341699318E-3</v>
+        <v>2.450536819193427E-2</v>
       </c>
       <c r="H11">
-        <v>-0.1832473462877113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>3.2344714565595067E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12">
-        <v>7459.21</v>
+        <v>6032.18</v>
       </c>
       <c r="D12">
-        <v>32.430000000000291</v>
+        <v>134.4200000000001</v>
       </c>
       <c r="E12">
-        <v>4.3666299526847752E-3</v>
+        <v>2.2791703968964461E-2</v>
       </c>
       <c r="F12">
-        <v>-9.1019762055926434E-2</v>
+        <v>-0.20370834840416399</v>
       </c>
       <c r="G12">
-        <v>4.1709573903478958E-3</v>
+        <v>2.4363899669678449E-2</v>
       </c>
       <c r="H12">
-        <v>-8.9961981964800319E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.2001827115689474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13">
-        <v>1495.1</v>
+        <v>2972.35</v>
       </c>
       <c r="D13">
-        <v>4.8999999999998636</v>
+        <v>60.779999999999752</v>
       </c>
       <c r="E13">
-        <v>3.2881492417125009E-3</v>
+        <v>2.0875335300198691E-2</v>
       </c>
       <c r="F13">
-        <v>-0.1011026538244172</v>
+        <v>-3.4597108679483068E-2</v>
       </c>
       <c r="G13">
-        <v>3.2881492417125009E-3</v>
+        <v>2.3096830571122551E-2</v>
       </c>
       <c r="H13">
-        <v>-0.1011026538244172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.1814918650289126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14">
-        <v>3246.22</v>
+        <v>19516.43</v>
       </c>
       <c r="D14">
-        <v>10.559999999999951</v>
+        <v>424.5</v>
       </c>
       <c r="E14">
-        <v>3.263630913013182E-3</v>
+        <v>2.2234525268005841E-2</v>
       </c>
       <c r="F14">
-        <v>-1.8482694037591511E-5</v>
+        <v>-0.17237649000542379</v>
       </c>
       <c r="G14">
-        <v>3.263630913013182E-3</v>
+        <v>2.259870104368078E-2</v>
       </c>
       <c r="H14">
-        <v>-1.8482694037591511E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.1193968457782135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15">
-        <v>22339.23</v>
+        <v>4889.5200000000004</v>
       </c>
       <c r="D15">
-        <v>-412.38000000000102</v>
+        <v>105.83000000000079</v>
       </c>
       <c r="E15">
-        <v>-1.812531069229828E-2</v>
+        <v>2.2123089079769231E-2</v>
       </c>
       <c r="F15">
-        <v>-3.7303823423196707E-2</v>
+        <v>-0.1869216225249809</v>
       </c>
       <c r="G15">
-        <v>1.908254017590316E-3</v>
+        <v>2.2487225155786831E-2</v>
       </c>
       <c r="H15">
-        <v>-1.042986690024972E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.1348730730972996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16">
-        <v>11705.09</v>
+        <v>22329.94</v>
       </c>
       <c r="D16">
-        <v>11.680000000000289</v>
+        <v>619.93999999999869</v>
       </c>
       <c r="E16">
-        <v>9.9885320022141677E-4</v>
+        <v>2.8555504375863631E-2</v>
       </c>
       <c r="F16">
-        <v>6.6885576383897138E-3</v>
+        <v>-3.7704170591850272E-2</v>
       </c>
       <c r="G16">
-        <v>8.789403407718499E-4</v>
+        <v>1.980728451699831E-2</v>
       </c>
       <c r="H16">
-        <v>6.8829395431200258E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-1.5984861350810901E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17">
-        <v>1603.75</v>
+        <v>17972.36</v>
       </c>
       <c r="D17">
-        <v>-2.6700000000000732</v>
+        <v>459.83000000000169</v>
       </c>
       <c r="E17">
-        <v>-1.662080900387219E-3</v>
+        <v>2.6257199844911039E-2</v>
       </c>
       <c r="F17">
-        <v>3.7489985980372338E-3</v>
+        <v>-0.1262145457179682</v>
       </c>
       <c r="G17">
-        <v>6.9224046337290623E-4</v>
+        <v>1.8717492330291741E-2</v>
       </c>
       <c r="H17">
-        <v>-2.9508126573375652E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>-0.18176749508686019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18">
-        <v>6051.1</v>
+        <v>1448.85</v>
       </c>
       <c r="D18">
-        <v>-43.399999999999643</v>
+        <v>25.2199999999998</v>
       </c>
       <c r="E18">
-        <v>-7.1211748297644872E-3</v>
+        <v>1.771527714363974E-2</v>
       </c>
       <c r="F18">
-        <v>-0.1016375432397523</v>
+        <v>0.17300592635771861</v>
       </c>
       <c r="G18">
-        <v>-2.8273722251165312E-3</v>
+        <v>1.7228645442912249E-2</v>
       </c>
       <c r="H18">
-        <v>-7.2206912671585077E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>0.25200554879886639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19">
-        <v>1432.4</v>
+        <v>6004.8</v>
       </c>
       <c r="D19">
-        <v>-33.480000000000018</v>
+        <v>77</v>
       </c>
       <c r="E19">
-        <v>-2.283952301689085E-2</v>
+        <v>1.2989642025709401E-2</v>
       </c>
       <c r="F19">
-        <v>0.15968781372453769</v>
+        <v>-0.1085113648173166</v>
       </c>
       <c r="G19">
-        <v>-4.5769164139598528E-3</v>
+        <v>1.6827863149114108E-2</v>
       </c>
       <c r="H19">
-        <v>0.2292463662550315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>-7.1696417253689249E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20">
-        <v>2882.63</v>
+        <v>11214.05</v>
       </c>
       <c r="D20">
-        <v>30.840000000000149</v>
+        <v>140.59999999999849</v>
       </c>
       <c r="E20">
-        <v>1.08142605170789E-2</v>
+        <v>1.269703660557453E-2</v>
       </c>
       <c r="F20">
-        <v>-6.3737669989314183E-2</v>
+        <v>-6.4954286023988894E-2</v>
       </c>
       <c r="G20">
-        <v>-7.9569254793687705E-3</v>
+        <v>1.391657602988516E-2</v>
       </c>
       <c r="H20">
-        <v>-0.19867946377364529</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.1045134064143577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21">
-        <v>51451.44</v>
+        <v>38040.57</v>
       </c>
       <c r="D21">
-        <v>-232.16999999999831</v>
+        <v>433.68000000000029</v>
       </c>
       <c r="E21">
-        <v>-4.4921397711963351E-3</v>
+        <v>1.1531929388471029E-2</v>
       </c>
       <c r="F21">
-        <v>8.8594795136669457E-3</v>
+        <v>-6.480527024977234E-2</v>
       </c>
       <c r="G21">
-        <v>-8.61300059111203E-3</v>
+        <v>1.2750065733545309E-2</v>
       </c>
       <c r="H21">
-        <v>-0.12709231096323559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.1043706950730305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22">
-        <v>5928.45</v>
+        <v>6950.5</v>
       </c>
       <c r="D22">
-        <v>-100.5600000000004</v>
+        <v>73.100000000000364</v>
       </c>
       <c r="E22">
-        <v>-1.6679355317042122E-2</v>
+        <v>1.062901677959704E-2</v>
       </c>
       <c r="F22">
-        <v>-0.239734696782583</v>
+        <v>-0.27605745294711947</v>
       </c>
       <c r="G22">
-        <v>-9.3598006723882854E-3</v>
+        <v>1.098905803921779E-2</v>
       </c>
       <c r="H22">
-        <v>-0.2082294168305823</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.22971486103107619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23">
-        <v>10095.34</v>
+        <v>269.58999999999997</v>
       </c>
       <c r="D23">
-        <v>-288.03999999999911</v>
+        <v>2.17999999999995</v>
       </c>
       <c r="E23">
-        <v>-2.7740485275507539E-2</v>
+        <v>8.1522755319545226E-3</v>
       </c>
       <c r="F23">
-        <v>-5.3450359620492723E-2</v>
+        <v>-0.1974338364442858</v>
       </c>
       <c r="G23">
-        <v>-9.6468127163523709E-3</v>
+        <v>9.6617350646690525E-3</v>
       </c>
       <c r="H23">
-        <v>7.8187617389660069E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.20881121387324389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24">
-        <v>11102.15</v>
+        <v>13648.5</v>
       </c>
       <c r="D24">
-        <v>-113.30000000000111</v>
+        <v>10.6200000000008</v>
       </c>
       <c r="E24">
-        <v>-1.0102135892897881E-2</v>
+        <v>7.787134070691426E-4</v>
       </c>
       <c r="F24">
-        <v>-7.4284689882890498E-2</v>
+        <v>0.27576701653631841</v>
       </c>
       <c r="G24">
-        <v>-1.025029982656811E-2</v>
+        <v>8.6813912310386154E-3</v>
       </c>
       <c r="H24">
-        <v>-0.1126363381105928</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.27798733101899981</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25">
-        <v>37736.07</v>
+        <v>38016.06</v>
       </c>
       <c r="D25">
-        <v>-404.40000000000151</v>
+        <v>996.37999999999738</v>
       </c>
       <c r="E25">
-        <v>-1.0602910766437931E-2</v>
+        <v>2.6914873386263641E-2</v>
       </c>
       <c r="F25">
-        <v>-7.2291141129439573E-2</v>
+        <v>-0.14561627857324269</v>
       </c>
       <c r="G25">
-        <v>-1.07509997461378E-2</v>
+        <v>8.2401506162439464E-3</v>
       </c>
       <c r="H25">
-        <v>-0.1107253804946996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.27749529832820158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26">
-        <v>13466.85</v>
+        <v>12828.87</v>
       </c>
       <c r="D26">
-        <v>-194.64999999999961</v>
+        <v>164.0700000000015</v>
       </c>
       <c r="E26">
-        <v>-1.4248069392087229E-2</v>
+        <v>1.295480386583292E-2</v>
       </c>
       <c r="F26">
-        <v>0.25878763575793079</v>
+        <v>7.3243841062262005E-2</v>
       </c>
       <c r="G26">
-        <v>-1.4473310430002551E-2</v>
+        <v>5.7427763518405062E-3</v>
       </c>
       <c r="H26">
-        <v>0.25235016008221672</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>9.7577958712803614E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27">
-        <v>5989.99</v>
+        <v>7499.97</v>
       </c>
       <c r="D27">
-        <v>-221.44999999999979</v>
+        <v>40.760000000000218</v>
       </c>
       <c r="E27">
-        <v>-3.5651958322063797E-2</v>
+        <v>5.4643856386937806E-3</v>
       </c>
       <c r="F27">
-        <v>-0.2092777353887747</v>
+        <v>-8.6052743497848416E-2</v>
       </c>
       <c r="G27">
-        <v>-1.6521937081645399E-2</v>
+        <v>5.6737740700636419E-3</v>
       </c>
       <c r="H27">
-        <v>-0.2151803434842354</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>-8.4757139361426592E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28">
-        <v>15202.64</v>
+        <v>10068.030000000001</v>
       </c>
       <c r="D28">
-        <v>-262.22000000000122</v>
+        <v>62.130000000001019</v>
       </c>
       <c r="E28">
-        <v>-1.695585993019022E-2</v>
+        <v>6.2093364914701521E-3</v>
       </c>
       <c r="F28">
-        <v>6.008375996619475E-2</v>
+        <v>-5.6010973792849923E-2</v>
       </c>
       <c r="G28">
-        <v>-1.7180482246972661E-2</v>
+        <v>4.561865632835449E-3</v>
       </c>
       <c r="H28">
-        <v>5.4662461547662737E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>7.7763867704783163E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -2003,233 +1430,233 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>4852.9399999999996</v>
+        <v>1324.4</v>
       </c>
       <c r="D29">
-        <v>-180.82000000000059</v>
+        <v>-4.1299999999998818</v>
       </c>
       <c r="E29">
-        <v>-3.5921458313467602E-2</v>
+        <v>-3.1086990884661159E-3</v>
       </c>
       <c r="F29">
-        <v>-0.19300451144823649</v>
+        <v>-0.15562639464456479</v>
       </c>
       <c r="G29">
-        <v>-1.8075481291922931E-2</v>
+        <v>4.2684468136888754E-3</v>
       </c>
       <c r="H29">
-        <v>-0.14811386076007299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.18105544469858409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C30">
-        <v>24710.59</v>
+        <v>15199.34</v>
       </c>
       <c r="D30">
-        <v>-552.40999999999985</v>
+        <v>-82.020000000000437</v>
       </c>
       <c r="E30">
-        <v>-2.1866365831453068E-2</v>
+        <v>-5.3673233272431009E-3</v>
       </c>
       <c r="F30">
-        <v>-0.12455099324421751</v>
+        <v>5.9853650168956378E-2</v>
       </c>
       <c r="G30">
-        <v>-2.1528158048154111E-2</v>
+        <v>2.4868221413165692E-3</v>
       </c>
       <c r="H30">
-        <v>-0.1210063208830522</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>6.1698194179336641E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31">
-        <v>1315.74</v>
+        <v>1142.18</v>
       </c>
       <c r="D31">
-        <v>-43.910000000000082</v>
+        <v>7.8400000000001464</v>
       </c>
       <c r="E31">
-        <v>-3.2295075938660767E-2</v>
+        <v>6.9115080134705131E-3</v>
       </c>
       <c r="F31">
-        <v>-0.16114759324195091</v>
+        <v>-0.3187075377723696</v>
       </c>
       <c r="G31">
-        <v>-2.6166463097128001E-2</v>
+        <v>1.4203655657945009E-3</v>
       </c>
       <c r="H31">
-        <v>-0.19526555000064769</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.40682978711349821</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32">
-        <v>267.41000000000003</v>
+        <v>24531.62</v>
       </c>
       <c r="D32">
-        <v>-10.23999999999995</v>
+        <v>-63.729999999999563</v>
       </c>
       <c r="E32">
-        <v>-3.6880965244012083E-2</v>
+        <v>-2.5911401951994591E-3</v>
       </c>
       <c r="F32">
-        <v>-0.20392367003066289</v>
+        <v>-0.1308915585135649</v>
       </c>
       <c r="G32">
-        <v>-2.9265025150649101E-2</v>
+        <v>-2.6555276474048428E-3</v>
       </c>
       <c r="H32">
-        <v>-0.21831480601678249</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.1274041018611648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33">
-        <v>549.20000000000005</v>
+        <v>1578.14</v>
       </c>
       <c r="D33">
-        <v>-27.46999999999991</v>
+        <v>-25.6099999999999</v>
       </c>
       <c r="E33">
-        <v>-4.7635562800214859E-2</v>
+        <v>-1.5968823070927399E-2</v>
       </c>
       <c r="F33">
-        <v>-9.5580001317436158E-2</v>
+        <v>-1.227969156819542E-2</v>
       </c>
       <c r="G33">
-        <v>-3.0006424584285259E-2</v>
+        <v>-3.9798569919122784E-3</v>
       </c>
       <c r="H33">
-        <v>-4.5269927949976418E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-3.2572049952858777E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34">
-        <v>3208.2</v>
+        <v>5143.8900000000003</v>
       </c>
       <c r="D34">
-        <v>-163.54</v>
+        <v>-5.7399999999997817</v>
       </c>
       <c r="E34">
-        <v>-4.8503146743224528E-2</v>
+        <v>-1.1146431879571761E-3</v>
       </c>
       <c r="F34">
-        <v>-0.14505452336030189</v>
+        <v>-0.1779509061271454</v>
       </c>
       <c r="G34">
-        <v>-3.0890068300894021E-2</v>
+        <v>-6.7231834996408502E-3</v>
       </c>
       <c r="H34">
-        <v>-9.7496563875133946E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.21373662953423489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35">
-        <v>1164.6600000000001</v>
+        <v>5846.02</v>
       </c>
       <c r="D35">
-        <v>-17.119999999999891</v>
+        <v>-82.429999999999382</v>
       </c>
       <c r="E35">
-        <v>-1.448662187547589E-2</v>
+        <v>-1.390414020528119E-2</v>
       </c>
       <c r="F35">
-        <v>-0.30529857022708151</v>
+        <v>-0.25030553215172863</v>
       </c>
       <c r="G35">
-        <v>-3.3238293710031293E-2</v>
+        <v>-6.8223306903689718E-3</v>
       </c>
       <c r="H35">
-        <v>-0.38917883891855032</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.2144321777665964</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36">
-        <v>6996.6</v>
+        <v>11646.68</v>
       </c>
       <c r="D36">
-        <v>-388.29999999999927</v>
+        <v>-80.949999999998909</v>
       </c>
       <c r="E36">
-        <v>-5.2580265135614417E-2</v>
+        <v>-6.9025028927411913E-3</v>
       </c>
       <c r="F36">
-        <v>-0.27125581976689678</v>
+        <v>1.66504405142387E-3</v>
       </c>
       <c r="G36">
-        <v>-3.504265788987071E-2</v>
+        <v>-8.7413497222443848E-3</v>
       </c>
       <c r="H36">
-        <v>-0.23071804613623559</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>6.0573604043407947E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37">
-        <v>12379.65</v>
+        <v>52435.65</v>
       </c>
       <c r="D37">
-        <v>-723.73999999999978</v>
+        <v>1066.830000000002</v>
       </c>
       <c r="E37">
-        <v>-5.523303511534039E-2</v>
+        <v>2.076804567439949E-2</v>
       </c>
       <c r="F37">
-        <v>-5.6931558567500977E-2</v>
+        <v>2.815786238365359E-2</v>
       </c>
       <c r="G37">
-        <v>-3.7744533072186059E-2</v>
+        <v>-1.9793821897730601E-2</v>
       </c>
       <c r="H37">
-        <v>-4.471592458704654E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>-0.15477980092306681</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -2237,25 +1664,25 @@
         <v>76</v>
       </c>
       <c r="C38">
-        <v>19228.47</v>
+        <v>3988.9</v>
       </c>
       <c r="D38">
-        <v>-1225.989999999998</v>
+        <v>-28.17999999999984</v>
       </c>
       <c r="E38">
-        <v>-5.9937539294608537E-2</v>
+        <v>-7.0150457546277467E-3</v>
       </c>
       <c r="F38">
-        <v>-0.1845878660582182</v>
+        <v>-0.1833371209096735</v>
       </c>
       <c r="G38">
-        <v>-4.2536121933718918E-2</v>
+        <v>-2.243004335843057E-2</v>
       </c>
       <c r="H38">
-        <v>-0.13922902354800679</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.1930567789564113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -2263,22 +1690,22 @@
         <v>77</v>
       </c>
       <c r="C39">
-        <v>199.83</v>
+        <v>102775.55</v>
       </c>
       <c r="D39">
-        <v>-14.19999999999999</v>
+        <v>-136.6900000000023</v>
       </c>
       <c r="E39">
-        <v>-6.6345839368312842E-2</v>
+        <v>-1.3282190728721719E-3</v>
       </c>
       <c r="F39">
-        <v>0.1240929290656467</v>
+        <v>-0.1206589747661492</v>
       </c>
       <c r="G39">
-        <v>-6.5983208958604767E-2</v>
+        <v>-3.4559075569409403E-2</v>
       </c>
       <c r="H39">
-        <v>0.1238989633309862</v>
+        <v>-0.33084108184944738</v>
       </c>
     </row>
   </sheetData>
@@ -2288,18 +1715,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W151"/>
+  <dimension ref="A1:W156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W151"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -2370,7 +1792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43836</v>
       </c>
@@ -2441,7 +1863,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43837</v>
       </c>
@@ -2512,7 +1934,7 @@
         <v>395.4</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43838</v>
       </c>
@@ -2583,7 +2005,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43839</v>
       </c>
@@ -2654,7 +2076,7 @@
         <v>391.1</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43840</v>
       </c>
@@ -2725,7 +2147,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43843</v>
       </c>
@@ -2796,7 +2218,7 @@
         <v>393.6</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43844</v>
       </c>
@@ -2867,7 +2289,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43845</v>
       </c>
@@ -2938,7 +2360,7 @@
         <v>388.6</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43846</v>
       </c>
@@ -3009,7 +2431,7 @@
         <v>428.8</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43847</v>
       </c>
@@ -3080,7 +2502,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43850</v>
       </c>
@@ -3151,7 +2573,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43851</v>
       </c>
@@ -3222,7 +2644,7 @@
         <v>424.7</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43852</v>
       </c>
@@ -3293,7 +2715,7 @@
         <v>425.2</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43853</v>
       </c>
@@ -3364,7 +2786,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43854</v>
       </c>
@@ -3435,7 +2857,7 @@
         <v>426.2</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43857</v>
       </c>
@@ -3506,7 +2928,7 @@
         <v>420.8</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43858</v>
       </c>
@@ -3577,7 +2999,7 @@
         <v>427.1</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43859</v>
       </c>
@@ -3648,7 +3070,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43860</v>
       </c>
@@ -3719,7 +3141,7 @@
         <v>436.1</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43861</v>
       </c>
@@ -3790,7 +3212,7 @@
         <v>435.5</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43864</v>
       </c>
@@ -3861,7 +3283,7 @@
         <v>422.8</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43865</v>
       </c>
@@ -3932,7 +3354,7 @@
         <v>412.7</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43866</v>
       </c>
@@ -4003,7 +3425,7 @@
         <v>428.3</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43867</v>
       </c>
@@ -4074,7 +3496,7 @@
         <v>433.2</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43868</v>
       </c>
@@ -4145,7 +3567,7 @@
         <v>440.2</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43871</v>
       </c>
@@ -4216,7 +3638,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43872</v>
       </c>
@@ -4287,7 +3709,7 @@
         <v>451.4</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43873</v>
       </c>
@@ -4358,7 +3780,7 @@
         <v>454.5</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43874</v>
       </c>
@@ -4429,7 +3851,7 @@
         <v>455.1</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43875</v>
       </c>
@@ -4500,7 +3922,7 @@
         <v>449.3</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43878</v>
       </c>
@@ -4571,7 +3993,7 @@
         <v>449.3</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43879</v>
       </c>
@@ -4642,7 +4064,7 @@
         <v>446.1</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43880</v>
       </c>
@@ -4713,7 +4135,7 @@
         <v>460.3</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43881</v>
       </c>
@@ -4784,7 +4206,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43882</v>
       </c>
@@ -4855,7 +4277,7 @@
         <v>460.1</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43885</v>
       </c>
@@ -4926,7 +4348,7 @@
         <v>443.1</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43886</v>
       </c>
@@ -4997,7 +4419,7 @@
         <v>435.3</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43887</v>
       </c>
@@ -5068,7 +4490,7 @@
         <v>427.5</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43888</v>
       </c>
@@ -5139,7 +4561,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43889</v>
       </c>
@@ -5210,7 +4632,7 @@
         <v>399.4</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43892</v>
       </c>
@@ -5281,7 +4703,7 @@
         <v>415.6</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43893</v>
       </c>
@@ -5352,7 +4774,7 @@
         <v>404.1</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43894</v>
       </c>
@@ -5423,7 +4845,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43895</v>
       </c>
@@ -5494,7 +4916,7 @@
         <v>407.5</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43896</v>
       </c>
@@ -5565,7 +4987,7 @@
         <v>400.4</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43899</v>
       </c>
@@ -5636,7 +5058,7 @@
         <v>370.4</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43900</v>
       </c>
@@ -5707,7 +5129,7 @@
         <v>378.8</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43901</v>
       </c>
@@ -5778,7 +5200,7 @@
         <v>373.5</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43902</v>
       </c>
@@ -5849,7 +5271,7 @@
         <v>330.1</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43903</v>
       </c>
@@ -5920,7 +5342,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43906</v>
       </c>
@@ -5991,7 +5413,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43907</v>
       </c>
@@ -6062,7 +5484,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43908</v>
       </c>
@@ -6133,7 +5555,7 @@
         <v>303.39999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43909</v>
       </c>
@@ -6204,7 +5626,7 @@
         <v>319.8</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43910</v>
       </c>
@@ -6275,7 +5697,7 @@
         <v>322.3</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43913</v>
       </c>
@@ -6346,7 +5768,7 @@
         <v>320.2</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43914</v>
       </c>
@@ -6417,7 +5839,7 @@
         <v>321.5</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43915</v>
       </c>
@@ -6488,7 +5910,7 @@
         <v>311.60000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43916</v>
       </c>
@@ -6559,7 +5981,7 @@
         <v>320.8</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43917</v>
       </c>
@@ -6630,7 +6052,7 @@
         <v>311.3</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43920</v>
       </c>
@@ -6701,7 +6123,7 @@
         <v>296.5</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43921</v>
       </c>
@@ -6772,7 +6194,7 @@
         <v>278.5</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43922</v>
       </c>
@@ -6843,7 +6265,7 @@
         <v>259.8</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43923</v>
       </c>
@@ -6914,7 +6336,7 @@
         <v>264.10000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43924</v>
       </c>
@@ -6985,7 +6407,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43927</v>
       </c>
@@ -7056,7 +6478,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43928</v>
       </c>
@@ -7127,7 +6549,7 @@
         <v>307.39999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43929</v>
       </c>
@@ -7198,7 +6620,7 @@
         <v>304.10000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43930</v>
       </c>
@@ -7269,7 +6691,7 @@
         <v>322.10000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43931</v>
       </c>
@@ -7340,7 +6762,7 @@
         <v>322.10000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43934</v>
       </c>
@@ -7411,7 +6833,7 @@
         <v>333.7</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43935</v>
       </c>
@@ -7482,7 +6904,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43936</v>
       </c>
@@ -7553,7 +6975,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43937</v>
       </c>
@@ -7624,7 +7046,7 @@
         <v>332.6</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43938</v>
       </c>
@@ -7695,7 +7117,7 @@
         <v>341.7</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43941</v>
       </c>
@@ -7766,7 +7188,7 @@
         <v>328.5</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43942</v>
       </c>
@@ -7837,7 +7259,7 @@
         <v>317.5</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43943</v>
       </c>
@@ -7908,7 +7330,7 @@
         <v>329.4</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43944</v>
       </c>
@@ -7979,7 +7401,7 @@
         <v>325.2</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43945</v>
       </c>
@@ -8050,7 +7472,7 @@
         <v>322.3</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43948</v>
       </c>
@@ -8121,7 +7543,7 @@
         <v>315.60000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43949</v>
       </c>
@@ -8192,7 +7614,7 @@
         <v>326.5</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43950</v>
       </c>
@@ -8263,7 +7685,7 @@
         <v>317.89999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43951</v>
       </c>
@@ -8334,7 +7756,7 @@
         <v>319.7</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43952</v>
       </c>
@@ -8405,7 +7827,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43955</v>
       </c>
@@ -8476,7 +7898,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43956</v>
       </c>
@@ -8547,7 +7969,7 @@
         <v>336.2</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43957</v>
       </c>
@@ -8618,7 +8040,7 @@
         <v>327.39999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43958</v>
       </c>
@@ -8689,7 +8111,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>43959</v>
       </c>
@@ -8760,7 +8182,7 @@
         <v>342.6</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43962</v>
       </c>
@@ -8831,7 +8253,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>43963</v>
       </c>
@@ -8902,7 +8324,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>43964</v>
       </c>
@@ -8973,7 +8395,7 @@
         <v>335.1</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>43965</v>
       </c>
@@ -9044,7 +8466,7 @@
         <v>343.5</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>43966</v>
       </c>
@@ -9115,7 +8537,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43969</v>
       </c>
@@ -9186,7 +8608,7 @@
         <v>346.2</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43970</v>
       </c>
@@ -9257,7 +8679,7 @@
         <v>354.3</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43971</v>
       </c>
@@ -9328,7 +8750,7 @@
         <v>367.5</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>43972</v>
       </c>
@@ -9399,7 +8821,7 @@
         <v>370.3</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>43973</v>
       </c>
@@ -9470,7 +8892,7 @@
         <v>367.5</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>43976</v>
       </c>
@@ -9541,7 +8963,7 @@
         <v>367.5</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>43977</v>
       </c>
@@ -9612,7 +9034,7 @@
         <v>356.8</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43978</v>
       </c>
@@ -9683,7 +9105,7 @@
         <v>359.9</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43979</v>
       </c>
@@ -9754,7 +9176,7 @@
         <v>368.3</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>43980</v>
       </c>
@@ -9825,7 +9247,7 @@
         <v>367.1</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>43983</v>
       </c>
@@ -9896,7 +9318,7 @@
         <v>362.3</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>43984</v>
       </c>
@@ -9967,7 +9389,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43985</v>
       </c>
@@ -10038,7 +9460,7 @@
         <v>348.1</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43986</v>
       </c>
@@ -10109,7 +9531,7 @@
         <v>356.2</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43987</v>
       </c>
@@ -10180,7 +9602,7 @@
         <v>368.8</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43990</v>
       </c>
@@ -10251,7 +9673,7 @@
         <v>370.8</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43991</v>
       </c>
@@ -10322,7 +9744,7 @@
         <v>357.6</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43992</v>
       </c>
@@ -10393,7 +9815,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>43993</v>
       </c>
@@ -10464,7 +9886,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>43994</v>
       </c>
@@ -10535,7 +9957,7 @@
         <v>354.6</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>43997</v>
       </c>
@@ -10606,7 +10028,7 @@
         <v>361.3</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>43998</v>
       </c>
@@ -10677,7 +10099,7 @@
         <v>373.4</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43999</v>
       </c>
@@ -10748,7 +10170,7 @@
         <v>382.3</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>44000</v>
       </c>
@@ -10819,7 +10241,7 @@
         <v>401.3</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>44001</v>
       </c>
@@ -10890,7 +10312,7 @@
         <v>421.4</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>44004</v>
       </c>
@@ -10961,7 +10383,7 @@
         <v>430.1</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>44005</v>
       </c>
@@ -11032,7 +10454,7 @@
         <v>440.7</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>44006</v>
       </c>
@@ -11103,7 +10525,7 @@
         <v>428.8</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>44007</v>
       </c>
@@ -11174,7 +10596,7 @@
         <v>435.6</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>44008</v>
       </c>
@@ -11245,7 +10667,7 @@
         <v>430.5</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>44011</v>
       </c>
@@ -11316,7 +10738,7 @@
         <v>426.1</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>44012</v>
       </c>
@@ -11387,7 +10809,7 @@
         <v>435.7</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>44013</v>
       </c>
@@ -11458,7 +10880,7 @@
         <v>438.6</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>44014</v>
       </c>
@@ -11529,7 +10951,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>44015</v>
       </c>
@@ -11600,7 +11022,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>44018</v>
       </c>
@@ -11671,7 +11093,7 @@
         <v>460.1</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>44019</v>
       </c>
@@ -11742,7 +11164,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>44020</v>
       </c>
@@ -11813,7 +11235,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>44021</v>
       </c>
@@ -11884,7 +11306,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>44022</v>
       </c>
@@ -11955,7 +11377,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>44025</v>
       </c>
@@ -12026,7 +11448,7 @@
         <v>533.4</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>44026</v>
       </c>
@@ -12097,7 +11519,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>44027</v>
       </c>
@@ -12168,7 +11590,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>44028</v>
       </c>
@@ -12239,7 +11661,7 @@
         <v>524.20000000000005</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>44029</v>
       </c>
@@ -12310,7 +11732,7 @@
         <v>550.79999999999995</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>44032</v>
       </c>
@@ -12381,7 +11803,7 @@
         <v>532.20000000000005</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>44033</v>
       </c>
@@ -12452,7 +11874,7 @@
         <v>513.20000000000005</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>44034</v>
       </c>
@@ -12523,7 +11945,7 @@
         <v>510.5</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>44035</v>
       </c>
@@ -12594,7 +12016,7 @@
         <v>522.4</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>44036</v>
       </c>
@@ -12665,7 +12087,7 @@
         <v>541.4</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>44039</v>
       </c>
@@ -12736,12 +12158,12 @@
         <v>567.9</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>44040</v>
       </c>
       <c r="B148">
-        <v>1944.6</v>
+        <v>1952.8</v>
       </c>
       <c r="C148">
         <v>24.3</v>
@@ -12807,12 +12229,12 @@
         <v>566.9</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>44041</v>
       </c>
       <c r="B149">
-        <v>1953.4</v>
+        <v>1965.3</v>
       </c>
       <c r="C149">
         <v>24.321000000000002</v>
@@ -12878,12 +12300,12 @@
         <v>585</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>44042</v>
       </c>
       <c r="B150">
-        <v>1942.3</v>
+        <v>1955.2</v>
       </c>
       <c r="C150">
         <v>23.361999999999998</v>
@@ -12949,12 +12371,12 @@
         <v>580.4</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>44043</v>
       </c>
       <c r="B151">
-        <v>1962.8</v>
+        <v>1973.9</v>
       </c>
       <c r="C151">
         <v>24.216000000000001</v>
@@ -12981,13 +12403,13 @@
         <v>1709</v>
       </c>
       <c r="K151">
-        <v>183.95</v>
+        <v>186.7</v>
       </c>
       <c r="L151">
-        <v>149.19999999999999</v>
+        <v>147.9</v>
       </c>
       <c r="M151">
-        <v>1043</v>
+        <v>1046.9000000000001</v>
       </c>
       <c r="N151">
         <v>2.8679999999999999</v>
@@ -13018,637 +12440,364 @@
       </c>
       <c r="W151">
         <v>585.79999999999995</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B152">
+        <v>1974.7</v>
+      </c>
+      <c r="C152">
+        <v>24.417000000000002</v>
+      </c>
+      <c r="D152">
+        <v>938.4</v>
+      </c>
+      <c r="E152">
+        <v>2140.5</v>
+      </c>
+      <c r="F152">
+        <v>41.01</v>
+      </c>
+      <c r="G152">
+        <v>44.15</v>
+      </c>
+      <c r="H152">
+        <v>2.101</v>
+      </c>
+      <c r="I152">
+        <v>1.2408999999999999</v>
+      </c>
+      <c r="J152">
+        <v>1721.5</v>
+      </c>
+      <c r="K152">
+        <v>184.5</v>
+      </c>
+      <c r="L152">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="M152">
+        <v>1061.9000000000001</v>
+      </c>
+      <c r="N152">
+        <v>2.9119999999999999</v>
+      </c>
+      <c r="O152">
+        <v>317.5</v>
+      </c>
+      <c r="P152">
+        <v>894</v>
+      </c>
+      <c r="Q152">
+        <v>63.78</v>
+      </c>
+      <c r="R152">
+        <v>2469</v>
+      </c>
+      <c r="S152">
+        <v>117.9</v>
+      </c>
+      <c r="T152">
+        <v>12.72</v>
+      </c>
+      <c r="U152">
+        <v>103.02500000000001</v>
+      </c>
+      <c r="V152">
+        <v>49.88</v>
+      </c>
+      <c r="W152">
+        <v>596.20000000000005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B153">
+        <v>2008.5</v>
+      </c>
+      <c r="C153">
+        <v>26.027999999999999</v>
+      </c>
+      <c r="D153">
+        <v>956.9</v>
+      </c>
+      <c r="E153">
+        <v>2182.65</v>
+      </c>
+      <c r="F153">
+        <v>41.7</v>
+      </c>
+      <c r="G153">
+        <v>44.43</v>
+      </c>
+      <c r="H153">
+        <v>2.1930000000000001</v>
+      </c>
+      <c r="I153">
+        <v>1.2584</v>
+      </c>
+      <c r="J153">
+        <v>1739.5</v>
+      </c>
+      <c r="K153">
+        <v>185.6</v>
+      </c>
+      <c r="L153">
+        <v>150.6</v>
+      </c>
+      <c r="M153">
+        <v>1066.5999999999999</v>
+      </c>
+      <c r="N153">
+        <v>2.8944999999999999</v>
+      </c>
+      <c r="O153">
+        <v>308.25</v>
+      </c>
+      <c r="P153">
+        <v>883.12</v>
+      </c>
+      <c r="Q153">
+        <v>63.95</v>
+      </c>
+      <c r="R153">
+        <v>2449</v>
+      </c>
+      <c r="S153">
+        <v>121.05</v>
+      </c>
+      <c r="T153">
+        <v>12.78</v>
+      </c>
+      <c r="U153">
+        <v>102.27500000000001</v>
+      </c>
+      <c r="V153">
+        <v>49.7</v>
+      </c>
+      <c r="W153">
+        <v>610.9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B154">
+        <v>2037.1</v>
+      </c>
+      <c r="C154">
+        <v>26.89</v>
+      </c>
+      <c r="D154">
+        <v>991.25</v>
+      </c>
+      <c r="E154">
+        <v>2227.6</v>
+      </c>
+      <c r="F154">
+        <v>42.19</v>
+      </c>
+      <c r="G154">
+        <v>45.17</v>
+      </c>
+      <c r="H154">
+        <v>2.1909999999999998</v>
+      </c>
+      <c r="I154">
+        <v>1.2630999999999999</v>
+      </c>
+      <c r="J154">
+        <v>1736.5</v>
+      </c>
+      <c r="K154">
+        <v>189.4</v>
+      </c>
+      <c r="L154">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="M154">
+        <v>1086.5999999999999</v>
+      </c>
+      <c r="N154">
+        <v>2.9169999999999998</v>
+      </c>
+      <c r="O154">
+        <v>311</v>
+      </c>
+      <c r="P154">
+        <v>879.75</v>
+      </c>
+      <c r="Q154">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="R154">
+        <v>2481</v>
+      </c>
+      <c r="S154">
+        <v>121.55</v>
+      </c>
+      <c r="T154">
+        <v>12.54</v>
+      </c>
+      <c r="U154">
+        <v>102.3</v>
+      </c>
+      <c r="V154">
+        <v>49.45</v>
+      </c>
+      <c r="W154">
+        <v>622.6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B155">
+        <v>2058.4</v>
+      </c>
+      <c r="C155">
+        <v>28.4</v>
+      </c>
+      <c r="D155">
+        <v>1026.3499999999999</v>
+      </c>
+      <c r="E155">
+        <v>2285.6999999999998</v>
+      </c>
+      <c r="F155">
+        <v>41.95</v>
+      </c>
+      <c r="G155">
+        <v>45.09</v>
+      </c>
+      <c r="H155">
+        <v>2.165</v>
+      </c>
+      <c r="I155">
+        <v>1.2499</v>
+      </c>
+      <c r="J155">
+        <v>1777.25</v>
+      </c>
+      <c r="K155">
+        <v>191.25</v>
+      </c>
+      <c r="L155">
+        <v>154.65</v>
+      </c>
+      <c r="M155">
+        <v>1101.9000000000001</v>
+      </c>
+      <c r="N155">
+        <v>2.9104999999999999</v>
+      </c>
+      <c r="O155">
+        <v>311.25</v>
+      </c>
+      <c r="P155">
+        <v>880.25</v>
+      </c>
+      <c r="Q155">
+        <v>64.84</v>
+      </c>
+      <c r="R155">
+        <v>2510</v>
+      </c>
+      <c r="S155">
+        <v>117</v>
+      </c>
+      <c r="T155">
+        <v>12.94</v>
+      </c>
+      <c r="U155">
+        <v>102.625</v>
+      </c>
+      <c r="V155">
+        <v>49.75</v>
+      </c>
+      <c r="W155">
+        <v>641.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B156">
+        <v>2018</v>
+      </c>
+      <c r="C156">
+        <v>27.54</v>
+      </c>
+      <c r="D156">
+        <v>981.25</v>
+      </c>
+      <c r="E156">
+        <v>2197.9</v>
+      </c>
+      <c r="F156">
+        <v>41.22</v>
+      </c>
+      <c r="G156">
+        <v>44.4</v>
+      </c>
+      <c r="H156">
+        <v>2.238</v>
+      </c>
+      <c r="I156">
+        <v>1.2199</v>
+      </c>
+      <c r="J156">
+        <v>1757.75</v>
+      </c>
+      <c r="K156">
+        <v>189.3</v>
+      </c>
+      <c r="L156">
+        <v>152</v>
+      </c>
+      <c r="M156">
+        <v>1096.5</v>
+      </c>
+      <c r="N156">
+        <v>2.7925</v>
+      </c>
+      <c r="O156">
+        <v>307.75</v>
+      </c>
+      <c r="P156">
+        <v>871.25</v>
+      </c>
+      <c r="Q156">
+        <v>62.23</v>
+      </c>
+      <c r="R156">
+        <v>2546</v>
+      </c>
+      <c r="S156">
+        <v>115.45</v>
+      </c>
+      <c r="T156">
+        <v>12.67</v>
+      </c>
+      <c r="U156">
+        <v>102.8</v>
+      </c>
+      <c r="V156">
+        <v>51</v>
+      </c>
+      <c r="W156">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="15"/>
-      <c r="G1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="4">
-        <v>-1.93</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="7">
-        <v>3.8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="7">
-        <v>6.42</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="4">
-        <v>6.64</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="7">
-        <v>-7.68</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="7">
-        <v>51.3</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="4">
-        <v>31.3</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="4">
-        <v>17.55</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-8.3000000000000007</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1.93</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="4">
-        <v>34.86</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="7">
-        <v>-74</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="4">
-        <v>14</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="4">
-        <v>19</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="8">
-        <v>20.71</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C26" s="4">
-        <v>5.35</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" s="7">
-        <v>2.76</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C28" s="7">
-        <v>3.84</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C30" s="14">
-        <v>-12.95</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.investing.com/equities/united-spirits-earnings"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://www.investing.com/equities/bharti-infratel-ltd-earnings"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://www.investing.com/equities/kotak-mahindra-bank-earnings"/>
-    <hyperlink ref="B6" r:id="rId4" display="https://www.investing.com/equities/tech-mahindra-earnings"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://www.investing.com/equities/marico-earnings"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://www.investing.com/equities/havells-india-earnings"/>
-    <hyperlink ref="B9" r:id="rId7" display="https://www.investing.com/equities/indusind-bank-earnings"/>
-    <hyperlink ref="B11" r:id="rId8" display="https://www.investing.com/equities/bharti-airtel-earnings"/>
-    <hyperlink ref="B12" r:id="rId9" display="https://www.investing.com/equities/nestle-earnings"/>
-    <hyperlink ref="B13" r:id="rId10" display="https://www.investing.com/equities/ultratech-cement-earnings"/>
-    <hyperlink ref="B15" r:id="rId11" display="https://www.investing.com/equities/housing-development-finance-earnings"/>
-    <hyperlink ref="B16" r:id="rId12" display="https://www.investing.com/equities/maruti-suzuki-india-earnings"/>
-    <hyperlink ref="B17" r:id="rId13" display="https://www.investing.com/equities/dabur-india-earnings"/>
-    <hyperlink ref="B18" r:id="rId14" display="https://www.investing.com/equities/dr-reddys-laboratories-earnings"/>
-    <hyperlink ref="B19" r:id="rId15" display="https://www.investing.com/equities/colgate-palmolive-(india)-earnings"/>
-    <hyperlink ref="B20" r:id="rId16" display="https://www.investing.com/equities/interglobe-aviation-ltd-earnings"/>
-    <hyperlink ref="B22" r:id="rId17" display="https://www.investing.com/equities/reliance-industries-earnings"/>
-    <hyperlink ref="B23" r:id="rId18" display="https://www.investing.com/equities/torrent-pharmaceuticals-earnings"/>
-    <hyperlink ref="B24" r:id="rId19" display="https://www.investing.com/equities/piramal-healthcare-earnings"/>
-    <hyperlink ref="B26" r:id="rId20" display="https://www.investing.com/equities/state-bank-of-india-earnings"/>
-    <hyperlink ref="B27" r:id="rId21" display="https://www.investing.com/equities/sun-pharma-advanced-research-earnings"/>
-    <hyperlink ref="B28" r:id="rId22" display="https://www.investing.com/equities/indian-oil-corporation-earnings"/>
-    <hyperlink ref="B29" r:id="rId23" display="https://www.investing.com/equities/berger-paints-(i)-earnings"/>
-    <hyperlink ref="B30" r:id="rId24" display="https://www.investing.com/equities/tata-motors-ltd-earnings"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -41,28 +41,19 @@
     <t>Indices</t>
   </si>
   <si>
-    <t>SmallCap 2000</t>
-  </si>
-  <si>
     <t>KOSDAQ</t>
   </si>
   <si>
-    <t>HNX 30</t>
+    <t>BSE Sensex</t>
   </si>
   <si>
-    <t>KOSPI</t>
+    <t>Nifty 50</t>
   </si>
   <si>
-    <t>S&amp;P/TSX</t>
+    <t>NZX 50</t>
   </si>
   <si>
-    <t>DAX</t>
-  </si>
-  <si>
-    <t>AEX</t>
-  </si>
-  <si>
-    <t>Euro Stoxx 50</t>
+    <t>HNX 30</t>
   </si>
   <si>
     <t>Nasdaq</t>
@@ -71,184 +62,193 @@
     <t>S&amp;P 500</t>
   </si>
   <si>
+    <t>China A50</t>
+  </si>
+  <si>
+    <t>SZSE Component</t>
+  </si>
+  <si>
+    <t>COLCAP</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>IDX Composite</t>
+  </si>
+  <si>
+    <t>KOSPI</t>
+  </si>
+  <si>
+    <t>CAC 40</t>
+  </si>
+  <si>
+    <t>IBEX 35</t>
+  </si>
+  <si>
+    <t>SmallCap 2000</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>S&amp;P/TSX</t>
+  </si>
+  <si>
+    <t>FTSE/JSE Top 40</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50</t>
+  </si>
+  <si>
+    <t>Hang Seng</t>
+  </si>
+  <si>
+    <t>Tadawul All Share</t>
+  </si>
+  <si>
+    <t>Taiwan Weighted</t>
+  </si>
+  <si>
+    <t>S&amp;P Lima General</t>
+  </si>
+  <si>
+    <t>AEX</t>
+  </si>
+  <si>
+    <t>FTSE Singapore</t>
+  </si>
+  <si>
+    <t>Bovespa</t>
+  </si>
+  <si>
+    <t>FTSE MIB</t>
+  </si>
+  <si>
+    <t>S&amp;P/ASX 200</t>
+  </si>
+  <si>
+    <t>OMXC25</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
     <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>S&amp;P/BMV IPC</t>
+  </si>
+  <si>
+    <t>Nikkei 225</t>
+  </si>
+  <si>
+    <t>PSEi Composite</t>
   </si>
   <si>
     <t>MOEX</t>
   </si>
   <si>
-    <t>FTSE MIB</t>
-  </si>
-  <si>
-    <t>CAC 40</t>
-  </si>
-  <si>
-    <t>Nikkei 225</t>
-  </si>
-  <si>
-    <t>S&amp;P Lima General</t>
-  </si>
-  <si>
-    <t>OMXC25</t>
-  </si>
-  <si>
-    <t>S&amp;P/ASX 200</t>
-  </si>
-  <si>
-    <t>Nifty 50</t>
-  </si>
-  <si>
-    <t>BSE Sensex</t>
-  </si>
-  <si>
-    <t>IBEX 35</t>
-  </si>
-  <si>
-    <t>FTSE Singapore</t>
-  </si>
-  <si>
-    <t>SZSE Component</t>
-  </si>
-  <si>
-    <t>S&amp;P/BMV IPC</t>
-  </si>
-  <si>
-    <t>Taiwan Weighted</t>
-  </si>
-  <si>
-    <t>Tadawul All Share</t>
-  </si>
-  <si>
-    <t>SMI</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>China A50</t>
-  </si>
-  <si>
-    <t>COLCAP</t>
-  </si>
-  <si>
-    <t>Hang Seng</t>
+    <t>S&amp;P CLX IPSA</t>
   </si>
   <si>
     <t>KLCI</t>
   </si>
   <si>
-    <t>IDX Composite</t>
+    <t>South Korea</t>
   </si>
   <si>
-    <t>PSEi Composite</t>
+    <t>India</t>
   </si>
   <si>
-    <t>NZX 50</t>
+    <t>New Zealand</t>
   </si>
   <si>
-    <t>FTSE/JSE Top 40</t>
-  </si>
-  <si>
-    <t>S&amp;P CLX IPSA</t>
-  </si>
-  <si>
-    <t>Bovespa</t>
+    <t>Vietnam</t>
   </si>
   <si>
     <t>United States</t>
   </si>
   <si>
-    <t>South Korea</t>
+    <t>China</t>
   </si>
   <si>
-    <t>Vietnam</t>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
   <si>
     <t>Canada</t>
   </si>
   <si>
-    <t>Germany</t>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Peru</t>
   </si>
   <si>
     <t>Netherlands</t>
   </si>
   <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Philippines</t>
   </si>
   <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
+    <t>Chile</t>
   </si>
   <si>
     <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Brazil</t>
   </si>
   <si>
     <t>Date</t>
@@ -728,22 +728,22 @@
         <v>46</v>
       </c>
       <c r="C2">
-        <v>1569.18</v>
+        <v>841.3</v>
       </c>
       <c r="D2">
-        <v>88.75</v>
+        <v>45.289999999999957</v>
       </c>
       <c r="E2">
-        <v>5.9948798659848812E-2</v>
+        <v>5.6896270147359873E-2</v>
       </c>
       <c r="F2">
-        <v>-5.6563616031167663E-2</v>
+        <v>0.28381987151119331</v>
       </c>
       <c r="G2">
-        <v>5.9948798659848812E-2</v>
+        <v>5.4856641688944663E-2</v>
       </c>
       <c r="H2">
-        <v>-5.6563616031167663E-2</v>
+        <v>0.26139105809342128</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -754,22 +754,22 @@
         <v>47</v>
       </c>
       <c r="C3">
-        <v>857.63</v>
+        <v>39467.31</v>
       </c>
       <c r="D3">
-        <v>42.330000000000041</v>
+        <v>1032.589999999997</v>
       </c>
       <c r="E3">
-        <v>5.1919538820066391E-2</v>
+        <v>2.686607317550371E-2</v>
       </c>
       <c r="F3">
-        <v>0.30873937525751183</v>
+        <v>-2.9730093176352109E-2</v>
       </c>
       <c r="G3">
-        <v>5.7600712698265832E-2</v>
+        <v>4.3922437430809591E-2</v>
       </c>
       <c r="H3">
-        <v>0.28958110399584541</v>
+        <v>-5.6605761553823693E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -777,25 +777,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>209.44</v>
+        <v>11647.6</v>
       </c>
       <c r="D4">
-        <v>10.94999999999999</v>
+        <v>276</v>
       </c>
       <c r="E4">
-        <v>5.5166507128822539E-2</v>
+        <v>2.427099088958462E-2</v>
       </c>
       <c r="F4">
-        <v>0.1781515441300556</v>
+        <v>-2.8804182422319521E-2</v>
       </c>
       <c r="G4">
-        <v>5.5257603453709107E-2</v>
+        <v>4.128425052794249E-2</v>
       </c>
       <c r="H4">
-        <v>0.1780499469280592</v>
+        <v>-5.5705497756578633E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -803,25 +803,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5">
-        <v>2351.67</v>
+        <v>12093.52</v>
       </c>
       <c r="D5">
-        <v>102.3000000000002</v>
+        <v>257.57999999999993</v>
       </c>
       <c r="E5">
-        <v>4.5479400898918547E-2</v>
+        <v>2.1762530056759211E-2</v>
       </c>
       <c r="F5">
-        <v>9.1226735094451561E-2</v>
+        <v>4.0095224006907897E-2</v>
       </c>
       <c r="G5">
-        <v>5.1125793083291127E-2</v>
+        <v>3.7881789648989583E-2</v>
       </c>
       <c r="H5">
-        <v>7.5252570800045326E-2</v>
+        <v>3.8533183788990399E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -832,22 +832,22 @@
         <v>49</v>
       </c>
       <c r="C6">
-        <v>16544.48</v>
+        <v>233.97</v>
       </c>
       <c r="D6">
-        <v>375.27999999999878</v>
+        <v>7.710000000000008</v>
       </c>
       <c r="E6">
-        <v>2.32095589144794E-2</v>
+        <v>3.4075841951737067E-2</v>
       </c>
       <c r="F6">
-        <v>-3.2795941882918227E-2</v>
+        <v>0.31613883107385932</v>
       </c>
       <c r="G6">
-        <v>3.046196439125071E-2</v>
+        <v>3.4075841951737067E-2</v>
       </c>
       <c r="H6">
-        <v>-5.6891841662117797E-2</v>
+        <v>0.31596853092031513</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -858,22 +858,22 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>12674.88</v>
+        <v>11695.63</v>
       </c>
       <c r="D7">
-        <v>361.51999999999862</v>
+        <v>383.82999999999993</v>
       </c>
       <c r="E7">
-        <v>2.9359979729334459E-2</v>
+        <v>3.3931823405647148E-2</v>
       </c>
       <c r="F7">
-        <v>-3.4441254240309527E-2</v>
+        <v>0.28927615921124139</v>
       </c>
       <c r="G7">
-        <v>2.9726693981103839E-2</v>
+        <v>3.3931823405647148E-2</v>
       </c>
       <c r="H7">
-        <v>2.736820164519926E-2</v>
+        <v>0.28927615921124139</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,25 +881,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8">
-        <v>559.57000000000005</v>
+        <v>3508.01</v>
       </c>
       <c r="D8">
-        <v>14.28000000000009</v>
+        <v>110.85000000000041</v>
       </c>
       <c r="E8">
-        <v>2.6187900016505061E-2</v>
+        <v>3.2630196988072457E-2</v>
       </c>
       <c r="F8">
-        <v>-7.8502733680258174E-2</v>
+        <v>8.0624591840506632E-2</v>
       </c>
       <c r="G8">
-        <v>2.655348420021153E-2</v>
+        <v>3.2630196988072457E-2</v>
       </c>
       <c r="H8">
-        <v>-1.951383747757951E-2</v>
+        <v>8.0624591840506632E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -907,25 +907,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9">
-        <v>3252.65</v>
+        <v>15818.02</v>
       </c>
       <c r="D9">
-        <v>78.329999999999927</v>
+        <v>434.36000000000058</v>
       </c>
       <c r="E9">
-        <v>2.4676151112679179E-2</v>
+        <v>2.8235153403026288E-2</v>
       </c>
       <c r="F9">
-        <v>-0.13320915011778739</v>
+        <v>0.10299435603424591</v>
       </c>
       <c r="G9">
-        <v>2.5041196728849521E-2</v>
+        <v>3.2056057202864308E-2</v>
       </c>
       <c r="H9">
-        <v>-7.7722240560974876E-2</v>
+        <v>0.1150502195733847</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,25 +933,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C10">
-        <v>11010.98</v>
+        <v>13851.32</v>
       </c>
       <c r="D10">
-        <v>265.69999999999891</v>
+        <v>373.31999999999971</v>
       </c>
       <c r="E10">
-        <v>2.472713600762377E-2</v>
+        <v>2.7698471583320838E-2</v>
       </c>
       <c r="F10">
-        <v>0.21380327554409589</v>
+        <v>0.29472522192840511</v>
       </c>
       <c r="G10">
-        <v>2.472713600762377E-2</v>
+        <v>3.1517381082927683E-2</v>
       </c>
       <c r="H10">
-        <v>0.21380327554409589</v>
+        <v>0.30887672733807131</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -959,25 +959,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>3351.28</v>
+        <v>1226.21</v>
       </c>
       <c r="D11">
-        <v>80.160000000000309</v>
+        <v>39.920000000000073</v>
       </c>
       <c r="E11">
-        <v>2.450536819193427E-2</v>
+        <v>3.3651130836473531E-2</v>
       </c>
       <c r="F11">
-        <v>3.2344714565595067E-2</v>
+        <v>-0.26858496024431999</v>
       </c>
       <c r="G11">
-        <v>2.450536819193427E-2</v>
+        <v>3.0282983354242621E-2</v>
       </c>
       <c r="H11">
-        <v>3.2344714565595067E-2</v>
+        <v>-0.37553198230142387</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -985,25 +985,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12">
-        <v>6032.18</v>
+        <v>1323.31</v>
       </c>
       <c r="D12">
-        <v>134.4200000000001</v>
+        <v>24.049999999999951</v>
       </c>
       <c r="E12">
-        <v>2.2791703968964461E-2</v>
+        <v>1.8510536767082812E-2</v>
       </c>
       <c r="F12">
-        <v>-0.20370834840416399</v>
+        <v>-0.15632132610774629</v>
       </c>
       <c r="G12">
-        <v>2.4363899669678449E-2</v>
+        <v>2.2908447370110219E-2</v>
       </c>
       <c r="H12">
-        <v>-0.2001827115689474</v>
+        <v>-0.18657118773620759</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1011,25 +1011,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13">
-        <v>2972.35</v>
+        <v>5346.66</v>
       </c>
       <c r="D13">
-        <v>60.779999999999752</v>
+        <v>73.849999999999454</v>
       </c>
       <c r="E13">
-        <v>2.0875335300198691E-2</v>
+        <v>1.400581473635487E-2</v>
       </c>
       <c r="F13">
-        <v>-3.4597108679483068E-2</v>
+        <v>-0.14554607344903639</v>
       </c>
       <c r="G13">
-        <v>2.3096830571122551E-2</v>
+        <v>2.0842598908134669E-2</v>
       </c>
       <c r="H13">
-        <v>-0.1814918650289126</v>
+        <v>-0.17581221157105789</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1037,25 +1037,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C14">
-        <v>19516.43</v>
+        <v>2353.8000000000002</v>
       </c>
       <c r="D14">
-        <v>424.5</v>
+        <v>49.210000000000043</v>
       </c>
       <c r="E14">
-        <v>2.2234525268005841E-2</v>
+        <v>2.135303893534202E-2</v>
       </c>
       <c r="F14">
-        <v>-0.17237649000542379</v>
+        <v>9.2215102061649956E-2</v>
       </c>
       <c r="G14">
-        <v>2.259870104368078E-2</v>
+        <v>1.9382002814634539E-2</v>
       </c>
       <c r="H14">
-        <v>-0.1193968457782135</v>
+        <v>7.3133695643335495E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1066,22 +1066,22 @@
         <v>55</v>
       </c>
       <c r="C15">
-        <v>4889.5200000000004</v>
+        <v>5002.9399999999996</v>
       </c>
       <c r="D15">
-        <v>105.83000000000079</v>
+        <v>106.6099999999997</v>
       </c>
       <c r="E15">
-        <v>2.2123089079769231E-2</v>
+        <v>2.177345072738146E-2</v>
       </c>
       <c r="F15">
-        <v>-0.1869216225249809</v>
+        <v>-0.16806100848245401</v>
       </c>
       <c r="G15">
-        <v>2.2487225155786831E-2</v>
+        <v>1.7123725152655919E-2</v>
       </c>
       <c r="H15">
-        <v>-0.1348730730972996</v>
+        <v>-0.11904249339148119</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1092,22 +1092,22 @@
         <v>56</v>
       </c>
       <c r="C16">
-        <v>22329.94</v>
+        <v>7133</v>
       </c>
       <c r="D16">
-        <v>619.93999999999869</v>
+        <v>150.89999999999961</v>
       </c>
       <c r="E16">
-        <v>2.8555504375863631E-2</v>
+        <v>2.161240887412097E-2</v>
       </c>
       <c r="F16">
-        <v>-3.7704170591850272E-2</v>
+        <v>-0.2570488183399473</v>
       </c>
       <c r="G16">
-        <v>1.980728451699831E-2</v>
+        <v>1.6963416143279009E-2</v>
       </c>
       <c r="H16">
-        <v>-1.5984861350810901E-2</v>
+        <v>-0.21327353664095119</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1115,25 +1115,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C17">
-        <v>17972.36</v>
+        <v>1578.34</v>
       </c>
       <c r="D17">
-        <v>459.83000000000169</v>
+        <v>25.8599999999999</v>
       </c>
       <c r="E17">
-        <v>2.6257199844911039E-2</v>
+        <v>1.6657219416675199E-2</v>
       </c>
       <c r="F17">
-        <v>-0.1262145457179682</v>
+        <v>-5.1056359198201173E-2</v>
       </c>
       <c r="G17">
-        <v>1.8717492330291741E-2</v>
+        <v>1.6657219416675199E-2</v>
       </c>
       <c r="H17">
-        <v>-0.18176749508686019</v>
+        <v>-5.1056359198201173E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1141,25 +1141,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18">
-        <v>1448.85</v>
+        <v>13033.2</v>
       </c>
       <c r="D18">
-        <v>25.2199999999998</v>
+        <v>268.40000000000151</v>
       </c>
       <c r="E18">
-        <v>1.771527714363974E-2</v>
+        <v>2.1026573075958899E-2</v>
       </c>
       <c r="F18">
-        <v>0.17300592635771861</v>
+        <v>-7.1448214708779156E-3</v>
       </c>
       <c r="G18">
-        <v>1.7228645442912249E-2</v>
+        <v>1.6380246274331659E-2</v>
       </c>
       <c r="H18">
-        <v>0.25200554879886639</v>
+        <v>5.1355004896322498E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1167,25 +1167,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19">
-        <v>6004.8</v>
+        <v>16705.79</v>
       </c>
       <c r="D19">
-        <v>77</v>
+        <v>187.9400000000023</v>
       </c>
       <c r="E19">
-        <v>1.2989642025709401E-2</v>
+        <v>1.1377994109402991E-2</v>
       </c>
       <c r="F19">
-        <v>-0.1085113648173166</v>
+        <v>-2.3365625147979019E-2</v>
       </c>
       <c r="G19">
-        <v>1.6827863149114108E-2</v>
+        <v>1.529355089226447E-2</v>
       </c>
       <c r="H19">
-        <v>-7.1696417253689249E-2</v>
+        <v>-3.3413594625417042E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1193,25 +1193,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20">
-        <v>11214.05</v>
+        <v>51750.45</v>
       </c>
       <c r="D20">
-        <v>140.59999999999849</v>
+        <v>81.269999999996799</v>
       </c>
       <c r="E20">
-        <v>1.269703660557453E-2</v>
+        <v>1.5728912283878851E-3</v>
       </c>
       <c r="F20">
-        <v>-6.4954286023988894E-2</v>
+        <v>1.472246552473622E-2</v>
       </c>
       <c r="G20">
-        <v>1.391657602988516E-2</v>
+        <v>1.392678257462876E-2</v>
       </c>
       <c r="H20">
-        <v>-0.1045134064143577</v>
+        <v>-0.14703883933820039</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1219,25 +1219,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C21">
-        <v>38040.57</v>
+        <v>3315.54</v>
       </c>
       <c r="D21">
-        <v>433.68000000000029</v>
+        <v>55.789999999999957</v>
       </c>
       <c r="E21">
-        <v>1.1531929388471029E-2</v>
+        <v>1.7114809417900109E-2</v>
       </c>
       <c r="F21">
-        <v>-6.480527024977234E-2</v>
+        <v>-0.11644974577084199</v>
       </c>
       <c r="G21">
-        <v>1.2750065733545309E-2</v>
+        <v>1.24862836537829E-2</v>
       </c>
       <c r="H21">
-        <v>-0.1043706950730305</v>
+        <v>-6.4390253533842645E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1245,25 +1245,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22">
-        <v>6950.5</v>
+        <v>25422.06</v>
       </c>
       <c r="D22">
-        <v>73.100000000000364</v>
+        <v>308.22000000000122</v>
       </c>
       <c r="E22">
-        <v>1.062901677959704E-2</v>
+        <v>1.227291405854314E-2</v>
       </c>
       <c r="F22">
-        <v>-0.27605745294711947</v>
+        <v>-9.9344970043778402E-2</v>
       </c>
       <c r="G22">
-        <v>1.098905803921779E-2</v>
+        <v>1.2338150047118249E-2</v>
       </c>
       <c r="H22">
-        <v>-0.22971486103107619</v>
+        <v>-9.5695941541658502E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1271,25 +1271,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23">
-        <v>269.58999999999997</v>
+        <v>7934.43</v>
       </c>
       <c r="D23">
-        <v>2.17999999999995</v>
+        <v>91.590000000000146</v>
       </c>
       <c r="E23">
-        <v>8.1522755319545226E-3</v>
+        <v>1.167816760255214E-2</v>
       </c>
       <c r="F23">
-        <v>-0.1974338364442858</v>
+        <v>-3.310939504979804E-2</v>
       </c>
       <c r="G23">
-        <v>9.6617350646690525E-3</v>
+        <v>1.176458278825154E-2</v>
       </c>
       <c r="H23">
-        <v>-0.20881121387324389</v>
+        <v>-3.1811055023405199E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,25 +1297,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24">
-        <v>13648.5</v>
+        <v>12728.85</v>
       </c>
       <c r="D24">
-        <v>10.6200000000008</v>
+        <v>121.0100000000002</v>
       </c>
       <c r="E24">
-        <v>7.787134070691426E-4</v>
+        <v>9.5979961674641512E-3</v>
       </c>
       <c r="F24">
-        <v>0.27576701653631841</v>
+        <v>6.4876319294324025E-2</v>
       </c>
       <c r="G24">
-        <v>8.6813912310386154E-3</v>
+        <v>9.5222354433521783E-3</v>
       </c>
       <c r="H24">
-        <v>0.27798733101899981</v>
+        <v>9.0725367553943448E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1323,25 +1323,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25">
-        <v>38016.06</v>
+        <v>18420.439999999999</v>
       </c>
       <c r="D25">
-        <v>996.37999999999738</v>
+        <v>144.39999999999779</v>
       </c>
       <c r="E25">
-        <v>2.6914873386263641E-2</v>
+        <v>7.9010551519911321E-3</v>
       </c>
       <c r="F25">
-        <v>-0.14561627857324269</v>
+        <v>-0.10442966124232381</v>
       </c>
       <c r="G25">
-        <v>8.2401506162439464E-3</v>
+        <v>6.1664925741788954E-3</v>
       </c>
       <c r="H25">
-        <v>-0.27749529832820158</v>
+        <v>-0.15296188005429939</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1349,25 +1349,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26">
-        <v>12828.87</v>
+        <v>556.79999999999995</v>
       </c>
       <c r="D26">
-        <v>164.0700000000015</v>
+        <v>5.42999999999995</v>
       </c>
       <c r="E26">
-        <v>1.295480386583292E-2</v>
+        <v>9.8481963110070847E-3</v>
       </c>
       <c r="F26">
-        <v>7.3243841062262005E-2</v>
+        <v>-8.3064356761741731E-2</v>
       </c>
       <c r="G26">
-        <v>5.7427763518405062E-3</v>
+        <v>5.252738304503568E-3</v>
       </c>
       <c r="H26">
-        <v>9.7577958712803614E-2</v>
+        <v>-2.903777052909318E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1375,25 +1375,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27">
-        <v>7499.97</v>
+        <v>268.56</v>
       </c>
       <c r="D27">
-        <v>40.760000000000218</v>
+        <v>0.94999999999998863</v>
       </c>
       <c r="E27">
-        <v>5.4643856386937806E-3</v>
+        <v>3.5499420798923431E-3</v>
       </c>
       <c r="F27">
-        <v>-8.6052743497848416E-2</v>
+        <v>-0.20050013396445479</v>
       </c>
       <c r="G27">
-        <v>5.6737740700636419E-3</v>
+        <v>4.1377780517179996E-3</v>
       </c>
       <c r="H27">
-        <v>-8.4757139361426592E-2</v>
+        <v>-0.20977946026048769</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1401,25 +1401,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28">
-        <v>10068.030000000001</v>
+        <v>102142.93</v>
       </c>
       <c r="D28">
-        <v>62.130000000001019</v>
+        <v>621.63999999999942</v>
       </c>
       <c r="E28">
-        <v>6.2093364914701521E-3</v>
+        <v>6.1232476458878971E-3</v>
       </c>
       <c r="F28">
-        <v>-5.6010973792849923E-2</v>
+        <v>-0.1260716309804282</v>
       </c>
       <c r="G28">
-        <v>4.561865632835449E-3</v>
+        <v>3.8106923136655979E-3</v>
       </c>
       <c r="H28">
-        <v>7.7763867704783163E-3</v>
+        <v>-0.36331143198633398</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1427,25 +1427,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29">
-        <v>1324.4</v>
+        <v>19841.009999999998</v>
       </c>
       <c r="D29">
-        <v>-4.1299999999998818</v>
+        <v>145.57999999999811</v>
       </c>
       <c r="E29">
-        <v>-3.1086990884661159E-3</v>
+        <v>7.3915624081322129E-3</v>
       </c>
       <c r="F29">
-        <v>-0.15562639464456479</v>
+        <v>-0.15861218788285131</v>
       </c>
       <c r="G29">
-        <v>4.2684468136888754E-3</v>
+        <v>2.8072836639962961E-3</v>
       </c>
       <c r="H29">
-        <v>-0.18105544469858409</v>
+        <v>-0.1090369406758508</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1453,25 +1453,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C30">
-        <v>15199.34</v>
+        <v>6073.8</v>
       </c>
       <c r="D30">
-        <v>-82.020000000000437</v>
+        <v>-37.399999999999643</v>
       </c>
       <c r="E30">
-        <v>-5.3673233272431009E-3</v>
+        <v>-6.1199109831129306E-3</v>
       </c>
       <c r="F30">
-        <v>5.9853650168956378E-2</v>
+        <v>-9.8267440652047955E-2</v>
       </c>
       <c r="G30">
-        <v>2.4868221413165692E-3</v>
+        <v>2.673277155367471E-3</v>
       </c>
       <c r="H30">
-        <v>6.1698194179336641E-2</v>
+        <v>-5.5978090420718218E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1482,22 +1482,22 @@
         <v>69</v>
       </c>
       <c r="C31">
-        <v>1142.18</v>
+        <v>1469.9</v>
       </c>
       <c r="D31">
-        <v>7.8400000000001464</v>
+        <v>-0.31999999999993628</v>
       </c>
       <c r="E31">
-        <v>6.9115080134705131E-3</v>
+        <v>-2.176545006868924E-4</v>
       </c>
       <c r="F31">
-        <v>-0.3187075377723696</v>
+        <v>0.19004825285792931</v>
       </c>
       <c r="G31">
-        <v>1.4203655657945009E-3</v>
+        <v>-4.202735928691248E-3</v>
       </c>
       <c r="H31">
-        <v>-0.40682978711349821</v>
+        <v>0.26527390300447989</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1508,22 +1508,22 @@
         <v>70</v>
       </c>
       <c r="C32">
-        <v>24531.62</v>
+        <v>10164.49</v>
       </c>
       <c r="D32">
-        <v>-63.729999999999563</v>
+        <v>-53.710000000000953</v>
       </c>
       <c r="E32">
-        <v>-2.5911401951994591E-3</v>
+        <v>-5.2563073731186627E-3</v>
       </c>
       <c r="F32">
-        <v>-0.1308915585135649</v>
+        <v>-4.6966783274154489E-2</v>
       </c>
       <c r="G32">
-        <v>-2.6555276474048428E-3</v>
+        <v>-7.7732178752687453E-3</v>
       </c>
       <c r="H32">
-        <v>-0.1274041018611648</v>
+        <v>1.8539829814219418E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1534,22 +1534,22 @@
         <v>71</v>
       </c>
       <c r="C33">
-        <v>1578.14</v>
+        <v>5963.57</v>
       </c>
       <c r="D33">
-        <v>-25.6099999999999</v>
+        <v>-38.320000000000618</v>
       </c>
       <c r="E33">
-        <v>-1.5968823070927399E-2</v>
+        <v>-6.3846555001841887E-3</v>
       </c>
       <c r="F33">
-        <v>-1.227969156819542E-2</v>
+        <v>-0.21276536762706369</v>
       </c>
       <c r="G33">
-        <v>-3.9798569919122784E-3</v>
+        <v>-7.9454071322979658E-3</v>
       </c>
       <c r="H33">
-        <v>-3.2572049952858777E-2</v>
+        <v>-0.205574677858129</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1560,22 +1560,22 @@
         <v>72</v>
       </c>
       <c r="C34">
-        <v>5143.8900000000003</v>
+        <v>37794.25</v>
       </c>
       <c r="D34">
-        <v>-5.7399999999997817</v>
+        <v>-301.62999999999738</v>
       </c>
       <c r="E34">
-        <v>-1.1146431879571761E-3</v>
+        <v>-7.9176540875285362E-3</v>
       </c>
       <c r="F34">
-        <v>-0.1779509061271454</v>
+        <v>-0.15060129946308939</v>
       </c>
       <c r="G34">
-        <v>-6.7231834996408502E-3</v>
+        <v>-9.9167848720888019E-3</v>
       </c>
       <c r="H34">
-        <v>-0.21373662953423489</v>
+        <v>-0.27295169243755352</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1586,22 +1586,22 @@
         <v>73</v>
       </c>
       <c r="C35">
-        <v>5846.02</v>
+        <v>22882.65</v>
       </c>
       <c r="D35">
-        <v>-82.429999999999382</v>
+        <v>-37.649999999997817</v>
       </c>
       <c r="E35">
-        <v>-1.390414020528119E-2</v>
+        <v>-1.642648656431156E-3</v>
       </c>
       <c r="F35">
-        <v>-0.25030553215172863</v>
+        <v>-1.3885453305902301E-2</v>
       </c>
       <c r="G35">
-        <v>-6.8223306903689718E-3</v>
+        <v>-1.0742735173789431E-2</v>
       </c>
       <c r="H35">
-        <v>-0.2144321777665964</v>
+        <v>-1.614161771781419E-3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1612,22 +1612,22 @@
         <v>74</v>
       </c>
       <c r="C36">
-        <v>11646.68</v>
+        <v>5884.18</v>
       </c>
       <c r="D36">
-        <v>-80.949999999998909</v>
+        <v>-121.2199999999993</v>
       </c>
       <c r="E36">
-        <v>-6.9025028927411913E-3</v>
+        <v>-2.0185166683318271E-2</v>
       </c>
       <c r="F36">
-        <v>1.66504405142387E-3</v>
+        <v>-0.2454118881181655</v>
       </c>
       <c r="G36">
-        <v>-8.7413497222443848E-3</v>
+        <v>-1.7356525511552982E-2</v>
       </c>
       <c r="H36">
-        <v>6.0573604043407947E-3</v>
+        <v>-0.20539120328573199</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1638,22 +1638,22 @@
         <v>75</v>
       </c>
       <c r="C37">
-        <v>52435.65</v>
+        <v>2980.17</v>
       </c>
       <c r="D37">
-        <v>1066.830000000002</v>
+        <v>-15.440000000000049</v>
       </c>
       <c r="E37">
-        <v>2.076804567439949E-2</v>
+        <v>-5.154208992492415E-3</v>
       </c>
       <c r="F37">
-        <v>2.815786238365359E-2</v>
+        <v>-3.2057215796704619E-2</v>
       </c>
       <c r="G37">
-        <v>-1.9793821897730601E-2</v>
+        <v>-1.9951446419445129E-2</v>
       </c>
       <c r="H37">
-        <v>-0.15477980092306681</v>
+        <v>-0.19927711804061371</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1664,22 +1664,22 @@
         <v>76</v>
       </c>
       <c r="C38">
-        <v>3988.9</v>
+        <v>3873.77</v>
       </c>
       <c r="D38">
-        <v>-28.17999999999984</v>
+        <v>-120.9400000000001</v>
       </c>
       <c r="E38">
-        <v>-7.0150457546277467E-3</v>
+        <v>-3.0275038738731941E-2</v>
       </c>
       <c r="F38">
-        <v>-0.1833371209096735</v>
+        <v>-0.20690812977669679</v>
       </c>
       <c r="G38">
-        <v>-2.243004335843057E-2</v>
+        <v>-2.7800878487581171E-2</v>
       </c>
       <c r="H38">
-        <v>-0.1930567789564113</v>
+        <v>-0.22724381694857221</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1690,22 +1690,22 @@
         <v>77</v>
       </c>
       <c r="C39">
-        <v>102775.55</v>
+        <v>1525.21</v>
       </c>
       <c r="D39">
-        <v>-136.6900000000023</v>
+        <v>-51.909999999999847</v>
       </c>
       <c r="E39">
-        <v>-1.3282190728721719E-3</v>
+        <v>-3.2914426296033139E-2</v>
       </c>
       <c r="F39">
-        <v>-0.1206589747661492</v>
+        <v>-4.5407320248347698E-2</v>
       </c>
       <c r="G39">
-        <v>-3.4559075569409403E-2</v>
+        <v>-3.2914426296033139E-2</v>
       </c>
       <c r="H39">
-        <v>-0.33084108184944738</v>
+        <v>-6.1431724370342937E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1715,9 +1715,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W156"/>
+  <dimension ref="A1:W171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:W171"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1797,7 +1799,7 @@
         <v>43836</v>
       </c>
       <c r="B2">
-        <v>1580.9</v>
+        <v>1596.1</v>
       </c>
       <c r="C2">
         <v>18.346</v>
@@ -1868,7 +1870,7 @@
         <v>43837</v>
       </c>
       <c r="B3">
-        <v>1586.3</v>
+        <v>1601.3</v>
       </c>
       <c r="C3">
         <v>18.562000000000001</v>
@@ -1939,7 +1941,7 @@
         <v>43838</v>
       </c>
       <c r="B4">
-        <v>1572.3</v>
+        <v>1587</v>
       </c>
       <c r="C4">
         <v>18.335999999999999</v>
@@ -2010,7 +2012,7 @@
         <v>43839</v>
       </c>
       <c r="B5">
-        <v>1566.4</v>
+        <v>1581.4</v>
       </c>
       <c r="C5">
         <v>18.105</v>
@@ -2081,7 +2083,7 @@
         <v>43840</v>
       </c>
       <c r="B6">
-        <v>1572.1</v>
+        <v>1587</v>
       </c>
       <c r="C6">
         <v>18.273</v>
@@ -2152,7 +2154,7 @@
         <v>43843</v>
       </c>
       <c r="B7">
-        <v>1562.7</v>
+        <v>1577.5</v>
       </c>
       <c r="C7">
         <v>18.164000000000001</v>
@@ -2223,7 +2225,7 @@
         <v>43844</v>
       </c>
       <c r="B8">
-        <v>1556.5</v>
+        <v>1571.2</v>
       </c>
       <c r="C8">
         <v>17.905999999999999</v>
@@ -2294,7 +2296,7 @@
         <v>43845</v>
       </c>
       <c r="B9">
-        <v>1565.6</v>
+        <v>1580.3</v>
       </c>
       <c r="C9">
         <v>18.149999999999999</v>
@@ -2365,7 +2367,7 @@
         <v>43846</v>
       </c>
       <c r="B10">
-        <v>1562.2</v>
+        <v>1576.9</v>
       </c>
       <c r="C10">
         <v>18.102</v>
@@ -2436,7 +2438,7 @@
         <v>43847</v>
       </c>
       <c r="B11">
-        <v>1572.3</v>
+        <v>1587.2</v>
       </c>
       <c r="C11">
         <v>18.236000000000001</v>
@@ -2578,7 +2580,7 @@
         <v>43851</v>
       </c>
       <c r="B13">
-        <v>1569.9</v>
+        <v>1584.7</v>
       </c>
       <c r="C13">
         <v>17.97</v>
@@ -2649,7 +2651,7 @@
         <v>43852</v>
       </c>
       <c r="B14">
-        <v>1568.7</v>
+        <v>1583.5</v>
       </c>
       <c r="C14">
         <v>17.989000000000001</v>
@@ -2720,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="B15">
-        <v>1577.3</v>
+        <v>1592.1</v>
       </c>
       <c r="C15">
         <v>17.988</v>
@@ -2791,7 +2793,7 @@
         <v>43854</v>
       </c>
       <c r="B16">
-        <v>1583.9</v>
+        <v>1599</v>
       </c>
       <c r="C16">
         <v>18.271999999999998</v>
@@ -2862,7 +2864,7 @@
         <v>43857</v>
       </c>
       <c r="B17">
-        <v>1589.5</v>
+        <v>1604.6</v>
       </c>
       <c r="C17">
         <v>18.215</v>
@@ -2933,7 +2935,7 @@
         <v>43858</v>
       </c>
       <c r="B18">
-        <v>1581.7</v>
+        <v>1596.9</v>
       </c>
       <c r="C18">
         <v>17.614999999999998</v>
@@ -3004,7 +3006,7 @@
         <v>43859</v>
       </c>
       <c r="B19">
-        <v>1582</v>
+        <v>1597.9</v>
       </c>
       <c r="C19">
         <v>17.643999999999998</v>
@@ -3075,7 +3077,7 @@
         <v>43860</v>
       </c>
       <c r="B20">
-        <v>1595.1</v>
+        <v>1610.7</v>
       </c>
       <c r="C20">
         <v>18.146999999999998</v>
@@ -3146,7 +3148,7 @@
         <v>43861</v>
       </c>
       <c r="B21">
-        <v>1593.8</v>
+        <v>1609.4</v>
       </c>
       <c r="C21">
         <v>18.164999999999999</v>
@@ -3217,7 +3219,7 @@
         <v>43864</v>
       </c>
       <c r="B22">
-        <v>1588.3</v>
+        <v>1604</v>
       </c>
       <c r="C22">
         <v>17.826000000000001</v>
@@ -3288,7 +3290,7 @@
         <v>43865</v>
       </c>
       <c r="B23">
-        <v>1561.4</v>
+        <v>1577.5</v>
       </c>
       <c r="C23">
         <v>17.716000000000001</v>
@@ -3359,7 +3361,7 @@
         <v>43866</v>
       </c>
       <c r="B24">
-        <v>1568.7</v>
+        <v>1584.7</v>
       </c>
       <c r="C24">
         <v>17.757999999999999</v>
@@ -3430,7 +3432,7 @@
         <v>43867</v>
       </c>
       <c r="B25">
-        <v>1575.8</v>
+        <v>1591.7</v>
       </c>
       <c r="C25">
         <v>17.974</v>
@@ -3501,7 +3503,7 @@
         <v>43868</v>
       </c>
       <c r="B26">
-        <v>1579.2</v>
+        <v>1595</v>
       </c>
       <c r="C26">
         <v>17.847999999999999</v>
@@ -3572,7 +3574,7 @@
         <v>43871</v>
       </c>
       <c r="B27">
-        <v>1585.4</v>
+        <v>1600.7</v>
       </c>
       <c r="C27">
         <v>17.943000000000001</v>
@@ -3643,7 +3645,7 @@
         <v>43872</v>
       </c>
       <c r="B28">
-        <v>1575.9</v>
+        <v>1591.1</v>
       </c>
       <c r="C28">
         <v>17.751000000000001</v>
@@ -3714,7 +3716,7 @@
         <v>43873</v>
       </c>
       <c r="B29">
-        <v>1577.3</v>
+        <v>1592.4</v>
       </c>
       <c r="C29">
         <v>17.652000000000001</v>
@@ -3785,7 +3787,7 @@
         <v>43874</v>
       </c>
       <c r="B30">
-        <v>1584.5</v>
+        <v>1599.6</v>
       </c>
       <c r="C30">
         <v>17.774999999999999</v>
@@ -3856,7 +3858,7 @@
         <v>43875</v>
       </c>
       <c r="B31">
-        <v>1591.9</v>
+        <v>1606.9</v>
       </c>
       <c r="C31">
         <v>17.887</v>
@@ -3998,7 +4000,7 @@
         <v>43879</v>
       </c>
       <c r="B33">
-        <v>1609.3</v>
+        <v>1624</v>
       </c>
       <c r="C33">
         <v>18.306000000000001</v>
@@ -4069,7 +4071,7 @@
         <v>43880</v>
       </c>
       <c r="B34">
-        <v>1617.5</v>
+        <v>1632.2</v>
       </c>
       <c r="C34">
         <v>18.468</v>
@@ -4140,7 +4142,7 @@
         <v>43881</v>
       </c>
       <c r="B35">
-        <v>1626.2</v>
+        <v>1640.8</v>
       </c>
       <c r="C35">
         <v>18.477</v>
@@ -4211,7 +4213,7 @@
         <v>43882</v>
       </c>
       <c r="B36">
-        <v>1654.6</v>
+        <v>1669.1</v>
       </c>
       <c r="C36">
         <v>18.686</v>
@@ -4282,7 +4284,7 @@
         <v>43885</v>
       </c>
       <c r="B37">
-        <v>1682.4</v>
+        <v>1697.1</v>
       </c>
       <c r="C37">
         <v>19.033000000000001</v>
@@ -4353,7 +4355,7 @@
         <v>43886</v>
       </c>
       <c r="B38">
-        <v>1655.8</v>
+        <v>1670.2</v>
       </c>
       <c r="C38">
         <v>18.344999999999999</v>
@@ -4424,7 +4426,7 @@
         <v>43887</v>
       </c>
       <c r="B39">
-        <v>1648.9</v>
+        <v>1662.9</v>
       </c>
       <c r="C39">
         <v>17.989999999999998</v>
@@ -4495,7 +4497,7 @@
         <v>43888</v>
       </c>
       <c r="B40">
-        <v>1648.2</v>
+        <v>1661.4</v>
       </c>
       <c r="C40">
         <v>17.811</v>
@@ -4566,7 +4568,7 @@
         <v>43889</v>
       </c>
       <c r="B41">
-        <v>1571.8</v>
+        <v>1583.6</v>
       </c>
       <c r="C41">
         <v>16.524999999999999</v>
@@ -4637,7 +4639,7 @@
         <v>43892</v>
       </c>
       <c r="B42">
-        <v>1599.5</v>
+        <v>1609.7</v>
       </c>
       <c r="C42">
         <v>16.803999999999998</v>
@@ -4708,7 +4710,7 @@
         <v>43893</v>
       </c>
       <c r="B43">
-        <v>1648.9</v>
+        <v>1658.8</v>
       </c>
       <c r="C43">
         <v>17.25</v>
@@ -4779,7 +4781,7 @@
         <v>43894</v>
       </c>
       <c r="B44">
-        <v>1647.2</v>
+        <v>1656.5</v>
       </c>
       <c r="C44">
         <v>17.305</v>
@@ -4850,7 +4852,7 @@
         <v>43895</v>
       </c>
       <c r="B45">
-        <v>1672</v>
+        <v>1680.4</v>
       </c>
       <c r="C45">
         <v>17.446999999999999</v>
@@ -4921,7 +4923,7 @@
         <v>43896</v>
       </c>
       <c r="B46">
-        <v>1676.1</v>
+        <v>1683</v>
       </c>
       <c r="C46">
         <v>17.315000000000001</v>
@@ -4992,7 +4994,7 @@
         <v>43899</v>
       </c>
       <c r="B47">
-        <v>1678.6</v>
+        <v>1684.1</v>
       </c>
       <c r="C47">
         <v>17.094000000000001</v>
@@ -5063,7 +5065,7 @@
         <v>43900</v>
       </c>
       <c r="B48">
-        <v>1663.3</v>
+        <v>1669</v>
       </c>
       <c r="C48">
         <v>16.998000000000001</v>
@@ -5134,7 +5136,7 @@
         <v>43901</v>
       </c>
       <c r="B49">
-        <v>1645.4</v>
+        <v>1650.8</v>
       </c>
       <c r="C49">
         <v>16.818000000000001</v>
@@ -5205,7 +5207,7 @@
         <v>43902</v>
       </c>
       <c r="B50">
-        <v>1593.2</v>
+        <v>1598.8</v>
       </c>
       <c r="C50">
         <v>16.041</v>
@@ -5276,7 +5278,7 @@
         <v>43903</v>
       </c>
       <c r="B51">
-        <v>1519.5</v>
+        <v>1524.9</v>
       </c>
       <c r="C51">
         <v>14.534000000000001</v>
@@ -5347,7 +5349,7 @@
         <v>43906</v>
       </c>
       <c r="B52">
-        <v>1488.6</v>
+        <v>1493.8</v>
       </c>
       <c r="C52">
         <v>12.845000000000001</v>
@@ -5418,7 +5420,7 @@
         <v>43907</v>
       </c>
       <c r="B53">
-        <v>1528.1</v>
+        <v>1534.1</v>
       </c>
       <c r="C53">
         <v>12.526999999999999</v>
@@ -5489,7 +5491,7 @@
         <v>43908</v>
       </c>
       <c r="B54">
-        <v>1480.6</v>
+        <v>1487.1</v>
       </c>
       <c r="C54">
         <v>11.805</v>
@@ -5560,7 +5562,7 @@
         <v>43909</v>
       </c>
       <c r="B55">
-        <v>1482.3</v>
+        <v>1489.4</v>
       </c>
       <c r="C55">
         <v>12.173999999999999</v>
@@ -5631,7 +5633,7 @@
         <v>43910</v>
       </c>
       <c r="B56">
-        <v>1488.1</v>
+        <v>1495.1</v>
       </c>
       <c r="C56">
         <v>12.425000000000001</v>
@@ -5702,7 +5704,7 @@
         <v>43913</v>
       </c>
       <c r="B57">
-        <v>1572.7</v>
+        <v>1581.4</v>
       </c>
       <c r="C57">
         <v>13.311999999999999</v>
@@ -5773,7 +5775,7 @@
         <v>43914</v>
       </c>
       <c r="B58">
-        <v>1663.3</v>
+        <v>1663</v>
       </c>
       <c r="C58">
         <v>14.263</v>
@@ -5844,7 +5846,7 @@
         <v>43915</v>
       </c>
       <c r="B59">
-        <v>1634.3</v>
+        <v>1633.3</v>
       </c>
       <c r="C59">
         <v>14.855</v>
@@ -5915,7 +5917,7 @@
         <v>43916</v>
       </c>
       <c r="B60">
-        <v>1660.3</v>
+        <v>1662</v>
       </c>
       <c r="C60">
         <v>14.685</v>
@@ -5986,7 +5988,7 @@
         <v>43917</v>
       </c>
       <c r="B61">
-        <v>1654.1</v>
+        <v>1655</v>
       </c>
       <c r="C61">
         <v>14.583</v>
@@ -6057,7 +6059,7 @@
         <v>43920</v>
       </c>
       <c r="B62">
-        <v>1643.2</v>
+        <v>1644.1</v>
       </c>
       <c r="C62">
         <v>14.179</v>
@@ -6128,7 +6130,7 @@
         <v>43921</v>
       </c>
       <c r="B63">
-        <v>1596.6</v>
+        <v>1597.6</v>
       </c>
       <c r="C63">
         <v>14.191000000000001</v>
@@ -6199,7 +6201,7 @@
         <v>43922</v>
       </c>
       <c r="B64">
-        <v>1591.4</v>
+        <v>1592.5</v>
       </c>
       <c r="C64">
         <v>14.023999999999999</v>
@@ -6270,7 +6272,7 @@
         <v>43923</v>
       </c>
       <c r="B65">
-        <v>1637.7</v>
+        <v>1638.9</v>
       </c>
       <c r="C65">
         <v>14.686</v>
@@ -6341,7 +6343,7 @@
         <v>43924</v>
       </c>
       <c r="B66">
-        <v>1645.7</v>
+        <v>1646.5</v>
       </c>
       <c r="C66">
         <v>14.523</v>
@@ -6412,7 +6414,7 @@
         <v>43927</v>
       </c>
       <c r="B67">
-        <v>1693.9</v>
+        <v>1693.1</v>
       </c>
       <c r="C67">
         <v>15.208</v>
@@ -6554,7 +6556,7 @@
         <v>43929</v>
       </c>
       <c r="B69">
-        <v>1684.3</v>
+        <v>1684.1</v>
       </c>
       <c r="C69">
         <v>15.268000000000001</v>
@@ -6625,7 +6627,7 @@
         <v>43930</v>
       </c>
       <c r="B70">
-        <v>1752.8</v>
+        <v>1753.6</v>
       </c>
       <c r="C70">
         <v>16.242000000000001</v>
@@ -6767,7 +6769,7 @@
         <v>43934</v>
       </c>
       <c r="B72">
-        <v>1761.4</v>
+        <v>1762.7</v>
       </c>
       <c r="C72">
         <v>15.737</v>
@@ -6838,7 +6840,7 @@
         <v>43935</v>
       </c>
       <c r="B73">
-        <v>1768.9</v>
+        <v>1771.2</v>
       </c>
       <c r="C73">
         <v>16.341000000000001</v>
@@ -6909,7 +6911,7 @@
         <v>43936</v>
       </c>
       <c r="B74">
-        <v>1740.2</v>
+        <v>1744.7</v>
       </c>
       <c r="C74">
         <v>15.654</v>
@@ -6980,7 +6982,7 @@
         <v>43937</v>
       </c>
       <c r="B75">
-        <v>1731.7</v>
+        <v>1736.3</v>
       </c>
       <c r="C75">
         <v>15.766</v>
@@ -7051,7 +7053,7 @@
         <v>43938</v>
       </c>
       <c r="B76">
-        <v>1698.8</v>
+        <v>1702.7</v>
       </c>
       <c r="C76">
         <v>15.445</v>
@@ -7122,7 +7124,7 @@
         <v>43941</v>
       </c>
       <c r="B77">
-        <v>1711.2</v>
+        <v>1715.3</v>
       </c>
       <c r="C77">
         <v>15.75</v>
@@ -7193,7 +7195,7 @@
         <v>43942</v>
       </c>
       <c r="B78">
-        <v>1687.8</v>
+        <v>1692.1</v>
       </c>
       <c r="C78">
         <v>14.991</v>
@@ -7264,7 +7266,7 @@
         <v>43943</v>
       </c>
       <c r="B79">
-        <v>1738.3</v>
+        <v>1743.5</v>
       </c>
       <c r="C79">
         <v>15.503</v>
@@ -7335,7 +7337,7 @@
         <v>43944</v>
       </c>
       <c r="B80">
-        <v>1745.4</v>
+        <v>1751</v>
       </c>
       <c r="C80">
         <v>15.526</v>
@@ -7406,7 +7408,7 @@
         <v>43945</v>
       </c>
       <c r="B81">
-        <v>1735.6</v>
+        <v>1741.7</v>
       </c>
       <c r="C81">
         <v>15.445</v>
@@ -7477,7 +7479,7 @@
         <v>43948</v>
       </c>
       <c r="B82">
-        <v>1723.8</v>
+        <v>1731.4</v>
       </c>
       <c r="C82">
         <v>15.340999999999999</v>
@@ -7548,7 +7550,7 @@
         <v>43949</v>
       </c>
       <c r="B83">
-        <v>1722.2</v>
+        <v>1731.2</v>
       </c>
       <c r="C83">
         <v>15.327999999999999</v>
@@ -7619,7 +7621,7 @@
         <v>43950</v>
       </c>
       <c r="B84">
-        <v>1713.4</v>
+        <v>1722.4</v>
       </c>
       <c r="C84">
         <v>15.315</v>
@@ -7690,7 +7692,7 @@
         <v>43951</v>
       </c>
       <c r="B85">
-        <v>1694.2</v>
+        <v>1704.9</v>
       </c>
       <c r="C85">
         <v>14.973000000000001</v>
@@ -7761,7 +7763,7 @@
         <v>43952</v>
       </c>
       <c r="B86">
-        <v>1700.9</v>
+        <v>1712</v>
       </c>
       <c r="C86">
         <v>14.938000000000001</v>
@@ -7832,7 +7834,7 @@
         <v>43955</v>
       </c>
       <c r="B87">
-        <v>1713.3</v>
+        <v>1725.9</v>
       </c>
       <c r="C87">
         <v>14.795999999999999</v>
@@ -7903,7 +7905,7 @@
         <v>43956</v>
       </c>
       <c r="B88">
-        <v>1710.6</v>
+        <v>1728</v>
       </c>
       <c r="C88">
         <v>15.11</v>
@@ -7974,7 +7976,7 @@
         <v>43957</v>
       </c>
       <c r="B89">
-        <v>1688.5</v>
+        <v>1704.4</v>
       </c>
       <c r="C89">
         <v>15.015000000000001</v>
@@ -8045,7 +8047,7 @@
         <v>43958</v>
       </c>
       <c r="B90">
-        <v>1725.8</v>
+        <v>1743.7</v>
       </c>
       <c r="C90">
         <v>15.59</v>
@@ -8116,7 +8118,7 @@
         <v>43959</v>
       </c>
       <c r="B91">
-        <v>1713.9</v>
+        <v>1735.2</v>
       </c>
       <c r="C91">
         <v>15.778</v>
@@ -8187,7 +8189,7 @@
         <v>43962</v>
       </c>
       <c r="B92">
-        <v>1698</v>
+        <v>1720.9</v>
       </c>
       <c r="C92">
         <v>15.68</v>
@@ -8258,7 +8260,7 @@
         <v>43963</v>
       </c>
       <c r="B93">
-        <v>1706.8</v>
+        <v>1728</v>
       </c>
       <c r="C93">
         <v>15.709</v>
@@ -8329,7 +8331,7 @@
         <v>43964</v>
       </c>
       <c r="B94">
-        <v>1716.4</v>
+        <v>1737.3</v>
       </c>
       <c r="C94">
         <v>15.670999999999999</v>
@@ -8400,7 +8402,7 @@
         <v>43965</v>
       </c>
       <c r="B95">
-        <v>1740.9</v>
+        <v>1762</v>
       </c>
       <c r="C95">
         <v>16.155999999999999</v>
@@ -8471,7 +8473,7 @@
         <v>43966</v>
       </c>
       <c r="B96">
-        <v>1756.3</v>
+        <v>1778.7</v>
       </c>
       <c r="C96">
         <v>17.07</v>
@@ -8542,7 +8544,7 @@
         <v>43969</v>
       </c>
       <c r="B97">
-        <v>1734.4</v>
+        <v>1760.6</v>
       </c>
       <c r="C97">
         <v>17.468</v>
@@ -8613,7 +8615,7 @@
         <v>43970</v>
       </c>
       <c r="B98">
-        <v>1745.6</v>
+        <v>1773.4</v>
       </c>
       <c r="C98">
         <v>17.901</v>
@@ -8684,7 +8686,7 @@
         <v>43971</v>
       </c>
       <c r="B99">
-        <v>1752.1</v>
+        <v>1781.7</v>
       </c>
       <c r="C99">
         <v>18.030999999999999</v>
@@ -8755,7 +8757,7 @@
         <v>43972</v>
       </c>
       <c r="B100">
-        <v>1721.9</v>
+        <v>1750.4</v>
       </c>
       <c r="C100">
         <v>17.364000000000001</v>
@@ -8826,7 +8828,7 @@
         <v>43973</v>
       </c>
       <c r="B101">
-        <v>1735.5</v>
+        <v>1765.6</v>
       </c>
       <c r="C101">
         <v>17.693000000000001</v>
@@ -8968,7 +8970,7 @@
         <v>43977</v>
       </c>
       <c r="B103">
-        <v>1728.2</v>
+        <v>1740.5</v>
       </c>
       <c r="C103">
         <v>17.594999999999999</v>
@@ -9039,7 +9041,7 @@
         <v>43978</v>
       </c>
       <c r="B104">
-        <v>1726.8</v>
+        <v>1740.5</v>
       </c>
       <c r="C104">
         <v>17.757000000000001</v>
@@ -9110,7 +9112,7 @@
         <v>43979</v>
       </c>
       <c r="B105">
-        <v>1728.3</v>
+        <v>1742.7</v>
       </c>
       <c r="C105">
         <v>17.966999999999999</v>
@@ -9181,7 +9183,7 @@
         <v>43980</v>
       </c>
       <c r="B106">
-        <v>1751.7</v>
+        <v>1765.7</v>
       </c>
       <c r="C106">
         <v>18.498999999999999</v>
@@ -9252,7 +9254,7 @@
         <v>43983</v>
       </c>
       <c r="B107">
-        <v>1750.3</v>
+        <v>1763.7</v>
       </c>
       <c r="C107">
         <v>18.827000000000002</v>
@@ -9323,7 +9325,7 @@
         <v>43984</v>
       </c>
       <c r="B108">
-        <v>1734</v>
+        <v>1749.7</v>
       </c>
       <c r="C108">
         <v>18.260000000000002</v>
@@ -9394,7 +9396,7 @@
         <v>43985</v>
       </c>
       <c r="B109">
-        <v>1704.8</v>
+        <v>1723.5</v>
       </c>
       <c r="C109">
         <v>17.957999999999998</v>
@@ -9465,7 +9467,7 @@
         <v>43986</v>
       </c>
       <c r="B110">
-        <v>1727.4</v>
+        <v>1746.4</v>
       </c>
       <c r="C110">
         <v>18.061</v>
@@ -9536,7 +9538,7 @@
         <v>43987</v>
       </c>
       <c r="B111">
-        <v>1683</v>
+        <v>1701.9</v>
       </c>
       <c r="C111">
         <v>17.478999999999999</v>
@@ -9607,7 +9609,7 @@
         <v>43990</v>
       </c>
       <c r="B112">
-        <v>1705.1</v>
+        <v>1723.8</v>
       </c>
       <c r="C112">
         <v>17.893000000000001</v>
@@ -9678,7 +9680,7 @@
         <v>43991</v>
       </c>
       <c r="B113">
-        <v>1721.9</v>
+        <v>1740.3</v>
       </c>
       <c r="C113">
         <v>17.794</v>
@@ -9749,7 +9751,7 @@
         <v>43992</v>
       </c>
       <c r="B114">
-        <v>1720.7</v>
+        <v>1739</v>
       </c>
       <c r="C114">
         <v>17.795999999999999</v>
@@ -9820,7 +9822,7 @@
         <v>43993</v>
       </c>
       <c r="B115">
-        <v>1739.8</v>
+        <v>1757.6</v>
       </c>
       <c r="C115">
         <v>17.888999999999999</v>
@@ -9891,7 +9893,7 @@
         <v>43994</v>
       </c>
       <c r="B116">
-        <v>1737.3</v>
+        <v>1755.2</v>
       </c>
       <c r="C116">
         <v>17.481999999999999</v>
@@ -9962,7 +9964,7 @@
         <v>43997</v>
       </c>
       <c r="B117">
-        <v>1727.2</v>
+        <v>1744.9</v>
       </c>
       <c r="C117">
         <v>17.399000000000001</v>
@@ -10033,7 +10035,7 @@
         <v>43998</v>
       </c>
       <c r="B118">
-        <v>1736.5</v>
+        <v>1754.4</v>
       </c>
       <c r="C118">
         <v>17.652000000000001</v>
@@ -10104,7 +10106,7 @@
         <v>43999</v>
       </c>
       <c r="B119">
-        <v>1735.6</v>
+        <v>1753.4</v>
       </c>
       <c r="C119">
         <v>17.774999999999999</v>
@@ -10175,7 +10177,7 @@
         <v>44000</v>
       </c>
       <c r="B120">
-        <v>1731.1</v>
+        <v>1747.9</v>
       </c>
       <c r="C120">
         <v>17.507999999999999</v>
@@ -10246,7 +10248,7 @@
         <v>44001</v>
       </c>
       <c r="B121">
-        <v>1753</v>
+        <v>1768.6</v>
       </c>
       <c r="C121">
         <v>17.847000000000001</v>
@@ -10317,7 +10319,7 @@
         <v>44004</v>
       </c>
       <c r="B122">
-        <v>1766.4</v>
+        <v>1781.7</v>
       </c>
       <c r="C122">
         <v>17.902000000000001</v>
@@ -10388,7 +10390,7 @@
         <v>44005</v>
       </c>
       <c r="B123">
-        <v>1782</v>
+        <v>1797.1</v>
       </c>
       <c r="C123">
         <v>18.062999999999999</v>
@@ -10459,7 +10461,7 @@
         <v>44006</v>
       </c>
       <c r="B124">
-        <v>1775.1</v>
+        <v>1792.6</v>
       </c>
       <c r="C124">
         <v>17.670000000000002</v>
@@ -10530,7 +10532,7 @@
         <v>44007</v>
       </c>
       <c r="B125">
-        <v>1770.6</v>
+        <v>1788.4</v>
       </c>
       <c r="C125">
         <v>17.895</v>
@@ -10601,7 +10603,7 @@
         <v>44008</v>
       </c>
       <c r="B126">
-        <v>1780.3</v>
+        <v>1798.5</v>
       </c>
       <c r="C126">
         <v>18.035</v>
@@ -10672,7 +10674,7 @@
         <v>44011</v>
       </c>
       <c r="B127">
-        <v>1781.2</v>
+        <v>1800.1</v>
       </c>
       <c r="C127">
         <v>18.064</v>
@@ -10743,7 +10745,7 @@
         <v>44012</v>
       </c>
       <c r="B128">
-        <v>1800.5</v>
+        <v>1820.4</v>
       </c>
       <c r="C128">
         <v>18.637</v>
@@ -10814,7 +10816,7 @@
         <v>44013</v>
       </c>
       <c r="B129">
-        <v>1779.9</v>
+        <v>1801.9</v>
       </c>
       <c r="C129">
         <v>18.218</v>
@@ -10885,7 +10887,7 @@
         <v>44014</v>
       </c>
       <c r="B130">
-        <v>1790</v>
+        <v>1812</v>
       </c>
       <c r="C130">
         <v>18.321999999999999</v>
@@ -11027,7 +11029,7 @@
         <v>44018</v>
       </c>
       <c r="B132">
-        <v>1793.5</v>
+        <v>1816.1</v>
       </c>
       <c r="C132">
         <v>18.582000000000001</v>
@@ -11098,7 +11100,7 @@
         <v>44019</v>
       </c>
       <c r="B133">
-        <v>1809.9</v>
+        <v>1834.3</v>
       </c>
       <c r="C133">
         <v>18.699000000000002</v>
@@ -11169,7 +11171,7 @@
         <v>44020</v>
       </c>
       <c r="B134">
-        <v>1820.6</v>
+        <v>1850.6</v>
       </c>
       <c r="C134">
         <v>19.161000000000001</v>
@@ -11240,7 +11242,7 @@
         <v>44021</v>
       </c>
       <c r="B135">
-        <v>1803.8</v>
+        <v>1833.5</v>
       </c>
       <c r="C135">
         <v>18.962</v>
@@ -11311,7 +11313,7 @@
         <v>44022</v>
       </c>
       <c r="B136">
-        <v>1801.9</v>
+        <v>1831.3</v>
       </c>
       <c r="C136">
         <v>19.053000000000001</v>
@@ -11382,7 +11384,7 @@
         <v>44025</v>
       </c>
       <c r="B137">
-        <v>1814.1</v>
+        <v>1843.7</v>
       </c>
       <c r="C137">
         <v>19.788</v>
@@ -11453,7 +11455,7 @@
         <v>44026</v>
       </c>
       <c r="B138">
-        <v>1813.4</v>
+        <v>1841.5</v>
       </c>
       <c r="C138">
         <v>19.53</v>
@@ -11524,7 +11526,7 @@
         <v>44027</v>
       </c>
       <c r="B139">
-        <v>1813.8</v>
+        <v>1841.6</v>
       </c>
       <c r="C139">
         <v>19.760999999999999</v>
@@ -11595,7 +11597,7 @@
         <v>44028</v>
       </c>
       <c r="B140">
-        <v>1800.3</v>
+        <v>1826.5</v>
       </c>
       <c r="C140">
         <v>19.573</v>
@@ -11666,7 +11668,7 @@
         <v>44029</v>
       </c>
       <c r="B141">
-        <v>1810</v>
+        <v>1833.7</v>
       </c>
       <c r="C141">
         <v>19.763999999999999</v>
@@ -11737,7 +11739,7 @@
         <v>44032</v>
       </c>
       <c r="B142">
-        <v>1817.4</v>
+        <v>1840.1</v>
       </c>
       <c r="C142">
         <v>20.192</v>
@@ -11808,7 +11810,7 @@
         <v>44033</v>
       </c>
       <c r="B143">
-        <v>1843.9</v>
+        <v>1869.6</v>
       </c>
       <c r="C143">
         <v>21.556999999999999</v>
@@ -11879,7 +11881,7 @@
         <v>44034</v>
       </c>
       <c r="B144">
-        <v>1865.1</v>
+        <v>1892.6</v>
       </c>
       <c r="C144">
         <v>23.143999999999998</v>
@@ -11950,7 +11952,7 @@
         <v>44035</v>
       </c>
       <c r="B145">
-        <v>1890</v>
+        <v>1917.4</v>
       </c>
       <c r="C145">
         <v>22.988</v>
@@ -12021,7 +12023,7 @@
         <v>44036</v>
       </c>
       <c r="B146">
-        <v>1897.5</v>
+        <v>1925.2</v>
       </c>
       <c r="C146">
         <v>22.85</v>
@@ -12092,7 +12094,7 @@
         <v>44039</v>
       </c>
       <c r="B147">
-        <v>1931</v>
+        <v>1955.4</v>
       </c>
       <c r="C147">
         <v>24.501000000000001</v>
@@ -12163,7 +12165,7 @@
         <v>44040</v>
       </c>
       <c r="B148">
-        <v>1952.8</v>
+        <v>1963.9</v>
       </c>
       <c r="C148">
         <v>24.3</v>
@@ -12234,7 +12236,7 @@
         <v>44041</v>
       </c>
       <c r="B149">
-        <v>1965.3</v>
+        <v>1976.7</v>
       </c>
       <c r="C149">
         <v>24.321000000000002</v>
@@ -12305,7 +12307,7 @@
         <v>44042</v>
       </c>
       <c r="B150">
-        <v>1955.2</v>
+        <v>1966.8</v>
       </c>
       <c r="C150">
         <v>23.361999999999998</v>
@@ -12376,7 +12378,7 @@
         <v>44043</v>
       </c>
       <c r="B151">
-        <v>1973.9</v>
+        <v>1985.9</v>
       </c>
       <c r="C151">
         <v>24.216000000000001</v>
@@ -12447,7 +12449,7 @@
         <v>44046</v>
       </c>
       <c r="B152">
-        <v>1974.7</v>
+        <v>1986.3</v>
       </c>
       <c r="C152">
         <v>24.417000000000002</v>
@@ -12518,7 +12520,7 @@
         <v>44047</v>
       </c>
       <c r="B153">
-        <v>2008.5</v>
+        <v>2021</v>
       </c>
       <c r="C153">
         <v>26.027999999999999</v>
@@ -12589,7 +12591,7 @@
         <v>44048</v>
       </c>
       <c r="B154">
-        <v>2037.1</v>
+        <v>2049.3000000000002</v>
       </c>
       <c r="C154">
         <v>26.89</v>
@@ -12660,7 +12662,7 @@
         <v>44049</v>
       </c>
       <c r="B155">
-        <v>2058.4</v>
+        <v>2069.4</v>
       </c>
       <c r="C155">
         <v>28.4</v>
@@ -12731,7 +12733,7 @@
         <v>44050</v>
       </c>
       <c r="B156">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="C156">
         <v>27.54</v>
@@ -12755,16 +12757,16 @@
         <v>1.2199</v>
       </c>
       <c r="J156">
-        <v>1757.75</v>
+        <v>1747</v>
       </c>
       <c r="K156">
         <v>189.3</v>
       </c>
       <c r="L156">
-        <v>152</v>
+        <v>151.9</v>
       </c>
       <c r="M156">
-        <v>1096.5</v>
+        <v>1095.5999999999999</v>
       </c>
       <c r="N156">
         <v>2.7925</v>
@@ -12795,6 +12797,1071 @@
       </c>
       <c r="W156">
         <v>648</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B157">
+        <v>2039.7</v>
+      </c>
+      <c r="C157">
+        <v>29.260999999999999</v>
+      </c>
+      <c r="D157">
+        <v>1004.7</v>
+      </c>
+      <c r="E157">
+        <v>2269.3000000000002</v>
+      </c>
+      <c r="F157">
+        <v>41.94</v>
+      </c>
+      <c r="G157">
+        <v>44.99</v>
+      </c>
+      <c r="H157">
+        <v>2.153</v>
+      </c>
+      <c r="I157">
+        <v>1.2369000000000001</v>
+      </c>
+      <c r="J157">
+        <v>1754.5</v>
+      </c>
+      <c r="K157">
+        <v>189.5</v>
+      </c>
+      <c r="L157">
+        <v>151.6</v>
+      </c>
+      <c r="M157">
+        <v>1086.5</v>
+      </c>
+      <c r="N157">
+        <v>2.8614999999999999</v>
+      </c>
+      <c r="O157">
+        <v>310.5</v>
+      </c>
+      <c r="P157">
+        <v>872.38</v>
+      </c>
+      <c r="Q157">
+        <v>62.88</v>
+      </c>
+      <c r="R157">
+        <v>2495</v>
+      </c>
+      <c r="S157">
+        <v>112.6</v>
+      </c>
+      <c r="T157">
+        <v>12.55</v>
+      </c>
+      <c r="U157">
+        <v>103.6</v>
+      </c>
+      <c r="V157">
+        <v>53.13</v>
+      </c>
+      <c r="W157">
+        <v>662.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B158">
+        <v>1946.3</v>
+      </c>
+      <c r="C158">
+        <v>26.048999999999999</v>
+      </c>
+      <c r="D158">
+        <v>942.35</v>
+      </c>
+      <c r="E158">
+        <v>2128.6999999999998</v>
+      </c>
+      <c r="F158">
+        <v>41.61</v>
+      </c>
+      <c r="G158">
+        <v>44.5</v>
+      </c>
+      <c r="H158">
+        <v>2.1709999999999998</v>
+      </c>
+      <c r="I158">
+        <v>1.2383999999999999</v>
+      </c>
+      <c r="J158">
+        <v>1753.85</v>
+      </c>
+      <c r="K158">
+        <v>190.6</v>
+      </c>
+      <c r="L158">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="M158">
+        <v>1086</v>
+      </c>
+      <c r="N158">
+        <v>2.8755000000000002</v>
+      </c>
+      <c r="O158">
+        <v>311.5</v>
+      </c>
+      <c r="P158">
+        <v>873.38</v>
+      </c>
+      <c r="Q158">
+        <v>63.58</v>
+      </c>
+      <c r="R158">
+        <v>2458</v>
+      </c>
+      <c r="S158">
+        <v>111.35</v>
+      </c>
+      <c r="T158">
+        <v>12.74</v>
+      </c>
+      <c r="U158">
+        <v>104.65</v>
+      </c>
+      <c r="V158">
+        <v>53.08</v>
+      </c>
+      <c r="W158">
+        <v>681.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B159">
+        <v>1949</v>
+      </c>
+      <c r="C159">
+        <v>25.978999999999999</v>
+      </c>
+      <c r="D159">
+        <v>948.6</v>
+      </c>
+      <c r="E159">
+        <v>2176.8000000000002</v>
+      </c>
+      <c r="F159">
+        <v>42.67</v>
+      </c>
+      <c r="G159">
+        <v>45.43</v>
+      </c>
+      <c r="H159">
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="I159">
+        <v>1.2572000000000001</v>
+      </c>
+      <c r="J159">
+        <v>1753.35</v>
+      </c>
+      <c r="K159">
+        <v>189</v>
+      </c>
+      <c r="L159">
+        <v>153.5</v>
+      </c>
+      <c r="M159">
+        <v>1077.5</v>
+      </c>
+      <c r="N159">
+        <v>2.891</v>
+      </c>
+      <c r="O159">
+        <v>314.5</v>
+      </c>
+      <c r="P159">
+        <v>883.5</v>
+      </c>
+      <c r="Q159">
+        <v>62.27</v>
+      </c>
+      <c r="R159">
+        <v>2479</v>
+      </c>
+      <c r="S159">
+        <v>112.05</v>
+      </c>
+      <c r="T159">
+        <v>12.84</v>
+      </c>
+      <c r="U159">
+        <v>106.35</v>
+      </c>
+      <c r="V159">
+        <v>52.9</v>
+      </c>
+      <c r="W159">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B160">
+        <v>1970.4</v>
+      </c>
+      <c r="C160">
+        <v>27.718</v>
+      </c>
+      <c r="D160">
+        <v>977.9</v>
+      </c>
+      <c r="E160">
+        <v>2205.1999999999998</v>
+      </c>
+      <c r="F160">
+        <v>42.24</v>
+      </c>
+      <c r="G160">
+        <v>44.96</v>
+      </c>
+      <c r="H160">
+        <v>2.1819999999999999</v>
+      </c>
+      <c r="I160">
+        <v>1.2381</v>
+      </c>
+      <c r="J160">
+        <v>1762.5</v>
+      </c>
+      <c r="K160">
+        <v>187.35</v>
+      </c>
+      <c r="L160">
+        <v>153.6</v>
+      </c>
+      <c r="M160">
+        <v>1065.5999999999999</v>
+      </c>
+      <c r="N160">
+        <v>2.8069999999999999</v>
+      </c>
+      <c r="O160">
+        <v>325.25</v>
+      </c>
+      <c r="P160">
+        <v>896.88</v>
+      </c>
+      <c r="Q160">
+        <v>63.01</v>
+      </c>
+      <c r="R160">
+        <v>2487</v>
+      </c>
+      <c r="S160">
+        <v>116.2</v>
+      </c>
+      <c r="T160">
+        <v>13.11</v>
+      </c>
+      <c r="U160">
+        <v>107.05</v>
+      </c>
+      <c r="V160">
+        <v>53.7</v>
+      </c>
+      <c r="W160">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B161">
+        <v>1949.8</v>
+      </c>
+      <c r="C161">
+        <v>26.088999999999999</v>
+      </c>
+      <c r="D161">
+        <v>960.8</v>
+      </c>
+      <c r="E161">
+        <v>2140.1</v>
+      </c>
+      <c r="F161">
+        <v>42.01</v>
+      </c>
+      <c r="G161">
+        <v>44.8</v>
+      </c>
+      <c r="H161">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="I161">
+        <v>1.2366999999999999</v>
+      </c>
+      <c r="J161">
+        <v>1741.75</v>
+      </c>
+      <c r="K161">
+        <v>187.3</v>
+      </c>
+      <c r="L161">
+        <v>153.9</v>
+      </c>
+      <c r="M161">
+        <v>1085.5999999999999</v>
+      </c>
+      <c r="N161">
+        <v>2.859</v>
+      </c>
+      <c r="O161">
+        <v>324.5</v>
+      </c>
+      <c r="P161">
+        <v>897.88</v>
+      </c>
+      <c r="Q161">
+        <v>62.93</v>
+      </c>
+      <c r="R161">
+        <v>2436</v>
+      </c>
+      <c r="S161">
+        <v>114.7</v>
+      </c>
+      <c r="T161">
+        <v>13.1</v>
+      </c>
+      <c r="U161">
+        <v>107.6</v>
+      </c>
+      <c r="V161">
+        <v>53.83</v>
+      </c>
+      <c r="W161">
+        <v>726.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B162">
+        <v>1998.7</v>
+      </c>
+      <c r="C162">
+        <v>27.667000000000002</v>
+      </c>
+      <c r="D162">
+        <v>968.4</v>
+      </c>
+      <c r="E162">
+        <v>2186.3000000000002</v>
+      </c>
+      <c r="F162">
+        <v>42.89</v>
+      </c>
+      <c r="G162">
+        <v>45.37</v>
+      </c>
+      <c r="H162">
+        <v>2.339</v>
+      </c>
+      <c r="I162">
+        <v>1.2391000000000001</v>
+      </c>
+      <c r="J162">
+        <v>1732</v>
+      </c>
+      <c r="K162">
+        <v>192.2</v>
+      </c>
+      <c r="L162">
+        <v>154.4</v>
+      </c>
+      <c r="M162">
+        <v>1105</v>
+      </c>
+      <c r="N162">
+        <v>2.9015</v>
+      </c>
+      <c r="O162">
+        <v>331</v>
+      </c>
+      <c r="P162">
+        <v>913.88</v>
+      </c>
+      <c r="Q162">
+        <v>63.26</v>
+      </c>
+      <c r="R162">
+        <v>2421</v>
+      </c>
+      <c r="S162">
+        <v>115.55</v>
+      </c>
+      <c r="T162">
+        <v>13.06</v>
+      </c>
+      <c r="U162">
+        <v>106.9</v>
+      </c>
+      <c r="V162">
+        <v>53.53</v>
+      </c>
+      <c r="W162">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B163">
+        <v>2013.1</v>
+      </c>
+      <c r="C163">
+        <v>28.074999999999999</v>
+      </c>
+      <c r="D163">
+        <v>976.9</v>
+      </c>
+      <c r="E163">
+        <v>2217.5</v>
+      </c>
+      <c r="F163">
+        <v>42.89</v>
+      </c>
+      <c r="G163">
+        <v>45.46</v>
+      </c>
+      <c r="H163">
+        <v>2.4169999999999998</v>
+      </c>
+      <c r="I163">
+        <v>1.2604</v>
+      </c>
+      <c r="J163">
+        <v>1773.25</v>
+      </c>
+      <c r="K163">
+        <v>193.9</v>
+      </c>
+      <c r="L163">
+        <v>155.94999999999999</v>
+      </c>
+      <c r="M163">
+        <v>1107.5999999999999</v>
+      </c>
+      <c r="N163">
+        <v>2.9750000000000001</v>
+      </c>
+      <c r="O163">
+        <v>327</v>
+      </c>
+      <c r="P163">
+        <v>912.12</v>
+      </c>
+      <c r="Q163">
+        <v>62.94</v>
+      </c>
+      <c r="R163">
+        <v>2476</v>
+      </c>
+      <c r="S163">
+        <v>119.3</v>
+      </c>
+      <c r="T163">
+        <v>12.89</v>
+      </c>
+      <c r="U163">
+        <v>106.72499999999999</v>
+      </c>
+      <c r="V163">
+        <v>51.42</v>
+      </c>
+      <c r="W163">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B164">
+        <v>1970.3</v>
+      </c>
+      <c r="C164">
+        <v>27.34</v>
+      </c>
+      <c r="D164">
+        <v>941.75</v>
+      </c>
+      <c r="E164">
+        <v>2163</v>
+      </c>
+      <c r="F164">
+        <v>42.93</v>
+      </c>
+      <c r="G164">
+        <v>45.37</v>
+      </c>
+      <c r="H164">
+        <v>2.4260000000000002</v>
+      </c>
+      <c r="I164">
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="J164">
+        <v>1770.35</v>
+      </c>
+      <c r="K164">
+        <v>197.55</v>
+      </c>
+      <c r="L164">
+        <v>156.94999999999999</v>
+      </c>
+      <c r="M164">
+        <v>1107.5999999999999</v>
+      </c>
+      <c r="N164">
+        <v>3.0230000000000001</v>
+      </c>
+      <c r="O164">
+        <v>325</v>
+      </c>
+      <c r="P164">
+        <v>913.25</v>
+      </c>
+      <c r="Q164">
+        <v>63.79</v>
+      </c>
+      <c r="R164">
+        <v>2446</v>
+      </c>
+      <c r="S164">
+        <v>118.45</v>
+      </c>
+      <c r="T164">
+        <v>13.24</v>
+      </c>
+      <c r="U164">
+        <v>107.47499999999999</v>
+      </c>
+      <c r="V164">
+        <v>52.55</v>
+      </c>
+      <c r="W164">
+        <v>782.9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B165">
+        <v>1946.5</v>
+      </c>
+      <c r="C165">
+        <v>27.146999999999998</v>
+      </c>
+      <c r="D165">
+        <v>934.05</v>
+      </c>
+      <c r="E165">
+        <v>2188.9</v>
+      </c>
+      <c r="F165">
+        <v>42.58</v>
+      </c>
+      <c r="G165">
+        <v>44.9</v>
+      </c>
+      <c r="H165">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="I165">
+        <v>1.2466999999999999</v>
+      </c>
+      <c r="J165">
+        <v>1783.75</v>
+      </c>
+      <c r="K165">
+        <v>197.15</v>
+      </c>
+      <c r="L165">
+        <v>156.05000000000001</v>
+      </c>
+      <c r="M165">
+        <v>1103.4000000000001</v>
+      </c>
+      <c r="N165">
+        <v>2.9744999999999999</v>
+      </c>
+      <c r="O165">
+        <v>324.5</v>
+      </c>
+      <c r="P165">
+        <v>906.38</v>
+      </c>
+      <c r="Q165">
+        <v>64.56</v>
+      </c>
+      <c r="R165">
+        <v>2440</v>
+      </c>
+      <c r="S165">
+        <v>118.55</v>
+      </c>
+      <c r="T165">
+        <v>13.01</v>
+      </c>
+      <c r="U165">
+        <v>107.02500000000001</v>
+      </c>
+      <c r="V165">
+        <v>55.17</v>
+      </c>
+      <c r="W165">
+        <v>801.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B166">
+        <v>1947</v>
+      </c>
+      <c r="C166">
+        <v>26.731999999999999</v>
+      </c>
+      <c r="D166">
+        <v>926.3</v>
+      </c>
+      <c r="E166">
+        <v>2178.8000000000002</v>
+      </c>
+      <c r="F166">
+        <v>42.34</v>
+      </c>
+      <c r="G166">
+        <v>44.35</v>
+      </c>
+      <c r="H166">
+        <v>2.448</v>
+      </c>
+      <c r="I166">
+        <v>1.208</v>
+      </c>
+      <c r="J166">
+        <v>1766.5</v>
+      </c>
+      <c r="K166">
+        <v>193.55</v>
+      </c>
+      <c r="L166">
+        <v>155.69999999999999</v>
+      </c>
+      <c r="M166">
+        <v>1104.4000000000001</v>
+      </c>
+      <c r="N166">
+        <v>2.9175</v>
+      </c>
+      <c r="O166">
+        <v>327</v>
+      </c>
+      <c r="P166">
+        <v>903.62</v>
+      </c>
+      <c r="Q166">
+        <v>64.25</v>
+      </c>
+      <c r="R166">
+        <v>2459</v>
+      </c>
+      <c r="S166">
+        <v>120.1</v>
+      </c>
+      <c r="T166">
+        <v>12.83</v>
+      </c>
+      <c r="U166">
+        <v>105.8</v>
+      </c>
+      <c r="V166">
+        <v>54.25</v>
+      </c>
+      <c r="W166">
+        <v>830.9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>44067</v>
+      </c>
+      <c r="B167">
+        <v>1939.2</v>
+      </c>
+      <c r="C167">
+        <v>26.606999999999999</v>
+      </c>
+      <c r="D167">
+        <v>926.95</v>
+      </c>
+      <c r="E167">
+        <v>2167.1999999999998</v>
+      </c>
+      <c r="F167">
+        <v>42.62</v>
+      </c>
+      <c r="G167">
+        <v>45.13</v>
+      </c>
+      <c r="H167">
+        <v>2.5129999999999999</v>
+      </c>
+      <c r="I167">
+        <v>1.2476</v>
+      </c>
+      <c r="J167">
+        <v>1741.86</v>
+      </c>
+      <c r="K167">
+        <v>192.55</v>
+      </c>
+      <c r="L167">
+        <v>155.44999999999999</v>
+      </c>
+      <c r="M167">
+        <v>1108.5999999999999</v>
+      </c>
+      <c r="N167">
+        <v>2.9264999999999999</v>
+      </c>
+      <c r="O167">
+        <v>331.75</v>
+      </c>
+      <c r="P167">
+        <v>911.62</v>
+      </c>
+      <c r="Q167">
+        <v>65.75</v>
+      </c>
+      <c r="R167">
+        <v>2509</v>
+      </c>
+      <c r="S167">
+        <v>120.25</v>
+      </c>
+      <c r="T167">
+        <v>12.71</v>
+      </c>
+      <c r="U167">
+        <v>105.575</v>
+      </c>
+      <c r="V167">
+        <v>54.6</v>
+      </c>
+      <c r="W167">
+        <v>810.3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B168">
+        <v>1923.1</v>
+      </c>
+      <c r="C168">
+        <v>26.273</v>
+      </c>
+      <c r="D168">
+        <v>938.45</v>
+      </c>
+      <c r="E168">
+        <v>2171</v>
+      </c>
+      <c r="F168">
+        <v>43.35</v>
+      </c>
+      <c r="G168">
+        <v>45.86</v>
+      </c>
+      <c r="H168">
+        <v>2.4889999999999999</v>
+      </c>
+      <c r="I168">
+        <v>1.2601</v>
+      </c>
+      <c r="J168">
+        <v>1746</v>
+      </c>
+      <c r="K168">
+        <v>195</v>
+      </c>
+      <c r="L168">
+        <v>153.44999999999999</v>
+      </c>
+      <c r="M168">
+        <v>1109.8</v>
+      </c>
+      <c r="N168">
+        <v>2.9340000000000002</v>
+      </c>
+      <c r="O168">
+        <v>340.75</v>
+      </c>
+      <c r="P168">
+        <v>919.88</v>
+      </c>
+      <c r="Q168">
+        <v>65.39</v>
+      </c>
+      <c r="R168">
+        <v>2537</v>
+      </c>
+      <c r="S168">
+        <v>123.2</v>
+      </c>
+      <c r="T168">
+        <v>12.76</v>
+      </c>
+      <c r="U168">
+        <v>105.5</v>
+      </c>
+      <c r="V168">
+        <v>55.95</v>
+      </c>
+      <c r="W168">
+        <v>829.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B169">
+        <v>1952.5</v>
+      </c>
+      <c r="C169">
+        <v>27.449000000000002</v>
+      </c>
+      <c r="D169">
+        <v>944.9</v>
+      </c>
+      <c r="E169">
+        <v>2181</v>
+      </c>
+      <c r="F169">
+        <v>43.39</v>
+      </c>
+      <c r="G169">
+        <v>45.64</v>
+      </c>
+      <c r="H169">
+        <v>2.4609999999999999</v>
+      </c>
+      <c r="I169">
+        <v>1.2446999999999999</v>
+      </c>
+      <c r="J169">
+        <v>1750.25</v>
+      </c>
+      <c r="K169">
+        <v>196.5</v>
+      </c>
+      <c r="L169">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="M169">
+        <v>1121.3</v>
+      </c>
+      <c r="N169">
+        <v>2.9615</v>
+      </c>
+      <c r="O169">
+        <v>340.5</v>
+      </c>
+      <c r="P169">
+        <v>924.62</v>
+      </c>
+      <c r="Q169">
+        <v>65.540000000000006</v>
+      </c>
+      <c r="R169">
+        <v>2526</v>
+      </c>
+      <c r="S169">
+        <v>122.8</v>
+      </c>
+      <c r="T169">
+        <v>12.58</v>
+      </c>
+      <c r="U169">
+        <v>104.05</v>
+      </c>
+      <c r="V169">
+        <v>55.55</v>
+      </c>
+      <c r="W169">
+        <v>858.3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B170">
+        <v>1932.6</v>
+      </c>
+      <c r="C170">
+        <v>27.024999999999999</v>
+      </c>
+      <c r="D170">
+        <v>931.45</v>
+      </c>
+      <c r="E170">
+        <v>2149.1</v>
+      </c>
+      <c r="F170">
+        <v>43.04</v>
+      </c>
+      <c r="G170">
+        <v>45.09</v>
+      </c>
+      <c r="H170">
+        <v>2.5790000000000002</v>
+      </c>
+      <c r="I170">
+        <v>1.2107000000000001</v>
+      </c>
+      <c r="J170">
+        <v>1778.25</v>
+      </c>
+      <c r="K170">
+        <v>195.35</v>
+      </c>
+      <c r="L170">
+        <v>154</v>
+      </c>
+      <c r="M170">
+        <v>1117.4000000000001</v>
+      </c>
+      <c r="N170">
+        <v>2.9674999999999998</v>
+      </c>
+      <c r="O170">
+        <v>344.25</v>
+      </c>
+      <c r="P170">
+        <v>940.38</v>
+      </c>
+      <c r="Q170">
+        <v>65.459999999999994</v>
+      </c>
+      <c r="R170">
+        <v>2589</v>
+      </c>
+      <c r="S170">
+        <v>122.95</v>
+      </c>
+      <c r="T170">
+        <v>12.77</v>
+      </c>
+      <c r="U170">
+        <v>102.97499999999999</v>
+      </c>
+      <c r="V170">
+        <v>55.72</v>
+      </c>
+      <c r="W170">
+        <v>887.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B171">
+        <v>1974.9</v>
+      </c>
+      <c r="C171">
+        <v>27.61</v>
+      </c>
+      <c r="D171">
+        <v>941.05</v>
+      </c>
+      <c r="E171">
+        <v>2193</v>
+      </c>
+      <c r="F171">
+        <v>42.97</v>
+      </c>
+      <c r="G171">
+        <v>45.05</v>
+      </c>
+      <c r="H171">
+        <v>2.657</v>
+      </c>
+      <c r="I171">
+        <v>1.2161999999999999</v>
+      </c>
+      <c r="J171">
+        <v>1799.75</v>
+      </c>
+      <c r="K171">
+        <v>194.8</v>
+      </c>
+      <c r="L171">
+        <v>154.05000000000001</v>
+      </c>
+      <c r="M171">
+        <v>1130.3</v>
+      </c>
+      <c r="N171">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="O171">
+        <v>346</v>
+      </c>
+      <c r="P171">
+        <v>951.88</v>
+      </c>
+      <c r="Q171">
+        <v>64.98</v>
+      </c>
+      <c r="R171">
+        <v>2692</v>
+      </c>
+      <c r="S171">
+        <v>127.1</v>
+      </c>
+      <c r="T171">
+        <v>12.6</v>
+      </c>
+      <c r="U171">
+        <v>103.22499999999999</v>
+      </c>
+      <c r="V171">
+        <v>53.65</v>
+      </c>
+      <c r="W171">
+        <v>915.5</v>
       </c>
     </row>
   </sheetData>

--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Equities" sheetId="1" r:id="rId1"/>
@@ -41,214 +41,214 @@
     <t>Indices</t>
   </si>
   <si>
+    <t>COLCAP</t>
+  </si>
+  <si>
+    <t>Bovespa</t>
+  </si>
+  <si>
     <t>KOSDAQ</t>
+  </si>
+  <si>
+    <t>Nikkei 225</t>
+  </si>
+  <si>
+    <t>Tadawul All Share</t>
+  </si>
+  <si>
+    <t>KOSPI</t>
+  </si>
+  <si>
+    <t>HNX 30</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>KLCI</t>
+  </si>
+  <si>
+    <t>FTSE Singapore</t>
+  </si>
+  <si>
+    <t>S&amp;P CLX IPSA</t>
+  </si>
+  <si>
+    <t>Taiwan Weighted</t>
+  </si>
+  <si>
+    <t>CAC 40</t>
+  </si>
+  <si>
+    <t>SZSE Component</t>
+  </si>
+  <si>
+    <t>China A50</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50</t>
+  </si>
+  <si>
+    <t>NZX 50</t>
+  </si>
+  <si>
+    <t>S&amp;P/BMV IPC</t>
+  </si>
+  <si>
+    <t>IBEX 35</t>
+  </si>
+  <si>
+    <t>OMXC25</t>
+  </si>
+  <si>
+    <t>FTSE MIB</t>
+  </si>
+  <si>
+    <t>PSEi Composite</t>
+  </si>
+  <si>
+    <t>Nifty 50</t>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>FTSE/JSE Top 40</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>MOEX</t>
   </si>
   <si>
     <t>BSE Sensex</t>
   </si>
   <si>
-    <t>Nifty 50</t>
+    <t>S&amp;P Lima General</t>
   </si>
   <si>
-    <t>NZX 50</t>
+    <t>S&amp;P/ASX 200</t>
   </si>
   <si>
-    <t>HNX 30</t>
+    <t>IDX Composite</t>
+  </si>
+  <si>
+    <t>SmallCap 2000</t>
+  </si>
+  <si>
+    <t>AEX</t>
+  </si>
+  <si>
+    <t>Hang Seng</t>
+  </si>
+  <si>
+    <t>S&amp;P/TSX</t>
   </si>
   <si>
     <t>Nasdaq</t>
   </si>
   <si>
-    <t>S&amp;P 500</t>
+    <t>Colombia</t>
   </si>
   <si>
-    <t>China A50</t>
-  </si>
-  <si>
-    <t>SZSE Component</t>
-  </si>
-  <si>
-    <t>COLCAP</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>IDX Composite</t>
-  </si>
-  <si>
-    <t>KOSPI</t>
-  </si>
-  <si>
-    <t>CAC 40</t>
-  </si>
-  <si>
-    <t>IBEX 35</t>
-  </si>
-  <si>
-    <t>SmallCap 2000</t>
-  </si>
-  <si>
-    <t>DAX</t>
-  </si>
-  <si>
-    <t>S&amp;P/TSX</t>
-  </si>
-  <si>
-    <t>FTSE/JSE Top 40</t>
-  </si>
-  <si>
-    <t>Euro Stoxx 50</t>
-  </si>
-  <si>
-    <t>Hang Seng</t>
-  </si>
-  <si>
-    <t>Tadawul All Share</t>
-  </si>
-  <si>
-    <t>Taiwan Weighted</t>
-  </si>
-  <si>
-    <t>S&amp;P Lima General</t>
-  </si>
-  <si>
-    <t>AEX</t>
-  </si>
-  <si>
-    <t>FTSE Singapore</t>
-  </si>
-  <si>
-    <t>Bovespa</t>
-  </si>
-  <si>
-    <t>FTSE MIB</t>
-  </si>
-  <si>
-    <t>S&amp;P/ASX 200</t>
-  </si>
-  <si>
-    <t>OMXC25</t>
-  </si>
-  <si>
-    <t>SMI</t>
-  </si>
-  <si>
-    <t>FTSE 100</t>
-  </si>
-  <si>
-    <t>S&amp;P/BMV IPC</t>
-  </si>
-  <si>
-    <t>Nikkei 225</t>
-  </si>
-  <si>
-    <t>PSEi Composite</t>
-  </si>
-  <si>
-    <t>MOEX</t>
-  </si>
-  <si>
-    <t>S&amp;P CLX IPSA</t>
-  </si>
-  <si>
-    <t>KLCI</t>
+    <t>Brazil</t>
   </si>
   <si>
     <t>South Korea</t>
   </si>
   <si>
-    <t>India</t>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
   <si>
     <t>New Zealand</t>
   </si>
   <si>
-    <t>Vietnam</t>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>United States</t>
   </si>
   <si>
-    <t>China</t>
+    <t>Russia</t>
   </si>
   <si>
-    <t>Colombia</t>
+    <t>Peru</t>
   </si>
   <si>
-    <t>Thailand</t>
+    <t>Australia</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>South Africa</t>
+    <t>Netherlands</t>
   </si>
   <si>
     <t>Hong Kong</t>
   </si>
   <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
+    <t>Canada</t>
   </si>
   <si>
     <t>Date</t>
@@ -690,7 +690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -728,22 +728,22 @@
         <v>46</v>
       </c>
       <c r="C2">
-        <v>841.3</v>
+        <v>1240.24</v>
       </c>
       <c r="D2">
-        <v>45.289999999999957</v>
+        <v>14.029999999999969</v>
       </c>
       <c r="E2">
-        <v>5.6896270147359873E-2</v>
+        <v>1.1441759568100011E-2</v>
       </c>
       <c r="F2">
-        <v>0.28381987151119331</v>
+        <v>-0.26021628521494311</v>
       </c>
       <c r="G2">
-        <v>5.4856641688944663E-2</v>
+        <v>5.1859723469573023E-2</v>
       </c>
       <c r="H2">
-        <v>0.26139105809342128</v>
+        <v>-0.34314724358798321</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -754,22 +754,22 @@
         <v>47</v>
       </c>
       <c r="C3">
-        <v>39467.31</v>
+        <v>101241.73</v>
       </c>
       <c r="D3">
-        <v>1032.589999999997</v>
+        <v>-901.19999999999709</v>
       </c>
       <c r="E3">
-        <v>2.686607317550371E-2</v>
+        <v>-8.8229307696577886E-3</v>
       </c>
       <c r="F3">
-        <v>-2.9730093176352109E-2</v>
+        <v>-0.13378224047792769</v>
       </c>
       <c r="G3">
-        <v>4.3922437430809591E-2</v>
+        <v>4.3416289330491457E-2</v>
       </c>
       <c r="H3">
-        <v>-5.6605761553823693E-2</v>
+        <v>-0.33566877690403629</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -777,25 +777,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>11647.6</v>
+        <v>866.04</v>
       </c>
       <c r="D4">
-        <v>276</v>
+        <v>24.740000000000009</v>
       </c>
       <c r="E4">
-        <v>2.427099088958462E-2</v>
+        <v>2.9406870319743209E-2</v>
       </c>
       <c r="F4">
-        <v>-2.8804182422319521E-2</v>
+        <v>0.32157299598663219</v>
       </c>
       <c r="G4">
-        <v>4.128425052794249E-2</v>
+        <v>2.5775980573233381E-2</v>
       </c>
       <c r="H4">
-        <v>-5.5705497756578633E-2</v>
+        <v>0.29390464950208761</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -803,25 +803,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>12093.52</v>
+        <v>23205.43</v>
       </c>
       <c r="D5">
-        <v>257.57999999999993</v>
+        <v>322.77999999999878</v>
       </c>
       <c r="E5">
-        <v>2.1762530056759211E-2</v>
+        <v>1.410588371539134E-2</v>
       </c>
       <c r="F5">
-        <v>4.0095224006907897E-2</v>
+        <v>2.4563819820411229E-5</v>
       </c>
       <c r="G5">
-        <v>3.7881789648989583E-2</v>
+        <v>1.9373042795326478E-2</v>
       </c>
       <c r="H5">
-        <v>3.8533183788990399E-2</v>
+        <v>1.7727609798461771E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -829,25 +829,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>233.97</v>
+        <v>8045.09</v>
       </c>
       <c r="D6">
-        <v>7.710000000000008</v>
+        <v>110.6599999999999</v>
       </c>
       <c r="E6">
-        <v>3.4075841951737067E-2</v>
+        <v>1.394681155420119E-2</v>
       </c>
       <c r="F6">
-        <v>0.31613883107385932</v>
+        <v>-1.962435398903006E-2</v>
       </c>
       <c r="G6">
-        <v>3.4075841951737067E-2</v>
+        <v>1.3976471177094661E-2</v>
       </c>
       <c r="H6">
-        <v>0.31596853092031513</v>
+        <v>-1.8279190139958271E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -855,25 +855,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>11695.63</v>
+        <v>2368.25</v>
       </c>
       <c r="D7">
-        <v>383.82999999999993</v>
+        <v>14.44999999999982</v>
       </c>
       <c r="E7">
-        <v>3.3931823405647148E-2</v>
+        <v>6.1390092616193659E-3</v>
       </c>
       <c r="F7">
-        <v>0.28927615921124139</v>
+        <v>9.8920220688887062E-2</v>
       </c>
       <c r="G7">
-        <v>3.3931823405647148E-2</v>
+        <v>2.5901891423627532E-3</v>
       </c>
       <c r="H7">
-        <v>0.28927615921124139</v>
+        <v>7.5913314890094563E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,25 +881,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>3508.01</v>
+        <v>234.49</v>
       </c>
       <c r="D8">
-        <v>110.85000000000041</v>
+        <v>0.52000000000001023</v>
       </c>
       <c r="E8">
-        <v>3.2630196988072457E-2</v>
+        <v>2.2225071590376011E-3</v>
       </c>
       <c r="F8">
-        <v>8.0624591840506632E-2</v>
+        <v>0.31906395904820828</v>
       </c>
       <c r="G8">
-        <v>3.2630196988072457E-2</v>
+        <v>2.2225071590376011E-3</v>
       </c>
       <c r="H8">
-        <v>8.0624591840506632E-2</v>
+        <v>0.31889328040135362</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -907,25 +907,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9">
-        <v>15818.02</v>
+        <v>10183.040000000001</v>
       </c>
       <c r="D9">
-        <v>434.36000000000058</v>
+        <v>18.550000000001091</v>
       </c>
       <c r="E9">
-        <v>2.8235153403026288E-2</v>
+        <v>1.8249808893511239E-3</v>
       </c>
       <c r="F9">
-        <v>0.10299435603424591</v>
+        <v>-4.522751586671292E-2</v>
       </c>
       <c r="G9">
-        <v>3.2056057202864308E-2</v>
+        <v>6.8000914633881138E-4</v>
       </c>
       <c r="H9">
-        <v>0.1150502195733847</v>
+        <v>1.923244621440379E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,25 +933,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10">
-        <v>13851.32</v>
+        <v>1515.86</v>
       </c>
       <c r="D10">
-        <v>373.31999999999971</v>
+        <v>-9.3500000000001364</v>
       </c>
       <c r="E10">
-        <v>2.7698471583320838E-2</v>
+        <v>-6.1303033680608632E-3</v>
       </c>
       <c r="F10">
-        <v>0.29472522192840511</v>
+        <v>-5.1259262968155528E-2</v>
       </c>
       <c r="G10">
-        <v>3.1517381082927683E-2</v>
+        <v>-1.3586780565377771E-4</v>
       </c>
       <c r="H10">
-        <v>0.30887672733807131</v>
+        <v>-6.1559245582408877E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -959,25 +959,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11">
-        <v>1226.21</v>
+        <v>268.22000000000003</v>
       </c>
       <c r="D11">
-        <v>39.920000000000073</v>
+        <v>-0.33999999999997499</v>
       </c>
       <c r="E11">
-        <v>3.3651130836473531E-2</v>
+        <v>-1.266011319630556E-3</v>
       </c>
       <c r="F11">
-        <v>-0.26858496024431999</v>
+        <v>-0.2015123098448989</v>
       </c>
       <c r="G11">
-        <v>3.0282983354242621E-2</v>
+        <v>-1.4414455934818049E-3</v>
       </c>
       <c r="H11">
-        <v>-0.37553198230142387</v>
+        <v>-0.21091852017537391</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -985,25 +985,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12">
-        <v>1323.31</v>
+        <v>3810.61</v>
       </c>
       <c r="D12">
-        <v>24.049999999999951</v>
+        <v>-63.159999999999847</v>
       </c>
       <c r="E12">
-        <v>1.8510536767082812E-2</v>
+        <v>-1.6304530212170491E-2</v>
       </c>
       <c r="F12">
-        <v>-0.15632132610774629</v>
+        <v>-0.21983912013577961</v>
       </c>
       <c r="G12">
-        <v>2.2908447370110219E-2</v>
+        <v>-5.3928906460929396E-3</v>
       </c>
       <c r="H12">
-        <v>-0.18657118773620759</v>
+        <v>-0.23141120653986089</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1011,25 +1011,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13">
-        <v>5346.66</v>
+        <v>12637.95</v>
       </c>
       <c r="D13">
-        <v>73.849999999999454</v>
+        <v>-90.899999999999636</v>
       </c>
       <c r="E13">
-        <v>1.400581473635487E-2</v>
+        <v>-7.1412578512590752E-3</v>
       </c>
       <c r="F13">
-        <v>-0.14554607344903639</v>
+        <v>5.7271762918543523E-2</v>
       </c>
       <c r="G13">
-        <v>2.0842598908134669E-2</v>
+        <v>-5.6423773911493669E-3</v>
       </c>
       <c r="H13">
-        <v>-0.17581221157105789</v>
+        <v>8.4571083400104108E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1037,25 +1037,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C14">
-        <v>2353.8000000000002</v>
+        <v>4965.07</v>
       </c>
       <c r="D14">
-        <v>49.210000000000043</v>
+        <v>-37.869999999999891</v>
       </c>
       <c r="E14">
-        <v>2.135303893534202E-2</v>
+        <v>-7.5695491051261943E-3</v>
       </c>
       <c r="F14">
-        <v>9.2215102061649956E-2</v>
+        <v>-0.1743584115312152</v>
       </c>
       <c r="G14">
-        <v>1.9382002814634539E-2</v>
+        <v>-5.8774671305173998E-3</v>
       </c>
       <c r="H14">
-        <v>7.3133695643335495E-2</v>
+        <v>-0.1242202921799553</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1063,25 +1063,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C15">
-        <v>5002.9399999999996</v>
+        <v>13656.66</v>
       </c>
       <c r="D15">
-        <v>106.6099999999997</v>
+        <v>-194.65999999999991</v>
       </c>
       <c r="E15">
-        <v>2.177345072738146E-2</v>
+        <v>-1.405353424799949E-2</v>
       </c>
       <c r="F15">
-        <v>-0.16806100848245401</v>
+        <v>0.27652975668028562</v>
       </c>
       <c r="G15">
-        <v>1.7123725152655919E-2</v>
+        <v>-7.8029384582147809E-3</v>
       </c>
       <c r="H15">
-        <v>-0.11904249339148119</v>
+        <v>0.2986636427852627</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1089,25 +1089,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16">
-        <v>7133</v>
+        <v>15532.78</v>
       </c>
       <c r="D16">
-        <v>150.89999999999961</v>
+        <v>-285.23999999999978</v>
       </c>
       <c r="E16">
-        <v>2.161240887412097E-2</v>
+        <v>-1.8032598264510979E-2</v>
       </c>
       <c r="F16">
-        <v>-0.2570488183399473</v>
+        <v>8.3104501923857432E-2</v>
       </c>
       <c r="G16">
-        <v>1.6963416143279009E-2</v>
+        <v>-1.180722851047245E-2</v>
       </c>
       <c r="H16">
-        <v>-0.21327353664095119</v>
+        <v>0.1018845668302291</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1115,25 +1115,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C17">
-        <v>1578.34</v>
+        <v>1311.95</v>
       </c>
       <c r="D17">
-        <v>25.8599999999999</v>
+        <v>-11.3599999999999</v>
       </c>
       <c r="E17">
-        <v>1.6657219416675199E-2</v>
+        <v>-8.5845342361199339E-3</v>
       </c>
       <c r="F17">
-        <v>-5.1056359198201173E-2</v>
+        <v>-0.1635639145680586</v>
       </c>
       <c r="G17">
-        <v>1.6657219416675199E-2</v>
+        <v>-1.284704335909981E-2</v>
       </c>
       <c r="H17">
-        <v>-5.1056359198201173E-2</v>
+        <v>-0.19702134295690149</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1141,25 +1141,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C18">
-        <v>13033.2</v>
+        <v>12842.66</v>
       </c>
       <c r="D18">
-        <v>268.40000000000151</v>
+        <v>-190.5400000000009</v>
       </c>
       <c r="E18">
-        <v>2.1026573075958899E-2</v>
+        <v>-1.461958690114484E-2</v>
       </c>
       <c r="F18">
-        <v>-7.1448214708779156E-3</v>
+        <v>-2.1659954033636079E-2</v>
       </c>
       <c r="G18">
-        <v>1.6380246274331659E-2</v>
+        <v>-1.2939525156129171E-2</v>
       </c>
       <c r="H18">
-        <v>5.1355004896322498E-2</v>
+        <v>3.7750970362444347E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1167,25 +1167,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19">
-        <v>16705.79</v>
+        <v>3260.59</v>
       </c>
       <c r="D19">
-        <v>187.9400000000023</v>
+        <v>-54.949999999999818</v>
       </c>
       <c r="E19">
-        <v>1.1377994109402991E-2</v>
+        <v>-1.657346917847469E-2</v>
       </c>
       <c r="F19">
-        <v>-2.3365625147979019E-2</v>
+        <v>-0.13109323867694231</v>
       </c>
       <c r="G19">
-        <v>1.529355089226447E-2</v>
+        <v>-1.4896738779226371E-2</v>
       </c>
       <c r="H19">
-        <v>-3.3413594625417042E-2</v>
+        <v>-7.8327787526247028E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1193,25 +1193,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20">
-        <v>51750.45</v>
+        <v>11824.31</v>
       </c>
       <c r="D20">
-        <v>81.269999999996799</v>
+        <v>-269.21000000000089</v>
       </c>
       <c r="E20">
-        <v>1.5728912283878851E-3</v>
+        <v>-2.2260681753534239E-2</v>
       </c>
       <c r="F20">
-        <v>1.472246552473622E-2</v>
+        <v>1.694199523191919E-2</v>
       </c>
       <c r="G20">
-        <v>1.392678257462876E-2</v>
+        <v>-1.581850315350319E-2</v>
       </c>
       <c r="H20">
-        <v>-0.14703883933820039</v>
+        <v>2.210514334620672E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1219,25 +1219,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C21">
-        <v>3315.54</v>
+        <v>36448.5</v>
       </c>
       <c r="D21">
-        <v>55.789999999999957</v>
+        <v>-1345.75</v>
       </c>
       <c r="E21">
-        <v>1.7114809417900109E-2</v>
+        <v>-3.5607268301395052E-2</v>
       </c>
       <c r="F21">
-        <v>-0.11644974577084199</v>
+        <v>-0.18084606688796351</v>
       </c>
       <c r="G21">
-        <v>1.24862836537829E-2</v>
+        <v>-1.630930723359381E-2</v>
       </c>
       <c r="H21">
-        <v>-6.4390253533842645E-2</v>
+        <v>-0.28480934665925378</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1245,25 +1245,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C22">
-        <v>25422.06</v>
+        <v>6989.7</v>
       </c>
       <c r="D22">
-        <v>308.22000000000122</v>
+        <v>-143.30000000000021</v>
       </c>
       <c r="E22">
-        <v>1.227291405854314E-2</v>
+        <v>-2.008972381887009E-2</v>
       </c>
       <c r="F22">
-        <v>-9.9344970043778402E-2</v>
+        <v>-0.27197450239040089</v>
       </c>
       <c r="G22">
-        <v>1.2338150047118249E-2</v>
+        <v>-1.841898859146451E-2</v>
       </c>
       <c r="H22">
-        <v>-9.5695941541658502E-2</v>
+        <v>-0.2277642423941646</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1271,25 +1271,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C23">
-        <v>7934.43</v>
+        <v>1436.57</v>
       </c>
       <c r="D23">
-        <v>91.590000000000146</v>
+        <v>-33.330000000000148</v>
       </c>
       <c r="E23">
-        <v>1.167816760255214E-2</v>
+        <v>-2.2675011905571859E-2</v>
       </c>
       <c r="F23">
-        <v>-3.310939504979804E-2</v>
+        <v>0.16306389455617071</v>
       </c>
       <c r="G23">
-        <v>1.176458278825154E-2</v>
+        <v>-2.0671928619074301E-2</v>
       </c>
       <c r="H23">
-        <v>-3.1811055023405199E-2</v>
+        <v>0.2391182511979939</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,25 +1297,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C24">
-        <v>12728.85</v>
+        <v>19391.25</v>
       </c>
       <c r="D24">
-        <v>121.0100000000002</v>
+        <v>-449.7599999999984</v>
       </c>
       <c r="E24">
-        <v>9.5979961674641512E-3</v>
+        <v>-2.2668200862758451E-2</v>
       </c>
       <c r="F24">
-        <v>6.4876319294324025E-2</v>
+        <v>-0.17768493581139971</v>
       </c>
       <c r="G24">
-        <v>9.5222354433521783E-3</v>
+        <v>-2.1001861907680049E-2</v>
       </c>
       <c r="H24">
-        <v>9.0725367553943448E-2</v>
+        <v>-0.12774882381262079</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1323,25 +1323,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C25">
-        <v>18420.439999999999</v>
+        <v>5785.09</v>
       </c>
       <c r="D25">
-        <v>144.39999999999779</v>
+        <v>-99.090000000000146</v>
       </c>
       <c r="E25">
-        <v>7.9010551519911321E-3</v>
+        <v>-1.684006947442129E-2</v>
       </c>
       <c r="F25">
-        <v>-0.10442966124232381</v>
+        <v>-0.258119204346828</v>
       </c>
       <c r="G25">
-        <v>6.1664925741788954E-3</v>
+        <v>-2.1280105613829311E-2</v>
       </c>
       <c r="H25">
-        <v>-0.15296188005429939</v>
+        <v>-0.22230056240148949</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1349,25 +1349,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C26">
-        <v>556.79999999999995</v>
+        <v>11333.85</v>
       </c>
       <c r="D26">
-        <v>5.42999999999995</v>
+        <v>-313.75</v>
       </c>
       <c r="E26">
-        <v>9.8481963110070847E-3</v>
+        <v>-2.6936879700539151E-2</v>
       </c>
       <c r="F26">
-        <v>-8.3064356761741731E-2</v>
+        <v>-5.4965167326076259E-2</v>
       </c>
       <c r="G26">
-        <v>5.252738304503568E-3</v>
+        <v>-2.2610023317779501E-2</v>
       </c>
       <c r="H26">
-        <v>-2.903777052909318E-2</v>
+        <v>-7.7056018471153287E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1375,25 +1375,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C27">
-        <v>268.56</v>
+        <v>5799.08</v>
       </c>
       <c r="D27">
-        <v>0.94999999999998863</v>
+        <v>-164.48999999999981</v>
       </c>
       <c r="E27">
-        <v>3.5499420798923431E-3</v>
+        <v>-2.758247157323546E-2</v>
       </c>
       <c r="F27">
-        <v>-0.20050013396445479</v>
+        <v>-0.2344792444959567</v>
       </c>
       <c r="G27">
-        <v>4.1377780517179996E-3</v>
+        <v>-2.2965498380971061E-2</v>
       </c>
       <c r="H27">
-        <v>-0.20977946026048769</v>
+        <v>-0.22381905130758051</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1401,25 +1401,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C28">
-        <v>102142.93</v>
+        <v>49720.42</v>
       </c>
       <c r="D28">
-        <v>621.63999999999942</v>
+        <v>-2030.0299999999991</v>
       </c>
       <c r="E28">
-        <v>6.1232476458878971E-3</v>
+        <v>-3.9227291743356818E-2</v>
       </c>
       <c r="F28">
-        <v>-0.1260716309804282</v>
+        <v>-2.5082348668940879E-2</v>
       </c>
       <c r="G28">
-        <v>3.8106923136655979E-3</v>
+        <v>-2.300675721622647E-2</v>
       </c>
       <c r="H28">
-        <v>-0.36331143198633398</v>
+        <v>-0.16666270967641719</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1427,25 +1427,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C29">
-        <v>19841.009999999998</v>
+        <v>3426.96</v>
       </c>
       <c r="D29">
-        <v>145.57999999999811</v>
+        <v>-81.050000000000182</v>
       </c>
       <c r="E29">
-        <v>7.3915624081322129E-3</v>
+        <v>-2.3104267091598959E-2</v>
       </c>
       <c r="F29">
-        <v>-0.15861218788285131</v>
+        <v>5.5657552644873487E-2</v>
       </c>
       <c r="G29">
-        <v>2.8072836639962961E-3</v>
+        <v>-2.3104267091598959E-2</v>
       </c>
       <c r="H29">
-        <v>-0.1090369406758508</v>
+        <v>5.5657552644873487E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1453,25 +1453,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C30">
-        <v>6073.8</v>
+        <v>2921.55</v>
       </c>
       <c r="D30">
-        <v>-37.399999999999643</v>
+        <v>-58.619999999999891</v>
       </c>
       <c r="E30">
-        <v>-6.1199109831129306E-3</v>
+        <v>-1.9670018824429421E-2</v>
       </c>
       <c r="F30">
-        <v>-9.8267440652047955E-2</v>
+        <v>-5.109666858295403E-2</v>
       </c>
       <c r="G30">
-        <v>2.673277155367471E-3</v>
+        <v>-2.3720430243683529E-2</v>
       </c>
       <c r="H30">
-        <v>-5.5978090420718218E-2</v>
+        <v>-0.21827060930665251</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1479,25 +1479,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31">
-        <v>1469.9</v>
+        <v>38357.18</v>
       </c>
       <c r="D31">
-        <v>-0.31999999999993628</v>
+        <v>-1110.1299999999969</v>
       </c>
       <c r="E31">
-        <v>-2.176545006868924E-4</v>
+        <v>-2.8127835416196231E-2</v>
       </c>
       <c r="F31">
-        <v>0.19004825285792931</v>
+        <v>-5.7021685424775807E-2</v>
       </c>
       <c r="G31">
-        <v>-4.202735928691248E-3</v>
+        <v>-2.380627477862762E-2</v>
       </c>
       <c r="H31">
-        <v>0.26527390300447989</v>
+        <v>-7.9064464018847591E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1505,25 +1505,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C32">
-        <v>10164.49</v>
+        <v>18137.939999999999</v>
       </c>
       <c r="D32">
-        <v>-53.710000000000953</v>
+        <v>-282.5</v>
       </c>
       <c r="E32">
-        <v>-5.2563073731186627E-3</v>
+        <v>-1.5336224324717601E-2</v>
       </c>
       <c r="F32">
-        <v>-4.6966783274154489E-2</v>
+        <v>-0.1181643288560749</v>
       </c>
       <c r="G32">
-        <v>-7.7732178752687453E-3</v>
+        <v>-2.4004555535240609E-2</v>
       </c>
       <c r="H32">
-        <v>1.8539829814219418E-2</v>
+        <v>-0.17329465364500191</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1531,25 +1531,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C33">
-        <v>5963.57</v>
+        <v>5925.5</v>
       </c>
       <c r="D33">
-        <v>-38.320000000000618</v>
+        <v>-148.30000000000021</v>
       </c>
       <c r="E33">
-        <v>-6.3846555001841887E-3</v>
+        <v>-2.4416345615594911E-2</v>
       </c>
       <c r="F33">
-        <v>-0.21276536762706369</v>
+        <v>-0.12028445447392259</v>
       </c>
       <c r="G33">
-        <v>-7.9454071322979658E-3</v>
+        <v>-2.6299232904357209E-2</v>
       </c>
       <c r="H33">
-        <v>-0.205574677858129</v>
+        <v>-8.0805142487559878E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1557,25 +1557,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C34">
-        <v>37794.25</v>
+        <v>5239.8500000000004</v>
       </c>
       <c r="D34">
-        <v>-301.62999999999738</v>
+        <v>-106.8099999999995</v>
       </c>
       <c r="E34">
-        <v>-7.9176540875285362E-3</v>
+        <v>-1.997695757725371E-2</v>
       </c>
       <c r="F34">
-        <v>-0.15060129946308939</v>
+        <v>-0.16261546329146279</v>
       </c>
       <c r="G34">
-        <v>-9.9167848720888019E-3</v>
+        <v>-2.671434688359042E-2</v>
       </c>
       <c r="H34">
-        <v>-0.27295169243755352</v>
+        <v>-0.19782985004836781</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1583,25 +1583,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C35">
-        <v>22882.65</v>
+        <v>1535.3</v>
       </c>
       <c r="D35">
-        <v>-37.649999999997817</v>
+        <v>-43.039999999999957</v>
       </c>
       <c r="E35">
-        <v>-1.642648656431156E-3</v>
+        <v>-2.7269156202085702E-2</v>
       </c>
       <c r="F35">
-        <v>-1.3885453305902301E-2</v>
+        <v>-7.6933251566201344E-2</v>
       </c>
       <c r="G35">
-        <v>-1.0742735173789431E-2</v>
+        <v>-2.7269156202085702E-2</v>
       </c>
       <c r="H35">
-        <v>-1.614161771781419E-3</v>
+        <v>-7.6933251566201344E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1609,25 +1609,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36">
-        <v>5884.18</v>
+        <v>540.27</v>
       </c>
       <c r="D36">
-        <v>-121.2199999999993</v>
+        <v>-16.529999999999969</v>
       </c>
       <c r="E36">
-        <v>-2.0185166683318271E-2</v>
+        <v>-2.9687499999999981E-2</v>
       </c>
       <c r="F36">
-        <v>-0.2454118881181655</v>
+        <v>-0.1102858836703775</v>
       </c>
       <c r="G36">
-        <v>-1.7356525511552982E-2</v>
+        <v>-2.8033128865471491E-2</v>
       </c>
       <c r="H36">
-        <v>-0.20539120328573199</v>
+        <v>-5.6256879831356521E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1635,25 +1635,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37">
-        <v>2980.17</v>
+        <v>24695.45</v>
       </c>
       <c r="D37">
-        <v>-15.440000000000049</v>
+        <v>-726.61000000000058</v>
       </c>
       <c r="E37">
-        <v>-5.154208992492415E-3</v>
+        <v>-2.8581869447243839E-2</v>
       </c>
       <c r="F37">
-        <v>-3.2057215796704619E-2</v>
+        <v>-0.1250873745269907</v>
       </c>
       <c r="G37">
-        <v>-1.9951446419445129E-2</v>
+        <v>-2.8569304760280859E-2</v>
       </c>
       <c r="H37">
-        <v>-0.19927711804061371</v>
+        <v>-0.12153127978371379</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1661,25 +1661,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38">
-        <v>3873.77</v>
+        <v>16218.01</v>
       </c>
       <c r="D38">
-        <v>-120.9400000000001</v>
+        <v>-487.78000000000071</v>
       </c>
       <c r="E38">
-        <v>-3.0275038738731941E-2</v>
+        <v>-2.919826000446557E-2</v>
       </c>
       <c r="F38">
-        <v>-0.20690812977669679</v>
+        <v>-5.1881649554206932E-2</v>
       </c>
       <c r="G38">
-        <v>-2.7800878487581171E-2</v>
+        <v>-3.0535490029071521E-2</v>
       </c>
       <c r="H38">
-        <v>-0.22724381694857221</v>
+        <v>-6.2928784168968743E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1687,25 +1687,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C39">
-        <v>1525.21</v>
+        <v>11313.13</v>
       </c>
       <c r="D39">
-        <v>-51.909999999999847</v>
+        <v>-382.5</v>
       </c>
       <c r="E39">
-        <v>-3.2914426296033139E-2</v>
+        <v>-3.2704522971400467E-2</v>
       </c>
       <c r="F39">
-        <v>-4.5407320248347698E-2</v>
+        <v>0.2471109974458385</v>
       </c>
       <c r="G39">
-        <v>-3.2914426296033139E-2</v>
+        <v>-3.2704522971400467E-2</v>
       </c>
       <c r="H39">
-        <v>-6.1431724370342937E-2</v>
+        <v>0.2471109974458385</v>
       </c>
     </row>
   </sheetData>
@@ -1715,11 +1715,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W171"/>
+  <dimension ref="A1:W176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W171"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -13588,7 +13586,7 @@
         <v>1923.1</v>
       </c>
       <c r="C168">
-        <v>26.273</v>
+        <v>26.425999999999998</v>
       </c>
       <c r="D168">
         <v>938.45</v>
@@ -13659,7 +13657,7 @@
         <v>1952.5</v>
       </c>
       <c r="C169">
-        <v>27.449000000000002</v>
+        <v>27.603999999999999</v>
       </c>
       <c r="D169">
         <v>944.9</v>
@@ -13730,7 +13728,7 @@
         <v>1932.6</v>
       </c>
       <c r="C170">
-        <v>27.024999999999999</v>
+        <v>27.198</v>
       </c>
       <c r="D170">
         <v>931.45</v>
@@ -13801,7 +13799,7 @@
         <v>1974.9</v>
       </c>
       <c r="C171">
-        <v>27.61</v>
+        <v>27.79</v>
       </c>
       <c r="D171">
         <v>941.05</v>
@@ -13822,16 +13820,16 @@
         <v>1.2161999999999999</v>
       </c>
       <c r="J171">
-        <v>1799.75</v>
+        <v>1771.5</v>
       </c>
       <c r="K171">
-        <v>194.8</v>
+        <v>197.9</v>
       </c>
       <c r="L171">
-        <v>154.05000000000001</v>
+        <v>153.05000000000001</v>
       </c>
       <c r="M171">
-        <v>1130.3</v>
+        <v>1128.0999999999999</v>
       </c>
       <c r="N171">
         <v>2.9950000000000001</v>
@@ -13862,6 +13860,361 @@
       </c>
       <c r="W171">
         <v>915.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B172">
+        <v>1978.6</v>
+      </c>
+      <c r="C172">
+        <v>28.594000000000001</v>
+      </c>
+      <c r="D172">
+        <v>936.8</v>
+      </c>
+      <c r="E172">
+        <v>2273.9</v>
+      </c>
+      <c r="F172">
+        <v>42.61</v>
+      </c>
+      <c r="G172">
+        <v>45.28</v>
+      </c>
+      <c r="H172">
+        <v>2.63</v>
+      </c>
+      <c r="I172">
+        <v>1.1960999999999999</v>
+      </c>
+      <c r="J172">
+        <v>1771.5</v>
+      </c>
+      <c r="K172">
+        <v>197.35</v>
+      </c>
+      <c r="L172">
+        <v>153.05000000000001</v>
+      </c>
+      <c r="M172">
+        <v>1129.5</v>
+      </c>
+      <c r="N172">
+        <v>3.0409999999999999</v>
+      </c>
+      <c r="O172">
+        <v>348.5</v>
+      </c>
+      <c r="P172">
+        <v>950.62</v>
+      </c>
+      <c r="Q172">
+        <v>65.260000000000005</v>
+      </c>
+      <c r="R172">
+        <v>2723</v>
+      </c>
+      <c r="S172">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="T172">
+        <v>12.66</v>
+      </c>
+      <c r="U172">
+        <v>104.5</v>
+      </c>
+      <c r="V172">
+        <v>53.6</v>
+      </c>
+      <c r="W172">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B173">
+        <v>1978.9</v>
+      </c>
+      <c r="C173">
+        <v>28.645</v>
+      </c>
+      <c r="D173">
+        <v>951.9</v>
+      </c>
+      <c r="E173">
+        <v>2307.6</v>
+      </c>
+      <c r="F173">
+        <v>42.76</v>
+      </c>
+      <c r="G173">
+        <v>45.58</v>
+      </c>
+      <c r="H173">
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="I173">
+        <v>1.2307999999999999</v>
+      </c>
+      <c r="J173">
+        <v>1819.25</v>
+      </c>
+      <c r="K173">
+        <v>197.9</v>
+      </c>
+      <c r="L173">
+        <v>154</v>
+      </c>
+      <c r="M173">
+        <v>1142.4000000000001</v>
+      </c>
+      <c r="N173">
+        <v>3.0285000000000002</v>
+      </c>
+      <c r="O173">
+        <v>349.5</v>
+      </c>
+      <c r="P173">
+        <v>953.5</v>
+      </c>
+      <c r="Q173">
+        <v>65.349999999999994</v>
+      </c>
+      <c r="R173">
+        <v>2735</v>
+      </c>
+      <c r="S173">
+        <v>131.9</v>
+      </c>
+      <c r="T173">
+        <v>12.6</v>
+      </c>
+      <c r="U173">
+        <v>105.47499999999999</v>
+      </c>
+      <c r="V173">
+        <v>55.03</v>
+      </c>
+      <c r="W173">
+        <v>928.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B174">
+        <v>1944.7</v>
+      </c>
+      <c r="C174">
+        <v>27.395</v>
+      </c>
+      <c r="D174">
+        <v>911.95</v>
+      </c>
+      <c r="E174">
+        <v>2271</v>
+      </c>
+      <c r="F174">
+        <v>41.51</v>
+      </c>
+      <c r="G174">
+        <v>44.43</v>
+      </c>
+      <c r="H174">
+        <v>2.4860000000000002</v>
+      </c>
+      <c r="I174">
+        <v>1.1884999999999999</v>
+      </c>
+      <c r="J174">
+        <v>1755.85</v>
+      </c>
+      <c r="K174">
+        <v>196.55</v>
+      </c>
+      <c r="L174">
+        <v>152.4</v>
+      </c>
+      <c r="M174">
+        <v>1154.3</v>
+      </c>
+      <c r="N174">
+        <v>3.0205000000000002</v>
+      </c>
+      <c r="O174">
+        <v>349.75</v>
+      </c>
+      <c r="P174">
+        <v>962.75</v>
+      </c>
+      <c r="Q174">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="R174">
+        <v>2750</v>
+      </c>
+      <c r="S174">
+        <v>131.5</v>
+      </c>
+      <c r="T174">
+        <v>12.44</v>
+      </c>
+      <c r="U174">
+        <v>104.47499999999999</v>
+      </c>
+      <c r="V174">
+        <v>56.4</v>
+      </c>
+      <c r="W174">
+        <v>903.3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B175">
+        <v>1937.8</v>
+      </c>
+      <c r="C175">
+        <v>26.875</v>
+      </c>
+      <c r="D175">
+        <v>890.15</v>
+      </c>
+      <c r="E175">
+        <v>2331.9</v>
+      </c>
+      <c r="F175">
+        <v>41.37</v>
+      </c>
+      <c r="G175">
+        <v>44.07</v>
+      </c>
+      <c r="H175">
+        <v>2.4870000000000001</v>
+      </c>
+      <c r="I175">
+        <v>1.1677</v>
+      </c>
+      <c r="J175">
+        <v>1749.55</v>
+      </c>
+      <c r="K175">
+        <v>193.75</v>
+      </c>
+      <c r="L175">
+        <v>152.35</v>
+      </c>
+      <c r="M175">
+        <v>1109.9000000000001</v>
+      </c>
+      <c r="N175">
+        <v>2.9750000000000001</v>
+      </c>
+      <c r="O175">
+        <v>344.5</v>
+      </c>
+      <c r="P175">
+        <v>966.25</v>
+      </c>
+      <c r="Q175">
+        <v>64.27</v>
+      </c>
+      <c r="R175">
+        <v>2703</v>
+      </c>
+      <c r="S175">
+        <v>131.6</v>
+      </c>
+      <c r="T175">
+        <v>12.07</v>
+      </c>
+      <c r="U175">
+        <v>103.925</v>
+      </c>
+      <c r="V175">
+        <v>59.25</v>
+      </c>
+      <c r="W175">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B176">
+        <v>1934.3</v>
+      </c>
+      <c r="C176">
+        <v>26.712</v>
+      </c>
+      <c r="D176">
+        <v>904.9</v>
+      </c>
+      <c r="E176">
+        <v>2323.8000000000002</v>
+      </c>
+      <c r="F176">
+        <v>39.770000000000003</v>
+      </c>
+      <c r="G176">
+        <v>42.66</v>
+      </c>
+      <c r="H176">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="I176">
+        <v>1.1515</v>
+      </c>
+      <c r="J176">
+        <v>1791</v>
+      </c>
+      <c r="K176">
+        <v>194.45</v>
+      </c>
+      <c r="L176">
+        <v>154.05000000000001</v>
+      </c>
+      <c r="M176">
+        <v>1124.5</v>
+      </c>
+      <c r="N176">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="O176">
+        <v>347.25</v>
+      </c>
+      <c r="P176">
+        <v>968.88</v>
+      </c>
+      <c r="Q176">
+        <v>65.06</v>
+      </c>
+      <c r="R176">
+        <v>2664</v>
+      </c>
+      <c r="S176">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="T176">
+        <v>11.93</v>
+      </c>
+      <c r="U176">
+        <v>104.45</v>
+      </c>
+      <c r="V176">
+        <v>59.83</v>
+      </c>
+      <c r="W176">
+        <v>879.9</v>
       </c>
     </row>
   </sheetData>

--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -41,118 +41,205 @@
     <t>Indices</t>
   </si>
   <si>
+    <t>PSEi Composite</t>
+  </si>
+  <si>
+    <t>FTSE/JSE Top 40</t>
+  </si>
+  <si>
+    <t>KOSDAQ</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>FTSE MIB</t>
+  </si>
+  <si>
+    <t>AEX</t>
+  </si>
+  <si>
+    <t>OMXC25</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50</t>
+  </si>
+  <si>
+    <t>KOSPI</t>
+  </si>
+  <si>
+    <t>CAC 40</t>
+  </si>
+  <si>
+    <t>BSE Sensex</t>
+  </si>
+  <si>
+    <t>Tadawul All Share</t>
+  </si>
+  <si>
+    <t>Nifty 50</t>
+  </si>
+  <si>
+    <t>S&amp;P/BMV IPC</t>
+  </si>
+  <si>
+    <t>Nikkei 225</t>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>Taiwan Weighted</t>
+  </si>
+  <si>
+    <t>MOEX</t>
+  </si>
+  <si>
+    <t>HNX 30</t>
+  </si>
+  <si>
+    <t>S&amp;P/TSX</t>
+  </si>
+  <si>
+    <t>Hang Seng</t>
+  </si>
+  <si>
+    <t>IBEX 35</t>
+  </si>
+  <si>
+    <t>FTSE Singapore</t>
+  </si>
+  <si>
+    <t>S&amp;P Lima General</t>
+  </si>
+  <si>
+    <t>China A50</t>
+  </si>
+  <si>
+    <t>S&amp;P/ASX 200</t>
+  </si>
+  <si>
+    <t>KLCI</t>
+  </si>
+  <si>
+    <t>NZX 50</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>S&amp;P CLX IPSA</t>
+  </si>
+  <si>
+    <t>SmallCap 2000</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
     <t>COLCAP</t>
   </si>
   <si>
     <t>Bovespa</t>
   </si>
   <si>
-    <t>KOSDAQ</t>
-  </si>
-  <si>
-    <t>Nikkei 225</t>
-  </si>
-  <si>
-    <t>Tadawul All Share</t>
-  </si>
-  <si>
-    <t>KOSPI</t>
-  </si>
-  <si>
-    <t>HNX 30</t>
-  </si>
-  <si>
-    <t>SMI</t>
-  </si>
-  <si>
-    <t>KLCI</t>
-  </si>
-  <si>
-    <t>FTSE Singapore</t>
-  </si>
-  <si>
-    <t>S&amp;P CLX IPSA</t>
-  </si>
-  <si>
-    <t>Taiwan Weighted</t>
-  </si>
-  <si>
-    <t>CAC 40</t>
+    <t>Nasdaq</t>
   </si>
   <si>
     <t>SZSE Component</t>
   </si>
   <si>
-    <t>China A50</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>DAX</t>
-  </si>
-  <si>
-    <t>Euro Stoxx 50</t>
-  </si>
-  <si>
-    <t>NZX 50</t>
-  </si>
-  <si>
-    <t>S&amp;P/BMV IPC</t>
-  </si>
-  <si>
-    <t>IBEX 35</t>
-  </si>
-  <si>
-    <t>OMXC25</t>
-  </si>
-  <si>
-    <t>FTSE MIB</t>
-  </si>
-  <si>
-    <t>PSEi Composite</t>
-  </si>
-  <si>
-    <t>Nifty 50</t>
-  </si>
-  <si>
-    <t>FTSE 100</t>
-  </si>
-  <si>
-    <t>FTSE/JSE Top 40</t>
-  </si>
-  <si>
-    <t>S&amp;P 500</t>
-  </si>
-  <si>
-    <t>MOEX</t>
-  </si>
-  <si>
-    <t>BSE Sensex</t>
-  </si>
-  <si>
-    <t>S&amp;P Lima General</t>
-  </si>
-  <si>
-    <t>S&amp;P/ASX 200</t>
-  </si>
-  <si>
     <t>IDX Composite</t>
   </si>
   <si>
-    <t>SmallCap 2000</t>
+    <t>Philippines</t>
   </si>
   <si>
-    <t>AEX</t>
+    <t>South Africa</t>
   </si>
   <si>
-    <t>Hang Seng</t>
+    <t>South Korea</t>
   </si>
   <si>
-    <t>S&amp;P/TSX</t>
+    <t>Switzerland</t>
   </si>
   <si>
-    <t>Nasdaq</t>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
   <si>
     <t>Colombia</t>
@@ -161,163 +248,76 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Netherlands</t>
+    <t>Lumber</t>
   </si>
   <si>
-    <t>Hong Kong</t>
+    <t>Lean Hogs</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>Live Cattle</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>US Sugar #11</t>
+  </si>
+  <si>
+    <t>US Coffee C</t>
+  </si>
+  <si>
+    <t>US Cocoa</t>
+  </si>
+  <si>
+    <t>US Cotton #2</t>
+  </si>
+  <si>
+    <t>US Soybeans</t>
+  </si>
+  <si>
+    <t>US Corn</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>MCX Nickel</t>
+  </si>
+  <si>
+    <t>MCX Lead</t>
+  </si>
+  <si>
+    <t>MCX Zinc</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>Heating Oil</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Brent Oil</t>
+  </si>
+  <si>
+    <t>Crude Oil WTI</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Silver</t>
   </si>
   <si>
     <t>Gold</t>
   </si>
   <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Platinum</t>
-  </si>
-  <si>
-    <t>Palladium</t>
-  </si>
-  <si>
-    <t>Crude Oil WTI</t>
-  </si>
-  <si>
-    <t>Brent Oil</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>Heating Oil</t>
-  </si>
-  <si>
-    <t>Aluminum</t>
-  </si>
-  <si>
-    <t>MCX Zinc</t>
-  </si>
-  <si>
-    <t>MCX Lead</t>
-  </si>
-  <si>
-    <t>MCX Nickel</t>
-  </si>
-  <si>
-    <t>Copper</t>
-  </si>
-  <si>
-    <t>US Corn</t>
-  </si>
-  <si>
-    <t>US Soybeans</t>
-  </si>
-  <si>
-    <t>US Cotton #2</t>
-  </si>
-  <si>
-    <t>US Cocoa</t>
-  </si>
-  <si>
-    <t>US Coffee C</t>
-  </si>
-  <si>
-    <t>US Sugar #11</t>
-  </si>
-  <si>
-    <t>Live Cattle</t>
-  </si>
-  <si>
-    <t>Lean Hogs</t>
-  </si>
-  <si>
-    <t>Lumber</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -728,22 +728,22 @@
         <v>46</v>
       </c>
       <c r="C2">
-        <v>1240.24</v>
+        <v>5967.96</v>
       </c>
       <c r="D2">
-        <v>14.029999999999969</v>
+        <v>182.86999999999989</v>
       </c>
       <c r="E2">
-        <v>1.1441759568100011E-2</v>
+        <v>3.1610571313497322E-2</v>
       </c>
       <c r="F2">
-        <v>-0.26021628521494311</v>
+        <v>-0.2346679285497193</v>
       </c>
       <c r="G2">
-        <v>5.1859723469573023E-2</v>
+        <v>3.6504254893992227E-2</v>
       </c>
       <c r="H2">
-        <v>-0.34314724358798321</v>
+        <v>-0.1939112239004791</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -754,22 +754,22 @@
         <v>47</v>
       </c>
       <c r="C3">
-        <v>101241.73</v>
+        <v>51715.12</v>
       </c>
       <c r="D3">
-        <v>-901.19999999999709</v>
+        <v>1994.7000000000039</v>
       </c>
       <c r="E3">
-        <v>-8.8229307696577886E-3</v>
+        <v>4.0118325629590501E-2</v>
       </c>
       <c r="F3">
-        <v>-0.13378224047792769</v>
+        <v>1.402971512919415E-2</v>
       </c>
       <c r="G3">
-        <v>4.3416289330491457E-2</v>
+        <v>3.4713228942169223E-2</v>
       </c>
       <c r="H3">
-        <v>-0.33566877690403629</v>
+        <v>-0.13773488153136779</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -780,22 +780,22 @@
         <v>48</v>
       </c>
       <c r="C4">
-        <v>866.04</v>
+        <v>888.44</v>
       </c>
       <c r="D4">
-        <v>24.740000000000009</v>
+        <v>22.400000000000091</v>
       </c>
       <c r="E4">
-        <v>2.9406870319743209E-2</v>
+        <v>2.5864856126737831E-2</v>
       </c>
       <c r="F4">
-        <v>0.32157299598663219</v>
+        <v>0.35575529138880851</v>
       </c>
       <c r="G4">
-        <v>2.5775980573233381E-2</v>
+        <v>2.8932408923343141E-2</v>
       </c>
       <c r="H4">
-        <v>0.29390464950208761</v>
+        <v>0.33134042792929708</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -806,22 +806,22 @@
         <v>49</v>
       </c>
       <c r="C5">
-        <v>23205.43</v>
+        <v>10439.52</v>
       </c>
       <c r="D5">
-        <v>322.77999999999878</v>
+        <v>286.43000000000029</v>
       </c>
       <c r="E5">
-        <v>1.410588371539134E-2</v>
+        <v>2.8211116024776661E-2</v>
       </c>
       <c r="F5">
-        <v>2.4563819820411229E-5</v>
+        <v>-2.1179682731371718E-2</v>
       </c>
       <c r="G5">
-        <v>1.9373042795326478E-2</v>
+        <v>2.7951437599059489E-2</v>
       </c>
       <c r="H5">
-        <v>1.7727609798461771E-2</v>
+        <v>4.4639936737293377E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -832,22 +832,22 @@
         <v>50</v>
       </c>
       <c r="C6">
-        <v>8045.09</v>
+        <v>13202.84</v>
       </c>
       <c r="D6">
-        <v>110.6599999999999</v>
+        <v>360.18000000000029</v>
       </c>
       <c r="E6">
-        <v>1.394681155420119E-2</v>
+        <v>2.8045591801075579E-2</v>
       </c>
       <c r="F6">
-        <v>-1.962435398903006E-2</v>
+        <v>5.7781715381819421E-3</v>
       </c>
       <c r="G6">
-        <v>1.3976471177094661E-2</v>
+        <v>2.6708460788497309E-2</v>
       </c>
       <c r="H6">
-        <v>-1.8279190139958271E-2</v>
+        <v>6.5467701462594619E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -855,25 +855,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7">
-        <v>2368.25</v>
+        <v>19820.75</v>
       </c>
       <c r="D7">
-        <v>14.44999999999982</v>
+        <v>429.5</v>
       </c>
       <c r="E7">
-        <v>6.1390092616193659E-3</v>
+        <v>2.2149165216270191E-2</v>
       </c>
       <c r="F7">
-        <v>9.8920220688887062E-2</v>
+        <v>-0.15947134359485851</v>
       </c>
       <c r="G7">
-        <v>2.5901891423627532E-3</v>
+        <v>2.0819703411081969E-2</v>
       </c>
       <c r="H7">
-        <v>7.5913314890094563E-2</v>
+        <v>-0.10958881302443201</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,25 +881,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <v>234.49</v>
+        <v>552.01</v>
       </c>
       <c r="D8">
-        <v>0.52000000000001023</v>
+        <v>11.740000000000011</v>
       </c>
       <c r="E8">
-        <v>2.2225071590376011E-3</v>
+        <v>2.1729875802839249E-2</v>
       </c>
       <c r="F8">
-        <v>0.31906395904820828</v>
+        <v>-9.0952506422501855E-2</v>
       </c>
       <c r="G8">
-        <v>2.2225071590376011E-3</v>
+        <v>2.0400959347859789E-2</v>
       </c>
       <c r="H8">
-        <v>0.31889328040135362</v>
+        <v>-3.7003614801973783E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -907,25 +907,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9">
-        <v>10183.040000000001</v>
+        <v>1465.33</v>
       </c>
       <c r="D9">
-        <v>18.550000000001091</v>
+        <v>28.759999999999991</v>
       </c>
       <c r="E9">
-        <v>1.8249808893511239E-3</v>
+        <v>2.001990853212865E-2</v>
       </c>
       <c r="F9">
-        <v>-4.522751586671292E-2</v>
+        <v>0.1863483273422066</v>
       </c>
       <c r="G9">
-        <v>6.8000914633881138E-4</v>
+        <v>1.8702041135676639E-2</v>
       </c>
       <c r="H9">
-        <v>1.923244621440379E-2</v>
+        <v>0.26229229170386642</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,25 +933,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>1515.86</v>
+        <v>3315.81</v>
       </c>
       <c r="D10">
-        <v>-9.3500000000001364</v>
+        <v>55.2199999999998</v>
       </c>
       <c r="E10">
-        <v>-6.1303033680608632E-3</v>
+        <v>1.6935585277511041E-2</v>
       </c>
       <c r="F10">
-        <v>-5.1259262968155528E-2</v>
+        <v>-0.1163777941223498</v>
       </c>
       <c r="G10">
-        <v>-1.3586780565377771E-4</v>
+        <v>1.561290453288899E-2</v>
       </c>
       <c r="H10">
-        <v>-6.1559245582408877E-2</v>
+        <v>-6.3937807262277935E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -959,25 +959,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C11">
-        <v>268.22000000000003</v>
+        <v>2396.69</v>
       </c>
       <c r="D11">
-        <v>-0.33999999999997499</v>
+        <v>28.440000000000051</v>
       </c>
       <c r="E11">
-        <v>-1.266011319630556E-3</v>
+        <v>1.200886730708328E-2</v>
       </c>
       <c r="F11">
-        <v>-0.2015123098448989</v>
+        <v>0.1121170078002105</v>
       </c>
       <c r="G11">
-        <v>-1.4414455934818049E-3</v>
+        <v>1.503498776784085E-2</v>
       </c>
       <c r="H11">
-        <v>-0.21091852017537391</v>
+        <v>9.2089658418724074E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -985,25 +985,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12">
-        <v>3810.61</v>
+        <v>5034.1400000000003</v>
       </c>
       <c r="D12">
-        <v>-63.159999999999847</v>
+        <v>69.070000000000618</v>
       </c>
       <c r="E12">
-        <v>-1.6304530212170491E-2</v>
+        <v>1.3911183528127591E-2</v>
       </c>
       <c r="F12">
-        <v>-0.21983912013577961</v>
+        <v>-0.16287275986557109</v>
       </c>
       <c r="G12">
-        <v>-5.3928906460929396E-3</v>
+        <v>1.2592436481977391E-2</v>
       </c>
       <c r="H12">
-        <v>-0.23141120653986089</v>
+        <v>-0.1131920918370266</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1011,25 +1011,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13">
-        <v>12637.95</v>
+        <v>38854.550000000003</v>
       </c>
       <c r="D13">
-        <v>-90.899999999999636</v>
+        <v>497.37000000000262</v>
       </c>
       <c r="E13">
-        <v>-7.1412578512590752E-3</v>
+        <v>1.296680308614984E-2</v>
       </c>
       <c r="F13">
-        <v>5.7271762918543523E-2</v>
+        <v>-4.4794271305169442E-2</v>
       </c>
       <c r="G13">
-        <v>-5.6423773911493669E-3</v>
+        <v>1.18729806605129E-2</v>
       </c>
       <c r="H13">
-        <v>8.4571083400104108E-2</v>
+        <v>-6.813021421056431E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1037,25 +1037,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14">
-        <v>4965.07</v>
+        <v>8135.16</v>
       </c>
       <c r="D14">
-        <v>-37.869999999999891</v>
+        <v>90.069999999999709</v>
       </c>
       <c r="E14">
-        <v>-7.5695491051261943E-3</v>
+        <v>1.119564852599542E-2</v>
       </c>
       <c r="F14">
-        <v>-0.1743584115312152</v>
+        <v>-8.6484128328455645E-3</v>
       </c>
       <c r="G14">
-        <v>-5.8774671305173998E-3</v>
+        <v>1.0990519756229E-2</v>
       </c>
       <c r="H14">
-        <v>-0.1242202921799553</v>
+        <v>-7.4895681840903014E-3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1063,25 +1063,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15">
-        <v>13656.66</v>
+        <v>11464.45</v>
       </c>
       <c r="D15">
-        <v>-194.65999999999991</v>
+        <v>130.60000000000039</v>
       </c>
       <c r="E15">
-        <v>-1.405353424799949E-2</v>
+        <v>1.1523004098342501E-2</v>
       </c>
       <c r="F15">
-        <v>0.27652975668028562</v>
+        <v>-4.4075527076098082E-2</v>
       </c>
       <c r="G15">
-        <v>-7.8029384582147809E-3</v>
+        <v>1.0430740716601329E-2</v>
       </c>
       <c r="H15">
-        <v>0.2986636427852627</v>
+        <v>-6.7429029103878158E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1089,25 +1089,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16">
-        <v>15532.78</v>
+        <v>36334.89</v>
       </c>
       <c r="D16">
-        <v>-285.23999999999978</v>
+        <v>-113.6100000000006</v>
       </c>
       <c r="E16">
-        <v>-1.8032598264510979E-2</v>
+        <v>-3.117000699617289E-3</v>
       </c>
       <c r="F16">
-        <v>8.3104501923857432E-2</v>
+        <v>-0.18339937027056799</v>
       </c>
       <c r="G16">
-        <v>-1.180722851047245E-2</v>
+        <v>9.0715900747855294E-3</v>
       </c>
       <c r="H16">
-        <v>0.1018845668302291</v>
+        <v>-0.27832143022682843</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1115,25 +1115,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17">
-        <v>1311.95</v>
+        <v>23406.49</v>
       </c>
       <c r="D17">
-        <v>-11.3599999999999</v>
+        <v>201.06000000000131</v>
       </c>
       <c r="E17">
-        <v>-8.5845342361199339E-3</v>
+        <v>8.6643514039601577E-3</v>
       </c>
       <c r="F17">
-        <v>-0.1635639145680586</v>
+        <v>8.689128053347428E-3</v>
       </c>
       <c r="G17">
-        <v>-1.284704335909981E-2</v>
+        <v>8.1227192597725928E-3</v>
       </c>
       <c r="H17">
-        <v>-0.19702134295690149</v>
+        <v>2.5994325455773959E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1141,25 +1141,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18">
-        <v>12842.66</v>
+        <v>6032.09</v>
       </c>
       <c r="D18">
-        <v>-190.5400000000009</v>
+        <v>233.01000000000019</v>
       </c>
       <c r="E18">
-        <v>-1.461958690114484E-2</v>
+        <v>4.018051139146217E-2</v>
       </c>
       <c r="F18">
-        <v>-2.1659954033636079E-2</v>
+        <v>-0.20372022905902579</v>
       </c>
       <c r="G18">
-        <v>-1.2939525156129171E-2</v>
+        <v>4.5762461769305318E-3</v>
       </c>
       <c r="H18">
-        <v>3.7750970362444347E-2</v>
+        <v>-0.22026705620852061</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1170,22 +1170,22 @@
         <v>60</v>
       </c>
       <c r="C19">
-        <v>3260.59</v>
+        <v>12675.95</v>
       </c>
       <c r="D19">
-        <v>-54.949999999999818</v>
+        <v>38</v>
       </c>
       <c r="E19">
-        <v>-1.657346917847469E-2</v>
+        <v>3.006816770124932E-3</v>
       </c>
       <c r="F19">
-        <v>-0.13109323867694231</v>
+        <v>6.0450785385866457E-2</v>
       </c>
       <c r="G19">
-        <v>-1.4896738779226371E-2</v>
+        <v>3.3631349578919778E-3</v>
       </c>
       <c r="H19">
-        <v>-7.8327787526247028E-2</v>
+        <v>8.8218642325005314E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1196,22 +1196,22 @@
         <v>61</v>
       </c>
       <c r="C20">
-        <v>11824.31</v>
+        <v>2910.51</v>
       </c>
       <c r="D20">
-        <v>-269.21000000000089</v>
+        <v>-11.03999999999996</v>
       </c>
       <c r="E20">
-        <v>-2.2260681753534239E-2</v>
+        <v>-3.7788160394310881E-3</v>
       </c>
       <c r="F20">
-        <v>1.694199523191919E-2</v>
+        <v>-5.4682399711582397E-2</v>
       </c>
       <c r="G20">
-        <v>-1.581850315350319E-2</v>
+        <v>-1.767711363417579E-3</v>
       </c>
       <c r="H20">
-        <v>2.210514334620672E-2</v>
+        <v>-0.21965248123369871</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1222,22 +1222,22 @@
         <v>62</v>
       </c>
       <c r="C21">
-        <v>36448.5</v>
+        <v>234.31</v>
       </c>
       <c r="D21">
-        <v>-1345.75</v>
+        <v>-0.47999999999998982</v>
       </c>
       <c r="E21">
-        <v>-3.5607268301395052E-2</v>
+        <v>-2.0443800843306099E-3</v>
       </c>
       <c r="F21">
-        <v>-0.18084606688796351</v>
+        <v>0.31805141474939508</v>
       </c>
       <c r="G21">
-        <v>-1.630930723359381E-2</v>
+        <v>-2.0013033923433898E-3</v>
       </c>
       <c r="H21">
-        <v>-0.28480934665925378</v>
+        <v>0.31793775336475139</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1248,22 +1248,22 @@
         <v>63</v>
       </c>
       <c r="C22">
-        <v>6989.7</v>
+        <v>16222.46</v>
       </c>
       <c r="D22">
-        <v>-143.30000000000021</v>
+        <v>4.4499999999989086</v>
       </c>
       <c r="E22">
-        <v>-2.008972381887009E-2</v>
+        <v>2.7438631496701232E-4</v>
       </c>
       <c r="F22">
-        <v>-0.27197450239040089</v>
+        <v>-5.1621498853875458E-2</v>
       </c>
       <c r="G22">
-        <v>-1.841898859146451E-2</v>
+        <v>-3.502473062349964E-3</v>
       </c>
       <c r="H22">
-        <v>-0.2277642423941646</v>
+        <v>-6.62108508599204E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1274,22 +1274,22 @@
         <v>64</v>
       </c>
       <c r="C23">
-        <v>1436.57</v>
+        <v>24503.31</v>
       </c>
       <c r="D23">
-        <v>-33.330000000000148</v>
+        <v>-192.13999999999939</v>
       </c>
       <c r="E23">
-        <v>-2.2675011905571859E-2</v>
+        <v>-7.7803805964256068E-3</v>
       </c>
       <c r="F23">
-        <v>0.16306389455617071</v>
+        <v>-0.1318945277417887</v>
       </c>
       <c r="G23">
-        <v>-2.0671928619074301E-2</v>
+        <v>-7.8059331614093166E-3</v>
       </c>
       <c r="H23">
-        <v>0.2391182511979939</v>
+        <v>-0.1283885478981108</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1300,22 +1300,22 @@
         <v>65</v>
       </c>
       <c r="C24">
-        <v>19391.25</v>
+        <v>6943.2</v>
       </c>
       <c r="D24">
-        <v>-449.7599999999984</v>
+        <v>-46.5</v>
       </c>
       <c r="E24">
-        <v>-2.2668200862758451E-2</v>
+        <v>-6.65264603631055E-3</v>
       </c>
       <c r="F24">
-        <v>-0.17768493581139971</v>
+        <v>-0.27681779833140641</v>
       </c>
       <c r="G24">
-        <v>-2.1001861907680049E-2</v>
+        <v>-7.9446466672556948E-3</v>
       </c>
       <c r="H24">
-        <v>-0.12774882381262079</v>
+        <v>-0.23389938263216359</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1326,22 +1326,22 @@
         <v>66</v>
       </c>
       <c r="C25">
-        <v>5785.09</v>
+        <v>264.41000000000003</v>
       </c>
       <c r="D25">
-        <v>-99.090000000000146</v>
+        <v>-1.519999999999982</v>
       </c>
       <c r="E25">
-        <v>-1.684006947442129E-2</v>
+        <v>-5.7157898695144871E-3</v>
       </c>
       <c r="F25">
-        <v>-0.258119204346828</v>
+        <v>-0.2128546336816409</v>
       </c>
       <c r="G25">
-        <v>-2.1280105613829311E-2</v>
+        <v>-8.1773838966979762E-3</v>
       </c>
       <c r="H25">
-        <v>-0.22230056240148949</v>
+        <v>-0.22405304559033681</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1352,22 +1352,22 @@
         <v>67</v>
       </c>
       <c r="C26">
-        <v>11333.85</v>
+        <v>18025.939999999999</v>
       </c>
       <c r="D26">
-        <v>-313.75</v>
+        <v>-112</v>
       </c>
       <c r="E26">
-        <v>-2.6936879700539151E-2</v>
+        <v>-6.1749018907328868E-3</v>
       </c>
       <c r="F26">
-        <v>-5.4965167326076259E-2</v>
+        <v>-0.1236095776091372</v>
       </c>
       <c r="G26">
-        <v>-2.2610023317779501E-2</v>
+        <v>-8.698711684383964E-3</v>
       </c>
       <c r="H26">
-        <v>-7.7056018471153287E-2</v>
+        <v>-0.18048592510088271</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1378,22 +1378,22 @@
         <v>68</v>
       </c>
       <c r="C27">
-        <v>5799.08</v>
+        <v>15354.58</v>
       </c>
       <c r="D27">
-        <v>-164.48999999999981</v>
+        <v>-178.2000000000007</v>
       </c>
       <c r="E27">
-        <v>-2.758247157323546E-2</v>
+        <v>-1.1472511681746679E-2</v>
       </c>
       <c r="F27">
-        <v>-0.2344792444959567</v>
+        <v>7.0678572872983514E-2</v>
       </c>
       <c r="G27">
-        <v>-2.2965498380971061E-2</v>
+        <v>-9.6642478298326617E-3</v>
       </c>
       <c r="H27">
-        <v>-0.22381905130758051</v>
+        <v>9.1235681296513826E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1404,22 +1404,22 @@
         <v>69</v>
       </c>
       <c r="C28">
-        <v>49720.42</v>
+        <v>5859.4</v>
       </c>
       <c r="D28">
-        <v>-2030.0299999999991</v>
+        <v>-66.100000000000364</v>
       </c>
       <c r="E28">
-        <v>-3.9227291743356818E-2</v>
+        <v>-1.1155176778331E-2</v>
       </c>
       <c r="F28">
-        <v>-2.5082348668940879E-2</v>
+        <v>-0.13009783689891169</v>
       </c>
       <c r="G28">
-        <v>-2.300675721622647E-2</v>
+        <v>-1.017837693289558E-2</v>
       </c>
       <c r="H28">
-        <v>-0.16666270967641719</v>
+        <v>-9.0161054222100745E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1430,22 +1430,22 @@
         <v>70</v>
       </c>
       <c r="C29">
-        <v>3426.96</v>
+        <v>1504.85</v>
       </c>
       <c r="D29">
-        <v>-81.050000000000182</v>
+        <v>-11.009999999999989</v>
       </c>
       <c r="E29">
-        <v>-2.3104267091598959E-2</v>
+        <v>-7.2632037259376947E-3</v>
       </c>
       <c r="F29">
-        <v>5.5657552644873487E-2</v>
+        <v>-5.8150160224314067E-2</v>
       </c>
       <c r="G29">
-        <v>-2.3104267091598959E-2</v>
+        <v>-1.131813835596374E-2</v>
       </c>
       <c r="H29">
-        <v>5.5657552644873487E-2</v>
+        <v>-7.2180647879782178E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1456,22 +1456,22 @@
         <v>71</v>
       </c>
       <c r="C30">
-        <v>2921.55</v>
+        <v>11748.03</v>
       </c>
       <c r="D30">
-        <v>-58.619999999999891</v>
+        <v>-76.279999999998836</v>
       </c>
       <c r="E30">
-        <v>-1.9670018824429421E-2</v>
+        <v>-6.4511163864952037E-3</v>
       </c>
       <c r="F30">
-        <v>-5.109666858295403E-2</v>
+        <v>1.038158406236356E-2</v>
       </c>
       <c r="G30">
-        <v>-2.3720430243683529E-2</v>
+        <v>-1.2705215781976699E-2</v>
       </c>
       <c r="H30">
-        <v>-0.21827060930665251</v>
+        <v>9.1190769481248601E-3</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1479,25 +1479,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C31">
-        <v>38357.18</v>
+        <v>1279.96</v>
       </c>
       <c r="D31">
-        <v>-1110.1299999999969</v>
+        <v>-31.990000000000009</v>
       </c>
       <c r="E31">
-        <v>-2.8127835416196231E-2</v>
+        <v>-2.4383551202408649E-2</v>
       </c>
       <c r="F31">
-        <v>-5.7021685424775807E-2</v>
+        <v>-0.1839591966847306</v>
       </c>
       <c r="G31">
-        <v>-2.380627477862762E-2</v>
+        <v>-2.0953846663144701E-2</v>
       </c>
       <c r="H31">
-        <v>-7.9064464018847591E-2</v>
+        <v>-0.2138468346103605</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1505,25 +1505,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32">
-        <v>18137.939999999999</v>
+        <v>3712.67</v>
       </c>
       <c r="D32">
-        <v>-282.5</v>
+        <v>-97.940000000000055</v>
       </c>
       <c r="E32">
-        <v>-1.5336224324717601E-2</v>
+        <v>-2.5701921739563979E-2</v>
       </c>
       <c r="F32">
-        <v>-0.1181643288560749</v>
+        <v>-0.23989075401431911</v>
       </c>
       <c r="G32">
-        <v>-2.4004555535240609E-2</v>
+        <v>-2.2297000181724091E-2</v>
       </c>
       <c r="H32">
-        <v>-0.17329465364500191</v>
+        <v>-0.24854843100731269</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1531,25 +1531,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33">
-        <v>5925.5</v>
+        <v>1497.27</v>
       </c>
       <c r="D33">
-        <v>-148.30000000000021</v>
+        <v>-38.029999999999973</v>
       </c>
       <c r="E33">
-        <v>-2.4416345615594911E-2</v>
+        <v>-2.4770403178531849E-2</v>
       </c>
       <c r="F33">
-        <v>-0.12028445447392259</v>
+        <v>-9.9797987085602946E-2</v>
       </c>
       <c r="G33">
-        <v>-2.6299232904357209E-2</v>
+        <v>-2.4770403178531849E-2</v>
       </c>
       <c r="H33">
-        <v>-8.0805142487559878E-2</v>
+        <v>-9.9797987085602946E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1560,22 +1560,22 @@
         <v>74</v>
       </c>
       <c r="C34">
-        <v>5239.8500000000004</v>
+        <v>3340.97</v>
       </c>
       <c r="D34">
-        <v>-106.8099999999995</v>
+        <v>-85.990000000000236</v>
       </c>
       <c r="E34">
-        <v>-1.997695757725371E-2</v>
+        <v>-2.5092210005369209E-2</v>
       </c>
       <c r="F34">
-        <v>-0.16261546329146279</v>
+        <v>2.9168771640154079E-2</v>
       </c>
       <c r="G34">
-        <v>-2.671434688359042E-2</v>
+        <v>-2.5092210005369209E-2</v>
       </c>
       <c r="H34">
-        <v>-0.19782985004836781</v>
+        <v>2.9168771640154079E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1583,25 +1583,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C35">
-        <v>1535.3</v>
+        <v>1212.45</v>
       </c>
       <c r="D35">
-        <v>-43.039999999999957</v>
+        <v>-27.78999999999996</v>
       </c>
       <c r="E35">
-        <v>-2.7269156202085702E-2</v>
+        <v>-2.2406953492872361E-2</v>
       </c>
       <c r="F35">
-        <v>-7.6933251566201344E-2</v>
+        <v>-0.27679258450691618</v>
       </c>
       <c r="G35">
-        <v>-2.7269156202085702E-2</v>
+        <v>-3.2991518870607577E-2</v>
       </c>
       <c r="H35">
-        <v>-7.6933251566201344E-2</v>
+        <v>-0.36481781369636102</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1609,25 +1609,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36">
-        <v>540.27</v>
+        <v>98363.22</v>
       </c>
       <c r="D36">
-        <v>-16.529999999999969</v>
+        <v>-2878.5099999999952</v>
       </c>
       <c r="E36">
-        <v>-2.9687499999999981E-2</v>
+        <v>-2.8432050696881591E-2</v>
       </c>
       <c r="F36">
-        <v>-0.1102858836703775</v>
+        <v>-0.1584105877311984</v>
       </c>
       <c r="G36">
-        <v>-2.8033128865471491E-2</v>
+        <v>-3.4019883696625119E-2</v>
       </c>
       <c r="H36">
-        <v>-5.6256879831356521E-2</v>
+        <v>-0.35826924784979758</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1635,25 +1635,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37">
-        <v>24695.45</v>
+        <v>10853.54</v>
       </c>
       <c r="D37">
-        <v>-726.61000000000058</v>
+        <v>-459.58999999999833</v>
       </c>
       <c r="E37">
-        <v>-2.8581869447243839E-2</v>
+        <v>-4.0624477929626757E-2</v>
       </c>
       <c r="F37">
-        <v>-0.1250873745269907</v>
+        <v>0.19644776425430521</v>
       </c>
       <c r="G37">
-        <v>-2.8569304760280859E-2</v>
+        <v>-4.0624477929626757E-2</v>
       </c>
       <c r="H37">
-        <v>-0.12153127978371379</v>
+        <v>0.19644776425430521</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1661,25 +1661,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C38">
-        <v>16218.01</v>
+        <v>12942.95</v>
       </c>
       <c r="D38">
-        <v>-487.78000000000071</v>
+        <v>-713.70999999999913</v>
       </c>
       <c r="E38">
-        <v>-2.919826000446557E-2</v>
+        <v>-5.226094813812443E-2</v>
       </c>
       <c r="F38">
-        <v>-5.1881649554206932E-2</v>
+        <v>0.20981710126964459</v>
       </c>
       <c r="G38">
-        <v>-3.0535490029071521E-2</v>
+        <v>-5.052729653128385E-2</v>
       </c>
       <c r="H38">
-        <v>-6.2928784168968743E-2</v>
+        <v>0.23304567981185451</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1687,25 +1687,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C39">
-        <v>11313.13</v>
+        <v>5016.71</v>
       </c>
       <c r="D39">
-        <v>-382.5</v>
+        <v>-223.1400000000003</v>
       </c>
       <c r="E39">
-        <v>-3.2704522971400467E-2</v>
+        <v>-4.2585188507304639E-2</v>
       </c>
       <c r="F39">
-        <v>0.2471109974458385</v>
+        <v>-0.1982756416402979</v>
       </c>
       <c r="G39">
-        <v>-3.2704522971400467E-2</v>
+        <v>-6.2658266130137474E-2</v>
       </c>
       <c r="H39">
-        <v>0.2471109974458385</v>
+        <v>-0.24809244078568959</v>
       </c>
     </row>
   </sheetData>
@@ -1715,81 +1715,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W176"/>
+  <dimension ref="A1:W181"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -14178,13 +14180,13 @@
         <v>1791</v>
       </c>
       <c r="K176">
-        <v>194.45</v>
+        <v>194.2</v>
       </c>
       <c r="L176">
-        <v>154.05000000000001</v>
+        <v>153.85</v>
       </c>
       <c r="M176">
-        <v>1124.5</v>
+        <v>1126.2</v>
       </c>
       <c r="N176">
         <v>3.0619999999999998</v>
@@ -14215,6 +14217,361 @@
       </c>
       <c r="W176">
         <v>879.9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B177">
+        <v>1937.1</v>
+      </c>
+      <c r="C177">
+        <v>27.065000000000001</v>
+      </c>
+      <c r="D177">
+        <v>912.35</v>
+      </c>
+      <c r="E177">
+        <v>2323.8000000000002</v>
+      </c>
+      <c r="F177">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="G177">
+        <v>42.01</v>
+      </c>
+      <c r="H177">
+        <v>2.5409999999999999</v>
+      </c>
+      <c r="I177">
+        <v>1.1295999999999999</v>
+      </c>
+      <c r="J177">
+        <v>1763.62</v>
+      </c>
+      <c r="K177">
+        <v>195.25</v>
+      </c>
+      <c r="L177">
+        <v>154.15</v>
+      </c>
+      <c r="M177">
+        <v>1122</v>
+      </c>
+      <c r="N177">
+        <v>3.0697000000000001</v>
+      </c>
+      <c r="O177">
+        <v>344.5</v>
+      </c>
+      <c r="P177">
+        <v>968.88</v>
+      </c>
+      <c r="Q177">
+        <v>65.06</v>
+      </c>
+      <c r="R177">
+        <v>2664</v>
+      </c>
+      <c r="S177">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="T177">
+        <v>11.93</v>
+      </c>
+      <c r="U177">
+        <v>104.45</v>
+      </c>
+      <c r="V177">
+        <v>59.83</v>
+      </c>
+      <c r="W177">
+        <v>879.9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B178">
+        <v>1943.2</v>
+      </c>
+      <c r="C178">
+        <v>26.991</v>
+      </c>
+      <c r="D178">
+        <v>903.5</v>
+      </c>
+      <c r="E178">
+        <v>2290</v>
+      </c>
+      <c r="F178">
+        <v>36.76</v>
+      </c>
+      <c r="G178">
+        <v>39.78</v>
+      </c>
+      <c r="H178">
+        <v>2.4</v>
+      </c>
+      <c r="I178">
+        <v>1.0768</v>
+      </c>
+      <c r="J178">
+        <v>1795.5</v>
+      </c>
+      <c r="K178">
+        <v>189.15</v>
+      </c>
+      <c r="L178">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="M178">
+        <v>1105.9000000000001</v>
+      </c>
+      <c r="N178">
+        <v>3.0249999999999999</v>
+      </c>
+      <c r="O178">
+        <v>351</v>
+      </c>
+      <c r="P178">
+        <v>972.12</v>
+      </c>
+      <c r="Q178">
+        <v>64.08</v>
+      </c>
+      <c r="R178">
+        <v>2624</v>
+      </c>
+      <c r="S178">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="T178">
+        <v>12.04</v>
+      </c>
+      <c r="U178">
+        <v>105.77500000000001</v>
+      </c>
+      <c r="V178">
+        <v>59.9</v>
+      </c>
+      <c r="W178">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B179">
+        <v>1954.9</v>
+      </c>
+      <c r="C179">
+        <v>27.082999999999998</v>
+      </c>
+      <c r="D179">
+        <v>926.1</v>
+      </c>
+      <c r="E179">
+        <v>2317.6</v>
+      </c>
+      <c r="F179">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="G179">
+        <v>40.79</v>
+      </c>
+      <c r="H179">
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="I179">
+        <v>1.1061000000000001</v>
+      </c>
+      <c r="J179">
+        <v>1747.9</v>
+      </c>
+      <c r="K179">
+        <v>188.45</v>
+      </c>
+      <c r="L179">
+        <v>147.6</v>
+      </c>
+      <c r="M179">
+        <v>1101.5999999999999</v>
+      </c>
+      <c r="N179">
+        <v>3.0514999999999999</v>
+      </c>
+      <c r="O179">
+        <v>350</v>
+      </c>
+      <c r="P179">
+        <v>978.62</v>
+      </c>
+      <c r="Q179">
+        <v>64.25</v>
+      </c>
+      <c r="R179">
+        <v>2631</v>
+      </c>
+      <c r="S179">
+        <v>129.65</v>
+      </c>
+      <c r="T179">
+        <v>12.03</v>
+      </c>
+      <c r="U179">
+        <v>104.7</v>
+      </c>
+      <c r="V179">
+        <v>61.38</v>
+      </c>
+      <c r="W179">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B180">
+        <v>1964.3</v>
+      </c>
+      <c r="C180">
+        <v>27.291</v>
+      </c>
+      <c r="D180">
+        <v>930.35</v>
+      </c>
+      <c r="E180">
+        <v>2315.8000000000002</v>
+      </c>
+      <c r="F180">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="G180">
+        <v>40.06</v>
+      </c>
+      <c r="H180">
+        <v>2.323</v>
+      </c>
+      <c r="I180">
+        <v>1.0824</v>
+      </c>
+      <c r="J180">
+        <v>1779.25</v>
+      </c>
+      <c r="K180">
+        <v>187.4</v>
+      </c>
+      <c r="L180">
+        <v>146.65</v>
+      </c>
+      <c r="M180">
+        <v>1091.7</v>
+      </c>
+      <c r="N180">
+        <v>2.9984999999999999</v>
+      </c>
+      <c r="O180">
+        <v>357.25</v>
+      </c>
+      <c r="P180">
+        <v>976.88</v>
+      </c>
+      <c r="Q180">
+        <v>64.67</v>
+      </c>
+      <c r="R180">
+        <v>2606</v>
+      </c>
+      <c r="S180">
+        <v>132.5</v>
+      </c>
+      <c r="T180">
+        <v>11.91</v>
+      </c>
+      <c r="U180">
+        <v>105.1</v>
+      </c>
+      <c r="V180">
+        <v>64.38</v>
+      </c>
+      <c r="W180">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B181">
+        <v>1947.9</v>
+      </c>
+      <c r="C181">
+        <v>26.856999999999999</v>
+      </c>
+      <c r="D181">
+        <v>933.05</v>
+      </c>
+      <c r="E181">
+        <v>2337.5</v>
+      </c>
+      <c r="F181">
+        <v>37.33</v>
+      </c>
+      <c r="G181">
+        <v>39.83</v>
+      </c>
+      <c r="H181">
+        <v>2.2690000000000001</v>
+      </c>
+      <c r="I181">
+        <v>1.0895999999999999</v>
+      </c>
+      <c r="J181">
+        <v>1776</v>
+      </c>
+      <c r="K181">
+        <v>192</v>
+      </c>
+      <c r="L181">
+        <v>147.4</v>
+      </c>
+      <c r="M181">
+        <v>1112</v>
+      </c>
+      <c r="N181">
+        <v>3.0394999999999999</v>
+      </c>
+      <c r="O181">
+        <v>365</v>
+      </c>
+      <c r="P181">
+        <v>997.25</v>
+      </c>
+      <c r="Q181">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="R181">
+        <v>2620</v>
+      </c>
+      <c r="S181">
+        <v>133.35</v>
+      </c>
+      <c r="T181">
+        <v>11.92</v>
+      </c>
+      <c r="U181">
+        <v>105.52500000000001</v>
+      </c>
+      <c r="V181">
+        <v>66.569999999999993</v>
+      </c>
+      <c r="W181">
+        <v>948</v>
       </c>
     </row>
   </sheetData>

--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Equities" sheetId="1" r:id="rId1"/>
@@ -41,208 +41,151 @@
     <t>Indices</t>
   </si>
   <si>
-    <t>PSEi Composite</t>
+    <t>SZSE Component</t>
+  </si>
+  <si>
+    <t>China A50</t>
+  </si>
+  <si>
+    <t>SmallCap 2000</t>
+  </si>
+  <si>
+    <t>Tadawul All Share</t>
+  </si>
+  <si>
+    <t>HNX 30</t>
+  </si>
+  <si>
+    <t>KOSPI</t>
+  </si>
+  <si>
+    <t>Taiwan Weighted</t>
+  </si>
+  <si>
+    <t>S&amp;P CLX IPSA</t>
+  </si>
+  <si>
+    <t>OMXC25</t>
   </si>
   <si>
     <t>FTSE/JSE Top 40</t>
   </si>
   <si>
+    <t>S&amp;P/BMV IPC</t>
+  </si>
+  <si>
+    <t>MOEX</t>
+  </si>
+  <si>
     <t>KOSDAQ</t>
+  </si>
+  <si>
+    <t>Bovespa</t>
+  </si>
+  <si>
+    <t>IDX Composite</t>
+  </si>
+  <si>
+    <t>Nikkei 225</t>
   </si>
   <si>
     <t>SMI</t>
   </si>
   <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>FTSE Singapore</t>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>S&amp;P/ASX 200</t>
+  </si>
+  <si>
+    <t>NZX 50</t>
+  </si>
+  <si>
+    <t>KLCI</t>
+  </si>
+  <si>
+    <t>Nifty 50</t>
+  </si>
+  <si>
+    <t>S&amp;P/TSX</t>
+  </si>
+  <si>
+    <t>IBEX 35</t>
+  </si>
+  <si>
+    <t>AEX</t>
+  </si>
+  <si>
+    <t>BSE Sensex</t>
+  </si>
+  <si>
+    <t>Hang Seng</t>
+  </si>
+  <si>
+    <t>S&amp;P Lima General</t>
+  </si>
+  <si>
     <t>DAX</t>
+  </si>
+  <si>
+    <t>Nasdaq</t>
+  </si>
+  <si>
+    <t>COLCAP</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>PSEi Composite</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50</t>
+  </si>
+  <si>
+    <t>CAC 40</t>
   </si>
   <si>
     <t>FTSE MIB</t>
   </si>
   <si>
-    <t>AEX</t>
+    <t>China</t>
   </si>
   <si>
-    <t>OMXC25</t>
+    <t>United States</t>
   </si>
   <si>
-    <t>Euro Stoxx 50</t>
+    <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>KOSPI</t>
+    <t>Vietnam</t>
   </si>
   <si>
-    <t>CAC 40</t>
+    <t>South Korea</t>
   </si>
   <si>
-    <t>BSE Sensex</t>
+    <t>Taiwan</t>
   </si>
   <si>
-    <t>Tadawul All Share</t>
+    <t>Chile</t>
   </si>
   <si>
-    <t>Nifty 50</t>
-  </si>
-  <si>
-    <t>S&amp;P/BMV IPC</t>
-  </si>
-  <si>
-    <t>Nikkei 225</t>
-  </si>
-  <si>
-    <t>FTSE 100</t>
-  </si>
-  <si>
-    <t>Taiwan Weighted</t>
-  </si>
-  <si>
-    <t>MOEX</t>
-  </si>
-  <si>
-    <t>HNX 30</t>
-  </si>
-  <si>
-    <t>S&amp;P/TSX</t>
-  </si>
-  <si>
-    <t>Hang Seng</t>
-  </si>
-  <si>
-    <t>IBEX 35</t>
-  </si>
-  <si>
-    <t>FTSE Singapore</t>
-  </si>
-  <si>
-    <t>S&amp;P Lima General</t>
-  </si>
-  <si>
-    <t>China A50</t>
-  </si>
-  <si>
-    <t>S&amp;P/ASX 200</t>
-  </si>
-  <si>
-    <t>KLCI</t>
-  </si>
-  <si>
-    <t>NZX 50</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>S&amp;P CLX IPSA</t>
-  </si>
-  <si>
-    <t>SmallCap 2000</t>
-  </si>
-  <si>
-    <t>S&amp;P 500</t>
-  </si>
-  <si>
-    <t>COLCAP</t>
-  </si>
-  <si>
-    <t>Bovespa</t>
-  </si>
-  <si>
-    <t>Nasdaq</t>
-  </si>
-  <si>
-    <t>SZSE Component</t>
-  </si>
-  <si>
-    <t>IDX Composite</t>
-  </si>
-  <si>
-    <t>Philippines</t>
+    <t>Denmark</t>
   </si>
   <si>
     <t>South Africa</t>
   </si>
   <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
     <t>Russia</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Colombia</t>
   </si>
   <si>
     <t>Brazil</t>
@@ -251,73 +194,130 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Lumber</t>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+  <si>
+    <t>Crude Oil WTI</t>
+  </si>
+  <si>
+    <t>Brent Oil</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Heating Oil</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>MCX Zinc</t>
+  </si>
+  <si>
+    <t>MCX Lead</t>
+  </si>
+  <si>
+    <t>MCX Nickel</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>US Corn</t>
+  </si>
+  <si>
+    <t>US Soybeans</t>
+  </si>
+  <si>
+    <t>US Cotton #2</t>
+  </si>
+  <si>
+    <t>US Cocoa</t>
+  </si>
+  <si>
+    <t>US Coffee C</t>
+  </si>
+  <si>
+    <t>US Sugar #11</t>
+  </si>
+  <si>
+    <t>Live Cattle</t>
   </si>
   <si>
     <t>Lean Hogs</t>
   </si>
   <si>
-    <t>Live Cattle</t>
-  </si>
-  <si>
-    <t>US Sugar #11</t>
-  </si>
-  <si>
-    <t>US Coffee C</t>
-  </si>
-  <si>
-    <t>US Cocoa</t>
-  </si>
-  <si>
-    <t>US Cotton #2</t>
-  </si>
-  <si>
-    <t>US Soybeans</t>
-  </si>
-  <si>
-    <t>US Corn</t>
-  </si>
-  <si>
-    <t>Copper</t>
-  </si>
-  <si>
-    <t>MCX Nickel</t>
-  </si>
-  <si>
-    <t>MCX Lead</t>
-  </si>
-  <si>
-    <t>MCX Zinc</t>
-  </si>
-  <si>
-    <t>Aluminum</t>
-  </si>
-  <si>
-    <t>Heating Oil</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>Brent Oil</t>
-  </si>
-  <si>
-    <t>Crude Oil WTI</t>
-  </si>
-  <si>
-    <t>Palladium</t>
-  </si>
-  <si>
-    <t>Platinum</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>Lumber</t>
   </si>
 </sst>
 </file>
@@ -690,7 +690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -728,22 +728,22 @@
         <v>46</v>
       </c>
       <c r="C2">
-        <v>5967.96</v>
+        <v>13245.09</v>
       </c>
       <c r="D2">
-        <v>182.86999999999989</v>
+        <v>302.13999999999942</v>
       </c>
       <c r="E2">
-        <v>3.1610571313497322E-2</v>
+        <v>2.3343982631471191E-2</v>
       </c>
       <c r="F2">
-        <v>-0.2346679285497193</v>
+        <v>0.23805905066894001</v>
       </c>
       <c r="G2">
-        <v>3.6504254893992227E-2</v>
+        <v>3.3813274325968923E-2</v>
       </c>
       <c r="H2">
-        <v>-0.1939112239004791</v>
+        <v>0.27473899163978333</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -751,25 +751,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3">
-        <v>51715.12</v>
+        <v>15678.89</v>
       </c>
       <c r="D3">
-        <v>1994.7000000000039</v>
+        <v>324.30999999999949</v>
       </c>
       <c r="E3">
-        <v>4.0118325629590501E-2</v>
+        <v>2.1121385280483022E-2</v>
       </c>
       <c r="F3">
-        <v>1.402971512919415E-2</v>
+        <v>9.3292787522191611E-2</v>
       </c>
       <c r="G3">
-        <v>3.4713228942169223E-2</v>
+        <v>3.1567938755592273E-2</v>
       </c>
       <c r="H3">
-        <v>-0.13773488153136779</v>
+        <v>0.1256837424515993</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -777,25 +777,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>888.44</v>
+        <v>1536.78</v>
       </c>
       <c r="D4">
-        <v>22.400000000000091</v>
+        <v>39.509999999999991</v>
       </c>
       <c r="E4">
-        <v>2.5864856126737831E-2</v>
+        <v>2.638802620769809E-2</v>
       </c>
       <c r="F4">
-        <v>0.35575529138880851</v>
+        <v>-7.6043432776595421E-2</v>
       </c>
       <c r="G4">
-        <v>2.8932408923343141E-2</v>
+        <v>2.638802620769809E-2</v>
       </c>
       <c r="H4">
-        <v>0.33134042792929708</v>
+        <v>-7.6043432776595421E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -803,25 +803,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5">
-        <v>10439.52</v>
+        <v>8337.8799999999992</v>
       </c>
       <c r="D5">
-        <v>286.43000000000029</v>
+        <v>202.71999999999929</v>
       </c>
       <c r="E5">
-        <v>2.8211116024776661E-2</v>
+        <v>2.491899360307603E-2</v>
       </c>
       <c r="F5">
-        <v>-2.1179682731371718E-2</v>
+        <v>1.6055071026171989E-2</v>
       </c>
       <c r="G5">
-        <v>2.7951437599059489E-2</v>
+        <v>2.4992928015268309E-2</v>
       </c>
       <c r="H5">
-        <v>4.4639936737293377E-2</v>
+        <v>1.7316173592687441E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -829,25 +829,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6">
-        <v>13202.84</v>
+        <v>239.64</v>
       </c>
       <c r="D6">
-        <v>360.18000000000029</v>
+        <v>5.3299999999999841</v>
       </c>
       <c r="E6">
-        <v>2.8045591801075579E-2</v>
+        <v>2.2747642012718169E-2</v>
       </c>
       <c r="F6">
-        <v>5.7781715381819421E-3</v>
+        <v>0.34803397648647111</v>
       </c>
       <c r="G6">
-        <v>2.6708460788497309E-2</v>
+        <v>2.2879990589823599E-2</v>
       </c>
       <c r="H6">
-        <v>6.5467701462594619E-2</v>
+        <v>0.34809215675971039</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -855,25 +855,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>19820.75</v>
+        <v>2412.4</v>
       </c>
       <c r="D7">
-        <v>429.5</v>
+        <v>15.71000000000004</v>
       </c>
       <c r="E7">
-        <v>2.2149165216270191E-2</v>
+        <v>6.5548735965017526E-3</v>
       </c>
       <c r="F7">
-        <v>-0.15947134359485851</v>
+        <v>0.1194067942108608</v>
       </c>
       <c r="G7">
-        <v>2.0819703411081969E-2</v>
+        <v>2.255772375300635E-2</v>
       </c>
       <c r="H7">
-        <v>-0.10958881302443201</v>
+        <v>0.1167247152468489</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,25 +881,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>552.01</v>
+        <v>12875.62</v>
       </c>
       <c r="D8">
-        <v>11.740000000000011</v>
+        <v>199.6700000000001</v>
       </c>
       <c r="E8">
-        <v>2.1729875802839249E-2</v>
+        <v>1.5751876585186949E-2</v>
       </c>
       <c r="F8">
-        <v>-9.0952506422501855E-2</v>
+        <v>7.7154875281929103E-2</v>
       </c>
       <c r="G8">
-        <v>2.0400959347859789E-2</v>
+        <v>2.0861730567010461E-2</v>
       </c>
       <c r="H8">
-        <v>-3.7003614801973783E-2</v>
+        <v>0.11092076643918761</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -907,25 +907,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9">
-        <v>1465.33</v>
+        <v>3729.64</v>
       </c>
       <c r="D9">
-        <v>28.759999999999991</v>
+        <v>16.9699999999998</v>
       </c>
       <c r="E9">
-        <v>2.001990853212865E-2</v>
+        <v>4.5708344668391474E-3</v>
       </c>
       <c r="F9">
-        <v>0.1863483273422066</v>
+        <v>-0.23641642047420461</v>
       </c>
       <c r="G9">
-        <v>1.8702041135676639E-2</v>
+        <v>2.0285762122180358E-2</v>
       </c>
       <c r="H9">
-        <v>0.26229229170386642</v>
+        <v>-0.23330466323238769</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,25 +933,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C10">
-        <v>3315.81</v>
+        <v>1491.36</v>
       </c>
       <c r="D10">
-        <v>55.2199999999998</v>
+        <v>26.029999999999969</v>
       </c>
       <c r="E10">
-        <v>1.6935585277511041E-2</v>
+        <v>1.776391666041088E-2</v>
       </c>
       <c r="F10">
-        <v>-0.1163777941223498</v>
+        <v>0.20742252015933141</v>
       </c>
       <c r="G10">
-        <v>1.561290453288899E-2</v>
+        <v>1.987903691554704E-2</v>
       </c>
       <c r="H10">
-        <v>-6.3937807262277935E-2</v>
+        <v>0.28738544676885791</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -959,25 +959,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C11">
-        <v>2396.69</v>
+        <v>50399.16</v>
       </c>
       <c r="D11">
-        <v>28.440000000000051</v>
+        <v>-1315.9599999999989</v>
       </c>
       <c r="E11">
-        <v>1.200886730708328E-2</v>
+        <v>-2.5446329816115609E-2</v>
       </c>
       <c r="F11">
-        <v>0.1121170078002105</v>
+        <v>-1.1773619445325069E-2</v>
       </c>
       <c r="G11">
-        <v>1.503498776784085E-2</v>
+        <v>1.734196391073373E-2</v>
       </c>
       <c r="H11">
-        <v>9.2089658418724074E-2</v>
+        <v>-0.1227815109654001</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -985,25 +985,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12">
-        <v>5034.1400000000003</v>
+        <v>36017.35</v>
       </c>
       <c r="D12">
-        <v>69.070000000000618</v>
+        <v>-317.54000000000087</v>
       </c>
       <c r="E12">
-        <v>1.3911183528127591E-2</v>
+        <v>-8.7392586024066521E-3</v>
       </c>
       <c r="F12">
-        <v>-0.16287275986557109</v>
+        <v>-0.1905358543486616</v>
       </c>
       <c r="G12">
-        <v>1.2592436481977391E-2</v>
+        <v>1.7066237679618901E-2</v>
       </c>
       <c r="H12">
-        <v>-0.1131920918370266</v>
+        <v>-0.26600509222679197</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1011,25 +1011,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13">
-        <v>38854.550000000003</v>
+        <v>2951.79</v>
       </c>
       <c r="D13">
-        <v>497.37000000000262</v>
+        <v>41.279999999999752</v>
       </c>
       <c r="E13">
-        <v>1.296680308614984E-2</v>
+        <v>1.4183081315645611E-2</v>
       </c>
       <c r="F13">
-        <v>-4.4794271305169442E-2</v>
+        <v>-4.1274883317580779E-2</v>
       </c>
       <c r="G13">
-        <v>1.18729806605129E-2</v>
+        <v>1.6703773116527602E-2</v>
       </c>
       <c r="H13">
-        <v>-6.813021421056431E-2</v>
+        <v>-0.2066177333281812</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1037,25 +1037,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C14">
-        <v>8135.16</v>
+        <v>888.88</v>
       </c>
       <c r="D14">
-        <v>90.069999999999709</v>
+        <v>0.43999999999994088</v>
       </c>
       <c r="E14">
-        <v>1.119564852599542E-2</v>
+        <v>4.9525010130113678E-4</v>
       </c>
       <c r="F14">
-        <v>-8.6484128328455645E-3</v>
+        <v>0.35642672933420833</v>
       </c>
       <c r="G14">
-        <v>1.0990519756229E-2</v>
+        <v>1.6401760505903251E-2</v>
       </c>
       <c r="H14">
-        <v>-7.4895681840903014E-3</v>
+        <v>0.3531767547800202</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1063,25 +1063,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15">
-        <v>11464.45</v>
+        <v>98289.71</v>
       </c>
       <c r="D15">
-        <v>130.60000000000039</v>
+        <v>-73.509999999994761</v>
       </c>
       <c r="E15">
-        <v>1.1523004098342501E-2</v>
+        <v>-7.4733218371658694E-4</v>
       </c>
       <c r="F15">
-        <v>-4.4075527076098082E-2</v>
+        <v>-0.1590395345844621</v>
       </c>
       <c r="G15">
-        <v>1.0430740716601329E-2</v>
+        <v>1.502988327974286E-2</v>
       </c>
       <c r="H15">
-        <v>-6.7429029103878158E-2</v>
+        <v>-0.34862410954795853</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1089,25 +1089,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16">
-        <v>36334.89</v>
+        <v>5059.22</v>
       </c>
       <c r="D16">
-        <v>-113.6100000000006</v>
+        <v>42.510000000000218</v>
       </c>
       <c r="E16">
-        <v>-3.117000699617289E-3</v>
+        <v>8.4736809582375283E-3</v>
       </c>
       <c r="F16">
-        <v>-0.18339937027056799</v>
+        <v>-0.19148208521110999</v>
       </c>
       <c r="G16">
-        <v>9.0715900747855294E-3</v>
+        <v>1.32132633623927E-2</v>
       </c>
       <c r="H16">
-        <v>-0.27832143022682843</v>
+        <v>-0.23815728818161699</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1115,25 +1115,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17">
-        <v>23406.49</v>
+        <v>23360.3</v>
       </c>
       <c r="D17">
-        <v>201.06000000000131</v>
+        <v>-46.190000000002328</v>
       </c>
       <c r="E17">
-        <v>8.6643514039601577E-3</v>
+        <v>-1.9733843049514199E-3</v>
       </c>
       <c r="F17">
-        <v>8.689128053347428E-3</v>
+        <v>6.6985967594719309E-3</v>
       </c>
       <c r="G17">
-        <v>8.1227192597725928E-3</v>
+        <v>1.1800990786400961E-2</v>
       </c>
       <c r="H17">
-        <v>2.5994325455773959E-2</v>
+        <v>3.8102075037377503E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1141,25 +1141,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18">
-        <v>6032.09</v>
+        <v>10539.17</v>
       </c>
       <c r="D18">
-        <v>233.01000000000019</v>
+        <v>99.649999999999636</v>
       </c>
       <c r="E18">
-        <v>4.018051139146217E-2</v>
+        <v>9.5454580287215318E-3</v>
       </c>
       <c r="F18">
-        <v>-0.20372022905902579</v>
+        <v>-1.183639447522411E-2</v>
       </c>
       <c r="G18">
-        <v>4.5762461769305318E-3</v>
+        <v>1.174606697566194E-2</v>
       </c>
       <c r="H18">
-        <v>-0.22026705620852061</v>
+        <v>5.6910347399661047E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1167,25 +1167,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19">
-        <v>12675.95</v>
+        <v>1288.3900000000001</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>8.4300000000000637</v>
       </c>
       <c r="E19">
-        <v>3.006816770124932E-3</v>
+        <v>6.5861433169787098E-3</v>
       </c>
       <c r="F19">
-        <v>6.0450785385866457E-2</v>
+        <v>-0.1785846350015938</v>
       </c>
       <c r="G19">
-        <v>3.3631349578919778E-3</v>
+        <v>1.0785692054639419E-2</v>
       </c>
       <c r="H19">
-        <v>8.8218642325005314E-2</v>
+        <v>-0.20536762866068781</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1193,25 +1193,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20">
-        <v>2910.51</v>
+        <v>264.88</v>
       </c>
       <c r="D20">
-        <v>-11.03999999999996</v>
+        <v>0.45999999999997948</v>
       </c>
       <c r="E20">
-        <v>-3.7788160394310881E-3</v>
+        <v>1.73965660691322E-3</v>
       </c>
       <c r="F20">
-        <v>-5.4682399711582397E-2</v>
+        <v>-0.2114554493763211</v>
       </c>
       <c r="G20">
-        <v>-1.767711363417579E-3</v>
+        <v>1.067822899868465E-2</v>
       </c>
       <c r="H20">
-        <v>-0.21965248123369871</v>
+        <v>-0.21573764659891301</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1219,25 +1219,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21">
-        <v>234.31</v>
+        <v>6007.05</v>
       </c>
       <c r="D21">
-        <v>-0.47999999999998982</v>
+        <v>-25.03999999999996</v>
       </c>
       <c r="E21">
-        <v>-2.0443800843306099E-3</v>
+        <v>-4.1511316973055212E-3</v>
       </c>
       <c r="F21">
-        <v>0.31805141474939508</v>
+        <v>-0.20702569125610201</v>
       </c>
       <c r="G21">
-        <v>-2.0013033923433898E-3</v>
+        <v>8.853304685087382E-3</v>
       </c>
       <c r="H21">
-        <v>0.31793775336475139</v>
+        <v>-0.21336384288413451</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1245,25 +1245,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22">
-        <v>16222.46</v>
+        <v>5864.5</v>
       </c>
       <c r="D22">
-        <v>4.4499999999989086</v>
+        <v>5.1000000000003638</v>
       </c>
       <c r="E22">
-        <v>2.7438631496701232E-4</v>
+        <v>8.7039628630924959E-4</v>
       </c>
       <c r="F22">
-        <v>-5.1621498853875458E-2</v>
+        <v>-0.12934067728669621</v>
       </c>
       <c r="G22">
-        <v>-3.502473062349964E-3</v>
+        <v>7.7726556149735337E-3</v>
       </c>
       <c r="H22">
-        <v>-6.62108508599204E-2</v>
+        <v>-8.3089189431478694E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1271,25 +1271,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23">
-        <v>24503.31</v>
+        <v>11633.52</v>
       </c>
       <c r="D23">
-        <v>-192.13999999999939</v>
+        <v>-114.5100000000002</v>
       </c>
       <c r="E23">
-        <v>-7.7803805964256068E-3</v>
+        <v>-9.7471661206176563E-3</v>
       </c>
       <c r="F23">
-        <v>-0.1318945277417887</v>
+        <v>5.3322691729484895E-4</v>
       </c>
       <c r="G23">
-        <v>-7.8059331614093166E-3</v>
+        <v>7.4902166909374124E-3</v>
       </c>
       <c r="H23">
-        <v>-0.1283885478981108</v>
+        <v>1.667759750142506E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,25 +1297,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24">
-        <v>6943.2</v>
+        <v>1506.63</v>
       </c>
       <c r="D24">
-        <v>-46.5</v>
+        <v>1.7800000000002001</v>
       </c>
       <c r="E24">
-        <v>-6.65264603631055E-3</v>
+        <v>1.1828421437354299E-3</v>
       </c>
       <c r="F24">
-        <v>-0.27681779833140641</v>
+        <v>-5.7036100540757029E-2</v>
       </c>
       <c r="G24">
-        <v>-7.9446466672556948E-3</v>
+        <v>7.2330238369784361E-3</v>
       </c>
       <c r="H24">
-        <v>-0.23389938263216359</v>
+        <v>-6.5469708389487069E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1323,25 +1323,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25">
-        <v>264.41000000000003</v>
+        <v>11504.95</v>
       </c>
       <c r="D25">
-        <v>-1.519999999999982</v>
+        <v>40.5</v>
       </c>
       <c r="E25">
-        <v>-5.7157898695144871E-3</v>
+        <v>3.5326596565905528E-3</v>
       </c>
       <c r="F25">
-        <v>-0.2128546336816409</v>
+        <v>-4.0698571255852189E-2</v>
       </c>
       <c r="G25">
-        <v>-8.1773838966979762E-3</v>
+        <v>2.7647188103301361E-3</v>
       </c>
       <c r="H25">
-        <v>-0.22405304559033681</v>
+        <v>-6.4850732598673799E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1349,25 +1349,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26">
-        <v>18025.939999999999</v>
+        <v>16198.97</v>
       </c>
       <c r="D26">
-        <v>-112</v>
+        <v>-23.489999999999782</v>
       </c>
       <c r="E26">
-        <v>-6.1749018907328868E-3</v>
+        <v>-1.447992474630788E-3</v>
       </c>
       <c r="F26">
-        <v>-0.1236095776091372</v>
+        <v>-5.2994743786636822E-2</v>
       </c>
       <c r="G26">
-        <v>-8.698711684383964E-3</v>
+        <v>1.5362501837443701E-3</v>
       </c>
       <c r="H26">
-        <v>-0.18048592510088271</v>
+        <v>-6.4776317107975601E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1375,25 +1375,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27">
-        <v>15354.58</v>
+        <v>6929.8</v>
       </c>
       <c r="D27">
-        <v>-178.2000000000007</v>
+        <v>-13.39999999999964</v>
       </c>
       <c r="E27">
-        <v>-1.1472511681746679E-2</v>
+        <v>-1.9299458462955781E-3</v>
       </c>
       <c r="F27">
-        <v>7.0678572872983514E-2</v>
+        <v>-0.27821350081763158</v>
       </c>
       <c r="G27">
-        <v>-9.6642478298326617E-3</v>
+        <v>8.0278713535442137E-5</v>
       </c>
       <c r="H27">
-        <v>9.1235681296513826E-2</v>
+        <v>-0.23383788106016271</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1401,25 +1401,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28">
-        <v>5859.4</v>
+        <v>550.85</v>
       </c>
       <c r="D28">
-        <v>-66.100000000000364</v>
+        <v>-1.1599999999999679</v>
       </c>
       <c r="E28">
-        <v>-1.1155176778331E-2</v>
+        <v>-2.1014112063186818E-3</v>
       </c>
       <c r="F28">
-        <v>-0.13009783689891169</v>
+        <v>-9.2862789012581493E-2</v>
       </c>
       <c r="G28">
-        <v>-1.017837693289558E-2</v>
+        <v>-9.1531996873173149E-5</v>
       </c>
       <c r="H28">
-        <v>-9.0161054222100745E-2</v>
+        <v>-3.7091759784092522E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1427,25 +1427,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C29">
-        <v>1504.85</v>
+        <v>38845.82</v>
       </c>
       <c r="D29">
-        <v>-11.009999999999989</v>
+        <v>-8.7300000000032014</v>
       </c>
       <c r="E29">
-        <v>-7.2632037259376947E-3</v>
+        <v>-2.2468411035525551E-4</v>
       </c>
       <c r="F29">
-        <v>-5.8150160224314067E-2</v>
+        <v>-4.5008890854527417E-2</v>
       </c>
       <c r="G29">
-        <v>-1.131813835596374E-2</v>
+        <v>-9.8974969618015329E-4</v>
       </c>
       <c r="H29">
-        <v>-7.2180647879782178E-2</v>
+        <v>-6.9052532047928827E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1456,22 +1456,22 @@
         <v>71</v>
       </c>
       <c r="C30">
-        <v>11748.03</v>
+        <v>24455.41</v>
       </c>
       <c r="D30">
-        <v>-76.279999999998836</v>
+        <v>-47.900000000001462</v>
       </c>
       <c r="E30">
-        <v>-6.4511163864952037E-3</v>
+        <v>-1.954837938221488E-3</v>
       </c>
       <c r="F30">
-        <v>1.038158406236356E-2</v>
+        <v>-0.1335915332533367</v>
       </c>
       <c r="G30">
-        <v>-1.2705215781976699E-2</v>
+        <v>-1.9162254300245649E-3</v>
       </c>
       <c r="H30">
-        <v>9.1190769481248601E-3</v>
+        <v>-0.130058751927729</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1482,22 +1482,22 @@
         <v>72</v>
       </c>
       <c r="C31">
-        <v>1279.96</v>
+        <v>17907.13</v>
       </c>
       <c r="D31">
-        <v>-31.990000000000009</v>
+        <v>-118.8099999999977</v>
       </c>
       <c r="E31">
-        <v>-2.4383551202408649E-2</v>
+        <v>-6.5910571099203619E-3</v>
       </c>
       <c r="F31">
-        <v>-0.1839591966847306</v>
+        <v>-0.1293859169337026</v>
       </c>
       <c r="G31">
-        <v>-2.0953846663144701E-2</v>
+        <v>-3.498128508283127E-3</v>
       </c>
       <c r="H31">
-        <v>-0.2138468346103605</v>
+        <v>-0.1833526906492268</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1508,22 +1508,22 @@
         <v>73</v>
       </c>
       <c r="C32">
-        <v>3712.67</v>
+        <v>13116.25</v>
       </c>
       <c r="D32">
-        <v>-97.940000000000055</v>
+        <v>-86.590000000000146</v>
       </c>
       <c r="E32">
-        <v>-2.5701921739563979E-2</v>
+        <v>-6.5584374270990509E-3</v>
       </c>
       <c r="F32">
-        <v>-0.23989075401431911</v>
+        <v>-8.1816166539316892E-4</v>
       </c>
       <c r="G32">
-        <v>-2.2297000181724091E-2</v>
+        <v>-4.5575351662510144E-3</v>
       </c>
       <c r="H32">
-        <v>-0.24854843100731269</v>
+        <v>6.061179494467428E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1531,25 +1531,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C33">
-        <v>1497.27</v>
+        <v>10793.28</v>
       </c>
       <c r="D33">
-        <v>-38.029999999999973</v>
+        <v>-60.260000000000218</v>
       </c>
       <c r="E33">
-        <v>-2.4770403178531849E-2</v>
+        <v>-5.5521055802991706E-3</v>
       </c>
       <c r="F33">
-        <v>-9.9797987085602946E-2</v>
+        <v>0.18980495994585239</v>
       </c>
       <c r="G33">
-        <v>-2.4770403178531849E-2</v>
+        <v>-5.5521055802991706E-3</v>
       </c>
       <c r="H33">
-        <v>-9.9797987085602946E-2</v>
+        <v>0.18980495994585239</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1560,22 +1560,22 @@
         <v>74</v>
       </c>
       <c r="C34">
-        <v>3340.97</v>
+        <v>1206.55</v>
       </c>
       <c r="D34">
-        <v>-85.990000000000236</v>
+        <v>-5.9000000000000909</v>
       </c>
       <c r="E34">
-        <v>-2.5092210005369209E-2</v>
+        <v>-4.8661800486619064E-3</v>
       </c>
       <c r="F34">
-        <v>2.9168771640154079E-2</v>
+        <v>-0.280311842003233</v>
       </c>
       <c r="G34">
-        <v>-2.5092210005369209E-2</v>
+        <v>-6.2383109016326266E-3</v>
       </c>
       <c r="H34">
-        <v>2.9168771640154079E-2</v>
+        <v>-0.3687802776537018</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1583,25 +1583,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C35">
-        <v>1212.45</v>
+        <v>3319.47</v>
       </c>
       <c r="D35">
-        <v>-27.78999999999996</v>
+        <v>-21.5</v>
       </c>
       <c r="E35">
-        <v>-2.2406953492872361E-2</v>
+        <v>-6.4352568266102814E-3</v>
       </c>
       <c r="F35">
-        <v>-0.27679258450691618</v>
+        <v>2.2545806276722761E-2</v>
       </c>
       <c r="G35">
-        <v>-3.2991518870607577E-2</v>
+        <v>-6.4352568266102814E-3</v>
       </c>
       <c r="H35">
-        <v>-0.36481781369636102</v>
+        <v>2.2545806276722761E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1609,25 +1609,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36">
-        <v>98363.22</v>
+        <v>5908.9</v>
       </c>
       <c r="D36">
-        <v>-2878.5099999999952</v>
+        <v>-59.0600000000004</v>
       </c>
       <c r="E36">
-        <v>-2.8432050696881591E-2</v>
+        <v>-9.8961789288132262E-3</v>
       </c>
       <c r="F36">
-        <v>-0.1584105877311984</v>
+        <v>-0.24224179166875059</v>
       </c>
       <c r="G36">
-        <v>-3.4019883696625119E-2</v>
+        <v>-7.2343354986501573E-3</v>
       </c>
       <c r="H36">
-        <v>-0.35826924784979758</v>
+        <v>-0.1997427405484794</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1635,25 +1635,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37">
-        <v>10853.54</v>
+        <v>3283.69</v>
       </c>
       <c r="D37">
-        <v>-459.58999999999833</v>
+        <v>-32.119999999999891</v>
       </c>
       <c r="E37">
-        <v>-4.0624477929626757E-2</v>
+        <v>-9.6869241603106948E-3</v>
       </c>
       <c r="F37">
-        <v>0.19644776425430521</v>
+        <v>-0.1249373754170531</v>
       </c>
       <c r="G37">
-        <v>-4.0624477929626757E-2</v>
+        <v>-7.6923230211525251E-3</v>
       </c>
       <c r="H37">
-        <v>0.19644776425430521</v>
+        <v>-7.1138300016704736E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1661,25 +1661,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C38">
-        <v>12942.95</v>
+        <v>4978.18</v>
       </c>
       <c r="D38">
-        <v>-713.70999999999913</v>
+        <v>-55.960000000000043</v>
       </c>
       <c r="E38">
-        <v>-5.226094813812443E-2</v>
+        <v>-1.111609927415602E-2</v>
       </c>
       <c r="F38">
-        <v>0.20981710126964459</v>
+        <v>-0.17217834937200571</v>
       </c>
       <c r="G38">
-        <v>-5.052729653128385E-2</v>
+        <v>-9.1243766532963511E-3</v>
       </c>
       <c r="H38">
-        <v>0.23304567981185451</v>
+        <v>-0.1212836612102275</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1690,22 +1690,22 @@
         <v>77</v>
       </c>
       <c r="C39">
-        <v>5016.71</v>
+        <v>19524.939999999999</v>
       </c>
       <c r="D39">
-        <v>-223.1400000000003</v>
+        <v>-295.81000000000131</v>
       </c>
       <c r="E39">
-        <v>-4.2585188507304639E-2</v>
+        <v>-1.4924258668314819E-2</v>
       </c>
       <c r="F39">
-        <v>-0.1982756416402979</v>
+        <v>-0.17201561068117999</v>
       </c>
       <c r="G39">
-        <v>-6.2658266130137474E-2</v>
+        <v>-1.294020610579427E-2</v>
       </c>
       <c r="H39">
-        <v>-0.24809244078568959</v>
+        <v>-0.12111091730280089</v>
       </c>
     </row>
   </sheetData>
@@ -1715,83 +1715,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W181"/>
+  <dimension ref="A1:W186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -14535,13 +14535,13 @@
         <v>1776</v>
       </c>
       <c r="K181">
-        <v>192</v>
+        <v>192.15</v>
       </c>
       <c r="L181">
-        <v>147.4</v>
+        <v>147.25</v>
       </c>
       <c r="M181">
-        <v>1112</v>
+        <v>1111.7</v>
       </c>
       <c r="N181">
         <v>3.0394999999999999</v>
@@ -14572,6 +14572,361 @@
       </c>
       <c r="W181">
         <v>948</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B182">
+        <v>1963.7</v>
+      </c>
+      <c r="C182">
+        <v>27.355</v>
+      </c>
+      <c r="D182">
+        <v>965</v>
+      </c>
+      <c r="E182">
+        <v>2328.1</v>
+      </c>
+      <c r="F182">
+        <v>37.26</v>
+      </c>
+      <c r="G182">
+        <v>39.61</v>
+      </c>
+      <c r="H182">
+        <v>2.31</v>
+      </c>
+      <c r="I182">
+        <v>1.0933999999999999</v>
+      </c>
+      <c r="J182">
+        <v>1778.01</v>
+      </c>
+      <c r="K182">
+        <v>192.25</v>
+      </c>
+      <c r="L182">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="M182">
+        <v>1121.4000000000001</v>
+      </c>
+      <c r="N182">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="O182">
+        <v>357.5</v>
+      </c>
+      <c r="P182">
+        <v>1002.12</v>
+      </c>
+      <c r="Q182">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="R182">
+        <v>2628</v>
+      </c>
+      <c r="S182">
+        <v>123.55</v>
+      </c>
+      <c r="T182">
+        <v>11.76</v>
+      </c>
+      <c r="U182">
+        <v>106.875</v>
+      </c>
+      <c r="V182">
+        <v>64.63</v>
+      </c>
+      <c r="W182">
+        <v>984.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B183">
+        <v>1966.2</v>
+      </c>
+      <c r="C183">
+        <v>27.463999999999999</v>
+      </c>
+      <c r="D183">
+        <v>975.7</v>
+      </c>
+      <c r="E183">
+        <v>2426.8000000000002</v>
+      </c>
+      <c r="F183">
+        <v>38.28</v>
+      </c>
+      <c r="G183">
+        <v>40.53</v>
+      </c>
+      <c r="H183">
+        <v>2.3620000000000001</v>
+      </c>
+      <c r="I183">
+        <v>1.0992999999999999</v>
+      </c>
+      <c r="J183">
+        <v>1793.5</v>
+      </c>
+      <c r="K183">
+        <v>194.3</v>
+      </c>
+      <c r="L183">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="M183">
+        <v>1119.5999999999999</v>
+      </c>
+      <c r="N183">
+        <v>3.0630000000000002</v>
+      </c>
+      <c r="O183">
+        <v>366</v>
+      </c>
+      <c r="P183">
+        <v>989.38</v>
+      </c>
+      <c r="Q183">
+        <v>66.37</v>
+      </c>
+      <c r="R183">
+        <v>2766</v>
+      </c>
+      <c r="S183">
+        <v>122.2</v>
+      </c>
+      <c r="T183">
+        <v>12.08</v>
+      </c>
+      <c r="U183">
+        <v>107.1</v>
+      </c>
+      <c r="V183">
+        <v>65.7</v>
+      </c>
+      <c r="W183">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B184">
+        <v>1970.5</v>
+      </c>
+      <c r="C184">
+        <v>27.475999999999999</v>
+      </c>
+      <c r="D184">
+        <v>972.05</v>
+      </c>
+      <c r="E184">
+        <v>2413.9</v>
+      </c>
+      <c r="F184">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="G184">
+        <v>42.22</v>
+      </c>
+      <c r="H184">
+        <v>2.2669999999999999</v>
+      </c>
+      <c r="I184">
+        <v>1.1163000000000001</v>
+      </c>
+      <c r="J184">
+        <v>1772.35</v>
+      </c>
+      <c r="K184">
+        <v>195.35</v>
+      </c>
+      <c r="L184">
+        <v>147.5</v>
+      </c>
+      <c r="M184">
+        <v>1115.8</v>
+      </c>
+      <c r="N184">
+        <v>3.0609999999999999</v>
+      </c>
+      <c r="O184">
+        <v>371.75</v>
+      </c>
+      <c r="P184">
+        <v>1011.62</v>
+      </c>
+      <c r="Q184">
+        <v>66.489999999999995</v>
+      </c>
+      <c r="R184">
+        <v>2602</v>
+      </c>
+      <c r="S184">
+        <v>120.55</v>
+      </c>
+      <c r="T184">
+        <v>12.35</v>
+      </c>
+      <c r="U184">
+        <v>106.72499999999999</v>
+      </c>
+      <c r="V184">
+        <v>65.22</v>
+      </c>
+      <c r="W184">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B185">
+        <v>1949.9</v>
+      </c>
+      <c r="C185">
+        <v>27.1</v>
+      </c>
+      <c r="D185">
+        <v>937.6</v>
+      </c>
+      <c r="E185">
+        <v>2349.1</v>
+      </c>
+      <c r="F185">
+        <v>40.97</v>
+      </c>
+      <c r="G185">
+        <v>43.3</v>
+      </c>
+      <c r="H185">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="I185">
+        <v>1.1597999999999999</v>
+      </c>
+      <c r="J185">
+        <v>1757</v>
+      </c>
+      <c r="K185">
+        <v>195.3</v>
+      </c>
+      <c r="L185">
+        <v>148.1</v>
+      </c>
+      <c r="M185">
+        <v>1107.7</v>
+      </c>
+      <c r="N185">
+        <v>3.0710000000000002</v>
+      </c>
+      <c r="O185">
+        <v>375.25</v>
+      </c>
+      <c r="P185">
+        <v>1027.75</v>
+      </c>
+      <c r="Q185">
+        <v>65.84</v>
+      </c>
+      <c r="R185">
+        <v>2600</v>
+      </c>
+      <c r="S185">
+        <v>118.1</v>
+      </c>
+      <c r="T185">
+        <v>12.62</v>
+      </c>
+      <c r="U185">
+        <v>106.77500000000001</v>
+      </c>
+      <c r="V185">
+        <v>66.53</v>
+      </c>
+      <c r="W185">
+        <v>597.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B186">
+        <v>1962.1</v>
+      </c>
+      <c r="C186">
+        <v>27.129000000000001</v>
+      </c>
+      <c r="D186">
+        <v>932.4</v>
+      </c>
+      <c r="E186">
+        <v>2382.6</v>
+      </c>
+      <c r="F186">
+        <v>41.11</v>
+      </c>
+      <c r="G186">
+        <v>43.15</v>
+      </c>
+      <c r="H186">
+        <v>2.048</v>
+      </c>
+      <c r="I186">
+        <v>1.159</v>
+      </c>
+      <c r="J186">
+        <v>1795.5</v>
+      </c>
+      <c r="K186">
+        <v>197.85</v>
+      </c>
+      <c r="L186">
+        <v>148.4</v>
+      </c>
+      <c r="M186">
+        <v>1090.8</v>
+      </c>
+      <c r="N186">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="O186">
+        <v>378.5</v>
+      </c>
+      <c r="P186">
+        <v>1043.3800000000001</v>
+      </c>
+      <c r="Q186">
+        <v>65.62</v>
+      </c>
+      <c r="R186">
+        <v>2641</v>
+      </c>
+      <c r="S186">
+        <v>113.6</v>
+      </c>
+      <c r="T186">
+        <v>12.77</v>
+      </c>
+      <c r="U186">
+        <v>107.35</v>
+      </c>
+      <c r="V186">
+        <v>66.5</v>
+      </c>
+      <c r="W186">
+        <v>578.6</v>
       </c>
     </row>
   </sheetData>

--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Equities" sheetId="1" r:id="rId1"/>
@@ -41,82 +41,46 @@
     <t>Indices</t>
   </si>
   <si>
-    <t>SZSE Component</t>
+    <t>HNX 30</t>
   </si>
   <si>
-    <t>China A50</t>
+    <t>Nasdaq</t>
   </si>
   <si>
-    <t>SmallCap 2000</t>
+    <t>KLCI</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
   </si>
   <si>
     <t>Tadawul All Share</t>
   </si>
   <si>
-    <t>HNX 30</t>
+    <t>Nikkei 225</t>
   </si>
   <si>
-    <t>KOSPI</t>
+    <t>PSEi Composite</t>
   </si>
   <si>
-    <t>Taiwan Weighted</t>
+    <t>NZX 50</t>
   </si>
   <si>
-    <t>S&amp;P CLX IPSA</t>
+    <t>S&amp;P/ASX 200</t>
+  </si>
+  <si>
+    <t>S&amp;P Lima General</t>
+  </si>
+  <si>
+    <t>S&amp;P/TSX</t>
+  </si>
+  <si>
+    <t>IDX Composite</t>
   </si>
   <si>
     <t>OMXC25</t>
   </si>
   <si>
-    <t>FTSE/JSE Top 40</t>
-  </si>
-  <si>
-    <t>S&amp;P/BMV IPC</t>
-  </si>
-  <si>
-    <t>MOEX</t>
-  </si>
-  <si>
-    <t>KOSDAQ</t>
-  </si>
-  <si>
-    <t>Bovespa</t>
-  </si>
-  <si>
-    <t>IDX Composite</t>
-  </si>
-  <si>
-    <t>Nikkei 225</t>
-  </si>
-  <si>
-    <t>SMI</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
     <t>FTSE Singapore</t>
-  </si>
-  <si>
-    <t>FTSE 100</t>
-  </si>
-  <si>
-    <t>S&amp;P/ASX 200</t>
-  </si>
-  <si>
-    <t>NZX 50</t>
-  </si>
-  <si>
-    <t>KLCI</t>
-  </si>
-  <si>
-    <t>Nifty 50</t>
-  </si>
-  <si>
-    <t>S&amp;P/TSX</t>
-  </si>
-  <si>
-    <t>IBEX 35</t>
   </si>
   <si>
     <t>AEX</t>
@@ -125,199 +89,235 @@
     <t>BSE Sensex</t>
   </si>
   <si>
+    <t>SmallCap 2000</t>
+  </si>
+  <si>
+    <t>Nifty 50</t>
+  </si>
+  <si>
+    <t>S&amp;P/BMV IPC</t>
+  </si>
+  <si>
+    <t>SZSE Component</t>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>China A50</t>
+  </si>
+  <si>
+    <t>MOEX</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
     <t>Hang Seng</t>
   </si>
   <si>
-    <t>S&amp;P Lima General</t>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>Taiwan Weighted</t>
+  </si>
+  <si>
+    <t>KOSPI</t>
+  </si>
+  <si>
+    <t>FTSE MIB</t>
+  </si>
+  <si>
+    <t>COLCAP</t>
+  </si>
+  <si>
+    <t>IBEX 35</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50</t>
+  </si>
+  <si>
+    <t>Bovespa</t>
+  </si>
+  <si>
+    <t>FTSE/JSE Top 40</t>
   </si>
   <si>
     <t>DAX</t>
   </si>
   <si>
-    <t>Nasdaq</t>
-  </si>
-  <si>
-    <t>COLCAP</t>
-  </si>
-  <si>
-    <t>S&amp;P 500</t>
-  </si>
-  <si>
-    <t>PSEi Composite</t>
-  </si>
-  <si>
-    <t>Euro Stoxx 50</t>
-  </si>
-  <si>
     <t>CAC 40</t>
   </si>
   <si>
-    <t>FTSE MIB</t>
+    <t>S&amp;P CLX IPSA</t>
+  </si>
+  <si>
+    <t>KOSDAQ</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Mexico</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
-    <t>United States</t>
+    <t>United Kingdom</t>
   </si>
   <si>
-    <t>Saudi Arabia</t>
+    <t>Russia</t>
   </si>
   <si>
-    <t>Vietnam</t>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
   </si>
   <si>
     <t>South Korea</t>
   </si>
   <si>
-    <t>Taiwan</t>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>Chile</t>
   </si>
   <si>
-    <t>Denmark</t>
+    <t>Lumber</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Lean Hogs</t>
   </si>
   <si>
-    <t>Mexico</t>
+    <t>Live Cattle</t>
   </si>
   <si>
-    <t>Russia</t>
+    <t>US Sugar #11</t>
   </si>
   <si>
-    <t>Brazil</t>
+    <t>US Coffee C</t>
   </si>
   <si>
-    <t>Indonesia</t>
+    <t>US Cocoa</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>US Cotton #2</t>
   </si>
   <si>
-    <t>Switzerland</t>
+    <t>US Soybeans</t>
   </si>
   <si>
-    <t>Thailand</t>
+    <t>US Corn</t>
   </si>
   <si>
-    <t>Singapore</t>
+    <t>Copper</t>
   </si>
   <si>
-    <t>United Kingdom</t>
+    <t>MCX Nickel</t>
   </si>
   <si>
-    <t>Australia</t>
+    <t>MCX Lead</t>
   </si>
   <si>
-    <t>New Zealand</t>
+    <t>MCX Zinc</t>
   </si>
   <si>
-    <t>Malaysia</t>
+    <t>Aluminum</t>
   </si>
   <si>
-    <t>India</t>
+    <t>Heating Oil</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>Natural Gas</t>
   </si>
   <si>
-    <t>Spain</t>
+    <t>Brent Oil</t>
   </si>
   <si>
-    <t>Netherlands</t>
+    <t>Crude Oil WTI</t>
   </si>
   <si>
-    <t>Hong Kong</t>
+    <t>Palladium</t>
   </si>
   <si>
-    <t>Peru</t>
+    <t>Platinum</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>Silver</t>
   </si>
   <si>
     <t>Gold</t>
   </si>
   <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Platinum</t>
-  </si>
-  <si>
-    <t>Palladium</t>
-  </si>
-  <si>
-    <t>Crude Oil WTI</t>
-  </si>
-  <si>
-    <t>Brent Oil</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>Heating Oil</t>
-  </si>
-  <si>
-    <t>Aluminum</t>
-  </si>
-  <si>
-    <t>MCX Zinc</t>
-  </si>
-  <si>
-    <t>MCX Lead</t>
-  </si>
-  <si>
-    <t>MCX Nickel</t>
-  </si>
-  <si>
-    <t>Copper</t>
-  </si>
-  <si>
-    <t>US Corn</t>
-  </si>
-  <si>
-    <t>US Soybeans</t>
-  </si>
-  <si>
-    <t>US Cotton #2</t>
-  </si>
-  <si>
-    <t>US Cocoa</t>
-  </si>
-  <si>
-    <t>US Coffee C</t>
-  </si>
-  <si>
-    <t>US Sugar #11</t>
-  </si>
-  <si>
-    <t>Live Cattle</t>
-  </si>
-  <si>
-    <t>Lean Hogs</t>
-  </si>
-  <si>
-    <t>Lumber</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -690,7 +690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -728,22 +728,22 @@
         <v>46</v>
       </c>
       <c r="C2">
-        <v>13245.09</v>
+        <v>244.76</v>
       </c>
       <c r="D2">
-        <v>302.13999999999942</v>
+        <v>5.1200000000000054</v>
       </c>
       <c r="E2">
-        <v>2.3343982631471191E-2</v>
+        <v>2.136538140544153E-2</v>
       </c>
       <c r="F2">
-        <v>0.23805905066894001</v>
+        <v>0.37683523654159862</v>
       </c>
       <c r="G2">
-        <v>3.3813274325968923E-2</v>
+        <v>2.0748611855445409E-2</v>
       </c>
       <c r="H2">
-        <v>0.27473899163978333</v>
+        <v>0.37606319766568758</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -751,25 +751,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>15678.89</v>
+        <v>10913.56</v>
       </c>
       <c r="D3">
-        <v>324.30999999999949</v>
+        <v>120.27999999999879</v>
       </c>
       <c r="E3">
-        <v>2.1121385280483022E-2</v>
+        <v>1.1143971063476419E-2</v>
       </c>
       <c r="F3">
-        <v>9.3292787522191611E-2</v>
+        <v>0.20306411199066979</v>
       </c>
       <c r="G3">
-        <v>3.1567938755592273E-2</v>
+        <v>1.1143971063476419E-2</v>
       </c>
       <c r="H3">
-        <v>0.1256837424515993</v>
+        <v>0.20306411199066979</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -777,25 +777,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>1536.78</v>
+        <v>1509.14</v>
       </c>
       <c r="D4">
-        <v>39.509999999999991</v>
+        <v>2.5099999999999909</v>
       </c>
       <c r="E4">
-        <v>2.638802620769809E-2</v>
+        <v>1.665969747051355E-3</v>
       </c>
       <c r="F4">
-        <v>-7.6043432776595421E-2</v>
+        <v>-5.5465151211696262E-2</v>
       </c>
       <c r="G4">
-        <v>2.638802620769809E-2</v>
+        <v>-5.3067053889992444E-3</v>
       </c>
       <c r="H4">
-        <v>-7.6043432776595421E-2</v>
+        <v>-7.0428985324159532E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -803,25 +803,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5">
-        <v>8337.8799999999992</v>
+        <v>3298.46</v>
       </c>
       <c r="D5">
-        <v>202.71999999999929</v>
+        <v>-21.00999999999976</v>
       </c>
       <c r="E5">
-        <v>2.491899360307603E-2</v>
+        <v>-6.3293236570897138E-3</v>
       </c>
       <c r="F5">
-        <v>1.6055071026171989E-2</v>
+        <v>1.6073782914597601E-2</v>
       </c>
       <c r="G5">
-        <v>2.4992928015268309E-2</v>
+        <v>-6.3293236570897138E-3</v>
       </c>
       <c r="H5">
-        <v>1.7316173592687441E-2</v>
+        <v>1.6073782914597601E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -832,22 +832,22 @@
         <v>49</v>
       </c>
       <c r="C6">
-        <v>239.64</v>
+        <v>8236.17</v>
       </c>
       <c r="D6">
-        <v>5.3299999999999841</v>
+        <v>-101.7099999999991</v>
       </c>
       <c r="E6">
-        <v>2.2747642012718169E-2</v>
+        <v>-1.219854447413482E-2</v>
       </c>
       <c r="F6">
-        <v>0.34803397648647111</v>
+        <v>3.6606780540888728E-3</v>
       </c>
       <c r="G6">
-        <v>2.2879990589823599E-2</v>
+        <v>-1.2122108794091591E-2</v>
       </c>
       <c r="H6">
-        <v>0.34809215675971039</v>
+        <v>4.984156258407868E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -858,22 +858,22 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>2412.4</v>
+        <v>23204.62</v>
       </c>
       <c r="D7">
-        <v>15.71000000000004</v>
+        <v>-155.68000000000029</v>
       </c>
       <c r="E7">
-        <v>6.5548735965017526E-3</v>
+        <v>-6.6642979756252876E-3</v>
       </c>
       <c r="F7">
-        <v>0.1194067942108608</v>
+        <v>-1.03426609771029E-5</v>
       </c>
       <c r="G7">
-        <v>2.255772375300635E-2</v>
+        <v>-1.360783910157715E-2</v>
       </c>
       <c r="H7">
-        <v>0.1167247152468489</v>
+        <v>2.397574902925537E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -884,22 +884,22 @@
         <v>51</v>
       </c>
       <c r="C8">
-        <v>12875.62</v>
+        <v>5838.66</v>
       </c>
       <c r="D8">
-        <v>199.6700000000001</v>
+        <v>-70.239999999999782</v>
       </c>
       <c r="E8">
-        <v>1.5751876585186949E-2</v>
+        <v>-1.188715327725964E-2</v>
       </c>
       <c r="F8">
-        <v>7.7154875281929103E-2</v>
+        <v>-0.25124937963828592</v>
       </c>
       <c r="G8">
-        <v>2.0861730567010461E-2</v>
+        <v>-1.484133799779319E-2</v>
       </c>
       <c r="H8">
-        <v>0.11092076643918761</v>
+        <v>-0.21161962902118719</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -910,22 +910,22 @@
         <v>52</v>
       </c>
       <c r="C9">
-        <v>3729.64</v>
+        <v>11797.08</v>
       </c>
       <c r="D9">
-        <v>16.9699999999998</v>
+        <v>163.55999999999949</v>
       </c>
       <c r="E9">
-        <v>4.5708344668391474E-3</v>
+        <v>1.405937325934015E-2</v>
       </c>
       <c r="F9">
-        <v>-0.23641642047420461</v>
+        <v>1.4600097012897221E-2</v>
       </c>
       <c r="G9">
-        <v>2.0285762122180358E-2</v>
+        <v>-1.7848680988626461E-2</v>
       </c>
       <c r="H9">
-        <v>-0.23330466323238769</v>
+        <v>-1.4687566046608369E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -936,22 +936,22 @@
         <v>53</v>
       </c>
       <c r="C10">
-        <v>1491.36</v>
+        <v>5964.9</v>
       </c>
       <c r="D10">
-        <v>26.029999999999969</v>
+        <v>100.39999999999959</v>
       </c>
       <c r="E10">
-        <v>1.776391666041088E-2</v>
+        <v>1.7119959075794888E-2</v>
       </c>
       <c r="F10">
-        <v>0.20742252015933141</v>
+        <v>-0.1144350253128851</v>
       </c>
       <c r="G10">
-        <v>1.987903691554704E-2</v>
+        <v>-1.8475768911487941E-2</v>
       </c>
       <c r="H10">
-        <v>0.28738544676885791</v>
+        <v>-0.1000298216799875</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -962,22 +962,22 @@
         <v>54</v>
       </c>
       <c r="C11">
-        <v>50399.16</v>
+        <v>17743.88</v>
       </c>
       <c r="D11">
-        <v>-1315.9599999999989</v>
+        <v>-163.25</v>
       </c>
       <c r="E11">
-        <v>-2.5446329816115609E-2</v>
+        <v>-9.1164804186935067E-3</v>
       </c>
       <c r="F11">
-        <v>-1.1773619445325069E-2</v>
+        <v>-0.1373228531742153</v>
       </c>
       <c r="G11">
-        <v>1.734196391073373E-2</v>
+        <v>-2.1852044804170249E-2</v>
       </c>
       <c r="H11">
-        <v>-0.1227815109654001</v>
+        <v>-0.20119810424236481</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -988,22 +988,22 @@
         <v>55</v>
       </c>
       <c r="C12">
-        <v>36017.35</v>
+        <v>16065.35</v>
       </c>
       <c r="D12">
-        <v>-317.54000000000087</v>
+        <v>-133.61999999999901</v>
       </c>
       <c r="E12">
-        <v>-8.7392586024066521E-3</v>
+        <v>-8.2486726007887645E-3</v>
       </c>
       <c r="F12">
-        <v>-0.1905358543486616</v>
+        <v>-6.0806280096366898E-2</v>
       </c>
       <c r="G12">
-        <v>1.7066237679618901E-2</v>
+        <v>-2.3193957374223469E-2</v>
       </c>
       <c r="H12">
-        <v>-0.26600509222679197</v>
+        <v>-8.6467855344337541E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1014,22 +1014,22 @@
         <v>56</v>
       </c>
       <c r="C13">
-        <v>2951.79</v>
+        <v>4945.79</v>
       </c>
       <c r="D13">
-        <v>41.279999999999752</v>
+        <v>-113.43000000000031</v>
       </c>
       <c r="E13">
-        <v>1.4183081315645611E-2</v>
+        <v>-2.2420452164563009E-2</v>
       </c>
       <c r="F13">
-        <v>-4.1274883317580779E-2</v>
+        <v>-0.20960942244382649</v>
       </c>
       <c r="G13">
-        <v>1.6703773116527602E-2</v>
+        <v>-2.5819594323570502E-2</v>
       </c>
       <c r="H13">
-        <v>-0.2066177333281812</v>
+        <v>-0.25782775793913648</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1037,25 +1037,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C14">
-        <v>888.88</v>
+        <v>1472.61</v>
       </c>
       <c r="D14">
-        <v>0.43999999999994088</v>
+        <v>-18.75</v>
       </c>
       <c r="E14">
-        <v>4.9525010130113678E-4</v>
+        <v>-1.2572417122626359E-2</v>
       </c>
       <c r="F14">
-        <v>0.35642672933420833</v>
+        <v>0.1922423005926357</v>
       </c>
       <c r="G14">
-        <v>1.6401760505903251E-2</v>
+        <v>-2.764685887319052E-2</v>
       </c>
       <c r="H14">
-        <v>0.3531767547800202</v>
+        <v>0.25179328300664011</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1063,25 +1063,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15">
-        <v>98289.71</v>
+        <v>259.64999999999998</v>
       </c>
       <c r="D15">
-        <v>-73.509999999994761</v>
+        <v>-5.2300000000000182</v>
       </c>
       <c r="E15">
-        <v>-7.4733218371658694E-4</v>
+        <v>-1.9744790093627399E-2</v>
       </c>
       <c r="F15">
-        <v>-0.1590395345844621</v>
+        <v>-0.22702509600785939</v>
       </c>
       <c r="G15">
-        <v>1.502988327974286E-2</v>
+        <v>-3.2223957774622607E-2</v>
       </c>
       <c r="H15">
-        <v>-0.34862410954795853</v>
+        <v>-0.2410096835591358</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1089,25 +1089,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16">
-        <v>5059.22</v>
+        <v>540.91</v>
       </c>
       <c r="D16">
-        <v>42.510000000000218</v>
+        <v>-9.9400000000000546</v>
       </c>
       <c r="E16">
-        <v>8.4736809582375283E-3</v>
+        <v>-1.8044839793047159E-2</v>
       </c>
       <c r="F16">
-        <v>-0.19148208521110999</v>
+        <v>-0.10923193465516109</v>
       </c>
       <c r="G16">
-        <v>1.32132633623927E-2</v>
+        <v>-3.2544968537280172E-2</v>
       </c>
       <c r="H16">
-        <v>-0.23815728818161699</v>
+        <v>-6.8429578166207095E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1115,25 +1115,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17">
-        <v>23360.3</v>
+        <v>37388.660000000003</v>
       </c>
       <c r="D17">
-        <v>-46.190000000002328</v>
+        <v>-1457.159999999996</v>
       </c>
       <c r="E17">
-        <v>-1.9733843049514199E-3</v>
+        <v>-3.7511371879908717E-2</v>
       </c>
       <c r="F17">
-        <v>6.6985967594719309E-3</v>
+        <v>-8.0831917491689831E-2</v>
       </c>
       <c r="G17">
-        <v>1.1800990786400961E-2</v>
+        <v>-3.8801933801680948E-2</v>
       </c>
       <c r="H17">
-        <v>3.8102075037377503E-2</v>
+        <v>-0.1051750940722477</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1141,25 +1141,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C18">
-        <v>10539.17</v>
+        <v>1474.91</v>
       </c>
       <c r="D18">
-        <v>99.649999999999636</v>
+        <v>-61.869999999999891</v>
       </c>
       <c r="E18">
-        <v>9.5454580287215318E-3</v>
+        <v>-4.0259503637475658E-2</v>
       </c>
       <c r="F18">
-        <v>-1.183639447522411E-2</v>
+        <v>-0.1132414655555956</v>
       </c>
       <c r="G18">
-        <v>1.174606697566194E-2</v>
+        <v>-4.0259503637475658E-2</v>
       </c>
       <c r="H18">
-        <v>5.6910347399661047E-2</v>
+        <v>-0.1132414655555956</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1167,25 +1167,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19">
-        <v>1288.3900000000001</v>
+        <v>11050.25</v>
       </c>
       <c r="D19">
-        <v>8.4300000000000637</v>
+        <v>-454.70000000000073</v>
       </c>
       <c r="E19">
-        <v>6.5861433169787098E-3</v>
+        <v>-3.9522118740194512E-2</v>
       </c>
       <c r="F19">
-        <v>-0.1785846350015938</v>
+        <v>-7.8612196230316678E-2</v>
       </c>
       <c r="G19">
-        <v>1.0785692054639419E-2</v>
+        <v>-4.0809984533143662E-2</v>
       </c>
       <c r="H19">
-        <v>-0.20536762866068781</v>
+        <v>-0.1030141597375025</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1193,25 +1193,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20">
-        <v>264.88</v>
+        <v>36583.71</v>
       </c>
       <c r="D20">
-        <v>0.45999999999997948</v>
+        <v>566.36000000000058</v>
       </c>
       <c r="E20">
-        <v>1.73965660691322E-3</v>
+        <v>1.5724643817493611E-2</v>
       </c>
       <c r="F20">
-        <v>-0.2114554493763211</v>
+        <v>-0.17780731897526261</v>
       </c>
       <c r="G20">
-        <v>1.067822899868465E-2</v>
+        <v>-4.1428820398303527E-2</v>
       </c>
       <c r="H20">
-        <v>-0.21573764659891301</v>
+        <v>-0.29641363543419758</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1219,25 +1219,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21">
-        <v>6007.05</v>
+        <v>12814.17</v>
       </c>
       <c r="D21">
-        <v>-25.03999999999996</v>
+        <v>-430.92000000000007</v>
       </c>
       <c r="E21">
-        <v>-4.1511316973055212E-3</v>
+        <v>-3.2534320265094507E-2</v>
       </c>
       <c r="F21">
-        <v>-0.20702569125610201</v>
+        <v>0.1977796410073778</v>
       </c>
       <c r="G21">
-        <v>8.853304685087382E-3</v>
+        <v>-4.1546245554948458E-2</v>
       </c>
       <c r="H21">
-        <v>-0.21336384288413451</v>
+        <v>0.2217783724746496</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1245,25 +1245,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22">
-        <v>5864.5</v>
+        <v>5842.67</v>
       </c>
       <c r="D22">
-        <v>5.1000000000003638</v>
+        <v>-164.38000000000011</v>
       </c>
       <c r="E22">
-        <v>8.7039628630924959E-4</v>
+        <v>-2.7364513363464571E-2</v>
       </c>
       <c r="F22">
-        <v>-0.12934067728669621</v>
+        <v>-0.22872504732460849</v>
       </c>
       <c r="G22">
-        <v>7.7726556149735337E-3</v>
+        <v>-4.3743062431227719E-2</v>
       </c>
       <c r="H22">
-        <v>-8.3089189431478694E-2</v>
+        <v>-0.2477737174155149</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1271,25 +1271,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23">
-        <v>11633.52</v>
+        <v>15126.81</v>
       </c>
       <c r="D23">
-        <v>-114.5100000000002</v>
+        <v>-552.07999999999993</v>
       </c>
       <c r="E23">
-        <v>-9.7471661206176563E-3</v>
+        <v>-3.5211676336781461E-2</v>
       </c>
       <c r="F23">
-        <v>5.3322691729484895E-4</v>
+        <v>5.4796115746622583E-2</v>
       </c>
       <c r="G23">
-        <v>7.4902166909374124E-3</v>
+        <v>-4.4198662103303699E-2</v>
       </c>
       <c r="H23">
-        <v>1.667759750142506E-2</v>
+        <v>7.5930027083798812E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,25 +1297,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24">
-        <v>1506.63</v>
+        <v>2896.83</v>
       </c>
       <c r="D24">
-        <v>1.7800000000002001</v>
+        <v>-54.960000000000043</v>
       </c>
       <c r="E24">
-        <v>1.1828421437354299E-3</v>
+        <v>-1.861921071620953E-2</v>
       </c>
       <c r="F24">
-        <v>-5.7036100540757029E-2</v>
+        <v>-5.9125588284013257E-2</v>
       </c>
       <c r="G24">
-        <v>7.2330238369784361E-3</v>
+        <v>-4.4982503536338703E-2</v>
       </c>
       <c r="H24">
-        <v>-6.5469708389487069E-2</v>
+        <v>-0.24230605394441451</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1323,25 +1323,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25">
-        <v>11504.95</v>
+        <v>1244.94</v>
       </c>
       <c r="D25">
-        <v>40.5</v>
+        <v>-43.450000000000053</v>
       </c>
       <c r="E25">
-        <v>3.5326596565905528E-3</v>
+        <v>-3.3724260511180597E-2</v>
       </c>
       <c r="F25">
-        <v>-4.0698571255852189E-2</v>
+        <v>-0.20628626075868661</v>
       </c>
       <c r="G25">
-        <v>2.7647188103301361E-3</v>
+        <v>-4.5456866482253437E-2</v>
       </c>
       <c r="H25">
-        <v>-6.4850732598673799E-2</v>
+        <v>-0.2414891262671354</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1349,25 +1349,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26">
-        <v>16198.97</v>
+        <v>23235.42</v>
       </c>
       <c r="D26">
-        <v>-23.489999999999782</v>
+        <v>-1219.9900000000021</v>
       </c>
       <c r="E26">
-        <v>-1.447992474630788E-3</v>
+        <v>-4.9886303276044153E-2</v>
       </c>
       <c r="F26">
-        <v>-5.2994743786636822E-2</v>
+        <v>-0.17681344878639299</v>
       </c>
       <c r="G26">
-        <v>1.5362501837443701E-3</v>
+        <v>-4.9898592085561799E-2</v>
       </c>
       <c r="H26">
-        <v>-6.4776317107975601E-2</v>
+        <v>-0.17346759540369169</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1375,25 +1375,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C27">
-        <v>6929.8</v>
+        <v>10216.280000000001</v>
       </c>
       <c r="D27">
-        <v>-13.39999999999964</v>
+        <v>-322.88999999999942</v>
       </c>
       <c r="E27">
-        <v>-1.9299458462955781E-3</v>
+        <v>-3.0637137459591179E-2</v>
       </c>
       <c r="F27">
-        <v>-0.27821350081763158</v>
+        <v>-4.2110898690251863E-2</v>
       </c>
       <c r="G27">
-        <v>8.0278713535442137E-5</v>
+        <v>-4.9935693585228542E-2</v>
       </c>
       <c r="H27">
-        <v>-0.23383788106016271</v>
+        <v>4.1327961448540673E-3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1401,25 +1401,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28">
-        <v>550.85</v>
+        <v>12232.91</v>
       </c>
       <c r="D28">
-        <v>-1.1599999999999679</v>
+        <v>-642.71000000000095</v>
       </c>
       <c r="E28">
-        <v>-2.1014112063186818E-3</v>
+        <v>-4.991681953956395E-2</v>
       </c>
       <c r="F28">
-        <v>-9.2862789012581493E-2</v>
+        <v>2.3386729756319499E-2</v>
       </c>
       <c r="G28">
-        <v>-9.1531996873173149E-5</v>
+        <v>-5.4526960460674401E-2</v>
       </c>
       <c r="H28">
-        <v>-3.7091759784092522E-2</v>
+        <v>5.0345633732615802E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1427,25 +1427,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29">
-        <v>38845.82</v>
+        <v>2278.79</v>
       </c>
       <c r="D29">
-        <v>-8.7300000000032014</v>
+        <v>-133.6100000000001</v>
       </c>
       <c r="E29">
-        <v>-2.2468411035525551E-4</v>
+        <v>-5.5384679157685301E-2</v>
       </c>
       <c r="F29">
-        <v>-4.5008890854527417E-2</v>
+        <v>5.7408808066559118E-2</v>
       </c>
       <c r="G29">
-        <v>-9.8974969618015329E-4</v>
+        <v>-5.5263426434895242E-2</v>
       </c>
       <c r="H29">
-        <v>-6.9052532047928827E-2</v>
+        <v>5.5010681097775523E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1453,25 +1453,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30">
-        <v>24455.41</v>
+        <v>18698.36</v>
       </c>
       <c r="D30">
-        <v>-47.900000000001462</v>
+        <v>-826.57999999999811</v>
       </c>
       <c r="E30">
-        <v>-1.954837938221488E-3</v>
+        <v>-4.2334573115205387E-2</v>
       </c>
       <c r="F30">
-        <v>-0.1335915332533367</v>
+        <v>-0.2070679763490462</v>
       </c>
       <c r="G30">
-        <v>-1.9162254300245649E-3</v>
+        <v>-5.6476025338750728E-2</v>
       </c>
       <c r="H30">
-        <v>-0.130058751927729</v>
+        <v>-0.1707470794071593</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1479,25 +1479,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31">
-        <v>17907.13</v>
+        <v>1171.3499999999999</v>
       </c>
       <c r="D31">
-        <v>-118.8099999999977</v>
+        <v>-35.200000000000053</v>
       </c>
       <c r="E31">
-        <v>-6.5910571099203619E-3</v>
+        <v>-2.9174091417678572E-2</v>
       </c>
       <c r="F31">
-        <v>-0.1293859169337026</v>
+        <v>-0.30130809011685128</v>
       </c>
       <c r="G31">
-        <v>-3.498128508283127E-3</v>
+        <v>-5.7568581064659903E-2</v>
       </c>
       <c r="H31">
-        <v>-0.1833526906492268</v>
+        <v>-0.40511870140920669</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1505,25 +1505,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32">
-        <v>13116.25</v>
+        <v>6628.3</v>
       </c>
       <c r="D32">
-        <v>-86.590000000000146</v>
+        <v>-301.5</v>
       </c>
       <c r="E32">
-        <v>-6.5584374270990509E-3</v>
+        <v>-4.3507749141389329E-2</v>
       </c>
       <c r="F32">
-        <v>-8.1816166539316892E-4</v>
+        <v>-0.30961680675769981</v>
       </c>
       <c r="G32">
-        <v>-4.5575351662510144E-3</v>
+        <v>-5.7631877556161393E-2</v>
       </c>
       <c r="H32">
-        <v>6.061179494467428E-2</v>
+        <v>-0.27799324248707258</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1531,25 +1531,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C33">
-        <v>10793.28</v>
+        <v>3137.06</v>
       </c>
       <c r="D33">
-        <v>-60.260000000000218</v>
+        <v>-146.63000000000011</v>
       </c>
       <c r="E33">
-        <v>-5.5521055802991706E-3</v>
+        <v>-4.465403250611355E-2</v>
       </c>
       <c r="F33">
-        <v>0.18980495994585239</v>
+        <v>-0.16401245030006509</v>
       </c>
       <c r="G33">
-        <v>-5.5521055802991706E-3</v>
+        <v>-5.8761234225004337E-2</v>
       </c>
       <c r="H33">
-        <v>0.18980495994585239</v>
+        <v>-0.12571935993205899</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1560,22 +1560,22 @@
         <v>74</v>
       </c>
       <c r="C34">
-        <v>1206.55</v>
+        <v>96999.38</v>
       </c>
       <c r="D34">
-        <v>-5.9000000000000909</v>
+        <v>-1290.330000000002</v>
       </c>
       <c r="E34">
-        <v>-4.8661800486619064E-3</v>
+        <v>-1.31278238586725E-2</v>
       </c>
       <c r="F34">
-        <v>-0.280311842003233</v>
+        <v>-0.17007951544654451</v>
       </c>
       <c r="G34">
-        <v>-6.2383109016326266E-3</v>
+        <v>-6.1607854984183863E-2</v>
       </c>
       <c r="H34">
-        <v>-0.3687802776537018</v>
+        <v>-0.38875398094712149</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1583,25 +1583,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C35">
-        <v>3319.47</v>
+        <v>49547.74</v>
       </c>
       <c r="D35">
-        <v>-21.5</v>
+        <v>-851.42000000000553</v>
       </c>
       <c r="E35">
-        <v>-6.4352568266102814E-3</v>
+        <v>-1.6893535527179541E-2</v>
       </c>
       <c r="F35">
-        <v>2.2545806276722761E-2</v>
+        <v>-2.8468256914121581E-2</v>
       </c>
       <c r="G35">
-        <v>-6.4352568266102814E-3</v>
+        <v>-6.1696698039335973E-2</v>
       </c>
       <c r="H35">
-        <v>2.2545806276722761E-2</v>
+        <v>-0.17690299519789041</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1609,25 +1609,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36">
-        <v>5908.9</v>
+        <v>12469.2</v>
       </c>
       <c r="D36">
-        <v>-59.0600000000004</v>
+        <v>-647.04999999999927</v>
       </c>
       <c r="E36">
-        <v>-9.8961789288132262E-3</v>
+        <v>-4.9331935576098267E-2</v>
       </c>
       <c r="F36">
-        <v>-0.24224179166875059</v>
+        <v>-5.0109735742923427E-2</v>
       </c>
       <c r="G36">
-        <v>-7.2343354986501573E-3</v>
+        <v>-6.3370060620700275E-2</v>
       </c>
       <c r="H36">
-        <v>-0.1997427405484794</v>
+        <v>-6.5992387959995513E-3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1635,25 +1635,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C37">
-        <v>3283.69</v>
+        <v>4729.66</v>
       </c>
       <c r="D37">
-        <v>-32.119999999999891</v>
+        <v>-248.52000000000041</v>
       </c>
       <c r="E37">
-        <v>-9.6869241603106948E-3</v>
+        <v>-4.9921858992644008E-2</v>
       </c>
       <c r="F37">
-        <v>-0.1249373754170531</v>
+        <v>-0.21350474508571429</v>
       </c>
       <c r="G37">
-        <v>-7.6923230211525251E-3</v>
+        <v>-6.3951272880325871E-2</v>
       </c>
       <c r="H37">
-        <v>-7.1138300016704736E-2</v>
+        <v>-0.17747868957657309</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1661,25 +1661,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38">
-        <v>4978.18</v>
+        <v>3589.04</v>
       </c>
       <c r="D38">
-        <v>-55.960000000000043</v>
+        <v>-140.59999999999991</v>
       </c>
       <c r="E38">
-        <v>-1.111609927415602E-2</v>
+        <v>-3.7698008386868431E-2</v>
       </c>
       <c r="F38">
-        <v>-0.17217834937200571</v>
+        <v>-0.26520200065924299</v>
       </c>
       <c r="G38">
-        <v>-9.1243766532963511E-3</v>
+        <v>-6.486573205019952E-2</v>
       </c>
       <c r="H38">
-        <v>-0.1212836612102275</v>
+        <v>-0.28303691751129312</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1687,25 +1687,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C39">
-        <v>19524.939999999999</v>
+        <v>808.28</v>
       </c>
       <c r="D39">
-        <v>-295.81000000000131</v>
+        <v>-80.600000000000023</v>
       </c>
       <c r="E39">
-        <v>-1.4924258668314819E-2</v>
+        <v>-9.067590675906767E-2</v>
       </c>
       <c r="F39">
-        <v>-0.17201561068117999</v>
+        <v>0.23343150569959259</v>
       </c>
       <c r="G39">
-        <v>-1.294020610579427E-2</v>
+        <v>-9.0559184089245015E-2</v>
       </c>
       <c r="H39">
-        <v>-0.12111091730280089</v>
+        <v>0.23063417193860941</v>
       </c>
     </row>
   </sheetData>
@@ -1715,83 +1715,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W186"/>
+  <dimension ref="A1:W191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:W191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -14927,6 +14927,361 @@
       </c>
       <c r="W186">
         <v>578.6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B187">
+        <v>1910.6</v>
+      </c>
+      <c r="C187">
+        <v>24.387</v>
+      </c>
+      <c r="D187">
+        <v>889.85</v>
+      </c>
+      <c r="E187">
+        <v>2298.1</v>
+      </c>
+      <c r="F187">
+        <v>39.31</v>
+      </c>
+      <c r="G187">
+        <v>41.44</v>
+      </c>
+      <c r="H187">
+        <v>1.835</v>
+      </c>
+      <c r="I187">
+        <v>1.1073</v>
+      </c>
+      <c r="J187">
+        <v>1754.75</v>
+      </c>
+      <c r="K187">
+        <v>192.65</v>
+      </c>
+      <c r="L187">
+        <v>146.25</v>
+      </c>
+      <c r="M187">
+        <v>1063.9000000000001</v>
+      </c>
+      <c r="N187">
+        <v>3.032</v>
+      </c>
+      <c r="O187">
+        <v>369.75</v>
+      </c>
+      <c r="P187">
+        <v>1018.75</v>
+      </c>
+      <c r="Q187">
+        <v>65.33</v>
+      </c>
+      <c r="R187">
+        <v>2629</v>
+      </c>
+      <c r="S187">
+        <v>112</v>
+      </c>
+      <c r="T187">
+        <v>12.55</v>
+      </c>
+      <c r="U187">
+        <v>106.7</v>
+      </c>
+      <c r="V187">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="W187">
+        <v>549.6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B188">
+        <v>1907.6</v>
+      </c>
+      <c r="C188">
+        <v>24.523</v>
+      </c>
+      <c r="D188">
+        <v>872.05</v>
+      </c>
+      <c r="E188">
+        <v>2239.6999999999998</v>
+      </c>
+      <c r="F188">
+        <v>39.6</v>
+      </c>
+      <c r="G188">
+        <v>41.72</v>
+      </c>
+      <c r="H188">
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="I188">
+        <v>1.0961000000000001</v>
+      </c>
+      <c r="J188">
+        <v>1778.75</v>
+      </c>
+      <c r="K188">
+        <v>193.95</v>
+      </c>
+      <c r="L188">
+        <v>146.15</v>
+      </c>
+      <c r="M188">
+        <v>1067.8</v>
+      </c>
+      <c r="N188">
+        <v>3.0609999999999999</v>
+      </c>
+      <c r="O188">
+        <v>369.25</v>
+      </c>
+      <c r="P188">
+        <v>1019.75</v>
+      </c>
+      <c r="Q188">
+        <v>65.540000000000006</v>
+      </c>
+      <c r="R188">
+        <v>2556</v>
+      </c>
+      <c r="S188">
+        <v>110.65</v>
+      </c>
+      <c r="T188">
+        <v>12.89</v>
+      </c>
+      <c r="U188">
+        <v>106.47499999999999</v>
+      </c>
+      <c r="V188">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="W188">
+        <v>578.6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B189">
+        <v>1868.4</v>
+      </c>
+      <c r="C189">
+        <v>23.105</v>
+      </c>
+      <c r="D189">
+        <v>829.1</v>
+      </c>
+      <c r="E189">
+        <v>2223.4</v>
+      </c>
+      <c r="F189">
+        <v>39.93</v>
+      </c>
+      <c r="G189">
+        <v>41.77</v>
+      </c>
+      <c r="H189">
+        <v>2.125</v>
+      </c>
+      <c r="I189">
+        <v>1.1074999999999999</v>
+      </c>
+      <c r="J189">
+        <v>1729.36</v>
+      </c>
+      <c r="K189">
+        <v>194.25</v>
+      </c>
+      <c r="L189">
+        <v>145.85</v>
+      </c>
+      <c r="M189">
+        <v>1052.9000000000001</v>
+      </c>
+      <c r="N189">
+        <v>2.9929999999999999</v>
+      </c>
+      <c r="O189">
+        <v>368.5</v>
+      </c>
+      <c r="P189">
+        <v>1012.12</v>
+      </c>
+      <c r="Q189">
+        <v>65.23</v>
+      </c>
+      <c r="R189">
+        <v>2580</v>
+      </c>
+      <c r="S189">
+        <v>110.5</v>
+      </c>
+      <c r="T189">
+        <v>12.82</v>
+      </c>
+      <c r="U189">
+        <v>107.15</v>
+      </c>
+      <c r="V189">
+        <v>69.5</v>
+      </c>
+      <c r="W189">
+        <v>607.6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B190">
+        <v>1876.9</v>
+      </c>
+      <c r="C190">
+        <v>23.196000000000002</v>
+      </c>
+      <c r="D190">
+        <v>844.45</v>
+      </c>
+      <c r="E190">
+        <v>2235.4</v>
+      </c>
+      <c r="F190">
+        <v>40.31</v>
+      </c>
+      <c r="G190">
+        <v>41.94</v>
+      </c>
+      <c r="H190">
+        <v>2.2480000000000002</v>
+      </c>
+      <c r="I190">
+        <v>1.1167</v>
+      </c>
+      <c r="J190">
+        <v>1715.5</v>
+      </c>
+      <c r="K190">
+        <v>193.3</v>
+      </c>
+      <c r="L190">
+        <v>145.55000000000001</v>
+      </c>
+      <c r="M190">
+        <v>1053.3</v>
+      </c>
+      <c r="N190">
+        <v>2.968</v>
+      </c>
+      <c r="O190">
+        <v>363.5</v>
+      </c>
+      <c r="P190">
+        <v>998.12</v>
+      </c>
+      <c r="Q190">
+        <v>65.45</v>
+      </c>
+      <c r="R190">
+        <v>2599</v>
+      </c>
+      <c r="S190">
+        <v>111.15</v>
+      </c>
+      <c r="T190">
+        <v>12.84</v>
+      </c>
+      <c r="U190">
+        <v>108.02500000000001</v>
+      </c>
+      <c r="V190">
+        <v>69.47</v>
+      </c>
+      <c r="W190">
+        <v>578.6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B191">
+        <v>1866.3</v>
+      </c>
+      <c r="C191">
+        <v>23.093</v>
+      </c>
+      <c r="D191">
+        <v>841.6</v>
+      </c>
+      <c r="E191">
+        <v>2230.1999999999998</v>
+      </c>
+      <c r="F191">
+        <v>40.25</v>
+      </c>
+      <c r="G191">
+        <v>41.92</v>
+      </c>
+      <c r="H191">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="I191">
+        <v>1.1262000000000001</v>
+      </c>
+      <c r="J191">
+        <v>1760.75</v>
+      </c>
+      <c r="K191">
+        <v>195</v>
+      </c>
+      <c r="L191">
+        <v>149.9</v>
+      </c>
+      <c r="M191">
+        <v>1050</v>
+      </c>
+      <c r="N191">
+        <v>2.9710000000000001</v>
+      </c>
+      <c r="O191">
+        <v>365.25</v>
+      </c>
+      <c r="P191">
+        <v>1001.38</v>
+      </c>
+      <c r="Q191">
+        <v>66</v>
+      </c>
+      <c r="R191">
+        <v>2568</v>
+      </c>
+      <c r="S191">
+        <v>113.65</v>
+      </c>
+      <c r="T191">
+        <v>13</v>
+      </c>
+      <c r="U191">
+        <v>107.575</v>
+      </c>
+      <c r="V191">
+        <v>71.75</v>
+      </c>
+      <c r="W191">
+        <v>607.6</v>
       </c>
     </row>
   </sheetData>

--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Equities" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="142">
   <si>
     <t>Country</t>
   </si>
@@ -41,283 +41,406 @@
     <t>Indices</t>
   </si>
   <si>
+    <t>KOSDAQ</t>
+  </si>
+  <si>
+    <t>Budapest SE</t>
+  </si>
+  <si>
+    <t>SmallCap 2000</t>
+  </si>
+  <si>
+    <t>OMXS30</t>
+  </si>
+  <si>
+    <t>Taiwan Weighted</t>
+  </si>
+  <si>
+    <t>OMXC25</t>
+  </si>
+  <si>
+    <t>BSE Sensex</t>
+  </si>
+  <si>
+    <t>Nifty 50</t>
+  </si>
+  <si>
+    <t>BEL 20</t>
+  </si>
+  <si>
+    <t>WIG20</t>
+  </si>
+  <si>
+    <t>OMX Helsinki 25</t>
+  </si>
+  <si>
+    <t>PSEi Composite</t>
+  </si>
+  <si>
+    <t>PSI 20</t>
+  </si>
+  <si>
+    <t>AEX</t>
+  </si>
+  <si>
+    <t>KOSPI</t>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>CAC 40</t>
+  </si>
+  <si>
+    <t>FTSE MIB</t>
+  </si>
+  <si>
+    <t>IBEX 35</t>
+  </si>
+  <si>
+    <t>QE General</t>
+  </si>
+  <si>
+    <t>FTSE Singapore</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50</t>
+  </si>
+  <si>
+    <t>S&amp;P CLX IPSA</t>
+  </si>
+  <si>
+    <t>FTSE/JSE Top 40</t>
+  </si>
+  <si>
+    <t>Athens General Composite</t>
+  </si>
+  <si>
     <t>HNX 30</t>
+  </si>
+  <si>
+    <t>ISEQ Overall</t>
+  </si>
+  <si>
+    <t>NZX 50</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
   </si>
   <si>
     <t>Nasdaq</t>
   </si>
   <si>
-    <t>KLCI</t>
+    <t>SZSE Component</t>
   </si>
   <si>
-    <t>S&amp;P 500</t>
+    <t>EGX 30</t>
+  </si>
+  <si>
+    <t>ATX</t>
+  </si>
+  <si>
+    <t>S&amp;P/TSX</t>
+  </si>
+  <si>
+    <t>China A50</t>
+  </si>
+  <si>
+    <t>Cyprus Main Market</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>Hang Seng</t>
   </si>
   <si>
     <t>Tadawul All Share</t>
   </si>
   <si>
+    <t>BIST 100</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>S&amp;P/BMV IPC</t>
+  </si>
+  <si>
+    <t>DJ Shanghai</t>
+  </si>
+  <si>
+    <t>S&amp;P Lima General</t>
+  </si>
+  <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>KLCI</t>
+  </si>
+  <si>
+    <t>MSM 30</t>
+  </si>
+  <si>
+    <t>BSE SOFIX</t>
+  </si>
+  <si>
+    <t>COLCAP</t>
+  </si>
+  <si>
+    <t>IDX Composite</t>
+  </si>
+  <si>
     <t>Nikkei 225</t>
   </si>
   <si>
-    <t>PSEi Composite</t>
+    <t>SET</t>
   </si>
   <si>
-    <t>NZX 50</t>
+    <t>Bahrain All Share</t>
   </si>
   <si>
     <t>S&amp;P/ASX 200</t>
   </si>
   <si>
-    <t>S&amp;P Lima General</t>
-  </si>
-  <si>
-    <t>S&amp;P/TSX</t>
-  </si>
-  <si>
-    <t>IDX Composite</t>
-  </si>
-  <si>
-    <t>OMXC25</t>
-  </si>
-  <si>
-    <t>FTSE Singapore</t>
-  </si>
-  <si>
-    <t>AEX</t>
-  </si>
-  <si>
-    <t>BSE Sensex</t>
-  </si>
-  <si>
-    <t>SmallCap 2000</t>
-  </si>
-  <si>
-    <t>Nifty 50</t>
-  </si>
-  <si>
-    <t>S&amp;P/BMV IPC</t>
-  </si>
-  <si>
-    <t>SZSE Component</t>
-  </si>
-  <si>
-    <t>FTSE 100</t>
-  </si>
-  <si>
-    <t>China A50</t>
+    <t>RTSI</t>
   </si>
   <si>
     <t>MOEX</t>
   </si>
   <si>
-    <t>SET</t>
+    <t>Tunindex</t>
   </si>
   <si>
-    <t>Hang Seng</t>
-  </si>
-  <si>
-    <t>SMI</t>
-  </si>
-  <si>
-    <t>Taiwan Weighted</t>
-  </si>
-  <si>
-    <t>KOSPI</t>
-  </si>
-  <si>
-    <t>FTSE MIB</t>
-  </si>
-  <si>
-    <t>COLCAP</t>
-  </si>
-  <si>
-    <t>IBEX 35</t>
-  </si>
-  <si>
-    <t>Euro Stoxx 50</t>
+    <t>Karachi 100</t>
   </si>
   <si>
     <t>Bovespa</t>
   </si>
   <si>
-    <t>FTSE/JSE Top 40</t>
+    <t>South Korea</t>
   </si>
   <si>
-    <t>DAX</t>
+    <t>Hungary</t>
   </si>
   <si>
-    <t>CAC 40</t>
+    <t>United States</t>
   </si>
   <si>
-    <t>S&amp;P CLX IPSA</t>
+    <t>Sweden</t>
   </si>
   <si>
-    <t>KOSDAQ</t>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Greece</t>
   </si>
   <si>
     <t>Vietnam</t>
   </si>
   <si>
-    <t>United States</t>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
   </si>
   <si>
     <t>Malaysia</t>
   </si>
   <si>
-    <t>Saudi Arabia</t>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
   </si>
   <si>
     <t>Japan</t>
   </si>
   <si>
-    <t>Philippines</t>
+    <t>Thailand</t>
   </si>
   <si>
-    <t>New Zealand</t>
+    <t>Bahrain</t>
   </si>
   <si>
     <t>Australia</t>
   </si>
   <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>Thailand</t>
+    <t>Tunisia</t>
   </si>
   <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Germany</t>
+    <t>Pakistan</t>
   </si>
   <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>France</t>
+    <t>Gold</t>
   </si>
   <si>
-    <t>Chile</t>
+    <t>Silver</t>
   </si>
   <si>
-    <t>Lumber</t>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+  <si>
+    <t>Crude Oil WTI</t>
+  </si>
+  <si>
+    <t>Brent Oil</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Heating Oil</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>MCX Zinc</t>
+  </si>
+  <si>
+    <t>MCX Lead</t>
+  </si>
+  <si>
+    <t>MCX Nickel</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>US Corn</t>
+  </si>
+  <si>
+    <t>US Soybeans</t>
+  </si>
+  <si>
+    <t>US Cotton #2</t>
+  </si>
+  <si>
+    <t>US Cocoa</t>
+  </si>
+  <si>
+    <t>US Coffee C</t>
+  </si>
+  <si>
+    <t>US Sugar #11</t>
+  </si>
+  <si>
+    <t>Live Cattle</t>
   </si>
   <si>
     <t>Lean Hogs</t>
   </si>
   <si>
-    <t>Live Cattle</t>
-  </si>
-  <si>
-    <t>US Sugar #11</t>
-  </si>
-  <si>
-    <t>US Coffee C</t>
-  </si>
-  <si>
-    <t>US Cocoa</t>
-  </si>
-  <si>
-    <t>US Cotton #2</t>
-  </si>
-  <si>
-    <t>US Soybeans</t>
-  </si>
-  <si>
-    <t>US Corn</t>
-  </si>
-  <si>
-    <t>Copper</t>
-  </si>
-  <si>
-    <t>MCX Nickel</t>
-  </si>
-  <si>
-    <t>MCX Lead</t>
-  </si>
-  <si>
-    <t>MCX Zinc</t>
-  </si>
-  <si>
-    <t>Aluminum</t>
-  </si>
-  <si>
-    <t>Heating Oil</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>Brent Oil</t>
-  </si>
-  <si>
-    <t>Crude Oil WTI</t>
-  </si>
-  <si>
-    <t>Palladium</t>
-  </si>
-  <si>
-    <t>Platinum</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>Lumber</t>
   </si>
 </sst>
 </file>
@@ -688,9 +811,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -725,25 +848,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C2">
-        <v>244.76</v>
+        <v>848.15</v>
       </c>
       <c r="D2">
-        <v>5.1200000000000054</v>
+        <v>39.869999999999997</v>
       </c>
       <c r="E2">
-        <v>2.136538140544153E-2</v>
+        <v>4.9326965902904973E-2</v>
       </c>
       <c r="F2">
-        <v>0.37683523654159862</v>
+        <v>0.29427293952480521</v>
       </c>
       <c r="G2">
-        <v>2.0748611855445409E-2</v>
+        <v>5.3582798277566068E-2</v>
       </c>
       <c r="H2">
-        <v>0.37606319766568758</v>
+        <v>0.2965749945270757</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -751,25 +874,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C3">
-        <v>10913.56</v>
+        <v>33449.839999999997</v>
       </c>
       <c r="D3">
-        <v>120.27999999999879</v>
+        <v>1516.5799999999981</v>
       </c>
       <c r="E3">
-        <v>1.1143971063476419E-2</v>
+        <v>4.7492175869297437E-2</v>
       </c>
       <c r="F3">
-        <v>0.20306411199066979</v>
+        <v>-0.25099039919603688</v>
       </c>
       <c r="G3">
-        <v>1.1143971063476419E-2</v>
+        <v>5.0258574559483023E-2</v>
       </c>
       <c r="H3">
-        <v>0.20306411199066979</v>
+        <v>-0.28630977002555758</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -777,25 +900,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C4">
-        <v>1509.14</v>
+        <v>1539.3</v>
       </c>
       <c r="D4">
-        <v>2.5099999999999909</v>
+        <v>64.389999999999873</v>
       </c>
       <c r="E4">
-        <v>1.665969747051355E-3</v>
+        <v>4.3656901099049961E-2</v>
       </c>
       <c r="F4">
-        <v>-5.5465151211696262E-2</v>
+        <v>-7.4528335918617628E-2</v>
       </c>
       <c r="G4">
-        <v>-5.3067053889992444E-3</v>
+        <v>4.3656901099049961E-2</v>
       </c>
       <c r="H4">
-        <v>-7.0428985324159532E-2</v>
+        <v>-7.4528335918617628E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -803,25 +926,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C5">
-        <v>3298.46</v>
+        <v>1813.69</v>
       </c>
       <c r="D5">
-        <v>-21.00999999999976</v>
+        <v>29.82000000000016</v>
       </c>
       <c r="E5">
-        <v>-6.3293236570897138E-3</v>
+        <v>1.6716464764809261E-2</v>
       </c>
       <c r="F5">
-        <v>1.6073782914597601E-2</v>
+        <v>1.5941923449639631E-2</v>
       </c>
       <c r="G5">
-        <v>-6.3293236570897138E-3</v>
+        <v>3.6537864040989243E-2</v>
       </c>
       <c r="H5">
-        <v>1.6073782914597601E-2</v>
+        <v>7.1527876722667028E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -829,25 +952,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C6">
-        <v>8236.17</v>
+        <v>12515.61</v>
       </c>
       <c r="D6">
-        <v>-101.7099999999991</v>
+        <v>282.70000000000073</v>
       </c>
       <c r="E6">
-        <v>-1.219854447413482E-2</v>
+        <v>2.3109791537745391E-2</v>
       </c>
       <c r="F6">
-        <v>3.6606780540888728E-3</v>
+        <v>4.7036983743482967E-2</v>
       </c>
       <c r="G6">
-        <v>-1.2122108794091591E-2</v>
+        <v>3.5569548611595669E-2</v>
       </c>
       <c r="H6">
-        <v>4.984156258407868E-3</v>
+        <v>8.7705953810645276E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -855,25 +978,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C7">
-        <v>23204.62</v>
+        <v>1517.84</v>
       </c>
       <c r="D7">
-        <v>-155.68000000000029</v>
+        <v>45.230000000000018</v>
       </c>
       <c r="E7">
-        <v>-6.6642979756252876E-3</v>
+        <v>3.0714174153373849E-2</v>
       </c>
       <c r="F7">
-        <v>-1.03426609771029E-5</v>
+        <v>0.228861038246057</v>
       </c>
       <c r="G7">
-        <v>-1.360783910157715E-2</v>
+        <v>3.5036536679676773E-2</v>
       </c>
       <c r="H7">
-        <v>2.397574902925537E-2</v>
+        <v>0.29565178428207523</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,25 +1004,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C8">
-        <v>5838.66</v>
+        <v>38697.050000000003</v>
       </c>
       <c r="D8">
-        <v>-70.239999999999782</v>
+        <v>1308.389999999999</v>
       </c>
       <c r="E8">
-        <v>-1.188715327725964E-2</v>
+        <v>3.4994300410873258E-2</v>
       </c>
       <c r="F8">
-        <v>-0.25124937963828592</v>
+        <v>-4.8666273484307743E-2</v>
       </c>
       <c r="G8">
-        <v>-1.484133799779319E-2</v>
+        <v>3.4676967560943517E-2</v>
       </c>
       <c r="H8">
-        <v>-0.21161962902118719</v>
+        <v>-7.4145279836666744E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -907,25 +1030,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C9">
-        <v>11797.08</v>
+        <v>11416.95</v>
       </c>
       <c r="D9">
-        <v>163.55999999999949</v>
+        <v>366.70000000000073</v>
       </c>
       <c r="E9">
-        <v>1.405937325934015E-2</v>
+        <v>3.3184769575349098E-2</v>
       </c>
       <c r="F9">
-        <v>1.4600097012897221E-2</v>
+        <v>-4.8036154272682818E-2</v>
       </c>
       <c r="G9">
-        <v>-1.7848680988626461E-2</v>
+        <v>3.2867991533862988E-2</v>
       </c>
       <c r="H9">
-        <v>-1.4687566046608369E-3</v>
+        <v>-7.3532036733759742E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,25 +1056,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C10">
-        <v>5964.9</v>
+        <v>3248.23</v>
       </c>
       <c r="D10">
-        <v>100.39999999999959</v>
+        <v>84.559999999999945</v>
       </c>
       <c r="E10">
-        <v>1.7119959075794888E-2</v>
+        <v>2.67284514503725E-2</v>
       </c>
       <c r="F10">
-        <v>-0.1144350253128851</v>
+        <v>-0.182172728600275</v>
       </c>
       <c r="G10">
-        <v>-1.8475768911487941E-2</v>
+        <v>3.0529733536680759E-2</v>
       </c>
       <c r="H10">
-        <v>-0.1000298216799875</v>
+        <v>-0.14154492878583819</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -959,25 +1082,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C11">
-        <v>17743.88</v>
+        <v>1697.39</v>
       </c>
       <c r="D11">
-        <v>-163.25</v>
+        <v>23.25</v>
       </c>
       <c r="E11">
-        <v>-9.1164804186935067E-3</v>
+        <v>1.388772743020295E-2</v>
       </c>
       <c r="F11">
-        <v>-0.1373228531742153</v>
+        <v>-0.21922105640832201</v>
       </c>
       <c r="G11">
-        <v>-2.1852044804170249E-2</v>
+        <v>2.8304585285561679E-2</v>
       </c>
       <c r="H11">
-        <v>-0.20119810424236481</v>
+        <v>-0.22739422008241009</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -985,25 +1108,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C12">
-        <v>16065.35</v>
+        <v>4317.41</v>
       </c>
       <c r="D12">
-        <v>-133.61999999999901</v>
+        <v>101.7600000000002</v>
       </c>
       <c r="E12">
-        <v>-8.2486726007887645E-3</v>
+        <v>2.4138626309110119E-2</v>
       </c>
       <c r="F12">
-        <v>-6.0806280096366898E-2</v>
+        <v>1.217685272666302E-2</v>
       </c>
       <c r="G12">
-        <v>-2.3193957374223469E-2</v>
+        <v>2.7930320021879011E-2</v>
       </c>
       <c r="H12">
-        <v>-8.6467855344337541E-2</v>
+        <v>6.2459497959321597E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1011,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C13">
-        <v>4945.79</v>
+        <v>5999.4</v>
       </c>
       <c r="D13">
-        <v>-113.43000000000031</v>
+        <v>160.73999999999981</v>
       </c>
       <c r="E13">
-        <v>-2.2420452164563009E-2</v>
+        <v>2.753028948423086E-2</v>
       </c>
       <c r="F13">
-        <v>-0.20960942244382649</v>
+        <v>-0.23063605830823031</v>
       </c>
       <c r="G13">
-        <v>-2.5819594323570502E-2</v>
+        <v>2.7848216245846439E-2</v>
       </c>
       <c r="H13">
-        <v>-0.25782775793913648</v>
+        <v>-0.1896646419661886</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1037,25 +1160,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C14">
-        <v>1472.61</v>
+        <v>4086.96</v>
       </c>
       <c r="D14">
-        <v>-18.75</v>
+        <v>91.360000000000127</v>
       </c>
       <c r="E14">
-        <v>-1.2572417122626359E-2</v>
+        <v>2.286515166683345E-2</v>
       </c>
       <c r="F14">
-        <v>0.1922423005926357</v>
+        <v>-0.21943505414541911</v>
       </c>
       <c r="G14">
-        <v>-2.764685887319052E-2</v>
+        <v>2.6652130563003858E-2</v>
       </c>
       <c r="H14">
-        <v>0.25179328300664011</v>
+        <v>-0.18065836196190951</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1063,25 +1186,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C15">
-        <v>259.64999999999998</v>
+        <v>553.12</v>
       </c>
       <c r="D15">
-        <v>-5.2300000000000182</v>
+        <v>12.21000000000004</v>
       </c>
       <c r="E15">
-        <v>-1.9744790093627399E-2</v>
+        <v>2.2573071305762579E-2</v>
       </c>
       <c r="F15">
-        <v>-0.22702509600785939</v>
+        <v>-8.9124563599235929E-2</v>
       </c>
       <c r="G15">
-        <v>-3.2223957774622607E-2</v>
+        <v>2.6358968825603402E-2</v>
       </c>
       <c r="H15">
-        <v>-0.2410096835591358</v>
+        <v>-4.3874342458236182E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1089,25 +1212,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C16">
-        <v>540.91</v>
+        <v>2327.89</v>
       </c>
       <c r="D16">
-        <v>-9.9400000000000546</v>
+        <v>49.099999999999909</v>
       </c>
       <c r="E16">
-        <v>-1.8044839793047159E-2</v>
+        <v>2.1546522496588061E-2</v>
       </c>
       <c r="F16">
-        <v>-0.10923193465516109</v>
+        <v>8.0192290737655769E-2</v>
       </c>
       <c r="G16">
-        <v>-3.2544968537280172E-2</v>
+        <v>2.5689683688412179E-2</v>
       </c>
       <c r="H16">
-        <v>-6.8429578166207095E-2</v>
+        <v>8.211357178307388E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1115,25 +1238,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C17">
-        <v>37388.660000000003</v>
+        <v>5902.12</v>
       </c>
       <c r="D17">
-        <v>-1457.159999999996</v>
+        <v>59.449999999999818</v>
       </c>
       <c r="E17">
-        <v>-3.7511371879908717E-2</v>
+        <v>1.017514252901486E-2</v>
       </c>
       <c r="F17">
-        <v>-8.0831917491689831E-2</v>
+        <v>-0.22087721475207711</v>
       </c>
       <c r="G17">
-        <v>-3.8801933801680948E-2</v>
+        <v>2.4486139469610309E-2</v>
       </c>
       <c r="H17">
-        <v>-0.1051750940722477</v>
+        <v>-0.2293545997474444</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1141,25 +1264,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C18">
-        <v>1474.91</v>
+        <v>4824.88</v>
       </c>
       <c r="D18">
-        <v>-61.869999999999891</v>
+        <v>95.220000000000255</v>
       </c>
       <c r="E18">
-        <v>-4.0259503637475658E-2</v>
+        <v>2.0132525382374311E-2</v>
       </c>
       <c r="F18">
-        <v>-0.1132414655555956</v>
+        <v>-0.19767060940303549</v>
       </c>
       <c r="G18">
-        <v>-4.0259503637475658E-2</v>
+        <v>2.3909387208808312E-2</v>
       </c>
       <c r="H18">
-        <v>-0.1132414655555956</v>
+        <v>-0.15781270907816311</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1167,25 +1290,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C19">
-        <v>11050.25</v>
+        <v>19064.310000000001</v>
       </c>
       <c r="D19">
-        <v>-454.70000000000073</v>
+        <v>365.95000000000073</v>
       </c>
       <c r="E19">
-        <v>-3.9522118740194512E-2</v>
+        <v>1.957123512436398E-2</v>
       </c>
       <c r="F19">
-        <v>-7.8612196230316678E-2</v>
+        <v>-0.19154931727653579</v>
       </c>
       <c r="G19">
-        <v>-4.0809984533143662E-2</v>
+        <v>2.3346018872022482E-2</v>
       </c>
       <c r="H19">
-        <v>-0.1030141597375025</v>
+        <v>-0.1513873250733192</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1193,25 +1316,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C20">
-        <v>36583.71</v>
+        <v>6754.5</v>
       </c>
       <c r="D20">
-        <v>566.36000000000058</v>
+        <v>126.1999999999998</v>
       </c>
       <c r="E20">
-        <v>1.5724643817493611E-2</v>
+        <v>1.9039572741125221E-2</v>
       </c>
       <c r="F20">
-        <v>-0.17780731897526261</v>
+        <v>-0.29647220573071281</v>
       </c>
       <c r="G20">
-        <v>-4.1428820398303527E-2</v>
+        <v>2.281238810202035E-2</v>
       </c>
       <c r="H20">
-        <v>-0.29641363543419758</v>
+        <v>-0.26152254412240639</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1219,25 +1342,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C21">
-        <v>12814.17</v>
+        <v>10005.9</v>
       </c>
       <c r="D21">
-        <v>-430.92000000000007</v>
+        <v>217.60999999999879</v>
       </c>
       <c r="E21">
-        <v>-3.2534320265094507E-2</v>
+        <v>2.2231666613882432E-2</v>
       </c>
       <c r="F21">
-        <v>0.1977796410073778</v>
+        <v>-3.8648521928948083E-2</v>
       </c>
       <c r="G21">
-        <v>-4.1546245554948458E-2</v>
+        <v>2.2091185553800852E-2</v>
       </c>
       <c r="H21">
-        <v>0.2217783724746496</v>
+        <v>-3.8780636477108943E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1245,25 +1368,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C22">
-        <v>5842.67</v>
+        <v>265.19</v>
       </c>
       <c r="D22">
-        <v>-164.38000000000011</v>
+        <v>3.54000000000002</v>
       </c>
       <c r="E22">
-        <v>-2.7364513363464571E-2</v>
+        <v>1.352952417351427E-2</v>
       </c>
       <c r="F22">
-        <v>-0.22872504732460849</v>
+        <v>-0.21053258313238679</v>
       </c>
       <c r="G22">
-        <v>-4.3743062431227719E-2</v>
+        <v>2.2065043395107509E-2</v>
       </c>
       <c r="H22">
-        <v>-0.2477737174155149</v>
+        <v>-0.2182872743648511</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1271,25 +1394,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C23">
-        <v>15126.81</v>
+        <v>12689.04</v>
       </c>
       <c r="D23">
-        <v>-552.07999999999993</v>
+        <v>219.84000000000009</v>
       </c>
       <c r="E23">
-        <v>-3.5211676336781461E-2</v>
+        <v>1.7630641901645649E-2</v>
       </c>
       <c r="F23">
-        <v>5.4796115746622583E-2</v>
+        <v>-3.3362560647947397E-2</v>
       </c>
       <c r="G23">
-        <v>-4.4198662103303699E-2</v>
+        <v>2.1398240943120369E-2</v>
       </c>
       <c r="H23">
-        <v>7.5930027083798812E-2</v>
+        <v>1.465779004532264E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,25 +1420,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C24">
-        <v>2896.83</v>
+        <v>3190.93</v>
       </c>
       <c r="D24">
-        <v>-54.960000000000043</v>
+        <v>53.869999999999891</v>
       </c>
       <c r="E24">
-        <v>-1.861921071620953E-2</v>
+        <v>1.717212931853385E-2</v>
       </c>
       <c r="F24">
-        <v>-5.9125588284013257E-2</v>
+        <v>-0.14965676398793351</v>
       </c>
       <c r="G24">
-        <v>-4.4982503536338703E-2</v>
+        <v>2.0938030797555521E-2</v>
       </c>
       <c r="H24">
-        <v>-0.24230605394441451</v>
+        <v>-0.1074136449646098</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1323,25 +1446,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C25">
-        <v>1244.94</v>
+        <v>3666.03</v>
       </c>
       <c r="D25">
-        <v>-43.450000000000053</v>
+        <v>76.990000000000236</v>
       </c>
       <c r="E25">
-        <v>-3.3724260511180597E-2</v>
+        <v>2.1451418763791971E-2</v>
       </c>
       <c r="F25">
-        <v>-0.20628626075868661</v>
+        <v>-0.2494395410685879</v>
       </c>
       <c r="G25">
-        <v>-4.5456866482253437E-2</v>
+        <v>1.9108102480930089E-2</v>
       </c>
       <c r="H25">
-        <v>-0.2414891262671354</v>
+        <v>-0.26933711345605532</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1349,25 +1472,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C26">
-        <v>23235.42</v>
+        <v>49896.68</v>
       </c>
       <c r="D26">
-        <v>-1219.9900000000021</v>
+        <v>348.94000000000233</v>
       </c>
       <c r="E26">
-        <v>-4.9886303276044153E-2</v>
+        <v>7.0425008284940027E-3</v>
       </c>
       <c r="F26">
-        <v>-0.17681344878639299</v>
+        <v>-2.1626243808531061E-2</v>
       </c>
       <c r="G26">
-        <v>-4.9898592085561799E-2</v>
+        <v>1.7244754880618721E-2</v>
       </c>
       <c r="H26">
-        <v>-0.17346759540369169</v>
+        <v>-0.16270888910710671</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1375,25 +1498,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C27">
-        <v>10216.280000000001</v>
+        <v>625.66999999999996</v>
       </c>
       <c r="D27">
-        <v>-322.88999999999942</v>
+        <v>7.7699999999999818</v>
       </c>
       <c r="E27">
-        <v>-3.0637137459591179E-2</v>
+        <v>1.25748502994012E-2</v>
       </c>
       <c r="F27">
-        <v>-4.2110898690251863E-2</v>
+        <v>-0.31999043571824498</v>
       </c>
       <c r="G27">
-        <v>-4.9935693585228542E-2</v>
+        <v>1.6323731158845781E-2</v>
       </c>
       <c r="H27">
-        <v>4.1327961448540673E-3</v>
+        <v>-0.28620910631569652</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1401,25 +1524,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C28">
-        <v>12232.91</v>
+        <v>248.66</v>
       </c>
       <c r="D28">
-        <v>-642.71000000000095</v>
+        <v>3.9000000000000061</v>
       </c>
       <c r="E28">
-        <v>-4.991681953956395E-2</v>
+        <v>1.5933976139892229E-2</v>
       </c>
       <c r="F28">
-        <v>2.3386729756319499E-2</v>
+        <v>0.39877369634921522</v>
       </c>
       <c r="G28">
-        <v>-5.4526960460674401E-2</v>
+        <v>1.60655054111285E-2</v>
       </c>
       <c r="H28">
-        <v>5.0345633732615802E-2</v>
+        <v>0.3981703484138408</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1427,25 +1550,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C29">
-        <v>2278.79</v>
+        <v>6386.07</v>
       </c>
       <c r="D29">
-        <v>-133.6100000000001</v>
+        <v>76.849999999999454</v>
       </c>
       <c r="E29">
-        <v>-5.5384679157685301E-2</v>
+        <v>1.218058650673126E-2</v>
       </c>
       <c r="F29">
-        <v>5.7408808066559118E-2</v>
+        <v>-0.1143546203943063</v>
       </c>
       <c r="G29">
-        <v>-5.5263426434895242E-2</v>
+        <v>1.5928007673605471E-2</v>
       </c>
       <c r="H29">
-        <v>5.5010681097775523E-2</v>
+        <v>-7.0357771123655932E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1453,25 +1576,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C30">
-        <v>18698.36</v>
+        <v>11822.84</v>
       </c>
       <c r="D30">
-        <v>-826.57999999999811</v>
+        <v>25.760000000000218</v>
       </c>
       <c r="E30">
-        <v>-4.2334573115205387E-2</v>
+        <v>2.183591193753109E-3</v>
       </c>
       <c r="F30">
-        <v>-0.2070679763490462</v>
+        <v>1.6815568849915641E-2</v>
       </c>
       <c r="G30">
-        <v>-5.6476025338750728E-2</v>
+        <v>1.5850383979203689E-2</v>
       </c>
       <c r="H30">
-        <v>-0.1707470794071593</v>
+        <v>1.435834701838723E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1479,25 +1602,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31">
-        <v>1171.3499999999999</v>
+        <v>3348.44</v>
       </c>
       <c r="D31">
-        <v>-35.200000000000053</v>
+        <v>49.980000000000018</v>
       </c>
       <c r="E31">
-        <v>-2.9174091417678572E-2</v>
+        <v>1.5152525724125839E-2</v>
       </c>
       <c r="F31">
-        <v>-0.30130809011685128</v>
+        <v>3.1469867047820843E-2</v>
       </c>
       <c r="G31">
-        <v>-5.7568581064659903E-2</v>
+        <v>1.5152525724125839E-2</v>
       </c>
       <c r="H31">
-        <v>-0.40511870140920669</v>
+        <v>3.1469867047820843E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1505,25 +1628,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32">
-        <v>6628.3</v>
+        <v>11075.02</v>
       </c>
       <c r="D32">
-        <v>-301.5</v>
+        <v>161.46000000000089</v>
       </c>
       <c r="E32">
-        <v>-4.3507749141389329E-2</v>
+        <v>1.4794439211403221E-2</v>
       </c>
       <c r="F32">
-        <v>-0.30961680675769981</v>
+        <v>0.22086277086293629</v>
       </c>
       <c r="G32">
-        <v>-5.7631877556161393E-2</v>
+        <v>1.4794439211403221E-2</v>
       </c>
       <c r="H32">
-        <v>-0.27799324248707258</v>
+        <v>0.22086277086293629</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1531,25 +1654,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C33">
-        <v>3137.06</v>
+        <v>12907.45</v>
       </c>
       <c r="D33">
-        <v>-146.63000000000011</v>
+        <v>93.280000000000655</v>
       </c>
       <c r="E33">
-        <v>-4.465403250611355E-2</v>
+        <v>7.2794414308534616E-3</v>
       </c>
       <c r="F33">
-        <v>-0.16401245030006509</v>
+        <v>0.20649880775115981</v>
       </c>
       <c r="G33">
-        <v>-5.8761234225004337E-2</v>
+        <v>1.291693641230318E-2</v>
       </c>
       <c r="H33">
-        <v>-0.12571935993205899</v>
+        <v>0.23756000602183211</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1557,25 +1680,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C34">
-        <v>96999.38</v>
+        <v>11051.3</v>
       </c>
       <c r="D34">
-        <v>-1290.330000000002</v>
+        <v>139.85999999999879</v>
       </c>
       <c r="E34">
-        <v>-1.31278238586725E-2</v>
+        <v>1.281773991333846E-2</v>
       </c>
       <c r="F34">
-        <v>-0.17007951544654451</v>
+        <v>-0.16358250344745121</v>
       </c>
       <c r="G34">
-        <v>-6.1607854984183863E-2</v>
+        <v>1.2856331584182531E-2</v>
       </c>
       <c r="H34">
-        <v>-0.38875398094712149</v>
+        <v>-0.1489486757595154</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1583,25 +1706,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C35">
-        <v>49547.74</v>
+        <v>2100.79</v>
       </c>
       <c r="D35">
-        <v>-851.42000000000553</v>
+        <v>17.769999999999978</v>
       </c>
       <c r="E35">
-        <v>-1.6893535527179541E-2</v>
+        <v>8.5308830448098671E-3</v>
       </c>
       <c r="F35">
-        <v>-2.8468256914121581E-2</v>
+        <v>-0.34406476954108051</v>
       </c>
       <c r="G35">
-        <v>-6.1696698039335973E-2</v>
+        <v>1.2264791824479371E-2</v>
       </c>
       <c r="H35">
-        <v>-0.17690299519789041</v>
+        <v>-0.31147939831873062</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1609,25 +1732,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C36">
-        <v>12469.2</v>
+        <v>16199.25</v>
       </c>
       <c r="D36">
-        <v>-647.04999999999927</v>
+        <v>133.89999999999961</v>
       </c>
       <c r="E36">
-        <v>-4.9331935576098267E-2</v>
+        <v>8.3347079273092817E-3</v>
       </c>
       <c r="F36">
-        <v>-5.0109735742923427E-2</v>
+        <v>-5.2978374753806852E-2</v>
       </c>
       <c r="G36">
-        <v>-6.3370060620700275E-2</v>
+        <v>1.1828363687626849E-2</v>
       </c>
       <c r="H36">
-        <v>-6.5992387959995513E-3</v>
+        <v>-7.5662264897012332E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1635,25 +1758,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C37">
-        <v>4729.66</v>
+        <v>15209.27</v>
       </c>
       <c r="D37">
-        <v>-248.52000000000041</v>
+        <v>82.460000000000946</v>
       </c>
       <c r="E37">
-        <v>-4.9921858992644008E-2</v>
+        <v>5.4512484786946036E-3</v>
       </c>
       <c r="F37">
-        <v>-0.21350474508571429</v>
+        <v>6.0546071467919349E-2</v>
       </c>
       <c r="G37">
-        <v>-6.3951272880325871E-2</v>
+        <v>1.10785115144012E-2</v>
       </c>
       <c r="H37">
-        <v>-0.17747868957657309</v>
+        <v>8.7849730277536509E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1661,25 +1784,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C38">
-        <v>3589.04</v>
+        <v>26.85</v>
       </c>
       <c r="D38">
-        <v>-140.59999999999991</v>
+        <v>0.19000000000000131</v>
       </c>
       <c r="E38">
-        <v>-3.7698008386868431E-2</v>
+        <v>7.1267816954239116E-3</v>
       </c>
       <c r="F38">
-        <v>-0.26520200065924299</v>
+        <v>-0.40780767534186152</v>
       </c>
       <c r="G38">
-        <v>-6.486573205019952E-2</v>
+        <v>1.08554920360131E-2</v>
       </c>
       <c r="H38">
-        <v>-0.28303691751129312</v>
+        <v>-0.3783889067837054</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1687,25 +1810,597 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C39">
-        <v>808.28</v>
+        <v>10252.4</v>
       </c>
       <c r="D39">
-        <v>-80.600000000000023</v>
+        <v>36.119999999998981</v>
       </c>
       <c r="E39">
-        <v>-9.067590675906767E-2</v>
+        <v>3.5355334818543138E-3</v>
       </c>
       <c r="F39">
-        <v>0.23343150569959259</v>
+        <v>-3.8724249700667901E-2</v>
       </c>
       <c r="G39">
-        <v>-9.0559184089245015E-2</v>
+        <v>9.899609665727338E-3</v>
       </c>
       <c r="H39">
-        <v>0.23063417193860941</v>
+        <v>1.4073318879243679E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>23459.05</v>
+      </c>
+      <c r="D40">
+        <v>223.63000000000099</v>
+      </c>
+      <c r="E40">
+        <v>9.6245301354569435E-3</v>
+      </c>
+      <c r="F40">
+        <v>-0.16889066501713479</v>
+      </c>
+      <c r="G40">
+        <v>9.6375888294362166E-3</v>
+      </c>
+      <c r="H40">
+        <v>-0.16550181593398719</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41">
+        <v>8295.0499999999993</v>
+      </c>
+      <c r="D41">
+        <v>58.8799999999992</v>
+      </c>
+      <c r="E41">
+        <v>7.1489539433984284E-3</v>
+      </c>
+      <c r="F41">
+        <v>1.0835802016297519E-2</v>
+      </c>
+      <c r="G41">
+        <v>7.0764247155676863E-3</v>
+      </c>
+      <c r="H41">
+        <v>1.209585098050869E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42">
+        <v>1145.03</v>
+      </c>
+      <c r="D42">
+        <v>20.8599999999999</v>
+      </c>
+      <c r="E42">
+        <v>1.8555912362009149E-2</v>
+      </c>
+      <c r="F42">
+        <v>2.773464496961742E-2</v>
+      </c>
+      <c r="G42">
+        <v>6.6373456454322799E-3</v>
+      </c>
+      <c r="H42">
+        <v>-0.20405100530019021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43">
+        <v>3218.05</v>
+      </c>
+      <c r="D43">
+        <v>-1.3699999999998911</v>
+      </c>
+      <c r="E43">
+        <v>-4.2554248901971459E-4</v>
+      </c>
+      <c r="F43">
+        <v>4.3665941279298133E-2</v>
+      </c>
+      <c r="G43">
+        <v>5.1688295948566498E-3</v>
+      </c>
+      <c r="H43">
+        <v>7.0535022725676244E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44">
+        <v>36642.379999999997</v>
+      </c>
+      <c r="D44">
+        <v>58.669999999998247</v>
+      </c>
+      <c r="E44">
+        <v>1.603719250999891E-3</v>
+      </c>
+      <c r="F44">
+        <v>-0.17648875274467199</v>
+      </c>
+      <c r="G44">
+        <v>4.1800623831611539E-3</v>
+      </c>
+      <c r="H44">
+        <v>-0.29347260053837099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45">
+        <v>476.17</v>
+      </c>
+      <c r="D45">
+        <v>-0.82999999999998408</v>
+      </c>
+      <c r="E45">
+        <v>-1.7400419287211259E-3</v>
+      </c>
+      <c r="F45">
+        <v>7.4487769654300928E-2</v>
+      </c>
+      <c r="G45">
+        <v>3.8469732254995388E-3</v>
+      </c>
+      <c r="H45">
+        <v>0.102150356171774</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46">
+        <v>17911.560000000001</v>
+      </c>
+      <c r="D46">
+        <v>167.68000000000029</v>
+      </c>
+      <c r="E46">
+        <v>9.4500188233914706E-3</v>
+      </c>
+      <c r="F46">
+        <v>-0.12917053789820199</v>
+      </c>
+      <c r="G46">
+        <v>3.561628122930038E-3</v>
+      </c>
+      <c r="H46">
+        <v>-0.19835306894578461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47">
+        <v>857.72</v>
+      </c>
+      <c r="D47">
+        <v>-6.2099999999999227</v>
+      </c>
+      <c r="E47">
+        <v>-7.1880823677843431E-3</v>
+      </c>
+      <c r="F47">
+        <v>-0.2331035469363304</v>
+      </c>
+      <c r="G47">
+        <v>-1.104553920930784E-3</v>
+      </c>
+      <c r="H47">
+        <v>-0.2449097507193416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48">
+        <v>1500.3</v>
+      </c>
+      <c r="D48">
+        <v>-8.8400000000001455</v>
+      </c>
+      <c r="E48">
+        <v>-5.8576407755411841E-3</v>
+      </c>
+      <c r="F48">
+        <v>-6.0997897055878207E-2</v>
+      </c>
+      <c r="G48">
+        <v>-2.625708648767211E-3</v>
+      </c>
+      <c r="H48">
+        <v>-7.2869767977037037E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49">
+        <v>3614.64</v>
+      </c>
+      <c r="D49">
+        <v>-12.360000000000131</v>
+      </c>
+      <c r="E49">
+        <v>-3.4077750206782391E-3</v>
+      </c>
+      <c r="F49">
+        <v>-8.5315768297404504E-2</v>
+      </c>
+      <c r="G49">
+        <v>-3.2259651073954791E-3</v>
+      </c>
+      <c r="H49">
+        <v>-8.527050088819621E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50">
+        <v>420.33</v>
+      </c>
+      <c r="D50">
+        <v>-2.25</v>
+      </c>
+      <c r="E50">
+        <v>-5.3244356098253176E-3</v>
+      </c>
+      <c r="F50">
+        <v>-0.26341890826250769</v>
+      </c>
+      <c r="G50">
+        <v>-3.5765003717636019E-3</v>
+      </c>
+      <c r="H50">
+        <v>-0.23014095381656929</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51">
+        <v>1165.01</v>
+      </c>
+      <c r="D51">
+        <v>-6.3399999999999181</v>
+      </c>
+      <c r="E51">
+        <v>-5.4125581593886807E-3</v>
+      </c>
+      <c r="F51">
+        <v>-0.30508980071458819</v>
+      </c>
+      <c r="G51">
+        <v>-5.4125581593886807E-3</v>
+      </c>
+      <c r="H51">
+        <v>-0.40833853103576201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52">
+        <v>4926.7299999999996</v>
+      </c>
+      <c r="D52">
+        <v>-19.0600000000004</v>
+      </c>
+      <c r="E52">
+        <v>-3.85378271216541E-3</v>
+      </c>
+      <c r="F52">
+        <v>-0.21265541598747081</v>
+      </c>
+      <c r="G52">
+        <v>-6.491598387149744E-3</v>
+      </c>
+      <c r="H52">
+        <v>-0.26264564206868601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53">
+        <v>23029.9</v>
+      </c>
+      <c r="D53">
+        <v>-174.7199999999975</v>
+      </c>
+      <c r="E53">
+        <v>-7.5295350667237138E-3</v>
+      </c>
+      <c r="F53">
+        <v>-7.5397998522722656E-3</v>
+      </c>
+      <c r="G53">
+        <v>-6.4930075024876022E-3</v>
+      </c>
+      <c r="H53">
+        <v>1.7327066808443089E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54">
+        <v>1237.54</v>
+      </c>
+      <c r="D54">
+        <v>-7.4000000000000909</v>
+      </c>
+      <c r="E54">
+        <v>-5.9440615611997538E-3</v>
+      </c>
+      <c r="F54">
+        <v>-0.21100414408670709</v>
+      </c>
+      <c r="G54">
+        <v>-8.051167513049351E-3</v>
+      </c>
+      <c r="H54">
+        <v>-0.24759602437202821</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55">
+        <v>1432.46</v>
+      </c>
+      <c r="D55">
+        <v>-17.93000000000006</v>
+      </c>
+      <c r="E55">
+        <v>-1.236219223794988E-2</v>
+      </c>
+      <c r="F55">
+        <v>-9.5743404897325357E-2</v>
+      </c>
+      <c r="G55">
+        <v>-1.2217114890939681E-2</v>
+      </c>
+      <c r="H55">
+        <v>-9.5941405418430437E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56">
+        <v>5791.5</v>
+      </c>
+      <c r="D56">
+        <v>-173.39999999999961</v>
+      </c>
+      <c r="E56">
+        <v>-2.907005985012312E-2</v>
+      </c>
+      <c r="F56">
+        <v>-0.14017845212821231</v>
+      </c>
+      <c r="G56">
+        <v>-1.4040596415475609E-2</v>
+      </c>
+      <c r="H56">
+        <v>-0.11266593973974259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57">
+        <v>1148.07</v>
+      </c>
+      <c r="D57">
+        <v>-16.610000000000131</v>
+      </c>
+      <c r="E57">
+        <v>-1.4261428031734139E-2</v>
+      </c>
+      <c r="F57">
+        <v>-0.26797589823700058</v>
+      </c>
+      <c r="G57">
+        <v>-1.4261428031734139E-2</v>
+      </c>
+      <c r="H57">
+        <v>-0.26797589823700058</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58">
+        <v>2852.42</v>
+      </c>
+      <c r="D58">
+        <v>-44.409999999999847</v>
+      </c>
+      <c r="E58">
+        <v>-1.53305509815902E-2</v>
+      </c>
+      <c r="F58">
+        <v>-7.3549711420098918E-2</v>
+      </c>
+      <c r="G58">
+        <v>-2.343462483685144E-2</v>
+      </c>
+      <c r="H58">
+        <v>-0.26006232731138079</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59">
+        <v>6567.83</v>
+      </c>
+      <c r="D59">
+        <v>-241.94999999999979</v>
+      </c>
+      <c r="E59">
+        <v>-3.5529782166237367E-2</v>
+      </c>
+      <c r="F59">
+        <v>-5.717123953322456E-2</v>
+      </c>
+      <c r="G59">
+        <v>-3.1339503511723432E-2</v>
+      </c>
+      <c r="H59">
+        <v>-4.8637354739823342E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60">
+        <v>40070.83</v>
+      </c>
+      <c r="D60">
+        <v>-1630.400000000001</v>
+      </c>
+      <c r="E60">
+        <v>-3.9097168117103509E-2</v>
+      </c>
+      <c r="F60">
+        <v>-2.9673645833131479E-2</v>
+      </c>
+      <c r="G60">
+        <v>-3.6773226389843261E-2</v>
+      </c>
+      <c r="H60">
+        <v>-9.3912286208754137E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61">
+        <v>94015.679999999993</v>
+      </c>
+      <c r="D61">
+        <v>-2983.7000000000121</v>
+      </c>
+      <c r="E61">
+        <v>-3.0759990424681138E-2</v>
+      </c>
+      <c r="F61">
+        <v>-0.1956078616046556</v>
+      </c>
+      <c r="G61">
+        <v>-4.8041939237804532E-2</v>
+      </c>
+      <c r="H61">
+        <v>-0.41811942505380989</v>
       </c>
     </row>
   </sheetData>
@@ -1715,83 +2410,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W191"/>
+  <dimension ref="A1:W196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W191"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -15245,13 +15940,13 @@
         <v>1760.75</v>
       </c>
       <c r="K191">
-        <v>195</v>
+        <v>194.7</v>
       </c>
       <c r="L191">
-        <v>149.9</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="M191">
-        <v>1050</v>
+        <v>1047.5</v>
       </c>
       <c r="N191">
         <v>2.9710000000000001</v>
@@ -15282,6 +15977,361 @@
       </c>
       <c r="W191">
         <v>607.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B192">
+        <v>1882.3</v>
+      </c>
+      <c r="C192">
+        <v>23.603999999999999</v>
+      </c>
+      <c r="D192">
+        <v>891.7</v>
+      </c>
+      <c r="E192">
+        <v>2279.65</v>
+      </c>
+      <c r="F192">
+        <v>40.6</v>
+      </c>
+      <c r="G192">
+        <v>42.43</v>
+      </c>
+      <c r="H192">
+        <v>2.101</v>
+      </c>
+      <c r="I192">
+        <v>1.1395</v>
+      </c>
+      <c r="J192">
+        <v>1752.75</v>
+      </c>
+      <c r="K192">
+        <v>195.3</v>
+      </c>
+      <c r="L192">
+        <v>149.5</v>
+      </c>
+      <c r="M192">
+        <v>1054.5</v>
+      </c>
+      <c r="N192">
+        <v>2.99</v>
+      </c>
+      <c r="O192">
+        <v>366.75</v>
+      </c>
+      <c r="P192">
+        <v>994.38</v>
+      </c>
+      <c r="Q192">
+        <v>65.819999999999993</v>
+      </c>
+      <c r="R192">
+        <v>2587</v>
+      </c>
+      <c r="S192">
+        <v>109.55</v>
+      </c>
+      <c r="T192">
+        <v>12.59</v>
+      </c>
+      <c r="U192">
+        <v>107.95</v>
+      </c>
+      <c r="V192">
+        <v>72.7</v>
+      </c>
+      <c r="W192">
+        <v>578.6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B193">
+        <v>1903.2</v>
+      </c>
+      <c r="C193">
+        <v>24.445</v>
+      </c>
+      <c r="D193">
+        <v>892</v>
+      </c>
+      <c r="E193">
+        <v>2329.8000000000002</v>
+      </c>
+      <c r="F193">
+        <v>39.29</v>
+      </c>
+      <c r="G193">
+        <v>41.03</v>
+      </c>
+      <c r="H193">
+        <v>2.5609999999999999</v>
+      </c>
+      <c r="I193">
+        <v>1.109</v>
+      </c>
+      <c r="J193">
+        <v>1777.75</v>
+      </c>
+      <c r="K193">
+        <v>200.95</v>
+      </c>
+      <c r="L193">
+        <v>150.05000000000001</v>
+      </c>
+      <c r="M193">
+        <v>1065</v>
+      </c>
+      <c r="N193">
+        <v>2.99</v>
+      </c>
+      <c r="O193">
+        <v>364.75</v>
+      </c>
+      <c r="P193">
+        <v>991.38</v>
+      </c>
+      <c r="Q193">
+        <v>65.260000000000005</v>
+      </c>
+      <c r="R193">
+        <v>2588</v>
+      </c>
+      <c r="S193">
+        <v>109.55</v>
+      </c>
+      <c r="T193">
+        <v>12.99</v>
+      </c>
+      <c r="U193">
+        <v>108.9</v>
+      </c>
+      <c r="V193">
+        <v>72.38</v>
+      </c>
+      <c r="W193">
+        <v>602.20000000000005</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B194">
+        <v>1895.5</v>
+      </c>
+      <c r="C194">
+        <v>23.494</v>
+      </c>
+      <c r="D194">
+        <v>903.3</v>
+      </c>
+      <c r="E194">
+        <v>2325.9499999999998</v>
+      </c>
+      <c r="F194">
+        <v>40.22</v>
+      </c>
+      <c r="G194">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="H194">
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="I194">
+        <v>1.1454</v>
+      </c>
+      <c r="J194">
+        <v>1739.75</v>
+      </c>
+      <c r="K194">
+        <v>197.65</v>
+      </c>
+      <c r="L194">
+        <v>150</v>
+      </c>
+      <c r="M194">
+        <v>1056.9000000000001</v>
+      </c>
+      <c r="N194">
+        <v>3.0325000000000002</v>
+      </c>
+      <c r="O194">
+        <v>379</v>
+      </c>
+      <c r="P194">
+        <v>1023.38</v>
+      </c>
+      <c r="Q194">
+        <v>65.81</v>
+      </c>
+      <c r="R194">
+        <v>2546</v>
+      </c>
+      <c r="S194">
+        <v>110.95</v>
+      </c>
+      <c r="T194">
+        <v>13.07</v>
+      </c>
+      <c r="U194">
+        <v>108.55</v>
+      </c>
+      <c r="V194">
+        <v>72.8</v>
+      </c>
+      <c r="W194">
+        <v>612.20000000000005</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B195">
+        <v>1916.3</v>
+      </c>
+      <c r="C195">
+        <v>24.254000000000001</v>
+      </c>
+      <c r="D195">
+        <v>904.05</v>
+      </c>
+      <c r="E195">
+        <v>2333</v>
+      </c>
+      <c r="F195">
+        <v>38.72</v>
+      </c>
+      <c r="G195">
+        <v>40.93</v>
+      </c>
+      <c r="H195">
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="I195">
+        <v>1.125</v>
+      </c>
+      <c r="J195">
+        <v>1737.5</v>
+      </c>
+      <c r="K195">
+        <v>183.95</v>
+      </c>
+      <c r="L195">
+        <v>143.35</v>
+      </c>
+      <c r="M195">
+        <v>1047.5999999999999</v>
+      </c>
+      <c r="N195">
+        <v>2.8654999999999999</v>
+      </c>
+      <c r="O195">
+        <v>382.75</v>
+      </c>
+      <c r="P195">
+        <v>1024.25</v>
+      </c>
+      <c r="Q195">
+        <v>65.92</v>
+      </c>
+      <c r="R195">
+        <v>2508</v>
+      </c>
+      <c r="S195">
+        <v>107.05</v>
+      </c>
+      <c r="T195">
+        <v>13.58</v>
+      </c>
+      <c r="U195">
+        <v>108.52500000000001</v>
+      </c>
+      <c r="V195">
+        <v>74.150000000000006</v>
+      </c>
+      <c r="W195">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B196">
+        <v>1907.6</v>
+      </c>
+      <c r="C196">
+        <v>24.029</v>
+      </c>
+      <c r="D196">
+        <v>887.55</v>
+      </c>
+      <c r="E196">
+        <v>2310.4</v>
+      </c>
+      <c r="F196">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="G196">
+        <v>39.270000000000003</v>
+      </c>
+      <c r="H196">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="I196">
+        <v>1.085</v>
+      </c>
+      <c r="J196">
+        <v>1760</v>
+      </c>
+      <c r="K196">
+        <v>183.95</v>
+      </c>
+      <c r="L196">
+        <v>143.35</v>
+      </c>
+      <c r="M196">
+        <v>1047.5999999999999</v>
+      </c>
+      <c r="N196">
+        <v>2.9775</v>
+      </c>
+      <c r="O196">
+        <v>379.75</v>
+      </c>
+      <c r="P196">
+        <v>1019.88</v>
+      </c>
+      <c r="Q196">
+        <v>65.819999999999993</v>
+      </c>
+      <c r="R196">
+        <v>2482</v>
+      </c>
+      <c r="S196">
+        <v>108.95</v>
+      </c>
+      <c r="T196">
+        <v>13.55</v>
+      </c>
+      <c r="U196">
+        <v>108.175</v>
+      </c>
+      <c r="V196">
+        <v>74.5</v>
+      </c>
+      <c r="W196">
+        <v>603</v>
       </c>
     </row>
   </sheetData>

--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Equities" sheetId="1" r:id="rId1"/>
@@ -41,337 +41,337 @@
     <t>Indices</t>
   </si>
   <si>
+    <t>S&amp;P/BMV IPC</t>
+  </si>
+  <si>
+    <t>SmallCap 2000</t>
+  </si>
+  <si>
+    <t>ATX</t>
+  </si>
+  <si>
+    <t>S&amp;P/ASX 200</t>
+  </si>
+  <si>
+    <t>ISEQ Overall</t>
+  </si>
+  <si>
+    <t>BSE Sensex</t>
+  </si>
+  <si>
+    <t>Nasdaq</t>
+  </si>
+  <si>
+    <t>Bovespa</t>
+  </si>
+  <si>
+    <t>BEL 20</t>
+  </si>
+  <si>
+    <t>Athens General Composite</t>
+  </si>
+  <si>
+    <t>Nifty 50</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Taiwan Weighted</t>
+  </si>
+  <si>
     <t>KOSDAQ</t>
+  </si>
+  <si>
+    <t>KOSPI</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>IDX Composite</t>
+  </si>
+  <si>
+    <t>OMXC25</t>
+  </si>
+  <si>
+    <t>IBEX 35</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>FTSE MIB</t>
+  </si>
+  <si>
+    <t>SZSE Component</t>
+  </si>
+  <si>
+    <t>S&amp;P/TSX</t>
+  </si>
+  <si>
+    <t>NZX 50</t>
+  </si>
+  <si>
+    <t>Cyprus Main Market</t>
+  </si>
+  <si>
+    <t>Hang Seng</t>
+  </si>
+  <si>
+    <t>EGX 30</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50</t>
+  </si>
+  <si>
+    <t>AEX</t>
+  </si>
+  <si>
+    <t>CAC 40</t>
+  </si>
+  <si>
+    <t>Karachi 100</t>
+  </si>
+  <si>
+    <t>OMX Helsinki 25</t>
+  </si>
+  <si>
+    <t>PSI 20</t>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>COLCAP</t>
+  </si>
+  <si>
+    <t>HNX 30</t>
+  </si>
+  <si>
+    <t>Nikkei 225</t>
+  </si>
+  <si>
+    <t>S&amp;P Lima General</t>
+  </si>
+  <si>
+    <t>KLCI</t>
+  </si>
+  <si>
+    <t>OMXS30</t>
+  </si>
+  <si>
+    <t>DJ Shanghai</t>
+  </si>
+  <si>
+    <t>Bahrain All Share</t>
+  </si>
+  <si>
+    <t>FTSE Singapore</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>China A50</t>
+  </si>
+  <si>
+    <t>Tunindex</t>
+  </si>
+  <si>
+    <t>RTSI</t>
+  </si>
+  <si>
+    <t>Tadawul All Share</t>
   </si>
   <si>
     <t>Budapest SE</t>
   </si>
   <si>
-    <t>SmallCap 2000</t>
+    <t>FTSE/JSE Top 40</t>
   </si>
   <si>
-    <t>OMXS30</t>
+    <t>SMI</t>
   </si>
   <si>
-    <t>Taiwan Weighted</t>
+    <t>PX</t>
   </si>
   <si>
-    <t>OMXC25</t>
+    <t>BSE SOFIX</t>
   </si>
   <si>
-    <t>BSE Sensex</t>
-  </si>
-  <si>
-    <t>Nifty 50</t>
-  </si>
-  <si>
-    <t>BEL 20</t>
+    <t>QE General</t>
   </si>
   <si>
     <t>WIG20</t>
   </si>
   <si>
-    <t>OMX Helsinki 25</t>
+    <t>MSM 30</t>
+  </si>
+  <si>
+    <t>BIST 100</t>
+  </si>
+  <si>
+    <t>MOEX</t>
+  </si>
+  <si>
+    <t>S&amp;P CLX IPSA</t>
   </si>
   <si>
     <t>PSEi Composite</t>
   </si>
   <si>
-    <t>PSI 20</t>
+    <t>Mexico</t>
   </si>
   <si>
-    <t>AEX</t>
+    <t>United States</t>
   </si>
   <si>
-    <t>KOSPI</t>
+    <t>Austria</t>
   </si>
   <si>
-    <t>FTSE 100</t>
+    <t>Australia</t>
   </si>
   <si>
-    <t>CAC 40</t>
+    <t>Ireland</t>
   </si>
   <si>
-    <t>FTSE MIB</t>
+    <t>India</t>
   </si>
   <si>
-    <t>IBEX 35</t>
+    <t>Brazil</t>
   </si>
   <si>
-    <t>QE General</t>
+    <t>Belgium</t>
   </si>
   <si>
-    <t>FTSE Singapore</t>
+    <t>Greece</t>
   </si>
   <si>
-    <t>DAX</t>
-  </si>
-  <si>
-    <t>Euro Stoxx 50</t>
-  </si>
-  <si>
-    <t>S&amp;P CLX IPSA</t>
-  </si>
-  <si>
-    <t>FTSE/JSE Top 40</t>
-  </si>
-  <si>
-    <t>Athens General Composite</t>
-  </si>
-  <si>
-    <t>HNX 30</t>
-  </si>
-  <si>
-    <t>ISEQ Overall</t>
-  </si>
-  <si>
-    <t>NZX 50</t>
-  </si>
-  <si>
-    <t>S&amp;P 500</t>
-  </si>
-  <si>
-    <t>Nasdaq</t>
-  </si>
-  <si>
-    <t>SZSE Component</t>
-  </si>
-  <si>
-    <t>EGX 30</t>
-  </si>
-  <si>
-    <t>ATX</t>
-  </si>
-  <si>
-    <t>S&amp;P/TSX</t>
-  </si>
-  <si>
-    <t>China A50</t>
-  </si>
-  <si>
-    <t>Cyprus Main Market</t>
-  </si>
-  <si>
-    <t>SMI</t>
-  </si>
-  <si>
-    <t>Hang Seng</t>
-  </si>
-  <si>
-    <t>Tadawul All Share</t>
-  </si>
-  <si>
-    <t>BIST 100</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>S&amp;P/BMV IPC</t>
-  </si>
-  <si>
-    <t>DJ Shanghai</t>
-  </si>
-  <si>
-    <t>S&amp;P Lima General</t>
-  </si>
-  <si>
-    <t>PX</t>
-  </si>
-  <si>
-    <t>KLCI</t>
-  </si>
-  <si>
-    <t>MSM 30</t>
-  </si>
-  <si>
-    <t>BSE SOFIX</t>
-  </si>
-  <si>
-    <t>COLCAP</t>
-  </si>
-  <si>
-    <t>IDX Composite</t>
-  </si>
-  <si>
-    <t>Nikkei 225</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>Bahrain All Share</t>
-  </si>
-  <si>
-    <t>S&amp;P/ASX 200</t>
-  </si>
-  <si>
-    <t>RTSI</t>
-  </si>
-  <si>
-    <t>MOEX</t>
-  </si>
-  <si>
-    <t>Tunindex</t>
-  </si>
-  <si>
-    <t>Karachi 100</t>
-  </si>
-  <si>
-    <t>Bovespa</t>
+    <t>Taiwan</t>
   </si>
   <si>
     <t>South Korea</t>
   </si>
   <si>
-    <t>Hungary</t>
+    <t>Thailand</t>
   </si>
   <si>
-    <t>United States</t>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Sweden</t>
   </si>
   <si>
-    <t>Taiwan</t>
+    <t>Bahrain</t>
   </si>
   <si>
-    <t>Denmark</t>
+    <t>Singapore</t>
   </si>
   <si>
-    <t>India</t>
+    <t>Tunisia</t>
   </si>
   <si>
-    <t>Belgium</t>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Qatar</t>
   </si>
   <si>
     <t>Poland</t>
   </si>
   <si>
-    <t>Finland</t>
+    <t>Oman</t>
   </si>
   <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Germany</t>
+    <t>Turkey</t>
   </si>
   <si>
     <t>Chile</t>
   </si>
   <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Brazil</t>
+    <t>Philippines</t>
   </si>
   <si>
     <t>Date</t>
@@ -813,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -851,22 +851,22 @@
         <v>68</v>
       </c>
       <c r="C2">
-        <v>848.15</v>
+        <v>38478.58</v>
       </c>
       <c r="D2">
-        <v>39.869999999999997</v>
+        <v>1836.2000000000039</v>
       </c>
       <c r="E2">
-        <v>4.9326965902904973E-2</v>
+        <v>5.0111373769935463E-2</v>
       </c>
       <c r="F2">
-        <v>0.29427293952480521</v>
+        <v>-0.13522147282971461</v>
       </c>
       <c r="G2">
-        <v>5.3582798277566068E-2</v>
+        <v>7.4146673934296858E-2</v>
       </c>
       <c r="H2">
-        <v>0.2965749945270757</v>
+        <v>-0.23285573820502861</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -877,22 +877,22 @@
         <v>69</v>
       </c>
       <c r="C3">
-        <v>33449.839999999997</v>
+        <v>1637.55</v>
       </c>
       <c r="D3">
-        <v>1516.5799999999981</v>
+        <v>98.25</v>
       </c>
       <c r="E3">
-        <v>4.7492175869297437E-2</v>
+        <v>6.3827713895926674E-2</v>
       </c>
       <c r="F3">
-        <v>-0.25099039919603688</v>
+        <v>-1.5457595324844029E-2</v>
       </c>
       <c r="G3">
-        <v>5.0258574559483023E-2</v>
+        <v>6.3827713895926674E-2</v>
       </c>
       <c r="H3">
-        <v>-0.28630977002555758</v>
+        <v>-1.5457595324844029E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -903,22 +903,22 @@
         <v>70</v>
       </c>
       <c r="C4">
-        <v>1539.3</v>
+        <v>2214.62</v>
       </c>
       <c r="D4">
-        <v>64.389999999999873</v>
+        <v>113.8299999999999</v>
       </c>
       <c r="E4">
-        <v>4.3656901099049961E-2</v>
+        <v>5.4184378257702948E-2</v>
       </c>
       <c r="F4">
-        <v>-7.4528335918617628E-2</v>
+        <v>-0.30852332690134082</v>
       </c>
       <c r="G4">
-        <v>4.3656901099049961E-2</v>
+        <v>5.6164162172840593E-2</v>
       </c>
       <c r="H4">
-        <v>-7.4528335918617628E-2</v>
+        <v>-0.27104126939411333</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -929,22 +929,22 @@
         <v>71</v>
       </c>
       <c r="C5">
-        <v>1813.69</v>
+        <v>6102.2</v>
       </c>
       <c r="D5">
-        <v>29.82000000000016</v>
+        <v>310.69999999999982</v>
       </c>
       <c r="E5">
-        <v>1.6716464764809261E-2</v>
+        <v>5.3647586980920307E-2</v>
       </c>
       <c r="F5">
-        <v>1.5941923449639631E-2</v>
+        <v>-9.4051100850691127E-2</v>
       </c>
       <c r="G5">
-        <v>3.6537864040989243E-2</v>
+        <v>5.2929147142470427E-2</v>
       </c>
       <c r="H5">
-        <v>7.1527876722667028E-2</v>
+        <v>-6.3552569311414397E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -955,22 +955,22 @@
         <v>72</v>
       </c>
       <c r="C6">
-        <v>12515.61</v>
+        <v>6688.07</v>
       </c>
       <c r="D6">
-        <v>282.70000000000073</v>
+        <v>302</v>
       </c>
       <c r="E6">
-        <v>2.3109791537745391E-2</v>
+        <v>4.7290430577804583E-2</v>
       </c>
       <c r="F6">
-        <v>4.7036983743482967E-2</v>
+        <v>-7.2472069053509891E-2</v>
       </c>
       <c r="G6">
-        <v>3.5569548611595669E-2</v>
+        <v>4.9257267491440437E-2</v>
       </c>
       <c r="H6">
-        <v>8.7705953810645276E-2</v>
+        <v>-2.2194660429581289E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -981,22 +981,22 @@
         <v>73</v>
       </c>
       <c r="C7">
-        <v>1517.84</v>
+        <v>40509.49</v>
       </c>
       <c r="D7">
-        <v>45.230000000000018</v>
+        <v>1812.4399999999951</v>
       </c>
       <c r="E7">
-        <v>3.0714174153373849E-2</v>
+        <v>4.6836645170626579E-2</v>
       </c>
       <c r="F7">
-        <v>0.228861038246057</v>
+        <v>-4.1089932966422724E-3</v>
       </c>
       <c r="G7">
-        <v>3.5036536679676773E-2</v>
+        <v>4.592951796465039E-2</v>
       </c>
       <c r="H7">
-        <v>0.29565178428207523</v>
+        <v>-2.5166867004336679E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1004,25 +1004,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C8">
-        <v>38697.050000000003</v>
+        <v>11579.94</v>
       </c>
       <c r="D8">
-        <v>1308.389999999999</v>
+        <v>504.92000000000007</v>
       </c>
       <c r="E8">
-        <v>3.4994300410873258E-2</v>
+        <v>4.559088832345215E-2</v>
       </c>
       <c r="F8">
-        <v>-4.8666273484307743E-2</v>
+        <v>0.27652298910760892</v>
       </c>
       <c r="G8">
-        <v>3.4676967560943517E-2</v>
+        <v>4.559088832345215E-2</v>
       </c>
       <c r="H8">
-        <v>-7.4145279836666744E-2</v>
+        <v>0.27652298910760892</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1033,22 +1033,22 @@
         <v>74</v>
       </c>
       <c r="C9">
-        <v>11416.95</v>
+        <v>97483.31</v>
       </c>
       <c r="D9">
-        <v>366.70000000000073</v>
+        <v>3467.6300000000051</v>
       </c>
       <c r="E9">
-        <v>3.3184769575349098E-2</v>
+        <v>3.6883528364630269E-2</v>
       </c>
       <c r="F9">
-        <v>-4.8036154272682818E-2</v>
+        <v>-0.1659390413518653</v>
       </c>
       <c r="G9">
-        <v>3.2867991533862988E-2</v>
+        <v>4.4921511541071928E-2</v>
       </c>
       <c r="H9">
-        <v>-7.3532036733759742E-2</v>
+        <v>-0.3956014701914472</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1059,22 +1059,22 @@
         <v>75</v>
       </c>
       <c r="C10">
-        <v>3248.23</v>
+        <v>3387.35</v>
       </c>
       <c r="D10">
-        <v>84.559999999999945</v>
+        <v>139.11999999999989</v>
       </c>
       <c r="E10">
-        <v>2.67284514503725E-2</v>
+        <v>4.2829479439571598E-2</v>
       </c>
       <c r="F10">
-        <v>-0.182172728600275</v>
+        <v>-0.14714561229473941</v>
       </c>
       <c r="G10">
-        <v>3.0529733536680759E-2</v>
+        <v>4.4787938578416009E-2</v>
       </c>
       <c r="H10">
-        <v>-0.14154492878583819</v>
+        <v>-0.1009159440370818</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1085,22 +1085,22 @@
         <v>76</v>
       </c>
       <c r="C11">
-        <v>1697.39</v>
+        <v>651.47</v>
       </c>
       <c r="D11">
-        <v>23.25</v>
+        <v>25.800000000000072</v>
       </c>
       <c r="E11">
-        <v>1.388772743020295E-2</v>
+        <v>4.1235795227516192E-2</v>
       </c>
       <c r="F11">
-        <v>-0.21922105640832201</v>
+        <v>-0.29194970057276998</v>
       </c>
       <c r="G11">
-        <v>2.8304585285561679E-2</v>
+        <v>4.3191261388629172E-2</v>
       </c>
       <c r="H11">
-        <v>-0.22739422008241009</v>
+        <v>-0.25356925612160292</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1108,25 +1108,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C12">
-        <v>4317.41</v>
+        <v>11914.2</v>
       </c>
       <c r="D12">
-        <v>101.7600000000002</v>
+        <v>497.25</v>
       </c>
       <c r="E12">
-        <v>2.4138626309110119E-2</v>
+        <v>4.3553663631705541E-2</v>
       </c>
       <c r="F12">
-        <v>1.217685272666302E-2</v>
+        <v>-6.5746411463304399E-3</v>
       </c>
       <c r="G12">
-        <v>2.7930320021879011E-2</v>
+        <v>4.2649381264878272E-2</v>
       </c>
       <c r="H12">
-        <v>6.2459497959321597E-2</v>
+        <v>-2.7580379328473459E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C13">
-        <v>5999.4</v>
+        <v>3477.13</v>
       </c>
       <c r="D13">
-        <v>160.73999999999981</v>
+        <v>128.69000000000011</v>
       </c>
       <c r="E13">
-        <v>2.753028948423086E-2</v>
+        <v>3.8432822448662751E-2</v>
       </c>
       <c r="F13">
-        <v>-0.23063605830823031</v>
+        <v>7.1112165309215492E-2</v>
       </c>
       <c r="G13">
-        <v>2.7848216245846439E-2</v>
+        <v>3.8432822448662751E-2</v>
       </c>
       <c r="H13">
-        <v>-0.1896646419661886</v>
+        <v>7.1112165309215492E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1160,25 +1160,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14">
-        <v>4086.96</v>
+        <v>12887.19</v>
       </c>
       <c r="D14">
-        <v>91.360000000000127</v>
+        <v>371.57999999999993</v>
       </c>
       <c r="E14">
-        <v>2.286515166683345E-2</v>
+        <v>2.9689323972223569E-2</v>
       </c>
       <c r="F14">
-        <v>-0.21943505414541911</v>
+        <v>7.8122803964743026E-2</v>
       </c>
       <c r="G14">
-        <v>2.6652130563003858E-2</v>
+        <v>3.8151473925657653E-2</v>
       </c>
       <c r="H14">
-        <v>-0.18065836196190951</v>
+        <v>0.13096376763094561</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1186,25 +1186,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15">
-        <v>553.12</v>
+        <v>871.62</v>
       </c>
       <c r="D15">
-        <v>12.21000000000004</v>
+        <v>23.470000000000031</v>
       </c>
       <c r="E15">
-        <v>2.2573071305762579E-2</v>
+        <v>2.7671991982550329E-2</v>
       </c>
       <c r="F15">
-        <v>-8.9124563599235929E-2</v>
+        <v>0.3300880499305674</v>
       </c>
       <c r="G15">
-        <v>2.6358968825603402E-2</v>
+        <v>3.8052698295533149E-2</v>
       </c>
       <c r="H15">
-        <v>-4.3874342458236182E-2</v>
+        <v>0.34799812456720858</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1212,25 +1212,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C16">
-        <v>2327.89</v>
+        <v>2391.96</v>
       </c>
       <c r="D16">
-        <v>49.099999999999909</v>
+        <v>64.070000000000164</v>
       </c>
       <c r="E16">
-        <v>2.1546522496588061E-2</v>
+        <v>2.7522778138142408E-2</v>
       </c>
       <c r="F16">
-        <v>8.0192290737655769E-2</v>
+        <v>0.10992218350216</v>
       </c>
       <c r="G16">
-        <v>2.5689683688412179E-2</v>
+        <v>3.7901977214274803E-2</v>
       </c>
       <c r="H16">
-        <v>8.211357178307388E-2</v>
+        <v>0.1248676520735266</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1238,25 +1238,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C17">
-        <v>5902.12</v>
+        <v>1267.1400000000001</v>
       </c>
       <c r="D17">
-        <v>59.449999999999818</v>
+        <v>29.60000000000014</v>
       </c>
       <c r="E17">
-        <v>1.017514252901486E-2</v>
+        <v>2.3918418798584359E-2</v>
       </c>
       <c r="F17">
-        <v>-0.22087721475207711</v>
+        <v>-0.1921326107746254</v>
       </c>
       <c r="G17">
-        <v>2.4486139469610309E-2</v>
+        <v>3.7058211349168868E-2</v>
       </c>
       <c r="H17">
-        <v>-0.2293545997474444</v>
+        <v>-0.21872460933319471</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1264,25 +1264,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18">
-        <v>4824.88</v>
+        <v>5053.66</v>
       </c>
       <c r="D18">
-        <v>95.220000000000255</v>
+        <v>126.93000000000031</v>
       </c>
       <c r="E18">
-        <v>2.0132525382374311E-2</v>
+        <v>2.5763538899026491E-2</v>
       </c>
       <c r="F18">
-        <v>-0.19767060940303549</v>
+        <v>-0.19237063317032629</v>
       </c>
       <c r="G18">
-        <v>2.3909387208808312E-2</v>
+        <v>3.5589889358763172E-2</v>
       </c>
       <c r="H18">
-        <v>-0.15781270907816311</v>
+        <v>-0.23323915084874719</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1290,25 +1290,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19">
-        <v>19064.310000000001</v>
+        <v>1565.08</v>
       </c>
       <c r="D19">
-        <v>365.95000000000073</v>
+        <v>47.240000000000009</v>
       </c>
       <c r="E19">
-        <v>1.957123512436398E-2</v>
+        <v>3.1123175038212159E-2</v>
       </c>
       <c r="F19">
-        <v>-0.19154931727653579</v>
+        <v>0.26710709543702832</v>
       </c>
       <c r="G19">
-        <v>2.3346018872022482E-2</v>
+        <v>3.3218010729215708E-2</v>
       </c>
       <c r="H19">
-        <v>-0.1513873250733192</v>
+        <v>0.34129311888694408</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1316,25 +1316,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20">
-        <v>6754.5</v>
+        <v>6950.9</v>
       </c>
       <c r="D20">
-        <v>126.1999999999998</v>
+        <v>196.39999999999961</v>
       </c>
       <c r="E20">
-        <v>1.9039572741125221E-2</v>
+        <v>2.90769116885039E-2</v>
       </c>
       <c r="F20">
-        <v>-0.29647220573071281</v>
+        <v>-0.27601579018633671</v>
       </c>
       <c r="G20">
-        <v>2.281238810202035E-2</v>
+        <v>3.1009543170453568E-2</v>
       </c>
       <c r="H20">
-        <v>-0.26152254412240639</v>
+        <v>-0.23677163511606361</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1342,25 +1342,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21">
-        <v>10005.9</v>
+        <v>13051.23</v>
       </c>
       <c r="D21">
-        <v>217.60999999999879</v>
+        <v>362.18999999999869</v>
       </c>
       <c r="E21">
-        <v>2.2231666613882432E-2</v>
+        <v>2.8543530479847149E-2</v>
       </c>
       <c r="F21">
-        <v>-3.8648521928948083E-2</v>
+        <v>-5.7713154348407736E-3</v>
       </c>
       <c r="G21">
-        <v>2.2091185553800852E-2</v>
+        <v>3.0475160258907511E-2</v>
       </c>
       <c r="H21">
-        <v>-3.8780636477108943E-2</v>
+        <v>4.8121661985800701E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1368,25 +1368,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22">
-        <v>265.19</v>
+        <v>19595.38</v>
       </c>
       <c r="D22">
-        <v>3.54000000000002</v>
+        <v>531.06999999999971</v>
       </c>
       <c r="E22">
-        <v>1.352952417351427E-2</v>
+        <v>2.7856764813413148E-2</v>
       </c>
       <c r="F22">
-        <v>-0.21053258313238679</v>
+        <v>-0.16902849674466491</v>
       </c>
       <c r="G22">
-        <v>2.2065043395107509E-2</v>
+        <v>2.9787104829839931E-2</v>
       </c>
       <c r="H22">
-        <v>-0.2182872743648511</v>
+        <v>-0.123985008101282</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,25 +1394,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23">
-        <v>12689.04</v>
+        <v>13289.26</v>
       </c>
       <c r="D23">
-        <v>219.84000000000009</v>
+        <v>381.80999999999949</v>
       </c>
       <c r="E23">
-        <v>1.7630641901645649E-2</v>
+        <v>2.958059105400368E-2</v>
       </c>
       <c r="F23">
-        <v>-3.3362560647947397E-2</v>
+        <v>0.24218775559038969</v>
       </c>
       <c r="G23">
-        <v>2.1398240943120369E-2</v>
+        <v>2.9611006538002641E-2</v>
       </c>
       <c r="H23">
-        <v>1.465779004532264E-2</v>
+        <v>0.27426161125585891</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1420,25 +1420,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24">
-        <v>3190.93</v>
+        <v>16562.810000000001</v>
       </c>
       <c r="D24">
-        <v>53.869999999999891</v>
+        <v>363.56000000000131</v>
       </c>
       <c r="E24">
-        <v>1.717212931853385E-2</v>
+        <v>2.2443014337083511E-2</v>
       </c>
       <c r="F24">
-        <v>-0.14965676398793351</v>
+        <v>-3.1724354840878322E-2</v>
       </c>
       <c r="G24">
-        <v>2.0938030797555521E-2</v>
+        <v>2.9565588266288408E-2</v>
       </c>
       <c r="H24">
-        <v>-0.1074136449646098</v>
+        <v>-4.6807694884119178E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1446,25 +1446,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25">
-        <v>3666.03</v>
+        <v>12280.54</v>
       </c>
       <c r="D25">
-        <v>76.990000000000236</v>
+        <v>457.70000000000073</v>
       </c>
       <c r="E25">
-        <v>2.1451418763791971E-2</v>
+        <v>3.8713202580767492E-2</v>
       </c>
       <c r="F25">
-        <v>-0.2494395410685879</v>
+        <v>5.6179755954080653E-2</v>
       </c>
       <c r="G25">
-        <v>1.9108102480930089E-2</v>
+        <v>2.9028199533930099E-2</v>
       </c>
       <c r="H25">
-        <v>-0.26933711345605532</v>
+        <v>4.5719505608924571E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1472,25 +1472,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26">
-        <v>49896.68</v>
+        <v>27.57</v>
       </c>
       <c r="D26">
-        <v>348.94000000000233</v>
+        <v>0.71999999999999886</v>
       </c>
       <c r="E26">
-        <v>7.0425008284940027E-3</v>
+        <v>2.681564245810053E-2</v>
       </c>
       <c r="F26">
-        <v>-2.1626243808531061E-2</v>
+        <v>-0.39192765769739751</v>
       </c>
       <c r="G26">
-        <v>1.7244754880618721E-2</v>
+        <v>2.874402722140923E-2</v>
       </c>
       <c r="H26">
-        <v>-0.16270888910710671</v>
+        <v>-0.35896660002265979</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1498,25 +1498,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27">
-        <v>625.66999999999996</v>
+        <v>24119.13</v>
       </c>
       <c r="D27">
-        <v>7.7699999999999818</v>
+        <v>660.08000000000175</v>
       </c>
       <c r="E27">
-        <v>1.25748502994012E-2</v>
+        <v>2.8137541801565021E-2</v>
       </c>
       <c r="F27">
-        <v>-0.31999043571824498</v>
+        <v>-0.14550529136238349</v>
       </c>
       <c r="G27">
-        <v>1.6323731158845781E-2</v>
+        <v>2.815879508708297E-2</v>
       </c>
       <c r="H27">
-        <v>-0.28620910631569652</v>
+        <v>-0.14201444993215409</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1524,25 +1524,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28">
-        <v>248.66</v>
+        <v>11326.98</v>
       </c>
       <c r="D28">
-        <v>3.9000000000000061</v>
+        <v>275.68000000000029</v>
       </c>
       <c r="E28">
-        <v>1.5933976139892229E-2</v>
+        <v>2.494548152706022E-2</v>
       </c>
       <c r="F28">
-        <v>0.39877369634921522</v>
+        <v>-0.1427176662382896</v>
       </c>
       <c r="G28">
-        <v>1.60655054111285E-2</v>
+        <v>2.7789272417694241E-2</v>
       </c>
       <c r="H28">
-        <v>0.3981703484138408</v>
+        <v>-0.1245418856690812</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1550,25 +1550,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C29">
-        <v>6386.07</v>
+        <v>3273.12</v>
       </c>
       <c r="D29">
-        <v>76.849999999999454</v>
+        <v>82.190000000000055</v>
       </c>
       <c r="E29">
-        <v>1.218058650673126E-2</v>
+        <v>2.5757381076990219E-2</v>
       </c>
       <c r="F29">
-        <v>-0.1143546203943063</v>
+        <v>-0.12775414921172981</v>
       </c>
       <c r="G29">
-        <v>1.5928007673605471E-2</v>
+        <v>2.768377839967329E-2</v>
       </c>
       <c r="H29">
-        <v>-7.0357771123655932E-2</v>
+        <v>-8.0473350868700555E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1576,25 +1576,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C30">
-        <v>11822.84</v>
+        <v>567.16999999999996</v>
       </c>
       <c r="D30">
-        <v>25.760000000000218</v>
+        <v>14.049999999999949</v>
       </c>
       <c r="E30">
-        <v>2.183591193753109E-3</v>
+        <v>2.540135956031242E-2</v>
       </c>
       <c r="F30">
-        <v>1.6815568849915641E-2</v>
+        <v>-6.5987089124563636E-2</v>
       </c>
       <c r="G30">
-        <v>1.5850383979203689E-2</v>
+        <v>2.732708826592356E-2</v>
       </c>
       <c r="H30">
-        <v>1.435834701838723E-2</v>
+        <v>-1.535815686999586E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1602,25 +1602,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C31">
-        <v>3348.44</v>
+        <v>4946.8100000000004</v>
       </c>
       <c r="D31">
-        <v>49.980000000000018</v>
+        <v>121.93000000000031</v>
       </c>
       <c r="E31">
-        <v>1.5152525724125839E-2</v>
+        <v>2.5271094825156441E-2</v>
       </c>
       <c r="F31">
-        <v>3.1469867047820843E-2</v>
+        <v>-0.1773948672922496</v>
       </c>
       <c r="G31">
-        <v>1.5152525724125839E-2</v>
+        <v>2.7196578890425149E-2</v>
       </c>
       <c r="H31">
-        <v>3.1469867047820843E-2</v>
+        <v>-0.13280488459373979</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1628,25 +1628,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C32">
-        <v>11075.02</v>
+        <v>40798.43</v>
       </c>
       <c r="D32">
-        <v>161.46000000000089</v>
+        <v>727.59999999999854</v>
       </c>
       <c r="E32">
-        <v>1.4794439211403221E-2</v>
+        <v>1.8157846992438161E-2</v>
       </c>
       <c r="F32">
-        <v>0.22086277086293629</v>
+        <v>-1.205460836143912E-2</v>
       </c>
       <c r="G32">
-        <v>1.4794439211403221E-2</v>
+        <v>2.625828219609572E-2</v>
       </c>
       <c r="H32">
-        <v>0.22086277086293629</v>
+        <v>-6.6167932407506513E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1657,22 +1657,22 @@
         <v>94</v>
       </c>
       <c r="C33">
-        <v>12907.45</v>
+        <v>4419.21</v>
       </c>
       <c r="D33">
-        <v>93.280000000000655</v>
+        <v>101.8000000000002</v>
       </c>
       <c r="E33">
-        <v>7.2794414308534616E-3</v>
+        <v>2.3578951269395351E-2</v>
       </c>
       <c r="F33">
-        <v>0.20649880775115981</v>
+        <v>3.6042921413115048E-2</v>
       </c>
       <c r="G33">
-        <v>1.291693641230318E-2</v>
+        <v>2.5501257447889229E-2</v>
       </c>
       <c r="H33">
-        <v>0.23756000602183211</v>
+        <v>9.220247367442691E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1683,22 +1683,22 @@
         <v>95</v>
       </c>
       <c r="C34">
-        <v>11051.3</v>
+        <v>4181.7299999999996</v>
       </c>
       <c r="D34">
-        <v>139.85999999999879</v>
+        <v>94.769999999999527</v>
       </c>
       <c r="E34">
-        <v>1.281773991333846E-2</v>
+        <v>2.3188384520523631E-2</v>
       </c>
       <c r="F34">
-        <v>-0.16358250344745121</v>
+        <v>-0.20133501403770129</v>
       </c>
       <c r="G34">
-        <v>1.2856331584182531E-2</v>
+        <v>2.5109957205158961E-2</v>
       </c>
       <c r="H34">
-        <v>-0.1489486757595154</v>
+        <v>-0.15804272653550719</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1709,22 +1709,22 @@
         <v>96</v>
       </c>
       <c r="C35">
-        <v>2100.79</v>
+        <v>6016.65</v>
       </c>
       <c r="D35">
-        <v>17.769999999999978</v>
+        <v>114.5299999999997</v>
       </c>
       <c r="E35">
-        <v>8.5308830448098671E-3</v>
+        <v>1.9404891801589889E-2</v>
       </c>
       <c r="F35">
-        <v>-0.34406476954108051</v>
+        <v>-0.2057584214041879</v>
       </c>
       <c r="G35">
-        <v>1.2264791824479371E-2</v>
+        <v>2.3692230834758021E-2</v>
       </c>
       <c r="H35">
-        <v>-0.31147939831873062</v>
+        <v>-0.21423758653329469</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1735,22 +1735,22 @@
         <v>97</v>
       </c>
       <c r="C36">
-        <v>16199.25</v>
+        <v>1190.01</v>
       </c>
       <c r="D36">
-        <v>133.89999999999961</v>
+        <v>25</v>
       </c>
       <c r="E36">
-        <v>8.3347079273092817E-3</v>
+        <v>2.1459043270014799E-2</v>
       </c>
       <c r="F36">
-        <v>-5.2978374753806852E-2</v>
+        <v>-0.2901776926793479</v>
       </c>
       <c r="G36">
-        <v>1.1828363687626849E-2</v>
+        <v>2.3055944500404379E-2</v>
       </c>
       <c r="H36">
-        <v>-7.5662264897012332E-2</v>
+        <v>-0.39761053560785808</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1758,25 +1758,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C37">
-        <v>15209.27</v>
+        <v>257.2</v>
       </c>
       <c r="D37">
-        <v>82.460000000000946</v>
+        <v>5.6799999999999784</v>
       </c>
       <c r="E37">
-        <v>5.4512484786946036E-3</v>
+        <v>2.2582697201017691E-2</v>
       </c>
       <c r="F37">
-        <v>6.0546071467919349E-2</v>
+        <v>0.44681329808179088</v>
       </c>
       <c r="G37">
-        <v>1.10785115144012E-2</v>
+        <v>2.2450456830289459E-2</v>
       </c>
       <c r="H37">
-        <v>8.7849730277536509E-2</v>
+        <v>0.44556564718637959</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1784,25 +1784,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38">
-        <v>26.85</v>
+        <v>23619.69</v>
       </c>
       <c r="D38">
-        <v>0.19000000000000131</v>
+        <v>589.78999999999724</v>
       </c>
       <c r="E38">
-        <v>7.1267816954239116E-3</v>
+        <v>2.5609750802217949E-2</v>
       </c>
       <c r="F38">
-        <v>-0.40780767534186152</v>
+        <v>1.7876858554630282E-2</v>
       </c>
       <c r="G38">
-        <v>1.08554920360131E-2</v>
+        <v>2.101464455007163E-2</v>
       </c>
       <c r="H38">
-        <v>-0.3783889067837054</v>
+        <v>3.6560372299168753E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1810,25 +1810,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39">
-        <v>10252.4</v>
+        <v>18112.259999999998</v>
       </c>
       <c r="D39">
-        <v>36.119999999998981</v>
+        <v>200.69999999999709</v>
       </c>
       <c r="E39">
-        <v>3.5355334818543138E-3</v>
+        <v>1.1205054166136151E-2</v>
       </c>
       <c r="F39">
-        <v>-3.8724249700667901E-2</v>
+        <v>-0.1194128466058841</v>
       </c>
       <c r="G39">
-        <v>9.899609665727338E-3</v>
+        <v>1.954343665049563E-2</v>
       </c>
       <c r="H39">
-        <v>1.4073318879243679E-2</v>
+        <v>-0.18427232588061829</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1836,25 +1836,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40">
-        <v>23459.05</v>
+        <v>1530.35</v>
       </c>
       <c r="D40">
-        <v>223.63000000000099</v>
+        <v>30.049999999999951</v>
       </c>
       <c r="E40">
-        <v>9.6245301354569435E-3</v>
+        <v>2.0029327467839812E-2</v>
       </c>
       <c r="F40">
-        <v>-0.16889066501713479</v>
+        <v>-4.2190316443020293E-2</v>
       </c>
       <c r="G40">
-        <v>9.6375888294362166E-3</v>
+        <v>1.9537678946805581E-2</v>
       </c>
       <c r="H40">
-        <v>-0.16550181593398719</v>
+        <v>-5.3730249960652343E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1862,25 +1862,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41">
-        <v>8295.0499999999993</v>
+        <v>1840.07</v>
       </c>
       <c r="D41">
-        <v>58.8799999999992</v>
+        <v>26.379999999999882</v>
       </c>
       <c r="E41">
-        <v>7.1489539433984284E-3</v>
+        <v>1.4544933257612859E-2</v>
       </c>
       <c r="F41">
-        <v>1.0835802016297519E-2</v>
+        <v>3.0718730919825351E-2</v>
       </c>
       <c r="G41">
-        <v>7.0764247155676863E-3</v>
+        <v>1.9450789108205638E-2</v>
       </c>
       <c r="H41">
-        <v>1.209585098050869E-2</v>
+        <v>9.5753594416968957E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1888,25 +1888,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C42">
-        <v>1145.03</v>
+        <v>484.93</v>
       </c>
       <c r="D42">
-        <v>20.8599999999999</v>
+        <v>8.7599999999999909</v>
       </c>
       <c r="E42">
-        <v>1.8555912362009149E-2</v>
+        <v>1.8396791062015749E-2</v>
       </c>
       <c r="F42">
-        <v>2.773464496961742E-2</v>
+        <v>9.4254896651322362E-2</v>
       </c>
       <c r="G42">
-        <v>6.6373456454322799E-3</v>
+        <v>1.8426876158386341E-2</v>
       </c>
       <c r="H42">
-        <v>-0.20405100530019021</v>
+        <v>0.12250905827743371</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1914,25 +1914,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C43">
-        <v>3218.05</v>
+        <v>1458.42</v>
       </c>
       <c r="D43">
-        <v>-1.3699999999998911</v>
+        <v>25.96000000000004</v>
       </c>
       <c r="E43">
-        <v>-4.2554248901971459E-4</v>
+        <v>1.812267009200963E-2</v>
       </c>
       <c r="F43">
-        <v>4.3665941279298133E-2</v>
+        <v>-7.9355860945755752E-2</v>
       </c>
       <c r="G43">
-        <v>5.1688295948566498E-3</v>
+        <v>1.8209680505671511E-2</v>
       </c>
       <c r="H43">
-        <v>7.0535022725676244E-2</v>
+        <v>-7.9663133915625406E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1940,25 +1940,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C44">
-        <v>36642.379999999997</v>
+        <v>268.19</v>
       </c>
       <c r="D44">
-        <v>58.669999999998247</v>
+        <v>3.5500000000000109</v>
       </c>
       <c r="E44">
-        <v>1.603719250999891E-3</v>
+        <v>1.3414449818621501E-2</v>
       </c>
       <c r="F44">
-        <v>-0.17648875274467199</v>
+        <v>-0.20160161948140881</v>
       </c>
       <c r="G44">
-        <v>4.1800623831611539E-3</v>
+        <v>1.7265376199228299E-2</v>
       </c>
       <c r="H44">
-        <v>-0.29347260053837099</v>
+        <v>-0.206387606032542</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1966,25 +1966,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C45">
-        <v>476.17</v>
+        <v>3272.08</v>
       </c>
       <c r="D45">
-        <v>-0.82999999999998408</v>
+        <v>54.029999999999752</v>
       </c>
       <c r="E45">
-        <v>-1.7400419287211259E-3</v>
+        <v>1.6789670763350362E-2</v>
       </c>
       <c r="F45">
-        <v>7.4487769654300928E-2</v>
+        <v>6.1188748820299572E-2</v>
       </c>
       <c r="G45">
-        <v>3.8469732254995388E-3</v>
+        <v>1.6819708382775241E-2</v>
       </c>
       <c r="H45">
-        <v>0.102150356171774</v>
+        <v>8.85891273945556E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1992,25 +1992,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C46">
-        <v>17911.560000000001</v>
+        <v>15454.99</v>
       </c>
       <c r="D46">
-        <v>167.68000000000029</v>
+        <v>245.71999999999929</v>
       </c>
       <c r="E46">
-        <v>9.4500188233914706E-3</v>
+        <v>1.6155936478213562E-2</v>
       </c>
       <c r="F46">
-        <v>-0.12917053789820199</v>
+        <v>7.7680186430773901E-2</v>
       </c>
       <c r="G46">
-        <v>3.561628122930038E-3</v>
+        <v>1.6185955376097679E-2</v>
       </c>
       <c r="H46">
-        <v>-0.19835306894578461</v>
+        <v>0.10550638146252921</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2021,22 +2021,22 @@
         <v>105</v>
       </c>
       <c r="C47">
-        <v>857.72</v>
+        <v>6675.68</v>
       </c>
       <c r="D47">
-        <v>-6.2099999999999227</v>
+        <v>107.85000000000041</v>
       </c>
       <c r="E47">
-        <v>-7.1880823677843431E-3</v>
+        <v>1.6420948776079799E-2</v>
       </c>
       <c r="F47">
-        <v>-0.2331035469363304</v>
+        <v>-4.1689096752984822E-2</v>
       </c>
       <c r="G47">
-        <v>-1.104553920930784E-3</v>
+        <v>1.53173613961235E-2</v>
       </c>
       <c r="H47">
-        <v>-0.2449097507193416</v>
+        <v>-3.3364983313007968E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2047,22 +2047,22 @@
         <v>106</v>
       </c>
       <c r="C48">
-        <v>1500.3</v>
+        <v>1164.3399999999999</v>
       </c>
       <c r="D48">
-        <v>-8.8400000000001455</v>
+        <v>16.269999999999978</v>
       </c>
       <c r="E48">
-        <v>-5.8576407755411841E-3</v>
+        <v>1.4171609745050381E-2</v>
       </c>
       <c r="F48">
-        <v>-6.0997897055878207E-2</v>
+        <v>-0.25760193834284439</v>
       </c>
       <c r="G48">
-        <v>-2.625708648767211E-3</v>
+        <v>1.4171609745050381E-2</v>
       </c>
       <c r="H48">
-        <v>-7.2869767977037037E-2</v>
+        <v>-0.25760193834284439</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2073,22 +2073,22 @@
         <v>107</v>
       </c>
       <c r="C49">
-        <v>3614.64</v>
+        <v>8412.5499999999993</v>
       </c>
       <c r="D49">
-        <v>-12.360000000000131</v>
+        <v>117.5</v>
       </c>
       <c r="E49">
-        <v>-3.4077750206782391E-3</v>
+        <v>1.416507435157111E-2</v>
       </c>
       <c r="F49">
-        <v>-8.5315768297404504E-2</v>
+        <v>2.515436630908852E-2</v>
       </c>
       <c r="G49">
-        <v>-3.2259651073954791E-3</v>
+        <v>1.402976347808149E-2</v>
       </c>
       <c r="H49">
-        <v>-8.527050088819621E-2</v>
+        <v>2.6377480545550561E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2099,22 +2099,22 @@
         <v>108</v>
       </c>
       <c r="C50">
-        <v>420.33</v>
+        <v>33660.44</v>
       </c>
       <c r="D50">
-        <v>-2.25</v>
+        <v>210.60000000000579</v>
       </c>
       <c r="E50">
-        <v>-5.3244356098253176E-3</v>
+        <v>6.2959942409293026E-3</v>
       </c>
       <c r="F50">
-        <v>-0.26341890826250769</v>
+        <v>-0.24627463906297439</v>
       </c>
       <c r="G50">
-        <v>-3.5765003717636019E-3</v>
+        <v>1.186598468375433E-2</v>
       </c>
       <c r="H50">
-        <v>-0.23014095381656929</v>
+        <v>-0.26713417858040472</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2125,22 +2125,22 @@
         <v>109</v>
       </c>
       <c r="C51">
-        <v>1165.01</v>
+        <v>50781.18</v>
       </c>
       <c r="D51">
-        <v>-6.3399999999999181</v>
+        <v>884.5</v>
       </c>
       <c r="E51">
-        <v>-5.4125581593886807E-3</v>
+        <v>1.7726630308870339E-2</v>
       </c>
       <c r="F51">
-        <v>-0.30508980071458819</v>
+        <v>-4.2829739286242008E-3</v>
       </c>
       <c r="G51">
-        <v>-5.4125581593886807E-3</v>
+        <v>9.9535140049258342E-3</v>
       </c>
       <c r="H51">
-        <v>-0.40833853103576201</v>
+        <v>-0.1398878332090937</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2151,22 +2151,22 @@
         <v>110</v>
       </c>
       <c r="C52">
-        <v>4926.7299999999996</v>
+        <v>10320.030000000001</v>
       </c>
       <c r="D52">
-        <v>-19.0600000000004</v>
+        <v>67.630000000001019</v>
       </c>
       <c r="E52">
-        <v>-3.85378271216541E-3</v>
+        <v>6.5965042331552759E-3</v>
       </c>
       <c r="F52">
-        <v>-0.21265541598747081</v>
+        <v>-3.2383190144588792E-2</v>
       </c>
       <c r="G52">
-        <v>-6.491598387149744E-3</v>
+        <v>9.1000457891277087E-3</v>
       </c>
       <c r="H52">
-        <v>-0.26264564206868601</v>
+        <v>2.5439446720704861E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2177,22 +2177,22 @@
         <v>111</v>
       </c>
       <c r="C53">
-        <v>23029.9</v>
+        <v>872.5</v>
       </c>
       <c r="D53">
-        <v>-174.7199999999975</v>
+        <v>14.779999999999969</v>
       </c>
       <c r="E53">
-        <v>-7.5295350667237138E-3</v>
+        <v>1.7231730634705841E-2</v>
       </c>
       <c r="F53">
-        <v>-7.5397998522722656E-3</v>
+        <v>-0.2198885938324259</v>
       </c>
       <c r="G53">
-        <v>-6.4930075024876022E-3</v>
+        <v>6.5189798488456407E-3</v>
       </c>
       <c r="H53">
-        <v>1.7327066808443089E-2</v>
+        <v>-0.23269346693507839</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2203,22 +2203,22 @@
         <v>112</v>
       </c>
       <c r="C54">
-        <v>1237.54</v>
+        <v>423.27</v>
       </c>
       <c r="D54">
-        <v>-7.4000000000000909</v>
+        <v>2.9399999999999982</v>
       </c>
       <c r="E54">
-        <v>-5.9440615611997538E-3</v>
+        <v>6.9945043180357214E-3</v>
       </c>
       <c r="F54">
-        <v>-0.21100414408670709</v>
+        <v>-0.25826688863576619</v>
       </c>
       <c r="G54">
-        <v>-8.051167513049351E-3</v>
+        <v>6.4229874694894376E-3</v>
       </c>
       <c r="H54">
-        <v>-0.24759602437202821</v>
+        <v>-0.21959370080260229</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2229,22 +2229,22 @@
         <v>113</v>
       </c>
       <c r="C55">
-        <v>1432.46</v>
+        <v>10032.129999999999</v>
       </c>
       <c r="D55">
-        <v>-17.93000000000006</v>
+        <v>26.22999999999956</v>
       </c>
       <c r="E55">
-        <v>-1.236219223794988E-2</v>
+        <v>2.6214533425279458E-3</v>
       </c>
       <c r="F55">
-        <v>-9.5743404897325357E-2</v>
+        <v>-3.6128383883414661E-2</v>
       </c>
       <c r="G55">
-        <v>-1.2217114890939681E-2</v>
+        <v>2.4836672327583909E-3</v>
       </c>
       <c r="H55">
-        <v>-9.5941405418430437E-2</v>
+        <v>-3.6260844763699403E-2</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2255,22 +2255,22 @@
         <v>114</v>
       </c>
       <c r="C56">
-        <v>5791.5</v>
+        <v>1698.91</v>
       </c>
       <c r="D56">
-        <v>-173.39999999999961</v>
+        <v>1.519999999999982</v>
       </c>
       <c r="E56">
-        <v>-2.907005985012312E-2</v>
+        <v>8.9549249141329668E-4</v>
       </c>
       <c r="F56">
-        <v>-0.14017845212821231</v>
+        <v>-0.218521874726882</v>
       </c>
       <c r="G56">
-        <v>-1.4040596415475609E-2</v>
+        <v>1.920145788416816E-3</v>
       </c>
       <c r="H56">
-        <v>-0.11266593973974259</v>
+        <v>-0.22033921877668211</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2281,22 +2281,22 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>1148.07</v>
+        <v>3604.21</v>
       </c>
       <c r="D57">
-        <v>-16.610000000000131</v>
+        <v>-10.42999999999984</v>
       </c>
       <c r="E57">
-        <v>-1.4261428031734139E-2</v>
+        <v>-2.8854879047428561E-3</v>
       </c>
       <c r="F57">
-        <v>-0.26797589823700058</v>
+        <v>-8.7955078584641355E-2</v>
       </c>
       <c r="G57">
-        <v>-1.4261428031734139E-2</v>
+        <v>-2.958272049752964E-3</v>
       </c>
       <c r="H57">
-        <v>-0.26797589823700058</v>
+        <v>-8.7962170316998045E-2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2304,25 +2304,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58">
-        <v>2852.42</v>
+        <v>1165.7</v>
       </c>
       <c r="D58">
-        <v>-44.409999999999847</v>
+        <v>20.670000000000069</v>
       </c>
       <c r="E58">
-        <v>-1.53305509815902E-2</v>
+        <v>1.8051928770425271E-2</v>
       </c>
       <c r="F58">
-        <v>-7.3549711420098918E-2</v>
+        <v>4.6287237575507227E-2</v>
       </c>
       <c r="G58">
-        <v>-2.343462483685144E-2</v>
+        <v>-6.1674853691722209E-3</v>
       </c>
       <c r="H58">
-        <v>-0.26006232731138079</v>
+        <v>-0.2136064436042745</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2330,25 +2330,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C59">
-        <v>6567.83</v>
+        <v>2834.09</v>
       </c>
       <c r="D59">
-        <v>-241.94999999999979</v>
+        <v>-18.329999999999931</v>
       </c>
       <c r="E59">
-        <v>-3.5529782166237367E-2</v>
+        <v>-6.4261223802946077E-3</v>
       </c>
       <c r="F59">
-        <v>-5.717123953322456E-2</v>
+        <v>-7.9503194353772622E-2</v>
       </c>
       <c r="G59">
-        <v>-3.1339503511723432E-2</v>
+        <v>-7.3698687364475157E-3</v>
       </c>
       <c r="H59">
-        <v>-4.8637354739823342E-2</v>
+        <v>-0.26114511681353092</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2359,22 +2359,22 @@
         <v>117</v>
       </c>
       <c r="C60">
-        <v>40070.83</v>
+        <v>3677.45</v>
       </c>
       <c r="D60">
-        <v>-1630.400000000001</v>
+        <v>11.41999999999962</v>
       </c>
       <c r="E60">
-        <v>-3.9097168117103509E-2</v>
+        <v>3.1150863468110131E-3</v>
       </c>
       <c r="F60">
-        <v>-2.9673645833131479E-2</v>
+        <v>-0.24710148043051439</v>
       </c>
       <c r="G60">
-        <v>-3.6773226389843261E-2</v>
+        <v>-1.133897414089291E-2</v>
       </c>
       <c r="H60">
-        <v>-9.3912286208754137E-2</v>
+        <v>-0.27945881103315251</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2385,22 +2385,22 @@
         <v>118</v>
       </c>
       <c r="C61">
-        <v>94015.679999999993</v>
+        <v>5931.61</v>
       </c>
       <c r="D61">
-        <v>-2983.7000000000121</v>
+        <v>-67.789999999999964</v>
       </c>
       <c r="E61">
-        <v>-3.0759990424681138E-2</v>
+        <v>-1.129946327966125E-2</v>
       </c>
       <c r="F61">
-        <v>-0.1956078616046556</v>
+        <v>-0.23932945791607199</v>
       </c>
       <c r="G61">
-        <v>-4.8041939237804532E-2</v>
+        <v>-1.211643703707355E-2</v>
       </c>
       <c r="H61">
-        <v>-0.41811942505380989</v>
+        <v>-0.19753004303232791</v>
       </c>
     </row>
   </sheetData>
@@ -2410,10 +2410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W196"/>
+  <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16334,6 +16334,361 @@
         <v>603</v>
       </c>
     </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B197">
+        <v>1920.1</v>
+      </c>
+      <c r="C197">
+        <v>24.56</v>
+      </c>
+      <c r="D197">
+        <v>907.7</v>
+      </c>
+      <c r="E197">
+        <v>2372.9</v>
+      </c>
+      <c r="F197">
+        <v>39.22</v>
+      </c>
+      <c r="G197">
+        <v>41.29</v>
+      </c>
+      <c r="H197">
+        <v>2.6150000000000002</v>
+      </c>
+      <c r="I197">
+        <v>1.1333</v>
+      </c>
+      <c r="J197">
+        <v>1752.75</v>
+      </c>
+      <c r="K197">
+        <v>185.95</v>
+      </c>
+      <c r="L197">
+        <v>144.05000000000001</v>
+      </c>
+      <c r="M197">
+        <v>1060.9000000000001</v>
+      </c>
+      <c r="N197">
+        <v>2.9630000000000001</v>
+      </c>
+      <c r="O197">
+        <v>379.5</v>
+      </c>
+      <c r="P197">
+        <v>1022.38</v>
+      </c>
+      <c r="Q197">
+        <v>65.97</v>
+      </c>
+      <c r="R197">
+        <v>2459</v>
+      </c>
+      <c r="S197">
+        <v>107.2</v>
+      </c>
+      <c r="T197">
+        <v>13.61</v>
+      </c>
+      <c r="U197">
+        <v>108.825</v>
+      </c>
+      <c r="V197">
+        <v>74.75</v>
+      </c>
+      <c r="W197">
+        <v>602.1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B198">
+        <v>1908.8</v>
+      </c>
+      <c r="C198">
+        <v>23.920999999999999</v>
+      </c>
+      <c r="D198">
+        <v>864.75</v>
+      </c>
+      <c r="E198">
+        <v>2358.6</v>
+      </c>
+      <c r="F198">
+        <v>40.67</v>
+      </c>
+      <c r="G198">
+        <v>42.65</v>
+      </c>
+      <c r="H198">
+        <v>2.52</v>
+      </c>
+      <c r="I198">
+        <v>1.1886000000000001</v>
+      </c>
+      <c r="J198">
+        <v>1769.25</v>
+      </c>
+      <c r="K198">
+        <v>189.3</v>
+      </c>
+      <c r="L198">
+        <v>146.55000000000001</v>
+      </c>
+      <c r="M198">
+        <v>1065.8</v>
+      </c>
+      <c r="N198">
+        <v>2.9634999999999998</v>
+      </c>
+      <c r="O198">
+        <v>385</v>
+      </c>
+      <c r="P198">
+        <v>1041.3800000000001</v>
+      </c>
+      <c r="Q198">
+        <v>66.88</v>
+      </c>
+      <c r="R198">
+        <v>2437</v>
+      </c>
+      <c r="S198">
+        <v>107.65</v>
+      </c>
+      <c r="T198">
+        <v>13.88</v>
+      </c>
+      <c r="U198">
+        <v>109.2</v>
+      </c>
+      <c r="V198">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="W198">
+        <v>583.1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>44111</v>
+      </c>
+      <c r="B199">
+        <v>1890.8</v>
+      </c>
+      <c r="C199">
+        <v>23.896000000000001</v>
+      </c>
+      <c r="D199">
+        <v>869.15</v>
+      </c>
+      <c r="E199">
+        <v>2374</v>
+      </c>
+      <c r="F199">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G199">
+        <v>41.99</v>
+      </c>
+      <c r="H199">
+        <v>2.6059999999999999</v>
+      </c>
+      <c r="I199">
+        <v>1.1608000000000001</v>
+      </c>
+      <c r="J199">
+        <v>1765.5</v>
+      </c>
+      <c r="K199">
+        <v>190.1</v>
+      </c>
+      <c r="L199">
+        <v>147.85</v>
+      </c>
+      <c r="M199">
+        <v>1063.5</v>
+      </c>
+      <c r="N199">
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="O199">
+        <v>388.75</v>
+      </c>
+      <c r="P199">
+        <v>1050.5</v>
+      </c>
+      <c r="Q199">
+        <v>67.63</v>
+      </c>
+      <c r="R199">
+        <v>2452</v>
+      </c>
+      <c r="S199">
+        <v>109.6</v>
+      </c>
+      <c r="T199">
+        <v>14.14</v>
+      </c>
+      <c r="U199">
+        <v>110.175</v>
+      </c>
+      <c r="V199">
+        <v>76.88</v>
+      </c>
+      <c r="W199">
+        <v>567.29999999999995</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B200">
+        <v>1895.1</v>
+      </c>
+      <c r="C200">
+        <v>23.876000000000001</v>
+      </c>
+      <c r="D200">
+        <v>869.5</v>
+      </c>
+      <c r="E200">
+        <v>2397.1999999999998</v>
+      </c>
+      <c r="F200">
+        <v>41.19</v>
+      </c>
+      <c r="G200">
+        <v>43.34</v>
+      </c>
+      <c r="H200">
+        <v>2.6269999999999998</v>
+      </c>
+      <c r="I200">
+        <v>1.1922999999999999</v>
+      </c>
+      <c r="J200">
+        <v>1800.25</v>
+      </c>
+      <c r="K200">
+        <v>191.85</v>
+      </c>
+      <c r="L200">
+        <v>148</v>
+      </c>
+      <c r="M200">
+        <v>1071.5999999999999</v>
+      </c>
+      <c r="N200">
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="O200">
+        <v>387</v>
+      </c>
+      <c r="P200">
+        <v>1050.3800000000001</v>
+      </c>
+      <c r="Q200">
+        <v>67.430000000000007</v>
+      </c>
+      <c r="R200">
+        <v>2473</v>
+      </c>
+      <c r="S200">
+        <v>110.25</v>
+      </c>
+      <c r="T200">
+        <v>14.17</v>
+      </c>
+      <c r="U200">
+        <v>109.7</v>
+      </c>
+      <c r="V200">
+        <v>77.349999999999994</v>
+      </c>
+      <c r="W200">
+        <v>586.29999999999995</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B201">
+        <v>1926.2</v>
+      </c>
+      <c r="C201">
+        <v>25.108000000000001</v>
+      </c>
+      <c r="D201">
+        <v>897.8</v>
+      </c>
+      <c r="E201">
+        <v>2458.6999999999998</v>
+      </c>
+      <c r="F201">
+        <v>40.6</v>
+      </c>
+      <c r="G201">
+        <v>42.85</v>
+      </c>
+      <c r="H201">
+        <v>2.7410000000000001</v>
+      </c>
+      <c r="I201">
+        <v>1.1933</v>
+      </c>
+      <c r="J201">
+        <v>1846.25</v>
+      </c>
+      <c r="K201">
+        <v>195.55</v>
+      </c>
+      <c r="L201">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="M201">
+        <v>1104.2</v>
+      </c>
+      <c r="N201">
+        <v>3.0825</v>
+      </c>
+      <c r="O201">
+        <v>395</v>
+      </c>
+      <c r="P201">
+        <v>1065.3800000000001</v>
+      </c>
+      <c r="Q201">
+        <v>67.88</v>
+      </c>
+      <c r="R201">
+        <v>2432</v>
+      </c>
+      <c r="S201">
+        <v>111.55</v>
+      </c>
+      <c r="T201">
+        <v>14.23</v>
+      </c>
+      <c r="U201">
+        <v>109.875</v>
+      </c>
+      <c r="V201">
+        <v>78.13</v>
+      </c>
+      <c r="W201">
+        <v>557.29999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Equities" sheetId="1" r:id="rId1"/>
@@ -41,22 +41,40 @@
     <t>Indices</t>
   </si>
   <si>
-    <t>S&amp;P/BMV IPC</t>
+    <t>China A50</t>
   </si>
   <si>
-    <t>SmallCap 2000</t>
+    <t>DJ Shanghai</t>
   </si>
   <si>
-    <t>ATX</t>
+    <t>Shanghai</t>
   </si>
   <si>
-    <t>S&amp;P/ASX 200</t>
+    <t>SZSE Component</t>
   </si>
   <si>
-    <t>ISEQ Overall</t>
+    <t>BIST 100</t>
   </si>
   <si>
-    <t>BSE Sensex</t>
+    <t>Tadawul All Share</t>
+  </si>
+  <si>
+    <t>NZX 50</t>
+  </si>
+  <si>
+    <t>HNX 30</t>
+  </si>
+  <si>
+    <t>Bahrain All Share</t>
+  </si>
+  <si>
+    <t>IDX Composite</t>
+  </si>
+  <si>
+    <t>Hang Seng</t>
+  </si>
+  <si>
+    <t>BSE SOFIX</t>
   </si>
   <si>
     <t>Nasdaq</t>
@@ -65,313 +83,295 @@
     <t>Bovespa</t>
   </si>
   <si>
+    <t>PSI 20</t>
+  </si>
+  <si>
+    <t>Tunindex</t>
+  </si>
+  <si>
+    <t>OMXC25</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>EGX 30</t>
+  </si>
+  <si>
+    <t>S&amp;P/ASX 200</t>
+  </si>
+  <si>
+    <t>OMX Helsinki 25</t>
+  </si>
+  <si>
+    <t>SmallCap 2000</t>
+  </si>
+  <si>
+    <t>FTSE/JSE Top 40</t>
+  </si>
+  <si>
+    <t>Nikkei 225</t>
+  </si>
+  <si>
+    <t>FTSE Singapore</t>
+  </si>
+  <si>
+    <t>MSM 30</t>
+  </si>
+  <si>
+    <t>QE General</t>
+  </si>
+  <si>
+    <t>AEX</t>
+  </si>
+  <si>
+    <t>OMXS30</t>
+  </si>
+  <si>
+    <t>CAC 40</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>S&amp;P/TSX</t>
+  </si>
+  <si>
+    <t>PSEi Composite</t>
+  </si>
+  <si>
+    <t>Karachi 100</t>
+  </si>
+  <si>
+    <t>S&amp;P/BMV IPC</t>
+  </si>
+  <si>
+    <t>Cyprus Main Market</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50</t>
+  </si>
+  <si>
+    <t>ATX</t>
+  </si>
+  <si>
+    <t>Nifty 50</t>
+  </si>
+  <si>
+    <t>Taiwan Weighted</t>
+  </si>
+  <si>
+    <t>BSE Sensex</t>
+  </si>
+  <si>
+    <t>FTSE MIB</t>
+  </si>
+  <si>
+    <t>KOSPI</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>ISEQ Overall</t>
+  </si>
+  <si>
+    <t>S&amp;P CLX IPSA</t>
+  </si>
+  <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>KLCI</t>
+  </si>
+  <si>
+    <t>COLCAP</t>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>IBEX 35</t>
+  </si>
+  <si>
+    <t>MOEX</t>
+  </si>
+  <si>
+    <t>S&amp;P Lima General</t>
+  </si>
+  <si>
+    <t>RTSI</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>Budapest SE</t>
+  </si>
+  <si>
+    <t>KOSDAQ</t>
+  </si>
+  <si>
     <t>BEL 20</t>
+  </si>
+  <si>
+    <t>WIG20</t>
   </si>
   <si>
     <t>Athens General Composite</t>
   </si>
   <si>
-    <t>Nifty 50</t>
+    <t>China</t>
   </si>
   <si>
-    <t>S&amp;P 500</t>
+    <t>Turkey</t>
   </si>
   <si>
-    <t>Taiwan Weighted</t>
+    <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>KOSDAQ</t>
+    <t>New Zealand</t>
   </si>
   <si>
-    <t>KOSPI</t>
+    <t>Vietnam</t>
   </si>
   <si>
-    <t>SET</t>
+    <t>Bahrain</t>
   </si>
   <si>
-    <t>IDX Composite</t>
+    <t>Indonesia</t>
   </si>
   <si>
-    <t>OMXC25</t>
+    <t>Hong Kong</t>
   </si>
   <si>
-    <t>IBEX 35</t>
+    <t>Bulgaria</t>
   </si>
   <si>
-    <t>DAX</t>
+    <t>United States</t>
   </si>
   <si>
-    <t>FTSE MIB</t>
+    <t>Brazil</t>
   </si>
   <si>
-    <t>SZSE Component</t>
+    <t>Portugal</t>
   </si>
   <si>
-    <t>S&amp;P/TSX</t>
+    <t>Tunisia</t>
   </si>
   <si>
-    <t>NZX 50</t>
+    <t>Denmark</t>
   </si>
   <si>
-    <t>Cyprus Main Market</t>
+    <t>Egypt</t>
   </si>
   <si>
-    <t>Hang Seng</t>
+    <t>Australia</t>
   </si>
   <si>
-    <t>EGX 30</t>
+    <t>Finland</t>
   </si>
   <si>
-    <t>Euro Stoxx 50</t>
+    <t>South Africa</t>
   </si>
   <si>
-    <t>AEX</t>
+    <t>Japan</t>
   </si>
   <si>
-    <t>CAC 40</t>
+    <t>Singapore</t>
   </si>
   <si>
-    <t>Karachi 100</t>
+    <t>Oman</t>
   </si>
   <si>
-    <t>OMX Helsinki 25</t>
+    <t>Qatar</t>
   </si>
   <si>
-    <t>PSI 20</t>
+    <t>Netherlands</t>
   </si>
   <si>
-    <t>FTSE 100</t>
+    <t>Sweden</t>
   </si>
   <si>
-    <t>COLCAP</t>
+    <t>France</t>
   </si>
   <si>
-    <t>HNX 30</t>
+    <t>Switzerland</t>
   </si>
   <si>
-    <t>Nikkei 225</t>
+    <t>Canada</t>
   </si>
   <si>
-    <t>S&amp;P Lima General</t>
+    <t>Philippines</t>
   </si>
   <si>
-    <t>KLCI</t>
-  </si>
-  <si>
-    <t>OMXS30</t>
-  </si>
-  <si>
-    <t>DJ Shanghai</t>
-  </si>
-  <si>
-    <t>Bahrain All Share</t>
-  </si>
-  <si>
-    <t>FTSE Singapore</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>China A50</t>
-  </si>
-  <si>
-    <t>Tunindex</t>
-  </si>
-  <si>
-    <t>RTSI</t>
-  </si>
-  <si>
-    <t>Tadawul All Share</t>
-  </si>
-  <si>
-    <t>Budapest SE</t>
-  </si>
-  <si>
-    <t>FTSE/JSE Top 40</t>
-  </si>
-  <si>
-    <t>SMI</t>
-  </si>
-  <si>
-    <t>PX</t>
-  </si>
-  <si>
-    <t>BSE SOFIX</t>
-  </si>
-  <si>
-    <t>QE General</t>
-  </si>
-  <si>
-    <t>WIG20</t>
-  </si>
-  <si>
-    <t>MSM 30</t>
-  </si>
-  <si>
-    <t>BIST 100</t>
-  </si>
-  <si>
-    <t>MOEX</t>
-  </si>
-  <si>
-    <t>S&amp;P CLX IPSA</t>
-  </si>
-  <si>
-    <t>PSEi Composite</t>
+    <t>Pakistan</t>
   </si>
   <si>
     <t>Mexico</t>
   </si>
   <si>
-    <t>United States</t>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
   <si>
     <t>Austria</t>
   </si>
   <si>
-    <t>Australia</t>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>South Korea</t>
   </si>
   <si>
     <t>Ireland</t>
   </si>
   <si>
-    <t>India</t>
+    <t>Chile</t>
   </si>
   <si>
-    <t>Brazil</t>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Hungary</t>
   </si>
   <si>
     <t>Belgium</t>
   </si>
   <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
     <t>Poland</t>
   </si>
   <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Philippines</t>
+    <t>Greece</t>
   </si>
   <si>
     <t>Date</t>
@@ -813,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -851,22 +851,22 @@
         <v>68</v>
       </c>
       <c r="C2">
-        <v>38478.58</v>
+        <v>15984.49</v>
       </c>
       <c r="D2">
-        <v>1836.2000000000039</v>
+        <v>529.5</v>
       </c>
       <c r="E2">
-        <v>5.0111373769935463E-2</v>
+        <v>3.4260779204645209E-2</v>
       </c>
       <c r="F2">
-        <v>-0.13522147282971461</v>
+        <v>0.1146023493512995</v>
       </c>
       <c r="G2">
-        <v>7.4146673934296858E-2</v>
+        <v>4.4305130573740747E-2</v>
       </c>
       <c r="H2">
-        <v>-0.23285573820502861</v>
+        <v>0.1544859860433303</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -874,25 +874,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3">
-        <v>1637.55</v>
+        <v>495.16</v>
       </c>
       <c r="D3">
-        <v>98.25</v>
+        <v>10.23000000000002</v>
       </c>
       <c r="E3">
-        <v>6.3827713895926674E-2</v>
+        <v>2.1095828263873129E-2</v>
       </c>
       <c r="F3">
-        <v>-1.5457595324844029E-2</v>
+        <v>0.11733911002798079</v>
       </c>
       <c r="G3">
-        <v>6.3827713895926674E-2</v>
+        <v>3.1012326585009301E-2</v>
       </c>
       <c r="H3">
-        <v>-1.5457595324844029E-2</v>
+        <v>0.15732067578736489</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -900,25 +900,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4">
-        <v>2214.62</v>
+        <v>3336.36</v>
       </c>
       <c r="D4">
-        <v>113.8299999999999</v>
+        <v>64.2800000000002</v>
       </c>
       <c r="E4">
-        <v>5.4184378257702948E-2</v>
+        <v>1.9644996454854399E-2</v>
       </c>
       <c r="F4">
-        <v>-0.30852332690134082</v>
+        <v>8.2035798028805784E-2</v>
       </c>
       <c r="G4">
-        <v>5.6164162172840593E-2</v>
+        <v>2.9547404843586419E-2</v>
       </c>
       <c r="H4">
-        <v>-0.27104126939411333</v>
+        <v>0.1207541110500092</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -926,25 +926,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5">
-        <v>6102.2</v>
+        <v>13532.73</v>
       </c>
       <c r="D5">
-        <v>310.69999999999982</v>
+        <v>243.46999999999929</v>
       </c>
       <c r="E5">
-        <v>5.3647586980920307E-2</v>
+        <v>1.8320809435589339E-2</v>
       </c>
       <c r="F5">
-        <v>-9.4051100850691127E-2</v>
+        <v>0.26494564074378379</v>
       </c>
       <c r="G5">
-        <v>5.2929147142470427E-2</v>
+        <v>2.8210357818443391E-2</v>
       </c>
       <c r="H5">
-        <v>-6.3552569311414397E-2</v>
+        <v>0.31020898726369328</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -952,25 +952,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6">
-        <v>6688.07</v>
+        <v>1192.73</v>
       </c>
       <c r="D6">
-        <v>302</v>
+        <v>27.029999999999969</v>
       </c>
       <c r="E6">
-        <v>4.7290430577804583E-2</v>
+        <v>2.318778416402156E-2</v>
       </c>
       <c r="F6">
-        <v>-7.2472069053509891E-2</v>
+        <v>7.0548320213978499E-2</v>
       </c>
       <c r="G6">
-        <v>4.9257267491440437E-2</v>
+        <v>2.4400474806197E-2</v>
       </c>
       <c r="H6">
-        <v>-2.2194660429581289E-2</v>
+        <v>-0.19441806744368481</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -978,25 +978,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <v>40509.49</v>
+        <v>8553.7900000000009</v>
       </c>
       <c r="D7">
-        <v>1812.4399999999951</v>
+        <v>141.2400000000016</v>
       </c>
       <c r="E7">
-        <v>4.6836645170626579E-2</v>
+        <v>1.678920184724042E-2</v>
       </c>
       <c r="F7">
-        <v>-4.1089932966422724E-3</v>
+        <v>4.2365889889631532E-2</v>
       </c>
       <c r="G7">
-        <v>4.592951796465039E-2</v>
+        <v>1.6748441350890261E-2</v>
       </c>
       <c r="H7">
-        <v>-2.5166867004336679E-2</v>
+        <v>4.3567703582342077E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1004,25 +1004,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C8">
-        <v>11579.94</v>
+        <v>12433.16</v>
       </c>
       <c r="D8">
-        <v>504.92000000000007</v>
+        <v>152.61999999999901</v>
       </c>
       <c r="E8">
-        <v>4.559088832345215E-2</v>
+        <v>1.2427792263206561E-2</v>
       </c>
       <c r="F8">
-        <v>0.27652298910760892</v>
+        <v>6.9305738553682161E-2</v>
       </c>
       <c r="G8">
-        <v>4.559088832345215E-2</v>
+        <v>1.3890959164935881E-2</v>
       </c>
       <c r="H8">
-        <v>0.27652298910760892</v>
+        <v>6.0245552559315067E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1030,25 +1030,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9">
-        <v>97483.31</v>
+        <v>260.48</v>
       </c>
       <c r="D9">
-        <v>3467.6300000000051</v>
+        <v>3.28000000000003</v>
       </c>
       <c r="E9">
-        <v>3.6883528364630269E-2</v>
+        <v>1.2752721617418359E-2</v>
       </c>
       <c r="F9">
-        <v>-0.1659390413518653</v>
+        <v>0.46526410530460721</v>
       </c>
       <c r="G9">
-        <v>4.4921511541071928E-2</v>
+        <v>1.36705641880428E-2</v>
       </c>
       <c r="H9">
-        <v>-0.3956014701914472</v>
+        <v>0.46532734515427049</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1056,25 +1056,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10">
-        <v>3387.35</v>
+        <v>1477.84</v>
       </c>
       <c r="D10">
-        <v>139.11999999999989</v>
+        <v>19.419999999999849</v>
       </c>
       <c r="E10">
-        <v>4.2829479439571598E-2</v>
+        <v>1.331578009078305E-2</v>
       </c>
       <c r="F10">
-        <v>-0.14714561229473941</v>
+        <v>-6.7096766048241108E-2</v>
       </c>
       <c r="G10">
-        <v>4.4787938578416009E-2</v>
+        <v>1.3497107976170319E-2</v>
       </c>
       <c r="H10">
-        <v>-0.1009159440370818</v>
+        <v>-6.7241247859634479E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1082,25 +1082,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11">
-        <v>651.47</v>
+        <v>5103.41</v>
       </c>
       <c r="D11">
-        <v>25.800000000000072</v>
+        <v>49.75</v>
       </c>
       <c r="E11">
-        <v>4.1235795227516192E-2</v>
+        <v>9.8443504311727104E-3</v>
       </c>
       <c r="F11">
-        <v>-0.29194970057276998</v>
+        <v>-0.1844200466647489</v>
       </c>
       <c r="G11">
-        <v>4.3191261388629172E-2</v>
+        <v>1.153291702483661E-2</v>
       </c>
       <c r="H11">
-        <v>-0.25356925612160292</v>
+        <v>-0.2243961615975926</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1108,25 +1108,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12">
-        <v>11914.2</v>
+        <v>24386.79</v>
       </c>
       <c r="D12">
-        <v>497.25</v>
+        <v>267.65999999999991</v>
       </c>
       <c r="E12">
-        <v>4.3553663631705541E-2</v>
+        <v>1.1097415205274739E-2</v>
       </c>
       <c r="F12">
-        <v>-6.5746411463304399E-3</v>
+        <v>-0.1360226087899217</v>
       </c>
       <c r="G12">
-        <v>4.2649381264878272E-2</v>
+        <v>1.1080484546649011E-2</v>
       </c>
       <c r="H12">
-        <v>-2.7580379328473459E-2</v>
+        <v>-0.13250755430337921</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C13">
-        <v>3477.13</v>
+        <v>429.83</v>
       </c>
       <c r="D13">
-        <v>128.69000000000011</v>
+        <v>6.5600000000000023</v>
       </c>
       <c r="E13">
-        <v>3.8432822448662751E-2</v>
+        <v>1.5498381647648159E-2</v>
       </c>
       <c r="F13">
-        <v>7.1112165309215492E-2</v>
+        <v>-0.2467712257951459</v>
       </c>
       <c r="G13">
-        <v>3.8432822448662751E-2</v>
+        <v>1.0605003722956139E-2</v>
       </c>
       <c r="H13">
-        <v>7.1112165309215492E-2</v>
+        <v>-0.21131748909419551</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1163,22 +1163,22 @@
         <v>77</v>
       </c>
       <c r="C14">
-        <v>12887.19</v>
+        <v>11671.55</v>
       </c>
       <c r="D14">
-        <v>371.57999999999993</v>
+        <v>91.609999999998763</v>
       </c>
       <c r="E14">
-        <v>2.9689323972223569E-2</v>
+        <v>7.9110945307141467E-3</v>
       </c>
       <c r="F14">
-        <v>7.8122803964743026E-2</v>
+        <v>0.28662168314506919</v>
       </c>
       <c r="G14">
-        <v>3.8151473925657653E-2</v>
+        <v>7.9110945307141467E-3</v>
       </c>
       <c r="H14">
-        <v>0.13096376763094561</v>
+        <v>0.28662168314506919</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1189,22 +1189,22 @@
         <v>78</v>
       </c>
       <c r="C15">
-        <v>871.62</v>
+        <v>98309.119999999995</v>
       </c>
       <c r="D15">
-        <v>23.470000000000031</v>
+        <v>825.80999999999767</v>
       </c>
       <c r="E15">
-        <v>2.7671991982550329E-2</v>
+        <v>8.4712962659967417E-3</v>
       </c>
       <c r="F15">
-        <v>0.3300880499305674</v>
+        <v>-0.15887346386725579</v>
       </c>
       <c r="G15">
-        <v>3.8052698295533149E-2</v>
+        <v>6.2067055282619688E-3</v>
       </c>
       <c r="H15">
-        <v>0.34799812456720858</v>
+        <v>-0.39185014649521122</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1212,25 +1212,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16">
-        <v>2391.96</v>
+        <v>4228.0200000000004</v>
       </c>
       <c r="D16">
-        <v>64.070000000000164</v>
+        <v>46.290000000000873</v>
       </c>
       <c r="E16">
-        <v>2.7522778138142408E-2</v>
+        <v>1.106958124986579E-2</v>
       </c>
       <c r="F16">
-        <v>0.10992218350216</v>
+        <v>-0.1924941270841688</v>
       </c>
       <c r="G16">
-        <v>3.7901977214274803E-2</v>
+        <v>5.9253644426546792E-3</v>
       </c>
       <c r="H16">
-        <v>0.1248676520735266</v>
+        <v>-0.15305382284508631</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1238,25 +1238,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17">
-        <v>1267.1400000000001</v>
+        <v>6676.4</v>
       </c>
       <c r="D17">
-        <v>29.60000000000014</v>
+        <v>0.71999999999934516</v>
       </c>
       <c r="E17">
-        <v>2.3918418798584359E-2</v>
+        <v>1.078541811470046E-4</v>
       </c>
       <c r="F17">
-        <v>-0.1921326107746254</v>
+        <v>-4.1585738915230867E-2</v>
       </c>
       <c r="G17">
-        <v>3.7058211349168868E-2</v>
+        <v>4.1053363831331513E-3</v>
       </c>
       <c r="H17">
-        <v>-0.21872460933319471</v>
+        <v>-2.939662140979216E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1264,25 +1264,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18">
-        <v>5053.66</v>
+        <v>1579.13</v>
       </c>
       <c r="D18">
-        <v>126.93000000000031</v>
+        <v>14.05000000000018</v>
       </c>
       <c r="E18">
-        <v>2.5763538899026491E-2</v>
+        <v>8.9771768855266831E-3</v>
       </c>
       <c r="F18">
-        <v>-0.19237063317032629</v>
+        <v>0.2784821399656725</v>
       </c>
       <c r="G18">
-        <v>3.5589889358763172E-2</v>
+        <v>3.858583194896958E-3</v>
       </c>
       <c r="H18">
-        <v>-0.23323915084874719</v>
+        <v>0.34646860997491208</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1290,25 +1290,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C19">
-        <v>1565.08</v>
+        <v>3483.81</v>
       </c>
       <c r="D19">
-        <v>47.240000000000009</v>
+        <v>6.6799999999998363</v>
       </c>
       <c r="E19">
-        <v>3.1123175038212159E-2</v>
+        <v>1.9211246056374249E-3</v>
       </c>
       <c r="F19">
-        <v>0.26710709543702832</v>
+        <v>7.3169905245388467E-2</v>
       </c>
       <c r="G19">
-        <v>3.3218010729215708E-2</v>
+        <v>1.9211246056374249E-3</v>
       </c>
       <c r="H19">
-        <v>0.34129311888694408</v>
+        <v>7.3169905245388467E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1319,22 +1319,22 @@
         <v>82</v>
       </c>
       <c r="C20">
-        <v>6950.9</v>
+        <v>11322.71</v>
       </c>
       <c r="D20">
-        <v>196.39999999999961</v>
+        <v>-4.2700000000004366</v>
       </c>
       <c r="E20">
-        <v>2.90769116885039E-2</v>
+        <v>-3.7697603421216202E-4</v>
       </c>
       <c r="F20">
-        <v>-0.27601579018633671</v>
+        <v>-0.14304084113267129</v>
       </c>
       <c r="G20">
-        <v>3.1009543170453568E-2</v>
+        <v>1.077233881672246E-4</v>
       </c>
       <c r="H20">
-        <v>-0.23677163511606361</v>
+        <v>-0.12444757835480701</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1345,22 +1345,22 @@
         <v>83</v>
       </c>
       <c r="C21">
-        <v>13051.23</v>
+        <v>6176.8</v>
       </c>
       <c r="D21">
-        <v>362.18999999999869</v>
+        <v>74.600000000000364</v>
       </c>
       <c r="E21">
-        <v>2.8543530479847149E-2</v>
+        <v>1.222509914457093E-2</v>
       </c>
       <c r="F21">
-        <v>-5.7713154348407736E-3</v>
+        <v>-8.2975785738675922E-2</v>
       </c>
       <c r="G21">
-        <v>3.0475160258907511E-2</v>
+        <v>-4.102220400710177E-4</v>
       </c>
       <c r="H21">
-        <v>4.8121661985800701E-2</v>
+        <v>-6.3936720686850745E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1371,22 +1371,22 @@
         <v>84</v>
       </c>
       <c r="C22">
-        <v>19595.38</v>
+        <v>4439.49</v>
       </c>
       <c r="D22">
-        <v>531.06999999999971</v>
+        <v>20.279999999999749</v>
       </c>
       <c r="E22">
-        <v>2.7856764813413148E-2</v>
+        <v>4.5890555099215016E-3</v>
       </c>
       <c r="F22">
-        <v>-0.16902849674466491</v>
+        <v>4.0797379890140872E-2</v>
       </c>
       <c r="G22">
-        <v>2.9787104829839931E-2</v>
+        <v>-5.2218905675427418E-4</v>
       </c>
       <c r="H22">
-        <v>-0.123985008101282</v>
+        <v>9.1632137494914057E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,25 +1394,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C23">
-        <v>13289.26</v>
+        <v>1636.38</v>
       </c>
       <c r="D23">
-        <v>381.80999999999949</v>
+        <v>-1.1699999999998449</v>
       </c>
       <c r="E23">
-        <v>2.958059105400368E-2</v>
+        <v>-7.1448200054946565E-4</v>
       </c>
       <c r="F23">
-        <v>0.24218775559038969</v>
+        <v>-1.6161033151762091E-2</v>
       </c>
       <c r="G23">
-        <v>2.9611006538002641E-2</v>
+        <v>-7.1448200054946565E-4</v>
       </c>
       <c r="H23">
-        <v>0.27426161125585891</v>
+        <v>-1.6161033151762091E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1420,25 +1420,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24">
-        <v>16562.810000000001</v>
+        <v>50697.69</v>
       </c>
       <c r="D24">
-        <v>363.56000000000131</v>
+        <v>-83.489999999997963</v>
       </c>
       <c r="E24">
-        <v>2.2443014337083511E-2</v>
+        <v>-1.644113035577321E-3</v>
       </c>
       <c r="F24">
-        <v>-3.1724354840878322E-2</v>
+        <v>-5.9200452709343709E-3</v>
       </c>
       <c r="G24">
-        <v>2.9565588266288408E-2</v>
+        <v>-8.5447150620932E-4</v>
       </c>
       <c r="H24">
-        <v>-4.6807694884119178E-2</v>
+        <v>-0.14062277454776029</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1446,25 +1446,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25">
-        <v>12280.54</v>
+        <v>23410.63</v>
       </c>
       <c r="D25">
-        <v>457.70000000000073</v>
+        <v>-209.0599999999977</v>
       </c>
       <c r="E25">
-        <v>3.8713202580767492E-2</v>
+        <v>-8.8510899169293999E-3</v>
       </c>
       <c r="F25">
-        <v>5.6179755954080653E-2</v>
+        <v>8.8675389552015371E-3</v>
       </c>
       <c r="G25">
-        <v>2.9028199533930099E-2</v>
+        <v>-2.6611555857277698E-3</v>
       </c>
       <c r="H25">
-        <v>4.5719505608924571E-2</v>
+        <v>3.3801923874480673E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1472,25 +1472,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26">
-        <v>27.57</v>
+        <v>267.2</v>
       </c>
       <c r="D26">
-        <v>0.71999999999999886</v>
+        <v>-0.29000000000002052</v>
       </c>
       <c r="E26">
-        <v>2.681564245810053E-2</v>
+        <v>-1.0841526786048441E-3</v>
       </c>
       <c r="F26">
-        <v>-0.39192765769739751</v>
+        <v>-0.20454883748623151</v>
       </c>
       <c r="G26">
-        <v>2.874402722140923E-2</v>
+        <v>-2.7145048527572602E-3</v>
       </c>
       <c r="H26">
-        <v>-0.35896660002265979</v>
+        <v>-0.21060764756632261</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1498,25 +1498,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27">
-        <v>24119.13</v>
+        <v>3593.63</v>
       </c>
       <c r="D27">
-        <v>660.08000000000175</v>
+        <v>-10.579999999999931</v>
       </c>
       <c r="E27">
-        <v>2.8137541801565021E-2</v>
+        <v>-2.935456036135542E-3</v>
       </c>
       <c r="F27">
-        <v>-0.14550529136238349</v>
+        <v>-9.0632346354436844E-2</v>
       </c>
       <c r="G27">
-        <v>2.815879508708297E-2</v>
+        <v>-2.925149273484307E-3</v>
       </c>
       <c r="H27">
-        <v>-0.14201444993215409</v>
+        <v>-9.0630017111885453E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1524,25 +1524,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28">
-        <v>11326.98</v>
+        <v>9999.4599999999991</v>
       </c>
       <c r="D28">
-        <v>275.68000000000029</v>
+        <v>-32.670000000000073</v>
       </c>
       <c r="E28">
-        <v>2.494548152706022E-2</v>
+        <v>-3.256536747430538E-3</v>
       </c>
       <c r="F28">
-        <v>-0.1427176662382896</v>
+        <v>-3.9267267221103519E-2</v>
       </c>
       <c r="G28">
-        <v>2.7789272417694241E-2</v>
+        <v>-3.256536747430538E-3</v>
       </c>
       <c r="H28">
-        <v>-0.1245418856690812</v>
+        <v>-3.9399296737663958E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1550,25 +1550,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C29">
-        <v>3273.12</v>
+        <v>568.17999999999995</v>
       </c>
       <c r="D29">
-        <v>82.190000000000055</v>
+        <v>1.0099999999999909</v>
       </c>
       <c r="E29">
-        <v>2.5757381076990219E-2</v>
+        <v>1.7807711973483189E-3</v>
       </c>
       <c r="F29">
-        <v>-0.12775414921172981</v>
+        <v>-6.4323825834925352E-2</v>
       </c>
       <c r="G29">
-        <v>2.768377839967329E-2</v>
+        <v>-3.3161851110037328E-3</v>
       </c>
       <c r="H29">
-        <v>-8.0473350868700555E-2</v>
+        <v>-1.8623411489854799E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1579,22 +1579,22 @@
         <v>91</v>
       </c>
       <c r="C30">
-        <v>567.16999999999996</v>
+        <v>1835.31</v>
       </c>
       <c r="D30">
-        <v>14.049999999999949</v>
+        <v>-4.7599999999999909</v>
       </c>
       <c r="E30">
-        <v>2.540135956031242E-2</v>
+        <v>-2.5868581086588849E-3</v>
       </c>
       <c r="F30">
-        <v>-6.5987089124563636E-2</v>
+        <v>2.8052407812998888E-2</v>
       </c>
       <c r="G30">
-        <v>2.732708826592356E-2</v>
+        <v>-5.4722531966112653E-3</v>
       </c>
       <c r="H30">
-        <v>-1.535815686999586E-2</v>
+        <v>8.9757353307222676E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1605,22 +1605,22 @@
         <v>92</v>
       </c>
       <c r="C31">
-        <v>4946.8100000000004</v>
+        <v>4935.8599999999997</v>
       </c>
       <c r="D31">
-        <v>121.93000000000031</v>
+        <v>-10.950000000000729</v>
       </c>
       <c r="E31">
-        <v>2.5271094825156441E-2</v>
+        <v>-2.213547720652409E-3</v>
       </c>
       <c r="F31">
-        <v>-0.1773948672922496</v>
+        <v>-0.1792157430087519</v>
       </c>
       <c r="G31">
-        <v>2.7196578890425149E-2</v>
+        <v>-7.2901813500391146E-3</v>
       </c>
       <c r="H31">
-        <v>-0.13280488459373979</v>
+        <v>-0.13912689425091951</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1631,22 +1631,22 @@
         <v>93</v>
       </c>
       <c r="C32">
-        <v>40798.43</v>
+        <v>10207.129999999999</v>
       </c>
       <c r="D32">
-        <v>727.59999999999854</v>
+        <v>-112.9000000000015</v>
       </c>
       <c r="E32">
-        <v>1.8157846992438161E-2</v>
+        <v>-1.0939890678612559E-2</v>
       </c>
       <c r="F32">
-        <v>-1.205460836143912E-2</v>
+        <v>-4.2968812263194822E-2</v>
       </c>
       <c r="G32">
-        <v>2.625828219609572E-2</v>
+        <v>-8.343721325438036E-3</v>
       </c>
       <c r="H32">
-        <v>-6.6167932407506513E-2</v>
+        <v>1.688346574115562E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1657,22 +1657,22 @@
         <v>94</v>
       </c>
       <c r="C33">
-        <v>4419.21</v>
+        <v>16438.75</v>
       </c>
       <c r="D33">
-        <v>101.8000000000002</v>
+        <v>-124.0600000000013</v>
       </c>
       <c r="E33">
-        <v>2.3578951269395351E-2</v>
+        <v>-7.4902748990057777E-3</v>
       </c>
       <c r="F33">
-        <v>3.6042921413115048E-2</v>
+        <v>-3.8977005601132382E-2</v>
       </c>
       <c r="G33">
-        <v>2.5501257447889229E-2</v>
+        <v>-9.9667841575857841E-3</v>
       </c>
       <c r="H33">
-        <v>9.220247367442691E-2</v>
+        <v>-5.6307956849880769E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1683,22 +1683,22 @@
         <v>95</v>
       </c>
       <c r="C34">
-        <v>4181.7299999999996</v>
+        <v>5898.47</v>
       </c>
       <c r="D34">
-        <v>94.769999999999527</v>
+        <v>-33.139999999999418</v>
       </c>
       <c r="E34">
-        <v>2.3188384520523631E-2</v>
+        <v>-5.5870160040865091E-3</v>
       </c>
       <c r="F34">
-        <v>-0.20133501403770129</v>
+        <v>-0.24357933640853199</v>
       </c>
       <c r="G34">
-        <v>2.5109957205158961E-2</v>
+        <v>-1.043195463352364E-2</v>
       </c>
       <c r="H34">
-        <v>-0.15804272653550719</v>
+        <v>-0.20590137321818039</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1709,22 +1709,22 @@
         <v>96</v>
       </c>
       <c r="C35">
-        <v>6016.65</v>
+        <v>40164.019999999997</v>
       </c>
       <c r="D35">
-        <v>114.5299999999997</v>
+        <v>-634.41000000000349</v>
       </c>
       <c r="E35">
-        <v>1.9404891801589889E-2</v>
+        <v>-1.554986307071138E-2</v>
       </c>
       <c r="F35">
-        <v>-0.2057584214041879</v>
+        <v>-2.7417023922759132E-2</v>
       </c>
       <c r="G35">
-        <v>2.3692230834758021E-2</v>
+        <v>-1.1618128401055359E-2</v>
       </c>
       <c r="H35">
-        <v>-0.21423758653329469</v>
+        <v>-7.701731327381911E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1735,22 +1735,22 @@
         <v>97</v>
       </c>
       <c r="C36">
-        <v>1190.01</v>
+        <v>37876.49</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>-602.09000000000378</v>
       </c>
       <c r="E36">
-        <v>2.1459043270014799E-2</v>
+        <v>-1.5647406946930009E-2</v>
       </c>
       <c r="F36">
-        <v>-0.2901776926793479</v>
+        <v>-0.14875301436331489</v>
       </c>
       <c r="G36">
-        <v>2.3055944500404379E-2</v>
+        <v>-1.232681874036623E-2</v>
       </c>
       <c r="H36">
-        <v>-0.39761053560785808</v>
+        <v>-0.24231218646788719</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1761,22 +1761,22 @@
         <v>98</v>
       </c>
       <c r="C37">
-        <v>257.2</v>
+        <v>27.35</v>
       </c>
       <c r="D37">
-        <v>5.6799999999999784</v>
+        <v>-0.21999999999999889</v>
       </c>
       <c r="E37">
-        <v>2.2582697201017691E-2</v>
+        <v>-7.9796880667392101E-3</v>
       </c>
       <c r="F37">
-        <v>0.44681329808179088</v>
+        <v>-0.39677988531098368</v>
       </c>
       <c r="G37">
-        <v>2.2450456830289459E-2</v>
+        <v>-1.302698417412829E-2</v>
       </c>
       <c r="H37">
-        <v>0.44556564718637959</v>
+        <v>-0.3673173319792522</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1787,22 +1787,22 @@
         <v>99</v>
       </c>
       <c r="C38">
-        <v>23619.69</v>
+        <v>3245.47</v>
       </c>
       <c r="D38">
-        <v>589.78999999999724</v>
+        <v>-27.650000000000091</v>
       </c>
       <c r="E38">
-        <v>2.5609750802217949E-2</v>
+        <v>-8.4475973994232456E-3</v>
       </c>
       <c r="F38">
-        <v>1.7876858554630282E-2</v>
+        <v>-0.1351225309925064</v>
       </c>
       <c r="G38">
-        <v>2.101464455007163E-2</v>
+        <v>-1.349251283282293E-2</v>
       </c>
       <c r="H38">
-        <v>3.6560372299168753E-2</v>
+        <v>-9.2880075982227139E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1813,22 +1813,22 @@
         <v>100</v>
       </c>
       <c r="C39">
-        <v>18112.259999999998</v>
+        <v>2195.3200000000002</v>
       </c>
       <c r="D39">
-        <v>200.69999999999709</v>
+        <v>-19.299999999999731</v>
       </c>
       <c r="E39">
-        <v>1.1205054166136151E-2</v>
+        <v>-8.7148133765611036E-3</v>
       </c>
       <c r="F39">
-        <v>-0.1194128466058841</v>
+        <v>-0.31454941706164091</v>
       </c>
       <c r="G39">
-        <v>1.954343665049563E-2</v>
+        <v>-1.3758369242878319E-2</v>
       </c>
       <c r="H39">
-        <v>-0.18427232588061829</v>
+        <v>-0.28107055277260901</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1839,22 +1839,22 @@
         <v>101</v>
       </c>
       <c r="C40">
-        <v>1530.35</v>
+        <v>11762.45</v>
       </c>
       <c r="D40">
-        <v>30.049999999999951</v>
+        <v>-151.75</v>
       </c>
       <c r="E40">
-        <v>2.0029327467839812E-2</v>
+        <v>-1.2736902183948519E-2</v>
       </c>
       <c r="F40">
-        <v>-4.2190316443020293E-2</v>
+        <v>-1.922780276910363E-2</v>
       </c>
       <c r="G40">
-        <v>1.9537678946805581E-2</v>
+        <v>-1.3954634184914161E-2</v>
       </c>
       <c r="H40">
-        <v>-5.3730249960652343E-2</v>
+        <v>-4.1150139409177777E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1865,22 +1865,22 @@
         <v>102</v>
       </c>
       <c r="C41">
-        <v>1840.07</v>
+        <v>12750.37</v>
       </c>
       <c r="D41">
-        <v>26.379999999999882</v>
+        <v>-136.81999999999971</v>
       </c>
       <c r="E41">
-        <v>1.4544933257612859E-2</v>
+        <v>-1.061674422430336E-2</v>
       </c>
       <c r="F41">
-        <v>3.0718730919825351E-2</v>
+        <v>6.6676649912660535E-2</v>
       </c>
       <c r="G41">
-        <v>1.9450789108205638E-2</v>
+        <v>-1.4104794334804939E-2</v>
       </c>
       <c r="H41">
-        <v>9.5753594416968957E-2</v>
+        <v>0.115011756288395</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1888,25 +1888,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C42">
-        <v>484.93</v>
+        <v>39982.980000000003</v>
       </c>
       <c r="D42">
-        <v>8.7599999999999909</v>
+        <v>-526.50999999999476</v>
       </c>
       <c r="E42">
-        <v>1.8396791062015749E-2</v>
+        <v>-1.299720139651217E-2</v>
       </c>
       <c r="F42">
-        <v>9.4254896651322362E-2</v>
+        <v>-1.705278927974108E-2</v>
       </c>
       <c r="G42">
-        <v>1.8426876158386341E-2</v>
+        <v>-1.4214612333435571E-2</v>
       </c>
       <c r="H42">
-        <v>0.12250905827743371</v>
+        <v>-3.902374207965853E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1917,22 +1917,22 @@
         <v>103</v>
       </c>
       <c r="C43">
-        <v>1458.42</v>
+        <v>19389.68</v>
       </c>
       <c r="D43">
-        <v>25.96000000000004</v>
+        <v>-205.7000000000007</v>
       </c>
       <c r="E43">
-        <v>1.812267009200963E-2</v>
+        <v>-1.049737233980663E-2</v>
       </c>
       <c r="F43">
-        <v>-7.9355860945755752E-2</v>
+        <v>-0.1777515140181051</v>
       </c>
       <c r="G43">
-        <v>1.8209680505671511E-2</v>
+        <v>-1.5531858731630099E-2</v>
       </c>
       <c r="H43">
-        <v>-7.9663133915625406E-2</v>
+        <v>-0.137591149202243</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1943,22 +1943,22 @@
         <v>104</v>
       </c>
       <c r="C44">
-        <v>268.19</v>
+        <v>2341.5300000000002</v>
       </c>
       <c r="D44">
-        <v>3.5500000000000109</v>
+        <v>-50.429999999999843</v>
       </c>
       <c r="E44">
-        <v>1.3414449818621501E-2</v>
+        <v>-2.1083128480409271E-2</v>
       </c>
       <c r="F44">
-        <v>-0.20160161948140881</v>
+        <v>8.6521551504127547E-2</v>
       </c>
       <c r="G44">
-        <v>1.7265376199228299E-2</v>
+        <v>-1.5752761732950819E-2</v>
       </c>
       <c r="H44">
-        <v>-0.206387606032542</v>
+        <v>0.1071478799693082</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1966,25 +1966,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C45">
-        <v>3272.08</v>
+        <v>12908.99</v>
       </c>
       <c r="D45">
-        <v>54.029999999999752</v>
+        <v>-142.23999999999981</v>
       </c>
       <c r="E45">
-        <v>1.6789670763350362E-2</v>
+        <v>-1.0898589634846689E-2</v>
       </c>
       <c r="F45">
-        <v>6.1188748820299572E-2</v>
+        <v>-1.6607005871109859E-2</v>
       </c>
       <c r="G45">
-        <v>1.6819708382775241E-2</v>
+        <v>-1.5931034674827819E-2</v>
       </c>
       <c r="H45">
-        <v>8.85891273945556E-2</v>
+        <v>3.142399944526697E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1992,25 +1992,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C46">
-        <v>15454.99</v>
+        <v>6609.61</v>
       </c>
       <c r="D46">
-        <v>245.71999999999929</v>
+        <v>-78.460000000000036</v>
       </c>
       <c r="E46">
-        <v>1.6155936478213562E-2</v>
+        <v>-1.173133654402536E-2</v>
       </c>
       <c r="F46">
-        <v>7.7680186430773901E-2</v>
+        <v>-8.3353211365426727E-2</v>
       </c>
       <c r="G46">
-        <v>1.6185955376097679E-2</v>
+        <v>-1.675954465439666E-2</v>
       </c>
       <c r="H46">
-        <v>0.10550638146252921</v>
+        <v>-3.8582232681419248E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2018,25 +2018,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47">
-        <v>6675.68</v>
+        <v>3640.58</v>
       </c>
       <c r="D47">
-        <v>107.85000000000041</v>
+        <v>-36.869999999999891</v>
       </c>
       <c r="E47">
-        <v>1.6420948776079799E-2</v>
+        <v>-1.002596908183662E-2</v>
       </c>
       <c r="F47">
-        <v>-4.1689096752984822E-2</v>
+        <v>-0.25465001770947859</v>
       </c>
       <c r="G47">
-        <v>1.53173613961235E-2</v>
+        <v>-1.6801549844596919E-2</v>
       </c>
       <c r="H47">
-        <v>-3.3364983313007968E-2</v>
+        <v>-0.2915650197346642</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2044,25 +2044,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48">
-        <v>1164.3399999999999</v>
+        <v>867.08</v>
       </c>
       <c r="D48">
-        <v>16.269999999999978</v>
+        <v>-5.4199999999999591</v>
       </c>
       <c r="E48">
-        <v>1.4171609745050381E-2</v>
+        <v>-6.2120343839541237E-3</v>
       </c>
       <c r="F48">
-        <v>-0.25760193834284439</v>
+        <v>-0.22473467271085359</v>
       </c>
       <c r="G48">
-        <v>1.4171609745050381E-2</v>
+        <v>-1.707873366011059E-2</v>
       </c>
       <c r="H48">
-        <v>-0.25760193834284439</v>
+        <v>-0.2457980908489571</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2070,25 +2070,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49">
-        <v>8412.5499999999993</v>
+        <v>1503.84</v>
       </c>
       <c r="D49">
-        <v>117.5</v>
+        <v>-26.509999999999991</v>
       </c>
       <c r="E49">
-        <v>1.416507435157111E-2</v>
+        <v>-1.7322834645669302E-2</v>
       </c>
       <c r="F49">
-        <v>2.515436630908852E-2</v>
+        <v>-5.8782295213298703E-2</v>
       </c>
       <c r="G49">
-        <v>1.402976347808149E-2</v>
+        <v>-1.8032611663106209E-2</v>
       </c>
       <c r="H49">
-        <v>2.6377480545550561E-2</v>
+        <v>-7.0793964891656569E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2096,25 +2096,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50">
-        <v>33660.44</v>
+        <v>1171.8</v>
       </c>
       <c r="D50">
-        <v>210.60000000000579</v>
+        <v>-18.21000000000004</v>
       </c>
       <c r="E50">
-        <v>6.2959942409293026E-3</v>
+        <v>-1.5302392416870481E-2</v>
       </c>
       <c r="F50">
-        <v>-0.24627463906297439</v>
+        <v>-0.30103967217221689</v>
       </c>
       <c r="G50">
-        <v>1.186598468375433E-2</v>
+        <v>-1.8052873733210739E-2</v>
       </c>
       <c r="H50">
-        <v>-0.26713417858040472</v>
+        <v>-0.40848539654674593</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2122,25 +2122,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51">
-        <v>50781.18</v>
+        <v>5919.58</v>
       </c>
       <c r="D51">
-        <v>884.5</v>
+        <v>-97.069999999999709</v>
       </c>
       <c r="E51">
-        <v>1.7726630308870339E-2</v>
+        <v>-1.6133562696849509E-2</v>
       </c>
       <c r="F51">
-        <v>-4.2829739286242008E-3</v>
+        <v>-0.21857236770890809</v>
       </c>
       <c r="G51">
-        <v>9.9535140049258342E-3</v>
+        <v>-1.9053191560612359E-2</v>
       </c>
       <c r="H51">
-        <v>-0.1398878332090937</v>
+        <v>-0.22920886831820489</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2148,25 +2148,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52">
-        <v>10320.030000000001</v>
+        <v>6849.7</v>
       </c>
       <c r="D52">
-        <v>67.630000000001019</v>
+        <v>-101.1999999999998</v>
       </c>
       <c r="E52">
-        <v>6.5965042331552759E-3</v>
+        <v>-1.4559265706599159E-2</v>
       </c>
       <c r="F52">
-        <v>-3.2383190144588792E-2</v>
+        <v>-0.28655646866439599</v>
       </c>
       <c r="G52">
-        <v>9.1000457891277087E-3</v>
+        <v>-1.9573085607694329E-2</v>
       </c>
       <c r="H52">
-        <v>2.5439446720704861E-2</v>
+        <v>-0.25171036924015727</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2174,25 +2174,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C53">
-        <v>872.5</v>
+        <v>2799.54</v>
       </c>
       <c r="D53">
-        <v>14.779999999999969</v>
+        <v>-34.550000000000182</v>
       </c>
       <c r="E53">
-        <v>1.7231730634705841E-2</v>
+        <v>-1.2190861969803461E-2</v>
       </c>
       <c r="F53">
-        <v>-0.2198885938324259</v>
+        <v>-9.0724843855050641E-2</v>
       </c>
       <c r="G53">
-        <v>6.5189798488456407E-3</v>
+        <v>-2.031813921990111E-2</v>
       </c>
       <c r="H53">
-        <v>-0.23269346693507839</v>
+        <v>-0.27615727319341732</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2200,25 +2200,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54">
-        <v>423.27</v>
+        <v>17667.509999999998</v>
       </c>
       <c r="D54">
-        <v>2.9399999999999982</v>
+        <v>-444.75</v>
       </c>
       <c r="E54">
-        <v>6.9945043180357214E-3</v>
+        <v>-2.4555190793418391E-2</v>
       </c>
       <c r="F54">
-        <v>-0.25826688863576619</v>
+        <v>-0.1410358321677099</v>
       </c>
       <c r="G54">
-        <v>6.4229874694894376E-3</v>
+        <v>-2.4282399345686101E-2</v>
       </c>
       <c r="H54">
-        <v>-0.21959370080260229</v>
+        <v>-0.20408015102091279</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2226,25 +2226,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C55">
-        <v>10032.129999999999</v>
+        <v>1132.8</v>
       </c>
       <c r="D55">
-        <v>26.22999999999956</v>
+        <v>-31.53999999999996</v>
       </c>
       <c r="E55">
-        <v>2.6214533425279458E-3</v>
+        <v>-2.7088307539034909E-2</v>
       </c>
       <c r="F55">
-        <v>-3.6128383883414661E-2</v>
+        <v>-0.27771224535339689</v>
       </c>
       <c r="G55">
-        <v>2.4836672327583909E-3</v>
+        <v>-2.7088307539034909E-2</v>
       </c>
       <c r="H55">
-        <v>-3.6260844763699403E-2</v>
+        <v>-0.27771224535339689</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2255,22 +2255,22 @@
         <v>114</v>
       </c>
       <c r="C56">
-        <v>1698.91</v>
+        <v>1233.68</v>
       </c>
       <c r="D56">
-        <v>1.519999999999982</v>
+        <v>-33.460000000000043</v>
       </c>
       <c r="E56">
-        <v>8.9549249141329668E-4</v>
+        <v>-2.64059219975693E-2</v>
       </c>
       <c r="F56">
-        <v>-0.218521874726882</v>
+        <v>-0.21346509403889061</v>
       </c>
       <c r="G56">
-        <v>1.920145788416816E-3</v>
+        <v>-2.7653667184061589E-2</v>
       </c>
       <c r="H56">
-        <v>-0.22033921877668211</v>
+        <v>-0.2403297389657921</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2281,22 +2281,22 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>3604.21</v>
+        <v>33225.15</v>
       </c>
       <c r="D57">
-        <v>-10.42999999999984</v>
+        <v>-435.29000000000087</v>
       </c>
       <c r="E57">
-        <v>-2.8854879047428561E-3</v>
+        <v>-1.293179768297748E-2</v>
       </c>
       <c r="F57">
-        <v>-8.7955078584641355E-2</v>
+        <v>-0.25602166293914119</v>
       </c>
       <c r="G57">
-        <v>-2.958272049752964E-3</v>
+        <v>-3.7414993978736821E-2</v>
       </c>
       <c r="H57">
-        <v>-8.7962170316998045E-2</v>
+        <v>-0.29455434887604082</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2304,25 +2304,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C58">
-        <v>1165.7</v>
+        <v>833.84</v>
       </c>
       <c r="D58">
-        <v>20.670000000000069</v>
+        <v>-37.779999999999973</v>
       </c>
       <c r="E58">
-        <v>1.8051928770425271E-2</v>
+        <v>-4.3344576765104059E-2</v>
       </c>
       <c r="F58">
-        <v>4.6287237575507227E-2</v>
+        <v>0.27243594634600438</v>
       </c>
       <c r="G58">
-        <v>-6.1674853691722209E-3</v>
+        <v>-3.8135427341750787E-2</v>
       </c>
       <c r="H58">
-        <v>-0.2136064436042745</v>
+        <v>0.29659164003095939</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2330,25 +2330,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C59">
-        <v>2834.09</v>
+        <v>3264.6</v>
       </c>
       <c r="D59">
-        <v>-18.329999999999931</v>
+        <v>-122.75</v>
       </c>
       <c r="E59">
-        <v>-6.4261223802946077E-3</v>
+        <v>-3.6237766985992008E-2</v>
       </c>
       <c r="F59">
-        <v>-7.9503194353772622E-2</v>
+        <v>-0.17805115086938361</v>
       </c>
       <c r="G59">
-        <v>-7.3698687364475157E-3</v>
+        <v>-4.1141288928663089E-2</v>
       </c>
       <c r="H59">
-        <v>-0.26114511681353092</v>
+        <v>-0.13790542095460659</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2359,22 +2359,22 @@
         <v>117</v>
       </c>
       <c r="C60">
-        <v>3677.45</v>
+        <v>1655.36</v>
       </c>
       <c r="D60">
-        <v>11.41999999999962</v>
+        <v>-43.550000000000182</v>
       </c>
       <c r="E60">
-        <v>3.1150863468110131E-3</v>
+        <v>-2.5634083029707381E-2</v>
       </c>
       <c r="F60">
-        <v>-0.24710148043051439</v>
+        <v>-0.23855434987603319</v>
       </c>
       <c r="G60">
-        <v>-1.133897414089291E-2</v>
+        <v>-4.1602778769459281E-2</v>
       </c>
       <c r="H60">
-        <v>-0.27945881103315251</v>
+        <v>-0.25277527377313957</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2385,22 +2385,22 @@
         <v>118</v>
       </c>
       <c r="C61">
-        <v>5931.61</v>
+        <v>620.17999999999995</v>
       </c>
       <c r="D61">
-        <v>-67.789999999999964</v>
+        <v>-31.290000000000081</v>
       </c>
       <c r="E61">
-        <v>-1.129946327966125E-2</v>
+        <v>-4.8029840207530761E-2</v>
       </c>
       <c r="F61">
-        <v>-0.23932945791607199</v>
+        <v>-0.32595724331315418</v>
       </c>
       <c r="G61">
-        <v>-1.211643703707355E-2</v>
+        <v>-5.2873365308853781E-2</v>
       </c>
       <c r="H61">
-        <v>-0.19753004303232791</v>
+        <v>-0.29303556152044469</v>
       </c>
     </row>
   </sheetData>
@@ -2410,10 +2410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W201"/>
+  <dimension ref="A1:W206"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:W206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16366,13 +16366,13 @@
         <v>1752.75</v>
       </c>
       <c r="K197">
-        <v>185.95</v>
+        <v>186.05</v>
       </c>
       <c r="L197">
-        <v>144.05000000000001</v>
+        <v>143.9</v>
       </c>
       <c r="M197">
-        <v>1060.9000000000001</v>
+        <v>1062.2</v>
       </c>
       <c r="N197">
         <v>2.9630000000000001</v>
@@ -16437,13 +16437,13 @@
         <v>1769.25</v>
       </c>
       <c r="K198">
-        <v>189.3</v>
+        <v>189.8</v>
       </c>
       <c r="L198">
-        <v>146.55000000000001</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="M198">
-        <v>1065.8</v>
+        <v>1064.8</v>
       </c>
       <c r="N198">
         <v>2.9634999999999998</v>
@@ -16508,13 +16508,13 @@
         <v>1765.5</v>
       </c>
       <c r="K199">
-        <v>190.1</v>
+        <v>190.55</v>
       </c>
       <c r="L199">
-        <v>147.85</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="M199">
-        <v>1063.5</v>
+        <v>1064.5</v>
       </c>
       <c r="N199">
         <v>3.0329999999999999</v>
@@ -16579,13 +16579,13 @@
         <v>1800.25</v>
       </c>
       <c r="K200">
-        <v>191.85</v>
+        <v>191.7</v>
       </c>
       <c r="L200">
-        <v>148</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="M200">
-        <v>1071.5999999999999</v>
+        <v>1070.4000000000001</v>
       </c>
       <c r="N200">
         <v>3.0419999999999998</v>
@@ -16650,13 +16650,13 @@
         <v>1846.25</v>
       </c>
       <c r="K201">
-        <v>195.55</v>
+        <v>195.2</v>
       </c>
       <c r="L201">
-        <v>149.19999999999999</v>
+        <v>148.94999999999999</v>
       </c>
       <c r="M201">
-        <v>1104.2</v>
+        <v>1105.2</v>
       </c>
       <c r="N201">
         <v>3.0825</v>
@@ -16687,6 +16687,361 @@
       </c>
       <c r="W201">
         <v>557.29999999999995</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B202">
+        <v>1928.9</v>
+      </c>
+      <c r="C202">
+        <v>25.271000000000001</v>
+      </c>
+      <c r="D202">
+        <v>884.9</v>
+      </c>
+      <c r="E202">
+        <v>2428.6999999999998</v>
+      </c>
+      <c r="F202">
+        <v>39.43</v>
+      </c>
+      <c r="G202">
+        <v>41.72</v>
+      </c>
+      <c r="H202">
+        <v>2.8809999999999998</v>
+      </c>
+      <c r="I202">
+        <v>1.1571</v>
+      </c>
+      <c r="J202">
+        <v>1843.75</v>
+      </c>
+      <c r="K202">
+        <v>198.25</v>
+      </c>
+      <c r="L202">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="M202">
+        <v>1112.3</v>
+      </c>
+      <c r="N202">
+        <v>3.0640000000000001</v>
+      </c>
+      <c r="O202">
+        <v>389</v>
+      </c>
+      <c r="P202">
+        <v>1033.6199999999999</v>
+      </c>
+      <c r="Q202">
+        <v>68.63</v>
+      </c>
+      <c r="R202">
+        <v>2444</v>
+      </c>
+      <c r="S202">
+        <v>109.15</v>
+      </c>
+      <c r="T202">
+        <v>13.84</v>
+      </c>
+      <c r="U202">
+        <v>108.35</v>
+      </c>
+      <c r="V202">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="W202">
+        <v>535.79999999999995</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B203">
+        <v>1894.6</v>
+      </c>
+      <c r="C203">
+        <v>24.129000000000001</v>
+      </c>
+      <c r="D203">
+        <v>872.9</v>
+      </c>
+      <c r="E203">
+        <v>2330.8000000000002</v>
+      </c>
+      <c r="F203">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="G203">
+        <v>42.45</v>
+      </c>
+      <c r="H203">
+        <v>2.855</v>
+      </c>
+      <c r="I203">
+        <v>1.169</v>
+      </c>
+      <c r="J203">
+        <v>1853.25</v>
+      </c>
+      <c r="K203">
+        <v>194.8</v>
+      </c>
+      <c r="L203">
+        <v>149.55000000000001</v>
+      </c>
+      <c r="M203">
+        <v>1102.2</v>
+      </c>
+      <c r="N203">
+        <v>3.0445000000000002</v>
+      </c>
+      <c r="O203">
+        <v>391.25</v>
+      </c>
+      <c r="P203">
+        <v>1042.5</v>
+      </c>
+      <c r="Q203">
+        <v>68.78</v>
+      </c>
+      <c r="R203">
+        <v>2381</v>
+      </c>
+      <c r="S203">
+        <v>110.1</v>
+      </c>
+      <c r="T203">
+        <v>14.01</v>
+      </c>
+      <c r="U203">
+        <v>108.825</v>
+      </c>
+      <c r="V203">
+        <v>77.8</v>
+      </c>
+      <c r="W203">
+        <v>535.4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B204">
+        <v>1907.3</v>
+      </c>
+      <c r="C204">
+        <v>24.395</v>
+      </c>
+      <c r="D204">
+        <v>860.9</v>
+      </c>
+      <c r="E204">
+        <v>2355.6999999999998</v>
+      </c>
+      <c r="F204">
+        <v>41.04</v>
+      </c>
+      <c r="G204">
+        <v>43.32</v>
+      </c>
+      <c r="H204">
+        <v>2.6360000000000001</v>
+      </c>
+      <c r="I204">
+        <v>1.1924999999999999</v>
+      </c>
+      <c r="J204">
+        <v>1837.25</v>
+      </c>
+      <c r="K204">
+        <v>191.35</v>
+      </c>
+      <c r="L204">
+        <v>152.65</v>
+      </c>
+      <c r="M204">
+        <v>1134.2</v>
+      </c>
+      <c r="N204">
+        <v>3.0505</v>
+      </c>
+      <c r="O204">
+        <v>396.5</v>
+      </c>
+      <c r="P204">
+        <v>1058</v>
+      </c>
+      <c r="Q204">
+        <v>68.86</v>
+      </c>
+      <c r="R204">
+        <v>2391</v>
+      </c>
+      <c r="S204">
+        <v>109.6</v>
+      </c>
+      <c r="T204">
+        <v>14.2</v>
+      </c>
+      <c r="U204">
+        <v>108.375</v>
+      </c>
+      <c r="V204">
+        <v>78.430000000000007</v>
+      </c>
+      <c r="W204">
+        <v>548.9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B205">
+        <v>1908.9</v>
+      </c>
+      <c r="C205">
+        <v>24.224</v>
+      </c>
+      <c r="D205">
+        <v>867.7</v>
+      </c>
+      <c r="E205">
+        <v>2365</v>
+      </c>
+      <c r="F205">
+        <v>40.96</v>
+      </c>
+      <c r="G205">
+        <v>43.16</v>
+      </c>
+      <c r="H205">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="I205">
+        <v>1.1887000000000001</v>
+      </c>
+      <c r="J205">
+        <v>1854.75</v>
+      </c>
+      <c r="K205">
+        <v>194.35</v>
+      </c>
+      <c r="L205">
+        <v>148.6</v>
+      </c>
+      <c r="M205">
+        <v>1130</v>
+      </c>
+      <c r="N205">
+        <v>3.0855000000000001</v>
+      </c>
+      <c r="O205">
+        <v>403.75</v>
+      </c>
+      <c r="P205">
+        <v>1062.1199999999999</v>
+      </c>
+      <c r="Q205">
+        <v>69.239999999999995</v>
+      </c>
+      <c r="R205">
+        <v>2343</v>
+      </c>
+      <c r="S205">
+        <v>109.5</v>
+      </c>
+      <c r="T205">
+        <v>14.18</v>
+      </c>
+      <c r="U205">
+        <v>107.77500000000001</v>
+      </c>
+      <c r="V205">
+        <v>69.88</v>
+      </c>
+      <c r="W205">
+        <v>537.70000000000005</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B206">
+        <v>1906.4</v>
+      </c>
+      <c r="C206">
+        <v>24.405000000000001</v>
+      </c>
+      <c r="D206">
+        <v>865.65</v>
+      </c>
+      <c r="E206">
+        <v>2338.1999999999998</v>
+      </c>
+      <c r="F206">
+        <v>40.880000000000003</v>
+      </c>
+      <c r="G206">
+        <v>42.93</v>
+      </c>
+      <c r="H206">
+        <v>2.7730000000000001</v>
+      </c>
+      <c r="I206">
+        <v>1.1791</v>
+      </c>
+      <c r="J206">
+        <v>1863.5</v>
+      </c>
+      <c r="K206">
+        <v>194</v>
+      </c>
+      <c r="L206">
+        <v>147.5</v>
+      </c>
+      <c r="M206">
+        <v>1148.7</v>
+      </c>
+      <c r="N206">
+        <v>3.0674999999999999</v>
+      </c>
+      <c r="O206">
+        <v>402</v>
+      </c>
+      <c r="P206">
+        <v>1050.6199999999999</v>
+      </c>
+      <c r="Q206">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="R206">
+        <v>2361</v>
+      </c>
+      <c r="S206">
+        <v>107.25</v>
+      </c>
+      <c r="T206">
+        <v>14.43</v>
+      </c>
+      <c r="U206">
+        <v>107.15</v>
+      </c>
+      <c r="V206">
+        <v>69.8</v>
+      </c>
+      <c r="W206">
+        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -41,121 +41,49 @@
     <t>Indices</t>
   </si>
   <si>
-    <t>China A50</t>
+    <t>PSEi Composite</t>
   </si>
   <si>
-    <t>DJ Shanghai</t>
+    <t>S&amp;P CLX IPSA</t>
   </si>
   <si>
-    <t>Shanghai</t>
+    <t>S&amp;P/BMV IPC</t>
   </si>
   <si>
-    <t>SZSE Component</t>
+    <t>Karachi 100</t>
   </si>
   <si>
-    <t>BIST 100</t>
+    <t>Bovespa</t>
   </si>
   <si>
-    <t>Tadawul All Share</t>
+    <t>RTSI</t>
   </si>
   <si>
-    <t>NZX 50</t>
+    <t>MOEX</t>
   </si>
   <si>
-    <t>HNX 30</t>
+    <t>FTSE/JSE Top 40</t>
   </si>
   <si>
-    <t>Bahrain All Share</t>
-  </si>
-  <si>
-    <t>IDX Composite</t>
+    <t>Budapest SE</t>
   </si>
   <si>
     <t>Hang Seng</t>
   </si>
   <si>
-    <t>BSE SOFIX</t>
+    <t>COLCAP</t>
   </si>
   <si>
-    <t>Nasdaq</t>
+    <t>KOSPI</t>
   </si>
   <si>
-    <t>Bovespa</t>
+    <t>IBEX 35</t>
   </si>
   <si>
-    <t>PSI 20</t>
+    <t>S&amp;P Lima General</t>
   </si>
   <si>
-    <t>Tunindex</t>
-  </si>
-  <si>
-    <t>OMXC25</t>
-  </si>
-  <si>
-    <t>S&amp;P 500</t>
-  </si>
-  <si>
-    <t>EGX 30</t>
-  </si>
-  <si>
-    <t>S&amp;P/ASX 200</t>
-  </si>
-  <si>
-    <t>OMX Helsinki 25</t>
-  </si>
-  <si>
-    <t>SmallCap 2000</t>
-  </si>
-  <si>
-    <t>FTSE/JSE Top 40</t>
-  </si>
-  <si>
-    <t>Nikkei 225</t>
-  </si>
-  <si>
-    <t>FTSE Singapore</t>
-  </si>
-  <si>
-    <t>MSM 30</t>
-  </si>
-  <si>
-    <t>QE General</t>
-  </si>
-  <si>
-    <t>AEX</t>
-  </si>
-  <si>
-    <t>OMXS30</t>
-  </si>
-  <si>
-    <t>CAC 40</t>
-  </si>
-  <si>
-    <t>SMI</t>
-  </si>
-  <si>
-    <t>S&amp;P/TSX</t>
-  </si>
-  <si>
-    <t>PSEi Composite</t>
-  </si>
-  <si>
-    <t>Karachi 100</t>
-  </si>
-  <si>
-    <t>S&amp;P/BMV IPC</t>
-  </si>
-  <si>
-    <t>Cyprus Main Market</t>
-  </si>
-  <si>
-    <t>Euro Stoxx 50</t>
-  </si>
-  <si>
-    <t>ATX</t>
-  </si>
-  <si>
-    <t>Nifty 50</t>
+    <t>NZX 50</t>
   </si>
   <si>
     <t>Taiwan Weighted</t>
@@ -164,214 +92,286 @@
     <t>BSE Sensex</t>
   </si>
   <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>Nifty 50</t>
+  </si>
+  <si>
+    <t>Nikkei 225</t>
+  </si>
+  <si>
+    <t>ATX</t>
+  </si>
+  <si>
+    <t>HNX 30</t>
+  </si>
+  <si>
+    <t>BSE SOFIX</t>
+  </si>
+  <si>
+    <t>OMXS30</t>
+  </si>
+  <si>
+    <t>SmallCap 2000</t>
+  </si>
+  <si>
+    <t>CAC 40</t>
+  </si>
+  <si>
+    <t>ISEQ Overall</t>
+  </si>
+  <si>
     <t>FTSE MIB</t>
   </si>
   <si>
-    <t>KOSPI</t>
+    <t>S&amp;P/ASX 200</t>
+  </si>
+  <si>
+    <t>BEL 20</t>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>China A50</t>
+  </si>
+  <si>
+    <t>IDX Composite</t>
+  </si>
+  <si>
+    <t>Tunindex</t>
+  </si>
+  <si>
+    <t>S&amp;P/TSX</t>
+  </si>
+  <si>
+    <t>FTSE Singapore</t>
+  </si>
+  <si>
+    <t>BIST 100</t>
+  </si>
+  <si>
+    <t>OMX Helsinki 25</t>
+  </si>
+  <si>
+    <t>KLCI</t>
+  </si>
+  <si>
+    <t>Athens General Composite</t>
+  </si>
+  <si>
+    <t>QE General</t>
+  </si>
+  <si>
+    <t>WIG20</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Tadawul All Share</t>
+  </si>
+  <si>
+    <t>MSM 30</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>DJ Shanghai</t>
   </si>
   <si>
     <t>DAX</t>
   </si>
   <si>
-    <t>ISEQ Overall</t>
+    <t>Shanghai</t>
   </si>
   <si>
-    <t>S&amp;P CLX IPSA</t>
+    <t>PSI 20</t>
   </si>
   <si>
-    <t>PX</t>
+    <t>Nasdaq 100</t>
   </si>
   <si>
-    <t>KLCI</t>
+    <t>Cyprus Main Market</t>
   </si>
   <si>
-    <t>COLCAP</t>
-  </si>
-  <si>
-    <t>FTSE 100</t>
-  </si>
-  <si>
-    <t>IBEX 35</t>
-  </si>
-  <si>
-    <t>MOEX</t>
-  </si>
-  <si>
-    <t>S&amp;P Lima General</t>
-  </si>
-  <si>
-    <t>RTSI</t>
+    <t>AEX</t>
   </si>
   <si>
     <t>SET</t>
   </si>
   <si>
-    <t>Budapest SE</t>
+    <t>Bahrain All Share</t>
+  </si>
+  <si>
+    <t>OMXC25</t>
   </si>
   <si>
     <t>KOSDAQ</t>
   </si>
   <si>
-    <t>BEL 20</t>
+    <t>SZSE Component</t>
   </si>
   <si>
-    <t>WIG20</t>
+    <t>EGX 30</t>
   </si>
   <si>
-    <t>Athens General Composite</t>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
     <t>Turkey</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
   <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>New Zealand</t>
+    <t>Oman</t>
   </si>
   <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Brazil</t>
+    <t>Switzerland</t>
   </si>
   <si>
     <t>Portugal</t>
   </si>
   <si>
-    <t>Tunisia</t>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
   </si>
   <si>
     <t>Denmark</t>
   </si>
   <si>
     <t>Egypt</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Greece</t>
   </si>
   <si>
     <t>Date</t>
@@ -851,22 +851,22 @@
         <v>68</v>
       </c>
       <c r="C2">
-        <v>15984.49</v>
+        <v>6484.06</v>
       </c>
       <c r="D2">
-        <v>529.5</v>
+        <v>585.59000000000015</v>
       </c>
       <c r="E2">
-        <v>3.4260779204645209E-2</v>
+        <v>9.9278287420297096E-2</v>
       </c>
       <c r="F2">
-        <v>0.1146023493512995</v>
+        <v>-0.1684831883578464</v>
       </c>
       <c r="G2">
-        <v>4.4305130573740747E-2</v>
+        <v>0.1015882517668014</v>
       </c>
       <c r="H2">
-        <v>0.1544859860433303</v>
+        <v>-0.12523028199299779</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -874,25 +874,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3">
-        <v>495.16</v>
+        <v>3807.95</v>
       </c>
       <c r="D3">
-        <v>10.23000000000002</v>
+        <v>167.36999999999989</v>
       </c>
       <c r="E3">
-        <v>2.1095828263873129E-2</v>
+        <v>4.5973443791923252E-2</v>
       </c>
       <c r="F3">
-        <v>0.11733911002798079</v>
+        <v>-0.22038371219333441</v>
       </c>
       <c r="G3">
-        <v>3.1012326585009301E-2</v>
+        <v>7.9974547548894437E-2</v>
       </c>
       <c r="H3">
-        <v>0.15732067578736489</v>
+        <v>-0.2349082527201343</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -900,25 +900,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4">
-        <v>3336.36</v>
+        <v>38707.72</v>
       </c>
       <c r="D4">
-        <v>64.2800000000002</v>
+        <v>831.2300000000032</v>
       </c>
       <c r="E4">
-        <v>1.9644996454854399E-2</v>
+        <v>2.1945803320212679E-2</v>
       </c>
       <c r="F4">
-        <v>8.2035798028805784E-2</v>
+        <v>-0.1300717154396083</v>
       </c>
       <c r="G4">
-        <v>2.9547404843586419E-2</v>
+        <v>3.8035187477360788E-2</v>
       </c>
       <c r="H4">
-        <v>0.1207541110500092</v>
+        <v>-0.2134933884308817</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -926,25 +926,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5">
-        <v>13532.73</v>
+        <v>41266</v>
       </c>
       <c r="D5">
-        <v>243.46999999999929</v>
+        <v>1101.980000000003</v>
       </c>
       <c r="E5">
-        <v>1.8320809435589339E-2</v>
+        <v>2.7436994603627921E-2</v>
       </c>
       <c r="F5">
-        <v>0.26494564074378379</v>
+        <v>-7.3227005654752375E-4</v>
       </c>
       <c r="G5">
-        <v>2.8210357818443391E-2</v>
+        <v>3.5389265359309093E-2</v>
       </c>
       <c r="H5">
-        <v>0.31020898726369328</v>
+        <v>-4.4353634051218387E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -952,25 +952,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C6">
-        <v>1192.73</v>
+        <v>101259.75</v>
       </c>
       <c r="D6">
-        <v>27.029999999999969</v>
+        <v>2950.6300000000051</v>
       </c>
       <c r="E6">
-        <v>2.318778416402156E-2</v>
+        <v>3.001379729571374E-2</v>
       </c>
       <c r="F6">
-        <v>7.0548320213978499E-2</v>
+        <v>-0.13362806251172171</v>
       </c>
       <c r="G6">
-        <v>2.4400474806197E-2</v>
+        <v>3.3679706867799641E-2</v>
       </c>
       <c r="H6">
-        <v>-0.19441806744368481</v>
+        <v>-0.37136783769747461</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -978,25 +978,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C7">
-        <v>8553.7900000000009</v>
+        <v>1164.06</v>
       </c>
       <c r="D7">
-        <v>141.2400000000016</v>
+        <v>31.259999999999991</v>
       </c>
       <c r="E7">
-        <v>1.678920184724042E-2</v>
+        <v>2.759533898305078E-2</v>
       </c>
       <c r="F7">
-        <v>4.2365889889631532E-2</v>
+        <v>-0.25778046992061721</v>
       </c>
       <c r="G7">
-        <v>1.6748441350890261E-2</v>
+        <v>2.759533898305078E-2</v>
       </c>
       <c r="H7">
-        <v>4.3567703582342077E-2</v>
+        <v>-0.25778046992061721</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1004,25 +1004,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8">
-        <v>12433.16</v>
+        <v>2816.7</v>
       </c>
       <c r="D8">
-        <v>152.61999999999901</v>
+        <v>17.159999999999851</v>
       </c>
       <c r="E8">
-        <v>1.2427792263206561E-2</v>
+        <v>6.1295784307422441E-3</v>
       </c>
       <c r="F8">
-        <v>6.9305738553682161E-2</v>
+        <v>-8.5151370470334942E-2</v>
       </c>
       <c r="G8">
-        <v>1.3890959164935881E-2</v>
+        <v>2.4300531552744919E-2</v>
       </c>
       <c r="H8">
-        <v>6.0245552559315067E-2</v>
+        <v>-0.25856751017142909</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1030,25 +1030,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9">
-        <v>260.48</v>
+        <v>50692.28</v>
       </c>
       <c r="D9">
-        <v>3.28000000000003</v>
+        <v>-5.4100000000034916</v>
       </c>
       <c r="E9">
-        <v>1.2752721617418359E-2</v>
+        <v>-1.067109763779328E-4</v>
       </c>
       <c r="F9">
-        <v>0.46526410530460721</v>
+        <v>-6.0261245135012631E-3</v>
       </c>
       <c r="G9">
-        <v>1.36705641880428E-2</v>
+        <v>2.3625990141000749E-2</v>
       </c>
       <c r="H9">
-        <v>0.46532734515427049</v>
+        <v>-0.1203191366918251</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1056,25 +1056,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C10">
-        <v>1477.84</v>
+        <v>33655.1</v>
       </c>
       <c r="D10">
-        <v>19.419999999999849</v>
+        <v>429.94999999999709</v>
       </c>
       <c r="E10">
-        <v>1.331578009078305E-2</v>
+        <v>1.294049838751654E-2</v>
       </c>
       <c r="F10">
-        <v>-6.7096766048241108E-2</v>
+        <v>-0.24639421246805779</v>
       </c>
       <c r="G10">
-        <v>1.3497107976170319E-2</v>
+        <v>2.2799089761634809E-2</v>
       </c>
       <c r="H10">
-        <v>-6.7241247859634479E-2</v>
+        <v>-0.27847083015411073</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1082,25 +1082,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11">
-        <v>5103.41</v>
+        <v>24918.78</v>
       </c>
       <c r="D11">
-        <v>49.75</v>
+        <v>531.98999999999796</v>
       </c>
       <c r="E11">
-        <v>9.8443504311727104E-3</v>
+        <v>2.1814679176718199E-2</v>
       </c>
       <c r="F11">
-        <v>-0.1844200466647489</v>
+        <v>-0.11717521918473579</v>
       </c>
       <c r="G11">
-        <v>1.153291702483661E-2</v>
+        <v>2.1349394192190289E-2</v>
       </c>
       <c r="H11">
-        <v>-0.2243961615975926</v>
+        <v>-0.1139871161214548</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1108,25 +1108,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12">
-        <v>24386.79</v>
+        <v>1175.33</v>
       </c>
       <c r="D12">
-        <v>267.65999999999991</v>
+        <v>3.5299999999999732</v>
       </c>
       <c r="E12">
-        <v>1.1097415205274739E-2</v>
+        <v>3.012459464072359E-3</v>
       </c>
       <c r="F12">
-        <v>-0.1360226087899217</v>
+        <v>-0.29893408251764109</v>
       </c>
       <c r="G12">
-        <v>1.1080484546649011E-2</v>
+        <v>2.0581185892203591E-2</v>
       </c>
       <c r="H12">
-        <v>-0.13250755430337921</v>
+        <v>-0.3963113245351213</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13">
-        <v>429.83</v>
+        <v>2360.81</v>
       </c>
       <c r="D13">
-        <v>6.5600000000000023</v>
+        <v>19.279999999999749</v>
       </c>
       <c r="E13">
-        <v>1.5498381647648159E-2</v>
+        <v>8.2339325142106734E-3</v>
       </c>
       <c r="F13">
-        <v>-0.2467712257951459</v>
+        <v>9.5467896634447991E-2</v>
       </c>
       <c r="G13">
-        <v>1.0605003722956139E-2</v>
+        <v>1.7105865666615431E-2</v>
       </c>
       <c r="H13">
-        <v>-0.21131748909419551</v>
+        <v>0.12608660287714121</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1160,25 +1160,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14">
-        <v>11671.55</v>
+        <v>6893.4</v>
       </c>
       <c r="D14">
-        <v>91.609999999998763</v>
+        <v>43.699999999999818</v>
       </c>
       <c r="E14">
-        <v>7.9110945307141467E-3</v>
+        <v>6.3798414529103731E-3</v>
       </c>
       <c r="F14">
-        <v>0.28662168314506919</v>
+        <v>-0.2820048120488704</v>
       </c>
       <c r="G14">
-        <v>7.9110945307141467E-3</v>
+        <v>1.565441614025254E-2</v>
       </c>
       <c r="H14">
-        <v>0.28662168314506919</v>
+        <v>-0.23999633196680689</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1186,25 +1186,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C15">
-        <v>98309.119999999995</v>
+        <v>18058.66</v>
       </c>
       <c r="D15">
-        <v>825.80999999999767</v>
+        <v>391.15000000000151</v>
       </c>
       <c r="E15">
-        <v>8.4712962659967417E-3</v>
+        <v>2.2139509189467169E-2</v>
       </c>
       <c r="F15">
-        <v>-0.15887346386725579</v>
+        <v>-0.12201878708056391</v>
       </c>
       <c r="G15">
-        <v>6.2067055282619688E-3</v>
+        <v>1.448091408349983E-2</v>
       </c>
       <c r="H15">
-        <v>-0.39185014649521122</v>
+        <v>-0.1925545040704946</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1212,25 +1212,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C16">
-        <v>4228.0200000000004</v>
+        <v>12470.34</v>
       </c>
       <c r="D16">
-        <v>46.290000000000873</v>
+        <v>37.180000000000291</v>
       </c>
       <c r="E16">
-        <v>1.106958124986579E-2</v>
+        <v>2.9903902145553829E-3</v>
       </c>
       <c r="F16">
-        <v>-0.1924941270841688</v>
+        <v>7.2503379970620951E-2</v>
       </c>
       <c r="G16">
-        <v>5.9253644426546792E-3</v>
+        <v>1.403808618725866E-2</v>
       </c>
       <c r="H16">
-        <v>-0.15305382284508631</v>
+        <v>7.5129371005800305E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1238,25 +1238,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C17">
-        <v>6676.4</v>
+        <v>12898.82</v>
       </c>
       <c r="D17">
-        <v>0.71999999999934516</v>
+        <v>148.44999999999891</v>
       </c>
       <c r="E17">
-        <v>1.078541811470046E-4</v>
+        <v>1.164279938542956E-2</v>
       </c>
       <c r="F17">
-        <v>-4.1585738915230867E-2</v>
+        <v>7.9095752156715715E-2</v>
       </c>
       <c r="G17">
-        <v>4.1053363831331513E-3</v>
+        <v>1.347693059311483E-2</v>
       </c>
       <c r="H17">
-        <v>-2.939662140979216E-2</v>
+        <v>0.13003869233840051</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1264,25 +1264,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C18">
-        <v>1579.13</v>
+        <v>40685.5</v>
       </c>
       <c r="D18">
-        <v>14.05000000000018</v>
+        <v>702.5199999999968</v>
       </c>
       <c r="E18">
-        <v>8.9771768855266831E-3</v>
+        <v>1.7570476237638969E-2</v>
       </c>
       <c r="F18">
-        <v>0.2784821399656725</v>
+        <v>2.1806132907276071E-4</v>
       </c>
       <c r="G18">
-        <v>3.858583194896958E-3</v>
+        <v>1.275318148895033E-2</v>
       </c>
       <c r="H18">
-        <v>0.34646860997491208</v>
+        <v>-2.6768237455828011E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1290,25 +1290,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C19">
-        <v>3483.81</v>
+        <v>863.1</v>
       </c>
       <c r="D19">
-        <v>6.6799999999998363</v>
+        <v>-3.9800000000000182</v>
       </c>
       <c r="E19">
-        <v>1.9211246056374249E-3</v>
+        <v>-4.5901185588411719E-3</v>
       </c>
       <c r="F19">
-        <v>7.3169905245388467E-2</v>
+        <v>-0.22829323247766961</v>
       </c>
       <c r="G19">
-        <v>1.9211246056374249E-3</v>
+        <v>9.9892920036712685E-3</v>
       </c>
       <c r="H19">
-        <v>7.3169905245388467E-2</v>
+        <v>-0.23826414774872109</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1316,25 +1316,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20">
-        <v>11322.71</v>
+        <v>11930.35</v>
       </c>
       <c r="D20">
-        <v>-4.2700000000004366</v>
+        <v>167.89999999999961</v>
       </c>
       <c r="E20">
-        <v>-3.7697603421216202E-4</v>
+        <v>1.427423708496112E-2</v>
       </c>
       <c r="F20">
-        <v>-0.14304084113267129</v>
+        <v>-5.2280278994917273E-3</v>
       </c>
       <c r="G20">
-        <v>1.077233881672246E-4</v>
+        <v>9.4725471085526092E-3</v>
       </c>
       <c r="H20">
-        <v>-0.12444757835480701</v>
+        <v>-3.2067388934702179E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1342,25 +1342,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C21">
-        <v>6176.8</v>
+        <v>23516.59</v>
       </c>
       <c r="D21">
-        <v>74.600000000000364</v>
+        <v>105.9599999999991</v>
       </c>
       <c r="E21">
-        <v>1.222509914457093E-2</v>
+        <v>4.5261490186294662E-3</v>
       </c>
       <c r="F21">
-        <v>-8.2975785738675922E-2</v>
+        <v>1.3433823776570991E-2</v>
       </c>
       <c r="G21">
-        <v>-4.102220400710177E-4</v>
+        <v>8.7292974150652292E-3</v>
       </c>
       <c r="H21">
-        <v>-6.3936720686850745E-2</v>
+        <v>4.2826288336247798E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1368,25 +1368,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C22">
-        <v>4439.49</v>
+        <v>2193.7399999999998</v>
       </c>
       <c r="D22">
-        <v>20.279999999999749</v>
+        <v>-1.580000000000382</v>
       </c>
       <c r="E22">
-        <v>4.5890555099215016E-3</v>
+        <v>-7.197128436858824E-4</v>
       </c>
       <c r="F22">
-        <v>4.0797379890140872E-2</v>
+        <v>-0.31504274464989362</v>
       </c>
       <c r="G22">
-        <v>-5.2218905675427418E-4</v>
+        <v>8.4894339168850586E-3</v>
       </c>
       <c r="H22">
-        <v>9.1632137494914057E-2</v>
+        <v>-0.27496724873946932</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,25 +1394,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C23">
-        <v>1636.38</v>
+        <v>262.17</v>
       </c>
       <c r="D23">
-        <v>-1.1699999999998449</v>
+        <v>1.6899999999999979</v>
       </c>
       <c r="E23">
-        <v>-7.1448200054946565E-4</v>
+        <v>6.4880221130221294E-3</v>
       </c>
       <c r="F23">
-        <v>-1.6161033151762091E-2</v>
+        <v>0.47477077122124101</v>
       </c>
       <c r="G23">
-        <v>-7.1448200054946565E-4</v>
+        <v>6.2274819737828668E-3</v>
       </c>
       <c r="H23">
-        <v>-1.6161033151762091E-2</v>
+        <v>0.47445264478191002</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1420,25 +1420,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C24">
-        <v>50697.69</v>
+        <v>427.07</v>
       </c>
       <c r="D24">
-        <v>-83.489999999997963</v>
+        <v>-2.7599999999999909</v>
       </c>
       <c r="E24">
-        <v>-1.644113035577321E-3</v>
+        <v>-6.4211432426772852E-3</v>
       </c>
       <c r="F24">
-        <v>-5.9200452709343709E-3</v>
+        <v>-0.25160781564882151</v>
       </c>
       <c r="G24">
-        <v>-8.5447150620932E-4</v>
+        <v>5.6391693851718383E-3</v>
       </c>
       <c r="H24">
-        <v>-0.14062277454776029</v>
+        <v>-0.20686997482407499</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1446,25 +1446,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C25">
-        <v>23410.63</v>
+        <v>1819.94</v>
       </c>
       <c r="D25">
-        <v>-209.0599999999977</v>
+        <v>-15.369999999999891</v>
       </c>
       <c r="E25">
-        <v>-8.8510899169293999E-3</v>
+        <v>-8.3746070146186735E-3</v>
       </c>
       <c r="F25">
-        <v>8.8675389552015371E-3</v>
+        <v>1.9442872907132539E-2</v>
       </c>
       <c r="G25">
-        <v>-2.6611555857277698E-3</v>
+        <v>4.5888631956294557E-3</v>
       </c>
       <c r="H25">
-        <v>3.3801923874480673E-2</v>
+        <v>9.475810071798052E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1472,25 +1472,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C26">
-        <v>267.2</v>
+        <v>1640.5</v>
       </c>
       <c r="D26">
-        <v>-0.29000000000002052</v>
+        <v>6.6900000000000546</v>
       </c>
       <c r="E26">
-        <v>-1.0841526786048441E-3</v>
+        <v>4.0947233766472912E-3</v>
       </c>
       <c r="F26">
-        <v>-0.20454883748623151</v>
+        <v>-1.3683970034751081E-2</v>
       </c>
       <c r="G26">
-        <v>-2.7145048527572602E-3</v>
+        <v>4.0947233766472912E-3</v>
       </c>
       <c r="H26">
-        <v>-0.21060764756632261</v>
+        <v>-1.3683970034751081E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1498,25 +1498,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C27">
-        <v>3593.63</v>
+        <v>4909.6400000000003</v>
       </c>
       <c r="D27">
-        <v>-10.579999999999931</v>
+        <v>-26.219999999999349</v>
       </c>
       <c r="E27">
-        <v>-2.935456036135542E-3</v>
+        <v>-5.312144185612877E-3</v>
       </c>
       <c r="F27">
-        <v>-9.0632346354436844E-2</v>
+        <v>-0.1835758673271706</v>
       </c>
       <c r="G27">
-        <v>-2.925149273484307E-3</v>
+        <v>3.8546797404548361E-3</v>
       </c>
       <c r="H27">
-        <v>-9.0630017111885453E-2</v>
+        <v>-0.13580850413108611</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1524,25 +1524,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C28">
-        <v>9999.4599999999991</v>
+        <v>6574.4</v>
       </c>
       <c r="D28">
-        <v>-32.670000000000073</v>
+        <v>-35.210000000000043</v>
       </c>
       <c r="E28">
-        <v>-3.256536747430538E-3</v>
+        <v>-5.3270919161645391E-3</v>
       </c>
       <c r="F28">
-        <v>-3.9267267221103519E-2</v>
+        <v>-8.823627306314008E-2</v>
       </c>
       <c r="G28">
-        <v>-3.256536747430538E-3</v>
+        <v>3.8395942549147581E-3</v>
       </c>
       <c r="H28">
-        <v>-3.9399296737663958E-2</v>
+        <v>-3.4890778545449752E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1550,25 +1550,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C29">
-        <v>568.17999999999995</v>
+        <v>19285.41</v>
       </c>
       <c r="D29">
-        <v>1.0099999999999909</v>
+        <v>-104.27000000000039</v>
       </c>
       <c r="E29">
-        <v>1.7807711973483189E-3</v>
+        <v>-5.3776029310437226E-3</v>
       </c>
       <c r="F29">
-        <v>-6.4323825834925352E-2</v>
+        <v>-0.18217323988636761</v>
       </c>
       <c r="G29">
-        <v>-3.3161851110037328E-3</v>
+        <v>3.7886177416612821E-3</v>
       </c>
       <c r="H29">
-        <v>-1.8623411489854799E-2</v>
+        <v>-0.1343238117295448</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1576,25 +1576,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C30">
-        <v>1835.31</v>
+        <v>6167</v>
       </c>
       <c r="D30">
-        <v>-4.7599999999999909</v>
+        <v>-9.8000000000001819</v>
       </c>
       <c r="E30">
-        <v>-2.5868581086588849E-3</v>
+        <v>-1.586582048957452E-3</v>
       </c>
       <c r="F30">
-        <v>2.8052407812998888E-2</v>
+        <v>-8.4430719895482231E-2</v>
       </c>
       <c r="G30">
-        <v>-5.4722531966112653E-3</v>
+        <v>3.728237816092328E-3</v>
       </c>
       <c r="H30">
-        <v>8.9757353307222676E-2</v>
+        <v>-6.0446854170660091E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1602,25 +1602,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C31">
-        <v>4935.8599999999997</v>
+        <v>3246.45</v>
       </c>
       <c r="D31">
-        <v>-10.950000000000729</v>
+        <v>-18.150000000000091</v>
       </c>
       <c r="E31">
-        <v>-2.213547720652409E-3</v>
+        <v>-5.5596397721007218E-3</v>
       </c>
       <c r="F31">
-        <v>-0.1792157430087519</v>
+        <v>-0.1826208903816425</v>
       </c>
       <c r="G31">
-        <v>-7.2901813500391146E-3</v>
+        <v>3.604903289220696E-3</v>
       </c>
       <c r="H31">
-        <v>-0.13912689425091951</v>
+        <v>-0.13479765337098629</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1628,25 +1628,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C32">
-        <v>10207.129999999999</v>
+        <v>5860.28</v>
       </c>
       <c r="D32">
-        <v>-112.9000000000015</v>
+        <v>-59.300000000000182</v>
       </c>
       <c r="E32">
-        <v>-1.0939890678612559E-2</v>
+        <v>-1.001760260018447E-2</v>
       </c>
       <c r="F32">
-        <v>-4.2968812263194822E-2</v>
+        <v>-0.2264003991900034</v>
       </c>
       <c r="G32">
-        <v>-8.343721325438036E-3</v>
+        <v>3.486199089280273E-3</v>
       </c>
       <c r="H32">
-        <v>1.688346574115562E-2</v>
+        <v>-0.22652173697691069</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1654,25 +1654,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C33">
-        <v>16438.75</v>
+        <v>15941.14</v>
       </c>
       <c r="D33">
-        <v>-124.0600000000013</v>
+        <v>-43.350000000000357</v>
       </c>
       <c r="E33">
-        <v>-7.4902748990057777E-3</v>
+        <v>-2.712003948827868E-3</v>
       </c>
       <c r="F33">
-        <v>-3.8977005601132382E-2</v>
+        <v>0.11157954337848611</v>
       </c>
       <c r="G33">
-        <v>-9.9667841575857841E-3</v>
+        <v>3.3163017141288891E-3</v>
       </c>
       <c r="H33">
-        <v>-5.6307956849880769E-2</v>
+        <v>0.15831460989778351</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1680,25 +1680,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C34">
-        <v>5898.47</v>
+        <v>5112.1899999999996</v>
       </c>
       <c r="D34">
-        <v>-33.139999999999418</v>
+        <v>8.7799999999997453</v>
       </c>
       <c r="E34">
-        <v>-5.5870160040865091E-3</v>
+        <v>1.720418308542637E-3</v>
       </c>
       <c r="F34">
-        <v>-0.24357933640853199</v>
+        <v>-0.1830169079809506</v>
       </c>
       <c r="G34">
-        <v>-1.043195463352364E-2</v>
+        <v>2.5825693614651701E-3</v>
       </c>
       <c r="H34">
-        <v>-0.20590137321818039</v>
+        <v>-0.2223931108878999</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1706,25 +1706,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C35">
-        <v>40164.019999999997</v>
+        <v>6662.96</v>
       </c>
       <c r="D35">
-        <v>-634.41000000000349</v>
+        <v>-13.4399999999996</v>
       </c>
       <c r="E35">
-        <v>-1.554986307071138E-2</v>
+        <v>-2.0130609310405889E-3</v>
       </c>
       <c r="F35">
-        <v>-2.7417023922759132E-2</v>
+        <v>-4.3515085219972723E-2</v>
       </c>
       <c r="G35">
-        <v>-1.1618128401055359E-2</v>
+        <v>2.357694705208635E-3</v>
       </c>
       <c r="H35">
-        <v>-7.701731327381911E-2</v>
+        <v>-2.710823496323234E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1732,25 +1732,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C36">
-        <v>37876.49</v>
+        <v>16304.08</v>
       </c>
       <c r="D36">
-        <v>-602.09000000000378</v>
+        <v>-134.6700000000001</v>
       </c>
       <c r="E36">
-        <v>-1.5647406946930009E-2</v>
+        <v>-8.1922287278534123E-3</v>
       </c>
       <c r="F36">
-        <v>-0.14875301436331489</v>
+        <v>-4.68499257839744E-2</v>
       </c>
       <c r="G36">
-        <v>-1.232681874036623E-2</v>
+        <v>-1.5181473506369341E-3</v>
       </c>
       <c r="H36">
-        <v>-0.24231218646788719</v>
+        <v>-5.7740620425006162E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1758,25 +1758,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C37">
-        <v>27.35</v>
+        <v>267.29000000000002</v>
       </c>
       <c r="D37">
-        <v>-0.21999999999999889</v>
+        <v>-1.2299999999999609</v>
       </c>
       <c r="E37">
-        <v>-7.9796880667392101E-3</v>
+        <v>-4.580664382541233E-3</v>
       </c>
       <c r="F37">
-        <v>-0.39677988531098368</v>
+        <v>-0.20428090857670211</v>
       </c>
       <c r="G37">
-        <v>-1.302698417412829E-2</v>
+        <v>-2.093511939648685E-3</v>
       </c>
       <c r="H37">
-        <v>-0.3673173319792522</v>
+        <v>-0.20836872117553329</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1784,25 +1784,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C38">
-        <v>3245.47</v>
+        <v>1190.6300000000001</v>
       </c>
       <c r="D38">
-        <v>-27.650000000000091</v>
+        <v>-2.0999999999999091</v>
       </c>
       <c r="E38">
-        <v>-8.4475973994232456E-3</v>
+        <v>-1.7606667057925569E-3</v>
       </c>
       <c r="F38">
-        <v>-0.1351225309925064</v>
+        <v>6.8663441429635652E-2</v>
       </c>
       <c r="G38">
-        <v>-1.349251283282293E-2</v>
+        <v>-3.0554043899286838E-3</v>
       </c>
       <c r="H38">
-        <v>-9.2880075982227139E-2</v>
+        <v>-0.19687944601686469</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1810,25 +1810,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C39">
-        <v>2195.3200000000002</v>
+        <v>4385.1499999999996</v>
       </c>
       <c r="D39">
-        <v>-19.299999999999731</v>
+        <v>-54.340000000000153</v>
       </c>
       <c r="E39">
-        <v>-8.7148133765611036E-3</v>
+        <v>-1.224014470130586E-2</v>
       </c>
       <c r="F39">
-        <v>-0.31454941706164091</v>
+        <v>2.8057869355545769E-2</v>
       </c>
       <c r="G39">
-        <v>-1.3758369242878319E-2</v>
+        <v>-3.1371677001964531E-3</v>
       </c>
       <c r="H39">
-        <v>-0.28107055277260901</v>
+        <v>8.8207504412669113E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1836,25 +1836,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C40">
-        <v>11762.45</v>
+        <v>1494.64</v>
       </c>
       <c r="D40">
-        <v>-151.75</v>
+        <v>-9.1999999999998181</v>
       </c>
       <c r="E40">
-        <v>-1.2736902183948519E-2</v>
+        <v>-6.1176720927756936E-3</v>
       </c>
       <c r="F40">
-        <v>-1.922780276910363E-2</v>
+        <v>-6.4540356499098617E-2</v>
       </c>
       <c r="G40">
-        <v>-1.3954634184914161E-2</v>
+        <v>-3.3579009879453059E-3</v>
       </c>
       <c r="H40">
-        <v>-4.1150139409177777E-2</v>
+        <v>-7.3914146754951449E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1862,25 +1862,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C41">
-        <v>12750.37</v>
+        <v>612.32000000000005</v>
       </c>
       <c r="D41">
-        <v>-136.81999999999971</v>
+        <v>-7.8599999999999</v>
       </c>
       <c r="E41">
-        <v>-1.061674422430336E-2</v>
+        <v>-1.2673739881969631E-2</v>
       </c>
       <c r="F41">
-        <v>6.6676649912660535E-2</v>
+        <v>-0.33449988588072899</v>
       </c>
       <c r="G41">
-        <v>-1.4104794334804939E-2</v>
+        <v>-3.5747587984268359E-3</v>
       </c>
       <c r="H41">
-        <v>0.115011756288395</v>
+        <v>-0.29556278886707432</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1888,25 +1888,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C42">
-        <v>39982.980000000003</v>
+        <v>9958.3700000000008</v>
       </c>
       <c r="D42">
-        <v>-526.50999999999476</v>
+        <v>-41.089999999998327</v>
       </c>
       <c r="E42">
-        <v>-1.299720139651217E-2</v>
+        <v>-4.1092218979823514E-3</v>
       </c>
       <c r="F42">
-        <v>-1.705278927974108E-2</v>
+        <v>-4.3215131204746959E-2</v>
       </c>
       <c r="G42">
-        <v>-1.4214612333435571E-2</v>
+        <v>-3.9723419461633602E-3</v>
       </c>
       <c r="H42">
-        <v>-3.902374207965853E-2</v>
+        <v>-4.3215131204746959E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1914,25 +1914,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C43">
-        <v>19389.68</v>
+        <v>1645.32</v>
       </c>
       <c r="D43">
-        <v>-205.7000000000007</v>
+        <v>-10.03999999999996</v>
       </c>
       <c r="E43">
-        <v>-1.049737233980663E-2</v>
+        <v>-6.0651459501256388E-3</v>
       </c>
       <c r="F43">
-        <v>-0.1777515140181051</v>
+        <v>-0.2431726288771234</v>
       </c>
       <c r="G43">
-        <v>-1.5531858731630099E-2</v>
+        <v>-4.3480132087800882E-3</v>
       </c>
       <c r="H43">
-        <v>-0.137591149202243</v>
+        <v>-0.25602421675270121</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1940,25 +1940,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C44">
-        <v>2341.5300000000002</v>
+        <v>3198.86</v>
       </c>
       <c r="D44">
-        <v>-50.429999999999843</v>
+        <v>-46.609999999999673</v>
       </c>
       <c r="E44">
-        <v>-2.1083128480409271E-2</v>
+        <v>-1.4361556261496711E-2</v>
       </c>
       <c r="F44">
-        <v>8.6521551504127547E-2</v>
+        <v>-0.14754351742295829</v>
       </c>
       <c r="G44">
-        <v>-1.5752761732950819E-2</v>
+        <v>-5.2781297215026557E-3</v>
       </c>
       <c r="H44">
-        <v>0.1071478799693082</v>
+        <v>-9.7667972614152498E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1966,25 +1966,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C45">
-        <v>12908.99</v>
+        <v>3465.39</v>
       </c>
       <c r="D45">
-        <v>-142.23999999999981</v>
+        <v>-18.420000000000069</v>
       </c>
       <c r="E45">
-        <v>-1.0898589634846689E-2</v>
+        <v>-5.2873147502303652E-3</v>
       </c>
       <c r="F45">
-        <v>-1.6607005871109859E-2</v>
+        <v>6.7495718175881292E-2</v>
       </c>
       <c r="G45">
-        <v>-1.5931034674827819E-2</v>
+        <v>-5.2873147502303652E-3</v>
       </c>
       <c r="H45">
-        <v>3.142399944526697E-2</v>
+        <v>6.7495718175881292E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1992,25 +1992,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C46">
-        <v>6609.61</v>
+        <v>8505.18</v>
       </c>
       <c r="D46">
-        <v>-78.460000000000036</v>
+        <v>-48.610000000000582</v>
       </c>
       <c r="E46">
-        <v>-1.173133654402536E-2</v>
+        <v>-5.6828610475591068E-3</v>
       </c>
       <c r="F46">
-        <v>-8.3353211365426727E-2</v>
+        <v>3.6442269376673497E-2</v>
       </c>
       <c r="G46">
-        <v>-1.675954465439666E-2</v>
+        <v>-5.4013895725222314E-3</v>
       </c>
       <c r="H46">
-        <v>-3.8582232681419248E-2</v>
+        <v>3.7930987869991613E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2018,25 +2018,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C47">
-        <v>3640.58</v>
+        <v>3557.4</v>
       </c>
       <c r="D47">
-        <v>-36.869999999999891</v>
+        <v>-36.230000000000018</v>
       </c>
       <c r="E47">
-        <v>-1.002596908183662E-2</v>
+        <v>-1.0081727946394061E-2</v>
       </c>
       <c r="F47">
-        <v>-0.25465001770947859</v>
+        <v>-9.9800343641742062E-2</v>
       </c>
       <c r="G47">
-        <v>-1.6801549844596919E-2</v>
+        <v>-1.0086889616753299E-2</v>
       </c>
       <c r="H47">
-        <v>-0.2915650197346642</v>
+        <v>-9.9802731750066598E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2044,25 +2044,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C48">
-        <v>867.08</v>
+        <v>10023.9</v>
       </c>
       <c r="D48">
-        <v>-5.4199999999999591</v>
+        <v>-183.22999999999959</v>
       </c>
       <c r="E48">
-        <v>-6.2120343839541237E-3</v>
+        <v>-1.7951177265303708E-2</v>
       </c>
       <c r="F48">
-        <v>-0.22473467271085359</v>
+        <v>-6.0148648762682333E-2</v>
       </c>
       <c r="G48">
-        <v>-1.707873366011059E-2</v>
+        <v>-1.0701487588969161E-2</v>
       </c>
       <c r="H48">
-        <v>-0.2457980908489571</v>
+        <v>6.0012999530991706E-3</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2070,25 +2070,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C49">
-        <v>1503.84</v>
+        <v>486.83</v>
       </c>
       <c r="D49">
-        <v>-26.509999999999991</v>
+        <v>-8.3300000000000409</v>
       </c>
       <c r="E49">
-        <v>-1.7322834645669302E-2</v>
+        <v>-1.682284514096466E-2</v>
       </c>
       <c r="F49">
-        <v>-5.8782295213298703E-2</v>
+        <v>9.8542287210036994E-2</v>
       </c>
       <c r="G49">
-        <v>-1.8032611663106209E-2</v>
+        <v>-1.0879835264384959E-2</v>
       </c>
       <c r="H49">
-        <v>-7.0793964891656569E-2</v>
+        <v>0.14472921748673159</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2096,25 +2096,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50">
-        <v>1171.8</v>
+        <v>12645.75</v>
       </c>
       <c r="D50">
-        <v>-18.21000000000004</v>
+        <v>-263.23999999999978</v>
       </c>
       <c r="E50">
-        <v>-1.5302392416870481E-2</v>
+        <v>-2.039199038809392E-2</v>
       </c>
       <c r="F50">
-        <v>-0.30103967217221689</v>
+        <v>-3.6660346355104963E-2</v>
       </c>
       <c r="G50">
-        <v>-1.8052873733210739E-2</v>
+        <v>-1.1364138999151559E-2</v>
       </c>
       <c r="H50">
-        <v>-0.40848539654674593</v>
+        <v>1.970275374851016E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2122,25 +2122,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C51">
-        <v>5919.58</v>
+        <v>3278</v>
       </c>
       <c r="D51">
-        <v>-97.069999999999709</v>
+        <v>-58.360000000000127</v>
       </c>
       <c r="E51">
-        <v>-1.6133562696849509E-2</v>
+        <v>-1.749211715762089E-2</v>
       </c>
       <c r="F51">
-        <v>-0.21857236770890809</v>
+        <v>6.3108701080946128E-2</v>
       </c>
       <c r="G51">
-        <v>-1.9053191560612359E-2</v>
+        <v>-1.1553152828870931E-2</v>
       </c>
       <c r="H51">
-        <v>-0.22920886831820489</v>
+        <v>0.1078058675214628</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2148,25 +2148,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C52">
-        <v>6849.7</v>
+        <v>4139.3999999999996</v>
       </c>
       <c r="D52">
-        <v>-101.1999999999998</v>
+        <v>-88.6200000000008</v>
       </c>
       <c r="E52">
-        <v>-1.4559265706599159E-2</v>
+        <v>-2.0960165751344739E-2</v>
       </c>
       <c r="F52">
-        <v>-0.28655646866439599</v>
+        <v>-0.20941958402566899</v>
       </c>
       <c r="G52">
-        <v>-1.9573085607694329E-2</v>
+        <v>-1.1937550541253559E-2</v>
       </c>
       <c r="H52">
-        <v>-0.25171036924015727</v>
+        <v>-0.16316428564059449</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2174,25 +2174,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C53">
-        <v>2799.54</v>
+        <v>11692.57</v>
       </c>
       <c r="D53">
-        <v>-34.550000000000182</v>
+        <v>-159.60000000000039</v>
       </c>
       <c r="E53">
-        <v>-1.2190861969803461E-2</v>
+        <v>-1.3465888525054931E-2</v>
       </c>
       <c r="F53">
-        <v>-9.0724843855050641E-2</v>
+        <v>0.32141682610970662</v>
       </c>
       <c r="G53">
-        <v>-2.031813921990111E-2</v>
+        <v>-1.3465888525054931E-2</v>
       </c>
       <c r="H53">
-        <v>-0.27615727319341732</v>
+        <v>0.32141682610970662</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2203,22 +2203,22 @@
         <v>113</v>
       </c>
       <c r="C54">
-        <v>17667.509999999998</v>
+        <v>26.72</v>
       </c>
       <c r="D54">
-        <v>-444.75</v>
+        <v>-0.63000000000000256</v>
       </c>
       <c r="E54">
-        <v>-2.4555190793418391E-2</v>
+        <v>-2.303473491773322E-2</v>
       </c>
       <c r="F54">
-        <v>-0.1410358321677099</v>
+        <v>-0.41067490074988983</v>
       </c>
       <c r="G54">
-        <v>-2.4282399345686101E-2</v>
+        <v>-1.403123847958598E-2</v>
       </c>
       <c r="H54">
-        <v>-0.20408015102091279</v>
+        <v>-0.37619465337615199</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2226,25 +2226,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C55">
-        <v>1132.8</v>
+        <v>554.34</v>
       </c>
       <c r="D55">
-        <v>-31.53999999999996</v>
+        <v>-13.83999999999992</v>
       </c>
       <c r="E55">
-        <v>-2.7088307539034909E-2</v>
+        <v>-2.4358477947129309E-2</v>
       </c>
       <c r="F55">
-        <v>-0.27771224535339689</v>
+        <v>-8.7115473288979617E-2</v>
       </c>
       <c r="G55">
-        <v>-2.7088307539034909E-2</v>
+        <v>-1.536718083282307E-2</v>
       </c>
       <c r="H55">
-        <v>-0.27771224535339689</v>
+        <v>-3.3704402990589188E-2</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2252,25 +2252,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C56">
-        <v>1233.68</v>
+        <v>1213.6099999999999</v>
       </c>
       <c r="D56">
-        <v>-33.460000000000043</v>
+        <v>-20.07000000000016</v>
       </c>
       <c r="E56">
-        <v>-2.64059219975693E-2</v>
+        <v>-1.6268400233447999E-2</v>
       </c>
       <c r="F56">
-        <v>-0.21346509403889061</v>
+        <v>-0.2262607586866433</v>
       </c>
       <c r="G56">
-        <v>-2.7653667184061589E-2</v>
+        <v>-1.8846294767715151E-2</v>
       </c>
       <c r="H56">
-        <v>-0.2403297389657921</v>
+        <v>-0.25464670863151001</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2278,25 +2278,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C57">
-        <v>33225.15</v>
+        <v>1447.53</v>
       </c>
       <c r="D57">
-        <v>-435.29000000000087</v>
+        <v>-30.309999999999949</v>
       </c>
       <c r="E57">
-        <v>-1.293179768297748E-2</v>
+        <v>-2.0509662751042049E-2</v>
       </c>
       <c r="F57">
-        <v>-0.25602166293914119</v>
+        <v>-8.6230296755948177E-2</v>
       </c>
       <c r="G57">
-        <v>-3.7414993978736821E-2</v>
+        <v>-2.0595972861940041E-2</v>
       </c>
       <c r="H57">
-        <v>-0.29455434887604082</v>
+        <v>-8.6452321805454591E-2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2304,25 +2304,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C58">
-        <v>833.84</v>
+        <v>1529.24</v>
       </c>
       <c r="D58">
-        <v>-37.779999999999973</v>
+        <v>-49.8900000000001</v>
       </c>
       <c r="E58">
-        <v>-4.3344576765104059E-2</v>
+        <v>-3.1593345703013753E-2</v>
       </c>
       <c r="F58">
-        <v>0.27243594634600438</v>
+        <v>0.23809061174260829</v>
       </c>
       <c r="G58">
-        <v>-3.8135427341750787E-2</v>
+        <v>-2.2459383710603738E-2</v>
       </c>
       <c r="H58">
-        <v>0.29659164003095939</v>
+        <v>0.31622775480920251</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2330,25 +2330,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C59">
-        <v>3264.6</v>
+        <v>807.98</v>
       </c>
       <c r="D59">
-        <v>-122.75</v>
+        <v>-25.86000000000001</v>
       </c>
       <c r="E59">
-        <v>-3.6237766985992008E-2</v>
+        <v>-3.1013144008442909E-2</v>
       </c>
       <c r="F59">
-        <v>-0.17805115086938361</v>
+        <v>0.23297370710045651</v>
       </c>
       <c r="G59">
-        <v>-4.1141288928663089E-2</v>
+        <v>-2.2486564675332939E-2</v>
       </c>
       <c r="H59">
-        <v>-0.13790542095460659</v>
+        <v>0.26743574825990751</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2356,25 +2356,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C60">
-        <v>1655.36</v>
+        <v>13128.46</v>
       </c>
       <c r="D60">
-        <v>-43.550000000000182</v>
+        <v>-404.27000000000038</v>
       </c>
       <c r="E60">
-        <v>-2.5634083029707381E-2</v>
+        <v>-2.9873499286544591E-2</v>
       </c>
       <c r="F60">
-        <v>-0.23855434987603319</v>
+        <v>0.22715728804750659</v>
       </c>
       <c r="G60">
-        <v>-4.1602778769459281E-2</v>
+        <v>-2.4009376684857031E-2</v>
       </c>
       <c r="H60">
-        <v>-0.25277527377313957</v>
+        <v>0.27875168615259382</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2385,22 +2385,22 @@
         <v>118</v>
       </c>
       <c r="C61">
-        <v>620.17999999999995</v>
+        <v>10987.43</v>
       </c>
       <c r="D61">
-        <v>-31.290000000000081</v>
+        <v>-335.27999999999878</v>
       </c>
       <c r="E61">
-        <v>-4.8029840207530761E-2</v>
+        <v>-2.9611285637448859E-2</v>
       </c>
       <c r="F61">
-        <v>-0.32595724331315418</v>
+        <v>-0.16841650356551971</v>
       </c>
       <c r="G61">
-        <v>-5.2873365308853781E-2</v>
+        <v>-3.0254813063283259E-2</v>
       </c>
       <c r="H61">
-        <v>-0.29303556152044469</v>
+        <v>-0.15093725319878731</v>
       </c>
     </row>
   </sheetData>
@@ -2410,10 +2410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W206"/>
+  <dimension ref="A1:W211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W206"/>
+      <selection sqref="A1:W211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17005,13 +17005,13 @@
         <v>1863.5</v>
       </c>
       <c r="K206">
-        <v>194</v>
+        <v>195.45</v>
       </c>
       <c r="L206">
         <v>147.5</v>
       </c>
       <c r="M206">
-        <v>1148.7</v>
+        <v>1154.7</v>
       </c>
       <c r="N206">
         <v>3.0674999999999999</v>
@@ -17042,6 +17042,361 @@
       </c>
       <c r="W206">
         <v>534</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B207">
+        <v>1911.7</v>
+      </c>
+      <c r="C207">
+        <v>24.698</v>
+      </c>
+      <c r="D207">
+        <v>858.05</v>
+      </c>
+      <c r="E207">
+        <v>2360.15</v>
+      </c>
+      <c r="F207">
+        <v>40.83</v>
+      </c>
+      <c r="G207">
+        <v>42.62</v>
+      </c>
+      <c r="H207">
+        <v>2.7949999999999999</v>
+      </c>
+      <c r="I207">
+        <v>1.1580999999999999</v>
+      </c>
+      <c r="J207">
+        <v>1841.2</v>
+      </c>
+      <c r="K207">
+        <v>196</v>
+      </c>
+      <c r="L207">
+        <v>147.85</v>
+      </c>
+      <c r="M207">
+        <v>1147.5999999999999</v>
+      </c>
+      <c r="N207">
+        <v>3.0859999999999999</v>
+      </c>
+      <c r="O207">
+        <v>405.25</v>
+      </c>
+      <c r="P207">
+        <v>1055.5</v>
+      </c>
+      <c r="Q207">
+        <v>71.17</v>
+      </c>
+      <c r="R207">
+        <v>2425</v>
+      </c>
+      <c r="S207">
+        <v>106.05</v>
+      </c>
+      <c r="T207">
+        <v>14.72</v>
+      </c>
+      <c r="U207">
+        <v>104</v>
+      </c>
+      <c r="V207">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="W207">
+        <v>550.70000000000005</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B208">
+        <v>1915.4</v>
+      </c>
+      <c r="C208">
+        <v>24.98</v>
+      </c>
+      <c r="D208">
+        <v>876.95</v>
+      </c>
+      <c r="E208">
+        <v>2414</v>
+      </c>
+      <c r="F208">
+        <v>41.46</v>
+      </c>
+      <c r="G208">
+        <v>43.16</v>
+      </c>
+      <c r="H208">
+        <v>2.9129999999999998</v>
+      </c>
+      <c r="I208">
+        <v>1.1735</v>
+      </c>
+      <c r="J208">
+        <v>1839.5</v>
+      </c>
+      <c r="K208">
+        <v>200.95</v>
+      </c>
+      <c r="L208">
+        <v>150.1</v>
+      </c>
+      <c r="M208">
+        <v>1175</v>
+      </c>
+      <c r="N208">
+        <v>3.1480000000000001</v>
+      </c>
+      <c r="O208">
+        <v>408.75</v>
+      </c>
+      <c r="P208">
+        <v>1065.25</v>
+      </c>
+      <c r="Q208">
+        <v>70.92</v>
+      </c>
+      <c r="R208">
+        <v>2382</v>
+      </c>
+      <c r="S208">
+        <v>104.9</v>
+      </c>
+      <c r="T208">
+        <v>14.54</v>
+      </c>
+      <c r="U208">
+        <v>104.125</v>
+      </c>
+      <c r="V208">
+        <v>69.25</v>
+      </c>
+      <c r="W208">
+        <v>531.70000000000005</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B209">
+        <v>1929.5</v>
+      </c>
+      <c r="C209">
+        <v>25.241</v>
+      </c>
+      <c r="D209">
+        <v>889.8</v>
+      </c>
+      <c r="E209">
+        <v>2411.6999999999998</v>
+      </c>
+      <c r="F209">
+        <v>40.03</v>
+      </c>
+      <c r="G209">
+        <v>41.73</v>
+      </c>
+      <c r="H209">
+        <v>3.0230000000000001</v>
+      </c>
+      <c r="I209">
+        <v>1.1398999999999999</v>
+      </c>
+      <c r="J209">
+        <v>1837.5</v>
+      </c>
+      <c r="K209">
+        <v>205.2</v>
+      </c>
+      <c r="L209">
+        <v>149</v>
+      </c>
+      <c r="M209">
+        <v>1167.4000000000001</v>
+      </c>
+      <c r="N209">
+        <v>3.1985000000000001</v>
+      </c>
+      <c r="O209">
+        <v>413.75</v>
+      </c>
+      <c r="P209">
+        <v>1071.75</v>
+      </c>
+      <c r="Q209">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="R209">
+        <v>2427</v>
+      </c>
+      <c r="S209">
+        <v>104.15</v>
+      </c>
+      <c r="T209">
+        <v>14.5</v>
+      </c>
+      <c r="U209">
+        <v>103.65</v>
+      </c>
+      <c r="V209">
+        <v>69.2</v>
+      </c>
+      <c r="W209">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B210">
+        <v>1904.6</v>
+      </c>
+      <c r="C210">
+        <v>24.709</v>
+      </c>
+      <c r="D210">
+        <v>883.7</v>
+      </c>
+      <c r="E210">
+        <v>2393.3000000000002</v>
+      </c>
+      <c r="F210">
+        <v>40.64</v>
+      </c>
+      <c r="G210">
+        <v>42.46</v>
+      </c>
+      <c r="H210">
+        <v>3.0070000000000001</v>
+      </c>
+      <c r="I210">
+        <v>1.1607000000000001</v>
+      </c>
+      <c r="J210">
+        <v>1848.25</v>
+      </c>
+      <c r="K210">
+        <v>205.2</v>
+      </c>
+      <c r="L210">
+        <v>148.80000000000001</v>
+      </c>
+      <c r="M210">
+        <v>1164</v>
+      </c>
+      <c r="N210">
+        <v>3.1535000000000002</v>
+      </c>
+      <c r="O210">
+        <v>416.25</v>
+      </c>
+      <c r="P210">
+        <v>1070.8800000000001</v>
+      </c>
+      <c r="Q210">
+        <v>71.98</v>
+      </c>
+      <c r="R210">
+        <v>2474</v>
+      </c>
+      <c r="S210">
+        <v>106.7</v>
+      </c>
+      <c r="T210">
+        <v>14.78</v>
+      </c>
+      <c r="U210">
+        <v>103.325</v>
+      </c>
+      <c r="V210">
+        <v>66.2</v>
+      </c>
+      <c r="W210">
+        <v>531.4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B211">
+        <v>1905.2</v>
+      </c>
+      <c r="C211">
+        <v>24.675000000000001</v>
+      </c>
+      <c r="D211">
+        <v>908.6</v>
+      </c>
+      <c r="E211">
+        <v>2409.6</v>
+      </c>
+      <c r="F211">
+        <v>39.85</v>
+      </c>
+      <c r="G211">
+        <v>41.77</v>
+      </c>
+      <c r="H211">
+        <v>2.9710000000000001</v>
+      </c>
+      <c r="I211">
+        <v>1.1513</v>
+      </c>
+      <c r="J211">
+        <v>1842.75</v>
+      </c>
+      <c r="K211">
+        <v>208.8</v>
+      </c>
+      <c r="L211">
+        <v>149.25</v>
+      </c>
+      <c r="M211">
+        <v>1155.4000000000001</v>
+      </c>
+      <c r="N211">
+        <v>3.129</v>
+      </c>
+      <c r="O211">
+        <v>419.25</v>
+      </c>
+      <c r="P211">
+        <v>1086.75</v>
+      </c>
+      <c r="Q211">
+        <v>71.31</v>
+      </c>
+      <c r="R211">
+        <v>2479</v>
+      </c>
+      <c r="S211">
+        <v>105.6</v>
+      </c>
+      <c r="T211">
+        <v>14.72</v>
+      </c>
+      <c r="U211">
+        <v>103.35</v>
+      </c>
+      <c r="V211">
+        <v>67.03</v>
+      </c>
+      <c r="W211">
+        <v>515.29999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -41,67 +41,70 @@
     <t>Indices</t>
   </si>
   <si>
-    <t>SZSE Component</t>
+    <t>WIG20</t>
   </si>
   <si>
-    <t>MSM 30</t>
+    <t>FTSE/JSE Top 40</t>
+  </si>
+  <si>
+    <t>Budapest SE</t>
+  </si>
+  <si>
+    <t>Bovespa</t>
+  </si>
+  <si>
+    <t>FTSE MIB</t>
+  </si>
+  <si>
+    <t>RTSI</t>
+  </si>
+  <si>
+    <t>MOEX</t>
+  </si>
+  <si>
+    <t>S&amp;P CLX IPSA</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50</t>
+  </si>
+  <si>
+    <t>Nasdaq 100</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>CAC 40</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>OMXS30</t>
+  </si>
+  <si>
+    <t>AEX</t>
   </si>
   <si>
     <t>IDX Composite</t>
   </si>
   <si>
-    <t>BSE SOFIX</t>
+    <t>OMXC25</t>
   </si>
   <si>
-    <t>SET</t>
+    <t>S&amp;P/ASX 200</t>
   </si>
   <si>
-    <t>Bahrain All Share</t>
+    <t>IBEX 35</t>
   </si>
   <si>
-    <t>KOSDAQ</t>
+    <t>FTSE 100</t>
   </si>
   <si>
-    <t>Taiwan Weighted</t>
+    <t>FTSE Singapore</t>
   </si>
   <si>
-    <t>China A50</t>
-  </si>
-  <si>
-    <t>S&amp;P Lima General</t>
-  </si>
-  <si>
-    <t>Nikkei 225</t>
-  </si>
-  <si>
-    <t>Karachi 100</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>PSEi Composite</t>
-  </si>
-  <si>
-    <t>KLCI</t>
-  </si>
-  <si>
-    <t>DJ Shanghai</t>
-  </si>
-  <si>
-    <t>QE General</t>
-  </si>
-  <si>
-    <t>Tunindex</t>
-  </si>
-  <si>
-    <t>Nifty 50</t>
-  </si>
-  <si>
-    <t>Hang Seng</t>
-  </si>
-  <si>
-    <t>BSE Sensex</t>
+    <t>S&amp;P 500</t>
   </si>
   <si>
     <t>ISEQ Overall</t>
@@ -110,268 +113,265 @@
     <t>KOSPI</t>
   </si>
   <si>
+    <t>S&amp;P/BMV IPC</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>SmallCap 2000</t>
+  </si>
+  <si>
+    <t>Nikkei 225</t>
+  </si>
+  <si>
+    <t>OMX Helsinki 25</t>
+  </si>
+  <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>Hang Seng</t>
+  </si>
+  <si>
+    <t>S&amp;P/TSX</t>
+  </si>
+  <si>
+    <t>SZSE Component</t>
+  </si>
+  <si>
+    <t>KOSDAQ</t>
+  </si>
+  <si>
+    <t>BEL 20</t>
+  </si>
+  <si>
+    <t>COLCAP</t>
+  </si>
+  <si>
+    <t>ATX</t>
+  </si>
+  <si>
+    <t>PSEi Composite</t>
+  </si>
+  <si>
+    <t>BSE Sensex</t>
+  </si>
+  <si>
+    <t>BIST 100</t>
+  </si>
+  <si>
+    <t>Nifty 50</t>
+  </si>
+  <si>
+    <t>China A50</t>
+  </si>
+  <si>
+    <t>DJ Shanghai</t>
+  </si>
+  <si>
+    <t>Athens General Composite</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
     <t>NZX 50</t>
+  </si>
+  <si>
+    <t>KLCI</t>
+  </si>
+  <si>
+    <t>PSI 20</t>
   </si>
   <si>
     <t>Cyprus Main Market</t>
   </si>
   <si>
-    <t>OMXC25</t>
+    <t>Taiwan Weighted</t>
   </si>
   <si>
-    <t>PX</t>
+    <t>Tadawul All Share</t>
+  </si>
+  <si>
+    <t>HNX 30</t>
+  </si>
+  <si>
+    <t>Karachi 100</t>
+  </si>
+  <si>
+    <t>QE General</t>
+  </si>
+  <si>
+    <t>S&amp;P Lima General</t>
+  </si>
+  <si>
+    <t>Tunindex</t>
   </si>
   <si>
     <t>EGX 30</t>
   </si>
   <si>
-    <t>FTSE Singapore</t>
+    <t>Bahrain All Share</t>
   </si>
   <si>
-    <t>AEX</t>
+    <t>BSE SOFIX</t>
   </si>
   <si>
-    <t>S&amp;P/ASX 200</t>
+    <t>MSM 30</t>
   </si>
   <si>
-    <t>SMI</t>
+    <t>Poland</t>
   </si>
   <si>
-    <t>COLCAP</t>
+    <t>South Africa</t>
   </si>
   <si>
-    <t>Nasdaq 100</t>
+    <t>Hungary</t>
   </si>
   <si>
-    <t>HNX 30</t>
+    <t>Brazil</t>
   </si>
   <si>
-    <t>S&amp;P 500</t>
+    <t>Italy</t>
   </si>
   <si>
-    <t>S&amp;P/TSX</t>
+    <t>Russia</t>
   </si>
   <si>
-    <t>PSI 20</t>
+    <t>Chile</t>
   </si>
   <si>
-    <t>FTSE 100</t>
+    <t>Germany</t>
   </si>
   <si>
-    <t>Budapest SE</t>
+    <t>United States</t>
   </si>
   <si>
-    <t>S&amp;P/BMV IPC</t>
+    <t>France</t>
   </si>
   <si>
-    <t>SmallCap 2000</t>
+    <t>Switzerland</t>
   </si>
   <si>
-    <t>S&amp;P CLX IPSA</t>
+    <t>Sweden</t>
   </si>
   <si>
-    <t>Tadawul All Share</t>
+    <t>Netherlands</t>
   </si>
   <si>
-    <t>OMXS30</t>
+    <t>Indonesia</t>
   </si>
   <si>
-    <t>MOEX</t>
+    <t>Denmark</t>
   </si>
   <si>
-    <t>BEL 20</t>
+    <t>Australia</t>
   </si>
   <si>
-    <t>FTSE/JSE Top 40</t>
+    <t>Spain</t>
   </si>
   <si>
-    <t>ATX</t>
+    <t>United Kingdom</t>
   </si>
   <si>
-    <t>IBEX 35</t>
+    <t>Singapore</t>
   </si>
   <si>
-    <t>CAC 40</t>
+    <t>Ireland</t>
   </si>
   <si>
-    <t>FTSE MIB</t>
+    <t>South Korea</t>
   </si>
   <si>
-    <t>Athens General Composite</t>
+    <t>Mexico</t>
   </si>
   <si>
-    <t>RTSI</t>
+    <t>Thailand</t>
   </si>
   <si>
-    <t>OMX Helsinki 25</t>
+    <t>Japan</t>
   </si>
   <si>
-    <t>Euro Stoxx 50</t>
+    <t>Finland</t>
   </si>
   <si>
-    <t>DAX</t>
+    <t>Czech Republic</t>
   </si>
   <si>
-    <t>WIG20</t>
+    <t>Hong Kong</t>
   </si>
   <si>
-    <t>Bovespa</t>
-  </si>
-  <si>
-    <t>BIST 100</t>
+    <t>Canada</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
-    <t>Oman</t>
+    <t>Belgium</t>
   </si>
   <si>
-    <t>Indonesia</t>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
   </si>
   <si>
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Turkey</t>
+    <t>Oman</t>
   </si>
   <si>
     <t>Date</t>
@@ -851,22 +851,22 @@
         <v>68</v>
       </c>
       <c r="C2">
-        <v>13236.6</v>
+        <v>1697.49</v>
       </c>
       <c r="D2">
-        <v>108.14000000000119</v>
+        <v>181.52</v>
       </c>
       <c r="E2">
-        <v>8.2370666475732879E-3</v>
+        <v>0.1197385172529799</v>
       </c>
       <c r="F2">
-        <v>0.2372654644162093</v>
+        <v>-0.2191750576134904</v>
       </c>
       <c r="G2">
-        <v>3.6568619385826122E-3</v>
+        <v>0.15798471873130859</v>
       </c>
       <c r="H2">
-        <v>0.28342790452258382</v>
+        <v>-0.22449197807359181</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -877,22 +877,22 @@
         <v>69</v>
       </c>
       <c r="C3">
-        <v>3557.77</v>
+        <v>51876.24</v>
       </c>
       <c r="D3">
-        <v>0.36999999999989092</v>
+        <v>4403.32</v>
       </c>
       <c r="E3">
-        <v>1.040085455670248E-4</v>
+        <v>9.27543534292814E-2</v>
       </c>
       <c r="F3">
-        <v>-9.9706715184764372E-2</v>
+        <v>1.718895497436157E-2</v>
       </c>
       <c r="G3">
-        <v>7.8025991364638614E-5</v>
+        <v>0.14049043882694631</v>
       </c>
       <c r="H3">
-        <v>-9.9732492965787789E-2</v>
+        <v>-7.0791865825325595E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -903,22 +903,22 @@
         <v>70</v>
       </c>
       <c r="C4">
-        <v>5128.2299999999996</v>
+        <v>35390.44</v>
       </c>
       <c r="D4">
-        <v>16.03999999999996</v>
+        <v>3111.2700000000041</v>
       </c>
       <c r="E4">
-        <v>3.1375985634336519E-3</v>
+        <v>9.6386307330702969E-2</v>
       </c>
       <c r="F4">
-        <v>-0.18045354300508201</v>
+        <v>-0.20753643853971759</v>
       </c>
       <c r="G4">
-        <v>-8.9193234351008233E-3</v>
+        <v>0.13698173512114109</v>
       </c>
       <c r="H4">
-        <v>-0.22932883823725331</v>
+        <v>-0.22889647928860821</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -929,22 +929,22 @@
         <v>71</v>
       </c>
       <c r="C5">
-        <v>427.94</v>
+        <v>100925.11</v>
       </c>
       <c r="D5">
-        <v>0.87000000000000455</v>
+        <v>6972.7100000000064</v>
       </c>
       <c r="E5">
-        <v>2.037136769147851E-3</v>
+        <v>7.4215347346102911E-2</v>
       </c>
       <c r="F5">
-        <v>-0.25008323841233682</v>
+        <v>-0.1364912209252184</v>
       </c>
       <c r="G5">
-        <v>-1.083571242820491E-2</v>
+        <v>0.12369225948756581</v>
       </c>
       <c r="H5">
-        <v>-0.21546410369505631</v>
+        <v>-0.36574293629275861</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -955,22 +955,22 @@
         <v>72</v>
       </c>
       <c r="C6">
-        <v>1194.95</v>
+        <v>19681.68</v>
       </c>
       <c r="D6">
-        <v>-18.659999999999851</v>
+        <v>1738.57</v>
       </c>
       <c r="E6">
-        <v>-1.5375614900997699E-2</v>
+        <v>9.6893459383573965E-2</v>
       </c>
       <c r="F6">
-        <v>-0.23815747529486761</v>
+        <v>-0.16536881570092221</v>
       </c>
       <c r="G6">
-        <v>-1.319962658000939E-2</v>
+        <v>0.10993384852298151</v>
       </c>
       <c r="H6">
-        <v>-0.26448509374775508</v>
+        <v>-0.1163482903952308</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -981,22 +981,22 @@
         <v>73</v>
       </c>
       <c r="C7">
-        <v>1427.18</v>
+        <v>1178.28</v>
       </c>
       <c r="D7">
-        <v>-20.349999999999909</v>
+        <v>111.68000000000011</v>
       </c>
       <c r="E7">
-        <v>-1.405843056793288E-2</v>
+        <v>0.10470654415901</v>
       </c>
       <c r="F7">
-        <v>-9.9076464684085264E-2</v>
+        <v>-0.2487136162208691</v>
       </c>
       <c r="G7">
-        <v>-1.3853055106069601E-2</v>
+        <v>0.10470654415901</v>
       </c>
       <c r="H7">
-        <v>-9.9107748133505535E-2</v>
+        <v>-0.2487136162208691</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1004,25 +1004,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8">
-        <v>792.65</v>
+        <v>2895.62</v>
       </c>
       <c r="D8">
-        <v>-15.330000000000039</v>
+        <v>205.02999999999969</v>
       </c>
       <c r="E8">
-        <v>-1.8973241911928621E-2</v>
+        <v>7.6202617269818029E-2</v>
       </c>
       <c r="F8">
-        <v>0.20958019868459199</v>
+        <v>-5.9518589612422727E-2</v>
       </c>
       <c r="G8">
-        <v>-1.495187071208892E-2</v>
+        <v>0.1035125265920351</v>
       </c>
       <c r="H8">
-        <v>0.2484852128160453</v>
+        <v>-0.2412513758404545</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1030,25 +1030,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9">
-        <v>12546.34</v>
+        <v>3812.38</v>
       </c>
       <c r="D9">
-        <v>-352.47999999999962</v>
+        <v>272.45999999999998</v>
       </c>
       <c r="E9">
-        <v>-2.7326530643888351E-2</v>
+        <v>7.6967841081154287E-2</v>
       </c>
       <c r="F9">
-        <v>4.9607809017715443E-2</v>
+        <v>-0.2194767412102637</v>
       </c>
       <c r="G9">
-        <v>-1.651133177154351E-2</v>
+        <v>9.963045466458631E-2</v>
       </c>
       <c r="H9">
-        <v>0.11138024857451991</v>
+        <v>-0.2110062251627812</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1056,25 +1056,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C10">
-        <v>15724.42</v>
+        <v>3204.05</v>
       </c>
       <c r="D10">
-        <v>-216.71999999999929</v>
+        <v>245.84000000000009</v>
       </c>
       <c r="E10">
-        <v>-1.359501265279639E-2</v>
+        <v>8.3104309700798851E-2</v>
       </c>
       <c r="F10">
-        <v>9.646760542166577E-2</v>
+        <v>-0.14616044684638579</v>
       </c>
       <c r="G10">
-        <v>-1.8076038908894979E-2</v>
+        <v>9.5980766895652714E-2</v>
       </c>
       <c r="H10">
-        <v>0.13737686994052961</v>
+        <v>-9.601175337584722E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1085,22 +1085,22 @@
         <v>76</v>
       </c>
       <c r="C11">
-        <v>17472.2</v>
+        <v>12091.35</v>
       </c>
       <c r="D11">
-        <v>-586.45999999999913</v>
+        <v>1038.4000000000001</v>
       </c>
       <c r="E11">
-        <v>-3.2475277789160373E-2</v>
+        <v>9.3947769599971087E-2</v>
       </c>
       <c r="F11">
-        <v>-0.1505314708637866</v>
+        <v>0.36648430074667943</v>
       </c>
       <c r="G11">
-        <v>-1.8397597183592681E-2</v>
+        <v>9.3947769599971087E-2</v>
       </c>
       <c r="H11">
-        <v>-0.2074095610523119</v>
+        <v>0.36648430074667943</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1108,25 +1108,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12">
-        <v>22977.13</v>
+        <v>12480.02</v>
       </c>
       <c r="D12">
-        <v>-539.45999999999913</v>
+        <v>923.54000000000087</v>
       </c>
       <c r="E12">
-        <v>-2.293955033446593E-2</v>
+        <v>7.991533754222746E-2</v>
       </c>
       <c r="F12">
-        <v>-9.8138924346020673E-3</v>
+        <v>-4.9285479763449103E-2</v>
       </c>
       <c r="G12">
-        <v>-1.951003795111117E-2</v>
+        <v>9.2753882725165493E-2</v>
       </c>
       <c r="H12">
-        <v>2.2480707874391159E-2</v>
+        <v>6.5529864650595293E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13">
-        <v>39888</v>
+        <v>4960.88</v>
       </c>
       <c r="D13">
-        <v>-1378</v>
+        <v>366.64000000000033</v>
       </c>
       <c r="E13">
-        <v>-3.3393108127756532E-2</v>
+        <v>7.980427665946932E-2</v>
       </c>
       <c r="F13">
-        <v>-3.410092541112697E-2</v>
+        <v>-0.1750551667140593</v>
       </c>
       <c r="G13">
-        <v>-1.9742381428822231E-2</v>
+        <v>9.2641501498013756E-2</v>
       </c>
       <c r="H13">
-        <v>-6.3220369118846875E-2</v>
+        <v>-0.12660355139387</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1160,25 +1160,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C14">
-        <v>3224.53</v>
+        <v>10322.57</v>
       </c>
       <c r="D14">
-        <v>-53.4699999999998</v>
+        <v>735.42000000000007</v>
       </c>
       <c r="E14">
-        <v>-1.6311775472849229E-2</v>
+        <v>7.670892809646257E-2</v>
       </c>
       <c r="F14">
-        <v>4.5767510645681408E-2</v>
+        <v>-3.214503708718186E-2</v>
       </c>
       <c r="G14">
-        <v>-2.078046005825018E-2</v>
+        <v>8.9974805527332391E-2</v>
       </c>
       <c r="H14">
-        <v>8.4785151939138048E-2</v>
+        <v>3.990588665286543E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1189,22 +1189,22 @@
         <v>79</v>
       </c>
       <c r="C15">
-        <v>6324</v>
+        <v>1819.52</v>
       </c>
       <c r="D15">
-        <v>-160.0600000000004</v>
+        <v>101.90000000000011</v>
       </c>
       <c r="E15">
-        <v>-2.46851509702255E-2</v>
+        <v>5.9326277057789367E-2</v>
       </c>
       <c r="F15">
-        <v>-0.18900930638751351</v>
+        <v>1.9207609103588871E-2</v>
       </c>
       <c r="G15">
-        <v>-2.1358652516700442E-2</v>
+        <v>8.6602906609047681E-2</v>
       </c>
       <c r="H15">
-        <v>-0.14391418443204129</v>
+        <v>0.1035595583872873</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1215,22 +1215,22 @@
         <v>80</v>
       </c>
       <c r="C16">
-        <v>1466.89</v>
+        <v>572.9</v>
       </c>
       <c r="D16">
-        <v>-27.75</v>
+        <v>39.019999999999982</v>
       </c>
       <c r="E16">
-        <v>-1.8566343734946259E-2</v>
+        <v>7.3087585225144247E-2</v>
       </c>
       <c r="F16">
-        <v>-8.1908421790506614E-2</v>
+        <v>-5.6550951847704423E-2</v>
       </c>
       <c r="G16">
-        <v>-2.1637412208219461E-2</v>
+        <v>8.5844958853634079E-2</v>
       </c>
       <c r="H16">
-        <v>-9.3952248101815239E-2</v>
+        <v>-1.1392097398181811E-3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1238,25 +1238,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C17">
-        <v>478.1</v>
+        <v>5335.53</v>
       </c>
       <c r="D17">
-        <v>-8.7299999999999613</v>
+        <v>207.30000000000021</v>
       </c>
       <c r="E17">
-        <v>-1.7932337777047391E-2</v>
+        <v>4.0423303946975908E-2</v>
       </c>
       <c r="F17">
-        <v>7.8842855853416438E-2</v>
+        <v>-0.1473247674753092</v>
       </c>
       <c r="G17">
-        <v>-2.2393660495539921E-2</v>
+        <v>8.1438941883425597E-2</v>
       </c>
       <c r="H17">
-        <v>0.11909454003100881</v>
+        <v>-0.16656619428322481</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1264,25 +1264,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18">
-        <v>9691.02</v>
+        <v>1586.33</v>
       </c>
       <c r="D18">
-        <v>-267.35000000000042</v>
+        <v>101.22</v>
       </c>
       <c r="E18">
-        <v>-2.6846763074679921E-2</v>
+        <v>6.8156567526984624E-2</v>
       </c>
       <c r="F18">
-        <v>-6.89017078907318E-2</v>
+        <v>0.28431134427928351</v>
       </c>
       <c r="G18">
-        <v>-2.6980499489633662E-2</v>
+        <v>8.028103596600844E-2</v>
       </c>
       <c r="H18">
-        <v>-6.9029664868966445E-2</v>
+        <v>0.36412008035334292</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1290,25 +1290,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19">
-        <v>6555.1</v>
+        <v>6190.2</v>
       </c>
       <c r="D19">
-        <v>-107.8599999999997</v>
+        <v>262.59999999999951</v>
       </c>
       <c r="E19">
-        <v>-1.6188000528293719E-2</v>
+        <v>4.4301234901140241E-2</v>
       </c>
       <c r="F19">
-        <v>-5.8998663525736787E-2</v>
+        <v>-8.0986385973247033E-2</v>
       </c>
       <c r="G19">
-        <v>-2.859645159655266E-2</v>
+        <v>7.7703130905494744E-2</v>
       </c>
       <c r="H19">
-        <v>-5.4929487230791052E-2</v>
+        <v>-3.8836807120346539E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1316,25 +1316,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20">
-        <v>11642.4</v>
+        <v>6870.4</v>
       </c>
       <c r="D20">
-        <v>-287.95000000000073</v>
+        <v>418.19999999999982</v>
       </c>
       <c r="E20">
-        <v>-2.413592224871863E-2</v>
+        <v>6.4815101825733912E-2</v>
       </c>
       <c r="F20">
-        <v>-2.9237766873314142E-2</v>
+        <v>-0.28440042079388389</v>
       </c>
       <c r="G20">
-        <v>-3.1284352997838827E-2</v>
+        <v>7.7474128252173369E-2</v>
       </c>
       <c r="H20">
-        <v>-6.2348534417388857E-2</v>
+        <v>-0.24237099756945099</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1342,25 +1342,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21">
-        <v>24107.42</v>
+        <v>5910.02</v>
       </c>
       <c r="D21">
-        <v>-811.36000000000058</v>
+        <v>332.75</v>
       </c>
       <c r="E21">
-        <v>-3.2560181517714781E-2</v>
+        <v>5.9661805865593782E-2</v>
       </c>
       <c r="F21">
-        <v>-0.14592015429641769</v>
+        <v>-0.2198343572697726</v>
       </c>
       <c r="G21">
-        <v>-3.2301759381133333E-2</v>
+        <v>7.6662170848802447E-2</v>
       </c>
       <c r="H21">
-        <v>-0.14260689110508371</v>
+        <v>-0.2162977825958291</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1368,25 +1368,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C22">
-        <v>39614.07</v>
+        <v>269.94</v>
       </c>
       <c r="D22">
-        <v>-1071.43</v>
+        <v>16.309999999999999</v>
       </c>
       <c r="E22">
-        <v>-2.633444347494807E-2</v>
+        <v>6.4306272917241669E-2</v>
       </c>
       <c r="F22">
-        <v>-2.6122124669619828E-2</v>
+        <v>-0.19639189068500501</v>
       </c>
       <c r="G22">
-        <v>-3.3466769546076303E-2</v>
+        <v>7.6289734712258195E-2</v>
       </c>
       <c r="H22">
-        <v>-5.9339160567815408E-2</v>
+        <v>-0.1970462417707064</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,25 +1394,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C23">
-        <v>6427.75</v>
+        <v>3509.44</v>
       </c>
       <c r="D23">
-        <v>-146.64999999999961</v>
+        <v>239.48</v>
       </c>
       <c r="E23">
-        <v>-2.2306218057921549E-2</v>
+        <v>7.3236369863851625E-2</v>
       </c>
       <c r="F23">
-        <v>-0.108574273573497</v>
+        <v>8.1065096048400065E-2</v>
       </c>
       <c r="G23">
-        <v>-3.3587443193571882E-2</v>
+        <v>7.3236369863851625E-2</v>
       </c>
       <c r="H23">
-        <v>-6.7306329696647071E-2</v>
+        <v>8.1065096048400065E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1420,25 +1420,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C24">
-        <v>2267.15</v>
+        <v>6814.55</v>
       </c>
       <c r="D24">
-        <v>-93.659999999999854</v>
+        <v>386.80000000000018</v>
       </c>
       <c r="E24">
-        <v>-3.9672824157810149E-2</v>
+        <v>6.0176578118315227E-2</v>
       </c>
       <c r="F24">
-        <v>5.2007591400743403E-2</v>
+        <v>-5.4931323710516677E-2</v>
       </c>
       <c r="G24">
-        <v>-3.5736303552723392E-2</v>
+        <v>7.2780459577246992E-2</v>
       </c>
       <c r="H24">
-        <v>8.5844430210068712E-2</v>
+        <v>5.7554427282013876E-4</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1446,25 +1446,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C25">
-        <v>12084.47</v>
+        <v>2416.5</v>
       </c>
       <c r="D25">
-        <v>-385.8700000000008</v>
+        <v>149.34999999999991</v>
       </c>
       <c r="E25">
-        <v>-3.0943021601656521E-2</v>
+        <v>6.5875658866859199E-2</v>
       </c>
       <c r="F25">
-        <v>3.9316884716340539E-2</v>
+        <v>0.121309284617205</v>
       </c>
       <c r="G25">
-        <v>-3.7027087024856797E-2</v>
+        <v>7.2417353750125146E-2</v>
       </c>
       <c r="H25">
-        <v>3.5320462222589111E-2</v>
+        <v>0.1644784104301944</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1472,25 +1472,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C26">
-        <v>25.95</v>
+        <v>38530.5</v>
       </c>
       <c r="D26">
-        <v>-0.76999999999999957</v>
+        <v>1542.639999999999</v>
       </c>
       <c r="E26">
-        <v>-2.88173652694611E-2</v>
+        <v>4.1706657265383917E-2</v>
       </c>
       <c r="F26">
-        <v>-0.42765769739744158</v>
+        <v>-0.1340546080147792</v>
       </c>
       <c r="G26">
-        <v>-4.0023460830860953E-2</v>
+        <v>7.1323403788455364E-2</v>
       </c>
       <c r="H26">
-        <v>-0.4011615022328332</v>
+        <v>-0.2095993222460838</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1498,25 +1498,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C27">
-        <v>1485.11</v>
+        <v>1260.08</v>
       </c>
       <c r="D27">
-        <v>-44.130000000000109</v>
+        <v>65.129999999999882</v>
       </c>
       <c r="E27">
-        <v>-2.8857471685281629E-2</v>
+        <v>5.4504372567889758E-2</v>
       </c>
       <c r="F27">
-        <v>0.20236244697043279</v>
+        <v>-0.1966337264902773</v>
       </c>
       <c r="G27">
-        <v>-4.0632934442606627E-2</v>
+        <v>7.1073141755410685E-2</v>
       </c>
       <c r="H27">
-        <v>0.26274555873650107</v>
+        <v>-0.21220973855247161</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1524,25 +1524,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C28">
-        <v>842.92</v>
+        <v>1644.16</v>
       </c>
       <c r="D28">
-        <v>-20.18000000000006</v>
+        <v>105.68000000000011</v>
       </c>
       <c r="E28">
-        <v>-2.3380836519522719E-2</v>
+        <v>6.8691175705891672E-2</v>
       </c>
       <c r="F28">
-        <v>-0.24633638225011861</v>
+        <v>-1.148347221721191E-2</v>
       </c>
       <c r="G28">
-        <v>-4.0774821591463728E-2</v>
+        <v>6.8691175705891672E-2</v>
       </c>
       <c r="H28">
-        <v>-0.26932379122408839</v>
+        <v>-1.148347221721191E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1550,25 +1550,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29">
-        <v>10515.25</v>
+        <v>24325.23</v>
       </c>
       <c r="D29">
-        <v>-472.18000000000029</v>
+        <v>1348.099999999999</v>
       </c>
       <c r="E29">
-        <v>-4.2974562750342948E-2</v>
+        <v>5.8671383240639592E-2</v>
       </c>
       <c r="F29">
-        <v>-0.20415344071519281</v>
+        <v>4.828169616192457E-2</v>
       </c>
       <c r="G29">
-        <v>-4.2058271517826928E-2</v>
+        <v>6.8389351719482017E-2</v>
       </c>
       <c r="H29">
-        <v>-0.18664736473942439</v>
+        <v>9.2407500631597417E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1576,25 +1576,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C30">
-        <v>256.62</v>
+        <v>4281.7700000000004</v>
       </c>
       <c r="D30">
-        <v>-10.670000000000019</v>
+        <v>224.77000000000041</v>
       </c>
       <c r="E30">
-        <v>-3.9919188895955797E-2</v>
+        <v>5.5403007148139061E-2</v>
       </c>
       <c r="F30">
-        <v>-0.236045369295347</v>
+        <v>3.8213842788719088E-3</v>
       </c>
       <c r="G30">
-        <v>-4.6483373394399667E-2</v>
+        <v>6.7950138133719751E-2</v>
       </c>
       <c r="H30">
-        <v>-0.24516641349981691</v>
+        <v>6.2778984349568301E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1602,25 +1602,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31">
-        <v>533.88</v>
+        <v>865.26</v>
       </c>
       <c r="D31">
-        <v>-20.46000000000004</v>
+        <v>22.340000000000028</v>
       </c>
       <c r="E31">
-        <v>-3.6908756358913331E-2</v>
+        <v>2.6503108242775131E-2</v>
       </c>
       <c r="F31">
-        <v>-0.1208089058691786</v>
+        <v>-0.2263619538102519</v>
       </c>
       <c r="G31">
-        <v>-4.8021488531666663E-2</v>
+        <v>6.7135364917182416E-2</v>
       </c>
       <c r="H31">
-        <v>-8.0107355920576606E-2</v>
+        <v>-0.2202695773116142</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1628,25 +1628,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32">
-        <v>5927.6</v>
+        <v>25712.97</v>
       </c>
       <c r="D32">
-        <v>-239.39999999999961</v>
+        <v>1605.5500000000029</v>
       </c>
       <c r="E32">
-        <v>-3.881952326901239E-2</v>
+        <v>6.6599826941248885E-2</v>
       </c>
       <c r="F32">
-        <v>-0.1199726828688925</v>
+        <v>-8.90385843785505E-2</v>
       </c>
       <c r="G32">
-        <v>-5.0758677182016987E-2</v>
+        <v>6.6243538503305111E-2</v>
       </c>
       <c r="H32">
-        <v>-0.1081373289951599</v>
+        <v>-8.5810137683534737E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1654,25 +1654,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33">
-        <v>9587.15</v>
+        <v>16282.83</v>
       </c>
       <c r="D33">
-        <v>-436.75</v>
+        <v>702.19000000000051</v>
       </c>
       <c r="E33">
-        <v>-4.3570865631141542E-2</v>
+        <v>4.5068110167489912E-2</v>
       </c>
       <c r="F33">
-        <v>-0.10109878570069041</v>
+        <v>-4.8092218454096947E-2</v>
       </c>
       <c r="G33">
-        <v>-5.1627318656486731E-2</v>
+        <v>6.3697346661858889E-2</v>
       </c>
       <c r="H33">
-        <v>-4.5935849728419798E-2</v>
+        <v>-5.5041165220251487E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1680,25 +1680,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34">
-        <v>1136.75</v>
+        <v>13838.42</v>
       </c>
       <c r="D34">
-        <v>-38.579999999999927</v>
+        <v>601.81999999999971</v>
       </c>
       <c r="E34">
-        <v>-3.28248236665446E-2</v>
+        <v>4.546635843041269E-2</v>
       </c>
       <c r="F34">
-        <v>-0.32194644763762381</v>
+        <v>0.29351941949492749</v>
       </c>
       <c r="G34">
-        <v>-5.2183296126986689E-2</v>
+        <v>6.2687217229829617E-2</v>
       </c>
       <c r="H34">
-        <v>-0.42781378945541348</v>
+        <v>0.36388242837221602</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1706,25 +1706,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C35">
-        <v>11052.95</v>
+        <v>836.78</v>
       </c>
       <c r="D35">
-        <v>-639.61999999999898</v>
+        <v>44.13</v>
       </c>
       <c r="E35">
-        <v>-5.4703114884067323E-2</v>
+        <v>5.5674004920204467E-2</v>
       </c>
       <c r="F35">
-        <v>0.24913120966128771</v>
+        <v>0.27692237261753982</v>
       </c>
       <c r="G35">
-        <v>-5.4703114884067323E-2</v>
+        <v>6.2153088271938987E-2</v>
       </c>
       <c r="H35">
-        <v>0.24913120966128771</v>
+        <v>0.3260824244544116</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1735,22 +1735,22 @@
         <v>97</v>
       </c>
       <c r="C36">
-        <v>247.71</v>
+        <v>3191.33</v>
       </c>
       <c r="D36">
-        <v>-14.46000000000001</v>
+        <v>147.9699999999998</v>
       </c>
       <c r="E36">
-        <v>-5.5155052065453791E-2</v>
+        <v>4.862060354345199E-2</v>
       </c>
       <c r="F36">
-        <v>0.39342971254992398</v>
+        <v>-0.19649879902713649</v>
       </c>
       <c r="G36">
-        <v>-5.4910405562844211E-2</v>
+        <v>6.1087102101563102E-2</v>
       </c>
       <c r="H36">
-        <v>0.39348985207372672</v>
+        <v>-0.14930663595390811</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1758,25 +1758,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C37">
-        <v>3269.96</v>
+        <v>1172.3399999999999</v>
       </c>
       <c r="D37">
-        <v>-195.42999999999981</v>
+        <v>35.589999999999918</v>
       </c>
       <c r="E37">
-        <v>-5.6394806933707242E-2</v>
+        <v>3.1308555091268842E-2</v>
       </c>
       <c r="F37">
-        <v>7.2945032467932602E-3</v>
+        <v>-0.30071757063865578</v>
       </c>
       <c r="G37">
-        <v>-5.6394806933707242E-2</v>
+        <v>6.0786313245500427E-2</v>
       </c>
       <c r="H37">
-        <v>7.2945032467932602E-3</v>
+        <v>-0.3930326992264942</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1784,25 +1784,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38">
-        <v>15580.64</v>
+        <v>2153.23</v>
       </c>
       <c r="D38">
-        <v>-723.44000000000051</v>
+        <v>98.269999999999982</v>
       </c>
       <c r="E38">
-        <v>-4.4371715546047352E-2</v>
+        <v>4.7820882158290168E-2</v>
       </c>
       <c r="F38">
-        <v>-8.9142829749781938E-2</v>
+        <v>-0.32769128933350811</v>
       </c>
       <c r="G38">
-        <v>-5.7189643272461337E-2</v>
+        <v>6.0277873249676713E-2</v>
       </c>
       <c r="H38">
-        <v>-0.11162809821303089</v>
+        <v>-0.28820447553545808</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1810,25 +1810,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39">
-        <v>3945.12</v>
+        <v>6685.69</v>
       </c>
       <c r="D39">
-        <v>-194.27999999999969</v>
+        <v>361.6899999999996</v>
       </c>
       <c r="E39">
-        <v>-4.6934338309899903E-2</v>
+        <v>5.7193232131562237E-2</v>
       </c>
       <c r="F39">
-        <v>-0.24652495273018959</v>
+        <v>-0.14262612739119779</v>
       </c>
       <c r="G39">
-        <v>-5.7931389224171292E-2</v>
+        <v>6.0041780943634659E-2</v>
       </c>
       <c r="H39">
-        <v>-0.21164334112583669</v>
+        <v>-9.2513267424757184E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1836,25 +1836,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40">
-        <v>5577.27</v>
+        <v>41893.06</v>
       </c>
       <c r="D40">
-        <v>-283.00999999999931</v>
+        <v>2278.989999999998</v>
       </c>
       <c r="E40">
-        <v>-4.8292914331738317E-2</v>
+        <v>5.7529812008713099E-2</v>
       </c>
       <c r="F40">
-        <v>-0.26375977843898762</v>
+        <v>2.9904886417581711E-2</v>
       </c>
       <c r="G40">
-        <v>-5.8926577995764839E-2</v>
+        <v>5.9584317800900573E-2</v>
       </c>
       <c r="H40">
-        <v>-0.27210016417096949</v>
+        <v>-3.290526168226338E-3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1862,25 +1862,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41">
-        <v>32279.17</v>
+        <v>1191.96</v>
       </c>
       <c r="D41">
-        <v>-1375.93</v>
+        <v>79.590000000000146</v>
       </c>
       <c r="E41">
-        <v>-4.0883253949624332E-2</v>
+        <v>7.1549933924863307E-2</v>
       </c>
       <c r="F41">
-        <v>-0.27720406925763291</v>
+        <v>6.98571979930529E-2</v>
       </c>
       <c r="G41">
-        <v>-6.0048804481419027E-2</v>
+        <v>5.5966150041150131E-2</v>
       </c>
       <c r="H41">
-        <v>-0.32179779420182719</v>
+        <v>-0.241738483295419</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1888,25 +1888,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42">
-        <v>36987.86</v>
+        <v>12263.55</v>
       </c>
       <c r="D42">
-        <v>-1719.860000000001</v>
+        <v>621.14999999999964</v>
       </c>
       <c r="E42">
-        <v>-4.4431963442951417E-2</v>
+        <v>5.3352401566687302E-2</v>
       </c>
       <c r="F42">
-        <v>-0.16872433717718499</v>
+        <v>2.2554729614234988E-2</v>
       </c>
       <c r="G42">
-        <v>-6.1953572629983911E-2</v>
+        <v>5.5398791735228103E-2</v>
       </c>
       <c r="H42">
-        <v>-0.26222028291469163</v>
+        <v>-1.040377615534638E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1917,22 +1917,22 @@
         <v>96</v>
       </c>
       <c r="C43">
-        <v>1538.48</v>
+        <v>16299.22</v>
       </c>
       <c r="D43">
-        <v>-102.02</v>
+        <v>574.79999999999927</v>
       </c>
       <c r="E43">
-        <v>-6.2188357208168177E-2</v>
+        <v>3.6554607419542202E-2</v>
       </c>
       <c r="F43">
-        <v>-7.502134362637225E-2</v>
+        <v>0.13654854828610041</v>
       </c>
       <c r="G43">
-        <v>-6.2188357208168177E-2</v>
+        <v>5.3628672393814643E-2</v>
       </c>
       <c r="H43">
-        <v>-7.502134362637225E-2</v>
+        <v>0.19837288148687279</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1940,25 +1940,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C44">
-        <v>3539.92</v>
+        <v>493.13</v>
       </c>
       <c r="D44">
-        <v>-268.02999999999969</v>
+        <v>15.029999999999969</v>
       </c>
       <c r="E44">
-        <v>-7.038695361021019E-2</v>
+        <v>3.1436937879104621E-2</v>
       </c>
       <c r="F44">
-        <v>-0.27525852767694642</v>
+        <v>0.1127583716941962</v>
       </c>
       <c r="G44">
-        <v>-6.2193367455801063E-2</v>
+        <v>4.8426704909376062E-2</v>
       </c>
       <c r="H44">
-        <v>-0.28249188489611182</v>
+        <v>0.1732886010867847</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1966,25 +1966,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45">
-        <v>7907.72</v>
+        <v>588.1</v>
       </c>
       <c r="D45">
-        <v>-597.46</v>
+        <v>18.600000000000019</v>
       </c>
       <c r="E45">
-        <v>-7.0246602658615154E-2</v>
+        <v>3.2660228270412713E-2</v>
       </c>
       <c r="F45">
-        <v>-3.6364278898823099E-2</v>
+        <v>-0.36082339771109351</v>
       </c>
       <c r="G45">
-        <v>-7.0321127454533228E-2</v>
+        <v>4.4936982325453963E-2</v>
       </c>
       <c r="H45">
-        <v>-3.5057489417023691E-2</v>
+        <v>-0.32328253727269218</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1992,25 +1992,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C46">
-        <v>1717.62</v>
+        <v>3312.16</v>
       </c>
       <c r="D46">
-        <v>-102.32000000000021</v>
+        <v>87.629999999999654</v>
       </c>
       <c r="E46">
-        <v>-5.6221633680231253E-2</v>
+        <v>2.7176053564395231E-2</v>
       </c>
       <c r="F46">
-        <v>-3.7871870851375E-2</v>
+        <v>7.4187344530892707E-2</v>
       </c>
       <c r="G46">
-        <v>-7.2301729720213759E-2</v>
+        <v>4.4095635565227331E-2</v>
       </c>
       <c r="H46">
-        <v>1.560519641085456E-2</v>
+        <v>0.13261944266561621</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2018,25 +2018,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C47">
-        <v>2690.59</v>
+        <v>12337.02</v>
       </c>
       <c r="D47">
-        <v>-126.1099999999997</v>
+        <v>252.55000000000109</v>
       </c>
       <c r="E47">
-        <v>-4.4772251215961838E-2</v>
+        <v>2.089872373385027E-2</v>
       </c>
       <c r="F47">
-        <v>-0.12611120313621549</v>
+        <v>6.1037281161953061E-2</v>
       </c>
       <c r="G47">
-        <v>-7.2638555174045716E-2</v>
+        <v>4.1714272360340747E-2</v>
       </c>
       <c r="H47">
-        <v>-0.31242409499167167</v>
+        <v>7.8508101963975951E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2044,25 +2044,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C48">
-        <v>3043.36</v>
+        <v>1519.64</v>
       </c>
       <c r="D48">
-        <v>-203.08999999999969</v>
+        <v>52.75</v>
       </c>
       <c r="E48">
-        <v>-6.2557562876372597E-2</v>
+        <v>3.5960433297656857E-2</v>
       </c>
       <c r="F48">
-        <v>-0.23375413542542631</v>
+        <v>-4.8893450831163587E-2</v>
       </c>
       <c r="G48">
-        <v>-7.33743435292038E-2</v>
+        <v>3.883596785254273E-2</v>
       </c>
       <c r="H48">
-        <v>-0.1982813075748168</v>
+        <v>-5.8765006736228531E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2070,25 +2070,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C49">
-        <v>47472.92</v>
+        <v>4040.86</v>
       </c>
       <c r="D49">
-        <v>-3219.360000000001</v>
+        <v>95.740000000000236</v>
       </c>
       <c r="E49">
-        <v>-6.350789508777277E-2</v>
+        <v>2.426795636127688E-2</v>
       </c>
       <c r="F49">
-        <v>-6.9151313117884694E-2</v>
+        <v>-0.22823965316373501</v>
       </c>
       <c r="G49">
-        <v>-7.3818270047808054E-2</v>
+        <v>3.6444939111709873E-2</v>
       </c>
       <c r="H49">
-        <v>-0.18525565621539691</v>
+        <v>-0.182911730694857</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2096,25 +2096,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C50">
-        <v>2054.96</v>
+        <v>26.65</v>
       </c>
       <c r="D50">
-        <v>-138.77999999999969</v>
+        <v>0.53999999999999915</v>
       </c>
       <c r="E50">
-        <v>-6.3261826834538182E-2</v>
+        <v>2.0681731137495159E-2</v>
       </c>
       <c r="F50">
-        <v>-0.35837439192691262</v>
+        <v>-0.41221879135421269</v>
       </c>
       <c r="G50">
-        <v>-7.4070481261741539E-2</v>
+        <v>3.2816079143359822E-2</v>
       </c>
       <c r="H50">
-        <v>-0.32867077355586138</v>
+        <v>-0.37769654469645308</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2122,25 +2122,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C51">
-        <v>6452.2</v>
+        <v>12973.53</v>
       </c>
       <c r="D51">
-        <v>-441.19999999999982</v>
+        <v>427.19000000000051</v>
       </c>
       <c r="E51">
-        <v>-6.4003249485014679E-2</v>
+        <v>3.4048973644903668E-2</v>
       </c>
       <c r="F51">
-        <v>-0.32795883719234648</v>
+        <v>8.5345877644444679E-2</v>
       </c>
       <c r="G51">
-        <v>-7.4803348927011792E-2</v>
+        <v>2.8043601208893602E-2</v>
       </c>
       <c r="H51">
-        <v>-0.29684715153250268</v>
+        <v>0.14254735305698471</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2148,25 +2148,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C52">
-        <v>4594.24</v>
+        <v>8089.15</v>
       </c>
       <c r="D52">
-        <v>-315.40000000000049</v>
+        <v>181.42999999999941</v>
       </c>
       <c r="E52">
-        <v>-6.4240962677508007E-2</v>
+        <v>2.2943402143727809E-2</v>
       </c>
       <c r="F52">
-        <v>-0.23602373956322259</v>
+        <v>-1.425519702953759E-2</v>
       </c>
       <c r="G52">
-        <v>-7.5038319240198992E-2</v>
+        <v>2.2896919651596459E-2</v>
       </c>
       <c r="H52">
-        <v>-0.2006559814827629</v>
+        <v>-1.296327828379518E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2174,25 +2174,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C53">
-        <v>17943.11</v>
+        <v>253.04</v>
       </c>
       <c r="D53">
-        <v>-1342.299999999999</v>
+        <v>5.3299999999999841</v>
       </c>
       <c r="E53">
-        <v>-6.9601838903087798E-2</v>
+        <v>2.151709660490075E-2</v>
       </c>
       <c r="F53">
-        <v>-0.23909548629443089</v>
+        <v>0.4234122742869999</v>
       </c>
       <c r="G53">
-        <v>-8.0337338417342807E-2</v>
+        <v>2.1296752143211028E-2</v>
       </c>
       <c r="H53">
-        <v>-0.20386993262646391</v>
+        <v>0.42316666006742087</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2200,25 +2200,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C54">
-        <v>569.5</v>
+        <v>40731.61</v>
       </c>
       <c r="D54">
-        <v>-42.82000000000005</v>
+        <v>843.61000000000058</v>
       </c>
       <c r="E54">
-        <v>-6.9930755160700353E-2</v>
+        <v>2.1149468511833192E-2</v>
       </c>
       <c r="F54">
-        <v>-0.3810388114206219</v>
+        <v>-1.3672673347500769E-2</v>
       </c>
       <c r="G54">
-        <v>-8.0662459439247214E-2</v>
+        <v>2.1155980897339829E-2</v>
       </c>
       <c r="H54">
-        <v>-0.35238442683758042</v>
+        <v>-4.3401877142908329E-2</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2226,25 +2226,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C55">
-        <v>1066.5999999999999</v>
+        <v>9889.4599999999991</v>
       </c>
       <c r="D55">
-        <v>-97.460000000000036</v>
+        <v>198.43999999999869</v>
       </c>
       <c r="E55">
-        <v>-8.3724206656014322E-2</v>
+        <v>2.0476688728327641E-2</v>
       </c>
       <c r="F55">
-        <v>-0.31992221124111331</v>
+        <v>-4.9835897987732802E-2</v>
       </c>
       <c r="G55">
-        <v>-8.3724206656014322E-2</v>
+        <v>2.0476688728327641E-2</v>
       </c>
       <c r="H55">
-        <v>-0.31992221124111331</v>
+        <v>-4.9966475101181351E-2</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2252,25 +2252,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C56">
-        <v>4057</v>
+        <v>17994.830000000002</v>
       </c>
       <c r="D56">
-        <v>-328.14999999999958</v>
+        <v>522.63000000000102</v>
       </c>
       <c r="E56">
-        <v>-7.4832103804886918E-2</v>
+        <v>2.991208891839614E-2</v>
       </c>
       <c r="F56">
-        <v>-4.8873863841499388E-2</v>
+        <v>-0.12512209268688501</v>
       </c>
       <c r="G56">
-        <v>-8.550725334355036E-2</v>
+        <v>1.810819192561763E-2</v>
       </c>
       <c r="H56">
-        <v>-4.8421303574979202E-3</v>
+        <v>-0.19305718126543769</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2278,25 +2278,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57">
-        <v>2958.21</v>
+        <v>6567.99</v>
       </c>
       <c r="D57">
-        <v>-240.65000000000009</v>
+        <v>12.88999999999942</v>
       </c>
       <c r="E57">
-        <v>-7.5229925661016717E-2</v>
+        <v>1.9664078351206982E-3</v>
       </c>
       <c r="F57">
-        <v>-0.21167375523648099</v>
+        <v>-5.7148271124834782E-2</v>
       </c>
       <c r="G57">
-        <v>-8.5900484889292805E-2</v>
+        <v>1.2363694256503081E-2</v>
       </c>
       <c r="H57">
-        <v>-0.17517873129773551</v>
+        <v>-4.3244924360076098E-2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2307,22 +2307,22 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>11556.48</v>
+        <v>10629.29</v>
       </c>
       <c r="D58">
-        <v>-1089.27</v>
+        <v>114.0400000000009</v>
       </c>
       <c r="E58">
-        <v>-8.6137239784117248E-2</v>
+        <v>1.0845201017569689E-2</v>
       </c>
       <c r="F58">
-        <v>-0.1196397650946638</v>
+        <v>-0.1955223248006078</v>
       </c>
       <c r="G58">
-        <v>-9.6681943792159108E-2</v>
+        <v>1.1348764868101661E-2</v>
       </c>
       <c r="H58">
-        <v>-7.8884090574113275E-2</v>
+        <v>-0.1774168169270014</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2333,22 +2333,22 @@
         <v>116</v>
       </c>
       <c r="C59">
-        <v>1515.97</v>
+        <v>1441.82</v>
       </c>
       <c r="D59">
-        <v>-129.34999999999991</v>
+        <v>14.639999999999869</v>
       </c>
       <c r="E59">
-        <v>-7.861692558286526E-2</v>
+        <v>1.025799128351013E-2</v>
       </c>
       <c r="F59">
-        <v>-0.3026720699917661</v>
+        <v>-8.9834798911705538E-2</v>
       </c>
       <c r="G59">
-        <v>-9.9829726654540152E-2</v>
+        <v>9.9855485679443134E-3</v>
       </c>
       <c r="H59">
-        <v>-0.33029511583187632</v>
+        <v>-9.0111844798008156E-2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2359,22 +2359,22 @@
         <v>117</v>
       </c>
       <c r="C60">
-        <v>93952.4</v>
+        <v>424.94</v>
       </c>
       <c r="D60">
-        <v>-7307.3500000000058</v>
+        <v>-3</v>
       </c>
       <c r="E60">
-        <v>-7.2164408859393792E-2</v>
+        <v>-7.0103285507313604E-3</v>
       </c>
       <c r="F60">
-        <v>-0.19614928123293099</v>
+        <v>-0.25534040129676677</v>
       </c>
       <c r="G60">
-        <v>-0.10211373825489049</v>
+        <v>6.401918316640165E-3</v>
       </c>
       <c r="H60">
-        <v>-0.43555981777744041</v>
+        <v>-0.21044156897044</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2385,22 +2385,22 @@
         <v>118</v>
       </c>
       <c r="C61">
-        <v>1112.3699999999999</v>
+        <v>3550.55</v>
       </c>
       <c r="D61">
-        <v>-78.260000000000218</v>
+        <v>-7.2199999999997999</v>
       </c>
       <c r="E61">
-        <v>-6.5729907695925904E-2</v>
+        <v>-2.0293610885470099E-3</v>
       </c>
       <c r="F61">
-        <v>-1.579707933544783E-3</v>
+        <v>-0.10153373534524859</v>
       </c>
       <c r="G61">
-        <v>-0.1058955060904125</v>
+        <v>-2.3492590544863519E-3</v>
       </c>
       <c r="H61">
-        <v>-0.28192630353252118</v>
+        <v>-0.1018474545581478</v>
       </c>
     </row>
   </sheetData>
@@ -2410,10 +2410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W218"/>
+  <dimension ref="A1:W223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W218"/>
+      <selection sqref="A1:W223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10541,7 +10541,7 @@
         <v>1.1547000000000001</v>
       </c>
       <c r="J115">
-        <v>1602.75</v>
+        <v>1584</v>
       </c>
       <c r="K115">
         <v>163.35</v>
@@ -11606,7 +11606,7 @@
         <v>1.1780999999999999</v>
       </c>
       <c r="J130">
-        <v>1617.25</v>
+        <v>1593.75</v>
       </c>
       <c r="K130">
         <v>166.7</v>
@@ -11748,7 +11748,7 @@
         <v>1.2311000000000001</v>
       </c>
       <c r="J132">
-        <v>1624.25</v>
+        <v>1594</v>
       </c>
       <c r="K132">
         <v>162.6</v>
@@ -11819,7 +11819,7 @@
         <v>1.2271000000000001</v>
       </c>
       <c r="J133">
-        <v>1613.5</v>
+        <v>1593.25</v>
       </c>
       <c r="K133">
         <v>162.05000000000001</v>
@@ -11961,7 +11961,7 @@
         <v>1.2433000000000001</v>
       </c>
       <c r="J135">
-        <v>1635.5</v>
+        <v>1604.75</v>
       </c>
       <c r="K135">
         <v>164.7</v>
@@ -12103,7 +12103,7 @@
         <v>1.2239</v>
       </c>
       <c r="J137">
-        <v>1650.25</v>
+        <v>1636.5</v>
       </c>
       <c r="K137">
         <v>168.1</v>
@@ -12174,7 +12174,7 @@
         <v>1.2412000000000001</v>
       </c>
       <c r="J138">
-        <v>1688.25</v>
+        <v>1638</v>
       </c>
       <c r="K138">
         <v>171.8</v>
@@ -12316,7 +12316,7 @@
         <v>1.2208000000000001</v>
       </c>
       <c r="J140">
-        <v>1682.25</v>
+        <v>1672.25</v>
       </c>
       <c r="K140">
         <v>172.7</v>
@@ -12458,7 +12458,7 @@
         <v>1.2279</v>
       </c>
       <c r="J142">
-        <v>1668.5</v>
+        <v>1665.75</v>
       </c>
       <c r="K142">
         <v>176</v>
@@ -12529,7 +12529,7 @@
         <v>1.2191000000000001</v>
       </c>
       <c r="J143">
-        <v>1663.75</v>
+        <v>1651.25</v>
       </c>
       <c r="K143">
         <v>173.4</v>
@@ -12671,7 +12671,7 @@
         <v>1.28</v>
       </c>
       <c r="J145">
-        <v>1699.5</v>
+        <v>1643.5</v>
       </c>
       <c r="K145">
         <v>176.4</v>
@@ -12813,7 +12813,7 @@
         <v>1.2541</v>
       </c>
       <c r="J147">
-        <v>1707</v>
+        <v>1670.75</v>
       </c>
       <c r="K147">
         <v>176.4</v>
@@ -12884,7 +12884,7 @@
         <v>1.2563</v>
       </c>
       <c r="J148">
-        <v>1697.75</v>
+        <v>1678.5</v>
       </c>
       <c r="K148">
         <v>174.1</v>
@@ -13026,7 +13026,7 @@
         <v>1.2421</v>
       </c>
       <c r="J150">
-        <v>1726.25</v>
+        <v>1682.5</v>
       </c>
       <c r="K150">
         <v>177.6</v>
@@ -13168,7 +13168,7 @@
         <v>1.2119</v>
       </c>
       <c r="J152">
-        <v>1724.25</v>
+        <v>1697.25</v>
       </c>
       <c r="K152">
         <v>183.4</v>
@@ -13239,7 +13239,7 @@
         <v>1.2171000000000001</v>
       </c>
       <c r="J153">
-        <v>1709</v>
+        <v>1692.5</v>
       </c>
       <c r="K153">
         <v>186.7</v>
@@ -13523,7 +13523,7 @@
         <v>1.2499</v>
       </c>
       <c r="J157">
-        <v>1777.25</v>
+        <v>1736.5</v>
       </c>
       <c r="K157">
         <v>191.25</v>
@@ -13878,7 +13878,7 @@
         <v>1.2381</v>
       </c>
       <c r="J162">
-        <v>1762.5</v>
+        <v>1753.35</v>
       </c>
       <c r="K162">
         <v>187.35</v>
@@ -13949,7 +13949,7 @@
         <v>1.2366999999999999</v>
       </c>
       <c r="J163">
-        <v>1741.75</v>
+        <v>1728</v>
       </c>
       <c r="K163">
         <v>187.3</v>
@@ -14091,7 +14091,7 @@
         <v>1.2604</v>
       </c>
       <c r="J165">
-        <v>1773.25</v>
+        <v>1732</v>
       </c>
       <c r="K165">
         <v>193.9</v>
@@ -14233,7 +14233,7 @@
         <v>1.2466999999999999</v>
       </c>
       <c r="J167">
-        <v>1783.75</v>
+        <v>1770.35</v>
       </c>
       <c r="K167">
         <v>197.15</v>
@@ -14304,7 +14304,7 @@
         <v>1.208</v>
       </c>
       <c r="J168">
-        <v>1766.5</v>
+        <v>1763.5</v>
       </c>
       <c r="K168">
         <v>193.55</v>
@@ -14588,7 +14588,7 @@
         <v>1.2107000000000001</v>
       </c>
       <c r="J172">
-        <v>1778.25</v>
+        <v>1750.25</v>
       </c>
       <c r="K172">
         <v>195.35</v>
@@ -17854,7 +17854,7 @@
         <v>1.0812999999999999</v>
       </c>
       <c r="J218">
-        <v>1847.5</v>
+        <v>1853.5</v>
       </c>
       <c r="K218">
         <v>212.2</v>
@@ -17894,6 +17894,361 @@
       </c>
       <c r="W218">
         <v>495.6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B219">
+        <v>1892.5</v>
+      </c>
+      <c r="C219">
+        <v>24.033000000000001</v>
+      </c>
+      <c r="D219">
+        <v>861.45</v>
+      </c>
+      <c r="E219">
+        <v>2227.6999999999998</v>
+      </c>
+      <c r="F219">
+        <v>36.81</v>
+      </c>
+      <c r="G219">
+        <v>38.97</v>
+      </c>
+      <c r="H219">
+        <v>3.2440000000000002</v>
+      </c>
+      <c r="I219">
+        <v>1.1123000000000001</v>
+      </c>
+      <c r="J219">
+        <v>1870.25</v>
+      </c>
+      <c r="K219">
+        <v>202.8</v>
+      </c>
+      <c r="L219">
+        <v>149.25</v>
+      </c>
+      <c r="M219">
+        <v>1144.5999999999999</v>
+      </c>
+      <c r="N219">
+        <v>3.077</v>
+      </c>
+      <c r="O219">
+        <v>397.5</v>
+      </c>
+      <c r="P219">
+        <v>1055.25</v>
+      </c>
+      <c r="Q219">
+        <v>68.75</v>
+      </c>
+      <c r="R219">
+        <v>2257</v>
+      </c>
+      <c r="S219">
+        <v>102.8</v>
+      </c>
+      <c r="T219">
+        <v>14.97</v>
+      </c>
+      <c r="U219">
+        <v>108.55</v>
+      </c>
+      <c r="V219">
+        <v>65.95</v>
+      </c>
+      <c r="W219">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B220">
+        <v>1910.4</v>
+      </c>
+      <c r="C220">
+        <v>24.334</v>
+      </c>
+      <c r="D220">
+        <v>878.15</v>
+      </c>
+      <c r="E220">
+        <v>2301.1999999999998</v>
+      </c>
+      <c r="F220">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="G220">
+        <v>39.71</v>
+      </c>
+      <c r="H220">
+        <v>3.0590000000000002</v>
+      </c>
+      <c r="I220">
+        <v>1.1271</v>
+      </c>
+      <c r="J220">
+        <v>1893.5</v>
+      </c>
+      <c r="K220">
+        <v>204.35</v>
+      </c>
+      <c r="L220">
+        <v>149.94999999999999</v>
+      </c>
+      <c r="M220">
+        <v>1157.0999999999999</v>
+      </c>
+      <c r="N220">
+        <v>3.0924999999999998</v>
+      </c>
+      <c r="O220">
+        <v>401</v>
+      </c>
+      <c r="P220">
+        <v>1062.5</v>
+      </c>
+      <c r="Q220">
+        <v>70.25</v>
+      </c>
+      <c r="R220">
+        <v>2290</v>
+      </c>
+      <c r="S220">
+        <v>103.45</v>
+      </c>
+      <c r="T220">
+        <v>14.72</v>
+      </c>
+      <c r="U220">
+        <v>107.825</v>
+      </c>
+      <c r="V220">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="W220">
+        <v>536.4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>44139</v>
+      </c>
+      <c r="B221">
+        <v>1896.2</v>
+      </c>
+      <c r="C221">
+        <v>23.893000000000001</v>
+      </c>
+      <c r="D221">
+        <v>873.15</v>
+      </c>
+      <c r="E221">
+        <v>2293.6</v>
+      </c>
+      <c r="F221">
+        <v>39.15</v>
+      </c>
+      <c r="G221">
+        <v>41.23</v>
+      </c>
+      <c r="H221">
+        <v>3.0459999999999998</v>
+      </c>
+      <c r="I221">
+        <v>1.1735</v>
+      </c>
+      <c r="J221">
+        <v>1904.5</v>
+      </c>
+      <c r="K221">
+        <v>205.45</v>
+      </c>
+      <c r="L221">
+        <v>150.25</v>
+      </c>
+      <c r="M221">
+        <v>1155.5</v>
+      </c>
+      <c r="N221">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="O221">
+        <v>405.25</v>
+      </c>
+      <c r="P221">
+        <v>1085.25</v>
+      </c>
+      <c r="Q221">
+        <v>70.3</v>
+      </c>
+      <c r="R221">
+        <v>2276</v>
+      </c>
+      <c r="S221">
+        <v>103</v>
+      </c>
+      <c r="T221">
+        <v>14.65</v>
+      </c>
+      <c r="U221">
+        <v>107.875</v>
+      </c>
+      <c r="V221">
+        <v>66.349999999999994</v>
+      </c>
+      <c r="W221">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B222">
+        <v>1946.8</v>
+      </c>
+      <c r="C222">
+        <v>25.190999999999999</v>
+      </c>
+      <c r="D222">
+        <v>895.9</v>
+      </c>
+      <c r="E222">
+        <v>2380.6</v>
+      </c>
+      <c r="F222">
+        <v>38.79</v>
+      </c>
+      <c r="G222">
+        <v>40.93</v>
+      </c>
+      <c r="H222">
+        <v>2.9420000000000002</v>
+      </c>
+      <c r="I222">
+        <v>1.1696</v>
+      </c>
+      <c r="J222">
+        <v>1892.75</v>
+      </c>
+      <c r="K222">
+        <v>206.1</v>
+      </c>
+      <c r="L222">
+        <v>150.15</v>
+      </c>
+      <c r="M222">
+        <v>1161.3</v>
+      </c>
+      <c r="N222">
+        <v>3.11</v>
+      </c>
+      <c r="O222">
+        <v>409.25</v>
+      </c>
+      <c r="P222">
+        <v>1103.75</v>
+      </c>
+      <c r="Q222">
+        <v>70.09</v>
+      </c>
+      <c r="R222">
+        <v>2312</v>
+      </c>
+      <c r="S222">
+        <v>105.95</v>
+      </c>
+      <c r="T222">
+        <v>14.48</v>
+      </c>
+      <c r="U222">
+        <v>108.35</v>
+      </c>
+      <c r="V222">
+        <v>67.430000000000007</v>
+      </c>
+      <c r="W222">
+        <v>565.9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>44141</v>
+      </c>
+      <c r="B223">
+        <v>1951.7</v>
+      </c>
+      <c r="C223">
+        <v>25.661999999999999</v>
+      </c>
+      <c r="D223">
+        <v>896.8</v>
+      </c>
+      <c r="E223">
+        <v>2493.3000000000002</v>
+      </c>
+      <c r="F223">
+        <v>37.14</v>
+      </c>
+      <c r="G223">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="H223">
+        <v>2.8879999999999999</v>
+      </c>
+      <c r="I223">
+        <v>1.1426000000000001</v>
+      </c>
+      <c r="J223">
+        <v>1900</v>
+      </c>
+      <c r="K223">
+        <v>208.25</v>
+      </c>
+      <c r="L223">
+        <v>149.94999999999999</v>
+      </c>
+      <c r="M223">
+        <v>1147.0999999999999</v>
+      </c>
+      <c r="N223">
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="O223">
+        <v>406.75</v>
+      </c>
+      <c r="P223">
+        <v>1103.1199999999999</v>
+      </c>
+      <c r="Q223">
+        <v>68.56</v>
+      </c>
+      <c r="R223">
+        <v>2333</v>
+      </c>
+      <c r="S223">
+        <v>106.95</v>
+      </c>
+      <c r="T223">
+        <v>14.91</v>
+      </c>
+      <c r="U223">
+        <v>108.65</v>
+      </c>
+      <c r="V223">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="W223">
+        <v>555.20000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Equities" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="140">
   <si>
     <t>Country</t>
   </si>
@@ -41,337 +41,331 @@
     <t>Indices</t>
   </si>
   <si>
+    <t>Cyprus Main Market</t>
+  </si>
+  <si>
+    <t>Athens General Composite</t>
+  </si>
+  <si>
     <t>WIG20</t>
+  </si>
+  <si>
+    <t>S&amp;P Lima General</t>
+  </si>
+  <si>
+    <t>S&amp;P/BMV IPC</t>
+  </si>
+  <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>BIST 100</t>
+  </si>
+  <si>
+    <t>FTSE MIB</t>
+  </si>
+  <si>
+    <t>ATX</t>
+  </si>
+  <si>
+    <t>Bovespa</t>
+  </si>
+  <si>
+    <t>FTSE Singapore</t>
+  </si>
+  <si>
+    <t>KOSDAQ</t>
+  </si>
+  <si>
+    <t>PSEi Composite</t>
+  </si>
+  <si>
+    <t>Taiwan Weighted</t>
+  </si>
+  <si>
+    <t>IBEX 35</t>
+  </si>
+  <si>
+    <t>China A50</t>
+  </si>
+  <si>
+    <t>RTSI</t>
+  </si>
+  <si>
+    <t>DJ Shanghai</t>
+  </si>
+  <si>
+    <t>CAC 40</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>S&amp;P/ASX 200</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>KOSPI</t>
+  </si>
+  <si>
+    <t>S&amp;P/TSX</t>
+  </si>
+  <si>
+    <t>SmallCap 2000</t>
+  </si>
+  <si>
+    <t>COLCAP</t>
+  </si>
+  <si>
+    <t>BEL 20</t>
+  </si>
+  <si>
+    <t>Nifty 50</t>
+  </si>
+  <si>
+    <t>OMX Helsinki 25</t>
+  </si>
+  <si>
+    <t>MOEX</t>
+  </si>
+  <si>
+    <t>BSE Sensex</t>
+  </si>
+  <si>
+    <t>OMXS30</t>
+  </si>
+  <si>
+    <t>PSI 20</t>
+  </si>
+  <si>
+    <t>Nikkei 225</t>
+  </si>
+  <si>
+    <t>Budapest SE</t>
+  </si>
+  <si>
+    <t>Tadawul All Share</t>
+  </si>
+  <si>
+    <t>IDX Composite</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50</t>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>OMXC25</t>
+  </si>
+  <si>
+    <t>Tunindex</t>
+  </si>
+  <si>
+    <t>S&amp;P CLX IPSA</t>
+  </si>
+  <si>
+    <t>AEX</t>
+  </si>
+  <si>
+    <t>SZSE Component</t>
+  </si>
+  <si>
+    <t>Hang Seng</t>
+  </si>
+  <si>
+    <t>HNX 30</t>
+  </si>
+  <si>
+    <t>KLCI</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>BSE SOFIX</t>
+  </si>
+  <si>
+    <t>SMI</t>
   </si>
   <si>
     <t>FTSE/JSE Top 40</t>
   </si>
   <si>
-    <t>Budapest SE</t>
+    <t>Bahrain All Share</t>
   </si>
   <si>
-    <t>Bovespa</t>
+    <t>MSM 30</t>
   </si>
   <si>
-    <t>FTSE MIB</t>
-  </si>
-  <si>
-    <t>RTSI</t>
-  </si>
-  <si>
-    <t>MOEX</t>
-  </si>
-  <si>
-    <t>S&amp;P CLX IPSA</t>
-  </si>
-  <si>
-    <t>Euro Stoxx 50</t>
+    <t>ISEQ Overall</t>
   </si>
   <si>
     <t>Nasdaq 100</t>
   </si>
   <si>
-    <t>DAX</t>
-  </si>
-  <si>
-    <t>CAC 40</t>
-  </si>
-  <si>
-    <t>SMI</t>
-  </si>
-  <si>
-    <t>OMXS30</t>
-  </si>
-  <si>
-    <t>AEX</t>
-  </si>
-  <si>
-    <t>IDX Composite</t>
-  </si>
-  <si>
-    <t>OMXC25</t>
-  </si>
-  <si>
-    <t>S&amp;P/ASX 200</t>
-  </si>
-  <si>
-    <t>IBEX 35</t>
-  </si>
-  <si>
-    <t>FTSE 100</t>
-  </si>
-  <si>
-    <t>FTSE Singapore</t>
-  </si>
-  <si>
     <t>S&amp;P 500</t>
   </si>
   <si>
-    <t>ISEQ Overall</t>
-  </si>
-  <si>
-    <t>KOSPI</t>
-  </si>
-  <si>
-    <t>S&amp;P/BMV IPC</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>SmallCap 2000</t>
-  </si>
-  <si>
-    <t>Nikkei 225</t>
-  </si>
-  <si>
-    <t>OMX Helsinki 25</t>
-  </si>
-  <si>
-    <t>PX</t>
-  </si>
-  <si>
-    <t>Hang Seng</t>
-  </si>
-  <si>
-    <t>S&amp;P/TSX</t>
-  </si>
-  <si>
-    <t>SZSE Component</t>
-  </si>
-  <si>
-    <t>KOSDAQ</t>
-  </si>
-  <si>
-    <t>BEL 20</t>
-  </si>
-  <si>
-    <t>COLCAP</t>
-  </si>
-  <si>
-    <t>ATX</t>
-  </si>
-  <si>
-    <t>PSEi Composite</t>
-  </si>
-  <si>
-    <t>BSE Sensex</t>
-  </si>
-  <si>
-    <t>BIST 100</t>
-  </si>
-  <si>
-    <t>Nifty 50</t>
-  </si>
-  <si>
-    <t>China A50</t>
-  </si>
-  <si>
-    <t>DJ Shanghai</t>
-  </si>
-  <si>
-    <t>Athens General Composite</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
+    <t>EGX 30</t>
   </si>
   <si>
     <t>NZX 50</t>
   </si>
   <si>
-    <t>KLCI</t>
-  </si>
-  <si>
-    <t>PSI 20</t>
-  </si>
-  <si>
-    <t>Cyprus Main Market</t>
-  </si>
-  <si>
-    <t>Taiwan Weighted</t>
-  </si>
-  <si>
-    <t>Tadawul All Share</t>
-  </si>
-  <si>
-    <t>HNX 30</t>
-  </si>
-  <si>
     <t>Karachi 100</t>
   </si>
   <si>
-    <t>QE General</t>
+    <t>Cyprus</t>
   </si>
   <si>
-    <t>S&amp;P Lima General</t>
-  </si>
-  <si>
-    <t>Tunindex</t>
-  </si>
-  <si>
-    <t>EGX 30</t>
-  </si>
-  <si>
-    <t>Bahrain All Share</t>
-  </si>
-  <si>
-    <t>BSE SOFIX</t>
-  </si>
-  <si>
-    <t>MSM 30</t>
+    <t>Greece</t>
   </si>
   <si>
     <t>Poland</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
   <si>
     <t>Hungary</t>
   </si>
   <si>
-    <t>Brazil</t>
+    <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>Italy</t>
+    <t>Indonesia</t>
   </si>
   <si>
-    <t>Russia</t>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
   </si>
   <si>
     <t>Chile</t>
   </si>
   <si>
-    <t>Germany</t>
+    <t>Netherlands</t>
   </si>
   <si>
-    <t>United States</t>
+    <t>Hong Kong</t>
   </si>
   <si>
-    <t>France</t>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
   </si>
   <si>
     <t>Switzerland</t>
   </si>
   <si>
-    <t>Sweden</t>
+    <t>South Africa</t>
   </si>
   <si>
-    <t>Netherlands</t>
+    <t>Bahrain</t>
   </si>
   <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Singapore</t>
+    <t>Oman</t>
   </si>
   <si>
     <t>Ireland</t>
   </si>
   <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Greece</t>
+    <t>Egypt</t>
   </si>
   <si>
     <t>New Zealand</t>
   </si>
   <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
     <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Oman</t>
   </si>
   <si>
     <t>Date</t>
@@ -811,9 +805,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -848,25 +842,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2">
-        <v>1697.49</v>
+        <v>30.54</v>
       </c>
       <c r="D2">
-        <v>181.52</v>
+        <v>2.7899999999999991</v>
       </c>
       <c r="E2">
-        <v>0.1197385172529799</v>
+        <v>0.1005405405405404</v>
       </c>
       <c r="F2">
-        <v>-0.2191750576134904</v>
+        <v>-0.32642258491398329</v>
       </c>
       <c r="G2">
-        <v>0.15798471873130859</v>
+        <v>0.1064224846431006</v>
       </c>
       <c r="H2">
-        <v>-0.22449197807359181</v>
+        <v>-0.28390792173519419</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -874,25 +868,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3">
-        <v>51876.24</v>
+        <v>699.45</v>
       </c>
       <c r="D3">
-        <v>4403.32</v>
+        <v>43.770000000000103</v>
       </c>
       <c r="E3">
-        <v>9.27543534292814E-2</v>
+        <v>6.6755124450951886E-2</v>
       </c>
       <c r="F3">
-        <v>1.718895497436157E-2</v>
+        <v>-0.2398026280037823</v>
       </c>
       <c r="G3">
-        <v>0.14049043882694631</v>
+        <v>7.2456499168195965E-2</v>
       </c>
       <c r="H3">
-        <v>-7.0791865825325595E-2</v>
+        <v>-0.19182071160343411</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -900,25 +894,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4">
-        <v>35390.44</v>
+        <v>1820.85</v>
       </c>
       <c r="D4">
-        <v>3111.2700000000041</v>
+        <v>71.439999999999827</v>
       </c>
       <c r="E4">
-        <v>9.6386307330702969E-2</v>
+        <v>4.0836624919258442E-2</v>
       </c>
       <c r="F4">
-        <v>-0.20753643853971759</v>
+        <v>-0.16243094430925911</v>
       </c>
       <c r="G4">
-        <v>0.13698173512114109</v>
+        <v>5.1461050347811232E-2</v>
       </c>
       <c r="H4">
-        <v>-0.22889647928860821</v>
+        <v>-0.15371662631956659</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -926,25 +920,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5">
-        <v>100925.11</v>
+        <v>18553.16</v>
       </c>
       <c r="D5">
-        <v>6972.7100000000064</v>
+        <v>504.75</v>
       </c>
       <c r="E5">
-        <v>7.4215347346102911E-2</v>
+        <v>2.7966452446503531E-2</v>
       </c>
       <c r="F5">
-        <v>-0.1364912209252184</v>
+        <v>-9.7977041469944903E-2</v>
       </c>
       <c r="G5">
-        <v>0.12369225948756581</v>
+        <v>4.6944255518997391E-2</v>
       </c>
       <c r="H5">
-        <v>-0.36574293629275861</v>
+        <v>-0.16383104136875201</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -952,25 +946,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6">
-        <v>19681.68</v>
+        <v>41905.06</v>
       </c>
       <c r="D6">
-        <v>1738.57</v>
+        <v>1113.25</v>
       </c>
       <c r="E6">
-        <v>9.6893459383573965E-2</v>
+        <v>2.7291017486108071E-2</v>
       </c>
       <c r="F6">
-        <v>-0.16536881570092221</v>
+        <v>-5.8213788872083283E-2</v>
       </c>
       <c r="G6">
-        <v>0.10993384852298151</v>
+        <v>4.6071574160877038E-2</v>
       </c>
       <c r="H6">
-        <v>-0.1163482903952308</v>
+        <v>-0.11819317668216769</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -978,25 +972,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7">
-        <v>1178.28</v>
+        <v>942.15</v>
       </c>
       <c r="D7">
-        <v>111.68000000000011</v>
+        <v>30.61000000000001</v>
       </c>
       <c r="E7">
-        <v>0.10470654415901</v>
+        <v>3.3580534041292687E-2</v>
       </c>
       <c r="F7">
-        <v>-0.2487136162208691</v>
+        <v>-0.1576137979131462</v>
       </c>
       <c r="G7">
-        <v>0.10470654415901</v>
+        <v>4.504477945559815E-2</v>
       </c>
       <c r="H7">
-        <v>-0.2487136162208691</v>
+        <v>-0.13763148771995831</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1007,22 +1001,22 @@
         <v>73</v>
       </c>
       <c r="C8">
-        <v>2895.62</v>
+        <v>1323.95</v>
       </c>
       <c r="D8">
-        <v>205.02999999999969</v>
+        <v>32.660000000000082</v>
       </c>
       <c r="E8">
-        <v>7.6202617269818029E-2</v>
+        <v>2.5292536920443979E-2</v>
       </c>
       <c r="F8">
-        <v>-5.9518589612422727E-2</v>
+        <v>0.18832631739563599</v>
       </c>
       <c r="G8">
-        <v>0.1035125265920351</v>
+        <v>4.4629955317908587E-2</v>
       </c>
       <c r="H8">
-        <v>-0.2412513758404545</v>
+        <v>-5.9381925601587733E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1033,22 +1027,22 @@
         <v>74</v>
       </c>
       <c r="C9">
-        <v>3812.38</v>
+        <v>21706.959999999999</v>
       </c>
       <c r="D9">
-        <v>272.45999999999998</v>
+        <v>803.37999999999738</v>
       </c>
       <c r="E9">
-        <v>7.6967841081154287E-2</v>
+        <v>3.8432651249211691E-2</v>
       </c>
       <c r="F9">
-        <v>-0.2194767412102637</v>
+        <v>-7.9483777180976989E-2</v>
       </c>
       <c r="G9">
-        <v>9.963045466458631E-2</v>
+        <v>4.398265380152222E-2</v>
       </c>
       <c r="H9">
-        <v>-0.2110062251627812</v>
+        <v>-2.1382902229930108E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1059,22 +1053,22 @@
         <v>75</v>
       </c>
       <c r="C10">
-        <v>3204.05</v>
+        <v>2502.67</v>
       </c>
       <c r="D10">
-        <v>245.84000000000009</v>
+        <v>92.400000000000091</v>
       </c>
       <c r="E10">
-        <v>8.3104309700798851E-2</v>
+        <v>3.8335954063237747E-2</v>
       </c>
       <c r="F10">
-        <v>-0.14616044684638579</v>
+        <v>-0.21858471184048661</v>
       </c>
       <c r="G10">
-        <v>9.5980766895652714E-2</v>
+        <v>4.3885439808196043E-2</v>
       </c>
       <c r="H10">
-        <v>-9.601175337584722E-2</v>
+        <v>-0.16926356918516791</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1085,22 +1079,22 @@
         <v>76</v>
       </c>
       <c r="C11">
-        <v>12091.35</v>
+        <v>106042.48</v>
       </c>
       <c r="D11">
-        <v>1038.4000000000001</v>
+        <v>1319.4799999999959</v>
       </c>
       <c r="E11">
-        <v>9.3947769599971087E-2</v>
+        <v>1.2599715439779219E-2</v>
       </c>
       <c r="F11">
-        <v>0.36648430074667943</v>
+        <v>-9.2707330862835335E-2</v>
       </c>
       <c r="G11">
-        <v>9.3947769599971087E-2</v>
+        <v>4.1653830133251191E-2</v>
       </c>
       <c r="H11">
-        <v>0.36648430074667943</v>
+        <v>-0.30608229620566041</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1108,25 +1102,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12">
-        <v>12480.02</v>
+        <v>292.52999999999997</v>
       </c>
       <c r="D12">
-        <v>923.54000000000087</v>
+        <v>10.90999999999997</v>
       </c>
       <c r="E12">
-        <v>7.991533754222746E-2</v>
+        <v>3.8740146296427642E-2</v>
       </c>
       <c r="F12">
-        <v>-4.9285479763449103E-2</v>
+        <v>-0.12914173439314111</v>
       </c>
       <c r="G12">
-        <v>9.2753882725165493E-2</v>
+        <v>4.1520213647008308E-2</v>
       </c>
       <c r="H12">
-        <v>6.5529864650595293E-3</v>
+        <v>-0.1261117770522665</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1134,25 +1128,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13">
-        <v>4960.88</v>
+        <v>870.18</v>
       </c>
       <c r="D13">
-        <v>366.64000000000033</v>
+        <v>31.03999999999996</v>
       </c>
       <c r="E13">
-        <v>7.980427665946932E-2</v>
+        <v>3.699025192458949E-2</v>
       </c>
       <c r="F13">
-        <v>-0.1750551667140593</v>
+        <v>0.32789061665471309</v>
       </c>
       <c r="G13">
-        <v>9.2641501498013756E-2</v>
+        <v>3.7706963215014648E-2</v>
       </c>
       <c r="H13">
-        <v>-0.12660355139387</v>
+        <v>0.38952126833509437</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1160,25 +1154,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14">
-        <v>10322.57</v>
+        <v>7169.79</v>
       </c>
       <c r="D14">
-        <v>735.42000000000007</v>
+        <v>199.90999999999991</v>
       </c>
       <c r="E14">
-        <v>7.670892809646257E-2</v>
+        <v>2.8681985916543699E-2</v>
       </c>
       <c r="F14">
-        <v>-3.214503708718186E-2</v>
+        <v>-8.0545071923486811E-2</v>
       </c>
       <c r="G14">
-        <v>8.9974805527332391E-2</v>
+        <v>3.375481459252061E-2</v>
       </c>
       <c r="H14">
-        <v>3.990588665286543E-2</v>
+        <v>-2.710613900454872E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1186,25 +1180,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15">
-        <v>1819.52</v>
+        <v>13716.44</v>
       </c>
       <c r="D15">
-        <v>101.90000000000011</v>
+        <v>443.11000000000058</v>
       </c>
       <c r="E15">
-        <v>5.9326277057789367E-2</v>
+        <v>3.338348402397906E-2</v>
       </c>
       <c r="F15">
-        <v>1.9207609103588871E-2</v>
+        <v>0.147496603465469</v>
       </c>
       <c r="G15">
-        <v>8.6602906609047681E-2</v>
+        <v>3.1388259044166977E-2</v>
       </c>
       <c r="H15">
-        <v>0.1035595583872873</v>
+        <v>0.2098521451894084</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1212,25 +1206,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16">
-        <v>572.9</v>
+        <v>7977.9</v>
       </c>
       <c r="D16">
-        <v>39.019999999999982</v>
+        <v>194.19999999999979</v>
       </c>
       <c r="E16">
-        <v>7.3087585225144247E-2</v>
+        <v>2.4949574109998981E-2</v>
       </c>
       <c r="F16">
-        <v>-5.6550951847704423E-2</v>
+        <v>-0.16904665187638659</v>
       </c>
       <c r="G16">
-        <v>8.5844958853634079E-2</v>
+        <v>3.0427515067900309E-2</v>
       </c>
       <c r="H16">
-        <v>-1.1392097398181811E-3</v>
+        <v>-0.1165987803748588</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1238,25 +1232,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17">
-        <v>5335.53</v>
+        <v>16512.82</v>
       </c>
       <c r="D17">
-        <v>207.30000000000021</v>
+        <v>396.01000000000022</v>
       </c>
       <c r="E17">
-        <v>4.0423303946975908E-2</v>
+        <v>2.4571239593939479E-2</v>
       </c>
       <c r="F17">
-        <v>-0.1473247674753092</v>
+        <v>0.15144292788916799</v>
       </c>
       <c r="G17">
-        <v>8.1438941883425597E-2</v>
+        <v>2.8960714303106091E-2</v>
       </c>
       <c r="H17">
-        <v>-0.16656619428322481</v>
+        <v>0.2182827587241791</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1264,25 +1258,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18">
-        <v>1586.33</v>
+        <v>1262.69</v>
       </c>
       <c r="D18">
-        <v>101.22</v>
+        <v>34.910000000000082</v>
       </c>
       <c r="E18">
-        <v>6.8156567526984624E-2</v>
+        <v>2.8433432699669359E-2</v>
       </c>
       <c r="F18">
-        <v>0.28431134427928351</v>
+        <v>-0.19489272165014179</v>
       </c>
       <c r="G18">
-        <v>8.028103596600844E-2</v>
+        <v>2.8433432699669359E-2</v>
       </c>
       <c r="H18">
-        <v>0.36412008035334292</v>
+        <v>-0.19489272165014179</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1290,25 +1284,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19">
-        <v>6190.2</v>
+        <v>503.92</v>
       </c>
       <c r="D19">
-        <v>262.59999999999951</v>
+        <v>11.69</v>
       </c>
       <c r="E19">
-        <v>4.4301234901140241E-2</v>
+        <v>2.374906039859415E-2</v>
       </c>
       <c r="F19">
-        <v>-8.0986385973247033E-2</v>
+        <v>0.13710623702500219</v>
       </c>
       <c r="G19">
-        <v>7.7703130905494744E-2</v>
+        <v>2.8135012722352078E-2</v>
       </c>
       <c r="H19">
-        <v>-3.8836807120346539E-2</v>
+        <v>0.20311384077442821</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1319,22 +1313,22 @@
         <v>84</v>
       </c>
       <c r="C20">
-        <v>6870.4</v>
+        <v>5495.89</v>
       </c>
       <c r="D20">
-        <v>418.19999999999982</v>
+        <v>115.7300000000005</v>
       </c>
       <c r="E20">
-        <v>6.4815101825733912E-2</v>
+        <v>2.1510512698507119E-2</v>
       </c>
       <c r="F20">
-        <v>-0.28440042079388389</v>
+        <v>-8.6088343235903975E-2</v>
       </c>
       <c r="G20">
-        <v>7.7474128252173369E-2</v>
+        <v>2.697007326400791E-2</v>
       </c>
       <c r="H20">
-        <v>-0.24237099756945099</v>
+        <v>-2.8404333362246129E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1345,22 +1339,22 @@
         <v>85</v>
       </c>
       <c r="C21">
-        <v>5910.02</v>
+        <v>1389.34</v>
       </c>
       <c r="D21">
-        <v>332.75</v>
+        <v>42.869999999999891</v>
       </c>
       <c r="E21">
-        <v>5.9661805865593782E-2</v>
+        <v>3.1838808142773178E-2</v>
       </c>
       <c r="F21">
-        <v>-0.2198343572697726</v>
+        <v>-0.1142237806821805</v>
       </c>
       <c r="G21">
-        <v>7.6662170848802447E-2</v>
+        <v>2.6402686355204489E-2</v>
       </c>
       <c r="H21">
-        <v>-0.2162977825958291</v>
+        <v>-0.1208153509211978</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1371,22 +1365,22 @@
         <v>86</v>
       </c>
       <c r="C22">
-        <v>269.94</v>
+        <v>6539.2</v>
       </c>
       <c r="D22">
-        <v>16.309999999999999</v>
+        <v>134</v>
       </c>
       <c r="E22">
-        <v>6.4306272917241669E-2</v>
+        <v>2.0920502092050208E-2</v>
       </c>
       <c r="F22">
-        <v>-0.19639189068500501</v>
+        <v>-2.91729144706564E-2</v>
       </c>
       <c r="G22">
-        <v>7.6289734712258195E-2</v>
+        <v>2.4994765455119469E-2</v>
       </c>
       <c r="H22">
-        <v>-0.1970462417707064</v>
+        <v>1.6246077826796771E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,25 +1388,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C23">
-        <v>3509.44</v>
+        <v>3377.73</v>
       </c>
       <c r="D23">
-        <v>239.48</v>
+        <v>67.630000000000109</v>
       </c>
       <c r="E23">
-        <v>7.3236369863851625E-2</v>
+        <v>2.0431406906135759E-2</v>
       </c>
       <c r="F23">
-        <v>8.1065096048400065E-2</v>
+        <v>9.5452761715114187E-2</v>
       </c>
       <c r="G23">
-        <v>7.3236369863851625E-2</v>
+        <v>2.4803145717415379E-2</v>
       </c>
       <c r="H23">
-        <v>8.1065096048400065E-2</v>
+        <v>0.15904243299392529</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1420,25 +1414,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C24">
-        <v>6814.55</v>
+        <v>2553.5</v>
       </c>
       <c r="D24">
-        <v>386.80000000000018</v>
+        <v>59.630000000000109</v>
       </c>
       <c r="E24">
-        <v>6.0176578118315227E-2</v>
+        <v>2.3910628861969489E-2</v>
       </c>
       <c r="F24">
-        <v>-5.4931323710516677E-2</v>
+        <v>0.18488030551211779</v>
       </c>
       <c r="G24">
-        <v>7.2780459577246992E-2</v>
+        <v>2.4618300227953641E-2</v>
       </c>
       <c r="H24">
-        <v>5.7554427282013876E-4</v>
+        <v>0.23987349883396611</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1446,25 +1440,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25">
-        <v>2416.5</v>
+        <v>17019.099999999999</v>
       </c>
       <c r="D25">
-        <v>149.34999999999991</v>
+        <v>343.45999999999913</v>
       </c>
       <c r="E25">
-        <v>6.5875658866859199E-2</v>
+        <v>2.05965108385644E-2</v>
       </c>
       <c r="F25">
-        <v>0.121309284617205</v>
+        <v>-5.0492620196932458E-3</v>
       </c>
       <c r="G25">
-        <v>7.2417353750125146E-2</v>
+        <v>2.4519497970946661E-2</v>
       </c>
       <c r="H25">
-        <v>0.1644784104301944</v>
+        <v>-1.2584210351600291E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1472,25 +1466,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26">
-        <v>38530.5</v>
+        <v>1785.65</v>
       </c>
       <c r="D26">
-        <v>1542.639999999999</v>
+        <v>41.610000000000127</v>
       </c>
       <c r="E26">
-        <v>4.1706657265383917E-2</v>
+        <v>2.3858397743171E-2</v>
       </c>
       <c r="F26">
-        <v>-0.1340546080147792</v>
+        <v>7.3584406526941093E-2</v>
       </c>
       <c r="G26">
-        <v>7.1323403788455364E-2</v>
+        <v>2.3858397743171E-2</v>
       </c>
       <c r="H26">
-        <v>-0.2095993222460838</v>
+        <v>7.3584406526941093E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1498,25 +1492,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27">
-        <v>1260.08</v>
+        <v>1239.74</v>
       </c>
       <c r="D27">
-        <v>65.129999999999882</v>
+        <v>29.870000000000118</v>
       </c>
       <c r="E27">
-        <v>5.4504372567889758E-2</v>
+        <v>2.4688602907750431E-2</v>
       </c>
       <c r="F27">
-        <v>-0.1966337264902773</v>
+        <v>-0.26051452737564801</v>
       </c>
       <c r="G27">
-        <v>7.1073141755410685E-2</v>
+        <v>2.303146579786319E-2</v>
       </c>
       <c r="H27">
-        <v>-0.21220973855247161</v>
+        <v>-0.33983050140199411</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1524,25 +1518,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C28">
-        <v>1644.16</v>
+        <v>3585.66</v>
       </c>
       <c r="D28">
-        <v>105.68000000000011</v>
+        <v>61.460000000000043</v>
       </c>
       <c r="E28">
-        <v>6.8691175705891672E-2</v>
+        <v>1.743941887520584E-2</v>
       </c>
       <c r="F28">
-        <v>-1.148347221721191E-2</v>
+        <v>-9.7215857877324563E-2</v>
       </c>
       <c r="G28">
-        <v>6.8691175705891672E-2</v>
+        <v>2.2877221090675141E-2</v>
       </c>
       <c r="H28">
-        <v>-1.148347221721191E-2</v>
+        <v>-4.0234191233118111E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1553,22 +1547,22 @@
         <v>91</v>
       </c>
       <c r="C29">
-        <v>24325.23</v>
+        <v>12859.05</v>
       </c>
       <c r="D29">
-        <v>1348.099999999999</v>
+        <v>139.09999999999849</v>
       </c>
       <c r="E29">
-        <v>5.8671383240639592E-2</v>
+        <v>1.093557757695574E-2</v>
       </c>
       <c r="F29">
-        <v>4.828169616192457E-2</v>
+        <v>7.2208487415628131E-2</v>
       </c>
       <c r="G29">
-        <v>6.8389351719482017E-2</v>
+        <v>2.1377856729018822E-2</v>
       </c>
       <c r="H29">
-        <v>9.2407500631597417E-2</v>
+        <v>3.7935291312889641E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1579,22 +1573,22 @@
         <v>92</v>
       </c>
       <c r="C30">
-        <v>4281.7700000000004</v>
+        <v>4491.45</v>
       </c>
       <c r="D30">
-        <v>224.77000000000041</v>
+        <v>70.119999999999891</v>
       </c>
       <c r="E30">
-        <v>5.5403007148139061E-2</v>
+        <v>1.585948119683445E-2</v>
       </c>
       <c r="F30">
-        <v>3.8213842788719088E-3</v>
+        <v>5.2978921431870329E-2</v>
       </c>
       <c r="G30">
-        <v>6.7950138133719751E-2</v>
+        <v>2.1288839284379971E-2</v>
       </c>
       <c r="H30">
-        <v>6.2778984349568301E-2</v>
+        <v>0.1194405384285209</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1602,25 +1596,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C31">
-        <v>865.26</v>
+        <v>3051.04</v>
       </c>
       <c r="D31">
-        <v>22.340000000000028</v>
+        <v>25.82000000000016</v>
       </c>
       <c r="E31">
-        <v>2.6503108242775131E-2</v>
+        <v>8.5349164688850454E-3</v>
       </c>
       <c r="F31">
-        <v>-0.2263619538102519</v>
+        <v>-9.0390305534172599E-3</v>
       </c>
       <c r="G31">
-        <v>6.7135364917182416E-2</v>
+        <v>2.0575319982523599E-2</v>
       </c>
       <c r="H31">
-        <v>-0.2202695773116142</v>
+        <v>-0.19294765874686851</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1628,25 +1622,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C32">
-        <v>25712.97</v>
+        <v>43882.25</v>
       </c>
       <c r="D32">
-        <v>1605.5500000000029</v>
+        <v>439.25</v>
       </c>
       <c r="E32">
-        <v>6.6599826941248885E-2</v>
+        <v>1.011094998043416E-2</v>
       </c>
       <c r="F32">
-        <v>-8.90385843785505E-2</v>
+        <v>7.8807413495169065E-2</v>
       </c>
       <c r="G32">
-        <v>6.6243538503305111E-2</v>
+        <v>2.0544711288482009E-2</v>
       </c>
       <c r="H32">
-        <v>-8.5810137683534737E-2</v>
+        <v>4.4323282401478759E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1654,25 +1648,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C33">
-        <v>16282.83</v>
+        <v>1926.47</v>
       </c>
       <c r="D33">
-        <v>702.19000000000051</v>
+        <v>29.170000000000069</v>
       </c>
       <c r="E33">
-        <v>4.5068110167489912E-2</v>
+        <v>1.537447952353355E-2</v>
       </c>
       <c r="F33">
-        <v>-4.8092218454096947E-2</v>
+        <v>7.9115856220207004E-2</v>
       </c>
       <c r="G33">
-        <v>6.3697346661858889E-2</v>
+        <v>2.0390031846932999E-2</v>
       </c>
       <c r="H33">
-        <v>-5.5041165220251487E-2</v>
+        <v>0.18126567804778609</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1680,25 +1674,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C34">
-        <v>13838.42</v>
+        <v>4424.1499999999996</v>
       </c>
       <c r="D34">
-        <v>601.81999999999971</v>
+        <v>56.719999999999352</v>
       </c>
       <c r="E34">
-        <v>4.546635843041269E-2</v>
+        <v>1.298704272306583E-2</v>
       </c>
       <c r="F34">
-        <v>0.29351941949492749</v>
+        <v>-0.15503542848411919</v>
       </c>
       <c r="G34">
-        <v>6.2687217229829617E-2</v>
+        <v>1.8401048788656341E-2</v>
       </c>
       <c r="H34">
-        <v>0.36388242837221602</v>
+        <v>-0.1017032006637726</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1706,25 +1700,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C35">
-        <v>836.78</v>
+        <v>25527.37</v>
       </c>
       <c r="D35">
-        <v>44.13</v>
+        <v>141.5</v>
       </c>
       <c r="E35">
-        <v>5.5674004920204467E-2</v>
+        <v>5.5739669351493326E-3</v>
       </c>
       <c r="F35">
-        <v>0.27692237261753982</v>
+        <v>0.10008722310757311</v>
       </c>
       <c r="G35">
-        <v>6.2153088271938987E-2</v>
+        <v>1.7825855216981878E-2</v>
       </c>
       <c r="H35">
-        <v>0.3260824244544116</v>
+        <v>0.14394240652956089</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1732,25 +1726,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36">
-        <v>3191.33</v>
+        <v>38204.67</v>
       </c>
       <c r="D36">
-        <v>147.9699999999998</v>
+        <v>869.56999999999971</v>
       </c>
       <c r="E36">
-        <v>4.862060354345199E-2</v>
+        <v>2.3290951410334989E-2</v>
       </c>
       <c r="F36">
-        <v>-0.19649879902713649</v>
+        <v>-0.14452013445962231</v>
       </c>
       <c r="G36">
-        <v>6.1087102101563102E-2</v>
+        <v>1.69788963125217E-2</v>
       </c>
       <c r="H36">
-        <v>-0.14930663595390811</v>
+        <v>-0.1649631256207674</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1758,25 +1752,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37">
-        <v>1172.3399999999999</v>
+        <v>8578.42</v>
       </c>
       <c r="D37">
-        <v>35.589999999999918</v>
+        <v>143.52000000000041</v>
       </c>
       <c r="E37">
-        <v>3.1308555091268842E-2</v>
+        <v>1.7015020924966651E-2</v>
       </c>
       <c r="F37">
-        <v>-0.30071757063865578</v>
+        <v>4.5367304685643539E-2</v>
       </c>
       <c r="G37">
-        <v>6.0786313245500427E-2</v>
+        <v>1.6941790192091188E-2</v>
       </c>
       <c r="H37">
-        <v>-0.3930326992264942</v>
+        <v>4.6798954958412457E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1784,25 +1778,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38">
-        <v>2153.23</v>
+        <v>5571.66</v>
       </c>
       <c r="D38">
-        <v>98.269999999999982</v>
+        <v>110.5999999999995</v>
       </c>
       <c r="E38">
-        <v>4.7820882158290168E-2</v>
+        <v>2.0252478456563191E-2</v>
       </c>
       <c r="F38">
-        <v>-0.32769128933350811</v>
+        <v>-0.1095886470419024</v>
       </c>
       <c r="G38">
-        <v>6.0277873249676713E-2</v>
+        <v>1.6197211076226511E-2</v>
       </c>
       <c r="H38">
-        <v>-0.28820447553545808</v>
+        <v>-0.12562756972271799</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1810,25 +1804,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39">
-        <v>6685.69</v>
+        <v>3467.6</v>
       </c>
       <c r="D39">
-        <v>361.6899999999996</v>
+        <v>35.529999999999752</v>
       </c>
       <c r="E39">
-        <v>5.7193232131562237E-2</v>
+        <v>1.035235295317394E-2</v>
       </c>
       <c r="F39">
-        <v>-0.14262612739119779</v>
+        <v>-7.5927643290375602E-2</v>
       </c>
       <c r="G39">
-        <v>6.0041780943634659E-2</v>
+        <v>1.5752277667480111E-2</v>
       </c>
       <c r="H39">
-        <v>-9.2513267424757184E-2</v>
+        <v>-1.7602313315761339E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1836,25 +1830,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40">
-        <v>41893.06</v>
+        <v>6351.45</v>
       </c>
       <c r="D40">
-        <v>2278.989999999998</v>
+        <v>35.059999999999491</v>
       </c>
       <c r="E40">
-        <v>5.7529812008713099E-2</v>
+        <v>5.550638893418558E-3</v>
       </c>
       <c r="F40">
-        <v>2.9904886417581711E-2</v>
+        <v>-0.16156238531867881</v>
       </c>
       <c r="G40">
-        <v>5.9584317800900573E-2</v>
+        <v>1.5329500800313371E-2</v>
       </c>
       <c r="H40">
-        <v>-3.290526168226338E-3</v>
+        <v>-0.15072031243896419</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1862,25 +1856,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41">
-        <v>1191.96</v>
+        <v>1595.77</v>
       </c>
       <c r="D41">
-        <v>79.590000000000146</v>
+        <v>16.829999999999931</v>
       </c>
       <c r="E41">
-        <v>7.1549933924863307E-2</v>
+        <v>1.065904974223209E-2</v>
       </c>
       <c r="F41">
-        <v>6.98571979930529E-2</v>
+        <v>0.29195407882379598</v>
       </c>
       <c r="G41">
-        <v>5.5966150041150131E-2</v>
+        <v>1.521419427126292E-2</v>
       </c>
       <c r="H41">
-        <v>-0.241738483295419</v>
+        <v>0.37760298104385132</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1888,25 +1882,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42">
-        <v>12263.55</v>
+        <v>6741.81</v>
       </c>
       <c r="D42">
-        <v>621.14999999999964</v>
+        <v>98.420000000000073</v>
       </c>
       <c r="E42">
-        <v>5.3352401566687302E-2</v>
+        <v>1.481472561448305E-2</v>
       </c>
       <c r="F42">
-        <v>2.2554729614234988E-2</v>
+        <v>-3.2195966460381593E-2</v>
       </c>
       <c r="G42">
-        <v>5.5398791735228103E-2</v>
+        <v>1.481472561448305E-2</v>
       </c>
       <c r="H42">
-        <v>-1.040377615534638E-2</v>
+        <v>-1.6133535093932561E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1914,25 +1908,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C43">
-        <v>16299.22</v>
+        <v>4054.53</v>
       </c>
       <c r="D43">
-        <v>574.79999999999927</v>
+        <v>49.180000000000291</v>
       </c>
       <c r="E43">
-        <v>3.6554607419542202E-2</v>
+        <v>1.227857740272387E-2</v>
       </c>
       <c r="F43">
-        <v>0.13654854828610041</v>
+        <v>-0.16990043792571849</v>
       </c>
       <c r="G43">
-        <v>5.3628672393814643E-2</v>
+        <v>1.481356949349566E-2</v>
       </c>
       <c r="H43">
-        <v>0.19837288148687279</v>
+        <v>-0.16432048820230771</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1940,25 +1934,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C44">
-        <v>493.13</v>
+        <v>601.62</v>
       </c>
       <c r="D44">
-        <v>15.029999999999969</v>
+        <v>4.75</v>
       </c>
       <c r="E44">
-        <v>3.1436937879104621E-2</v>
+        <v>7.9581818486438305E-3</v>
       </c>
       <c r="F44">
-        <v>0.1127583716941962</v>
+        <v>-9.2549897898689393E-3</v>
       </c>
       <c r="G44">
-        <v>4.8426704909376062E-2</v>
+        <v>1.334531068665989E-2</v>
       </c>
       <c r="H44">
-        <v>0.1732886010867847</v>
+        <v>5.3278565317186999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1966,25 +1960,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C45">
-        <v>588.1</v>
+        <v>13852.42</v>
       </c>
       <c r="D45">
-        <v>18.600000000000019</v>
+        <v>97.8700000000008</v>
       </c>
       <c r="E45">
-        <v>3.2660228270412713E-2</v>
+        <v>7.1154636102235269E-3</v>
       </c>
       <c r="F45">
-        <v>-0.36082339771109351</v>
+        <v>0.29482804229094972</v>
       </c>
       <c r="G45">
-        <v>4.4936982325453963E-2</v>
+        <v>1.143015417139881E-2</v>
       </c>
       <c r="H45">
-        <v>-0.32328253727269218</v>
+        <v>0.36999120080355818</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1992,25 +1986,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C46">
-        <v>3312.16</v>
+        <v>26451.54</v>
       </c>
       <c r="D46">
-        <v>87.629999999999654</v>
+        <v>294.68000000000029</v>
       </c>
       <c r="E46">
-        <v>2.7176053564395231E-2</v>
+        <v>1.1265878243795321E-2</v>
       </c>
       <c r="F46">
-        <v>7.4187344530892707E-2</v>
+        <v>-6.2872459938801417E-2</v>
       </c>
       <c r="G46">
-        <v>4.4095635565227331E-2</v>
+        <v>1.1421044599693619E-2</v>
       </c>
       <c r="H46">
-        <v>0.13261944266561621</v>
+        <v>-5.9379049478828549E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2018,25 +2012,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C47">
-        <v>12337.02</v>
+        <v>266.98</v>
       </c>
       <c r="D47">
-        <v>252.55000000000109</v>
+        <v>2.8400000000000318</v>
       </c>
       <c r="E47">
-        <v>2.089872373385027E-2</v>
+        <v>1.075187400620892E-2</v>
       </c>
       <c r="F47">
-        <v>6.1037281161953061E-2</v>
+        <v>0.50182820498396796</v>
       </c>
       <c r="G47">
-        <v>4.1714272360340747E-2</v>
+        <v>1.0708243081387179E-2</v>
       </c>
       <c r="H47">
-        <v>7.8508101963975951E-2</v>
+        <v>0.50150424191888576</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2044,25 +2038,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C48">
-        <v>1519.64</v>
+        <v>1593.75</v>
       </c>
       <c r="D48">
-        <v>52.75</v>
+        <v>4.0599999999999454</v>
       </c>
       <c r="E48">
-        <v>3.5960433297656857E-2</v>
+        <v>2.5539570608106299E-3</v>
       </c>
       <c r="F48">
-        <v>-4.8893450831163587E-2</v>
+        <v>-2.5097636691368001E-3</v>
       </c>
       <c r="G48">
-        <v>3.883596785254273E-2</v>
+        <v>1.013968675855836E-2</v>
       </c>
       <c r="H48">
-        <v>-5.8765006736228531E-2</v>
+        <v>-1.779441619586541E-3</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2070,25 +2064,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C49">
-        <v>4040.86</v>
+        <v>13137.25</v>
       </c>
       <c r="D49">
-        <v>95.740000000000236</v>
+        <v>60.530000000000648</v>
       </c>
       <c r="E49">
-        <v>2.426795636127688E-2</v>
+        <v>4.6288365889917138E-3</v>
       </c>
       <c r="F49">
-        <v>-0.22823965316373501</v>
+        <v>7.8159578090630788E-4</v>
       </c>
       <c r="G49">
-        <v>3.6444939111709873E-2</v>
+        <v>9.998171423067026E-3</v>
       </c>
       <c r="H49">
-        <v>-0.182911730694857</v>
+        <v>6.3948637173947942E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2096,25 +2090,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50">
-        <v>26.65</v>
+        <v>426.4</v>
       </c>
       <c r="D50">
-        <v>0.53999999999999915</v>
+        <v>0.77999999999997272</v>
       </c>
       <c r="E50">
-        <v>2.0681731137495159E-2</v>
+        <v>1.8326206475258731E-3</v>
       </c>
       <c r="F50">
-        <v>-0.41221879135421269</v>
+        <v>-0.25278191535967748</v>
       </c>
       <c r="G50">
-        <v>3.2816079143359822E-2</v>
+        <v>7.3320682349626853E-3</v>
       </c>
       <c r="H50">
-        <v>-0.37769654469645308</v>
+        <v>-0.2048794672629628</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2122,25 +2116,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51">
-        <v>12973.53</v>
+        <v>10495.65</v>
       </c>
       <c r="D51">
-        <v>427.19000000000051</v>
+        <v>3.0399999999990541</v>
       </c>
       <c r="E51">
-        <v>3.4048973644903668E-2</v>
+        <v>2.8972772265434271E-4</v>
       </c>
       <c r="F51">
-        <v>8.5345877644444679E-2</v>
+        <v>-1.5916875206860359E-2</v>
       </c>
       <c r="G51">
-        <v>2.8043601208893602E-2</v>
+        <v>4.5470521817965182E-3</v>
       </c>
       <c r="H51">
-        <v>0.14254735305698471</v>
+        <v>4.9480640304299113E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2148,25 +2142,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52">
-        <v>8089.15</v>
+        <v>51915.4</v>
       </c>
       <c r="D52">
-        <v>181.42999999999941</v>
+        <v>-602.16999999999825</v>
       </c>
       <c r="E52">
-        <v>2.2943402143727809E-2</v>
+        <v>-1.1466067451331051E-2</v>
       </c>
       <c r="F52">
-        <v>-1.425519702953759E-2</v>
+        <v>1.795680398340305E-2</v>
       </c>
       <c r="G52">
-        <v>2.2896919651596459E-2</v>
+        <v>2.0394109783794519E-3</v>
       </c>
       <c r="H52">
-        <v>-1.296327828379518E-2</v>
+        <v>-5.5360888889774203E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2174,25 +2168,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C53">
-        <v>253.04</v>
+        <v>1452.08</v>
       </c>
       <c r="D53">
-        <v>5.3299999999999841</v>
+        <v>2.9499999999998181</v>
       </c>
       <c r="E53">
-        <v>2.151709660490075E-2</v>
+        <v>2.0357041811291938E-3</v>
       </c>
       <c r="F53">
-        <v>0.4234122742869999</v>
+        <v>-8.3358057735160696E-2</v>
       </c>
       <c r="G53">
-        <v>2.1296752143211028E-2</v>
+        <v>1.9607239176577811E-3</v>
       </c>
       <c r="H53">
-        <v>0.42316666006742087</v>
+        <v>-8.3727653440234695E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2200,25 +2194,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54">
-        <v>40731.61</v>
+        <v>3627.66</v>
       </c>
       <c r="D54">
-        <v>843.61000000000058</v>
+        <v>-0.48000000000001819</v>
       </c>
       <c r="E54">
-        <v>2.1149468511833192E-2</v>
+        <v>-1.3229919462864889E-4</v>
       </c>
       <c r="F54">
-        <v>-1.3672673347500769E-2</v>
+        <v>-8.2021058811323488E-2</v>
       </c>
       <c r="G54">
-        <v>2.1155980897339829E-2</v>
+        <v>-1.842929144629801E-4</v>
       </c>
       <c r="H54">
-        <v>-4.3401877142908329E-2</v>
+        <v>-8.2793124761669779E-2</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2226,25 +2220,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55">
-        <v>9889.4599999999991</v>
+        <v>7125.99</v>
       </c>
       <c r="D55">
-        <v>198.43999999999869</v>
+        <v>-51.130000000000109</v>
       </c>
       <c r="E55">
-        <v>2.0476688728327641E-2</v>
+        <v>-7.1240274650555824E-3</v>
       </c>
       <c r="F55">
-        <v>-4.9835897987732802E-2</v>
+        <v>-1.173959593045837E-2</v>
       </c>
       <c r="G55">
-        <v>2.0476688728327641E-2</v>
+        <v>-1.817506936191537E-3</v>
       </c>
       <c r="H55">
-        <v>-4.9966475101181351E-2</v>
+        <v>5.0637136529588789E-2</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2252,25 +2246,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C56">
-        <v>17994.830000000002</v>
+        <v>11906.44</v>
       </c>
       <c r="D56">
-        <v>522.63000000000102</v>
+        <v>-31.39999999999964</v>
       </c>
       <c r="E56">
-        <v>2.991208891839614E-2</v>
+        <v>-2.6302915770356479E-3</v>
       </c>
       <c r="F56">
-        <v>-0.12512209268688501</v>
+        <v>0.34558699713285068</v>
       </c>
       <c r="G56">
-        <v>1.810819192561763E-2</v>
+        <v>-2.6302915770356479E-3</v>
       </c>
       <c r="H56">
-        <v>-0.19305718126543769</v>
+        <v>0.34558699713285068</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2278,25 +2272,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C57">
-        <v>6567.99</v>
+        <v>3557.54</v>
       </c>
       <c r="D57">
-        <v>12.88999999999942</v>
+        <v>-27.610000000000131</v>
       </c>
       <c r="E57">
-        <v>1.9664078351206982E-3</v>
+        <v>-7.7012119437123161E-3</v>
       </c>
       <c r="F57">
-        <v>-5.7148271124834782E-2</v>
+        <v>9.5882055768448771E-2</v>
       </c>
       <c r="G57">
-        <v>1.2363694256503081E-2</v>
+        <v>-7.7012119437123161E-3</v>
       </c>
       <c r="H57">
-        <v>-4.3244924360076098E-2</v>
+        <v>9.5882055768448771E-2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2304,25 +2298,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C58">
-        <v>10629.29</v>
+        <v>10898.67</v>
       </c>
       <c r="D58">
-        <v>114.0400000000009</v>
+        <v>-118.6100000000006</v>
       </c>
       <c r="E58">
-        <v>1.0845201017569689E-2</v>
+        <v>-1.076581515582797E-2</v>
       </c>
       <c r="F58">
-        <v>-0.1955223248006078</v>
+        <v>-0.17513430300938651</v>
       </c>
       <c r="G58">
-        <v>1.1348764868101661E-2</v>
+        <v>-8.2121678874380599E-3</v>
       </c>
       <c r="H58">
-        <v>-0.1774168169270014</v>
+        <v>-0.1519283007782912</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2330,25 +2324,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59">
-        <v>1441.82</v>
+        <v>12441.81</v>
       </c>
       <c r="D59">
-        <v>14.639999999999869</v>
+        <v>-258.36000000000058</v>
       </c>
       <c r="E59">
-        <v>1.025799128351013E-2</v>
+        <v>-2.0343034778274701E-2</v>
       </c>
       <c r="F59">
-        <v>-8.9834798911705538E-2</v>
+        <v>7.0049676107649894E-2</v>
       </c>
       <c r="G59">
-        <v>9.9855485679443134E-3</v>
+        <v>-1.0660750927990129E-2</v>
       </c>
       <c r="H59">
-        <v>-9.0111844798008156E-2</v>
+        <v>0.1104530392389407</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2356,51 +2350,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60">
-        <v>424.94</v>
+        <v>40187.18</v>
       </c>
       <c r="D60">
-        <v>-3</v>
+        <v>-382.16999999999831</v>
       </c>
       <c r="E60">
-        <v>-7.0103285507313604E-3</v>
+        <v>-9.4201657162364949E-3</v>
       </c>
       <c r="F60">
-        <v>-0.25534040129676677</v>
+        <v>-2.68561980461175E-2</v>
       </c>
       <c r="G60">
-        <v>6.401918316640165E-3</v>
+        <v>-2.1802423665975731E-2</v>
       </c>
       <c r="H60">
-        <v>-0.21044156897044</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61">
-        <v>3550.55</v>
-      </c>
-      <c r="D61">
-        <v>-7.2199999999997999</v>
-      </c>
-      <c r="E61">
-        <v>-2.0293610885470099E-3</v>
-      </c>
-      <c r="F61">
-        <v>-0.10153373534524859</v>
-      </c>
-      <c r="G61">
-        <v>-2.3492590544863519E-3</v>
-      </c>
-      <c r="H61">
-        <v>-0.1018474545581478</v>
+        <v>-6.0612161274063658E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2410,83 +2378,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W223"/>
+  <dimension ref="A1:W233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W223"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:W233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -12127,7 +12095,7 @@
         <v>63.9</v>
       </c>
       <c r="R137">
-        <v>2267</v>
+        <v>2139</v>
       </c>
       <c r="S137">
         <v>97.7</v>
@@ -12198,7 +12166,7 @@
         <v>64.349999999999994</v>
       </c>
       <c r="R138">
-        <v>2278</v>
+        <v>2163</v>
       </c>
       <c r="S138">
         <v>96.15</v>
@@ -12269,7 +12237,7 @@
         <v>63.34</v>
       </c>
       <c r="R139">
-        <v>2311</v>
+        <v>2185</v>
       </c>
       <c r="S139">
         <v>97.4</v>
@@ -12340,7 +12308,7 @@
         <v>62.58</v>
       </c>
       <c r="R140">
-        <v>2273</v>
+        <v>2149</v>
       </c>
       <c r="S140">
         <v>96.7</v>
@@ -12411,7 +12379,7 @@
         <v>62.18</v>
       </c>
       <c r="R141">
-        <v>2253</v>
+        <v>2148</v>
       </c>
       <c r="S141">
         <v>95.95</v>
@@ -12482,7 +12450,7 @@
         <v>62.49</v>
       </c>
       <c r="R142">
-        <v>2279</v>
+        <v>2170</v>
       </c>
       <c r="S142">
         <v>97.1</v>
@@ -18249,6 +18217,716 @@
       </c>
       <c r="W223">
         <v>555.20000000000005</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B224">
+        <v>1854.4</v>
+      </c>
+      <c r="C224">
+        <v>23.701000000000001</v>
+      </c>
+      <c r="D224">
+        <v>873.4</v>
+      </c>
+      <c r="E224">
+        <v>2490.1</v>
+      </c>
+      <c r="F224">
+        <v>40.29</v>
+      </c>
+      <c r="G224">
+        <v>42.4</v>
+      </c>
+      <c r="H224">
+        <v>2.859</v>
+      </c>
+      <c r="I224">
+        <v>1.2166999999999999</v>
+      </c>
+      <c r="J224">
+        <v>1878</v>
+      </c>
+      <c r="K224">
+        <v>209.85</v>
+      </c>
+      <c r="L224">
+        <v>150.4</v>
+      </c>
+      <c r="M224">
+        <v>1180.0999999999999</v>
+      </c>
+      <c r="N224">
+        <v>3.1560000000000001</v>
+      </c>
+      <c r="O224">
+        <v>407.5</v>
+      </c>
+      <c r="P224">
+        <v>1110.25</v>
+      </c>
+      <c r="Q224">
+        <v>70.069999999999993</v>
+      </c>
+      <c r="R224">
+        <v>2390</v>
+      </c>
+      <c r="S224">
+        <v>106.85</v>
+      </c>
+      <c r="T224">
+        <v>14.88</v>
+      </c>
+      <c r="U224">
+        <v>111.825</v>
+      </c>
+      <c r="V224">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="W224">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B225">
+        <v>1876.4</v>
+      </c>
+      <c r="C225">
+        <v>24.462</v>
+      </c>
+      <c r="D225">
+        <v>884.5</v>
+      </c>
+      <c r="E225">
+        <v>2472</v>
+      </c>
+      <c r="F225">
+        <v>41.36</v>
+      </c>
+      <c r="G225">
+        <v>43.61</v>
+      </c>
+      <c r="H225">
+        <v>2.9489999999999998</v>
+      </c>
+      <c r="I225">
+        <v>1.2524999999999999</v>
+      </c>
+      <c r="J225">
+        <v>1890.8</v>
+      </c>
+      <c r="K225">
+        <v>210.6</v>
+      </c>
+      <c r="L225">
+        <v>152.25</v>
+      </c>
+      <c r="M225">
+        <v>1192.8</v>
+      </c>
+      <c r="N225">
+        <v>3.1555</v>
+      </c>
+      <c r="O225">
+        <v>423</v>
+      </c>
+      <c r="P225">
+        <v>1146.5</v>
+      </c>
+      <c r="Q225">
+        <v>69.91</v>
+      </c>
+      <c r="R225">
+        <v>2339</v>
+      </c>
+      <c r="S225">
+        <v>107.3</v>
+      </c>
+      <c r="T225">
+        <v>14.68</v>
+      </c>
+      <c r="U225">
+        <v>111.875</v>
+      </c>
+      <c r="V225">
+        <v>65.13</v>
+      </c>
+      <c r="W225">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B226">
+        <v>1861.6</v>
+      </c>
+      <c r="C226">
+        <v>24.266999999999999</v>
+      </c>
+      <c r="D226">
+        <v>867.45</v>
+      </c>
+      <c r="E226">
+        <v>2320.1</v>
+      </c>
+      <c r="F226">
+        <v>41.45</v>
+      </c>
+      <c r="G226">
+        <v>43.8</v>
+      </c>
+      <c r="H226">
+        <v>3.0310000000000001</v>
+      </c>
+      <c r="I226">
+        <v>1.2458</v>
+      </c>
+      <c r="J226">
+        <v>1901</v>
+      </c>
+      <c r="K226">
+        <v>209.5</v>
+      </c>
+      <c r="L226">
+        <v>152.44999999999999</v>
+      </c>
+      <c r="M226">
+        <v>1203.3</v>
+      </c>
+      <c r="N226">
+        <v>3.1339999999999999</v>
+      </c>
+      <c r="O226">
+        <v>417.25</v>
+      </c>
+      <c r="P226">
+        <v>1152.75</v>
+      </c>
+      <c r="Q226">
+        <v>69.28</v>
+      </c>
+      <c r="R226">
+        <v>2353</v>
+      </c>
+      <c r="S226">
+        <v>109.1</v>
+      </c>
+      <c r="T226">
+        <v>14.49</v>
+      </c>
+      <c r="U226">
+        <v>112.4</v>
+      </c>
+      <c r="V226">
+        <v>64.8</v>
+      </c>
+      <c r="W226">
+        <v>569.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>44147</v>
+      </c>
+      <c r="B227">
+        <v>1873.3</v>
+      </c>
+      <c r="C227">
+        <v>24.306000000000001</v>
+      </c>
+      <c r="D227">
+        <v>881.1</v>
+      </c>
+      <c r="E227">
+        <v>2343.6999999999998</v>
+      </c>
+      <c r="F227">
+        <v>41.12</v>
+      </c>
+      <c r="G227">
+        <v>43.53</v>
+      </c>
+      <c r="H227">
+        <v>2.976</v>
+      </c>
+      <c r="I227">
+        <v>1.2333000000000001</v>
+      </c>
+      <c r="J227">
+        <v>1928.25</v>
+      </c>
+      <c r="K227">
+        <v>209.9</v>
+      </c>
+      <c r="L227">
+        <v>153</v>
+      </c>
+      <c r="M227">
+        <v>1196.9000000000001</v>
+      </c>
+      <c r="N227">
+        <v>3.145</v>
+      </c>
+      <c r="O227">
+        <v>408.25</v>
+      </c>
+      <c r="P227">
+        <v>1146</v>
+      </c>
+      <c r="Q227">
+        <v>68.48</v>
+      </c>
+      <c r="R227">
+        <v>2340</v>
+      </c>
+      <c r="S227">
+        <v>110.1</v>
+      </c>
+      <c r="T227">
+        <v>14.92</v>
+      </c>
+      <c r="U227">
+        <v>111.97499999999999</v>
+      </c>
+      <c r="V227">
+        <v>65.8</v>
+      </c>
+      <c r="W227">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>44148</v>
+      </c>
+      <c r="B228">
+        <v>1886.2</v>
+      </c>
+      <c r="C228">
+        <v>24.774999999999999</v>
+      </c>
+      <c r="D228">
+        <v>894.1</v>
+      </c>
+      <c r="E228">
+        <v>2325.1999999999998</v>
+      </c>
+      <c r="F228">
+        <v>40.130000000000003</v>
+      </c>
+      <c r="G228">
+        <v>42.78</v>
+      </c>
+      <c r="H228">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="I228">
+        <v>1.2041999999999999</v>
+      </c>
+      <c r="J228">
+        <v>1933.5</v>
+      </c>
+      <c r="K228">
+        <v>211.2</v>
+      </c>
+      <c r="L228">
+        <v>153.1</v>
+      </c>
+      <c r="M228">
+        <v>1197.3</v>
+      </c>
+      <c r="N228">
+        <v>3.1779999999999999</v>
+      </c>
+      <c r="O228">
+        <v>410.5</v>
+      </c>
+      <c r="P228">
+        <v>1148.3800000000001</v>
+      </c>
+      <c r="Q228">
+        <v>68.42</v>
+      </c>
+      <c r="R228">
+        <v>2365</v>
+      </c>
+      <c r="S228">
+        <v>109.25</v>
+      </c>
+      <c r="T228">
+        <v>14.96</v>
+      </c>
+      <c r="U228">
+        <v>109.925</v>
+      </c>
+      <c r="V228">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="W228">
+        <v>589.1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B229">
+        <v>1887.8</v>
+      </c>
+      <c r="C229">
+        <v>24.802</v>
+      </c>
+      <c r="D229">
+        <v>929.25</v>
+      </c>
+      <c r="E229">
+        <v>2335.25</v>
+      </c>
+      <c r="F229">
+        <v>41.34</v>
+      </c>
+      <c r="G229">
+        <v>43.82</v>
+      </c>
+      <c r="H229">
+        <v>2.6970000000000001</v>
+      </c>
+      <c r="I229">
+        <v>1.2289000000000001</v>
+      </c>
+      <c r="J229">
+        <v>1944</v>
+      </c>
+      <c r="K229">
+        <v>213.5</v>
+      </c>
+      <c r="L229">
+        <v>153.25</v>
+      </c>
+      <c r="M229">
+        <v>1193.4000000000001</v>
+      </c>
+      <c r="N229">
+        <v>3.222</v>
+      </c>
+      <c r="O229">
+        <v>416.25</v>
+      </c>
+      <c r="P229">
+        <v>1154.75</v>
+      </c>
+      <c r="Q229">
+        <v>69.63</v>
+      </c>
+      <c r="R229">
+        <v>2653</v>
+      </c>
+      <c r="S229">
+        <v>115.65</v>
+      </c>
+      <c r="T229">
+        <v>15.47</v>
+      </c>
+      <c r="U229">
+        <v>110.425</v>
+      </c>
+      <c r="V229">
+        <v>65.150000000000006</v>
+      </c>
+      <c r="W229">
+        <v>593.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B230">
+        <v>1885.1</v>
+      </c>
+      <c r="C230">
+        <v>24.651</v>
+      </c>
+      <c r="D230">
+        <v>934.1</v>
+      </c>
+      <c r="E230">
+        <v>2324.6</v>
+      </c>
+      <c r="F230">
+        <v>41.43</v>
+      </c>
+      <c r="G230">
+        <v>43.75</v>
+      </c>
+      <c r="H230">
+        <v>2.6920000000000002</v>
+      </c>
+      <c r="I230">
+        <v>1.2391000000000001</v>
+      </c>
+      <c r="J230">
+        <v>1981</v>
+      </c>
+      <c r="K230">
+        <v>215.95</v>
+      </c>
+      <c r="L230">
+        <v>154.25</v>
+      </c>
+      <c r="M230">
+        <v>1196</v>
+      </c>
+      <c r="N230">
+        <v>3.198</v>
+      </c>
+      <c r="O230">
+        <v>420.25</v>
+      </c>
+      <c r="P230">
+        <v>1169.75</v>
+      </c>
+      <c r="Q230">
+        <v>69.09</v>
+      </c>
+      <c r="R230">
+        <v>2768</v>
+      </c>
+      <c r="S230">
+        <v>116.2</v>
+      </c>
+      <c r="T230">
+        <v>15.31</v>
+      </c>
+      <c r="U230">
+        <v>111.325</v>
+      </c>
+      <c r="V230">
+        <v>65.53</v>
+      </c>
+      <c r="W230">
+        <v>610.6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B231">
+        <v>1873.9</v>
+      </c>
+      <c r="C231">
+        <v>24.448</v>
+      </c>
+      <c r="D231">
+        <v>944.9</v>
+      </c>
+      <c r="E231">
+        <v>2334</v>
+      </c>
+      <c r="F231">
+        <v>41.82</v>
+      </c>
+      <c r="G231">
+        <v>44.34</v>
+      </c>
+      <c r="H231">
+        <v>2.7120000000000002</v>
+      </c>
+      <c r="I231">
+        <v>1.264</v>
+      </c>
+      <c r="J231">
+        <v>1993.25</v>
+      </c>
+      <c r="K231">
+        <v>220.35</v>
+      </c>
+      <c r="L231">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="M231">
+        <v>1183.0999999999999</v>
+      </c>
+      <c r="N231">
+        <v>3.198</v>
+      </c>
+      <c r="O231">
+        <v>425.75</v>
+      </c>
+      <c r="P231">
+        <v>1173.75</v>
+      </c>
+      <c r="Q231">
+        <v>69.62</v>
+      </c>
+      <c r="R231">
+        <v>2831</v>
+      </c>
+      <c r="S231">
+        <v>119.75</v>
+      </c>
+      <c r="T231">
+        <v>15.45</v>
+      </c>
+      <c r="U231">
+        <v>110.65</v>
+      </c>
+      <c r="V231">
+        <v>65.8</v>
+      </c>
+      <c r="W231">
+        <v>595.70000000000005</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>44154</v>
+      </c>
+      <c r="B232">
+        <v>1861.5</v>
+      </c>
+      <c r="C232">
+        <v>24.047999999999998</v>
+      </c>
+      <c r="D232">
+        <v>955.7</v>
+      </c>
+      <c r="E232">
+        <v>2320.4</v>
+      </c>
+      <c r="F232">
+        <v>41.74</v>
+      </c>
+      <c r="G232">
+        <v>44.2</v>
+      </c>
+      <c r="H232">
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="I232">
+        <v>1.2706999999999999</v>
+      </c>
+      <c r="J232">
+        <v>1987.75</v>
+      </c>
+      <c r="K232">
+        <v>221.85</v>
+      </c>
+      <c r="L232">
+        <v>155.44999999999999</v>
+      </c>
+      <c r="M232">
+        <v>1190.8</v>
+      </c>
+      <c r="N232">
+        <v>3.202</v>
+      </c>
+      <c r="O232">
+        <v>422.5</v>
+      </c>
+      <c r="P232">
+        <v>1178</v>
+      </c>
+      <c r="Q232">
+        <v>69.3</v>
+      </c>
+      <c r="R232">
+        <v>2915</v>
+      </c>
+      <c r="S232">
+        <v>120.65</v>
+      </c>
+      <c r="T232">
+        <v>15.28</v>
+      </c>
+      <c r="U232">
+        <v>108.25</v>
+      </c>
+      <c r="V232">
+        <v>63.7</v>
+      </c>
+      <c r="W232">
+        <v>616.9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>44155</v>
+      </c>
+      <c r="B233">
+        <v>1869.75</v>
+      </c>
+      <c r="C233">
+        <v>24.227</v>
+      </c>
+      <c r="D233">
+        <v>952.4</v>
+      </c>
+      <c r="E233">
+        <v>2326.3000000000002</v>
+      </c>
+      <c r="F233">
+        <v>42.44</v>
+      </c>
+      <c r="G233">
+        <v>45.11</v>
+      </c>
+      <c r="H233">
+        <v>2.661</v>
+      </c>
+      <c r="I233">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="J233">
+        <v>1987.25</v>
+      </c>
+      <c r="K233">
+        <v>225.3</v>
+      </c>
+      <c r="L233">
+        <v>157.94999999999999</v>
+      </c>
+      <c r="M233">
+        <v>1212.5</v>
+      </c>
+      <c r="N233">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="O233">
+        <v>422.88</v>
+      </c>
+      <c r="P233">
+        <v>1181.6199999999999</v>
+      </c>
+      <c r="Q233">
+        <v>71.19</v>
+      </c>
+      <c r="R233">
+        <v>2740.5</v>
+      </c>
+      <c r="S233">
+        <v>117.83</v>
+      </c>
+      <c r="T233">
+        <v>15.25</v>
+      </c>
+      <c r="U233">
+        <v>108.01300000000001</v>
+      </c>
+      <c r="V233">
+        <v>64.17</v>
+      </c>
+      <c r="W233">
+        <v>630.5</v>
       </c>
     </row>
   </sheetData>

--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Equities" sheetId="1" r:id="rId1"/>
@@ -44,328 +44,328 @@
     <t>Cyprus Main Market</t>
   </si>
   <si>
+    <t>IDX Composite</t>
+  </si>
+  <si>
     <t>Athens General Composite</t>
+  </si>
+  <si>
+    <t>PSI 20</t>
+  </si>
+  <si>
+    <t>S&amp;P Lima General</t>
+  </si>
+  <si>
+    <t>ATX</t>
+  </si>
+  <si>
+    <t>BEL 20</t>
+  </si>
+  <si>
+    <t>Nikkei 225</t>
+  </si>
+  <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>KOSPI</t>
+  </si>
+  <si>
+    <t>SmallCap 2000</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>MOEX</t>
+  </si>
+  <si>
+    <t>Bovespa</t>
+  </si>
+  <si>
+    <t>FTSE/JSE Top 40</t>
+  </si>
+  <si>
+    <t>FTSE MIB</t>
+  </si>
+  <si>
+    <t>OMX Helsinki 25</t>
+  </si>
+  <si>
+    <t>RTSI</t>
+  </si>
+  <si>
+    <t>IBEX 35</t>
+  </si>
+  <si>
+    <t>NZX 50</t>
+  </si>
+  <si>
+    <t>Nasdaq 100</t>
+  </si>
+  <si>
+    <t>Karachi 100</t>
+  </si>
+  <si>
+    <t>Budapest SE</t>
+  </si>
+  <si>
+    <t>S&amp;P/TSX</t>
+  </si>
+  <si>
+    <t>COLCAP</t>
+  </si>
+  <si>
+    <t>KOSDAQ</t>
+  </si>
+  <si>
+    <t>FTSE Singapore</t>
+  </si>
+  <si>
+    <t>CAC 40</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>S&amp;P/ASX 200</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50</t>
+  </si>
+  <si>
+    <t>China A50</t>
+  </si>
+  <si>
+    <t>AEX</t>
+  </si>
+  <si>
+    <t>DAX</t>
   </si>
   <si>
     <t>WIG20</t>
   </si>
   <si>
-    <t>S&amp;P Lima General</t>
+    <t>ISEQ Overall</t>
+  </si>
+  <si>
+    <t>Hang Seng</t>
+  </si>
+  <si>
+    <t>KLCI</t>
+  </si>
+  <si>
+    <t>OMXS30</t>
+  </si>
+  <si>
+    <t>Tadawul All Share</t>
+  </si>
+  <si>
+    <t>Bahrain All Share</t>
+  </si>
+  <si>
+    <t>DJ Shanghai</t>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Taiwan Weighted</t>
+  </si>
+  <si>
+    <t>Tunindex</t>
+  </si>
+  <si>
+    <t>Nifty 50</t>
+  </si>
+  <si>
+    <t>BSE Sensex</t>
+  </si>
+  <si>
+    <t>S&amp;P CLX IPSA</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>EGX 30</t>
+  </si>
+  <si>
+    <t>HNX 30</t>
   </si>
   <si>
     <t>S&amp;P/BMV IPC</t>
   </si>
   <si>
-    <t>PX</t>
+    <t>OMXC25</t>
+  </si>
+  <si>
+    <t>BSE SOFIX</t>
+  </si>
+  <si>
+    <t>MSM 30</t>
+  </si>
+  <si>
+    <t>SZSE Component</t>
   </si>
   <si>
     <t>BIST 100</t>
   </si>
   <si>
-    <t>FTSE MIB</t>
-  </si>
-  <si>
-    <t>ATX</t>
-  </si>
-  <si>
-    <t>Bovespa</t>
-  </si>
-  <si>
-    <t>FTSE Singapore</t>
-  </si>
-  <si>
-    <t>KOSDAQ</t>
-  </si>
-  <si>
     <t>PSEi Composite</t>
-  </si>
-  <si>
-    <t>Taiwan Weighted</t>
-  </si>
-  <si>
-    <t>IBEX 35</t>
-  </si>
-  <si>
-    <t>China A50</t>
-  </si>
-  <si>
-    <t>RTSI</t>
-  </si>
-  <si>
-    <t>DJ Shanghai</t>
-  </si>
-  <si>
-    <t>CAC 40</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>S&amp;P/ASX 200</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>KOSPI</t>
-  </si>
-  <si>
-    <t>S&amp;P/TSX</t>
-  </si>
-  <si>
-    <t>SmallCap 2000</t>
-  </si>
-  <si>
-    <t>COLCAP</t>
-  </si>
-  <si>
-    <t>BEL 20</t>
-  </si>
-  <si>
-    <t>Nifty 50</t>
-  </si>
-  <si>
-    <t>OMX Helsinki 25</t>
-  </si>
-  <si>
-    <t>MOEX</t>
-  </si>
-  <si>
-    <t>BSE Sensex</t>
-  </si>
-  <si>
-    <t>OMXS30</t>
-  </si>
-  <si>
-    <t>PSI 20</t>
-  </si>
-  <si>
-    <t>Nikkei 225</t>
-  </si>
-  <si>
-    <t>Budapest SE</t>
-  </si>
-  <si>
-    <t>Tadawul All Share</t>
-  </si>
-  <si>
-    <t>IDX Composite</t>
-  </si>
-  <si>
-    <t>Euro Stoxx 50</t>
-  </si>
-  <si>
-    <t>FTSE 100</t>
-  </si>
-  <si>
-    <t>OMXC25</t>
-  </si>
-  <si>
-    <t>Tunindex</t>
-  </si>
-  <si>
-    <t>S&amp;P CLX IPSA</t>
-  </si>
-  <si>
-    <t>AEX</t>
-  </si>
-  <si>
-    <t>SZSE Component</t>
-  </si>
-  <si>
-    <t>Hang Seng</t>
-  </si>
-  <si>
-    <t>HNX 30</t>
-  </si>
-  <si>
-    <t>KLCI</t>
-  </si>
-  <si>
-    <t>DAX</t>
-  </si>
-  <si>
-    <t>BSE SOFIX</t>
-  </si>
-  <si>
-    <t>SMI</t>
-  </si>
-  <si>
-    <t>FTSE/JSE Top 40</t>
-  </si>
-  <si>
-    <t>Bahrain All Share</t>
-  </si>
-  <si>
-    <t>MSM 30</t>
-  </si>
-  <si>
-    <t>ISEQ Overall</t>
-  </si>
-  <si>
-    <t>Nasdaq 100</t>
-  </si>
-  <si>
-    <t>S&amp;P 500</t>
-  </si>
-  <si>
-    <t>EGX 30</t>
-  </si>
-  <si>
-    <t>NZX 50</t>
-  </si>
-  <si>
-    <t>Karachi 100</t>
   </si>
   <si>
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
     <t>Greece</t>
   </si>
   <si>
-    <t>Poland</t>
+    <t>Portugal</t>
   </si>
   <si>
     <t>Peru</t>
   </si>
   <si>
-    <t>Mexico</t>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
   <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Turkey</t>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Italy</t>
   </si>
   <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
+    <t>Finland</t>
   </si>
   <si>
     <t>Spain</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Egypt</t>
   </si>
   <si>
     <t>New Zealand</t>
   </si>
   <si>
     <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Philippines</t>
   </si>
   <si>
     <t>Date</t>
@@ -807,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -845,22 +845,22 @@
         <v>67</v>
       </c>
       <c r="C2">
-        <v>30.54</v>
+        <v>33.42</v>
       </c>
       <c r="D2">
-        <v>2.7899999999999991</v>
+        <v>2.880000000000003</v>
       </c>
       <c r="E2">
-        <v>0.1005405405405404</v>
+        <v>9.4302554027505092E-2</v>
       </c>
       <c r="F2">
-        <v>-0.32642258491398329</v>
+        <v>-0.2629025143361271</v>
       </c>
       <c r="G2">
-        <v>0.1064224846431006</v>
+        <v>9.8869145657523916E-2</v>
       </c>
       <c r="H2">
-        <v>-0.28390792173519419</v>
+        <v>-0.21310850974503229</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -871,22 +871,22 @@
         <v>68</v>
       </c>
       <c r="C3">
-        <v>699.45</v>
+        <v>5783.33</v>
       </c>
       <c r="D3">
-        <v>43.770000000000103</v>
+        <v>211.6700000000001</v>
       </c>
       <c r="E3">
-        <v>6.6755124450951886E-2</v>
+        <v>3.7990473216240828E-2</v>
       </c>
       <c r="F3">
-        <v>-0.2398026280037823</v>
+        <v>-7.5761498385911064E-2</v>
       </c>
       <c r="G3">
-        <v>7.2456499168195965E-2</v>
+        <v>5.9814374000281667E-2</v>
       </c>
       <c r="H3">
-        <v>-0.19182071160343411</v>
+        <v>-7.3327530162577426E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -897,22 +897,22 @@
         <v>69</v>
       </c>
       <c r="C4">
-        <v>1820.85</v>
+        <v>736.6</v>
       </c>
       <c r="D4">
-        <v>71.439999999999827</v>
+        <v>37.149999999999977</v>
       </c>
       <c r="E4">
-        <v>4.0836624919258442E-2</v>
+        <v>5.3113160340267251E-2</v>
       </c>
       <c r="F4">
-        <v>-0.16243094430925911</v>
+        <v>-0.19942614309469731</v>
       </c>
       <c r="G4">
-        <v>5.1461050347811232E-2</v>
+        <v>5.750786610584635E-2</v>
       </c>
       <c r="H4">
-        <v>-0.15371662631956659</v>
+        <v>-0.14534404529680631</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -923,22 +923,22 @@
         <v>70</v>
       </c>
       <c r="C5">
-        <v>18553.16</v>
+        <v>4651.82</v>
       </c>
       <c r="D5">
-        <v>504.75</v>
+        <v>227.6700000000001</v>
       </c>
       <c r="E5">
-        <v>2.7966452446503531E-2</v>
+        <v>5.14607325700982E-2</v>
       </c>
       <c r="F5">
-        <v>-9.7977041469944903E-2</v>
+        <v>-0.1115529326381329</v>
       </c>
       <c r="G5">
-        <v>4.6944255518997391E-2</v>
+        <v>5.5848542653311517E-2</v>
       </c>
       <c r="H5">
-        <v>-0.16383104136875201</v>
+        <v>-5.1534633550710307E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -949,22 +949,22 @@
         <v>71</v>
       </c>
       <c r="C6">
-        <v>41905.06</v>
+        <v>19601.09</v>
       </c>
       <c r="D6">
-        <v>1113.25</v>
+        <v>790.70000000000073</v>
       </c>
       <c r="E6">
-        <v>2.7291017486108071E-2</v>
+        <v>4.2035279438650708E-2</v>
       </c>
       <c r="F6">
-        <v>-5.8213788872083283E-2</v>
+        <v>-4.7028474275332188E-2</v>
       </c>
       <c r="G6">
-        <v>4.6071574160877038E-2</v>
+        <v>5.316200340153121E-2</v>
       </c>
       <c r="H6">
-        <v>-0.11819317668216769</v>
+        <v>-0.10716926289682829</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -975,22 +975,22 @@
         <v>72</v>
       </c>
       <c r="C7">
-        <v>942.15</v>
+        <v>2598.96</v>
       </c>
       <c r="D7">
-        <v>30.61000000000001</v>
+        <v>96.289999999999964</v>
       </c>
       <c r="E7">
-        <v>3.3580534041292687E-2</v>
+        <v>3.8474908797404339E-2</v>
       </c>
       <c r="F7">
-        <v>-0.1576137979131462</v>
+        <v>-0.18851982989565169</v>
       </c>
       <c r="G7">
-        <v>4.504477945559815E-2</v>
+        <v>4.2808528242086252E-2</v>
       </c>
       <c r="H7">
-        <v>-0.13763148771995831</v>
+        <v>-0.1337009652249013</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1001,22 +1001,22 @@
         <v>73</v>
       </c>
       <c r="C8">
-        <v>1323.95</v>
+        <v>3719.36</v>
       </c>
       <c r="D8">
-        <v>32.660000000000082</v>
+        <v>133.7000000000003</v>
       </c>
       <c r="E8">
-        <v>2.5292536920443979E-2</v>
+        <v>3.728741710033856E-2</v>
       </c>
       <c r="F8">
-        <v>0.18832631739563599</v>
+        <v>-6.355336901842501E-2</v>
       </c>
       <c r="G8">
-        <v>4.4629955317908587E-2</v>
+        <v>4.1616081069384858E-2</v>
       </c>
       <c r="H8">
-        <v>-5.9381925601587733E-2</v>
+        <v>-2.9249952785193051E-4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1027,22 +1027,22 @@
         <v>74</v>
       </c>
       <c r="C9">
-        <v>21706.959999999999</v>
+        <v>26644.71</v>
       </c>
       <c r="D9">
-        <v>803.37999999999738</v>
+        <v>1117.3399999999999</v>
       </c>
       <c r="E9">
-        <v>3.8432651249211691E-2</v>
+        <v>4.3770274807001242E-2</v>
       </c>
       <c r="F9">
-        <v>-7.9483777180976989E-2</v>
+        <v>0.14823834317466261</v>
       </c>
       <c r="G9">
-        <v>4.398265380152222E-2</v>
+        <v>3.9594928471849311E-2</v>
       </c>
       <c r="H9">
-        <v>-2.1382902229930108E-2</v>
+        <v>0.1892367242920141</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1053,22 +1053,22 @@
         <v>75</v>
       </c>
       <c r="C10">
-        <v>2502.67</v>
+        <v>968.32</v>
       </c>
       <c r="D10">
-        <v>92.400000000000091</v>
+        <v>26.170000000000069</v>
       </c>
       <c r="E10">
-        <v>3.8335954063237747E-2</v>
+        <v>2.7776893276017619E-2</v>
       </c>
       <c r="F10">
-        <v>-0.21858471184048661</v>
+        <v>-0.1342149262805897</v>
       </c>
       <c r="G10">
-        <v>4.3885439808196043E-2</v>
+        <v>3.9470517427005802E-2</v>
       </c>
       <c r="H10">
-        <v>-0.16926356918516791</v>
+        <v>-0.1035933563275075</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1079,22 +1079,22 @@
         <v>76</v>
       </c>
       <c r="C11">
-        <v>106042.48</v>
+        <v>2633.45</v>
       </c>
       <c r="D11">
-        <v>1319.4799999999959</v>
+        <v>79.949999999999818</v>
       </c>
       <c r="E11">
-        <v>1.2599715439779219E-2</v>
+        <v>3.130996671235553E-2</v>
       </c>
       <c r="F11">
-        <v>-9.2707330862835335E-2</v>
+        <v>0.2219788684358279</v>
       </c>
       <c r="G11">
-        <v>4.1653830133251191E-2</v>
+        <v>3.9313666386081143E-2</v>
       </c>
       <c r="H11">
-        <v>-0.30608229620566041</v>
+        <v>0.28861747192806808</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1105,22 +1105,22 @@
         <v>77</v>
       </c>
       <c r="C12">
-        <v>292.52999999999997</v>
+        <v>1855.27</v>
       </c>
       <c r="D12">
-        <v>10.90999999999997</v>
+        <v>69.930000000000064</v>
       </c>
       <c r="E12">
-        <v>3.8740146296427642E-2</v>
+        <v>3.9169009824459262E-2</v>
       </c>
       <c r="F12">
-        <v>-0.12914173439314111</v>
+        <v>0.1154419633731347</v>
       </c>
       <c r="G12">
-        <v>4.1520213647008308E-2</v>
+        <v>3.9169009824459262E-2</v>
       </c>
       <c r="H12">
-        <v>-0.1261117770522665</v>
+        <v>0.1154419633731347</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1131,22 +1131,22 @@
         <v>78</v>
       </c>
       <c r="C13">
-        <v>870.18</v>
+        <v>1437.78</v>
       </c>
       <c r="D13">
-        <v>31.03999999999996</v>
+        <v>48.440000000000047</v>
       </c>
       <c r="E13">
-        <v>3.699025192458949E-2</v>
+        <v>3.4865475693494741E-2</v>
       </c>
       <c r="F13">
-        <v>0.32789061665471309</v>
+        <v>-8.3340771437679373E-2</v>
       </c>
       <c r="G13">
-        <v>3.7706963215014648E-2</v>
+        <v>3.7770037190167471E-2</v>
       </c>
       <c r="H13">
-        <v>0.38952126833509437</v>
+        <v>-8.7608514028467033E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1157,22 +1157,22 @@
         <v>79</v>
       </c>
       <c r="C14">
-        <v>7169.79</v>
+        <v>3142.68</v>
       </c>
       <c r="D14">
-        <v>199.90999999999991</v>
+        <v>91.639999999999873</v>
       </c>
       <c r="E14">
-        <v>2.8681985916543699E-2</v>
+        <v>3.0035659971681779E-2</v>
       </c>
       <c r="F14">
-        <v>-8.0545071923486811E-2</v>
+        <v>2.0725136170088421E-2</v>
       </c>
       <c r="G14">
-        <v>3.375481459252061E-2</v>
+        <v>3.7051866228412722E-2</v>
       </c>
       <c r="H14">
-        <v>-2.710613900454872E-2</v>
+        <v>-0.16304486335943019</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1183,22 +1183,22 @@
         <v>80</v>
       </c>
       <c r="C15">
-        <v>13716.44</v>
+        <v>110575.47</v>
       </c>
       <c r="D15">
-        <v>443.11000000000058</v>
+        <v>4532.9900000000052</v>
       </c>
       <c r="E15">
-        <v>3.338348402397906E-2</v>
+        <v>4.2746925571714327E-2</v>
       </c>
       <c r="F15">
-        <v>0.147496603465469</v>
+        <v>-5.392335866346698E-2</v>
       </c>
       <c r="G15">
-        <v>3.1388259044166977E-2</v>
+        <v>3.6727312503863629E-2</v>
       </c>
       <c r="H15">
-        <v>0.2098521451894084</v>
+        <v>-0.28059656384644233</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1209,22 +1209,22 @@
         <v>81</v>
       </c>
       <c r="C16">
-        <v>7977.9</v>
+        <v>53021.58</v>
       </c>
       <c r="D16">
-        <v>194.19999999999979</v>
+        <v>1106.18</v>
       </c>
       <c r="E16">
-        <v>2.4949574109998981E-2</v>
+        <v>2.1307357739707381E-2</v>
       </c>
       <c r="F16">
-        <v>-0.16904665187638659</v>
+        <v>3.9646773769446593E-2</v>
       </c>
       <c r="G16">
-        <v>3.0427515067900309E-2</v>
+        <v>3.6114292305583502E-2</v>
       </c>
       <c r="H16">
-        <v>-0.1165987803748588</v>
+        <v>-2.1245915907853189E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1235,22 +1235,22 @@
         <v>82</v>
       </c>
       <c r="C17">
-        <v>16512.82</v>
+        <v>22352.46</v>
       </c>
       <c r="D17">
-        <v>396.01000000000022</v>
+        <v>645.5</v>
       </c>
       <c r="E17">
-        <v>2.4571239593939479E-2</v>
+        <v>2.9737006010975179E-2</v>
       </c>
       <c r="F17">
-        <v>0.15144292788916799</v>
+        <v>-5.2110380729807448E-2</v>
       </c>
       <c r="G17">
-        <v>2.8960714303106091E-2</v>
+        <v>3.4034161651765198E-2</v>
       </c>
       <c r="H17">
-        <v>0.2182827587241791</v>
+        <v>1.1923510270757781E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1261,22 +1261,22 @@
         <v>83</v>
       </c>
       <c r="C18">
-        <v>1262.69</v>
+        <v>4624.1099999999997</v>
       </c>
       <c r="D18">
-        <v>34.910000000000082</v>
+        <v>132.65999999999991</v>
       </c>
       <c r="E18">
-        <v>2.8433432699669359E-2</v>
+        <v>2.9536118625388189E-2</v>
       </c>
       <c r="F18">
-        <v>-0.19489272165014179</v>
+        <v>8.4079831765315305E-2</v>
       </c>
       <c r="G18">
-        <v>2.8433432699669359E-2</v>
+        <v>3.3832435950805539E-2</v>
       </c>
       <c r="H18">
-        <v>-0.19489272165014179</v>
+        <v>0.15731393874563859</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1284,25 +1284,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C19">
-        <v>503.92</v>
+        <v>1302.43</v>
       </c>
       <c r="D19">
-        <v>11.69</v>
+        <v>39.740000000000009</v>
       </c>
       <c r="E19">
-        <v>2.374906039859415E-2</v>
+        <v>3.1472491268640823E-2</v>
       </c>
       <c r="F19">
-        <v>0.13710623702500219</v>
+        <v>-0.1695539898619568</v>
       </c>
       <c r="G19">
-        <v>2.8135012722352078E-2</v>
+        <v>3.1472491268640823E-2</v>
       </c>
       <c r="H19">
-        <v>0.20311384077442821</v>
+        <v>-0.1695539898619568</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1313,22 +1313,22 @@
         <v>84</v>
       </c>
       <c r="C20">
-        <v>5495.89</v>
+        <v>8190.7</v>
       </c>
       <c r="D20">
-        <v>115.7300000000005</v>
+        <v>212.80000000000021</v>
       </c>
       <c r="E20">
-        <v>2.1510512698507119E-2</v>
+        <v>2.6673686057734569E-2</v>
       </c>
       <c r="F20">
-        <v>-8.6088343235903975E-2</v>
+        <v>-0.14688206313991389</v>
       </c>
       <c r="G20">
-        <v>2.697007326400791E-2</v>
+        <v>3.0958058276602699E-2</v>
       </c>
       <c r="H20">
-        <v>-2.8404333362246129E-2</v>
+        <v>-8.925039393608214E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1339,22 +1339,22 @@
         <v>85</v>
       </c>
       <c r="C21">
-        <v>1389.34</v>
+        <v>12639.83</v>
       </c>
       <c r="D21">
-        <v>42.869999999999891</v>
+        <v>198.02000000000041</v>
       </c>
       <c r="E21">
-        <v>3.1838808142773178E-2</v>
+        <v>1.5915690723455889E-2</v>
       </c>
       <c r="F21">
-        <v>-0.1142237806821805</v>
+        <v>8.708025581131329E-2</v>
       </c>
       <c r="G21">
-        <v>2.6402686355204489E-2</v>
+        <v>3.015254094568065E-2</v>
       </c>
       <c r="H21">
-        <v>-0.1208153509211978</v>
+        <v>0.14393601997284811</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1362,25 +1362,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C22">
-        <v>6539.2</v>
+        <v>12258.21</v>
       </c>
       <c r="D22">
-        <v>134</v>
+        <v>351.76999999999862</v>
       </c>
       <c r="E22">
-        <v>2.0920502092050208E-2</v>
+        <v>2.9544515405108381E-2</v>
       </c>
       <c r="F22">
-        <v>-2.91729144706564E-2</v>
+        <v>0.38534171289855568</v>
       </c>
       <c r="G22">
-        <v>2.4994765455119469E-2</v>
+        <v>2.9544515405108381E-2</v>
       </c>
       <c r="H22">
-        <v>1.6246077826796771E-2</v>
+        <v>0.38534171289855568</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1388,25 +1388,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C23">
-        <v>3377.73</v>
+        <v>40807.089999999997</v>
       </c>
       <c r="D23">
-        <v>67.630000000000109</v>
+        <v>619.90999999999622</v>
       </c>
       <c r="E23">
-        <v>2.0431406906135759E-2</v>
+        <v>1.542556606360534E-2</v>
       </c>
       <c r="F23">
-        <v>9.5452761715114187E-2</v>
+        <v>-1.184490403968985E-2</v>
       </c>
       <c r="G23">
-        <v>2.4803145717415379E-2</v>
+        <v>2.9262732374039979E-2</v>
       </c>
       <c r="H23">
-        <v>0.15904243299392529</v>
+        <v>-3.3123106353998837E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1414,25 +1414,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C24">
-        <v>2553.5</v>
+        <v>39308.9</v>
       </c>
       <c r="D24">
-        <v>59.630000000000109</v>
+        <v>1104.230000000003</v>
       </c>
       <c r="E24">
-        <v>2.3910628861969489E-2</v>
+        <v>2.8903011071683249E-2</v>
       </c>
       <c r="F24">
-        <v>0.18488030551211779</v>
+        <v>-0.1197941904343067</v>
       </c>
       <c r="G24">
-        <v>2.4618300227953641E-2</v>
+        <v>2.7862701668814441E-2</v>
       </c>
       <c r="H24">
-        <v>0.23987349883396611</v>
+        <v>-0.14169674230747981</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1440,25 +1440,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25">
-        <v>17019.099999999999</v>
+        <v>17396.560000000001</v>
       </c>
       <c r="D25">
-        <v>343.45999999999913</v>
+        <v>377.46000000000282</v>
       </c>
       <c r="E25">
-        <v>2.05965108385644E-2</v>
+        <v>2.2178611089893389E-2</v>
       </c>
       <c r="F25">
-        <v>-5.0492620196932458E-3</v>
+        <v>1.701736345157423E-2</v>
       </c>
       <c r="G25">
-        <v>2.4519497970946661E-2</v>
+        <v>2.7305118622571459E-2</v>
       </c>
       <c r="H25">
-        <v>-1.2584210351600291E-2</v>
+        <v>1.437729491454909E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1466,25 +1466,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26">
-        <v>1785.65</v>
+        <v>1261.74</v>
       </c>
       <c r="D26">
-        <v>41.610000000000127</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>2.3858397743171E-2</v>
+        <v>1.7745656347298629E-2</v>
       </c>
       <c r="F26">
-        <v>7.3584406526941093E-2</v>
+        <v>-0.24739187230463641</v>
       </c>
       <c r="G26">
-        <v>2.3858397743171E-2</v>
+        <v>2.6822760420442071E-2</v>
       </c>
       <c r="H26">
-        <v>7.3584406526941093E-2</v>
+        <v>-0.32212293310421641</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1492,25 +1492,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C27">
-        <v>1239.74</v>
+        <v>885.56</v>
       </c>
       <c r="D27">
-        <v>29.870000000000118</v>
+        <v>15.38</v>
       </c>
       <c r="E27">
-        <v>2.4688602907750431E-2</v>
+        <v>1.7674504125583249E-2</v>
       </c>
       <c r="F27">
-        <v>-0.26051452737564801</v>
+        <v>0.35136042483710012</v>
       </c>
       <c r="G27">
-        <v>2.303146579786319E-2</v>
+        <v>2.5572382900665991E-2</v>
       </c>
       <c r="H27">
-        <v>-0.33983050140199411</v>
+        <v>0.42505463825757861</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1521,22 +1521,22 @@
         <v>90</v>
       </c>
       <c r="C28">
-        <v>3585.66</v>
+        <v>298.29000000000002</v>
       </c>
       <c r="D28">
-        <v>61.460000000000043</v>
+        <v>5.7600000000000477</v>
       </c>
       <c r="E28">
-        <v>1.743941887520584E-2</v>
+        <v>1.9690288175571839E-2</v>
       </c>
       <c r="F28">
-        <v>-9.7215857877324563E-2</v>
+        <v>-0.1119942841832634</v>
       </c>
       <c r="G28">
-        <v>2.2877221090675141E-2</v>
+        <v>2.4626444243148079E-2</v>
       </c>
       <c r="H28">
-        <v>-4.0234191233118111E-2</v>
+        <v>-0.1045910174551002</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1547,22 +1547,22 @@
         <v>91</v>
       </c>
       <c r="C29">
-        <v>12859.05</v>
+        <v>5598.18</v>
       </c>
       <c r="D29">
-        <v>139.09999999999849</v>
+        <v>102.29</v>
       </c>
       <c r="E29">
-        <v>1.093557757695574E-2</v>
+        <v>1.8612090125530219E-2</v>
       </c>
       <c r="F29">
-        <v>7.2208487415628131E-2</v>
+        <v>-6.9078537113438032E-2</v>
       </c>
       <c r="G29">
-        <v>2.1377856729018822E-2</v>
+        <v>2.2862820810461319E-2</v>
       </c>
       <c r="H29">
-        <v>3.7935291312889641E-2</v>
+        <v>-6.1909157356866418E-3</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1570,25 +1570,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C30">
-        <v>4491.45</v>
+        <v>3638.35</v>
       </c>
       <c r="D30">
-        <v>70.119999999999891</v>
+        <v>80.809999999999945</v>
       </c>
       <c r="E30">
-        <v>1.585948119683445E-2</v>
+        <v>2.271513461549279E-2</v>
       </c>
       <c r="F30">
-        <v>5.2978921431870329E-2</v>
+        <v>0.12077516418793199</v>
       </c>
       <c r="G30">
-        <v>2.1288839284379971E-2</v>
+        <v>2.271513461549279E-2</v>
       </c>
       <c r="H30">
-        <v>0.1194405384285209</v>
+        <v>0.12077516418793199</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1596,25 +1596,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C31">
-        <v>3051.04</v>
+        <v>6601.1</v>
       </c>
       <c r="D31">
-        <v>25.82000000000016</v>
+        <v>61.900000000000553</v>
       </c>
       <c r="E31">
-        <v>8.5349164688850454E-3</v>
+        <v>9.4659897235136459E-3</v>
       </c>
       <c r="F31">
-        <v>-9.0390305534172599E-3</v>
+        <v>-1.9983075255726849E-2</v>
       </c>
       <c r="G31">
-        <v>2.0575319982523599E-2</v>
+        <v>2.181069371539723E-2</v>
       </c>
       <c r="H31">
-        <v>-0.19294765874686851</v>
+        <v>3.8411109769750817E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1622,25 +1622,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C32">
-        <v>43882.25</v>
+        <v>3527.79</v>
       </c>
       <c r="D32">
-        <v>439.25</v>
+        <v>60.190000000000047</v>
       </c>
       <c r="E32">
-        <v>1.011094998043416E-2</v>
+        <v>1.7357826738954921E-2</v>
       </c>
       <c r="F32">
-        <v>7.8807413495169065E-2</v>
+        <v>-5.9887755428352119E-2</v>
       </c>
       <c r="G32">
-        <v>2.0544711288482009E-2</v>
+        <v>2.160332330589743E-2</v>
       </c>
       <c r="H32">
-        <v>4.4323282401478759E-2</v>
+        <v>3.6207415246438672E-3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1648,25 +1648,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33">
-        <v>1926.47</v>
+        <v>16847.09</v>
       </c>
       <c r="D33">
-        <v>29.170000000000069</v>
+        <v>334.27000000000038</v>
       </c>
       <c r="E33">
-        <v>1.537447952353355E-2</v>
+        <v>2.024305963487771E-2</v>
       </c>
       <c r="F33">
-        <v>7.9115856220207004E-2</v>
+        <v>0.17475165574458651</v>
       </c>
       <c r="G33">
-        <v>2.0390031846932999E-2</v>
+        <v>2.1468928784883049E-2</v>
       </c>
       <c r="H33">
-        <v>0.18126567804778609</v>
+        <v>0.24443798451107909</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1674,25 +1674,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C34">
-        <v>4424.1499999999996</v>
+        <v>611.66999999999996</v>
       </c>
       <c r="D34">
-        <v>56.719999999999352</v>
+        <v>10.049999999999949</v>
       </c>
       <c r="E34">
-        <v>1.298704272306583E-2</v>
+        <v>1.670489677869735E-2</v>
       </c>
       <c r="F34">
-        <v>-0.15503542848411919</v>
+        <v>7.2953033397009648E-3</v>
       </c>
       <c r="G34">
-        <v>1.8401048788656341E-2</v>
+        <v>2.0947668628896299E-2</v>
       </c>
       <c r="H34">
-        <v>-0.1017032006637726</v>
+        <v>7.534229567737083E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1700,25 +1700,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C35">
-        <v>25527.37</v>
+        <v>13335.68</v>
       </c>
       <c r="D35">
-        <v>141.5</v>
+        <v>198.43000000000029</v>
       </c>
       <c r="E35">
-        <v>5.5739669351493326E-3</v>
+        <v>1.5104378770290691E-2</v>
       </c>
       <c r="F35">
-        <v>0.10008722310757311</v>
+        <v>1.5897780069917159E-2</v>
       </c>
       <c r="G35">
-        <v>1.7825855216981878E-2</v>
+        <v>1.9340471560741479E-2</v>
       </c>
       <c r="H35">
-        <v>0.14394240652956089</v>
+        <v>8.4525905533300305E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1729,22 +1729,22 @@
         <v>96</v>
       </c>
       <c r="C36">
-        <v>38204.67</v>
+        <v>1852.69</v>
       </c>
       <c r="D36">
-        <v>869.56999999999971</v>
+        <v>31.840000000000149</v>
       </c>
       <c r="E36">
-        <v>2.3290951410334989E-2</v>
+        <v>1.748633879781436E-2</v>
       </c>
       <c r="F36">
-        <v>-0.14452013445962231</v>
+        <v>-0.14778492803488541</v>
       </c>
       <c r="G36">
-        <v>1.69788963125217E-2</v>
+        <v>1.876727357411689E-2</v>
       </c>
       <c r="H36">
-        <v>-0.1649631256207674</v>
+        <v>-0.13783419472447939</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1755,22 +1755,22 @@
         <v>97</v>
       </c>
       <c r="C37">
-        <v>8578.42</v>
+        <v>7224.7</v>
       </c>
       <c r="D37">
-        <v>143.52000000000041</v>
+        <v>98.710000000000036</v>
       </c>
       <c r="E37">
-        <v>1.7015020924966651E-2</v>
+        <v>1.385211037343592E-2</v>
       </c>
       <c r="F37">
-        <v>4.5367304685643539E-2</v>
+        <v>1.949896264409112E-3</v>
       </c>
       <c r="G37">
-        <v>1.6941790192091188E-2</v>
+        <v>1.8082977371112641E-2</v>
       </c>
       <c r="H37">
-        <v>4.6798954958412457E-2</v>
+        <v>6.9635784094703501E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1781,22 +1781,22 @@
         <v>98</v>
       </c>
       <c r="C38">
-        <v>5571.66</v>
+        <v>26894.68</v>
       </c>
       <c r="D38">
-        <v>110.5999999999995</v>
+        <v>443.13999999999942</v>
       </c>
       <c r="E38">
-        <v>2.0252478456563191E-2</v>
+        <v>1.6752899831163019E-2</v>
       </c>
       <c r="F38">
-        <v>-0.1095886470419024</v>
+        <v>-4.717285613113209E-2</v>
       </c>
       <c r="G38">
-        <v>1.6197211076226511E-2</v>
+        <v>1.7002145889693399E-2</v>
       </c>
       <c r="H38">
-        <v>-0.12562756972271799</v>
+        <v>-4.3386474851165542E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1807,22 +1807,22 @@
         <v>99</v>
       </c>
       <c r="C39">
-        <v>3467.6</v>
+        <v>1607.59</v>
       </c>
       <c r="D39">
-        <v>35.529999999999752</v>
+        <v>13.83999999999992</v>
       </c>
       <c r="E39">
-        <v>1.035235295317394E-2</v>
+        <v>8.6839215686274063E-3</v>
       </c>
       <c r="F39">
-        <v>-7.5927643290375602E-2</v>
+        <v>6.1523633086320029E-3</v>
       </c>
       <c r="G39">
-        <v>1.5752277667480111E-2</v>
+        <v>1.662438239076813E-2</v>
       </c>
       <c r="H39">
-        <v>-1.7602313315761339E-2</v>
+        <v>1.4815358653255339E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1833,22 +1833,22 @@
         <v>100</v>
       </c>
       <c r="C40">
-        <v>6351.45</v>
+        <v>1937.09</v>
       </c>
       <c r="D40">
-        <v>35.059999999999491</v>
+        <v>10.619999999999891</v>
       </c>
       <c r="E40">
-        <v>5.550638893418558E-3</v>
+        <v>5.5126734389840948E-3</v>
       </c>
       <c r="F40">
-        <v>-0.16156238531867881</v>
+        <v>8.5064669538378768E-2</v>
       </c>
       <c r="G40">
-        <v>1.5329500800313371E-2</v>
+        <v>1.385956850061976E-2</v>
       </c>
       <c r="H40">
-        <v>-0.15072031243896419</v>
+        <v>0.1976375106301205</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1859,22 +1859,22 @@
         <v>101</v>
       </c>
       <c r="C41">
-        <v>1595.77</v>
+        <v>8693.4699999999993</v>
       </c>
       <c r="D41">
-        <v>16.829999999999931</v>
+        <v>115.0499999999993</v>
       </c>
       <c r="E41">
-        <v>1.065904974223209E-2</v>
+        <v>1.3411560637040409E-2</v>
       </c>
       <c r="F41">
-        <v>0.29195407882379598</v>
+        <v>5.9387311680414452E-2</v>
       </c>
       <c r="G41">
-        <v>1.521419427126292E-2</v>
+        <v>1.341416290048802E-2</v>
       </c>
       <c r="H41">
-        <v>0.37760298104385132</v>
+        <v>6.0840886664285332E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1885,22 +1885,22 @@
         <v>102</v>
       </c>
       <c r="C42">
-        <v>6741.81</v>
+        <v>1467.81</v>
       </c>
       <c r="D42">
-        <v>98.420000000000073</v>
+        <v>15.73000000000002</v>
       </c>
       <c r="E42">
-        <v>1.481472561448305E-2</v>
+        <v>1.083273648834782E-2</v>
       </c>
       <c r="F42">
-        <v>-3.2195966460381593E-2</v>
+        <v>-7.3428317120438402E-2</v>
       </c>
       <c r="G42">
-        <v>1.481472561448305E-2</v>
+        <v>1.085710872060996E-2</v>
       </c>
       <c r="H42">
-        <v>-1.6133535093932561E-2</v>
+        <v>-7.3779584955946831E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1908,25 +1908,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C43">
-        <v>4054.53</v>
+        <v>508.67</v>
       </c>
       <c r="D43">
-        <v>49.180000000000291</v>
+        <v>4.75</v>
       </c>
       <c r="E43">
-        <v>1.227857740272387E-2</v>
+        <v>9.4260993808541471E-3</v>
       </c>
       <c r="F43">
-        <v>-0.16990043792571849</v>
+        <v>0.14782471342178891</v>
       </c>
       <c r="G43">
-        <v>1.481356949349566E-2</v>
+        <v>1.063897145359749E-2</v>
       </c>
       <c r="H43">
-        <v>-0.16432048820230771</v>
+        <v>0.21591373458185509</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1934,25 +1934,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C44">
-        <v>601.62</v>
+        <v>6367.58</v>
       </c>
       <c r="D44">
-        <v>4.75</v>
+        <v>16.130000000000109</v>
       </c>
       <c r="E44">
-        <v>7.9581818486438305E-3</v>
+        <v>2.53957757677381E-3</v>
       </c>
       <c r="F44">
-        <v>-9.2549897898689393E-3</v>
+        <v>-0.15943310795291041</v>
       </c>
       <c r="G44">
-        <v>1.334531068665989E-2</v>
+        <v>1.050575658104091E-2</v>
       </c>
       <c r="H44">
-        <v>5.3278565317186999E-2</v>
+        <v>-0.14179798677222519</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1960,25 +1960,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C45">
-        <v>13852.42</v>
+        <v>3408.31</v>
       </c>
       <c r="D45">
-        <v>97.8700000000008</v>
+        <v>30.579999999999931</v>
       </c>
       <c r="E45">
-        <v>7.1154636102235269E-3</v>
+        <v>9.0534175318925936E-3</v>
       </c>
       <c r="F45">
-        <v>0.29482804229094972</v>
+        <v>0.105370352953386</v>
       </c>
       <c r="G45">
-        <v>1.143015417139881E-2</v>
+        <v>1.02658418101842E-2</v>
       </c>
       <c r="H45">
-        <v>0.36999120080355818</v>
+        <v>0.17094097926233179</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1986,25 +1986,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46">
-        <v>26451.54</v>
+        <v>13867.09</v>
       </c>
       <c r="D46">
-        <v>294.68000000000029</v>
+        <v>150.64999999999961</v>
       </c>
       <c r="E46">
-        <v>1.1265878243795321E-2</v>
+        <v>1.0983170560291191E-2</v>
       </c>
       <c r="F46">
-        <v>-6.2872459938801417E-2</v>
+        <v>0.16009975437868509</v>
       </c>
       <c r="G46">
-        <v>1.1421044599693619E-2</v>
+        <v>1.0178189397144211E-2</v>
       </c>
       <c r="H46">
-        <v>-5.9379049478828549E-2</v>
+        <v>0.2221662494656873</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2012,25 +2012,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47">
-        <v>266.98</v>
+        <v>6782.21</v>
       </c>
       <c r="D47">
-        <v>2.8400000000000318</v>
+        <v>40.399999999999643</v>
       </c>
       <c r="E47">
-        <v>1.075187400620892E-2</v>
+        <v>5.9924560318371789E-3</v>
       </c>
       <c r="F47">
-        <v>0.50182820498396796</v>
+        <v>-2.6396443341960899E-2</v>
       </c>
       <c r="G47">
-        <v>1.0708243081387179E-2</v>
+        <v>9.4904937232793696E-3</v>
       </c>
       <c r="H47">
-        <v>0.50150424191888576</v>
+        <v>-6.7961565841965221E-3</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2038,25 +2038,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48">
-        <v>1593.75</v>
+        <v>12968.95</v>
       </c>
       <c r="D48">
-        <v>4.0599999999999454</v>
+        <v>109.9000000000015</v>
       </c>
       <c r="E48">
-        <v>2.5539570608106299E-3</v>
+        <v>8.5465100454544807E-3</v>
       </c>
       <c r="F48">
-        <v>-2.5097636691368001E-3</v>
+        <v>8.1372128024147505E-2</v>
       </c>
       <c r="G48">
-        <v>1.013968675855836E-2</v>
+        <v>9.238477532536038E-3</v>
       </c>
       <c r="H48">
-        <v>-1.779441619586541E-3</v>
+        <v>4.7524233181910347E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2064,25 +2064,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C49">
-        <v>13137.25</v>
+        <v>44149.72</v>
       </c>
       <c r="D49">
-        <v>60.530000000000648</v>
+        <v>267.47000000000122</v>
       </c>
       <c r="E49">
-        <v>4.6288365889917138E-3</v>
+        <v>6.0951751562419174E-3</v>
       </c>
       <c r="F49">
-        <v>7.8159578090630788E-4</v>
+        <v>8.5382933640274716E-2</v>
       </c>
       <c r="G49">
-        <v>9.998171423067026E-3</v>
+        <v>6.7854607733983663E-3</v>
       </c>
       <c r="H49">
-        <v>6.3948637173947942E-2</v>
+        <v>5.1409497068960919E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2090,25 +2090,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50">
-        <v>426.4</v>
+        <v>4117.03</v>
       </c>
       <c r="D50">
-        <v>0.77999999999997272</v>
+        <v>62.499999999999552</v>
       </c>
       <c r="E50">
-        <v>1.8326206475258731E-3</v>
+        <v>1.5414856962459259E-2</v>
       </c>
       <c r="F50">
-        <v>-0.25278191535967748</v>
+        <v>-0.1571045719117434</v>
       </c>
       <c r="G50">
-        <v>7.3320682349626853E-3</v>
+        <v>6.0006270938210982E-3</v>
       </c>
       <c r="H50">
-        <v>-0.2048794672629628</v>
+        <v>-0.15930588708206331</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2116,25 +2116,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51">
-        <v>10495.65</v>
+        <v>10501.18</v>
       </c>
       <c r="D51">
-        <v>3.0399999999990541</v>
+        <v>5.5300000000006548</v>
       </c>
       <c r="E51">
-        <v>2.8972772265434271E-4</v>
+        <v>5.2688494757369142E-4</v>
       </c>
       <c r="F51">
-        <v>-1.5916875206860359E-2</v>
+        <v>-1.5398376621245659E-2</v>
       </c>
       <c r="G51">
-        <v>4.5470521817965182E-3</v>
+        <v>5.5194648936667257E-3</v>
       </c>
       <c r="H51">
-        <v>4.9480640304299113E-2</v>
+        <v>5.5273211855041193E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2142,25 +2142,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52">
-        <v>51915.4</v>
+        <v>10980.96</v>
       </c>
       <c r="D52">
-        <v>-602.16999999999825</v>
+        <v>82.289999999999054</v>
       </c>
       <c r="E52">
-        <v>-1.1466067451331051E-2</v>
+        <v>7.5504625793789693E-3</v>
       </c>
       <c r="F52">
-        <v>1.795680398340305E-2</v>
+        <v>-0.16890618543124561</v>
       </c>
       <c r="G52">
-        <v>2.0394109783794519E-3</v>
+        <v>5.2073298526460476E-3</v>
       </c>
       <c r="H52">
-        <v>-5.5360888889774203E-2</v>
+        <v>-0.14751211170174969</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2168,25 +2168,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53">
-        <v>1452.08</v>
+        <v>268.20999999999998</v>
       </c>
       <c r="D53">
-        <v>2.9499999999998181</v>
+        <v>1.2299999999999609</v>
       </c>
       <c r="E53">
-        <v>2.0357041811291938E-3</v>
+        <v>4.6070866731589E-3</v>
       </c>
       <c r="F53">
-        <v>-8.3358057735160696E-2</v>
+        <v>0.50874725769252382</v>
       </c>
       <c r="G53">
-        <v>1.9607239176577811E-3</v>
+        <v>5.1274972257489004E-3</v>
       </c>
       <c r="H53">
-        <v>-8.3727653440234695E-2</v>
+        <v>0.50920320075377501</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2194,25 +2194,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54">
-        <v>3627.66</v>
+        <v>41674.300000000003</v>
       </c>
       <c r="D54">
-        <v>-0.48000000000001819</v>
+        <v>-230.75999999999479</v>
       </c>
       <c r="E54">
-        <v>-1.3229919462864889E-4</v>
+        <v>-5.5067335543725893E-3</v>
       </c>
       <c r="F54">
-        <v>-8.2021058811323488E-2</v>
+        <v>-6.3399954601946695E-2</v>
       </c>
       <c r="G54">
-        <v>-1.842929144629801E-4</v>
+        <v>4.6372582232196979E-3</v>
       </c>
       <c r="H54">
-        <v>-8.2793124761669779E-2</v>
+        <v>-0.1141040107394455</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2220,25 +2220,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C55">
-        <v>7125.99</v>
+        <v>1593.18</v>
       </c>
       <c r="D55">
-        <v>-51.130000000000109</v>
+        <v>-2.5899999999999181</v>
       </c>
       <c r="E55">
-        <v>-7.1240274650555824E-3</v>
+        <v>-1.6230409144174509E-3</v>
       </c>
       <c r="F55">
-        <v>-1.173959593045837E-2</v>
+        <v>0.28985718449431652</v>
       </c>
       <c r="G55">
-        <v>-1.817506936191537E-3</v>
+        <v>3.2341304022189821E-3</v>
       </c>
       <c r="H55">
-        <v>5.0637136529588789E-2</v>
+        <v>0.38205832872703288</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2246,25 +2246,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C56">
-        <v>11906.44</v>
+        <v>425.7</v>
       </c>
       <c r="D56">
-        <v>-31.39999999999964</v>
+        <v>-0.69999999999998863</v>
       </c>
       <c r="E56">
-        <v>-2.6302915770356479E-3</v>
+        <v>-1.6416510318949531E-3</v>
       </c>
       <c r="F56">
-        <v>0.34558699713285068</v>
+        <v>-0.25400858669937793</v>
       </c>
       <c r="G56">
-        <v>-2.6302915770356479E-3</v>
+        <v>-3.9042788094489911E-4</v>
       </c>
       <c r="H56">
-        <v>0.34558699713285068</v>
+        <v>-0.20518990448765509</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2272,25 +2272,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C57">
-        <v>3557.54</v>
+        <v>3623.83</v>
       </c>
       <c r="D57">
-        <v>-27.610000000000131</v>
+        <v>-3.8299999999999268</v>
       </c>
       <c r="E57">
-        <v>-7.7012119437123161E-3</v>
+        <v>-1.055777002254898E-3</v>
       </c>
       <c r="F57">
-        <v>9.5882055768448771E-2</v>
+        <v>-8.299023986598475E-2</v>
       </c>
       <c r="G57">
-        <v>-7.7012119437123161E-3</v>
+        <v>-1.055777002254898E-3</v>
       </c>
       <c r="H57">
-        <v>9.5882055768448771E-2</v>
+        <v>-8.3761490686856455E-2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2298,25 +2298,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C58">
-        <v>10898.67</v>
+        <v>13690.88</v>
       </c>
       <c r="D58">
-        <v>-118.6100000000006</v>
+        <v>-161.5400000000009</v>
       </c>
       <c r="E58">
-        <v>-1.076581515582797E-2</v>
+        <v>-1.166150030103053E-2</v>
       </c>
       <c r="F58">
-        <v>-0.17513430300938651</v>
+        <v>0.27972840468599108</v>
       </c>
       <c r="G58">
-        <v>-8.2121678874380599E-3</v>
+        <v>-1.0473965953110341E-2</v>
       </c>
       <c r="H58">
-        <v>-0.1519283007782912</v>
+        <v>0.35564195961028089</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2327,22 +2327,22 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>12441.81</v>
+        <v>1328.73</v>
       </c>
       <c r="D59">
-        <v>-258.36000000000058</v>
+        <v>4.7799999999999727</v>
       </c>
       <c r="E59">
-        <v>-2.0343034778274701E-2</v>
+        <v>3.610408248045704E-3</v>
       </c>
       <c r="F59">
-        <v>7.0049676107649894E-2</v>
+        <v>0.19261666053333079</v>
       </c>
       <c r="G59">
-        <v>-1.0660750927990129E-2</v>
+        <v>-3.8633373614786581E-2</v>
       </c>
       <c r="H59">
-        <v>0.1104530392389407</v>
+        <v>-9.5721175098642974E-2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2353,22 +2353,22 @@
         <v>116</v>
       </c>
       <c r="C60">
-        <v>40187.18</v>
+        <v>6791.46</v>
       </c>
       <c r="D60">
-        <v>-382.16999999999831</v>
+        <v>-378.32999999999993</v>
       </c>
       <c r="E60">
-        <v>-9.4201657162364949E-3</v>
+        <v>-5.2767235860464501E-2</v>
       </c>
       <c r="F60">
-        <v>-2.68561980461175E-2</v>
+        <v>-0.1290621669763666</v>
       </c>
       <c r="G60">
-        <v>-2.1802423665975731E-2</v>
+        <v>-4.7273347801699228E-2</v>
       </c>
       <c r="H60">
-        <v>-6.0612161274063658E-2</v>
+        <v>-7.3098088869524847E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2378,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W233"/>
+  <dimension ref="A1:W238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W233"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18863,10 +18863,10 @@
         <v>44155</v>
       </c>
       <c r="B233">
-        <v>1869.75</v>
+        <v>1872.4</v>
       </c>
       <c r="C233">
-        <v>24.227</v>
+        <v>24.363</v>
       </c>
       <c r="D233">
         <v>952.4</v>
@@ -18875,16 +18875,16 @@
         <v>2326.3000000000002</v>
       </c>
       <c r="F233">
-        <v>42.44</v>
+        <v>42.15</v>
       </c>
       <c r="G233">
-        <v>45.11</v>
+        <v>44.96</v>
       </c>
       <c r="H233">
-        <v>2.661</v>
+        <v>2.65</v>
       </c>
       <c r="I233">
-        <v>1.2849999999999999</v>
+        <v>1.2863</v>
       </c>
       <c r="J233">
         <v>1987.25</v>
@@ -18902,7 +18902,7 @@
         <v>3.2909999999999999</v>
       </c>
       <c r="O233">
-        <v>422.88</v>
+        <v>423.25</v>
       </c>
       <c r="P233">
         <v>1181.6199999999999</v>
@@ -18911,22 +18911,377 @@
         <v>71.19</v>
       </c>
       <c r="R233">
-        <v>2740.5</v>
+        <v>2962</v>
       </c>
       <c r="S233">
-        <v>117.83</v>
+        <v>115.5</v>
       </c>
       <c r="T233">
-        <v>15.25</v>
+        <v>15.21</v>
       </c>
       <c r="U233">
-        <v>108.01300000000001</v>
+        <v>108.1</v>
       </c>
       <c r="V233">
-        <v>64.17</v>
+        <v>64.13</v>
       </c>
       <c r="W233">
-        <v>630.5</v>
+        <v>630.1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>44158</v>
+      </c>
+      <c r="B234">
+        <v>1837.8</v>
+      </c>
+      <c r="C234">
+        <v>23.632999999999999</v>
+      </c>
+      <c r="D234">
+        <v>932.9</v>
+      </c>
+      <c r="E234">
+        <v>2350</v>
+      </c>
+      <c r="F234">
+        <v>43.06</v>
+      </c>
+      <c r="G234">
+        <v>46.06</v>
+      </c>
+      <c r="H234">
+        <v>2.7109999999999999</v>
+      </c>
+      <c r="I234">
+        <v>1.3105</v>
+      </c>
+      <c r="J234">
+        <v>1966.5</v>
+      </c>
+      <c r="K234">
+        <v>215.9</v>
+      </c>
+      <c r="L234">
+        <v>155.9</v>
+      </c>
+      <c r="M234">
+        <v>1193.2</v>
+      </c>
+      <c r="N234">
+        <v>3.258</v>
+      </c>
+      <c r="O234">
+        <v>426.5</v>
+      </c>
+      <c r="P234">
+        <v>1192</v>
+      </c>
+      <c r="Q234">
+        <v>73.72</v>
+      </c>
+      <c r="R234">
+        <v>3022</v>
+      </c>
+      <c r="S234">
+        <v>114.45</v>
+      </c>
+      <c r="T234">
+        <v>15.15</v>
+      </c>
+      <c r="U234">
+        <v>110</v>
+      </c>
+      <c r="V234">
+        <v>64.95</v>
+      </c>
+      <c r="W234">
+        <v>618.4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>44159</v>
+      </c>
+      <c r="B235">
+        <v>1804.6</v>
+      </c>
+      <c r="C235">
+        <v>23.3</v>
+      </c>
+      <c r="D235">
+        <v>964.1</v>
+      </c>
+      <c r="E235">
+        <v>2347.5</v>
+      </c>
+      <c r="F235">
+        <v>44.91</v>
+      </c>
+      <c r="G235">
+        <v>47.86</v>
+      </c>
+      <c r="H235">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="I235">
+        <v>1.3594999999999999</v>
+      </c>
+      <c r="J235">
+        <v>1986.5</v>
+      </c>
+      <c r="K235">
+        <v>217.2</v>
+      </c>
+      <c r="L235">
+        <v>155.75</v>
+      </c>
+      <c r="M235">
+        <v>1206.3</v>
+      </c>
+      <c r="N235">
+        <v>3.2995000000000001</v>
+      </c>
+      <c r="O235">
+        <v>425.75</v>
+      </c>
+      <c r="P235">
+        <v>1194</v>
+      </c>
+      <c r="Q235">
+        <v>72.930000000000007</v>
+      </c>
+      <c r="R235">
+        <v>3054</v>
+      </c>
+      <c r="S235">
+        <v>113.15</v>
+      </c>
+      <c r="T235">
+        <v>15.04</v>
+      </c>
+      <c r="U235">
+        <v>111.175</v>
+      </c>
+      <c r="V235">
+        <v>65.3</v>
+      </c>
+      <c r="W235">
+        <v>600.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>44160</v>
+      </c>
+      <c r="B236">
+        <v>1805.5</v>
+      </c>
+      <c r="C236">
+        <v>23.361999999999998</v>
+      </c>
+      <c r="D236">
+        <v>971.55</v>
+      </c>
+      <c r="E236">
+        <v>2337.6999999999998</v>
+      </c>
+      <c r="F236">
+        <v>45.71</v>
+      </c>
+      <c r="G236">
+        <v>48.61</v>
+      </c>
+      <c r="H236">
+        <v>2.8959999999999999</v>
+      </c>
+      <c r="I236">
+        <v>1.3866000000000001</v>
+      </c>
+      <c r="J236">
+        <v>1961.5</v>
+      </c>
+      <c r="K236">
+        <v>217.75</v>
+      </c>
+      <c r="L236">
+        <v>158.6</v>
+      </c>
+      <c r="M236">
+        <v>1202.2</v>
+      </c>
+      <c r="N236">
+        <v>3.3094999999999999</v>
+      </c>
+      <c r="O236">
+        <v>420</v>
+      </c>
+      <c r="P236">
+        <v>1184.25</v>
+      </c>
+      <c r="Q236">
+        <v>72.459999999999994</v>
+      </c>
+      <c r="R236">
+        <v>2993</v>
+      </c>
+      <c r="S236">
+        <v>114.5</v>
+      </c>
+      <c r="T236">
+        <v>14.77</v>
+      </c>
+      <c r="U236">
+        <v>111.375</v>
+      </c>
+      <c r="V236">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="W236">
+        <v>617.1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>44161</v>
+      </c>
+      <c r="B237">
+        <v>1807</v>
+      </c>
+      <c r="C237">
+        <v>23.215</v>
+      </c>
+      <c r="D237">
+        <v>965.05</v>
+      </c>
+      <c r="E237">
+        <v>2385</v>
+      </c>
+      <c r="F237">
+        <v>44.98</v>
+      </c>
+      <c r="G237">
+        <v>47.8</v>
+      </c>
+      <c r="H237">
+        <v>2.93</v>
+      </c>
+      <c r="I237">
+        <v>1.3689</v>
+      </c>
+      <c r="J237">
+        <v>1975.75</v>
+      </c>
+      <c r="K237">
+        <v>218.9</v>
+      </c>
+      <c r="L237">
+        <v>158.15</v>
+      </c>
+      <c r="M237">
+        <v>1203.7</v>
+      </c>
+      <c r="N237">
+        <v>3.3477999999999999</v>
+      </c>
+      <c r="O237">
+        <v>420</v>
+      </c>
+      <c r="P237">
+        <v>1184.25</v>
+      </c>
+      <c r="Q237">
+        <v>72.459999999999994</v>
+      </c>
+      <c r="R237">
+        <v>2993</v>
+      </c>
+      <c r="S237">
+        <v>114.5</v>
+      </c>
+      <c r="T237">
+        <v>14.77</v>
+      </c>
+      <c r="U237">
+        <v>111.375</v>
+      </c>
+      <c r="V237">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="W237">
+        <v>617.1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>44162</v>
+      </c>
+      <c r="B238">
+        <v>1783.1</v>
+      </c>
+      <c r="C238">
+        <v>22.68</v>
+      </c>
+      <c r="D238">
+        <v>970.95</v>
+      </c>
+      <c r="E238">
+        <v>2420.6999999999998</v>
+      </c>
+      <c r="F238">
+        <v>45.53</v>
+      </c>
+      <c r="G238">
+        <v>48.28</v>
+      </c>
+      <c r="H238">
+        <v>2.8490000000000002</v>
+      </c>
+      <c r="I238">
+        <v>1.3794999999999999</v>
+      </c>
+      <c r="J238">
+        <v>1998.25</v>
+      </c>
+      <c r="K238">
+        <v>218.95</v>
+      </c>
+      <c r="L238">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="M238">
+        <v>1229.2</v>
+      </c>
+      <c r="N238">
+        <v>3.4022000000000001</v>
+      </c>
+      <c r="O238">
+        <v>426.25</v>
+      </c>
+      <c r="P238">
+        <v>1193.6199999999999</v>
+      </c>
+      <c r="Q238">
+        <v>73.349999999999994</v>
+      </c>
+      <c r="R238">
+        <v>2758.5</v>
+      </c>
+      <c r="S238">
+        <v>124.48</v>
+      </c>
+      <c r="T238">
+        <v>14.82</v>
+      </c>
+      <c r="U238">
+        <v>110.575</v>
+      </c>
+      <c r="V238">
+        <v>65.95</v>
+      </c>
+      <c r="W238">
+        <v>628.20000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Equities" sheetId="1" r:id="rId1"/>
@@ -41,142 +41,73 @@
     <t>Indices</t>
   </si>
   <si>
-    <t>Cyprus Main Market</t>
-  </si>
-  <si>
-    <t>IDX Composite</t>
+    <t>COLCAP</t>
   </si>
   <si>
     <t>Athens General Composite</t>
   </si>
   <si>
-    <t>PSI 20</t>
+    <t>WIG20</t>
+  </si>
+  <si>
+    <t>Bovespa</t>
+  </si>
+  <si>
+    <t>ISEQ Overall</t>
+  </si>
+  <si>
+    <t>S&amp;P/BMV IPC</t>
+  </si>
+  <si>
+    <t>PSEi Composite</t>
+  </si>
+  <si>
+    <t>KOSPI</t>
+  </si>
+  <si>
+    <t>KOSDAQ</t>
+  </si>
+  <si>
+    <t>RTSI</t>
+  </si>
+  <si>
+    <t>ATX</t>
+  </si>
+  <si>
+    <t>S&amp;P CLX IPSA</t>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>IBEX 35</t>
   </si>
   <si>
     <t>S&amp;P Lima General</t>
   </si>
   <si>
-    <t>ATX</t>
+    <t>BSE SOFIX</t>
   </si>
   <si>
-    <t>BEL 20</t>
+    <t>FTSE/JSE Top 40</t>
   </si>
   <si>
-    <t>Nikkei 225</t>
+    <t>PSI 20</t>
   </si>
   <si>
-    <t>PX</t>
+    <t>Cyprus Main Market</t>
   </si>
   <si>
-    <t>KOSPI</t>
-  </si>
-  <si>
-    <t>SmallCap 2000</t>
-  </si>
-  <si>
-    <t>SET</t>
+    <t>SZSE Component</t>
   </si>
   <si>
     <t>MOEX</t>
   </si>
   <si>
-    <t>Bovespa</t>
-  </si>
-  <si>
-    <t>FTSE/JSE Top 40</t>
-  </si>
-  <si>
-    <t>FTSE MIB</t>
-  </si>
-  <si>
-    <t>OMX Helsinki 25</t>
-  </si>
-  <si>
-    <t>RTSI</t>
-  </si>
-  <si>
-    <t>IBEX 35</t>
-  </si>
-  <si>
-    <t>NZX 50</t>
-  </si>
-  <si>
-    <t>Nasdaq 100</t>
-  </si>
-  <si>
-    <t>Karachi 100</t>
-  </si>
-  <si>
     <t>Budapest SE</t>
   </si>
   <si>
-    <t>S&amp;P/TSX</t>
-  </si>
-  <si>
-    <t>COLCAP</t>
-  </si>
-  <si>
-    <t>KOSDAQ</t>
-  </si>
-  <si>
-    <t>FTSE Singapore</t>
-  </si>
-  <si>
-    <t>CAC 40</t>
-  </si>
-  <si>
-    <t>S&amp;P 500</t>
-  </si>
-  <si>
-    <t>S&amp;P/ASX 200</t>
-  </si>
-  <si>
-    <t>Euro Stoxx 50</t>
-  </si>
-  <si>
-    <t>China A50</t>
-  </si>
-  <si>
     <t>AEX</t>
-  </si>
-  <si>
-    <t>DAX</t>
-  </si>
-  <si>
-    <t>WIG20</t>
-  </si>
-  <si>
-    <t>ISEQ Overall</t>
-  </si>
-  <si>
-    <t>Hang Seng</t>
-  </si>
-  <si>
-    <t>KLCI</t>
-  </si>
-  <si>
-    <t>OMXS30</t>
-  </si>
-  <si>
-    <t>Tadawul All Share</t>
-  </si>
-  <si>
-    <t>Bahrain All Share</t>
-  </si>
-  <si>
-    <t>DJ Shanghai</t>
-  </si>
-  <si>
-    <t>FTSE 100</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>Taiwan Weighted</t>
-  </si>
-  <si>
-    <t>Tunindex</t>
   </si>
   <si>
     <t>Nifty 50</t>
@@ -185,187 +116,256 @@
     <t>BSE Sensex</t>
   </si>
   <si>
-    <t>S&amp;P CLX IPSA</t>
+    <t>Taiwan Weighted</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50</t>
+  </si>
+  <si>
+    <t>Nasdaq 100</t>
+  </si>
+  <si>
+    <t>BEL 20</t>
+  </si>
+  <si>
+    <t>CAC 40</t>
+  </si>
+  <si>
+    <t>HNX 30</t>
+  </si>
+  <si>
+    <t>SmallCap 2000</t>
+  </si>
+  <si>
+    <t>Karachi 100</t>
+  </si>
+  <si>
+    <t>Bahrain All Share</t>
+  </si>
+  <si>
+    <t>S&amp;P/TSX</t>
+  </si>
+  <si>
+    <t>DJ Shanghai</t>
+  </si>
+  <si>
+    <t>China A50</t>
+  </si>
+  <si>
+    <t>Tunindex</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>S&amp;P/ASX 200</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>BIST 100</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>FTSE MIB</t>
+  </si>
+  <si>
+    <t>KLCI</t>
+  </si>
+  <si>
+    <t>NZX 50</t>
+  </si>
+  <si>
+    <t>Nikkei 225</t>
+  </si>
+  <si>
+    <t>MSM 30</t>
   </si>
   <si>
     <t>SMI</t>
   </si>
   <si>
+    <t>OMX Helsinki 25</t>
+  </si>
+  <si>
     <t>EGX 30</t>
   </si>
   <si>
-    <t>HNX 30</t>
+    <t>OMXS30</t>
   </si>
   <si>
-    <t>S&amp;P/BMV IPC</t>
+    <t>Hang Seng</t>
+  </si>
+  <si>
+    <t>Tadawul All Share</t>
   </si>
   <si>
     <t>OMXC25</t>
   </si>
   <si>
-    <t>BSE SOFIX</t>
+    <t>FTSE Singapore</t>
   </si>
   <si>
-    <t>MSM 30</t>
+    <t>IDX Composite</t>
   </si>
   <si>
-    <t>SZSE Component</t>
+    <t>Colombia</t>
   </si>
   <si>
-    <t>BIST 100</t>
+    <t>Greece</t>
   </si>
   <si>
-    <t>PSEi Composite</t>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Portugal</t>
   </si>
   <si>
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Indonesia</t>
+    <t>China</t>
   </si>
   <si>
-    <t>Greece</t>
+    <t>Hungary</t>
   </si>
   <si>
-    <t>Portugal</t>
+    <t>Netherlands</t>
   </si>
   <si>
-    <t>Peru</t>
+    <t>India</t>
   </si>
   <si>
-    <t>Austria</t>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
   <si>
     <t>Belgium</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Australia</t>
   </si>
   <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>United States</t>
+    <t>Turkey</t>
   </si>
   <si>
     <t>Thailand</t>
   </si>
   <si>
-    <t>Russia</t>
+    <t>Italy</t>
   </si>
   <si>
-    <t>Brazil</t>
+    <t>Malaysia</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>New Zealand</t>
   </si>
   <si>
-    <t>Italy</t>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
   </si>
   <si>
     <t>Finland</t>
   </si>
   <si>
-    <t>Spain</t>
+    <t>Egypt</t>
   </si>
   <si>
-    <t>New Zealand</t>
+    <t>Sweden</t>
   </si>
   <si>
-    <t>Pakistan</t>
+    <t>Hong Kong</t>
   </si>
   <si>
-    <t>Hungary</t>
+    <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Colombia</t>
+    <t>Denmark</t>
   </si>
   <si>
     <t>Singapore</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Philippines</t>
+    <t>Indonesia</t>
   </si>
   <si>
     <t>Date</t>
@@ -807,7 +807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -845,22 +847,22 @@
         <v>67</v>
       </c>
       <c r="C2">
-        <v>33.42</v>
+        <v>1341.23</v>
       </c>
       <c r="D2">
-        <v>2.880000000000003</v>
+        <v>79.490000000000009</v>
       </c>
       <c r="E2">
-        <v>9.4302554027505092E-2</v>
+        <v>6.300030117139821E-2</v>
       </c>
       <c r="F2">
-        <v>-0.2629025143361271</v>
+        <v>-0.1999773335957864</v>
       </c>
       <c r="G2">
-        <v>9.8869145657523916E-2</v>
+        <v>0.1087490612747657</v>
       </c>
       <c r="H2">
-        <v>-0.21310850974503229</v>
+        <v>-0.24840443841960841</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -871,22 +873,22 @@
         <v>68</v>
       </c>
       <c r="C3">
-        <v>5783.33</v>
+        <v>784.95</v>
       </c>
       <c r="D3">
-        <v>211.6700000000001</v>
+        <v>48.350000000000023</v>
       </c>
       <c r="E3">
-        <v>3.7990473216240828E-2</v>
+        <v>6.5639424382297085E-2</v>
       </c>
       <c r="F3">
-        <v>-7.5761498385911064E-2</v>
+        <v>-0.14687693595191781</v>
       </c>
       <c r="G3">
-        <v>5.9814374000281667E-2</v>
+        <v>8.617714465607218E-2</v>
       </c>
       <c r="H3">
-        <v>-7.3327530162577426E-2</v>
+        <v>-7.1692235457175846E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -897,22 +899,22 @@
         <v>69</v>
       </c>
       <c r="C4">
-        <v>736.6</v>
+        <v>1947.68</v>
       </c>
       <c r="D4">
-        <v>37.149999999999977</v>
+        <v>94.990000000000009</v>
       </c>
       <c r="E4">
-        <v>5.3113160340267251E-2</v>
+        <v>5.1271394566819062E-2</v>
       </c>
       <c r="F4">
-        <v>-0.19942614309469731</v>
+        <v>-0.1040906728243719</v>
       </c>
       <c r="G4">
-        <v>5.750786610584635E-2</v>
+        <v>7.3856470474421121E-2</v>
       </c>
       <c r="H4">
-        <v>-0.14534404529680631</v>
+        <v>-7.4157671383092483E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -923,22 +925,22 @@
         <v>70</v>
       </c>
       <c r="C5">
-        <v>4651.82</v>
+        <v>113750.22</v>
       </c>
       <c r="D5">
-        <v>227.6700000000001</v>
+        <v>3174.75</v>
       </c>
       <c r="E5">
-        <v>5.14607325700982E-2</v>
+        <v>2.871115989830297E-2</v>
       </c>
       <c r="F5">
-        <v>-0.1115529326381329</v>
+        <v>-2.6760400938004358E-2</v>
       </c>
       <c r="G5">
-        <v>5.5848542653311517E-2</v>
+        <v>6.5517901844397652E-2</v>
       </c>
       <c r="H5">
-        <v>-5.1534633550710307E-2</v>
+        <v>-0.2334627601300111</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -949,22 +951,22 @@
         <v>71</v>
       </c>
       <c r="C6">
-        <v>19601.09</v>
+        <v>7513.11</v>
       </c>
       <c r="D6">
-        <v>790.70000000000073</v>
+        <v>288.40999999999991</v>
       </c>
       <c r="E6">
-        <v>4.2035279438650708E-2</v>
+        <v>3.9919996678062793E-2</v>
       </c>
       <c r="F6">
-        <v>-4.7028474275332188E-2</v>
+        <v>4.194773279486963E-2</v>
       </c>
       <c r="G6">
-        <v>5.316200340153121E-2</v>
+        <v>5.9962034829249999E-2</v>
       </c>
       <c r="H6">
-        <v>-0.10716926289682829</v>
+        <v>0.133773322235202</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -975,22 +977,22 @@
         <v>72</v>
       </c>
       <c r="C7">
-        <v>2598.96</v>
+        <v>43646.03</v>
       </c>
       <c r="D7">
-        <v>96.289999999999964</v>
+        <v>1971.7299999999959</v>
       </c>
       <c r="E7">
-        <v>3.8474908797404339E-2</v>
+        <v>4.7312852285461122E-2</v>
       </c>
       <c r="F7">
-        <v>-0.18851982989565169</v>
+        <v>-1.9086735003472351E-2</v>
       </c>
       <c r="G7">
-        <v>4.2808528242086252E-2</v>
+        <v>5.41496299701405E-2</v>
       </c>
       <c r="H7">
-        <v>-0.1337009652249013</v>
+        <v>-6.6133070728954912E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1001,22 +1003,22 @@
         <v>73</v>
       </c>
       <c r="C8">
-        <v>3719.36</v>
+        <v>7134.56</v>
       </c>
       <c r="D8">
-        <v>133.7000000000003</v>
+        <v>343.10000000000042</v>
       </c>
       <c r="E8">
-        <v>3.728741710033856E-2</v>
+        <v>5.0519328686320808E-2</v>
       </c>
       <c r="F8">
-        <v>-6.355336901842501E-2</v>
+        <v>-8.5062972324493669E-2</v>
       </c>
       <c r="G8">
-        <v>4.1616081069384858E-2</v>
+        <v>5.2337450533510348E-2</v>
       </c>
       <c r="H8">
-        <v>-2.9249952785193051E-4</v>
+        <v>-2.4586405946317221E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1027,22 +1029,22 @@
         <v>74</v>
       </c>
       <c r="C9">
-        <v>26644.71</v>
+        <v>2731.45</v>
       </c>
       <c r="D9">
-        <v>1117.3399999999999</v>
+        <v>98</v>
       </c>
       <c r="E9">
-        <v>4.3770274807001242E-2</v>
+        <v>3.7213541172226527E-2</v>
       </c>
       <c r="F9">
-        <v>0.14823834317466261</v>
+        <v>0.26745302936795529</v>
       </c>
       <c r="G9">
-        <v>3.9594928471849311E-2</v>
+        <v>5.0747662941674758E-2</v>
       </c>
       <c r="H9">
-        <v>0.1892367242920141</v>
+        <v>0.35401179705422647</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1050,25 +1052,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10">
-        <v>968.32</v>
+        <v>913.76</v>
       </c>
       <c r="D10">
-        <v>26.170000000000069</v>
+        <v>28.200000000000049</v>
       </c>
       <c r="E10">
-        <v>2.7776893276017619E-2</v>
+        <v>3.1844256741496928E-2</v>
       </c>
       <c r="F10">
-        <v>-0.1342149262805897</v>
+        <v>0.39439349315591099</v>
       </c>
       <c r="G10">
-        <v>3.9470517427005802E-2</v>
+        <v>4.5308317191442793E-2</v>
       </c>
       <c r="H10">
-        <v>-0.1035933563275075</v>
+        <v>0.48962146582288918</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1076,25 +1078,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11">
-        <v>2633.45</v>
+        <v>1357.39</v>
       </c>
       <c r="D11">
-        <v>79.949999999999818</v>
+        <v>54.960000000000043</v>
       </c>
       <c r="E11">
-        <v>3.130996671235553E-2</v>
+        <v>4.2198045192447957E-2</v>
       </c>
       <c r="F11">
-        <v>0.2219788684358279</v>
+        <v>-0.13451079159626339</v>
       </c>
       <c r="G11">
-        <v>3.9313666386081143E-2</v>
+        <v>4.2198045192447957E-2</v>
       </c>
       <c r="H11">
-        <v>0.28861747192806808</v>
+        <v>-0.13451079159626339</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1102,25 +1104,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12">
-        <v>1855.27</v>
+        <v>2656.62</v>
       </c>
       <c r="D12">
-        <v>69.930000000000064</v>
+        <v>57.659999999999847</v>
       </c>
       <c r="E12">
-        <v>3.9169009824459262E-2</v>
+        <v>2.2185797395881449E-2</v>
       </c>
       <c r="F12">
-        <v>0.1154419633731347</v>
+        <v>-0.1705164952509414</v>
       </c>
       <c r="G12">
-        <v>3.9169009824459262E-2</v>
+        <v>4.1886050121526568E-2</v>
       </c>
       <c r="H12">
-        <v>0.1154419633731347</v>
+        <v>-9.7415120434081515E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1128,25 +1130,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13">
-        <v>1437.78</v>
+        <v>4191.18</v>
       </c>
       <c r="D13">
-        <v>48.440000000000047</v>
+        <v>74.150000000000546</v>
       </c>
       <c r="E13">
-        <v>3.4865475693494741E-2</v>
+        <v>1.8010556153343679E-2</v>
       </c>
       <c r="F13">
-        <v>-8.3340771437679373E-2</v>
+        <v>-0.1419235564727632</v>
       </c>
       <c r="G13">
-        <v>3.7770037190167471E-2</v>
+        <v>3.9318096393319513E-2</v>
       </c>
       <c r="H13">
-        <v>-8.7608514028467033E-2</v>
+        <v>-0.12625139491305981</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1154,25 +1156,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14">
-        <v>3142.68</v>
+        <v>6550.23</v>
       </c>
       <c r="D14">
-        <v>91.639999999999873</v>
+        <v>182.64999999999961</v>
       </c>
       <c r="E14">
-        <v>3.0035659971681779E-2</v>
+        <v>2.8684366745294069E-2</v>
       </c>
       <c r="F14">
-        <v>2.0725136170088421E-2</v>
+        <v>-0.13532197894747969</v>
       </c>
       <c r="G14">
-        <v>3.7051866228412722E-2</v>
+        <v>3.6421409547128032E-2</v>
       </c>
       <c r="H14">
-        <v>-0.16304486335943019</v>
+        <v>-0.1105410597742866</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1180,25 +1182,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15">
-        <v>110575.47</v>
+        <v>8322.9</v>
       </c>
       <c r="D15">
-        <v>4532.9900000000052</v>
+        <v>132.19999999999979</v>
       </c>
       <c r="E15">
-        <v>4.2746925571714327E-2</v>
+        <v>1.6140256632522169E-2</v>
       </c>
       <c r="F15">
-        <v>-5.392335866346698E-2</v>
+        <v>-0.13311252070118429</v>
       </c>
       <c r="G15">
-        <v>3.6727312503863629E-2</v>
+        <v>3.5723995627292997E-2</v>
       </c>
       <c r="H15">
-        <v>-0.28059656384644233</v>
+        <v>-5.6714778991496018E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1206,25 +1208,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16">
-        <v>53021.58</v>
+        <v>20590.580000000002</v>
       </c>
       <c r="D16">
-        <v>1106.18</v>
+        <v>989.4900000000016</v>
       </c>
       <c r="E16">
-        <v>2.1307357739707381E-2</v>
+        <v>5.0481376290808289E-2</v>
       </c>
       <c r="F16">
-        <v>3.9646773769446593E-2</v>
+        <v>1.0788399092005461E-3</v>
       </c>
       <c r="G16">
-        <v>3.6114292305583502E-2</v>
+        <v>3.5040221100204549E-2</v>
       </c>
       <c r="H16">
-        <v>-2.1245915907853189E-2</v>
+        <v>-7.588427646367446E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1232,25 +1234,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17">
-        <v>22352.46</v>
+        <v>429.25</v>
       </c>
       <c r="D17">
-        <v>645.5</v>
+        <v>3.5500000000000109</v>
       </c>
       <c r="E17">
-        <v>2.9737006010975179E-2</v>
+        <v>8.3392060136247004E-3</v>
       </c>
       <c r="F17">
-        <v>-5.2110380729807448E-2</v>
+        <v>-0.247787610619469</v>
       </c>
       <c r="G17">
-        <v>3.4034161651765198E-2</v>
+        <v>3.207045980403822E-2</v>
       </c>
       <c r="H17">
-        <v>1.1923510270757781E-2</v>
+        <v>-0.17969997926768269</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1258,25 +1260,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18">
-        <v>4624.1099999999997</v>
+        <v>54500.04</v>
       </c>
       <c r="D18">
-        <v>132.65999999999991</v>
+        <v>1478.4599999999989</v>
       </c>
       <c r="E18">
-        <v>2.9536118625388189E-2</v>
+        <v>2.7884118126996649E-2</v>
       </c>
       <c r="F18">
-        <v>8.4079831765315305E-2</v>
+        <v>6.8636407219584639E-2</v>
       </c>
       <c r="G18">
-        <v>3.3832435950805539E-2</v>
+        <v>3.0703176736235571E-2</v>
       </c>
       <c r="H18">
-        <v>0.15731393874563859</v>
+        <v>8.8049437173403078E-3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1284,25 +1286,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C19">
-        <v>1302.43</v>
+        <v>4702.82</v>
       </c>
       <c r="D19">
-        <v>39.740000000000009</v>
+        <v>51</v>
       </c>
       <c r="E19">
-        <v>3.1472491268640823E-2</v>
+        <v>1.096345086439277E-2</v>
       </c>
       <c r="F19">
-        <v>-0.1695539898619568</v>
+        <v>-0.10181248686949711</v>
       </c>
       <c r="G19">
-        <v>3.1472491268640823E-2</v>
+        <v>3.044741897386705E-2</v>
       </c>
       <c r="H19">
-        <v>-0.1695539898619568</v>
+        <v>-2.265631115622635E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1313,22 +1315,22 @@
         <v>84</v>
       </c>
       <c r="C20">
-        <v>8190.7</v>
+        <v>33.78</v>
       </c>
       <c r="D20">
-        <v>212.80000000000021</v>
+        <v>0.35999999999999938</v>
       </c>
       <c r="E20">
-        <v>2.6673686057734569E-2</v>
+        <v>1.0771992818671359E-2</v>
       </c>
       <c r="F20">
-        <v>-0.14688206313991389</v>
+        <v>-0.2549625055138951</v>
       </c>
       <c r="G20">
-        <v>3.0958058276602699E-2</v>
+        <v>3.0252271019817201E-2</v>
       </c>
       <c r="H20">
-        <v>-8.925039393608214E-2</v>
+        <v>-0.1893032551186512</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1339,22 +1341,22 @@
         <v>85</v>
       </c>
       <c r="C21">
-        <v>12639.83</v>
+        <v>14026.66</v>
       </c>
       <c r="D21">
-        <v>198.02000000000041</v>
+        <v>335.78000000000071</v>
       </c>
       <c r="E21">
-        <v>1.5915690723455889E-2</v>
+        <v>2.4525815725504829E-2</v>
       </c>
       <c r="F21">
-        <v>8.708025581131329E-2</v>
+        <v>0.31111478771801432</v>
       </c>
       <c r="G21">
-        <v>3.015254094568065E-2</v>
+        <v>2.9710048659365551E-2</v>
       </c>
       <c r="H21">
-        <v>0.14393601997284811</v>
+        <v>0.39591814819498028</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1362,25 +1364,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22">
-        <v>12258.21</v>
+        <v>3184.72</v>
       </c>
       <c r="D22">
-        <v>351.76999999999862</v>
+        <v>42.039999999999957</v>
       </c>
       <c r="E22">
-        <v>2.9544515405108381E-2</v>
+        <v>1.3377117619356669E-2</v>
       </c>
       <c r="F22">
-        <v>0.38534171289855568</v>
+        <v>3.4379496373669438E-2</v>
       </c>
       <c r="G22">
-        <v>2.9544515405108381E-2</v>
+        <v>2.917190581001505E-2</v>
       </c>
       <c r="H22">
-        <v>0.38534171289855568</v>
+        <v>-0.1386292869461434</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1391,22 +1393,22 @@
         <v>86</v>
       </c>
       <c r="C23">
-        <v>40807.089999999997</v>
+        <v>39227.870000000003</v>
       </c>
       <c r="D23">
-        <v>619.90999999999622</v>
+        <v>-81.029999999998836</v>
       </c>
       <c r="E23">
-        <v>1.542556606360534E-2</v>
+        <v>-2.0613652378977938E-3</v>
       </c>
       <c r="F23">
-        <v>-1.184490403968985E-2</v>
+        <v>-0.1216086160923411</v>
       </c>
       <c r="G23">
-        <v>2.9262732374039979E-2</v>
+        <v>2.78381417734288E-2</v>
       </c>
       <c r="H23">
-        <v>-3.3123106353998837E-2</v>
+        <v>-0.1178031745352395</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1417,22 +1419,22 @@
         <v>87</v>
       </c>
       <c r="C24">
-        <v>39308.9</v>
+        <v>615.66999999999996</v>
       </c>
       <c r="D24">
-        <v>1104.230000000003</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>2.8903011071683249E-2</v>
+        <v>6.5394738993247437E-3</v>
       </c>
       <c r="F24">
-        <v>-0.1197941904343067</v>
+        <v>1.388248468480335E-2</v>
       </c>
       <c r="G24">
-        <v>2.7862701668814441E-2</v>
+        <v>2.593818014692784E-2</v>
       </c>
       <c r="H24">
-        <v>-0.14169674230747981</v>
+        <v>0.1032347178622612</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1443,22 +1445,22 @@
         <v>88</v>
       </c>
       <c r="C25">
-        <v>17396.560000000001</v>
+        <v>13258.55</v>
       </c>
       <c r="D25">
-        <v>377.46000000000282</v>
+        <v>289.59999999999849</v>
       </c>
       <c r="E25">
-        <v>2.2178611089893389E-2</v>
+        <v>2.2330258039394039E-2</v>
       </c>
       <c r="F25">
-        <v>1.701736345157423E-2</v>
+        <v>0.10551944667953531</v>
       </c>
       <c r="G25">
-        <v>2.7305118622571459E-2</v>
+        <v>2.4875497087656129E-2</v>
       </c>
       <c r="H25">
-        <v>1.437729491454909E-2</v>
+        <v>7.358191919367596E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1466,25 +1468,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26">
-        <v>1261.74</v>
+        <v>45079.55</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>929.83000000000175</v>
       </c>
       <c r="E26">
-        <v>1.7745656347298629E-2</v>
+        <v>2.106083571990958E-2</v>
       </c>
       <c r="F26">
-        <v>-0.24739187230463641</v>
+        <v>0.108242005298866</v>
       </c>
       <c r="G26">
-        <v>2.6822760420442071E-2</v>
+        <v>2.3602914357696791E-2</v>
       </c>
       <c r="H26">
-        <v>-0.32212293310421641</v>
+        <v>7.6225825383148704E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1492,25 +1494,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C27">
-        <v>885.56</v>
+        <v>14132.44</v>
       </c>
       <c r="D27">
-        <v>15.38</v>
+        <v>265.35000000000042</v>
       </c>
       <c r="E27">
-        <v>1.7674504125583249E-2</v>
+        <v>1.9135233131103879E-2</v>
       </c>
       <c r="F27">
-        <v>0.35136042483710012</v>
+        <v>0.18229853363405771</v>
       </c>
       <c r="G27">
-        <v>2.5572382900665991E-2</v>
+        <v>2.349348478286295E-2</v>
       </c>
       <c r="H27">
-        <v>0.42505463825757861</v>
+        <v>0.25087919364963818</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1521,22 +1523,22 @@
         <v>90</v>
       </c>
       <c r="C28">
-        <v>298.29000000000002</v>
+        <v>3539.27</v>
       </c>
       <c r="D28">
-        <v>5.7600000000000477</v>
+        <v>11.48000000000002</v>
       </c>
       <c r="E28">
-        <v>1.9690288175571839E-2</v>
+        <v>3.2541619540846778E-3</v>
       </c>
       <c r="F28">
-        <v>-0.1119942841832634</v>
+        <v>-5.6828477929498078E-2</v>
       </c>
       <c r="G28">
-        <v>2.4626444243148079E-2</v>
+        <v>2.2589551458519711E-2</v>
       </c>
       <c r="H28">
-        <v>-0.1045910174551002</v>
+        <v>2.6292083910152138E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1547,22 +1549,22 @@
         <v>91</v>
       </c>
       <c r="C29">
-        <v>5598.18</v>
+        <v>12528.48</v>
       </c>
       <c r="D29">
-        <v>102.29</v>
+        <v>270.27000000000038</v>
       </c>
       <c r="E29">
-        <v>1.8612090125530219E-2</v>
+        <v>2.2048080429361239E-2</v>
       </c>
       <c r="F29">
-        <v>-6.9078537113438032E-2</v>
+        <v>0.41588583840669208</v>
       </c>
       <c r="G29">
-        <v>2.2862820810461319E-2</v>
+        <v>2.2048080429361239E-2</v>
       </c>
       <c r="H29">
-        <v>-6.1909157356866418E-3</v>
+        <v>0.41588583840669208</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1570,25 +1572,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C30">
-        <v>3638.35</v>
+        <v>3726.86</v>
       </c>
       <c r="D30">
-        <v>80.809999999999945</v>
+        <v>7.5</v>
       </c>
       <c r="E30">
-        <v>2.271513461549279E-2</v>
+        <v>2.0164759528520371E-3</v>
       </c>
       <c r="F30">
-        <v>0.12077516418793199</v>
+        <v>-6.1665046905921339E-2</v>
       </c>
       <c r="G30">
-        <v>2.271513461549279E-2</v>
+        <v>2.1328011939578669E-2</v>
       </c>
       <c r="H30">
-        <v>0.12077516418793199</v>
+        <v>2.1029273978304449E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1596,25 +1598,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31">
-        <v>6601.1</v>
+        <v>5609.15</v>
       </c>
       <c r="D31">
-        <v>61.900000000000553</v>
+        <v>10.96999999999935</v>
       </c>
       <c r="E31">
-        <v>9.4659897235136459E-3</v>
+        <v>1.9595654301933769E-3</v>
       </c>
       <c r="F31">
-        <v>-1.9983075255726849E-2</v>
+        <v>-6.7254335596540593E-2</v>
       </c>
       <c r="G31">
-        <v>2.181069371539723E-2</v>
+        <v>2.127000459902062E-2</v>
       </c>
       <c r="H31">
-        <v>3.8411109769750817E-2</v>
+        <v>1.494740805716366E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1622,25 +1624,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32">
-        <v>3527.79</v>
+        <v>273.42</v>
       </c>
       <c r="D32">
-        <v>60.190000000000047</v>
+        <v>5.2100000000000364</v>
       </c>
       <c r="E32">
-        <v>1.7357826738954921E-2</v>
+        <v>1.9425077364751742E-2</v>
       </c>
       <c r="F32">
-        <v>-5.9887755428352119E-2</v>
+        <v>0.53805478989705802</v>
       </c>
       <c r="G32">
-        <v>2.160332330589743E-2</v>
+        <v>2.114433610715127E-2</v>
       </c>
       <c r="H32">
-        <v>3.6207415246438672E-3</v>
+        <v>0.5411143004845016</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1648,25 +1650,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C33">
-        <v>16847.09</v>
+        <v>1892.45</v>
       </c>
       <c r="D33">
-        <v>334.27000000000038</v>
+        <v>37.180000000000057</v>
       </c>
       <c r="E33">
-        <v>2.024305963487771E-2</v>
+        <v>2.0040209780786581E-2</v>
       </c>
       <c r="F33">
-        <v>0.17475165574458651</v>
+        <v>0.1377956543174248</v>
       </c>
       <c r="G33">
-        <v>2.1468928784883049E-2</v>
+        <v>2.0040209780786581E-2</v>
       </c>
       <c r="H33">
-        <v>0.24443798451107909</v>
+        <v>0.1377956543174248</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1677,22 +1679,22 @@
         <v>95</v>
       </c>
       <c r="C34">
-        <v>611.66999999999996</v>
+        <v>42207</v>
       </c>
       <c r="D34">
-        <v>10.049999999999949</v>
+        <v>1399.910000000003</v>
       </c>
       <c r="E34">
-        <v>1.670489677869735E-2</v>
+        <v>3.4305558176287658E-2</v>
       </c>
       <c r="F34">
-        <v>7.2953033397009648E-3</v>
+        <v>2.205430809197173E-2</v>
       </c>
       <c r="G34">
-        <v>2.0947668628896299E-2</v>
+        <v>1.9763197263695579E-2</v>
       </c>
       <c r="H34">
-        <v>7.534229567737083E-2</v>
+        <v>-1.401452757516386E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1700,25 +1702,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C35">
-        <v>13335.68</v>
+        <v>1496.54</v>
       </c>
       <c r="D35">
-        <v>198.43000000000029</v>
+        <v>28.730000000000022</v>
       </c>
       <c r="E35">
-        <v>1.5104378770290691E-2</v>
+        <v>1.9573378025766312E-2</v>
       </c>
       <c r="F35">
-        <v>1.5897780069917159E-2</v>
+        <v>-5.5292179303466298E-2</v>
       </c>
       <c r="G35">
-        <v>1.9340471560741479E-2</v>
+        <v>1.942369861155813E-2</v>
       </c>
       <c r="H35">
-        <v>8.4525905533300305E-2</v>
+        <v>-5.5788958766258889E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1726,25 +1728,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36">
-        <v>1852.69</v>
+        <v>17520.97</v>
       </c>
       <c r="D36">
-        <v>31.840000000000149</v>
+        <v>124.4099999999999</v>
       </c>
       <c r="E36">
-        <v>1.748633879781436E-2</v>
+        <v>7.1514138427366536E-3</v>
       </c>
       <c r="F36">
-        <v>-0.14778492803488541</v>
+        <v>2.429047550286545E-2</v>
       </c>
       <c r="G36">
-        <v>1.876727357411689E-2</v>
+        <v>1.9348692913810469E-2</v>
       </c>
       <c r="H36">
-        <v>-0.13783419472447939</v>
+        <v>3.4004169692592789E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1752,25 +1754,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C37">
-        <v>7224.7</v>
+        <v>515.45000000000005</v>
       </c>
       <c r="D37">
-        <v>98.710000000000036</v>
+        <v>6.7800000000000296</v>
       </c>
       <c r="E37">
-        <v>1.385211037343592E-2</v>
+        <v>1.332887726816989E-2</v>
       </c>
       <c r="F37">
-        <v>1.949896264409112E-3</v>
+        <v>0.1631239281523604</v>
       </c>
       <c r="G37">
-        <v>1.8082977371112641E-2</v>
+        <v>1.845645224747439E-2</v>
       </c>
       <c r="H37">
-        <v>6.9635784094703501E-2</v>
+        <v>0.23835518836121361</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1778,25 +1780,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C38">
-        <v>26894.68</v>
+        <v>17063.55</v>
       </c>
       <c r="D38">
-        <v>443.13999999999942</v>
+        <v>216.4599999999991</v>
       </c>
       <c r="E38">
-        <v>1.6752899831163019E-2</v>
+        <v>1.284850974263207E-2</v>
       </c>
       <c r="F38">
-        <v>-4.717285613113209E-2</v>
+        <v>0.18984546383859399</v>
       </c>
       <c r="G38">
-        <v>1.7002145889693399E-2</v>
+        <v>1.7973654000223101E-2</v>
       </c>
       <c r="H38">
-        <v>-4.3386474851165542E-2</v>
+        <v>0.26680508226941629</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1804,25 +1806,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39">
-        <v>1607.59</v>
+        <v>6828.93</v>
       </c>
       <c r="D39">
-        <v>13.83999999999992</v>
+        <v>46.720000000000248</v>
       </c>
       <c r="E39">
-        <v>8.6839215686274063E-3</v>
+        <v>6.8886100548346541E-3</v>
       </c>
       <c r="F39">
-        <v>6.1523633086320029E-3</v>
+        <v>-1.968966809214345E-2</v>
       </c>
       <c r="G39">
-        <v>1.662438239076813E-2</v>
+        <v>1.7691386827232591E-2</v>
       </c>
       <c r="H39">
-        <v>1.4815358653255339E-2</v>
+        <v>1.0774996807966669E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1830,25 +1832,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C40">
-        <v>1937.09</v>
+        <v>3699.12</v>
       </c>
       <c r="D40">
-        <v>10.619999999999891</v>
+        <v>60.769999999999982</v>
       </c>
       <c r="E40">
-        <v>5.5126734389840948E-3</v>
+        <v>1.6702626190443489E-2</v>
       </c>
       <c r="F40">
-        <v>8.5064669538378768E-2</v>
+        <v>0.13949505279889579</v>
       </c>
       <c r="G40">
-        <v>1.385956850061976E-2</v>
+        <v>1.6702626190443489E-2</v>
       </c>
       <c r="H40">
-        <v>0.1976375106301205</v>
+        <v>0.13949505279889579</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1856,25 +1858,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C41">
-        <v>8693.4699999999993</v>
+        <v>13298.96</v>
       </c>
       <c r="D41">
-        <v>115.0499999999993</v>
+        <v>-36.720000000001157</v>
       </c>
       <c r="E41">
-        <v>1.3411560637040409E-2</v>
+        <v>-2.7535153812929809E-3</v>
       </c>
       <c r="F41">
-        <v>5.9387311680414452E-2</v>
+        <v>1.310048990667312E-2</v>
       </c>
       <c r="G41">
-        <v>1.341416290048802E-2</v>
+        <v>1.646609012173772E-2</v>
       </c>
       <c r="H41">
-        <v>6.0840886664285332E-2</v>
+        <v>0.1023838068331706</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1882,25 +1884,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C42">
-        <v>1467.81</v>
+        <v>6634.1</v>
       </c>
       <c r="D42">
-        <v>15.73000000000002</v>
+        <v>33</v>
       </c>
       <c r="E42">
-        <v>1.083273648834782E-2</v>
+        <v>4.9991668055324734E-3</v>
       </c>
       <c r="F42">
-        <v>-7.3428317120438402E-2</v>
+        <v>-1.5083807176685339E-2</v>
       </c>
       <c r="G42">
-        <v>1.085710872060996E-2</v>
+        <v>1.6063851349381819E-2</v>
       </c>
       <c r="H42">
-        <v>-7.3779584955946831E-2</v>
+        <v>5.5091991476638791E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1908,25 +1910,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C43">
-        <v>508.67</v>
+        <v>3444.58</v>
       </c>
       <c r="D43">
-        <v>4.75</v>
+        <v>36.269999999999982</v>
       </c>
       <c r="E43">
-        <v>9.4260993808541471E-3</v>
+        <v>1.0641637644463129E-2</v>
       </c>
       <c r="F43">
-        <v>0.14782471342178891</v>
+        <v>0.11713330371244821</v>
       </c>
       <c r="G43">
-        <v>1.063897145359749E-2</v>
+        <v>1.5755614844244151E-2</v>
       </c>
       <c r="H43">
-        <v>0.21591373458185509</v>
+        <v>0.18938987433693111</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1934,25 +1936,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C44">
-        <v>6367.58</v>
+        <v>972.54</v>
       </c>
       <c r="D44">
-        <v>16.130000000000109</v>
+        <v>4.2199999999999136</v>
       </c>
       <c r="E44">
-        <v>2.53957757677381E-3</v>
+        <v>4.3580634500990367E-3</v>
       </c>
       <c r="F44">
-        <v>-0.15943310795291041</v>
+        <v>-0.1304417799951719</v>
       </c>
       <c r="G44">
-        <v>1.050575658104091E-2</v>
+        <v>1.365372391601616E-2</v>
       </c>
       <c r="H44">
-        <v>-0.14179798677222519</v>
+        <v>-9.1354067498320868E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1960,25 +1962,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C45">
-        <v>3408.31</v>
+        <v>1330.87</v>
       </c>
       <c r="D45">
-        <v>30.579999999999931</v>
+        <v>2.1399999999998731</v>
       </c>
       <c r="E45">
-        <v>9.0534175318925936E-3</v>
+        <v>1.6105604599880861E-3</v>
       </c>
       <c r="F45">
-        <v>0.105370352953386</v>
+        <v>0.19453744177070889</v>
       </c>
       <c r="G45">
-        <v>1.02658418101842E-2</v>
+        <v>1.315700693362221E-2</v>
       </c>
       <c r="H45">
-        <v>0.17094097926233179</v>
+        <v>-8.3823572329488005E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1986,25 +1988,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C46">
-        <v>13867.09</v>
+        <v>1449.83</v>
       </c>
       <c r="D46">
-        <v>150.64999999999961</v>
+        <v>12.049999999999949</v>
       </c>
       <c r="E46">
-        <v>1.0983170560291191E-2</v>
+        <v>8.3809762272391009E-3</v>
       </c>
       <c r="F46">
-        <v>0.16009975437868509</v>
+        <v>-7.5658272234619073E-2</v>
       </c>
       <c r="G46">
-        <v>1.0178189397144211E-2</v>
+        <v>1.222467298026908E-2</v>
       </c>
       <c r="H46">
-        <v>0.2221662494656873</v>
+        <v>-7.645482648248314E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2012,25 +2014,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C47">
-        <v>6782.21</v>
+        <v>22178.799999999999</v>
       </c>
       <c r="D47">
-        <v>40.399999999999643</v>
+        <v>-173.65999999999991</v>
       </c>
       <c r="E47">
-        <v>5.9924560318371789E-3</v>
+        <v>-7.7691672415474136E-3</v>
       </c>
       <c r="F47">
-        <v>-2.6396443341960899E-2</v>
+        <v>-5.9474693708444382E-2</v>
       </c>
       <c r="G47">
-        <v>9.4904937232793696E-3</v>
+        <v>1.1353773242772871E-2</v>
       </c>
       <c r="H47">
-        <v>-6.7961565841965221E-3</v>
+        <v>2.3412660345402351E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2038,25 +2040,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C48">
-        <v>12968.95</v>
+        <v>1621.85</v>
       </c>
       <c r="D48">
-        <v>109.9000000000015</v>
+        <v>14.259999999999989</v>
       </c>
       <c r="E48">
-        <v>8.5465100454544807E-3</v>
+        <v>8.8704209406627044E-3</v>
       </c>
       <c r="F48">
-        <v>8.1372128024147505E-2</v>
+        <v>1.507735830162216E-2</v>
       </c>
       <c r="G48">
-        <v>9.238477532536038E-3</v>
+        <v>9.4913039514641362E-3</v>
       </c>
       <c r="H48">
-        <v>4.7524233181910347E-2</v>
+        <v>2.4447279676847788E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2064,25 +2066,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C49">
-        <v>44149.72</v>
+        <v>12631.38</v>
       </c>
       <c r="D49">
-        <v>267.47000000000122</v>
+        <v>-8.4500000000007276</v>
       </c>
       <c r="E49">
-        <v>6.0951751562419174E-3</v>
+        <v>-6.6852164942099446E-4</v>
       </c>
       <c r="F49">
-        <v>8.5382933640274716E-2</v>
+        <v>8.6353519125645484E-2</v>
       </c>
       <c r="G49">
-        <v>6.7854607733983663E-3</v>
+        <v>9.3194876287518991E-3</v>
       </c>
       <c r="H49">
-        <v>5.1409497068960919E-2</v>
+        <v>0.1545969175590689</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2090,25 +2092,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50">
-        <v>4117.03</v>
+        <v>26751.24</v>
       </c>
       <c r="D50">
-        <v>62.499999999999552</v>
+        <v>106.5300000000025</v>
       </c>
       <c r="E50">
-        <v>1.5414856962459259E-2</v>
+        <v>3.998166990746066E-3</v>
       </c>
       <c r="F50">
-        <v>-0.1571045719117434</v>
+        <v>0.15282919181585239</v>
       </c>
       <c r="G50">
-        <v>6.0006270938210982E-3</v>
+        <v>8.0499420697777158E-3</v>
       </c>
       <c r="H50">
-        <v>-0.15930588708206331</v>
+        <v>0.19881001102981699</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2116,25 +2118,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51">
-        <v>10501.18</v>
+        <v>3639.99</v>
       </c>
       <c r="D51">
-        <v>5.5300000000006548</v>
+        <v>16.159999999999851</v>
       </c>
       <c r="E51">
-        <v>5.2688494757369142E-4</v>
+        <v>4.4593703347011182E-3</v>
       </c>
       <c r="F51">
-        <v>-1.5398376621245659E-2</v>
+        <v>-7.8900953745011826E-2</v>
       </c>
       <c r="G51">
-        <v>5.5194648936667257E-3</v>
+        <v>4.4593703347011182E-3</v>
       </c>
       <c r="H51">
-        <v>5.5273211855041193E-2</v>
+        <v>-7.9675643858914791E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2142,25 +2144,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52">
-        <v>10980.96</v>
+        <v>10364.5</v>
       </c>
       <c r="D52">
-        <v>82.289999999999054</v>
+        <v>-136.68000000000029</v>
       </c>
       <c r="E52">
-        <v>7.5504625793789693E-3</v>
+        <v>-1.3015680142612561E-2</v>
       </c>
       <c r="F52">
-        <v>-0.16890618543124561</v>
+        <v>-2.8213636419040618E-2</v>
       </c>
       <c r="G52">
-        <v>5.2073298526460476E-3</v>
+        <v>4.3247429320283359E-3</v>
       </c>
       <c r="H52">
-        <v>-0.14751211170174969</v>
+        <v>5.983699721936997E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2168,25 +2170,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C53">
-        <v>268.20999999999998</v>
+        <v>4547.17</v>
       </c>
       <c r="D53">
-        <v>1.2299999999999609</v>
+        <v>-76.9399999999996</v>
       </c>
       <c r="E53">
-        <v>4.6070866731589E-3</v>
+        <v>-1.6638877535352651E-2</v>
       </c>
       <c r="F53">
-        <v>0.50874725769252382</v>
+        <v>6.6041960206026484E-2</v>
       </c>
       <c r="G53">
-        <v>5.1274972257489004E-3</v>
+        <v>2.313119921940165E-3</v>
       </c>
       <c r="H53">
-        <v>0.50920320075377501</v>
+        <v>0.15999094467329009</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2194,25 +2196,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54">
-        <v>41674.300000000003</v>
+        <v>11015.01</v>
       </c>
       <c r="D54">
-        <v>-230.75999999999479</v>
+        <v>34.050000000001091</v>
       </c>
       <c r="E54">
-        <v>-5.5067335543725893E-3</v>
+        <v>3.100821786073515E-3</v>
       </c>
       <c r="F54">
-        <v>-6.3399954601946695E-2</v>
+        <v>-0.1663291116247598</v>
       </c>
       <c r="G54">
-        <v>4.6372582232196979E-3</v>
+        <v>1.099730775425245E-3</v>
       </c>
       <c r="H54">
-        <v>-0.1141040107394455</v>
+        <v>-0.14657460453531079</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2220,25 +2222,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C55">
-        <v>1593.18</v>
+        <v>1916.94</v>
       </c>
       <c r="D55">
-        <v>-2.5899999999999181</v>
+        <v>-20.14999999999986</v>
       </c>
       <c r="E55">
-        <v>-1.6230409144174509E-3</v>
+        <v>-1.040220124000424E-2</v>
       </c>
       <c r="F55">
-        <v>0.28985718449431652</v>
+        <v>7.3777608487421764E-2</v>
       </c>
       <c r="G55">
-        <v>3.2341304022189821E-3</v>
+        <v>-1.038513047355361E-3</v>
       </c>
       <c r="H55">
-        <v>0.38205832872703288</v>
+        <v>0.1963937484493288</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2246,25 +2248,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C56">
-        <v>425.7</v>
+        <v>26835.919999999998</v>
       </c>
       <c r="D56">
-        <v>-0.69999999999998863</v>
+        <v>-58.760000000002037</v>
       </c>
       <c r="E56">
-        <v>-1.6416510318949531E-3</v>
+        <v>-2.184818707640424E-3</v>
       </c>
       <c r="F56">
-        <v>-0.25400858669937793</v>
+        <v>-4.9254610700204322E-2</v>
       </c>
       <c r="G56">
-        <v>-3.9042788094489911E-4</v>
+        <v>-2.2492390406596559E-3</v>
       </c>
       <c r="H56">
-        <v>-0.20518990448765509</v>
+        <v>-4.5538127338753287E-2</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2272,25 +2274,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C57">
-        <v>3623.83</v>
+        <v>8674.9699999999993</v>
       </c>
       <c r="D57">
-        <v>-3.8299999999999268</v>
+        <v>-18.5</v>
       </c>
       <c r="E57">
-        <v>-1.055777002254898E-3</v>
+        <v>-2.1280340301398359E-3</v>
       </c>
       <c r="F57">
-        <v>-8.299023986598475E-2</v>
+        <v>5.7132899430060169E-2</v>
       </c>
       <c r="G57">
-        <v>-1.055777002254898E-3</v>
+        <v>-2.3996435445804432E-3</v>
       </c>
       <c r="H57">
-        <v>-8.3761490686856455E-2</v>
+        <v>5.8295246678774282E-2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2298,25 +2300,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C58">
-        <v>13690.88</v>
+        <v>1554.98</v>
       </c>
       <c r="D58">
-        <v>-161.5400000000009</v>
+        <v>-38.200000000000053</v>
       </c>
       <c r="E58">
-        <v>-1.166150030103053E-2</v>
+        <v>-2.3977202827050289E-2</v>
       </c>
       <c r="F58">
-        <v>0.27972840468599108</v>
+        <v>0.25893001716376829</v>
       </c>
       <c r="G58">
-        <v>-1.0473965953110341E-2</v>
+        <v>-4.835482651213141E-3</v>
       </c>
       <c r="H58">
-        <v>0.35564195961028089</v>
+        <v>0.37537540965550892</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2327,22 +2329,22 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>1328.73</v>
+        <v>296.27</v>
       </c>
       <c r="D59">
-        <v>4.7799999999999727</v>
+        <v>-2.6700000000000159</v>
       </c>
       <c r="E59">
-        <v>3.610408248045704E-3</v>
+        <v>-8.9315581722084758E-3</v>
       </c>
       <c r="F59">
-        <v>0.19261666053333079</v>
+        <v>-0.1180077997082553</v>
       </c>
       <c r="G59">
-        <v>-3.8633373614786581E-2</v>
+        <v>-5.2680768666539812E-3</v>
       </c>
       <c r="H59">
-        <v>-9.5721175098642974E-2</v>
+        <v>-0.10736720524932571</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2353,22 +2355,22 @@
         <v>116</v>
       </c>
       <c r="C60">
-        <v>6791.46</v>
+        <v>5810.48</v>
       </c>
       <c r="D60">
-        <v>-378.32999999999993</v>
+        <v>27.14999999999964</v>
       </c>
       <c r="E60">
-        <v>-5.2767235860464501E-2</v>
+        <v>4.6945272014564674E-3</v>
       </c>
       <c r="F60">
-        <v>-0.1290621669763666</v>
+        <v>-7.1422635599450279E-2</v>
       </c>
       <c r="G60">
-        <v>-4.7273347801699228E-2</v>
+        <v>-9.2143725649250774E-3</v>
       </c>
       <c r="H60">
-        <v>-7.3098088869524847E-2</v>
+        <v>-8.18662355453188E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2378,10 +2380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W238"/>
+  <dimension ref="A1:W243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:W243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19005,10 +19007,10 @@
         <v>44159</v>
       </c>
       <c r="B235">
-        <v>1804.6</v>
+        <v>1810.9</v>
       </c>
       <c r="C235">
-        <v>23.3</v>
+        <v>23.41</v>
       </c>
       <c r="D235">
         <v>964.1</v>
@@ -19041,7 +19043,7 @@
         <v>1206.3</v>
       </c>
       <c r="N235">
-        <v>3.2995000000000001</v>
+        <v>3.32</v>
       </c>
       <c r="O235">
         <v>425.75</v>
@@ -19076,10 +19078,10 @@
         <v>44160</v>
       </c>
       <c r="B236">
-        <v>1805.5</v>
+        <v>1811.2</v>
       </c>
       <c r="C236">
-        <v>23.361999999999998</v>
+        <v>23.446000000000002</v>
       </c>
       <c r="D236">
         <v>971.55</v>
@@ -19112,7 +19114,7 @@
         <v>1202.2</v>
       </c>
       <c r="N236">
-        <v>3.3094999999999999</v>
+        <v>3.3304999999999998</v>
       </c>
       <c r="O236">
         <v>420</v>
@@ -19218,10 +19220,10 @@
         <v>44162</v>
       </c>
       <c r="B238">
-        <v>1783.1</v>
+        <v>1788.1</v>
       </c>
       <c r="C238">
-        <v>22.68</v>
+        <v>22.638999999999999</v>
       </c>
       <c r="D238">
         <v>970.95</v>
@@ -19233,31 +19235,31 @@
         <v>45.53</v>
       </c>
       <c r="G238">
-        <v>48.28</v>
+        <v>48.18</v>
       </c>
       <c r="H238">
-        <v>2.8490000000000002</v>
+        <v>2.843</v>
       </c>
       <c r="I238">
-        <v>1.3794999999999999</v>
+        <v>1.3805000000000001</v>
       </c>
       <c r="J238">
         <v>1998.25</v>
       </c>
       <c r="K238">
-        <v>218.95</v>
+        <v>221.55</v>
       </c>
       <c r="L238">
-        <v>158.80000000000001</v>
+        <v>162.5</v>
       </c>
       <c r="M238">
-        <v>1229.2</v>
+        <v>1231</v>
       </c>
       <c r="N238">
-        <v>3.4022000000000001</v>
+        <v>3.4175</v>
       </c>
       <c r="O238">
-        <v>426.25</v>
+        <v>425.5</v>
       </c>
       <c r="P238">
         <v>1193.6199999999999</v>
@@ -19266,22 +19268,377 @@
         <v>73.349999999999994</v>
       </c>
       <c r="R238">
-        <v>2758.5</v>
+        <v>3035</v>
       </c>
       <c r="S238">
-        <v>124.48</v>
+        <v>121.7</v>
       </c>
       <c r="T238">
         <v>14.82</v>
       </c>
       <c r="U238">
-        <v>110.575</v>
+        <v>110.625</v>
       </c>
       <c r="V238">
-        <v>65.95</v>
+        <v>65.88</v>
       </c>
       <c r="W238">
-        <v>628.20000000000005</v>
+        <v>630.9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B239">
+        <v>1780.9</v>
+      </c>
+      <c r="C239">
+        <v>22.593</v>
+      </c>
+      <c r="D239">
+        <v>972.2</v>
+      </c>
+      <c r="E239">
+        <v>2374.6</v>
+      </c>
+      <c r="F239">
+        <v>45.34</v>
+      </c>
+      <c r="G239">
+        <v>47.59</v>
+      </c>
+      <c r="H239">
+        <v>2.8820000000000001</v>
+      </c>
+      <c r="I239">
+        <v>1.3559000000000001</v>
+      </c>
+      <c r="J239">
+        <v>2042.25</v>
+      </c>
+      <c r="K239">
+        <v>220.2</v>
+      </c>
+      <c r="L239">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="M239">
+        <v>1206.7</v>
+      </c>
+      <c r="N239">
+        <v>3.4380000000000002</v>
+      </c>
+      <c r="O239">
+        <v>419.75</v>
+      </c>
+      <c r="P239">
+        <v>1168.75</v>
+      </c>
+      <c r="Q239">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="R239">
+        <v>3008</v>
+      </c>
+      <c r="S239">
+        <v>120.7</v>
+      </c>
+      <c r="T239">
+        <v>14.51</v>
+      </c>
+      <c r="U239">
+        <v>110.175</v>
+      </c>
+      <c r="V239">
+        <v>67.569999999999993</v>
+      </c>
+      <c r="W239">
+        <v>636.79999999999995</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B240">
+        <v>1818.9</v>
+      </c>
+      <c r="C240">
+        <v>24.09</v>
+      </c>
+      <c r="D240">
+        <v>1003.4</v>
+      </c>
+      <c r="E240">
+        <v>2408.5500000000002</v>
+      </c>
+      <c r="F240">
+        <v>44.55</v>
+      </c>
+      <c r="G240">
+        <v>47.42</v>
+      </c>
+      <c r="H240">
+        <v>2.88</v>
+      </c>
+      <c r="I240">
+        <v>1.3472999999999999</v>
+      </c>
+      <c r="J240">
+        <v>2059.75</v>
+      </c>
+      <c r="K240">
+        <v>216.05</v>
+      </c>
+      <c r="L240">
+        <v>160.25</v>
+      </c>
+      <c r="M240">
+        <v>1212.9000000000001</v>
+      </c>
+      <c r="N240">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="O240">
+        <v>414.75</v>
+      </c>
+      <c r="P240">
+        <v>1163.25</v>
+      </c>
+      <c r="Q240">
+        <v>72.19</v>
+      </c>
+      <c r="R240">
+        <v>2960</v>
+      </c>
+      <c r="S240">
+        <v>115.65</v>
+      </c>
+      <c r="T240">
+        <v>14.51</v>
+      </c>
+      <c r="U240">
+        <v>110.625</v>
+      </c>
+      <c r="V240">
+        <v>66.97</v>
+      </c>
+      <c r="W240">
+        <v>635.20000000000005</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>44167</v>
+      </c>
+      <c r="B241">
+        <v>1830.2</v>
+      </c>
+      <c r="C241">
+        <v>24.08</v>
+      </c>
+      <c r="D241">
+        <v>1017.5</v>
+      </c>
+      <c r="E241">
+        <v>2405.4</v>
+      </c>
+      <c r="F241">
+        <v>45.28</v>
+      </c>
+      <c r="G241">
+        <v>48.25</v>
+      </c>
+      <c r="H241">
+        <v>2.78</v>
+      </c>
+      <c r="I241">
+        <v>1.3662000000000001</v>
+      </c>
+      <c r="J241">
+        <v>2049.65</v>
+      </c>
+      <c r="K241">
+        <v>214.5</v>
+      </c>
+      <c r="L241">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="M241">
+        <v>1199</v>
+      </c>
+      <c r="N241">
+        <v>3.4889999999999999</v>
+      </c>
+      <c r="O241">
+        <v>419</v>
+      </c>
+      <c r="P241">
+        <v>1153</v>
+      </c>
+      <c r="Q241">
+        <v>71.61</v>
+      </c>
+      <c r="R241">
+        <v>2907</v>
+      </c>
+      <c r="S241">
+        <v>116.85</v>
+      </c>
+      <c r="T241">
+        <v>14.6</v>
+      </c>
+      <c r="U241">
+        <v>110.7</v>
+      </c>
+      <c r="V241">
+        <v>66.349999999999994</v>
+      </c>
+      <c r="W241">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>44168</v>
+      </c>
+      <c r="B242">
+        <v>1841.1</v>
+      </c>
+      <c r="C242">
+        <v>24.137</v>
+      </c>
+      <c r="D242">
+        <v>1034.2</v>
+      </c>
+      <c r="E242">
+        <v>2315.4499999999998</v>
+      </c>
+      <c r="F242">
+        <v>45.64</v>
+      </c>
+      <c r="G242">
+        <v>48.71</v>
+      </c>
+      <c r="H242">
+        <v>2.5070000000000001</v>
+      </c>
+      <c r="I242">
+        <v>1.3933</v>
+      </c>
+      <c r="J242">
+        <v>2014</v>
+      </c>
+      <c r="K242">
+        <v>214.55</v>
+      </c>
+      <c r="L242">
+        <v>158.35</v>
+      </c>
+      <c r="M242">
+        <v>1199.9000000000001</v>
+      </c>
+      <c r="N242">
+        <v>3.4904999999999999</v>
+      </c>
+      <c r="O242">
+        <v>422.5</v>
+      </c>
+      <c r="P242">
+        <v>1166.75</v>
+      </c>
+      <c r="Q242">
+        <v>71.2</v>
+      </c>
+      <c r="R242">
+        <v>2897</v>
+      </c>
+      <c r="S242">
+        <v>117.65</v>
+      </c>
+      <c r="T242">
+        <v>14.71</v>
+      </c>
+      <c r="U242">
+        <v>109.6</v>
+      </c>
+      <c r="V242">
+        <v>66.03</v>
+      </c>
+      <c r="W242">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B243">
+        <v>1842.1</v>
+      </c>
+      <c r="C243">
+        <v>24.315000000000001</v>
+      </c>
+      <c r="D243">
+        <v>1070.5</v>
+      </c>
+      <c r="E243">
+        <v>2355</v>
+      </c>
+      <c r="F243">
+        <v>46.09</v>
+      </c>
+      <c r="G243">
+        <v>49.05</v>
+      </c>
+      <c r="H243">
+        <v>2.5539999999999998</v>
+      </c>
+      <c r="I243">
+        <v>1.3988</v>
+      </c>
+      <c r="J243">
+        <v>2042.25</v>
+      </c>
+      <c r="K243">
+        <v>214.4</v>
+      </c>
+      <c r="L243">
+        <v>158</v>
+      </c>
+      <c r="M243">
+        <v>1228.3</v>
+      </c>
+      <c r="N243">
+        <v>3.5274999999999999</v>
+      </c>
+      <c r="O243">
+        <v>420.12</v>
+      </c>
+      <c r="P243">
+        <v>1161.6199999999999</v>
+      </c>
+      <c r="Q243">
+        <v>71.56</v>
+      </c>
+      <c r="R243">
+        <v>2661.5</v>
+      </c>
+      <c r="S243">
+        <v>117.03</v>
+      </c>
+      <c r="T243">
+        <v>14.46</v>
+      </c>
+      <c r="U243">
+        <v>112.01300000000001</v>
+      </c>
+      <c r="V243">
+        <v>65.83</v>
+      </c>
+      <c r="W243">
+        <v>678.6</v>
       </c>
     </row>
   </sheetData>

--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Course 2 - Advanced\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Equities" sheetId="1" r:id="rId1"/>
@@ -41,181 +46,202 @@
     <t>Indices</t>
   </si>
   <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>HNX 30</t>
+  </si>
+  <si>
+    <t>BIST 100</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>S&amp;P CLX IPSA</t>
+  </si>
+  <si>
+    <t>OMXC25</t>
+  </si>
+  <si>
+    <t>ATX</t>
+  </si>
+  <si>
     <t>COLCAP</t>
   </si>
   <si>
     <t>Athens General Composite</t>
   </si>
   <si>
-    <t>WIG20</t>
+    <t>Karachi 100</t>
+  </si>
+  <si>
+    <t>SmallCap 2000</t>
+  </si>
+  <si>
+    <t>Nasdaq 100</t>
+  </si>
+  <si>
+    <t>IDX Composite</t>
+  </si>
+  <si>
+    <t>AEX</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50</t>
+  </si>
+  <si>
+    <t>FTSE/JSE Top 40</t>
+  </si>
+  <si>
+    <t>ISEQ Overall</t>
+  </si>
+  <si>
+    <t>SZSE Component</t>
+  </si>
+  <si>
+    <t>China A50</t>
+  </si>
+  <si>
+    <t>FTSE MIB</t>
+  </si>
+  <si>
+    <t>FTSE Singapore</t>
+  </si>
+  <si>
+    <t>BSE Sensex</t>
+  </si>
+  <si>
+    <t>DJ Shanghai</t>
+  </si>
+  <si>
+    <t>Nifty 50</t>
+  </si>
+  <si>
+    <t>Cyprus Main Market</t>
   </si>
   <si>
     <t>Bovespa</t>
   </si>
   <si>
-    <t>ISEQ Overall</t>
+    <t>OMXS30</t>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>S&amp;P/ASX 200</t>
+  </si>
+  <si>
+    <t>BSE SOFIX</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>OMX Helsinki 25</t>
+  </si>
+  <si>
+    <t>KOSDAQ</t>
+  </si>
+  <si>
+    <t>S&amp;P Lima General</t>
   </si>
   <si>
     <t>S&amp;P/BMV IPC</t>
   </si>
   <si>
+    <t>Budapest SE</t>
+  </si>
+  <si>
+    <t>Nikkei 225</t>
+  </si>
+  <si>
+    <t>PSI 20</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>CAC 40</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>BEL 20</t>
+  </si>
+  <si>
+    <t>WIG20</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>Tadawul All Share</t>
+  </si>
+  <si>
     <t>PSEi Composite</t>
+  </si>
+  <si>
+    <t>IBEX 35</t>
+  </si>
+  <si>
+    <t>Tunindex</t>
+  </si>
+  <si>
+    <t>MSM 30</t>
+  </si>
+  <si>
+    <t>Bahrain All Share</t>
+  </si>
+  <si>
+    <t>Taiwan Weighted</t>
+  </si>
+  <si>
+    <t>S&amp;P/TSX</t>
+  </si>
+  <si>
+    <t>Hang Seng</t>
+  </si>
+  <si>
+    <t>MOEX</t>
   </si>
   <si>
     <t>KOSPI</t>
   </si>
   <si>
-    <t>KOSDAQ</t>
-  </si>
-  <si>
     <t>RTSI</t>
   </si>
   <si>
-    <t>ATX</t>
+    <t>NZX 50</t>
   </si>
   <si>
-    <t>S&amp;P CLX IPSA</t>
-  </si>
-  <si>
-    <t>FTSE 100</t>
-  </si>
-  <si>
-    <t>IBEX 35</t>
-  </si>
-  <si>
-    <t>S&amp;P Lima General</t>
-  </si>
-  <si>
-    <t>BSE SOFIX</t>
-  </si>
-  <si>
-    <t>FTSE/JSE Top 40</t>
-  </si>
-  <si>
-    <t>PSI 20</t>
-  </si>
-  <si>
-    <t>Cyprus Main Market</t>
-  </si>
-  <si>
-    <t>SZSE Component</t>
-  </si>
-  <si>
-    <t>MOEX</t>
-  </si>
-  <si>
-    <t>Budapest SE</t>
-  </si>
-  <si>
-    <t>AEX</t>
-  </si>
-  <si>
-    <t>Nifty 50</t>
-  </si>
-  <si>
-    <t>BSE Sensex</t>
-  </si>
-  <si>
-    <t>Taiwan Weighted</t>
-  </si>
-  <si>
-    <t>Euro Stoxx 50</t>
-  </si>
-  <si>
-    <t>Nasdaq 100</t>
-  </si>
-  <si>
-    <t>BEL 20</t>
-  </si>
-  <si>
-    <t>CAC 40</t>
-  </si>
-  <si>
-    <t>HNX 30</t>
-  </si>
-  <si>
-    <t>SmallCap 2000</t>
-  </si>
-  <si>
-    <t>Karachi 100</t>
-  </si>
-  <si>
-    <t>Bahrain All Share</t>
-  </si>
-  <si>
-    <t>S&amp;P/TSX</t>
-  </si>
-  <si>
-    <t>DJ Shanghai</t>
-  </si>
-  <si>
-    <t>China A50</t>
-  </si>
-  <si>
-    <t>Tunindex</t>
-  </si>
-  <si>
-    <t>S&amp;P 500</t>
-  </si>
-  <si>
-    <t>DAX</t>
-  </si>
-  <si>
-    <t>S&amp;P/ASX 200</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>PX</t>
-  </si>
-  <si>
-    <t>BIST 100</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>FTSE MIB</t>
+    <t>EGX 30</t>
   </si>
   <si>
     <t>KLCI</t>
   </si>
   <si>
-    <t>NZX 50</t>
+    <t>Czech Republic</t>
   </si>
   <si>
-    <t>Nikkei 225</t>
+    <t>Vietnam</t>
   </si>
   <si>
-    <t>MSM 30</t>
+    <t>Turkey</t>
   </si>
   <si>
-    <t>SMI</t>
+    <t>Germany</t>
   </si>
   <si>
-    <t>OMX Helsinki 25</t>
+    <t>Chile</t>
   </si>
   <si>
-    <t>EGX 30</t>
+    <t>Denmark</t>
   </si>
   <si>
-    <t>OMXS30</t>
-  </si>
-  <si>
-    <t>Hang Seng</t>
-  </si>
-  <si>
-    <t>Tadawul All Share</t>
-  </si>
-  <si>
-    <t>OMXC25</t>
-  </si>
-  <si>
-    <t>FTSE Singapore</t>
-  </si>
-  <si>
-    <t>IDX Composite</t>
+    <t>Austria</t>
   </si>
   <si>
     <t>Colombia</t>
@@ -224,148 +250,127 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>Poland</t>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
   </si>
   <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>Ireland</t>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Peru</t>
   </si>
   <si>
     <t>Mexico</t>
   </si>
   <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
     <t>Philippines</t>
   </si>
   <si>
-    <t>South Korea</t>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
   </si>
   <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
     <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Finland</t>
   </si>
   <si>
     <t>Egypt</t>
   </si>
   <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Date</t>
@@ -514,6 +519,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -561,7 +569,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,7 +604,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -807,13 +815,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,7 +845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -847,25 +853,25 @@
         <v>67</v>
       </c>
       <c r="C2">
-        <v>1341.23</v>
+        <v>1009.23</v>
       </c>
       <c r="D2">
-        <v>79.490000000000009</v>
+        <v>40.720000000000027</v>
       </c>
       <c r="E2">
-        <v>6.300030117139821E-2</v>
+        <v>4.2043964440222632E-2</v>
       </c>
       <c r="F2">
-        <v>-0.1999773335957864</v>
+        <v>-9.7636865963895869E-2</v>
       </c>
       <c r="G2">
-        <v>0.1087490612747657</v>
+        <v>6.0488144822689938E-2</v>
       </c>
       <c r="H2">
-        <v>-0.24840443841960841</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-3.759430223246496E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,25 +879,25 @@
         <v>68</v>
       </c>
       <c r="C3">
-        <v>784.95</v>
+        <v>292.33999999999997</v>
       </c>
       <c r="D3">
-        <v>48.350000000000023</v>
+        <v>15.51999999999998</v>
       </c>
       <c r="E3">
-        <v>6.5639424382297085E-2</v>
+        <v>5.6065313199913147E-2</v>
       </c>
       <c r="F3">
-        <v>-0.14687693595191781</v>
+        <v>0.64448444619452072</v>
       </c>
       <c r="G3">
-        <v>8.617714465607218E-2</v>
+        <v>5.6430779842784551E-2</v>
       </c>
       <c r="H3">
-        <v>-7.1692235457175846E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.64811206675304533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,25 +905,25 @@
         <v>69</v>
       </c>
       <c r="C4">
-        <v>1947.68</v>
+        <v>1408.32</v>
       </c>
       <c r="D4">
-        <v>94.990000000000009</v>
+        <v>37.619999999999891</v>
       </c>
       <c r="E4">
-        <v>5.1271394566819062E-2</v>
+        <v>2.7445830597504939E-2</v>
       </c>
       <c r="F4">
-        <v>-0.1040906728243719</v>
+        <v>0.26405356645992822</v>
       </c>
       <c r="G4">
-        <v>7.3856470474421121E-2</v>
+        <v>5.2619101647925381E-2</v>
       </c>
       <c r="H4">
-        <v>-7.4157671383092483E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-1.999021965471881E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,25 +931,25 @@
         <v>70</v>
       </c>
       <c r="C5">
-        <v>113750.22</v>
+        <v>13630.51</v>
       </c>
       <c r="D5">
-        <v>3174.75</v>
+        <v>516.21000000000095</v>
       </c>
       <c r="E5">
-        <v>2.871115989830297E-2</v>
+        <v>3.9362375422248963E-2</v>
       </c>
       <c r="F5">
-        <v>-2.6760400938004358E-2</v>
+        <v>3.8357612826702907E-2</v>
       </c>
       <c r="G5">
-        <v>6.5517901844397652E-2</v>
+        <v>4.9497497451212569E-2</v>
       </c>
       <c r="H5">
-        <v>-0.2334627601300111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1407570357339496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -951,25 +957,25 @@
         <v>71</v>
       </c>
       <c r="C6">
-        <v>7513.11</v>
+        <v>4210.6899999999996</v>
       </c>
       <c r="D6">
-        <v>288.40999999999991</v>
+        <v>124.7999999999997</v>
       </c>
       <c r="E6">
-        <v>3.9919996678062793E-2</v>
+        <v>3.054414093379898E-2</v>
       </c>
       <c r="F6">
-        <v>4.194773279486963E-2</v>
+        <v>-0.13792919893784089</v>
       </c>
       <c r="G6">
-        <v>5.9962034829249999E-2</v>
+        <v>4.8972163263963031E-2</v>
       </c>
       <c r="H6">
-        <v>0.133773322235202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-8.7261378949026525E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,25 +983,25 @@
         <v>72</v>
       </c>
       <c r="C7">
-        <v>43646.03</v>
+        <v>1633.67</v>
       </c>
       <c r="D7">
-        <v>1971.7299999999959</v>
+        <v>51.700000000000053</v>
       </c>
       <c r="E7">
-        <v>4.7312852285461122E-2</v>
+        <v>3.2680771443200703E-2</v>
       </c>
       <c r="F7">
-        <v>-1.9086735003472351E-2</v>
+        <v>0.32263836264127721</v>
       </c>
       <c r="G7">
-        <v>5.41496299701405E-2</v>
+        <v>4.3256919347943512E-2</v>
       </c>
       <c r="H7">
-        <v>-6.6133070728954912E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.45948213624508671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1003,25 +1009,25 @@
         <v>73</v>
       </c>
       <c r="C8">
-        <v>7134.56</v>
+        <v>2713.69</v>
       </c>
       <c r="D8">
-        <v>343.10000000000042</v>
+        <v>81.519999999999982</v>
       </c>
       <c r="E8">
-        <v>5.0519328686320808E-2</v>
+        <v>3.097064399335903E-2</v>
       </c>
       <c r="F8">
-        <v>-8.5062972324493669E-2</v>
+        <v>-0.15269737787019849</v>
       </c>
       <c r="G8">
-        <v>5.2337450533510348E-2</v>
+        <v>4.1023935830969423E-2</v>
       </c>
       <c r="H8">
-        <v>-2.4586405946317221E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-6.9139171658665677E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1029,103 +1035,103 @@
         <v>74</v>
       </c>
       <c r="C9">
-        <v>2731.45</v>
+        <v>1426.47</v>
       </c>
       <c r="D9">
-        <v>98</v>
+        <v>48.799999999999947</v>
       </c>
       <c r="E9">
-        <v>3.7213541172226527E-2</v>
+        <v>3.5422125763063583E-2</v>
       </c>
       <c r="F9">
-        <v>0.26745302936795529</v>
+        <v>-0.1491330100388312</v>
       </c>
       <c r="G9">
-        <v>5.0747662941674758E-2</v>
+        <v>3.734883693644897E-2</v>
       </c>
       <c r="H9">
-        <v>0.35401179705422647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.18789437996324879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10">
-        <v>913.76</v>
+        <v>800.06</v>
       </c>
       <c r="D10">
-        <v>28.200000000000049</v>
+        <v>21.019999999999978</v>
       </c>
       <c r="E10">
-        <v>3.1844256741496928E-2</v>
+        <v>2.698192647360842E-2</v>
       </c>
       <c r="F10">
-        <v>0.39439349315591099</v>
+        <v>-0.13045462943842459</v>
       </c>
       <c r="G10">
-        <v>4.5308317191442793E-2</v>
+        <v>3.6996323177281187E-2</v>
       </c>
       <c r="H10">
-        <v>0.48962146582288918</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-4.4702916312559633E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11">
-        <v>1357.39</v>
+        <v>43740.55</v>
       </c>
       <c r="D11">
-        <v>54.960000000000043</v>
+        <v>1270.160000000003</v>
       </c>
       <c r="E11">
-        <v>4.2198045192447957E-2</v>
+        <v>2.9906953997832501E-2</v>
       </c>
       <c r="F11">
-        <v>-0.13451079159626339</v>
+        <v>5.9189650195756498E-2</v>
       </c>
       <c r="G11">
-        <v>4.2198045192447957E-2</v>
+        <v>3.119549097966989E-2</v>
       </c>
       <c r="H11">
-        <v>-0.13451079159626339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.3408358841911388E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12">
-        <v>2656.62</v>
+        <v>1969.99</v>
       </c>
       <c r="D12">
-        <v>57.659999999999847</v>
+        <v>58.289999999999957</v>
       </c>
       <c r="E12">
-        <v>2.2185797395881449E-2</v>
+        <v>3.0491185855521241E-2</v>
       </c>
       <c r="F12">
-        <v>-0.1705164952509414</v>
+        <v>0.18441494414583401</v>
       </c>
       <c r="G12">
-        <v>4.1886050121526568E-2</v>
+        <v>3.0491185855521241E-2</v>
       </c>
       <c r="H12">
-        <v>-9.7415120434081515E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.18441494414583401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1133,25 +1139,25 @@
         <v>77</v>
       </c>
       <c r="C13">
-        <v>4191.18</v>
+        <v>12738.18</v>
       </c>
       <c r="D13">
-        <v>74.150000000000546</v>
+        <v>362.77000000000038</v>
       </c>
       <c r="E13">
-        <v>1.8010556153343679E-2</v>
+        <v>2.9313776270846859E-2</v>
       </c>
       <c r="F13">
-        <v>-0.1419235564727632</v>
+        <v>0.43958474364610528</v>
       </c>
       <c r="G13">
-        <v>3.9318096393319513E-2</v>
+        <v>2.9313776270846859E-2</v>
       </c>
       <c r="H13">
-        <v>-0.12625139491305981</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.43958474364610528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1159,25 +1165,25 @@
         <v>78</v>
       </c>
       <c r="C14">
-        <v>6550.23</v>
+        <v>6104.32</v>
       </c>
       <c r="D14">
-        <v>182.64999999999961</v>
+        <v>165.98999999999981</v>
       </c>
       <c r="E14">
-        <v>2.8684366745294069E-2</v>
+        <v>2.795230308857866E-2</v>
       </c>
       <c r="F14">
-        <v>-0.13532197894747969</v>
+        <v>-2.446383481957359E-2</v>
       </c>
       <c r="G14">
-        <v>3.6421409547128032E-2</v>
+        <v>2.7857402093774079E-2</v>
       </c>
       <c r="H14">
-        <v>-0.1105410597742866</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-3.4826121654394693E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1185,623 +1191,623 @@
         <v>79</v>
       </c>
       <c r="C15">
-        <v>8322.9</v>
+        <v>625.25</v>
       </c>
       <c r="D15">
-        <v>132.19999999999979</v>
+        <v>10.78999999999996</v>
       </c>
       <c r="E15">
-        <v>1.6140256632522169E-2</v>
+        <v>1.756013410148749E-2</v>
       </c>
       <c r="F15">
-        <v>-0.13311252070118429</v>
+        <v>2.9658784006323598E-2</v>
       </c>
       <c r="G15">
-        <v>3.5723995627292997E-2</v>
+        <v>2.748265619272372E-2</v>
       </c>
       <c r="H15">
-        <v>-5.6714778991496018E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.131200356939561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C16">
-        <v>20590.580000000002</v>
+        <v>3545.74</v>
       </c>
       <c r="D16">
-        <v>989.4900000000016</v>
+        <v>59.899999999999643</v>
       </c>
       <c r="E16">
-        <v>5.0481376290808289E-2</v>
+        <v>1.718380648566753E-2</v>
       </c>
       <c r="F16">
-        <v>1.0788399092005461E-3</v>
+        <v>-5.5104303241555019E-2</v>
       </c>
       <c r="G16">
-        <v>3.5040221100204549E-2</v>
+        <v>2.7102658897877999E-2</v>
       </c>
       <c r="H16">
-        <v>-7.588427646367446E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.8078211973223697E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17">
-        <v>429.25</v>
+        <v>54692.4</v>
       </c>
       <c r="D17">
-        <v>3.5500000000000109</v>
+        <v>233.7900000000009</v>
       </c>
       <c r="E17">
-        <v>8.3392060136247004E-3</v>
+        <v>4.2929850761890256E-3</v>
       </c>
       <c r="F17">
-        <v>-0.247787610619469</v>
+        <v>7.2408200768594222E-2</v>
       </c>
       <c r="G17">
-        <v>3.207045980403822E-2</v>
+        <v>2.6768327489848479E-2</v>
       </c>
       <c r="H17">
-        <v>-0.17969997926768269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.9581305065955483E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18">
-        <v>54500.04</v>
+        <v>7423.99</v>
       </c>
       <c r="D18">
-        <v>1478.4599999999989</v>
+        <v>109.1999999999998</v>
       </c>
       <c r="E18">
-        <v>2.7884118126996649E-2</v>
+        <v>1.4928658238992479E-2</v>
       </c>
       <c r="F18">
-        <v>6.8636407219584639E-2</v>
+        <v>2.9588219630989791E-2</v>
       </c>
       <c r="G18">
-        <v>3.0703176736235571E-2</v>
+        <v>2.4825520050798518E-2</v>
       </c>
       <c r="H18">
-        <v>8.8049437173403078E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1311228337369188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19">
-        <v>4702.82</v>
+        <v>13854.12</v>
       </c>
       <c r="D19">
-        <v>51</v>
+        <v>298.98000000000138</v>
       </c>
       <c r="E19">
-        <v>1.096345086439277E-2</v>
+        <v>2.205657780000814E-2</v>
       </c>
       <c r="F19">
-        <v>-0.10181248686949711</v>
+        <v>0.29498694648760959</v>
       </c>
       <c r="G19">
-        <v>3.044741897386705E-2</v>
+        <v>2.3981107766011919E-2</v>
       </c>
       <c r="H19">
-        <v>-2.265631115622635E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.38071009132538619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20">
-        <v>33.78</v>
+        <v>16888.560000000001</v>
       </c>
       <c r="D20">
-        <v>0.35999999999999938</v>
+        <v>363.15000000000151</v>
       </c>
       <c r="E20">
-        <v>1.0771992818671359E-2</v>
+        <v>2.1975249025591559E-2</v>
       </c>
       <c r="F20">
-        <v>-0.2549625055138951</v>
+        <v>0.17764336886321599</v>
       </c>
       <c r="G20">
-        <v>3.0252271019817201E-2</v>
+        <v>2.3899625849717721E-2</v>
       </c>
       <c r="H20">
-        <v>-0.1893032551186512</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.25559882111709298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21">
-        <v>14026.66</v>
+        <v>21976.12</v>
       </c>
       <c r="D21">
-        <v>335.78000000000071</v>
+        <v>273.95999999999913</v>
       </c>
       <c r="E21">
-        <v>2.4525815725504829E-2</v>
+        <v>1.262362824714214E-2</v>
       </c>
       <c r="F21">
-        <v>0.31111478771801432</v>
+        <v>-6.8069643348603992E-2</v>
       </c>
       <c r="G21">
-        <v>2.9710048659365551E-2</v>
+        <v>2.2498013047272281E-2</v>
       </c>
       <c r="H21">
-        <v>0.39591814819498028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.3834272539355439E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C22">
-        <v>3184.72</v>
+        <v>297.27999999999997</v>
       </c>
       <c r="D22">
-        <v>42.039999999999957</v>
+        <v>4.2899999999999636</v>
       </c>
       <c r="E22">
-        <v>1.3377117619356669E-2</v>
+        <v>1.464213795692682E-2</v>
       </c>
       <c r="F22">
-        <v>3.4379496373669438E-2</v>
+        <v>-0.1150010419457594</v>
       </c>
       <c r="G22">
-        <v>2.917190581001505E-2</v>
+        <v>2.1544289671337591E-2</v>
       </c>
       <c r="H22">
-        <v>-0.1386292869461434</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-9.9116178898116414E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23">
-        <v>39227.870000000003</v>
+        <v>46960.69</v>
       </c>
       <c r="D23">
-        <v>-81.029999999998836</v>
+        <v>861.68000000000029</v>
       </c>
       <c r="E23">
-        <v>-2.0613652378977938E-3</v>
+        <v>1.8691941540610161E-2</v>
       </c>
       <c r="F23">
-        <v>-0.1216086160923411</v>
+        <v>0.15448821596086029</v>
       </c>
       <c r="G23">
-        <v>2.78381417734288E-2</v>
+        <v>2.141986646301941E-2</v>
       </c>
       <c r="H23">
-        <v>-0.1178031745352395</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.12624541495219119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C24">
-        <v>615.66999999999996</v>
+        <v>508.46</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>9.6800000000000068</v>
       </c>
       <c r="E24">
-        <v>6.5394738993247437E-3</v>
+        <v>1.940735394362236E-2</v>
       </c>
       <c r="F24">
-        <v>1.388248468480335E-2</v>
+        <v>0.14735084393898351</v>
       </c>
       <c r="G24">
-        <v>2.593818014692784E-2</v>
+        <v>2.1326895427766109E-2</v>
       </c>
       <c r="H24">
-        <v>0.1032347178622612</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2233010477935424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C25">
-        <v>13258.55</v>
+        <v>13760.55</v>
       </c>
       <c r="D25">
-        <v>289.59999999999849</v>
+        <v>246.69999999999891</v>
       </c>
       <c r="E25">
-        <v>2.2330258039394039E-2</v>
+        <v>1.825534544189833E-2</v>
       </c>
       <c r="F25">
-        <v>0.10551944667953531</v>
+        <v>0.14737702252554599</v>
       </c>
       <c r="G25">
-        <v>2.4875497087656129E-2</v>
+        <v>2.098210121657007E-2</v>
       </c>
       <c r="H25">
-        <v>7.358191919367596E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1193081860652814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C26">
-        <v>45079.55</v>
+        <v>35.79</v>
       </c>
       <c r="D26">
-        <v>929.83000000000175</v>
+        <v>0.33999999999999631</v>
       </c>
       <c r="E26">
-        <v>2.106083571990958E-2</v>
+        <v>9.5909732016923321E-3</v>
       </c>
       <c r="F26">
-        <v>0.108242005298866</v>
+        <v>-0.2106307895897663</v>
       </c>
       <c r="G26">
-        <v>2.3602914357696791E-2</v>
+        <v>1.9435785708574072E-2</v>
       </c>
       <c r="H26">
-        <v>7.6225825383148704E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.1327857864730537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C27">
-        <v>14132.44</v>
+        <v>118023.67</v>
       </c>
       <c r="D27">
-        <v>265.35000000000042</v>
+        <v>2895.6699999999978</v>
       </c>
       <c r="E27">
-        <v>1.9135233131103879E-2</v>
+        <v>2.5151744145646578E-2</v>
       </c>
       <c r="F27">
-        <v>0.18229853363405771</v>
+        <v>9.8029636393255348E-3</v>
       </c>
       <c r="G27">
-        <v>2.349348478286295E-2</v>
+        <v>1.8522741791146661E-2</v>
       </c>
       <c r="H27">
-        <v>0.25087919364963818</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.18986515675982529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28">
-        <v>3539.27</v>
+        <v>1886.88</v>
       </c>
       <c r="D28">
-        <v>11.48000000000002</v>
+        <v>-4.3399999999999181</v>
       </c>
       <c r="E28">
-        <v>3.2541619540846778E-3</v>
+        <v>-2.294814987151117E-3</v>
       </c>
       <c r="F28">
-        <v>-5.6828477929498078E-2</v>
+        <v>5.6939441976664229E-2</v>
       </c>
       <c r="G28">
-        <v>2.2589551458519711E-2</v>
+        <v>1.7737977627936941E-2</v>
       </c>
       <c r="H28">
-        <v>2.6292083910152138E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.20159709620225999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C29">
-        <v>12528.48</v>
+        <v>6529.18</v>
       </c>
       <c r="D29">
-        <v>270.27000000000038</v>
+        <v>-17.569999999999709</v>
       </c>
       <c r="E29">
-        <v>2.2048080429361239E-2</v>
+        <v>-2.6837743918738388E-3</v>
       </c>
       <c r="F29">
-        <v>0.41588583840669208</v>
+        <v>-0.13810073211235399</v>
       </c>
       <c r="G29">
-        <v>2.2048080429361239E-2</v>
+        <v>1.714318413847438E-2</v>
       </c>
       <c r="H29">
-        <v>0.41588583840669208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.1058076654341233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30">
-        <v>3726.86</v>
+        <v>6675.5</v>
       </c>
       <c r="D30">
-        <v>7.5</v>
+        <v>32.899999999999643</v>
       </c>
       <c r="E30">
-        <v>2.0164759528520371E-3</v>
+        <v>4.9528798964260101E-3</v>
       </c>
       <c r="F30">
-        <v>-6.1665046905921339E-2</v>
+        <v>-8.9374526775242158E-3</v>
       </c>
       <c r="G30">
-        <v>2.1328011939578669E-2</v>
+        <v>1.7090477885948859E-2</v>
       </c>
       <c r="H30">
-        <v>2.1029273978304449E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8.683666086167241E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31">
-        <v>5609.15</v>
+        <v>442.3</v>
       </c>
       <c r="D31">
-        <v>10.96999999999935</v>
+        <v>3.8500000000000232</v>
       </c>
       <c r="E31">
-        <v>1.9595654301933769E-3</v>
+        <v>8.7809328315657798E-3</v>
       </c>
       <c r="F31">
-        <v>-6.7254335596540593E-2</v>
+        <v>-0.22491895207219839</v>
       </c>
       <c r="G31">
-        <v>2.127000459902062E-2</v>
+        <v>1.67578662771295E-2</v>
       </c>
       <c r="H31">
-        <v>1.494740805716366E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.14959951164785121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C32">
-        <v>273.42</v>
+        <v>3394.9</v>
       </c>
       <c r="D32">
-        <v>5.2100000000000364</v>
+        <v>47.710000000000043</v>
       </c>
       <c r="E32">
-        <v>1.9425077364751742E-2</v>
+        <v>1.4253747173001759E-2</v>
       </c>
       <c r="F32">
-        <v>0.53805478989705802</v>
+        <v>0.1010212719035095</v>
       </c>
       <c r="G32">
-        <v>2.114433610715127E-2</v>
+        <v>1.6163584428555481E-2</v>
       </c>
       <c r="H32">
-        <v>0.5411143004845016</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.17390463664849981</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C33">
-        <v>1892.45</v>
+        <v>4575.42</v>
       </c>
       <c r="D33">
-        <v>37.180000000000057</v>
+        <v>27.470000000000251</v>
       </c>
       <c r="E33">
-        <v>2.0040209780786581E-2</v>
+        <v>6.0400839938874462E-3</v>
       </c>
       <c r="F33">
-        <v>0.1377956543174248</v>
+        <v>7.266491148689358E-2</v>
       </c>
       <c r="G33">
-        <v>2.0040209780786581E-2</v>
+        <v>1.5850270756867509E-2</v>
       </c>
       <c r="H33">
-        <v>0.1377956543174248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.17844760769123361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C34">
-        <v>42207</v>
+        <v>947.24</v>
       </c>
       <c r="D34">
-        <v>1399.910000000003</v>
+        <v>18.799999999999951</v>
       </c>
       <c r="E34">
-        <v>3.4305558176287658E-2</v>
+        <v>2.0249019861272591E-2</v>
       </c>
       <c r="F34">
-        <v>2.205430809197173E-2</v>
+        <v>0.44548381681952082</v>
       </c>
       <c r="G34">
-        <v>1.9763197263695579E-2</v>
+        <v>1.4840233547633639E-2</v>
       </c>
       <c r="H34">
-        <v>-1.401452757516386E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.54301312233977028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C35">
-        <v>1496.54</v>
+        <v>20742.37</v>
       </c>
       <c r="D35">
-        <v>28.730000000000022</v>
+        <v>268.36999999999898</v>
       </c>
       <c r="E35">
-        <v>1.9573378025766312E-2</v>
+        <v>1.3107844094949689E-2</v>
       </c>
       <c r="F35">
-        <v>-5.5292179303466298E-2</v>
+        <v>8.4586105183730442E-3</v>
       </c>
       <c r="G35">
-        <v>1.942369861155813E-2</v>
+        <v>1.4802768725777019E-2</v>
       </c>
       <c r="H35">
-        <v>-5.5788958766258889E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-6.816340948830657E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C36">
-        <v>17520.97</v>
+        <v>43873.81</v>
       </c>
       <c r="D36">
-        <v>124.4099999999999</v>
+        <v>261.5</v>
       </c>
       <c r="E36">
-        <v>7.1514138427366536E-3</v>
+        <v>5.9960135108643184E-3</v>
       </c>
       <c r="F36">
-        <v>2.429047550286545E-2</v>
+        <v>-1.3967542639335081E-2</v>
       </c>
       <c r="G36">
-        <v>1.9348692913810469E-2</v>
+        <v>1.458330387969942E-2</v>
       </c>
       <c r="H36">
-        <v>3.4004169692592789E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-5.7579600815024452E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C37">
-        <v>515.45000000000005</v>
+        <v>41614.92</v>
       </c>
       <c r="D37">
-        <v>6.7800000000000296</v>
+        <v>351.25</v>
       </c>
       <c r="E37">
-        <v>1.332887726816989E-2</v>
+        <v>8.5123305803871396E-3</v>
       </c>
       <c r="F37">
-        <v>0.1631239281523604</v>
+        <v>-6.8157736578445149E-2</v>
       </c>
       <c r="G37">
-        <v>1.845645224747439E-2</v>
+        <v>1.4535320043003839E-2</v>
       </c>
       <c r="H37">
-        <v>0.23835518836121361</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-5.065830265125737E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C38">
-        <v>17063.55</v>
+        <v>26763.39</v>
       </c>
       <c r="D38">
-        <v>216.4599999999991</v>
+        <v>110.869999999999</v>
       </c>
       <c r="E38">
-        <v>1.284850974263207E-2</v>
+        <v>4.1598317907649562E-3</v>
       </c>
       <c r="F38">
-        <v>0.18984546383859399</v>
+        <v>0.15335278902781571</v>
       </c>
       <c r="G38">
-        <v>1.7973654000223101E-2</v>
+        <v>1.439326719776823E-2</v>
       </c>
       <c r="H38">
-        <v>0.26680508226941629</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.20740214885313879</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -1809,467 +1815,467 @@
         <v>98</v>
       </c>
       <c r="C39">
-        <v>6828.93</v>
+        <v>4763.03</v>
       </c>
       <c r="D39">
-        <v>46.720000000000248</v>
+        <v>20.359999999999669</v>
       </c>
       <c r="E39">
-        <v>6.8886100548346541E-3</v>
+        <v>4.2929404744584954E-3</v>
       </c>
       <c r="F39">
-        <v>-1.968966809214345E-2</v>
+        <v>-9.0313031188525406E-2</v>
       </c>
       <c r="G39">
-        <v>1.7691386827232591E-2</v>
+        <v>1.408609033751773E-2</v>
       </c>
       <c r="H39">
-        <v>1.0774996807966669E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-6.026852712328612E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C40">
-        <v>3699.12</v>
+        <v>10523.86</v>
       </c>
       <c r="D40">
-        <v>60.769999999999982</v>
+        <v>132.10000000000039</v>
       </c>
       <c r="E40">
-        <v>1.6702626190443489E-2</v>
+        <v>1.271199488825769E-2</v>
       </c>
       <c r="F40">
-        <v>0.13949505279889579</v>
+        <v>-1.327187609290215E-2</v>
       </c>
       <c r="G40">
-        <v>1.6702626190443489E-2</v>
+        <v>1.4014583965573649E-2</v>
       </c>
       <c r="H40">
-        <v>0.13949505279889579</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8.3491501177272998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C41">
-        <v>13298.96</v>
+        <v>5527.84</v>
       </c>
       <c r="D41">
-        <v>-36.720000000001157</v>
+        <v>20.28999999999996</v>
       </c>
       <c r="E41">
-        <v>-2.7535153812929809E-3</v>
+        <v>3.684033735508629E-3</v>
       </c>
       <c r="F41">
-        <v>1.310048990667312E-2</v>
+        <v>-8.0775377104192359E-2</v>
       </c>
       <c r="G41">
-        <v>1.646609012173772E-2</v>
+        <v>1.3471245973491589E-2</v>
       </c>
       <c r="H41">
-        <v>0.1023838068331706</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.8755409840556307E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C42">
-        <v>6634.1</v>
+        <v>3709.41</v>
       </c>
       <c r="D42">
-        <v>33</v>
+        <v>45.949999999999818</v>
       </c>
       <c r="E42">
-        <v>4.9991668055324734E-3</v>
+        <v>1.2542787419543179E-2</v>
       </c>
       <c r="F42">
-        <v>-1.5083807176685339E-2</v>
+        <v>0.14266483482632419</v>
       </c>
       <c r="G42">
-        <v>1.6063851349381819E-2</v>
+        <v>1.2542787419543179E-2</v>
       </c>
       <c r="H42">
-        <v>5.5091991476638791E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.14266483482632419</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C43">
-        <v>3444.58</v>
+        <v>3657.33</v>
       </c>
       <c r="D43">
-        <v>36.269999999999982</v>
+        <v>7.5900000000001464</v>
       </c>
       <c r="E43">
-        <v>1.0641637644463129E-2</v>
+        <v>2.0796001906986379E-3</v>
       </c>
       <c r="F43">
-        <v>0.11713330371244821</v>
+        <v>-7.9171051770239087E-2</v>
       </c>
       <c r="G43">
-        <v>1.5755614844244151E-2</v>
+        <v>1.1851167134847129E-2</v>
       </c>
       <c r="H43">
-        <v>0.18938987433693111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.16380796217137E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C44">
-        <v>972.54</v>
+        <v>1952.54</v>
       </c>
       <c r="D44">
-        <v>4.2199999999999136</v>
+        <v>1.690000000000055</v>
       </c>
       <c r="E44">
-        <v>4.3580634500990367E-3</v>
+        <v>8.6628905348962171E-4</v>
       </c>
       <c r="F44">
-        <v>-0.1304417799951719</v>
+        <v>-0.10185513139555739</v>
       </c>
       <c r="G44">
-        <v>1.365372391601616E-2</v>
+        <v>9.0718069904509591E-3</v>
       </c>
       <c r="H44">
-        <v>-9.1354067498320868E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-5.5719855654018817E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C45">
-        <v>1330.87</v>
+        <v>1482.38</v>
       </c>
       <c r="D45">
-        <v>2.1399999999998731</v>
+        <v>-0.28999999999996362</v>
       </c>
       <c r="E45">
-        <v>1.6105604599880861E-3</v>
+        <v>-1.9559308544714329E-4</v>
       </c>
       <c r="F45">
-        <v>0.19453744177070889</v>
+        <v>-5.4905961109340103E-2</v>
       </c>
       <c r="G45">
-        <v>1.315700693362221E-2</v>
+        <v>8.1281056732906976E-3</v>
       </c>
       <c r="H45">
-        <v>-8.3823572329488005E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-4.3643076388035107E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C46">
-        <v>1449.83</v>
+        <v>8711.58</v>
       </c>
       <c r="D46">
-        <v>12.049999999999949</v>
+        <v>67.610000000000582</v>
       </c>
       <c r="E46">
-        <v>8.3809762272391009E-3</v>
+        <v>7.8216375114676939E-3</v>
       </c>
       <c r="F46">
-        <v>-7.5658272234619073E-2</v>
+        <v>6.1594198483329032E-2</v>
       </c>
       <c r="G46">
-        <v>1.222467298026908E-2</v>
+        <v>7.4801076922899057E-3</v>
       </c>
       <c r="H46">
-        <v>-7.645482648248314E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.2568708993659294E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C47">
-        <v>22178.799999999999</v>
+        <v>7272.8</v>
       </c>
       <c r="D47">
-        <v>-173.65999999999991</v>
+        <v>26.640000000000331</v>
       </c>
       <c r="E47">
-        <v>-7.7691672415474136E-3</v>
+        <v>3.6764299987857019E-3</v>
       </c>
       <c r="F47">
-        <v>-5.9474693708444382E-2</v>
+        <v>-6.7335054316114529E-2</v>
       </c>
       <c r="G47">
-        <v>1.1353773242772871E-2</v>
+        <v>6.8070895515586196E-3</v>
       </c>
       <c r="H47">
-        <v>2.3412660345402351E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-9.5986558737963801E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C48">
-        <v>1621.85</v>
+        <v>8037.4</v>
       </c>
       <c r="D48">
-        <v>14.259999999999989</v>
+        <v>-25.700000000000731</v>
       </c>
       <c r="E48">
-        <v>8.8704209406627044E-3</v>
+        <v>-3.1873597003634351E-3</v>
       </c>
       <c r="F48">
-        <v>1.507735830162216E-2</v>
+        <v>-0.1628493162099387</v>
       </c>
       <c r="G48">
-        <v>9.4913039514641362E-3</v>
+        <v>6.5328476001420546E-3</v>
       </c>
       <c r="H48">
-        <v>2.4447279676847788E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-8.0292260868335297E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C49">
-        <v>12631.38</v>
+        <v>6849.03</v>
       </c>
       <c r="D49">
-        <v>-8.4500000000007276</v>
+        <v>-5.5200000000004366</v>
       </c>
       <c r="E49">
-        <v>-6.6852164942099446E-4</v>
+        <v>-8.053045057663244E-4</v>
       </c>
       <c r="F49">
-        <v>8.6353519125645484E-2</v>
+        <v>-1.680426178817673E-2</v>
       </c>
       <c r="G49">
-        <v>9.3194876287518991E-3</v>
+        <v>5.1423486300350429E-3</v>
       </c>
       <c r="H49">
-        <v>0.1545969175590689</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.940721682783653E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C50">
-        <v>26751.24</v>
+        <v>3612.83</v>
       </c>
       <c r="D50">
-        <v>106.5300000000025</v>
+        <v>5.8499999999999091</v>
       </c>
       <c r="E50">
-        <v>3.998166990746066E-3</v>
+        <v>1.621855402580419E-3</v>
       </c>
       <c r="F50">
-        <v>0.15282919181585239</v>
+        <v>-8.5773788586944177E-2</v>
       </c>
       <c r="G50">
-        <v>8.0499420697777158E-3</v>
+        <v>2.4283885756313239E-3</v>
       </c>
       <c r="H50">
-        <v>0.19881001102981699</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-8.5807157629521735E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C51">
-        <v>3639.99</v>
+        <v>1493.41</v>
       </c>
       <c r="D51">
-        <v>16.159999999999851</v>
+        <v>3.0199999999999818</v>
       </c>
       <c r="E51">
-        <v>4.4593703347011182E-3</v>
+        <v>2.026315259764155E-3</v>
       </c>
       <c r="F51">
-        <v>-7.8900953745011826E-2</v>
+        <v>-5.7268027245238717E-2</v>
       </c>
       <c r="G51">
-        <v>4.4593703347011182E-3</v>
+        <v>2.1012209440556262E-3</v>
       </c>
       <c r="H51">
-        <v>-7.9675643858914791E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-5.7703430589969518E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C52">
-        <v>10364.5</v>
+        <v>14249.96</v>
       </c>
       <c r="D52">
-        <v>-136.68000000000029</v>
+        <v>-11.730000000001381</v>
       </c>
       <c r="E52">
-        <v>-1.3015680142612561E-2</v>
+        <v>-8.224831699470414E-4</v>
       </c>
       <c r="F52">
-        <v>-2.8213636419040618E-2</v>
+        <v>0.19213007890668379</v>
       </c>
       <c r="G52">
-        <v>4.3247429320283359E-3</v>
+        <v>1.2627477784277199E-3</v>
       </c>
       <c r="H52">
-        <v>5.983699721936997E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.27295313537331189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C53">
-        <v>4547.17</v>
+        <v>17534.63</v>
       </c>
       <c r="D53">
-        <v>-76.9399999999996</v>
+        <v>-14.28999999999724</v>
       </c>
       <c r="E53">
-        <v>-1.6638877535352651E-2</v>
+        <v>-8.1429512471409282E-4</v>
       </c>
       <c r="F53">
-        <v>6.6041960206026484E-2</v>
+        <v>2.5089050461635901E-2</v>
       </c>
       <c r="G53">
-        <v>2.313119921940165E-3</v>
+        <v>-1.7069228693522559E-4</v>
       </c>
       <c r="H53">
-        <v>0.15999094467329009</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.5669755967493009E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C54">
-        <v>11015.01</v>
+        <v>26498.6</v>
       </c>
       <c r="D54">
-        <v>34.050000000001091</v>
+        <v>-7.2700000000004366</v>
       </c>
       <c r="E54">
-        <v>3.100821786073515E-3</v>
+        <v>-2.7427886728492718E-4</v>
       </c>
       <c r="F54">
-        <v>-0.1663291116247598</v>
+        <v>-6.1205214022863157E-2</v>
       </c>
       <c r="G54">
-        <v>1.099730775425245E-3</v>
+        <v>-3.6711894285612612E-4</v>
       </c>
       <c r="H54">
-        <v>-0.14657460453531079</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-5.7643540258606192E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C55">
-        <v>1916.94</v>
+        <v>3273.75</v>
       </c>
       <c r="D55">
-        <v>-20.14999999999986</v>
+        <v>-2.8299999999999268</v>
       </c>
       <c r="E55">
-        <v>-1.040220124000424E-2</v>
+        <v>-8.6370544897418355E-4</v>
       </c>
       <c r="F55">
-        <v>7.3777608487421764E-2</v>
+        <v>6.3295949487961467E-2</v>
       </c>
       <c r="G55">
-        <v>-1.038513047355361E-3</v>
+        <v>-1.0304429106151589E-3</v>
       </c>
       <c r="H55">
-        <v>0.1963937484493288</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-9.7607303578590598E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C56">
-        <v>26835.919999999998</v>
+        <v>2772.18</v>
       </c>
       <c r="D56">
-        <v>-58.760000000002037</v>
+        <v>2.1199999999998909</v>
       </c>
       <c r="E56">
-        <v>-2.184818707640424E-3</v>
+        <v>7.6532638282200693E-4</v>
       </c>
       <c r="F56">
-        <v>-4.9254610700204322E-2</v>
+        <v>0.28635264747780798</v>
       </c>
       <c r="G56">
-        <v>-2.2492390406596559E-3</v>
+        <v>-4.5401683494737943E-3</v>
       </c>
       <c r="H56">
-        <v>-4.5538127338753287E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.3731450964162446</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>63</v>
       </c>
@@ -2277,25 +2283,25 @@
         <v>113</v>
       </c>
       <c r="C57">
-        <v>8674.9699999999993</v>
+        <v>1402.5</v>
       </c>
       <c r="D57">
-        <v>-18.5</v>
+        <v>-10.380000000000109</v>
       </c>
       <c r="E57">
-        <v>-2.1280340301398359E-3</v>
+        <v>-7.3466961100731032E-3</v>
       </c>
       <c r="F57">
-        <v>5.7132899430060169E-2</v>
+        <v>-0.105748079191507</v>
       </c>
       <c r="G57">
-        <v>-2.3996435445804432E-3</v>
+        <v>-7.3466961100731032E-3</v>
       </c>
       <c r="H57">
-        <v>5.8295246678774282E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.105748079191507</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
@@ -2303,25 +2309,25 @@
         <v>114</v>
       </c>
       <c r="C58">
-        <v>1554.98</v>
+        <v>12682</v>
       </c>
       <c r="D58">
-        <v>-38.200000000000053</v>
+        <v>-237.25</v>
       </c>
       <c r="E58">
-        <v>-2.3977202827050289E-2</v>
+        <v>-1.8364069121659551E-2</v>
       </c>
       <c r="F58">
-        <v>0.25893001716376829</v>
+        <v>9.0707058892332881E-2</v>
       </c>
       <c r="G58">
-        <v>-4.835482651213141E-3</v>
+        <v>-1.090540787492522E-2</v>
       </c>
       <c r="H58">
-        <v>0.37537540965550892</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1714375702609057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>65</v>
       </c>
@@ -2329,25 +2335,25 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>296.27</v>
+        <v>10844.58</v>
       </c>
       <c r="D59">
-        <v>-2.6700000000000159</v>
+        <v>-142.80999999999949</v>
       </c>
       <c r="E59">
-        <v>-8.9315581722084758E-3</v>
+        <v>-1.2997627279999979E-2</v>
       </c>
       <c r="F59">
-        <v>-0.1180077997082553</v>
+        <v>-0.17922810395484329</v>
       </c>
       <c r="G59">
-        <v>-5.2680768666539812E-3</v>
+        <v>-1.316121717108765E-2</v>
       </c>
       <c r="H59">
-        <v>-0.10736720524932571</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.16191197553724659</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>66</v>
       </c>
@@ -2355,22 +2361,22 @@
         <v>116</v>
       </c>
       <c r="C60">
-        <v>5810.48</v>
+        <v>1652.49</v>
       </c>
       <c r="D60">
-        <v>27.14999999999964</v>
+        <v>-32.089999999999918</v>
       </c>
       <c r="E60">
-        <v>4.6945272014564674E-3</v>
+        <v>-1.904925856890138E-2</v>
       </c>
       <c r="F60">
-        <v>-7.1422635599450279E-2</v>
+        <v>3.4254205888243572E-2</v>
       </c>
       <c r="G60">
-        <v>-9.2143725649250774E-3</v>
+        <v>-1.3333329856642481E-2</v>
       </c>
       <c r="H60">
-        <v>-8.18662355453188E-2</v>
+        <v>5.1436217313411969E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2380,15 +2386,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W243"/>
+  <dimension ref="A1:W253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W243"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:W253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -2459,7 +2465,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43832</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>406.7</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43833</v>
       </c>
@@ -2601,7 +2607,7 @@
         <v>403.6</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43836</v>
       </c>
@@ -2672,7 +2678,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43837</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>395.4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43838</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43839</v>
       </c>
@@ -2885,7 +2891,7 @@
         <v>391.1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43840</v>
       </c>
@@ -2956,7 +2962,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43843</v>
       </c>
@@ -3027,7 +3033,7 @@
         <v>393.6</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43844</v>
       </c>
@@ -3098,7 +3104,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43845</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>388.6</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43846</v>
       </c>
@@ -3240,7 +3246,7 @@
         <v>428.8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43847</v>
       </c>
@@ -3311,7 +3317,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43850</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43851</v>
       </c>
@@ -3453,7 +3459,7 @@
         <v>424.7</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43852</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>425.2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43853</v>
       </c>
@@ -3595,7 +3601,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43854</v>
       </c>
@@ -3666,7 +3672,7 @@
         <v>426.2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43857</v>
       </c>
@@ -3737,7 +3743,7 @@
         <v>420.8</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43858</v>
       </c>
@@ -3808,7 +3814,7 @@
         <v>427.1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43859</v>
       </c>
@@ -3879,7 +3885,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43860</v>
       </c>
@@ -3950,7 +3956,7 @@
         <v>436.1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43861</v>
       </c>
@@ -4021,7 +4027,7 @@
         <v>435.5</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43864</v>
       </c>
@@ -4092,7 +4098,7 @@
         <v>422.8</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43865</v>
       </c>
@@ -4163,7 +4169,7 @@
         <v>412.7</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43866</v>
       </c>
@@ -4234,7 +4240,7 @@
         <v>428.3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43867</v>
       </c>
@@ -4305,7 +4311,7 @@
         <v>433.2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43868</v>
       </c>
@@ -4376,7 +4382,7 @@
         <v>440.2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43871</v>
       </c>
@@ -4447,7 +4453,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43872</v>
       </c>
@@ -4518,7 +4524,7 @@
         <v>451.4</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43873</v>
       </c>
@@ -4589,7 +4595,7 @@
         <v>454.5</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43874</v>
       </c>
@@ -4660,7 +4666,7 @@
         <v>455.1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43875</v>
       </c>
@@ -4731,7 +4737,7 @@
         <v>449.3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43878</v>
       </c>
@@ -4802,7 +4808,7 @@
         <v>449.3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43879</v>
       </c>
@@ -4873,7 +4879,7 @@
         <v>446.1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43880</v>
       </c>
@@ -4944,7 +4950,7 @@
         <v>460.3</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43881</v>
       </c>
@@ -5015,7 +5021,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43882</v>
       </c>
@@ -5086,7 +5092,7 @@
         <v>460.1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43885</v>
       </c>
@@ -5157,7 +5163,7 @@
         <v>443.1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43886</v>
       </c>
@@ -5228,7 +5234,7 @@
         <v>435.3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43887</v>
       </c>
@@ -5299,7 +5305,7 @@
         <v>427.5</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43888</v>
       </c>
@@ -5370,7 +5376,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43889</v>
       </c>
@@ -5441,7 +5447,7 @@
         <v>399.4</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43892</v>
       </c>
@@ -5512,7 +5518,7 @@
         <v>415.6</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43893</v>
       </c>
@@ -5583,7 +5589,7 @@
         <v>404.1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43894</v>
       </c>
@@ -5654,7 +5660,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43895</v>
       </c>
@@ -5725,7 +5731,7 @@
         <v>407.5</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43896</v>
       </c>
@@ -5796,7 +5802,7 @@
         <v>400.4</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43899</v>
       </c>
@@ -5867,7 +5873,7 @@
         <v>370.4</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43900</v>
       </c>
@@ -5938,7 +5944,7 @@
         <v>378.8</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43901</v>
       </c>
@@ -6009,7 +6015,7 @@
         <v>373.5</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43902</v>
       </c>
@@ -6080,7 +6086,7 @@
         <v>330.1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43903</v>
       </c>
@@ -6151,7 +6157,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43906</v>
       </c>
@@ -6222,7 +6228,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43907</v>
       </c>
@@ -6293,7 +6299,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43908</v>
       </c>
@@ -6364,7 +6370,7 @@
         <v>303.39999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43909</v>
       </c>
@@ -6435,7 +6441,7 @@
         <v>319.8</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43910</v>
       </c>
@@ -6506,7 +6512,7 @@
         <v>322.3</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43913</v>
       </c>
@@ -6577,7 +6583,7 @@
         <v>320.2</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43914</v>
       </c>
@@ -6648,7 +6654,7 @@
         <v>321.5</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43915</v>
       </c>
@@ -6719,7 +6725,7 @@
         <v>311.60000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43916</v>
       </c>
@@ -6790,7 +6796,7 @@
         <v>320.8</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43917</v>
       </c>
@@ -6861,7 +6867,7 @@
         <v>311.3</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43920</v>
       </c>
@@ -6932,7 +6938,7 @@
         <v>296.5</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43921</v>
       </c>
@@ -7003,7 +7009,7 @@
         <v>278.5</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>43922</v>
       </c>
@@ -7074,7 +7080,7 @@
         <v>259.8</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43923</v>
       </c>
@@ -7145,7 +7151,7 @@
         <v>264.10000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>43924</v>
       </c>
@@ -7216,7 +7222,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43927</v>
       </c>
@@ -7287,7 +7293,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>43928</v>
       </c>
@@ -7358,7 +7364,7 @@
         <v>307.39999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43929</v>
       </c>
@@ -7429,7 +7435,7 @@
         <v>304.10000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43930</v>
       </c>
@@ -7500,7 +7506,7 @@
         <v>322.10000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>43931</v>
       </c>
@@ -7571,7 +7577,7 @@
         <v>322.10000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>43934</v>
       </c>
@@ -7642,7 +7648,7 @@
         <v>333.7</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43935</v>
       </c>
@@ -7713,7 +7719,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43936</v>
       </c>
@@ -7784,7 +7790,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>43937</v>
       </c>
@@ -7855,7 +7861,7 @@
         <v>332.6</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43938</v>
       </c>
@@ -7926,7 +7932,7 @@
         <v>341.7</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>43941</v>
       </c>
@@ -7997,7 +8003,7 @@
         <v>328.5</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>43942</v>
       </c>
@@ -8068,7 +8074,7 @@
         <v>317.5</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>43943</v>
       </c>
@@ -8139,7 +8145,7 @@
         <v>329.4</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>43944</v>
       </c>
@@ -8210,7 +8216,7 @@
         <v>325.2</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>43945</v>
       </c>
@@ -8281,7 +8287,7 @@
         <v>322.3</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>43948</v>
       </c>
@@ -8352,7 +8358,7 @@
         <v>315.60000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>43949</v>
       </c>
@@ -8423,7 +8429,7 @@
         <v>326.5</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>43950</v>
       </c>
@@ -8494,7 +8500,7 @@
         <v>317.89999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>43951</v>
       </c>
@@ -8565,7 +8571,7 @@
         <v>319.7</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>43952</v>
       </c>
@@ -8636,7 +8642,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>43955</v>
       </c>
@@ -8707,7 +8713,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>43956</v>
       </c>
@@ -8778,7 +8784,7 @@
         <v>336.2</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>43957</v>
       </c>
@@ -8849,7 +8855,7 @@
         <v>327.39999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>43958</v>
       </c>
@@ -8920,7 +8926,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>43959</v>
       </c>
@@ -8991,7 +8997,7 @@
         <v>342.6</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>43962</v>
       </c>
@@ -9062,7 +9068,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>43963</v>
       </c>
@@ -9133,7 +9139,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>43964</v>
       </c>
@@ -9204,7 +9210,7 @@
         <v>335.1</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>43965</v>
       </c>
@@ -9275,7 +9281,7 @@
         <v>343.5</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>43966</v>
       </c>
@@ -9346,7 +9352,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>43969</v>
       </c>
@@ -9417,7 +9423,7 @@
         <v>346.2</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>43970</v>
       </c>
@@ -9488,7 +9494,7 @@
         <v>354.3</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>43971</v>
       </c>
@@ -9559,7 +9565,7 @@
         <v>367.5</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>43972</v>
       </c>
@@ -9630,7 +9636,7 @@
         <v>370.3</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>43973</v>
       </c>
@@ -9701,7 +9707,7 @@
         <v>367.5</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>43976</v>
       </c>
@@ -9772,7 +9778,7 @@
         <v>367.5</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>43977</v>
       </c>
@@ -9843,7 +9849,7 @@
         <v>356.8</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>43978</v>
       </c>
@@ -9914,7 +9920,7 @@
         <v>359.9</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>43979</v>
       </c>
@@ -9985,7 +9991,7 @@
         <v>368.3</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>43980</v>
       </c>
@@ -10056,7 +10062,7 @@
         <v>367.1</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>43983</v>
       </c>
@@ -10127,7 +10133,7 @@
         <v>362.3</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>43984</v>
       </c>
@@ -10198,7 +10204,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>43985</v>
       </c>
@@ -10269,7 +10275,7 @@
         <v>348.1</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>43986</v>
       </c>
@@ -10340,7 +10346,7 @@
         <v>356.2</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>43987</v>
       </c>
@@ -10411,7 +10417,7 @@
         <v>368.8</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>43990</v>
       </c>
@@ -10482,7 +10488,7 @@
         <v>370.8</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>43991</v>
       </c>
@@ -10553,7 +10559,7 @@
         <v>357.6</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>43992</v>
       </c>
@@ -10624,7 +10630,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>43993</v>
       </c>
@@ -10695,7 +10701,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>43994</v>
       </c>
@@ -10766,7 +10772,7 @@
         <v>354.6</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>43997</v>
       </c>
@@ -10837,7 +10843,7 @@
         <v>361.3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>43998</v>
       </c>
@@ -10908,7 +10914,7 @@
         <v>373.4</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>43999</v>
       </c>
@@ -10979,7 +10985,7 @@
         <v>382.3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>44000</v>
       </c>
@@ -11050,7 +11056,7 @@
         <v>401.3</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>44001</v>
       </c>
@@ -11121,7 +11127,7 @@
         <v>421.4</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>44004</v>
       </c>
@@ -11192,7 +11198,7 @@
         <v>430.1</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>44005</v>
       </c>
@@ -11263,7 +11269,7 @@
         <v>440.7</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>44006</v>
       </c>
@@ -11334,7 +11340,7 @@
         <v>428.8</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>44007</v>
       </c>
@@ -11405,7 +11411,7 @@
         <v>435.6</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>44008</v>
       </c>
@@ -11476,7 +11482,7 @@
         <v>430.5</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>44011</v>
       </c>
@@ -11547,7 +11553,7 @@
         <v>426.1</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>44012</v>
       </c>
@@ -11618,7 +11624,7 @@
         <v>435.7</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>44013</v>
       </c>
@@ -11689,7 +11695,7 @@
         <v>438.6</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>44014</v>
       </c>
@@ -11760,7 +11766,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>44015</v>
       </c>
@@ -11831,7 +11837,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>44018</v>
       </c>
@@ -11902,7 +11908,7 @@
         <v>460.1</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>44019</v>
       </c>
@@ -11973,7 +11979,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>44020</v>
       </c>
@@ -12044,7 +12050,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>44021</v>
       </c>
@@ -12115,7 +12121,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>44022</v>
       </c>
@@ -12186,7 +12192,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>44025</v>
       </c>
@@ -12257,7 +12263,7 @@
         <v>533.4</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>44026</v>
       </c>
@@ -12328,7 +12334,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>44027</v>
       </c>
@@ -12399,7 +12405,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>44028</v>
       </c>
@@ -12470,7 +12476,7 @@
         <v>524.20000000000005</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>44029</v>
       </c>
@@ -12541,7 +12547,7 @@
         <v>550.79999999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>44032</v>
       </c>
@@ -12612,7 +12618,7 @@
         <v>532.20000000000005</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>44033</v>
       </c>
@@ -12683,7 +12689,7 @@
         <v>513.20000000000005</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>44034</v>
       </c>
@@ -12754,7 +12760,7 @@
         <v>510.5</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>44035</v>
       </c>
@@ -12825,7 +12831,7 @@
         <v>522.4</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>44036</v>
       </c>
@@ -12896,7 +12902,7 @@
         <v>541.4</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>44039</v>
       </c>
@@ -12967,7 +12973,7 @@
         <v>567.9</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>44040</v>
       </c>
@@ -13038,7 +13044,7 @@
         <v>566.9</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>44041</v>
       </c>
@@ -13109,7 +13115,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>44042</v>
       </c>
@@ -13180,7 +13186,7 @@
         <v>580.4</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>44043</v>
       </c>
@@ -13251,7 +13257,7 @@
         <v>585.79999999999995</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>44046</v>
       </c>
@@ -13322,7 +13328,7 @@
         <v>596.20000000000005</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>44047</v>
       </c>
@@ -13393,7 +13399,7 @@
         <v>610.9</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>44048</v>
       </c>
@@ -13464,7 +13470,7 @@
         <v>622.6</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>44049</v>
       </c>
@@ -13535,7 +13541,7 @@
         <v>641.6</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>44050</v>
       </c>
@@ -13606,7 +13612,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>44053</v>
       </c>
@@ -13677,7 +13683,7 @@
         <v>662.5</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>44054</v>
       </c>
@@ -13748,7 +13754,7 @@
         <v>681.5</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>44055</v>
       </c>
@@ -13819,7 +13825,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>44056</v>
       </c>
@@ -13890,7 +13896,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>44057</v>
       </c>
@@ -13961,7 +13967,7 @@
         <v>726.5</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>44060</v>
       </c>
@@ -14032,7 +14038,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>44061</v>
       </c>
@@ -14103,7 +14109,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>44062</v>
       </c>
@@ -14174,7 +14180,7 @@
         <v>782.9</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>44063</v>
       </c>
@@ -14245,7 +14251,7 @@
         <v>801.9</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>44064</v>
       </c>
@@ -14316,7 +14322,7 @@
         <v>830.9</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>44067</v>
       </c>
@@ -14387,7 +14393,7 @@
         <v>810.3</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>44068</v>
       </c>
@@ -14458,7 +14464,7 @@
         <v>829.3</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>44069</v>
       </c>
@@ -14529,7 +14535,7 @@
         <v>858.3</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>44070</v>
       </c>
@@ -14600,7 +14606,7 @@
         <v>887.3</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>44071</v>
       </c>
@@ -14671,7 +14677,7 @@
         <v>915.5</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>44074</v>
       </c>
@@ -14742,7 +14748,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>44075</v>
       </c>
@@ -14813,7 +14819,7 @@
         <v>928.5</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>44076</v>
       </c>
@@ -14884,7 +14890,7 @@
         <v>903.3</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>44077</v>
       </c>
@@ -14955,7 +14961,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>44078</v>
       </c>
@@ -15026,7 +15032,7 @@
         <v>879.9</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>44081</v>
       </c>
@@ -15097,7 +15103,7 @@
         <v>879.9</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>44082</v>
       </c>
@@ -15168,7 +15174,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>44083</v>
       </c>
@@ -15239,7 +15245,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>44084</v>
       </c>
@@ -15310,7 +15316,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>44085</v>
       </c>
@@ -15381,7 +15387,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>44088</v>
       </c>
@@ -15452,7 +15458,7 @@
         <v>984.5</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>44089</v>
       </c>
@@ -15523,7 +15529,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>44090</v>
       </c>
@@ -15594,7 +15600,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>44091</v>
       </c>
@@ -15665,7 +15671,7 @@
         <v>597.6</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>44092</v>
       </c>
@@ -15736,7 +15742,7 @@
         <v>578.6</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>44095</v>
       </c>
@@ -15807,7 +15813,7 @@
         <v>549.6</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>44096</v>
       </c>
@@ -15878,7 +15884,7 @@
         <v>578.6</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>44097</v>
       </c>
@@ -15949,7 +15955,7 @@
         <v>607.6</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>44098</v>
       </c>
@@ -16020,7 +16026,7 @@
         <v>578.6</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>44099</v>
       </c>
@@ -16091,7 +16097,7 @@
         <v>607.6</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>44102</v>
       </c>
@@ -16162,7 +16168,7 @@
         <v>578.6</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>44103</v>
       </c>
@@ -16233,7 +16239,7 @@
         <v>602.20000000000005</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>44104</v>
       </c>
@@ -16304,7 +16310,7 @@
         <v>612.20000000000005</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>44105</v>
       </c>
@@ -16375,7 +16381,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>44106</v>
       </c>
@@ -16446,7 +16452,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>44109</v>
       </c>
@@ -16517,7 +16523,7 @@
         <v>602.1</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>44110</v>
       </c>
@@ -16588,7 +16594,7 @@
         <v>583.1</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>44111</v>
       </c>
@@ -16659,7 +16665,7 @@
         <v>567.29999999999995</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>44112</v>
       </c>
@@ -16730,7 +16736,7 @@
         <v>586.29999999999995</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>44113</v>
       </c>
@@ -16801,7 +16807,7 @@
         <v>557.29999999999995</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>44116</v>
       </c>
@@ -16872,7 +16878,7 @@
         <v>535.79999999999995</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>44117</v>
       </c>
@@ -16943,7 +16949,7 @@
         <v>535.4</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>44118</v>
       </c>
@@ -17014,7 +17020,7 @@
         <v>548.9</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>44119</v>
       </c>
@@ -17085,7 +17091,7 @@
         <v>537.70000000000005</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>44120</v>
       </c>
@@ -17156,7 +17162,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>44123</v>
       </c>
@@ -17227,7 +17233,7 @@
         <v>550.70000000000005</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>44124</v>
       </c>
@@ -17298,7 +17304,7 @@
         <v>531.70000000000005</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>44125</v>
       </c>
@@ -17369,7 +17375,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>44126</v>
       </c>
@@ -17440,7 +17446,7 @@
         <v>531.4</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>44127</v>
       </c>
@@ -17511,7 +17517,7 @@
         <v>515.29999999999995</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>44130</v>
       </c>
@@ -17582,7 +17588,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>44131</v>
       </c>
@@ -17653,7 +17659,7 @@
         <v>505.2</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>44132</v>
       </c>
@@ -17724,7 +17730,7 @@
         <v>499.4</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>44133</v>
       </c>
@@ -17795,7 +17801,7 @@
         <v>497.5</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>44134</v>
       </c>
@@ -17866,7 +17872,7 @@
         <v>495.6</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>44137</v>
       </c>
@@ -17937,7 +17943,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>44138</v>
       </c>
@@ -18008,7 +18014,7 @@
         <v>536.4</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>44139</v>
       </c>
@@ -18079,7 +18085,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>44140</v>
       </c>
@@ -18150,7 +18156,7 @@
         <v>565.9</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>44141</v>
       </c>
@@ -18221,7 +18227,7 @@
         <v>555.20000000000005</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>44144</v>
       </c>
@@ -18292,7 +18298,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>44145</v>
       </c>
@@ -18363,7 +18369,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>44146</v>
       </c>
@@ -18434,7 +18440,7 @@
         <v>569.5</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>44147</v>
       </c>
@@ -18505,7 +18511,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>44148</v>
       </c>
@@ -18576,7 +18582,7 @@
         <v>589.1</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>44151</v>
       </c>
@@ -18647,7 +18653,7 @@
         <v>593.5</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>44152</v>
       </c>
@@ -18718,7 +18724,7 @@
         <v>610.6</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>44153</v>
       </c>
@@ -18789,7 +18795,7 @@
         <v>595.70000000000005</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>44154</v>
       </c>
@@ -18860,7 +18866,7 @@
         <v>616.9</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>44155</v>
       </c>
@@ -18931,7 +18937,7 @@
         <v>630.1</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>44158</v>
       </c>
@@ -19002,7 +19008,7 @@
         <v>618.4</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>44159</v>
       </c>
@@ -19073,7 +19079,7 @@
         <v>600.5</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>44160</v>
       </c>
@@ -19144,7 +19150,7 @@
         <v>617.1</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>44161</v>
       </c>
@@ -19215,7 +19221,7 @@
         <v>617.1</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>44162</v>
       </c>
@@ -19286,7 +19292,7 @@
         <v>630.9</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>44165</v>
       </c>
@@ -19357,7 +19363,7 @@
         <v>636.79999999999995</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>44166</v>
       </c>
@@ -19428,7 +19434,7 @@
         <v>635.20000000000005</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>44167</v>
       </c>
@@ -19499,7 +19505,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>44168</v>
       </c>
@@ -19570,15 +19576,15 @@
         <v>660</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>44169</v>
       </c>
       <c r="B243">
-        <v>1842.1</v>
+        <v>1840</v>
       </c>
       <c r="C243">
-        <v>24.315000000000001</v>
+        <v>24.253</v>
       </c>
       <c r="D243">
         <v>1070.5</v>
@@ -19587,16 +19593,16 @@
         <v>2355</v>
       </c>
       <c r="F243">
-        <v>46.09</v>
+        <v>46.26</v>
       </c>
       <c r="G243">
-        <v>49.05</v>
+        <v>49.25</v>
       </c>
       <c r="H243">
-        <v>2.5539999999999998</v>
+        <v>2.5750000000000002</v>
       </c>
       <c r="I243">
-        <v>1.3988</v>
+        <v>1.403</v>
       </c>
       <c r="J243">
         <v>2042.25</v>
@@ -19611,10 +19617,10 @@
         <v>1228.3</v>
       </c>
       <c r="N243">
-        <v>3.5274999999999999</v>
+        <v>3.5245000000000002</v>
       </c>
       <c r="O243">
-        <v>420.12</v>
+        <v>417</v>
       </c>
       <c r="P243">
         <v>1161.6199999999999</v>
@@ -19623,22 +19629,732 @@
         <v>71.56</v>
       </c>
       <c r="R243">
-        <v>2661.5</v>
+        <v>2878</v>
       </c>
       <c r="S243">
-        <v>117.03</v>
+        <v>115.35</v>
       </c>
       <c r="T243">
-        <v>14.46</v>
+        <v>14.44</v>
       </c>
       <c r="U243">
-        <v>112.01300000000001</v>
+        <v>108.875</v>
       </c>
       <c r="V243">
-        <v>65.83</v>
+        <v>65.88</v>
       </c>
       <c r="W243">
         <v>678.6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B244">
+        <v>1866</v>
+      </c>
+      <c r="C244">
+        <v>24.794</v>
+      </c>
+      <c r="D244">
+        <v>1038.3499999999999</v>
+      </c>
+      <c r="E244">
+        <v>2334.25</v>
+      </c>
+      <c r="F244">
+        <v>45.76</v>
+      </c>
+      <c r="G244">
+        <v>48.79</v>
+      </c>
+      <c r="H244">
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="I244">
+        <v>1.3992</v>
+      </c>
+      <c r="J244">
+        <v>2000.03</v>
+      </c>
+      <c r="K244">
+        <v>218.05</v>
+      </c>
+      <c r="L244">
+        <v>161.5</v>
+      </c>
+      <c r="M244">
+        <v>1226.4000000000001</v>
+      </c>
+      <c r="N244">
+        <v>3.5165000000000002</v>
+      </c>
+      <c r="O244">
+        <v>419.5</v>
+      </c>
+      <c r="P244">
+        <v>1156.75</v>
+      </c>
+      <c r="Q244">
+        <v>72.48</v>
+      </c>
+      <c r="R244">
+        <v>2836</v>
+      </c>
+      <c r="S244">
+        <v>116.95</v>
+      </c>
+      <c r="T244">
+        <v>14.45</v>
+      </c>
+      <c r="U244">
+        <v>108</v>
+      </c>
+      <c r="V244">
+        <v>64.5</v>
+      </c>
+      <c r="W244">
+        <v>696.8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B245">
+        <v>1874.9</v>
+      </c>
+      <c r="C245">
+        <v>24.736000000000001</v>
+      </c>
+      <c r="D245">
+        <v>1037.55</v>
+      </c>
+      <c r="E245">
+        <v>2313.5</v>
+      </c>
+      <c r="F245">
+        <v>45.6</v>
+      </c>
+      <c r="G245">
+        <v>48.84</v>
+      </c>
+      <c r="H245">
+        <v>2.399</v>
+      </c>
+      <c r="I245">
+        <v>1.4067000000000001</v>
+      </c>
+      <c r="J245">
+        <v>1998.75</v>
+      </c>
+      <c r="K245">
+        <v>217.9</v>
+      </c>
+      <c r="L245">
+        <v>161.75</v>
+      </c>
+      <c r="M245">
+        <v>1229.7</v>
+      </c>
+      <c r="N245">
+        <v>3.4990000000000001</v>
+      </c>
+      <c r="O245">
+        <v>417</v>
+      </c>
+      <c r="P245">
+        <v>1146</v>
+      </c>
+      <c r="Q245">
+        <v>72.05</v>
+      </c>
+      <c r="R245">
+        <v>2700</v>
+      </c>
+      <c r="S245">
+        <v>117.1</v>
+      </c>
+      <c r="T245">
+        <v>14.39</v>
+      </c>
+      <c r="U245">
+        <v>107.85</v>
+      </c>
+      <c r="V245">
+        <v>64.55</v>
+      </c>
+      <c r="W245">
+        <v>725.2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <v>44174</v>
+      </c>
+      <c r="B246">
+        <v>1838.5</v>
+      </c>
+      <c r="C246">
+        <v>23.99</v>
+      </c>
+      <c r="D246">
+        <v>1007.9</v>
+      </c>
+      <c r="E246">
+        <v>2266.25</v>
+      </c>
+      <c r="F246">
+        <v>45.52</v>
+      </c>
+      <c r="G246">
+        <v>48.86</v>
+      </c>
+      <c r="H246">
+        <v>2.4420000000000002</v>
+      </c>
+      <c r="I246">
+        <v>1.3989</v>
+      </c>
+      <c r="J246">
+        <v>2024.5</v>
+      </c>
+      <c r="K246">
+        <v>221.85</v>
+      </c>
+      <c r="L246">
+        <v>162.05000000000001</v>
+      </c>
+      <c r="M246">
+        <v>1253.5</v>
+      </c>
+      <c r="N246">
+        <v>3.5135000000000001</v>
+      </c>
+      <c r="O246">
+        <v>422</v>
+      </c>
+      <c r="P246">
+        <v>1159</v>
+      </c>
+      <c r="Q246">
+        <v>73.08</v>
+      </c>
+      <c r="R246">
+        <v>2674</v>
+      </c>
+      <c r="S246">
+        <v>114.9</v>
+      </c>
+      <c r="T246">
+        <v>14.97</v>
+      </c>
+      <c r="U246">
+        <v>107.375</v>
+      </c>
+      <c r="V246">
+        <v>65.13</v>
+      </c>
+      <c r="W246">
+        <v>754.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B247">
+        <v>1837.4</v>
+      </c>
+      <c r="C247">
+        <v>24.094000000000001</v>
+      </c>
+      <c r="D247">
+        <v>1039.4000000000001</v>
+      </c>
+      <c r="E247">
+        <v>2333.25</v>
+      </c>
+      <c r="F247">
+        <v>46.78</v>
+      </c>
+      <c r="G247">
+        <v>50.25</v>
+      </c>
+      <c r="H247">
+        <v>2.5529999999999999</v>
+      </c>
+      <c r="I247">
+        <v>1.4357</v>
+      </c>
+      <c r="J247">
+        <v>2047.75</v>
+      </c>
+      <c r="K247">
+        <v>222.2</v>
+      </c>
+      <c r="L247">
+        <v>161.65</v>
+      </c>
+      <c r="M247">
+        <v>1302.8</v>
+      </c>
+      <c r="N247">
+        <v>3.5760000000000001</v>
+      </c>
+      <c r="O247">
+        <v>420.25</v>
+      </c>
+      <c r="P247">
+        <v>1154.25</v>
+      </c>
+      <c r="Q247">
+        <v>74.16</v>
+      </c>
+      <c r="R247">
+        <v>2692</v>
+      </c>
+      <c r="S247">
+        <v>118.55</v>
+      </c>
+      <c r="T247">
+        <v>14.66</v>
+      </c>
+      <c r="U247">
+        <v>107.925</v>
+      </c>
+      <c r="V247">
+        <v>64.8</v>
+      </c>
+      <c r="W247">
+        <v>786.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B248">
+        <v>1843.6</v>
+      </c>
+      <c r="C248">
+        <v>24.091999999999999</v>
+      </c>
+      <c r="D248">
+        <v>1017.25</v>
+      </c>
+      <c r="E248">
+        <v>2316.5</v>
+      </c>
+      <c r="F248">
+        <v>46.57</v>
+      </c>
+      <c r="G248">
+        <v>49.97</v>
+      </c>
+      <c r="H248">
+        <v>2.5910000000000002</v>
+      </c>
+      <c r="I248">
+        <v>1.4369000000000001</v>
+      </c>
+      <c r="J248">
+        <v>2031</v>
+      </c>
+      <c r="K248">
+        <v>216.35</v>
+      </c>
+      <c r="L248">
+        <v>159.55000000000001</v>
+      </c>
+      <c r="M248">
+        <v>1296.2</v>
+      </c>
+      <c r="N248">
+        <v>3.528</v>
+      </c>
+      <c r="O248">
+        <v>424.25</v>
+      </c>
+      <c r="P248">
+        <v>1160.9000000000001</v>
+      </c>
+      <c r="Q248">
+        <v>74.03</v>
+      </c>
+      <c r="R248">
+        <v>2747</v>
+      </c>
+      <c r="S248">
+        <v>119.1</v>
+      </c>
+      <c r="T248">
+        <v>14.43</v>
+      </c>
+      <c r="U248">
+        <v>108.75</v>
+      </c>
+      <c r="V248">
+        <v>64.680000000000007</v>
+      </c>
+      <c r="W248">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B249">
+        <v>1832.1</v>
+      </c>
+      <c r="C249">
+        <v>24.047000000000001</v>
+      </c>
+      <c r="D249">
+        <v>1015.3</v>
+      </c>
+      <c r="E249">
+        <v>2312</v>
+      </c>
+      <c r="F249">
+        <v>46.99</v>
+      </c>
+      <c r="G249">
+        <v>50.29</v>
+      </c>
+      <c r="H249">
+        <v>2.6819999999999999</v>
+      </c>
+      <c r="I249">
+        <v>1.4543999999999999</v>
+      </c>
+      <c r="J249">
+        <v>2041.85</v>
+      </c>
+      <c r="K249">
+        <v>220</v>
+      </c>
+      <c r="L249">
+        <v>159.4</v>
+      </c>
+      <c r="M249">
+        <v>1318.8</v>
+      </c>
+      <c r="N249">
+        <v>3.5265</v>
+      </c>
+      <c r="O249">
+        <v>419.25</v>
+      </c>
+      <c r="P249">
+        <v>1169.75</v>
+      </c>
+      <c r="Q249">
+        <v>74.760000000000005</v>
+      </c>
+      <c r="R249">
+        <v>2713</v>
+      </c>
+      <c r="S249">
+        <v>123.55</v>
+      </c>
+      <c r="T249">
+        <v>14.12</v>
+      </c>
+      <c r="U249">
+        <v>109.1</v>
+      </c>
+      <c r="V249">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="W249">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B250">
+        <v>1855.3</v>
+      </c>
+      <c r="C250">
+        <v>24.643999999999998</v>
+      </c>
+      <c r="D250">
+        <v>1043.8499999999999</v>
+      </c>
+      <c r="E250">
+        <v>2327.5</v>
+      </c>
+      <c r="F250">
+        <v>47.62</v>
+      </c>
+      <c r="G250">
+        <v>50.76</v>
+      </c>
+      <c r="H250">
+        <v>2.6819999999999999</v>
+      </c>
+      <c r="I250">
+        <v>1.4643999999999999</v>
+      </c>
+      <c r="J250">
+        <v>2026.75</v>
+      </c>
+      <c r="K250">
+        <v>219.4</v>
+      </c>
+      <c r="L250">
+        <v>159.4</v>
+      </c>
+      <c r="M250">
+        <v>1317.1</v>
+      </c>
+      <c r="N250">
+        <v>3.5445000000000002</v>
+      </c>
+      <c r="O250">
+        <v>424.75</v>
+      </c>
+      <c r="P250">
+        <v>1185.75</v>
+      </c>
+      <c r="Q250">
+        <v>75.430000000000007</v>
+      </c>
+      <c r="R250">
+        <v>2665</v>
+      </c>
+      <c r="S250">
+        <v>123.1</v>
+      </c>
+      <c r="T250">
+        <v>14.21</v>
+      </c>
+      <c r="U250">
+        <v>108.6</v>
+      </c>
+      <c r="V250">
+        <v>66.45</v>
+      </c>
+      <c r="W250">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B251">
+        <v>1859.1</v>
+      </c>
+      <c r="C251">
+        <v>25.052</v>
+      </c>
+      <c r="D251">
+        <v>1040.8499999999999</v>
+      </c>
+      <c r="E251">
+        <v>2334</v>
+      </c>
+      <c r="F251">
+        <v>47.82</v>
+      </c>
+      <c r="G251">
+        <v>51.08</v>
+      </c>
+      <c r="H251">
+        <v>2.677</v>
+      </c>
+      <c r="I251">
+        <v>1.4779</v>
+      </c>
+      <c r="J251">
+        <v>2029.75</v>
+      </c>
+      <c r="K251">
+        <v>219.8</v>
+      </c>
+      <c r="L251">
+        <v>159.44999999999999</v>
+      </c>
+      <c r="M251">
+        <v>1304.5</v>
+      </c>
+      <c r="N251">
+        <v>3.5590000000000002</v>
+      </c>
+      <c r="O251">
+        <v>427.25</v>
+      </c>
+      <c r="P251">
+        <v>1182</v>
+      </c>
+      <c r="Q251">
+        <v>75.5</v>
+      </c>
+      <c r="R251">
+        <v>2517</v>
+      </c>
+      <c r="S251">
+        <v>125.05</v>
+      </c>
+      <c r="T251">
+        <v>14.49</v>
+      </c>
+      <c r="U251">
+        <v>108.77500000000001</v>
+      </c>
+      <c r="V251">
+        <v>65.97</v>
+      </c>
+      <c r="W251">
+        <v>818.6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B252">
+        <v>1890.4</v>
+      </c>
+      <c r="C252">
+        <v>26.181000000000001</v>
+      </c>
+      <c r="D252">
+        <v>1048.7</v>
+      </c>
+      <c r="E252">
+        <v>2348.5</v>
+      </c>
+      <c r="F252">
+        <v>48.36</v>
+      </c>
+      <c r="G252">
+        <v>51.5</v>
+      </c>
+      <c r="H252">
+        <v>2.6360000000000001</v>
+      </c>
+      <c r="I252">
+        <v>1.4952000000000001</v>
+      </c>
+      <c r="J252">
+        <v>2067</v>
+      </c>
+      <c r="K252">
+        <v>221.9</v>
+      </c>
+      <c r="L252">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="M252">
+        <v>1309.4000000000001</v>
+      </c>
+      <c r="N252">
+        <v>3.6015000000000001</v>
+      </c>
+      <c r="O252">
+        <v>432.5</v>
+      </c>
+      <c r="P252">
+        <v>1201.5</v>
+      </c>
+      <c r="Q252">
+        <v>77.16</v>
+      </c>
+      <c r="R252">
+        <v>2541</v>
+      </c>
+      <c r="S252">
+        <v>125.05</v>
+      </c>
+      <c r="T252">
+        <v>14.68</v>
+      </c>
+      <c r="U252">
+        <v>109.35</v>
+      </c>
+      <c r="V252">
+        <v>65.5</v>
+      </c>
+      <c r="W252">
+        <v>840.1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B253">
+        <v>1888.9</v>
+      </c>
+      <c r="C253">
+        <v>26.033000000000001</v>
+      </c>
+      <c r="D253">
+        <v>1043.9000000000001</v>
+      </c>
+      <c r="E253">
+        <v>2363.5</v>
+      </c>
+      <c r="F253">
+        <v>49.1</v>
+      </c>
+      <c r="G253">
+        <v>52.26</v>
+      </c>
+      <c r="H253">
+        <v>2.7</v>
+      </c>
+      <c r="I253">
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="J253">
+        <v>2057</v>
+      </c>
+      <c r="K253">
+        <v>222.8</v>
+      </c>
+      <c r="L253">
+        <v>159.44999999999999</v>
+      </c>
+      <c r="M253">
+        <v>1308.3</v>
+      </c>
+      <c r="N253">
+        <v>3.6324999999999998</v>
+      </c>
+      <c r="O253">
+        <v>437.5</v>
+      </c>
+      <c r="P253">
+        <v>1217.8800000000001</v>
+      </c>
+      <c r="Q253">
+        <v>77.03</v>
+      </c>
+      <c r="R253">
+        <v>2506</v>
+      </c>
+      <c r="S253">
+        <v>123.7</v>
+      </c>
+      <c r="T253">
+        <v>14.44</v>
+      </c>
+      <c r="U253">
+        <v>110.47499999999999</v>
+      </c>
+      <c r="V253">
+        <v>65.8</v>
+      </c>
+      <c r="W253">
+        <v>850.3</v>
       </c>
     </row>
   </sheetData>

--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Equities" sheetId="1" r:id="rId1"/>
@@ -46,55 +46,19 @@
     <t>Indices</t>
   </si>
   <si>
-    <t>PX</t>
-  </si>
-  <si>
     <t>HNX 30</t>
   </si>
   <si>
     <t>BIST 100</t>
   </si>
   <si>
-    <t>DAX</t>
-  </si>
-  <si>
-    <t>S&amp;P CLX IPSA</t>
-  </si>
-  <si>
-    <t>OMXC25</t>
-  </si>
-  <si>
-    <t>ATX</t>
-  </si>
-  <si>
-    <t>COLCAP</t>
-  </si>
-  <si>
-    <t>Athens General Composite</t>
-  </si>
-  <si>
-    <t>Karachi 100</t>
+    <t>NZX 50</t>
   </si>
   <si>
     <t>SmallCap 2000</t>
   </si>
   <si>
-    <t>Nasdaq 100</t>
-  </si>
-  <si>
-    <t>IDX Composite</t>
-  </si>
-  <si>
-    <t>AEX</t>
-  </si>
-  <si>
-    <t>Euro Stoxx 50</t>
-  </si>
-  <si>
-    <t>FTSE/JSE Top 40</t>
-  </si>
-  <si>
-    <t>ISEQ Overall</t>
+    <t>PSI 20</t>
   </si>
   <si>
     <t>SZSE Component</t>
@@ -103,100 +67,67 @@
     <t>China A50</t>
   </si>
   <si>
-    <t>FTSE MIB</t>
+    <t>Taiwan Weighted</t>
   </si>
   <si>
-    <t>FTSE Singapore</t>
+    <t>KOSPI</t>
+  </si>
+  <si>
+    <t>DJ Shanghai</t>
+  </si>
+  <si>
+    <t>IBEX 35</t>
+  </si>
+  <si>
+    <t>ATX</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>FTSE MIB</t>
   </si>
   <si>
     <t>BSE Sensex</t>
   </si>
   <si>
-    <t>DJ Shanghai</t>
+    <t>BSE SOFIX</t>
+  </si>
+  <si>
+    <t>Bahrain All Share</t>
+  </si>
+  <si>
+    <t>Tunindex</t>
   </si>
   <si>
     <t>Nifty 50</t>
   </si>
   <si>
-    <t>Cyprus Main Market</t>
-  </si>
-  <si>
-    <t>Bovespa</t>
-  </si>
-  <si>
     <t>OMXS30</t>
   </si>
   <si>
-    <t>FTSE 100</t>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>ISEQ Overall</t>
+  </si>
+  <si>
+    <t>Nasdaq 100</t>
+  </si>
+  <si>
+    <t>Tadawul All Share</t>
+  </si>
+  <si>
+    <t>S&amp;P Lima General</t>
   </si>
   <si>
     <t>S&amp;P/ASX 200</t>
   </si>
   <si>
-    <t>BSE SOFIX</t>
+    <t>OMXC25</t>
   </si>
   <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>OMX Helsinki 25</t>
-  </si>
-  <si>
-    <t>KOSDAQ</t>
-  </si>
-  <si>
-    <t>S&amp;P Lima General</t>
-  </si>
-  <si>
-    <t>S&amp;P/BMV IPC</t>
-  </si>
-  <si>
-    <t>Budapest SE</t>
-  </si>
-  <si>
-    <t>Nikkei 225</t>
-  </si>
-  <si>
-    <t>PSI 20</t>
-  </si>
-  <si>
-    <t>SMI</t>
-  </si>
-  <si>
-    <t>CAC 40</t>
-  </si>
-  <si>
-    <t>S&amp;P 500</t>
-  </si>
-  <si>
-    <t>BEL 20</t>
-  </si>
-  <si>
-    <t>WIG20</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>Tadawul All Share</t>
-  </si>
-  <si>
-    <t>PSEi Composite</t>
-  </si>
-  <si>
-    <t>IBEX 35</t>
-  </si>
-  <si>
-    <t>Tunindex</t>
-  </si>
-  <si>
-    <t>MSM 30</t>
-  </si>
-  <si>
-    <t>Bahrain All Share</t>
-  </si>
-  <si>
-    <t>Taiwan Weighted</t>
+    <t>FTSE/JSE Top 40</t>
   </si>
   <si>
     <t>S&amp;P/TSX</t>
@@ -205,25 +136,91 @@
     <t>Hang Seng</t>
   </si>
   <si>
-    <t>MOEX</t>
+    <t>MSM 30</t>
   </si>
   <si>
-    <t>KOSPI</t>
+    <t>FTSE Singapore</t>
+  </si>
+  <si>
+    <t>AEX</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>BEL 20</t>
+  </si>
+  <si>
+    <t>CAC 40</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50</t>
+  </si>
+  <si>
+    <t>Karachi 100</t>
+  </si>
+  <si>
+    <t>PSEi Composite</t>
+  </si>
+  <si>
+    <t>S&amp;P CLX IPSA</t>
+  </si>
+  <si>
+    <t>Nikkei 225</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>KLCI</t>
+  </si>
+  <si>
+    <t>S&amp;P/BMV IPC</t>
+  </si>
+  <si>
+    <t>EGX 30</t>
+  </si>
+  <si>
+    <t>OMX Helsinki 25</t>
   </si>
   <si>
     <t>RTSI</t>
   </si>
   <si>
-    <t>NZX 50</t>
+    <t>SMI</t>
   </si>
   <si>
-    <t>EGX 30</t>
+    <t>WIG20</t>
   </si>
   <si>
-    <t>KLCI</t>
+    <t>IDX Composite</t>
   </si>
   <si>
-    <t>Czech Republic</t>
+    <t>MOEX</t>
+  </si>
+  <si>
+    <t>Athens General Composite</t>
+  </si>
+  <si>
+    <t>KOSDAQ</t>
+  </si>
+  <si>
+    <t>COLCAP</t>
+  </si>
+  <si>
+    <t>Bovespa</t>
+  </si>
+  <si>
+    <t>Budapest SE</t>
+  </si>
+  <si>
+    <t>Cyprus Main Market</t>
   </si>
   <si>
     <t>Vietnam</t>
@@ -232,127 +229,64 @@
     <t>Turkey</t>
   </si>
   <si>
-    <t>Germany</t>
+    <t>New Zealand</t>
   </si>
   <si>
-    <t>Chile</t>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Australia</t>
   </si>
   <si>
     <t>Denmark</t>
   </si>
   <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
     <t>South Africa</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
   </si>
   <si>
     <t>Canada</t>
@@ -361,16 +295,82 @@
     <t>Hong Kong</t>
   </si>
   <si>
-    <t>Russia</t>
+    <t>Oman</t>
   </si>
   <si>
-    <t>New Zealand</t>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Mexico</t>
   </si>
   <si>
     <t>Egypt</t>
   </si>
   <si>
-    <t>Malaysia</t>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
   </si>
   <si>
     <t>Date</t>
@@ -815,7 +815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -853,22 +853,22 @@
         <v>67</v>
       </c>
       <c r="C2">
-        <v>1009.23</v>
+        <v>309.91000000000003</v>
       </c>
       <c r="D2">
-        <v>40.720000000000027</v>
+        <v>17.57000000000005</v>
       </c>
       <c r="E2">
-        <v>4.2043964440222632E-2</v>
+        <v>6.0101251966887981E-2</v>
       </c>
       <c r="F2">
-        <v>-9.7636865963895869E-2</v>
+        <v>0.74332002025088606</v>
       </c>
       <c r="G2">
-        <v>6.0488144822689938E-2</v>
+        <v>5.9872008265381638E-2</v>
       </c>
       <c r="H2">
-        <v>-3.759430223246496E-2</v>
+        <v>0.74678784603595894</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -879,22 +879,22 @@
         <v>68</v>
       </c>
       <c r="C3">
-        <v>292.33999999999997</v>
+        <v>1426.03</v>
       </c>
       <c r="D3">
-        <v>15.51999999999998</v>
+        <v>17.71000000000004</v>
       </c>
       <c r="E3">
-        <v>5.6065313199913147E-2</v>
+        <v>1.257526698477629E-2</v>
       </c>
       <c r="F3">
-        <v>0.64448444619452072</v>
+        <v>0.27994937754122029</v>
       </c>
       <c r="G3">
-        <v>5.6430779842784551E-2</v>
+        <v>2.909928402982009E-2</v>
       </c>
       <c r="H3">
-        <v>0.64811206675304533</v>
+        <v>8.5273632955500389E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -905,22 +905,22 @@
         <v>69</v>
       </c>
       <c r="C4">
-        <v>1408.32</v>
+        <v>13037.94</v>
       </c>
       <c r="D4">
-        <v>37.619999999999891</v>
+        <v>355.94000000000051</v>
       </c>
       <c r="E4">
-        <v>2.7445830597504939E-2</v>
+        <v>2.80665510171898E-2</v>
       </c>
       <c r="F4">
-        <v>0.26405356645992822</v>
+        <v>0.12131944420554359</v>
       </c>
       <c r="G4">
-        <v>5.2619101647925381E-2</v>
+        <v>2.6569656280115431E-2</v>
       </c>
       <c r="H4">
-        <v>-1.999021965471881E-2</v>
+        <v>0.20256226385635159</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -931,22 +931,22 @@
         <v>70</v>
       </c>
       <c r="C5">
-        <v>13630.51</v>
+        <v>2003.95</v>
       </c>
       <c r="D5">
-        <v>516.21000000000095</v>
+        <v>33.960000000000043</v>
       </c>
       <c r="E5">
-        <v>3.9362375422248963E-2</v>
+        <v>1.7238666186122801E-2</v>
       </c>
       <c r="F5">
-        <v>3.8357612826702907E-2</v>
+        <v>0.20483267799381941</v>
       </c>
       <c r="G5">
-        <v>4.9497497451212569E-2</v>
+        <v>1.7238666186122801E-2</v>
       </c>
       <c r="H5">
-        <v>0.1407570357339496</v>
+        <v>0.20483267799381941</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -957,22 +957,22 @@
         <v>71</v>
       </c>
       <c r="C6">
-        <v>4210.6899999999996</v>
+        <v>4854.8999999999996</v>
       </c>
       <c r="D6">
-        <v>124.7999999999997</v>
+        <v>91.869999999999891</v>
       </c>
       <c r="E6">
-        <v>3.054414093379898E-2</v>
+        <v>1.9288142211995259E-2</v>
       </c>
       <c r="F6">
-        <v>-0.13792919893784089</v>
+        <v>-7.2766859565690734E-2</v>
       </c>
       <c r="G6">
-        <v>4.8972163263963031E-2</v>
+        <v>1.280502257487059E-2</v>
       </c>
       <c r="H6">
-        <v>-8.7261378949026525E-2</v>
+        <v>1.219461990513393E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -983,22 +983,22 @@
         <v>72</v>
       </c>
       <c r="C7">
-        <v>1633.67</v>
+        <v>14017.06</v>
       </c>
       <c r="D7">
-        <v>51.700000000000053</v>
+        <v>162.93999999999869</v>
       </c>
       <c r="E7">
-        <v>3.2680771443200703E-2</v>
+        <v>1.176112232317883E-2</v>
       </c>
       <c r="F7">
-        <v>0.32263836264127721</v>
+        <v>0.3102174463721703</v>
       </c>
       <c r="G7">
-        <v>4.3256919347943512E-2</v>
+        <v>1.224160944990693E-2</v>
       </c>
       <c r="H7">
-        <v>0.45948213624508671</v>
+        <v>0.39761220502693712</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1006,25 +1006,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8">
-        <v>2713.69</v>
+        <v>16987.04</v>
       </c>
       <c r="D8">
-        <v>81.519999999999982</v>
+        <v>98.479999999999563</v>
       </c>
       <c r="E8">
-        <v>3.097064399335903E-2</v>
+        <v>5.8311661858678754E-3</v>
       </c>
       <c r="F8">
-        <v>-0.15269737787019849</v>
+        <v>0.18451040305474239</v>
       </c>
       <c r="G8">
-        <v>4.1023935830969423E-2</v>
+        <v>6.3088371660540146E-3</v>
       </c>
       <c r="H8">
-        <v>-6.9139171658665677E-2</v>
+        <v>0.26352018962540957</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1032,25 +1032,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9">
-        <v>1426.47</v>
+        <v>14331.42</v>
       </c>
       <c r="D9">
-        <v>48.799999999999947</v>
+        <v>81.460000000000946</v>
       </c>
       <c r="E9">
-        <v>3.5422125763063583E-2</v>
+        <v>5.7165072744065348E-3</v>
       </c>
       <c r="F9">
-        <v>-0.1491330100388312</v>
+        <v>0.19894489917479261</v>
       </c>
       <c r="G9">
-        <v>3.734883693644897E-2</v>
+        <v>6.2172918877163594E-3</v>
       </c>
       <c r="H9">
-        <v>-0.18789437996324879</v>
+        <v>0.28086745657531131</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1058,25 +1058,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10">
-        <v>800.06</v>
+        <v>2806.86</v>
       </c>
       <c r="D10">
-        <v>21.019999999999978</v>
+        <v>34.680000000000291</v>
       </c>
       <c r="E10">
-        <v>2.698192647360842E-2</v>
+        <v>1.2510010172499751E-2</v>
       </c>
       <c r="F10">
-        <v>-0.13045462943842459</v>
+        <v>0.30244493218317731</v>
       </c>
       <c r="G10">
-        <v>3.6996323177281187E-2</v>
+        <v>5.3757886935106303E-3</v>
       </c>
       <c r="H10">
-        <v>-4.4702916312559633E-2</v>
+        <v>0.38052683430010847</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1084,25 +1084,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C11">
-        <v>43740.55</v>
+        <v>510.14</v>
       </c>
       <c r="D11">
-        <v>1270.160000000003</v>
+        <v>1.680000000000007</v>
       </c>
       <c r="E11">
-        <v>2.9906953997832501E-2</v>
+        <v>3.3040947173819109E-3</v>
       </c>
       <c r="F11">
-        <v>5.9189650195756498E-2</v>
+        <v>0.15114179980142589</v>
       </c>
       <c r="G11">
-        <v>3.119549097966989E-2</v>
+        <v>3.7805655869074251E-3</v>
       </c>
       <c r="H11">
-        <v>2.3408358841911388E-2</v>
+        <v>0.2279258176372583</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1110,25 +1110,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12">
-        <v>1969.99</v>
+        <v>8111.5</v>
       </c>
       <c r="D12">
-        <v>58.289999999999957</v>
+        <v>74.100000000000364</v>
       </c>
       <c r="E12">
-        <v>3.0491185855521241E-2</v>
+        <v>9.2193993082341219E-3</v>
       </c>
       <c r="F12">
-        <v>0.18441494414583401</v>
+        <v>-0.15513128977491689</v>
       </c>
       <c r="G12">
-        <v>3.0491185855521241E-2</v>
+        <v>2.8003212920575389E-3</v>
       </c>
       <c r="H12">
-        <v>0.18441494414583401</v>
+        <v>-7.7716783703974834E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1136,25 +1136,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13">
-        <v>12738.18</v>
+        <v>2737.12</v>
       </c>
       <c r="D13">
-        <v>362.77000000000038</v>
+        <v>23.42999999999984</v>
       </c>
       <c r="E13">
-        <v>2.9313776270846859E-2</v>
+        <v>8.6340001989910764E-3</v>
       </c>
       <c r="F13">
-        <v>0.43958474364610528</v>
+        <v>-0.1453817668621242</v>
       </c>
       <c r="G13">
-        <v>2.9313776270846859E-2</v>
+        <v>2.21864557790119E-3</v>
       </c>
       <c r="H13">
-        <v>0.43958474364610528</v>
+        <v>-6.7073921398224767E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1162,25 +1162,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C14">
-        <v>6104.32</v>
+        <v>3396.56</v>
       </c>
       <c r="D14">
-        <v>165.98999999999981</v>
+        <v>1.659999999999854</v>
       </c>
       <c r="E14">
-        <v>2.795230308857866E-2</v>
+        <v>4.8896874723847183E-4</v>
       </c>
       <c r="F14">
-        <v>-2.446383481957359E-2</v>
+        <v>0.1015596368955152</v>
       </c>
       <c r="G14">
-        <v>2.7857402093774079E-2</v>
+        <v>9.6410270851654545E-4</v>
       </c>
       <c r="H14">
-        <v>-3.4826121654394693E-2</v>
+        <v>0.17503640128823261</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1188,25 +1188,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15">
-        <v>625.25</v>
+        <v>22130.18</v>
       </c>
       <c r="D15">
-        <v>10.78999999999996</v>
+        <v>154.06000000000131</v>
       </c>
       <c r="E15">
-        <v>1.756013410148749E-2</v>
+        <v>7.0103366745357656E-3</v>
       </c>
       <c r="F15">
-        <v>2.9658784006323598E-2</v>
+        <v>-6.1536497791257361E-2</v>
       </c>
       <c r="G15">
-        <v>2.748265619272372E-2</v>
+        <v>6.0530926558888254E-4</v>
       </c>
       <c r="H15">
-        <v>0.131200356939561</v>
+        <v>2.445400891095106E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1214,25 +1214,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C16">
-        <v>3545.74</v>
+        <v>46973.54</v>
       </c>
       <c r="D16">
-        <v>59.899999999999643</v>
+        <v>12.849999999998539</v>
       </c>
       <c r="E16">
-        <v>1.718380648566753E-2</v>
+        <v>2.7363311740091772E-4</v>
       </c>
       <c r="F16">
-        <v>-5.5104303241555019E-2</v>
+        <v>0.15480412217039621</v>
       </c>
       <c r="G16">
-        <v>2.7102658897877999E-2</v>
+        <v>-1.0715115390924621E-4</v>
       </c>
       <c r="H16">
-        <v>3.8078211973223697E-2</v>
+        <v>0.12612473645639399</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1240,25 +1240,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17">
-        <v>54692.4</v>
+        <v>444.67</v>
       </c>
       <c r="D17">
-        <v>233.7900000000009</v>
+        <v>2.370000000000005</v>
       </c>
       <c r="E17">
-        <v>4.2929850761890256E-3</v>
+        <v>5.3583540583315159E-3</v>
       </c>
       <c r="F17">
-        <v>7.2408200768594222E-2</v>
+        <v>-0.22076579339349861</v>
       </c>
       <c r="G17">
-        <v>2.6768327489848479E-2</v>
+        <v>-2.43484447457365E-4</v>
       </c>
       <c r="H17">
-        <v>4.9581305065955483E-2</v>
+        <v>-0.14980657094087529</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1266,25 +1266,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18">
-        <v>7423.99</v>
+        <v>1492.91</v>
       </c>
       <c r="D18">
-        <v>109.1999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="E18">
-        <v>1.4928658238992479E-2</v>
+        <v>-3.3480423996090641E-4</v>
       </c>
       <c r="F18">
-        <v>2.9588219630989791E-2</v>
+        <v>-5.7583657906863712E-2</v>
       </c>
       <c r="G18">
-        <v>2.4825520050798518E-2</v>
+        <v>-3.4274975959580622E-4</v>
       </c>
       <c r="H18">
-        <v>0.1311228337369188</v>
+        <v>-5.8026402512602833E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1292,25 +1292,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19">
-        <v>13854.12</v>
+        <v>6868.24</v>
       </c>
       <c r="D19">
-        <v>298.98000000000138</v>
+        <v>19.21000000000004</v>
       </c>
       <c r="E19">
-        <v>2.205657780000814E-2</v>
+        <v>2.804776734807612E-3</v>
       </c>
       <c r="F19">
-        <v>0.29498694648760959</v>
+        <v>-1.4046617255878189E-2</v>
       </c>
       <c r="G19">
-        <v>2.3981107766011919E-2</v>
+        <v>-5.4166866734428609E-4</v>
       </c>
       <c r="H19">
-        <v>0.38071009132538619</v>
+        <v>1.8855035879216331E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1318,25 +1318,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C20">
-        <v>16888.560000000001</v>
+        <v>13749.25</v>
       </c>
       <c r="D20">
-        <v>363.15000000000151</v>
+        <v>-11.299999999999271</v>
       </c>
       <c r="E20">
-        <v>2.1975249025591559E-2</v>
+        <v>-8.2118810657993979E-4</v>
       </c>
       <c r="F20">
-        <v>0.17764336886321599</v>
+        <v>0.146434810160885</v>
       </c>
       <c r="G20">
-        <v>2.3899625849717721E-2</v>
+        <v>-1.201555601232029E-3</v>
       </c>
       <c r="H20">
-        <v>0.25559882111709298</v>
+        <v>0.1179632750448099</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1344,25 +1344,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21">
-        <v>21976.12</v>
+        <v>1867.99</v>
       </c>
       <c r="D21">
-        <v>273.95999999999913</v>
+        <v>-18.8900000000001</v>
       </c>
       <c r="E21">
-        <v>1.262362824714214E-2</v>
+        <v>-1.0011235478673891E-2</v>
       </c>
       <c r="F21">
-        <v>-6.8069643348603992E-2</v>
+        <v>4.6358172336337537E-2</v>
       </c>
       <c r="G21">
-        <v>2.2498013047272281E-2</v>
+        <v>-1.669408489675339E-3</v>
       </c>
       <c r="H21">
-        <v>2.3834272539355439E-2</v>
+        <v>0.19959113980869089</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1370,25 +1370,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C22">
-        <v>297.27999999999997</v>
+        <v>3703.06</v>
       </c>
       <c r="D22">
-        <v>4.2899999999999636</v>
+        <v>-6.3499999999999091</v>
       </c>
       <c r="E22">
-        <v>1.464213795692682E-2</v>
+        <v>-1.7118625333947259E-3</v>
       </c>
       <c r="F22">
-        <v>-0.1150010419457594</v>
+        <v>0.14070874970735739</v>
       </c>
       <c r="G22">
-        <v>2.1544289671337591E-2</v>
+        <v>-1.7118625333947259E-3</v>
       </c>
       <c r="H22">
-        <v>-9.9116178898116414E-2</v>
+        <v>0.14070874970735739</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1396,25 +1396,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23">
-        <v>46960.69</v>
+        <v>7455.76</v>
       </c>
       <c r="D23">
-        <v>861.68000000000029</v>
+        <v>31.77000000000044</v>
       </c>
       <c r="E23">
-        <v>1.8691941540610161E-2</v>
+        <v>4.2793699883756364E-3</v>
       </c>
       <c r="F23">
-        <v>0.15448821596086029</v>
+        <v>3.399420855846369E-2</v>
       </c>
       <c r="G23">
-        <v>2.141986646301941E-2</v>
+        <v>-2.1082872746642778E-3</v>
       </c>
       <c r="H23">
-        <v>0.12624541495219119</v>
+        <v>0.128738101860469</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1422,25 +1422,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C24">
-        <v>508.46</v>
+        <v>12711.01</v>
       </c>
       <c r="D24">
-        <v>9.6800000000000068</v>
+        <v>-27.170000000000069</v>
       </c>
       <c r="E24">
-        <v>1.940735394362236E-2</v>
+        <v>-2.1329577694773061E-3</v>
       </c>
       <c r="F24">
-        <v>0.14735084393898351</v>
+        <v>0.43651417018232452</v>
       </c>
       <c r="G24">
-        <v>2.1326895427766109E-2</v>
+        <v>-2.1329577694773061E-3</v>
       </c>
       <c r="H24">
-        <v>0.2233010477935424</v>
+        <v>0.43651417018232452</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1448,25 +1448,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25">
-        <v>13760.55</v>
+        <v>8702.68</v>
       </c>
       <c r="D25">
-        <v>246.69999999999891</v>
+        <v>-8.8999999999996362</v>
       </c>
       <c r="E25">
-        <v>1.825534544189833E-2</v>
+        <v>-1.021628682741804E-3</v>
       </c>
       <c r="F25">
-        <v>0.14737702252554599</v>
+        <v>6.0509643400726183E-2</v>
       </c>
       <c r="G25">
-        <v>2.098210121657007E-2</v>
+        <v>-2.174481687575502E-3</v>
       </c>
       <c r="H25">
-        <v>0.1193081860652814</v>
+        <v>6.0258172794162013E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1474,25 +1474,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26">
-        <v>35.79</v>
+        <v>20835.73</v>
       </c>
       <c r="D26">
-        <v>0.33999999999999631</v>
+        <v>93.360000000000582</v>
       </c>
       <c r="E26">
-        <v>9.5909732016923321E-3</v>
+        <v>4.5009321499906996E-3</v>
       </c>
       <c r="F26">
-        <v>-0.2106307895897663</v>
+        <v>1.299761430039004E-2</v>
       </c>
       <c r="G26">
-        <v>1.9435785708574072E-2</v>
+        <v>-2.5906656003263921E-3</v>
       </c>
       <c r="H26">
-        <v>-0.1327857864730537</v>
+        <v>-7.0577486488470842E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1500,25 +1500,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27">
-        <v>118023.67</v>
+        <v>6664.8</v>
       </c>
       <c r="D27">
-        <v>2895.6699999999978</v>
+        <v>-10.69999999999982</v>
       </c>
       <c r="E27">
-        <v>2.5151744145646578E-2</v>
+        <v>-1.6028761890495289E-3</v>
       </c>
       <c r="F27">
-        <v>9.8029636393255348E-3</v>
+        <v>-1.0526003236486109E-2</v>
       </c>
       <c r="G27">
-        <v>1.8522741791146661E-2</v>
+        <v>-2.7116668698784489E-3</v>
       </c>
       <c r="H27">
-        <v>-0.18986515675982529</v>
+        <v>8.3889521895444519E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1526,25 +1526,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28">
-        <v>1886.88</v>
+        <v>1649.42</v>
       </c>
       <c r="D28">
-        <v>-4.3399999999999181</v>
+        <v>5.5800000000001546</v>
       </c>
       <c r="E28">
-        <v>-2.294814987151117E-3</v>
+        <v>3.394490948024131E-3</v>
       </c>
       <c r="F28">
-        <v>5.6939441976664229E-2</v>
+        <v>0.33538974707730168</v>
       </c>
       <c r="G28">
-        <v>1.7737977627936941E-2</v>
+        <v>-2.768824305403927E-3</v>
       </c>
       <c r="H28">
-        <v>0.20159709620225999</v>
+        <v>0.46450156754467309</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1552,25 +1552,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29">
-        <v>6529.18</v>
+        <v>54125.23</v>
       </c>
       <c r="D29">
-        <v>-17.569999999999709</v>
+        <v>-567.16999999999825</v>
       </c>
       <c r="E29">
-        <v>-2.6837743918738388E-3</v>
+        <v>-1.037017940335405E-2</v>
       </c>
       <c r="F29">
-        <v>-0.13810073211235399</v>
+        <v>6.128713533299579E-2</v>
       </c>
       <c r="G29">
-        <v>1.714318413847438E-2</v>
+        <v>-3.9429323499591273E-3</v>
       </c>
       <c r="H29">
-        <v>-0.1058076654341233</v>
+        <v>4.5442876984298719E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1578,25 +1578,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30">
-        <v>6675.5</v>
+        <v>17623.88</v>
       </c>
       <c r="D30">
-        <v>32.899999999999643</v>
+        <v>89.25</v>
       </c>
       <c r="E30">
-        <v>4.9528798964260101E-3</v>
+        <v>5.0899277600953141E-3</v>
       </c>
       <c r="F30">
-        <v>-8.9374526775242158E-3</v>
+        <v>3.030667967615042E-2</v>
       </c>
       <c r="G30">
-        <v>1.7090477885948859E-2</v>
+        <v>-4.0783579430279096E-3</v>
       </c>
       <c r="H30">
-        <v>8.683666086167241E-2</v>
+        <v>4.1405140412459129E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1604,25 +1604,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31">
-        <v>442.3</v>
+        <v>26386.560000000001</v>
       </c>
       <c r="D31">
-        <v>3.8500000000000232</v>
+        <v>-112.03999999999721</v>
       </c>
       <c r="E31">
-        <v>8.7809328315657798E-3</v>
+        <v>-4.2281479021532009E-3</v>
       </c>
       <c r="F31">
-        <v>-0.22491895207219839</v>
+        <v>-6.5174577227744779E-2</v>
       </c>
       <c r="G31">
-        <v>1.67578662771295E-2</v>
+        <v>-4.3836640323448028E-3</v>
       </c>
       <c r="H31">
-        <v>-0.14959951164785121</v>
+        <v>-6.1774514376822347E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1630,25 +1630,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C32">
-        <v>3394.9</v>
+        <v>3599.68</v>
       </c>
       <c r="D32">
-        <v>47.710000000000043</v>
+        <v>-13.150000000000089</v>
       </c>
       <c r="E32">
-        <v>1.4253747173001759E-2</v>
+        <v>-3.6398059139234329E-3</v>
       </c>
       <c r="F32">
-        <v>0.1010212719035095</v>
+        <v>-8.9101394557909219E-2</v>
       </c>
       <c r="G32">
-        <v>1.6163584428555481E-2</v>
+        <v>-4.3896844097951471E-3</v>
       </c>
       <c r="H32">
-        <v>0.17390463664849981</v>
+        <v>-8.9820175697221782E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1659,22 +1659,22 @@
         <v>92</v>
       </c>
       <c r="C33">
-        <v>4575.42</v>
+        <v>296.26</v>
       </c>
       <c r="D33">
-        <v>27.470000000000251</v>
+        <v>-1.019999999999982</v>
       </c>
       <c r="E33">
-        <v>6.0400839938874462E-3</v>
+        <v>-3.4311087190527219E-3</v>
       </c>
       <c r="F33">
-        <v>7.266491148689358E-2</v>
+        <v>-0.1180375695870919</v>
       </c>
       <c r="G33">
-        <v>1.5850270756867509E-2</v>
+        <v>-4.4822061340648034E-3</v>
       </c>
       <c r="H33">
-        <v>0.17844760769123361</v>
+        <v>-0.1031541258871389</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1685,22 +1685,22 @@
         <v>93</v>
       </c>
       <c r="C34">
-        <v>947.24</v>
+        <v>626.37</v>
       </c>
       <c r="D34">
-        <v>18.799999999999951</v>
+        <v>1.120000000000005</v>
       </c>
       <c r="E34">
-        <v>2.0249019861272591E-2</v>
+        <v>1.7912834866053991E-3</v>
       </c>
       <c r="F34">
-        <v>0.44548381681952082</v>
+        <v>3.1503194782952271E-2</v>
       </c>
       <c r="G34">
-        <v>1.4840233547633639E-2</v>
+        <v>-4.5805484550258679E-3</v>
       </c>
       <c r="H34">
-        <v>0.54301312233977028</v>
+        <v>0.12601883889225671</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1711,22 +1711,22 @@
         <v>94</v>
       </c>
       <c r="C35">
-        <v>20742.37</v>
+        <v>1486.31</v>
       </c>
       <c r="D35">
-        <v>268.36999999999898</v>
+        <v>3.9299999999998358</v>
       </c>
       <c r="E35">
-        <v>1.3107844094949689E-2</v>
+        <v>2.6511420823269738E-3</v>
       </c>
       <c r="F35">
-        <v>8.4586105183730442E-3</v>
+        <v>-5.2400382531080703E-2</v>
       </c>
       <c r="G35">
-        <v>1.4802768725777019E-2</v>
+        <v>-5.064214009332324E-3</v>
       </c>
       <c r="H35">
-        <v>-6.816340948830657E-2</v>
+        <v>-4.8486272518512667E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1737,22 +1737,22 @@
         <v>95</v>
       </c>
       <c r="C36">
-        <v>43873.81</v>
+        <v>6502.11</v>
       </c>
       <c r="D36">
-        <v>261.5</v>
+        <v>-27.070000000000618</v>
       </c>
       <c r="E36">
-        <v>5.9960135108643184E-3</v>
+        <v>-4.1460030202874476E-3</v>
       </c>
       <c r="F36">
-        <v>-1.3967542639335081E-2</v>
+        <v>-0.14167416908019981</v>
       </c>
       <c r="G36">
-        <v>1.458330387969942E-2</v>
+        <v>-5.4794082667065647E-3</v>
       </c>
       <c r="H36">
-        <v>-5.7579600815024452E-2</v>
+        <v>-0.11070731030416921</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1763,22 +1763,22 @@
         <v>96</v>
       </c>
       <c r="C37">
-        <v>41614.92</v>
+        <v>3659.16</v>
       </c>
       <c r="D37">
-        <v>351.25</v>
+        <v>1.829999999999927</v>
       </c>
       <c r="E37">
-        <v>8.5123305803871396E-3</v>
+        <v>5.0036502038364183E-4</v>
       </c>
       <c r="F37">
-        <v>-6.8157736578445149E-2</v>
+        <v>-7.8710301174788166E-2</v>
       </c>
       <c r="G37">
-        <v>1.4535320043003839E-2</v>
+        <v>-5.8632561136146011E-3</v>
       </c>
       <c r="H37">
-        <v>-5.065830265125737E-2</v>
+        <v>5.7065864666063781E-3</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1789,22 +1789,22 @@
         <v>97</v>
       </c>
       <c r="C38">
-        <v>26763.39</v>
+        <v>5522.01</v>
       </c>
       <c r="D38">
-        <v>110.869999999999</v>
+        <v>-5.8299999999999272</v>
       </c>
       <c r="E38">
-        <v>4.1598317907649562E-3</v>
+        <v>-1.054661495267561E-3</v>
       </c>
       <c r="F38">
-        <v>0.15335278902781571</v>
+        <v>-8.1744847919462349E-2</v>
       </c>
       <c r="G38">
-        <v>1.439326719776823E-2</v>
+        <v>-7.4083919786025474E-3</v>
       </c>
       <c r="H38">
-        <v>0.20740214885313879</v>
+        <v>2.3939871268425779E-3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1815,22 +1815,22 @@
         <v>98</v>
       </c>
       <c r="C39">
-        <v>4763.03</v>
+        <v>3539.26</v>
       </c>
       <c r="D39">
-        <v>20.359999999999669</v>
+        <v>-6.4799999999995634</v>
       </c>
       <c r="E39">
-        <v>4.2929404744584954E-3</v>
+        <v>-1.827545166876221E-3</v>
       </c>
       <c r="F39">
-        <v>-9.0313031188525406E-2</v>
+        <v>-5.6831142805368051E-2</v>
       </c>
       <c r="G39">
-        <v>1.408609033751773E-2</v>
+        <v>-8.1763597710784452E-3</v>
       </c>
       <c r="H39">
-        <v>-6.026852712328612E-4</v>
+        <v>2.959051104161281E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1841,22 +1841,22 @@
         <v>99</v>
       </c>
       <c r="C40">
-        <v>10523.86</v>
+        <v>43416.77</v>
       </c>
       <c r="D40">
-        <v>132.10000000000039</v>
+        <v>-323.78000000000611</v>
       </c>
       <c r="E40">
-        <v>1.271199488825769E-2</v>
+        <v>-7.4022846077611559E-3</v>
       </c>
       <c r="F40">
-        <v>-1.327187609290215E-2</v>
+        <v>5.1349226951412419E-2</v>
       </c>
       <c r="G40">
-        <v>1.4014583965573649E-2</v>
+        <v>-8.3327918380348143E-3</v>
       </c>
       <c r="H40">
-        <v>8.3491501177272998E-2</v>
+        <v>1.4880510022376781E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1867,22 +1867,22 @@
         <v>100</v>
       </c>
       <c r="C41">
-        <v>5527.84</v>
+        <v>7204.38</v>
       </c>
       <c r="D41">
-        <v>20.28999999999996</v>
+        <v>-68.420000000000073</v>
       </c>
       <c r="E41">
-        <v>3.684033735508629E-3</v>
+        <v>-9.4076559234407275E-3</v>
       </c>
       <c r="F41">
-        <v>-8.0775377104192359E-2</v>
+        <v>-7.6109245216963051E-2</v>
       </c>
       <c r="G41">
-        <v>1.3471245973491589E-2</v>
+        <v>-8.5829814468969534E-3</v>
       </c>
       <c r="H41">
-        <v>9.8755409840556307E-3</v>
+        <v>-1.809925223541331E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1890,25 +1890,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C42">
-        <v>3709.41</v>
+        <v>4133.3500000000004</v>
       </c>
       <c r="D42">
-        <v>45.949999999999818</v>
+        <v>-77.339999999999236</v>
       </c>
       <c r="E42">
-        <v>1.2542787419543179E-2</v>
+        <v>-1.8367535962039331E-2</v>
       </c>
       <c r="F42">
-        <v>0.14266483482632419</v>
+        <v>-0.15376331537817409</v>
       </c>
       <c r="G42">
-        <v>1.2542787419543179E-2</v>
+        <v>-8.6102470538937936E-3</v>
       </c>
       <c r="H42">
-        <v>0.14266483482632419</v>
+        <v>-9.5120283971905528E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1916,25 +1916,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43">
-        <v>3657.33</v>
+        <v>26656.61</v>
       </c>
       <c r="D43">
-        <v>7.5900000000001464</v>
+        <v>-106.77999999999879</v>
       </c>
       <c r="E43">
-        <v>2.0796001906986379E-3</v>
+        <v>-3.9897785743883141E-3</v>
       </c>
       <c r="F43">
-        <v>-7.9171051770239087E-2</v>
+        <v>0.1487511667814414</v>
       </c>
       <c r="G43">
-        <v>1.1851167134847129E-2</v>
+        <v>-9.0057820271306488E-3</v>
       </c>
       <c r="H43">
-        <v>1.16380796217137E-2</v>
+        <v>0.19652854828147831</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1942,25 +1942,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C44">
-        <v>1952.54</v>
+        <v>13587.23</v>
       </c>
       <c r="D44">
-        <v>1.690000000000055</v>
+        <v>-43.280000000000648</v>
       </c>
       <c r="E44">
-        <v>8.6628905348962171E-4</v>
+        <v>-3.1752296869302921E-3</v>
       </c>
       <c r="F44">
-        <v>-0.10185513139555739</v>
+        <v>3.5060588908805368E-2</v>
       </c>
       <c r="G44">
-        <v>9.0718069904509591E-3</v>
+        <v>-9.5154724264998602E-3</v>
       </c>
       <c r="H44">
-        <v>-5.5719855654018817E-2</v>
+        <v>0.12990219361508731</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -1971,22 +1971,22 @@
         <v>103</v>
       </c>
       <c r="C45">
-        <v>1482.38</v>
+        <v>1008.78</v>
       </c>
       <c r="D45">
-        <v>-0.28999999999996362</v>
+        <v>-0.45000000000004547</v>
       </c>
       <c r="E45">
-        <v>-1.9559308544714329E-4</v>
+        <v>-4.4588448619253818E-4</v>
       </c>
       <c r="F45">
-        <v>-5.4905961109340103E-2</v>
+        <v>-9.8039215686274606E-2</v>
       </c>
       <c r="G45">
-        <v>8.1281056732906976E-3</v>
+        <v>-9.9518667614606482E-3</v>
       </c>
       <c r="H45">
-        <v>-4.3643076388035107E-2</v>
+        <v>-4.7172035507118133E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -1997,22 +1997,22 @@
         <v>104</v>
       </c>
       <c r="C46">
-        <v>8711.58</v>
+        <v>1641.17</v>
       </c>
       <c r="D46">
-        <v>67.610000000000582</v>
+        <v>-11.31999999999994</v>
       </c>
       <c r="E46">
-        <v>7.8216375114676939E-3</v>
+        <v>-6.8502683828646216E-3</v>
       </c>
       <c r="F46">
-        <v>6.1594198483329032E-2</v>
+        <v>2.7169287001802541E-2</v>
       </c>
       <c r="G46">
-        <v>7.4801076922899057E-3</v>
+        <v>-1.321194172295048E-2</v>
       </c>
       <c r="H46">
-        <v>6.2568708993659294E-2</v>
+        <v>3.7544703284867698E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2023,22 +2023,22 @@
         <v>105</v>
       </c>
       <c r="C47">
-        <v>7272.8</v>
+        <v>43372.2</v>
       </c>
       <c r="D47">
-        <v>26.640000000000331</v>
+        <v>-501.61000000000058</v>
       </c>
       <c r="E47">
-        <v>3.6764299987857019E-3</v>
+        <v>-1.1433016644781911E-2</v>
       </c>
       <c r="F47">
-        <v>-6.7335054316114529E-2</v>
+        <v>-2.5240868136634731E-2</v>
       </c>
       <c r="G47">
-        <v>6.8070895515586196E-3</v>
+        <v>-1.3746644603395921E-2</v>
       </c>
       <c r="H47">
-        <v>-9.5986558737963801E-3</v>
+        <v>-7.0534719109610622E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2049,22 +2049,22 @@
         <v>106</v>
       </c>
       <c r="C48">
-        <v>8037.4</v>
+        <v>10683.86</v>
       </c>
       <c r="D48">
-        <v>-25.700000000000731</v>
+        <v>-160.71999999999929</v>
       </c>
       <c r="E48">
-        <v>-3.1873597003634351E-3</v>
+        <v>-1.4820306549446769E-2</v>
       </c>
       <c r="F48">
-        <v>-0.1628493162099387</v>
+        <v>-0.19139219506140309</v>
       </c>
       <c r="G48">
-        <v>6.5328476001420546E-3</v>
+        <v>-1.416647164743623E-2</v>
       </c>
       <c r="H48">
-        <v>-8.0292260868335297E-2</v>
+        <v>-0.17378472577385401</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2075,22 +2075,22 @@
         <v>107</v>
       </c>
       <c r="C49">
-        <v>6849.03</v>
+        <v>4530.21</v>
       </c>
       <c r="D49">
-        <v>-5.5200000000004366</v>
+        <v>-45.210000000000043</v>
       </c>
       <c r="E49">
-        <v>-8.053045057663244E-4</v>
+        <v>-9.881060099400707E-3</v>
       </c>
       <c r="F49">
-        <v>-1.680426178817673E-2</v>
+        <v>6.2065845029973143E-2</v>
       </c>
       <c r="G49">
-        <v>5.1423486300350429E-3</v>
+        <v>-1.617865081641667E-2</v>
       </c>
       <c r="H49">
-        <v>1.940721682783653E-2</v>
+        <v>0.1593819153409555</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2101,22 +2101,22 @@
         <v>108</v>
       </c>
       <c r="C50">
-        <v>3612.83</v>
+        <v>1378.36</v>
       </c>
       <c r="D50">
-        <v>5.8499999999999091</v>
+        <v>-24.1400000000001</v>
       </c>
       <c r="E50">
-        <v>1.621855402580419E-3</v>
+        <v>-1.7212121212121231E-2</v>
       </c>
       <c r="F50">
-        <v>-8.5773788586944177E-2</v>
+        <v>-0.12114005164663499</v>
       </c>
       <c r="G50">
-        <v>2.4283885756313239E-3</v>
+        <v>-1.7212121212121231E-2</v>
       </c>
       <c r="H50">
-        <v>-8.5807157629521735E-2</v>
+        <v>-0.12114005164663499</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2127,22 +2127,22 @@
         <v>109</v>
       </c>
       <c r="C51">
-        <v>1493.41</v>
+        <v>10411.92</v>
       </c>
       <c r="D51">
-        <v>3.0199999999999818</v>
+        <v>-111.9400000000005</v>
       </c>
       <c r="E51">
-        <v>2.026315259764155E-3</v>
+        <v>-1.0636781561138229E-2</v>
       </c>
       <c r="F51">
-        <v>-5.7268027245238717E-2</v>
+        <v>-2.3767487607133649E-2</v>
       </c>
       <c r="G51">
-        <v>2.1012209440556262E-3</v>
+        <v>-1.7499866190619939E-2</v>
       </c>
       <c r="H51">
-        <v>-5.7703430589969518E-2</v>
+        <v>6.4530544887996921E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2153,22 +2153,22 @@
         <v>110</v>
       </c>
       <c r="C52">
-        <v>14249.96</v>
+        <v>1955.84</v>
       </c>
       <c r="D52">
-        <v>-11.730000000001381</v>
+        <v>3.299999999999955</v>
       </c>
       <c r="E52">
-        <v>-8.224831699470414E-4</v>
+        <v>1.690106220615162E-3</v>
       </c>
       <c r="F52">
-        <v>0.19213007890668379</v>
+        <v>-0.1003371711661154</v>
       </c>
       <c r="G52">
-        <v>1.2627477784277199E-3</v>
+        <v>-1.884576738917532E-2</v>
       </c>
       <c r="H52">
-        <v>0.27295313537331189</v>
+        <v>-7.3515539604580127E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2179,22 +2179,22 @@
         <v>111</v>
       </c>
       <c r="C53">
-        <v>17534.63</v>
+        <v>6008.71</v>
       </c>
       <c r="D53">
-        <v>-14.28999999999724</v>
+        <v>-95.609999999999673</v>
       </c>
       <c r="E53">
-        <v>-8.1429512471409282E-4</v>
+        <v>-1.5662678234430679E-2</v>
       </c>
       <c r="F53">
-        <v>2.5089050461635901E-2</v>
+        <v>-3.9743343880844988E-2</v>
       </c>
       <c r="G53">
-        <v>-1.7069228693522559E-4</v>
+        <v>-2.0163849679398878E-2</v>
       </c>
       <c r="H53">
-        <v>4.5669755967493009E-2</v>
+        <v>-5.4287742651837889E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2202,25 +2202,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C54">
-        <v>26498.6</v>
+        <v>3246.35</v>
       </c>
       <c r="D54">
-        <v>-7.2700000000004366</v>
+        <v>-27.400000000000091</v>
       </c>
       <c r="E54">
-        <v>-2.7427886728492718E-4</v>
+        <v>-8.3696067201222135E-3</v>
       </c>
       <c r="F54">
-        <v>-6.1205214022863157E-2</v>
+        <v>5.4396580563648378E-2</v>
       </c>
       <c r="G54">
-        <v>-3.6711894285612612E-4</v>
+        <v>-2.0955508247561538E-2</v>
       </c>
       <c r="H54">
-        <v>-5.7643540258606192E-2</v>
+        <v>-0.1165174011709886</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2228,25 +2228,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C55">
-        <v>3273.75</v>
+        <v>787.48</v>
       </c>
       <c r="D55">
-        <v>-2.8299999999999268</v>
+        <v>-12.579999999999931</v>
       </c>
       <c r="E55">
-        <v>-8.6370544897418355E-4</v>
+        <v>-1.572382071344636E-2</v>
       </c>
       <c r="F55">
-        <v>6.3295949487961467E-2</v>
+        <v>-0.1441272049473421</v>
       </c>
       <c r="G55">
-        <v>-1.0304429106151589E-3</v>
+        <v>-2.1984248910362991E-2</v>
       </c>
       <c r="H55">
-        <v>-9.7607303578590598E-2</v>
+        <v>-6.5704405183688364E-2</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2254,25 +2254,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C56">
-        <v>2772.18</v>
+        <v>928.68</v>
       </c>
       <c r="D56">
-        <v>2.1199999999998909</v>
+        <v>-18.560000000000059</v>
       </c>
       <c r="E56">
-        <v>7.6532638282200693E-4</v>
+        <v>-1.95937671551033E-2</v>
       </c>
       <c r="F56">
-        <v>0.28635264747780798</v>
+        <v>0.41716134348628908</v>
       </c>
       <c r="G56">
-        <v>-4.5401683494737943E-3</v>
+        <v>-2.6501783010971499E-2</v>
       </c>
       <c r="H56">
-        <v>0.3731450964162446</v>
+        <v>0.50212052338843982</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2283,22 +2283,22 @@
         <v>113</v>
       </c>
       <c r="C57">
-        <v>1402.5</v>
+        <v>1422.21</v>
       </c>
       <c r="D57">
-        <v>-10.380000000000109</v>
+        <v>-4.2599999999999909</v>
       </c>
       <c r="E57">
-        <v>-7.3466961100731032E-3</v>
+        <v>-2.986392984079544E-3</v>
       </c>
       <c r="F57">
-        <v>-0.105748079191507</v>
+        <v>-0.15167403324803611</v>
       </c>
       <c r="G57">
-        <v>-7.3466961100731032E-3</v>
+        <v>-2.8856171317819371E-2</v>
       </c>
       <c r="H57">
-        <v>-0.105748079191507</v>
+        <v>-0.21132863886319311</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2309,22 +2309,22 @@
         <v>114</v>
       </c>
       <c r="C58">
-        <v>12682</v>
+        <v>117806.85</v>
       </c>
       <c r="D58">
-        <v>-237.25</v>
+        <v>-216.8199999999924</v>
       </c>
       <c r="E58">
-        <v>-1.8364069121659551E-2</v>
+        <v>-1.8370891194960941E-3</v>
       </c>
       <c r="F58">
-        <v>9.0707058892332881E-2</v>
+        <v>7.9478656019889016E-3</v>
       </c>
       <c r="G58">
-        <v>-1.090540787492522E-2</v>
+        <v>-3.2153497653490071E-2</v>
       </c>
       <c r="H58">
-        <v>0.1714375702609057</v>
+        <v>-0.2159138255409587</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2335,22 +2335,22 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>10844.58</v>
+        <v>41197.14</v>
       </c>
       <c r="D59">
-        <v>-142.80999999999949</v>
+        <v>-417.77999999999878</v>
       </c>
       <c r="E59">
-        <v>-1.2997627279999979E-2</v>
+        <v>-1.003918786819724E-2</v>
       </c>
       <c r="F59">
-        <v>-0.17922810395484329</v>
+        <v>-7.7512676124460334E-2</v>
       </c>
       <c r="G59">
-        <v>-1.316121717108765E-2</v>
+        <v>-3.6255407826121362E-2</v>
       </c>
       <c r="H59">
-        <v>-0.16191197553724659</v>
+        <v>-8.5077073054978358E-2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2361,22 +2361,22 @@
         <v>116</v>
       </c>
       <c r="C60">
-        <v>1652.49</v>
+        <v>34.61</v>
       </c>
       <c r="D60">
-        <v>-32.089999999999918</v>
+        <v>-1.18</v>
       </c>
       <c r="E60">
-        <v>-1.904925856890138E-2</v>
+        <v>-3.2970103380832623E-2</v>
       </c>
       <c r="F60">
-        <v>3.4254205888243572E-2</v>
+        <v>-0.23665637406263801</v>
       </c>
       <c r="G60">
-        <v>-1.3333329856642481E-2</v>
+        <v>-3.9120837655885587E-2</v>
       </c>
       <c r="H60">
-        <v>5.1436217313411969E-2</v>
+        <v>-0.16671193293331801</v>
       </c>
     </row>
   </sheetData>
@@ -2386,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W253"/>
+  <dimension ref="A1:W258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W253"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:W258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20357,6 +20357,361 @@
         <v>850.3</v>
       </c>
     </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B254">
+        <v>1882.8</v>
+      </c>
+      <c r="C254">
+        <v>26.379000000000001</v>
+      </c>
+      <c r="D254">
+        <v>1020</v>
+      </c>
+      <c r="E254">
+        <v>2323</v>
+      </c>
+      <c r="F254">
+        <v>47.74</v>
+      </c>
+      <c r="G254">
+        <v>50.91</v>
+      </c>
+      <c r="H254">
+        <v>2.7050000000000001</v>
+      </c>
+      <c r="I254">
+        <v>1.4774</v>
+      </c>
+      <c r="J254">
+        <v>2014</v>
+      </c>
+      <c r="K254">
+        <v>221.35</v>
+      </c>
+      <c r="L254">
+        <v>155.35</v>
+      </c>
+      <c r="M254">
+        <v>1304</v>
+      </c>
+      <c r="N254">
+        <v>3.5775000000000001</v>
+      </c>
+      <c r="O254">
+        <v>440</v>
+      </c>
+      <c r="P254">
+        <v>1247.25</v>
+      </c>
+      <c r="Q254">
+        <v>74.709999999999994</v>
+      </c>
+      <c r="R254">
+        <v>2555</v>
+      </c>
+      <c r="S254">
+        <v>124.3</v>
+      </c>
+      <c r="T254">
+        <v>14.53</v>
+      </c>
+      <c r="U254">
+        <v>110.6</v>
+      </c>
+      <c r="V254">
+        <v>65.930000000000007</v>
+      </c>
+      <c r="W254">
+        <v>882.3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B255">
+        <v>1870.3</v>
+      </c>
+      <c r="C255">
+        <v>25.535</v>
+      </c>
+      <c r="D255">
+        <v>1017.75</v>
+      </c>
+      <c r="E255">
+        <v>2323</v>
+      </c>
+      <c r="F255">
+        <v>47.02</v>
+      </c>
+      <c r="G255">
+        <v>50.08</v>
+      </c>
+      <c r="H255">
+        <v>2.78</v>
+      </c>
+      <c r="I255">
+        <v>1.4616</v>
+      </c>
+      <c r="J255">
+        <v>1994.25</v>
+      </c>
+      <c r="K255">
+        <v>217.45</v>
+      </c>
+      <c r="L255">
+        <v>155.05000000000001</v>
+      </c>
+      <c r="M255">
+        <v>1263.4000000000001</v>
+      </c>
+      <c r="N255">
+        <v>3.52</v>
+      </c>
+      <c r="O255">
+        <v>443.5</v>
+      </c>
+      <c r="P255">
+        <v>1251.5</v>
+      </c>
+      <c r="Q255">
+        <v>74.790000000000006</v>
+      </c>
+      <c r="R255">
+        <v>2535</v>
+      </c>
+      <c r="S255">
+        <v>124.2</v>
+      </c>
+      <c r="T255">
+        <v>14.54</v>
+      </c>
+      <c r="U255">
+        <v>110.325</v>
+      </c>
+      <c r="V255">
+        <v>66.03</v>
+      </c>
+      <c r="W255">
+        <v>884.6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B256">
+        <v>1878.1</v>
+      </c>
+      <c r="C256">
+        <v>25.920999999999999</v>
+      </c>
+      <c r="D256">
+        <v>1024.5999999999999</v>
+      </c>
+      <c r="E256">
+        <v>2332</v>
+      </c>
+      <c r="F256">
+        <v>48.12</v>
+      </c>
+      <c r="G256">
+        <v>51.2</v>
+      </c>
+      <c r="H256">
+        <v>2.6080000000000001</v>
+      </c>
+      <c r="I256">
+        <v>1.4975000000000001</v>
+      </c>
+      <c r="J256">
+        <v>2003.15</v>
+      </c>
+      <c r="K256">
+        <v>219.75</v>
+      </c>
+      <c r="L256">
+        <v>155.05000000000001</v>
+      </c>
+      <c r="M256">
+        <v>1285.8</v>
+      </c>
+      <c r="N256">
+        <v>3.556</v>
+      </c>
+      <c r="O256">
+        <v>447.25</v>
+      </c>
+      <c r="P256">
+        <v>1261.25</v>
+      </c>
+      <c r="Q256">
+        <v>76.069999999999993</v>
+      </c>
+      <c r="R256">
+        <v>2557</v>
+      </c>
+      <c r="S256">
+        <v>124.55</v>
+      </c>
+      <c r="T256">
+        <v>14.83</v>
+      </c>
+      <c r="U256">
+        <v>111.925</v>
+      </c>
+      <c r="V256">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="W256">
+        <v>869.2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B257">
+        <v>1883.2</v>
+      </c>
+      <c r="C257">
+        <v>25.908000000000001</v>
+      </c>
+      <c r="D257">
+        <v>1032.9000000000001</v>
+      </c>
+      <c r="E257">
+        <v>2345.5</v>
+      </c>
+      <c r="F257">
+        <v>48.23</v>
+      </c>
+      <c r="G257">
+        <v>51.29</v>
+      </c>
+      <c r="H257">
+        <v>2.5179999999999998</v>
+      </c>
+      <c r="I257">
+        <v>1.49</v>
+      </c>
+      <c r="J257">
+        <v>2026.75</v>
+      </c>
+      <c r="K257">
+        <v>220.4</v>
+      </c>
+      <c r="L257">
+        <v>153.55000000000001</v>
+      </c>
+      <c r="M257">
+        <v>1297</v>
+      </c>
+      <c r="N257">
+        <v>3.5625</v>
+      </c>
+      <c r="O257">
+        <v>451</v>
+      </c>
+      <c r="P257">
+        <v>1264.4000000000001</v>
+      </c>
+      <c r="Q257">
+        <v>76.17</v>
+      </c>
+      <c r="R257">
+        <v>2593</v>
+      </c>
+      <c r="S257">
+        <v>125.95</v>
+      </c>
+      <c r="T257">
+        <v>14.9</v>
+      </c>
+      <c r="U257">
+        <v>112.15</v>
+      </c>
+      <c r="V257">
+        <v>66.95</v>
+      </c>
+      <c r="W257">
+        <v>884.4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B258">
+        <v>1883.2</v>
+      </c>
+      <c r="C258">
+        <v>25.908000000000001</v>
+      </c>
+      <c r="D258">
+        <v>1032.9000000000001</v>
+      </c>
+      <c r="E258">
+        <v>2345.5</v>
+      </c>
+      <c r="F258">
+        <v>48.23</v>
+      </c>
+      <c r="G258">
+        <v>51.29</v>
+      </c>
+      <c r="H258">
+        <v>2.5179999999999998</v>
+      </c>
+      <c r="I258">
+        <v>1.49</v>
+      </c>
+      <c r="J258">
+        <v>2026.75</v>
+      </c>
+      <c r="K258">
+        <v>220.4</v>
+      </c>
+      <c r="L258">
+        <v>153.55000000000001</v>
+      </c>
+      <c r="M258">
+        <v>1297</v>
+      </c>
+      <c r="N258">
+        <v>3.5625</v>
+      </c>
+      <c r="O258">
+        <v>451</v>
+      </c>
+      <c r="P258">
+        <v>1264.4000000000001</v>
+      </c>
+      <c r="Q258">
+        <v>76.17</v>
+      </c>
+      <c r="R258">
+        <v>2593</v>
+      </c>
+      <c r="S258">
+        <v>125.95</v>
+      </c>
+      <c r="T258">
+        <v>14.9</v>
+      </c>
+      <c r="U258">
+        <v>114.96</v>
+      </c>
+      <c r="V258">
+        <v>66.94</v>
+      </c>
+      <c r="W258">
+        <v>884.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
